--- a/controller/src/main/resources/jxls_templates/jingwaijingsuanshu.xlsx
+++ b/controller/src/main/resources/jxls_templates/jingwaijingsuanshu.xlsx
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="0" shapeId="0">
+    <comment ref="C26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O26" authorId="0" shapeId="0">
+    <comment ref="P26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -951,20 +951,20 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>${rmbflg}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>${traflg}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>${sumrmb}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>${eve.balance}</t>
     <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>${rmbflg}</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>${traflg}</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>${sumrmb}</t>
-    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1188,7 +1188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -1846,6 +1846,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1858,7 +1867,7 @@
     <xf numFmtId="6" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2047,9 +2056,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2066,6 +2072,31 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2255,49 +2286,34 @@
     <xf numFmtId="179" fontId="12" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="12" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2426,11 +2442,8 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2843,7 +2856,7 @@
   <dimension ref="A1:AE96"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2854,7 +2867,7 @@
     <col min="4" max="4" width="8.125" style="55" customWidth="1"/>
     <col min="5" max="5" width="3.75" style="55" customWidth="1"/>
     <col min="6" max="6" width="2.375" style="55" customWidth="1"/>
-    <col min="7" max="7" width="1.625" style="55" customWidth="1"/>
+    <col min="7" max="7" width="1.125" style="55" customWidth="1"/>
     <col min="8" max="8" width="2.875" style="55" customWidth="1"/>
     <col min="9" max="9" width="9.625" style="55" customWidth="1"/>
     <col min="10" max="10" width="6.625" style="55" customWidth="1"/>
@@ -2862,10 +2875,10 @@
     <col min="12" max="12" width="7.125" style="55" customWidth="1"/>
     <col min="13" max="13" width="5.875" style="55" customWidth="1"/>
     <col min="14" max="14" width="6.125" style="55" customWidth="1"/>
-    <col min="15" max="15" width="1.375" style="55" customWidth="1"/>
-    <col min="16" max="16" width="5.75" style="55" customWidth="1"/>
+    <col min="15" max="15" width="4.375" style="55" customWidth="1"/>
+    <col min="16" max="16" width="4.5" style="55" customWidth="1"/>
     <col min="17" max="17" width="7" style="55" customWidth="1"/>
-    <col min="18" max="18" width="4.25" style="55" customWidth="1"/>
+    <col min="18" max="18" width="2.625" style="55" customWidth="1"/>
     <col min="19" max="19" width="8" style="55" customWidth="1"/>
     <col min="20" max="20" width="2.75" style="55" customWidth="1"/>
     <col min="21" max="32" width="9" style="55" customWidth="1"/>
@@ -2874,149 +2887,149 @@
   <sheetData>
     <row r="1" spans="1:19"/>
     <row r="2" spans="1:19" ht="32.25" customHeight="1">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="27.95" customHeight="1">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="83" t="s">
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="91" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="J3" s="84" t="s">
+      <c r="J3" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="K3" s="84"/>
-      <c r="L3" s="82" t="s">
+      <c r="K3" s="92"/>
+      <c r="L3" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="85" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
     </row>
     <row r="4" spans="1:19" ht="27.95" customHeight="1">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="83" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="82" t="s">
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="M4" s="82"/>
-      <c r="N4" s="86" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="94" t="s">
         <v>143</v>
       </c>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
       <c r="Q4" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="95" t="s">
         <v>144</v>
       </c>
-      <c r="S4" s="87"/>
+      <c r="S4" s="95"/>
     </row>
     <row r="5" spans="1:19" ht="27.95" customHeight="1">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="171" t="s">
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="174" t="s">
         <v>140</v>
       </c>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="82" t="s">
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="170" t="e">
+      <c r="M5" s="90"/>
+      <c r="N5" s="173" t="e">
         <f>RIGHT(R4,10)-LEFT(N4,10)+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O5" s="170"/>
-      <c r="P5" s="170"/>
-      <c r="Q5" s="91" t="s">
+      <c r="O5" s="173"/>
+      <c r="P5" s="173"/>
+      <c r="Q5" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="91"/>
-      <c r="S5" s="71"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="25.5" customHeight="1">
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="159" t="s">
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="162" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="160"/>
-      <c r="K6" s="160"/>
-      <c r="L6" s="82" t="s">
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="M6" s="82"/>
-      <c r="N6" s="161" t="s">
+      <c r="M6" s="90"/>
+      <c r="N6" s="164" t="s">
         <v>145</v>
       </c>
-      <c r="O6" s="161"/>
-      <c r="P6" s="161"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
+      <c r="O6" s="164"/>
+      <c r="P6" s="164"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="13.5" customHeight="1">
       <c r="B7" s="58"/>
@@ -3049,18 +3062,18 @@
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
       <c r="K8" s="59"/>
-      <c r="L8" s="162" t="s">
+      <c r="L8" s="165" t="s">
         <v>103</v>
       </c>
-      <c r="M8" s="163"/>
-      <c r="N8" s="164"/>
-      <c r="O8" s="165" t="s">
+      <c r="M8" s="166"/>
+      <c r="N8" s="167"/>
+      <c r="O8" s="168" t="s">
         <v>104</v>
       </c>
-      <c r="P8" s="163"/>
-      <c r="Q8" s="163"/>
-      <c r="R8" s="163"/>
-      <c r="S8" s="166"/>
+      <c r="P8" s="166"/>
+      <c r="Q8" s="166"/>
+      <c r="R8" s="166"/>
+      <c r="S8" s="169"/>
     </row>
     <row r="9" spans="1:19" ht="17.25" customHeight="1">
       <c r="B9" s="58"/>
@@ -3073,76 +3086,76 @@
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9" s="59"/>
-      <c r="L9" s="151" t="s">
+      <c r="L9" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="152"/>
-      <c r="N9" s="153"/>
-      <c r="O9" s="154"/>
-      <c r="P9" s="152"/>
-      <c r="Q9" s="152"/>
-      <c r="R9" s="152"/>
-      <c r="S9" s="155"/>
+      <c r="M9" s="155"/>
+      <c r="N9" s="156"/>
+      <c r="O9" s="157"/>
+      <c r="P9" s="155"/>
+      <c r="Q9" s="155"/>
+      <c r="R9" s="155"/>
+      <c r="S9" s="158"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1">
-      <c r="B10" s="142"/>
-      <c r="C10" s="142"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="142"/>
-      <c r="K10" s="142"/>
-      <c r="L10" s="142"/>
-      <c r="M10" s="142"/>
-      <c r="N10" s="142"/>
-      <c r="O10" s="142"/>
-      <c r="P10" s="142"/>
-      <c r="Q10" s="142"/>
-      <c r="R10" s="142"/>
-      <c r="S10" s="142"/>
+      <c r="B10" s="148"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="148"/>
+      <c r="K10" s="148"/>
+      <c r="L10" s="148"/>
+      <c r="M10" s="148"/>
+      <c r="N10" s="148"/>
+      <c r="O10" s="148"/>
+      <c r="P10" s="148"/>
+      <c r="Q10" s="148"/>
+      <c r="R10" s="148"/>
+      <c r="S10" s="148"/>
     </row>
     <row r="11" spans="1:19" ht="24.95" customHeight="1">
-      <c r="B11" s="156" t="s">
+      <c r="B11" s="159" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="157"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="167" t="s">
+      <c r="C11" s="160"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="170" t="s">
         <v>147</v>
       </c>
-      <c r="J11" s="168"/>
-      <c r="K11" s="169"/>
-      <c r="L11" s="158"/>
-      <c r="M11" s="158"/>
-      <c r="N11" s="158"/>
-      <c r="O11" s="158"/>
-      <c r="P11" s="158"/>
-      <c r="Q11" s="158"/>
-      <c r="R11" s="158"/>
-      <c r="S11" s="158"/>
+      <c r="J11" s="171"/>
+      <c r="K11" s="172"/>
+      <c r="L11" s="161"/>
+      <c r="M11" s="161"/>
+      <c r="N11" s="161"/>
+      <c r="O11" s="161"/>
+      <c r="P11" s="161"/>
+      <c r="Q11" s="161"/>
+      <c r="R11" s="161"/>
+      <c r="S11" s="161"/>
     </row>
     <row r="12" spans="1:19" ht="24.95" customHeight="1">
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="78" t="s">
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="J12" s="79"/>
-      <c r="K12" s="80"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="88"/>
       <c r="L12" s="61"/>
       <c r="M12" s="61"/>
       <c r="N12" s="61"/>
@@ -3153,254 +3166,254 @@
       <c r="S12" s="61"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="92"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="100"/>
+      <c r="Q13" s="100"/>
+      <c r="R13" s="100"/>
+      <c r="S13" s="100"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="95" t="s">
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="J14" s="90"/>
-      <c r="K14" s="95" t="s">
+      <c r="J14" s="98"/>
+      <c r="K14" s="103" t="s">
         <v>150</v>
       </c>
-      <c r="L14" s="89"/>
-      <c r="M14" s="95" t="s">
+      <c r="L14" s="97"/>
+      <c r="M14" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="95" t="s">
+      <c r="N14" s="97"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="103" t="s">
         <v>152</v>
       </c>
-      <c r="R14" s="89"/>
-      <c r="S14" s="89"/>
+      <c r="R14" s="97"/>
+      <c r="S14" s="192"/>
     </row>
     <row r="15" spans="1:19" ht="24.95" customHeight="1">
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="101" t="s">
         <v>153</v>
       </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="101" t="s">
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="109" t="s">
         <v>154</v>
       </c>
-      <c r="J15" s="102"/>
-      <c r="K15" s="103" t="s">
+      <c r="J15" s="110"/>
+      <c r="K15" s="111" t="s">
         <v>155</v>
       </c>
-      <c r="L15" s="104"/>
-      <c r="M15" s="105" t="s">
+      <c r="L15" s="112"/>
+      <c r="M15" s="113" t="s">
         <v>156</v>
       </c>
-      <c r="N15" s="106"/>
-      <c r="O15" s="106"/>
-      <c r="P15" s="107"/>
-      <c r="Q15" s="108" t="s">
+      <c r="N15" s="114"/>
+      <c r="O15" s="114"/>
+      <c r="P15" s="115"/>
+      <c r="Q15" s="116" t="s">
         <v>157</v>
       </c>
-      <c r="R15" s="108"/>
-      <c r="S15" s="109"/>
+      <c r="R15" s="116"/>
+      <c r="S15" s="117"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="71"/>
     </row>
     <row r="17" spans="2:31" ht="18" customHeight="1">
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130" t="s">
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138" t="s">
         <v>161</v>
       </c>
-      <c r="J17" s="130"/>
-      <c r="K17" s="99" t="s">
+      <c r="J17" s="138"/>
+      <c r="K17" s="107" t="s">
         <v>162</v>
       </c>
-      <c r="L17" s="99" t="s">
+      <c r="L17" s="107" t="s">
         <v>160</v>
       </c>
-      <c r="M17" s="100"/>
-      <c r="N17" s="113" t="s">
+      <c r="M17" s="108"/>
+      <c r="N17" s="121" t="s">
         <v>163</v>
       </c>
-      <c r="O17" s="114"/>
-      <c r="P17" s="113" t="s">
+      <c r="O17" s="122"/>
+      <c r="P17" s="121" t="s">
         <v>159</v>
       </c>
-      <c r="Q17" s="114"/>
-      <c r="R17" s="99" t="s">
+      <c r="Q17" s="122"/>
+      <c r="R17" s="107" t="s">
         <v>158</v>
       </c>
-      <c r="S17" s="110"/>
+      <c r="S17" s="118"/>
     </row>
     <row r="18" spans="2:31" ht="15.75" customHeight="1">
-      <c r="B18" s="93"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="111"/>
-      <c r="L18" s="111"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="115"/>
-      <c r="O18" s="116"/>
-      <c r="P18" s="115"/>
-      <c r="Q18" s="116"/>
-      <c r="R18" s="111"/>
-      <c r="S18" s="112"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="119"/>
+      <c r="M18" s="133"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="124"/>
+      <c r="P18" s="123"/>
+      <c r="Q18" s="124"/>
+      <c r="R18" s="119"/>
+      <c r="S18" s="120"/>
     </row>
     <row r="19" spans="2:31" ht="29.25" customHeight="1">
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="98" t="s">
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="106" t="s">
         <v>173</v>
       </c>
-      <c r="J19" s="98"/>
-      <c r="K19" s="189" t="s">
+      <c r="J19" s="106"/>
+      <c r="K19" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="L19" s="99" t="s">
+      <c r="L19" s="107" t="s">
         <v>166</v>
       </c>
-      <c r="M19" s="100"/>
-      <c r="N19" s="126" t="s">
+      <c r="M19" s="108"/>
+      <c r="N19" s="134" t="s">
         <v>177</v>
       </c>
-      <c r="O19" s="127"/>
-      <c r="P19" s="126" t="s">
+      <c r="O19" s="135"/>
+      <c r="P19" s="134" t="s">
         <v>176</v>
       </c>
-      <c r="Q19" s="127"/>
-      <c r="R19" s="126" t="s">
+      <c r="Q19" s="135"/>
+      <c r="R19" s="134" t="s">
         <v>175</v>
       </c>
-      <c r="S19" s="128"/>
+      <c r="S19" s="136"/>
     </row>
     <row r="20" spans="2:31" ht="29.25" customHeight="1">
-      <c r="B20" s="117" t="s">
+      <c r="B20" s="125" t="s">
         <v>165</v>
       </c>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119" t="s">
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="127" t="s">
         <v>167</v>
       </c>
-      <c r="J20" s="119"/>
-      <c r="K20" s="190" t="s">
+      <c r="J20" s="127"/>
+      <c r="K20" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="L20" s="120" t="s">
+      <c r="L20" s="128" t="s">
         <v>169</v>
       </c>
-      <c r="M20" s="121"/>
-      <c r="N20" s="122" t="s">
+      <c r="M20" s="129"/>
+      <c r="N20" s="130" t="s">
         <v>178</v>
       </c>
-      <c r="O20" s="123"/>
-      <c r="P20" s="122" t="s">
+      <c r="O20" s="131"/>
+      <c r="P20" s="130" t="s">
         <v>170</v>
       </c>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="122" t="s">
+      <c r="Q20" s="131"/>
+      <c r="R20" s="130" t="s">
         <v>171</v>
       </c>
-      <c r="S20" s="124"/>
+      <c r="S20" s="132"/>
     </row>
     <row r="21" spans="2:31" ht="24" customHeight="1">
-      <c r="B21" s="132" t="s">
+      <c r="B21" s="140" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="139"/>
-      <c r="M21" s="141"/>
-      <c r="N21" s="134" t="s">
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="146"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="142" t="s">
+        <v>180</v>
+      </c>
+      <c r="O21" s="143"/>
+      <c r="P21" s="142" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q21" s="144"/>
+      <c r="R21" s="142" t="s">
         <v>181</v>
       </c>
-      <c r="O21" s="135"/>
-      <c r="P21" s="134" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q21" s="136"/>
-      <c r="R21" s="134" t="s">
-        <v>182</v>
-      </c>
-      <c r="S21" s="136"/>
+      <c r="S21" s="145"/>
     </row>
     <row r="22" spans="2:31" ht="9.75" customHeight="1">
       <c r="B22" s="33"/>
@@ -3423,38 +3436,38 @@
       <c r="S22" s="65"/>
     </row>
     <row r="23" spans="2:31" ht="24" customHeight="1">
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="75" t="s">
-        <v>179</v>
-      </c>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="76"/>
-      <c r="S23" s="77"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="83" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="84"/>
+      <c r="S23" s="85"/>
     </row>
     <row r="24" spans="2:31" ht="23.25" customHeight="1">
-      <c r="B24" s="89"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
+      <c r="B24" s="150"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="97"/>
       <c r="J24" s="66"/>
       <c r="K24" s="66"/>
       <c r="L24" s="66"/>
@@ -3469,54 +3482,53 @@
       <c r="S24" s="66"/>
     </row>
     <row r="25" spans="2:31" ht="20.100000000000001" customHeight="1">
-      <c r="B25" s="145" t="s">
+      <c r="B25" s="77"/>
+      <c r="C25" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="146"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="148" t="s">
+      <c r="D25" s="81"/>
+      <c r="E25" s="151" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="67" t="s">
+      <c r="F25" s="152"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="142"/>
-      <c r="N25" s="142"/>
-      <c r="O25" s="145" t="s">
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="148"/>
+      <c r="N25" s="148"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="P25" s="146"/>
-      <c r="Q25" s="147"/>
-      <c r="R25" s="149" t="s">
+      <c r="Q25" s="81"/>
+      <c r="R25" s="151" t="s">
         <v>60</v>
       </c>
-      <c r="S25" s="150"/>
-    </row>
-    <row r="26" spans="2:31" ht="39" customHeight="1">
-      <c r="B26" s="137"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="141"/>
-      <c r="I26" s="69"/>
+      <c r="S25" s="153"/>
+    </row>
+    <row r="26" spans="2:31" ht="48.75" customHeight="1">
+      <c r="C26" s="78"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="68"/>
       <c r="J26" s="66"/>
       <c r="K26" s="66"/>
       <c r="L26" s="66"/>
-      <c r="M26" s="142"/>
-      <c r="N26" s="142"/>
-      <c r="O26" s="143"/>
-      <c r="P26" s="140"/>
-      <c r="Q26" s="141"/>
-      <c r="R26" s="138"/>
-      <c r="S26" s="144"/>
+      <c r="M26" s="148"/>
+      <c r="N26" s="148"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="146"/>
+      <c r="S26" s="149"/>
     </row>
     <row r="27" spans="2:31" ht="15.95" customHeight="1">
       <c r="T27" s="59"/>
@@ -3533,25 +3545,25 @@
       <c r="AE27" s="59"/>
     </row>
     <row r="28" spans="2:31" ht="15.95" customHeight="1">
-      <c r="C28" s="74" t="s">
+      <c r="C28" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="74"/>
-      <c r="O28" s="74"/>
-      <c r="P28" s="74"/>
-      <c r="Q28" s="74"/>
-      <c r="R28" s="74"/>
-      <c r="S28" s="74"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="82"/>
+      <c r="R28" s="82"/>
+      <c r="S28" s="82"/>
       <c r="T28" s="59"/>
       <c r="U28" s="59"/>
       <c r="V28" s="59"/>
@@ -3566,25 +3578,25 @@
       <c r="AE28" s="59"/>
     </row>
     <row r="29" spans="2:31" ht="15.95" customHeight="1">
-      <c r="C29" s="74" t="s">
+      <c r="C29" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="74"/>
-      <c r="O29" s="74"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="74"/>
-      <c r="R29" s="74"/>
-      <c r="S29" s="74"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="82"/>
+      <c r="R29" s="82"/>
+      <c r="S29" s="82"/>
       <c r="T29" s="59"/>
       <c r="U29" s="59"/>
       <c r="V29" s="59"/>
@@ -3599,25 +3611,25 @@
       <c r="AE29" s="59"/>
     </row>
     <row r="30" spans="2:31" ht="15.95" customHeight="1">
-      <c r="C30" s="74" t="s">
+      <c r="C30" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="74"/>
-      <c r="O30" s="74"/>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="74"/>
-      <c r="S30" s="74"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="82"/>
+      <c r="Q30" s="82"/>
+      <c r="R30" s="82"/>
+      <c r="S30" s="82"/>
       <c r="T30" s="59"/>
       <c r="U30" s="59"/>
       <c r="V30" s="59"/>
@@ -3635,14 +3647,14 @@
       <c r="C31" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="70"/>
-      <c r="O31" s="70"/>
-      <c r="P31" s="70"/>
-      <c r="Q31" s="70"/>
-      <c r="R31" s="70"/>
-      <c r="S31" s="70"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="69"/>
+      <c r="R31" s="69"/>
+      <c r="S31" s="69"/>
       <c r="T31" s="34"/>
       <c r="U31" s="59"/>
       <c r="V31" s="59"/>
@@ -3657,14 +3669,14 @@
       <c r="AE31" s="59"/>
     </row>
     <row r="32" spans="2:31" ht="15.95" customHeight="1">
-      <c r="L32" s="70"/>
-      <c r="M32" s="70"/>
-      <c r="N32" s="70"/>
-      <c r="O32" s="70"/>
-      <c r="P32" s="70"/>
-      <c r="Q32" s="70"/>
-      <c r="R32" s="70"/>
-      <c r="S32" s="70"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="69"/>
+      <c r="Q32" s="69"/>
+      <c r="R32" s="69"/>
+      <c r="S32" s="69"/>
       <c r="T32" s="34"/>
       <c r="U32" s="59"/>
       <c r="V32" s="59"/>
@@ -3679,14 +3691,14 @@
       <c r="AE32" s="59"/>
     </row>
     <row r="33" spans="12:31" ht="15.95" customHeight="1">
-      <c r="L33" s="70"/>
-      <c r="M33" s="70"/>
-      <c r="N33" s="70"/>
-      <c r="O33" s="70"/>
-      <c r="P33" s="70"/>
-      <c r="Q33" s="70"/>
-      <c r="R33" s="70"/>
-      <c r="S33" s="70"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="69"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="69"/>
+      <c r="Q33" s="69"/>
+      <c r="R33" s="69"/>
+      <c r="S33" s="69"/>
       <c r="T33" s="34"/>
       <c r="U33" s="59"/>
       <c r="V33" s="59"/>
@@ -3875,18 +3887,14 @@
     <mergeCell ref="E5:K5"/>
     <mergeCell ref="C30:S30"/>
     <mergeCell ref="I17:J18"/>
-    <mergeCell ref="B26:D26"/>
     <mergeCell ref="E26:H26"/>
     <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:Q26"/>
     <mergeCell ref="R26:S26"/>
     <mergeCell ref="C28:S28"/>
     <mergeCell ref="B23:H23"/>
     <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:H25"/>
     <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:Q25"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="R25:S25"/>
     <mergeCell ref="I21:J21"/>
@@ -3917,13 +3925,11 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="M15:P15"/>
-    <mergeCell ref="B13:S13"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="M14:P14"/>
     <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="C29:S29"/>
     <mergeCell ref="I23:S23"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="B2:S2"/>
@@ -3939,6 +3945,12 @@
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="B13:S13"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C29:S29"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations disablePrompts="1" count="2">
@@ -3950,7 +3962,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.43307086614173229" bottom="0.59055118110236227" header="0.23622047244094491" footer="0.70866141732283472"/>
-  <pageSetup paperSize="9" scale="93" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="94" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;R&amp;10松下电器軟件开发（大連）有限公司</oddFooter>
   </headerFooter>
@@ -4490,53 +4502,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="28.5" customHeight="1">
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="179" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="179"/>
+      <c r="H1" s="179"/>
     </row>
     <row r="2" spans="2:8" ht="16.7" customHeight="1">
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="188" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="185" t="s">
+      <c r="D2" s="188" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185" t="s">
+      <c r="E2" s="188"/>
+      <c r="F2" s="188" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="185"/>
-      <c r="H2" s="187" t="s">
+      <c r="G2" s="188"/>
+      <c r="H2" s="190" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="16.7" customHeight="1">
-      <c r="B3" s="184"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
       <c r="F3" s="36" t="s">
         <v>134</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="188"/>
+      <c r="H3" s="191"/>
     </row>
     <row r="4" spans="2:8" ht="23.25" customHeight="1">
       <c r="B4" s="39"/>
       <c r="C4" s="40"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="178"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="181"/>
       <c r="F4" s="21" t="s">
         <v>135</v>
       </c>
@@ -4546,8 +4558,8 @@
     <row r="5" spans="2:8" ht="23.25" customHeight="1">
       <c r="B5" s="43"/>
       <c r="C5" s="44"/>
-      <c r="D5" s="179"/>
-      <c r="E5" s="180"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="183"/>
       <c r="F5" s="45"/>
       <c r="G5" s="45"/>
       <c r="H5" s="46"/>
@@ -4555,8 +4567,8 @@
     <row r="6" spans="2:8" ht="23.25" customHeight="1">
       <c r="B6" s="43"/>
       <c r="C6" s="44"/>
-      <c r="D6" s="181"/>
-      <c r="E6" s="182"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="185"/>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
       <c r="H6" s="48"/>
@@ -4564,8 +4576,8 @@
     <row r="7" spans="2:8" ht="23.25" customHeight="1">
       <c r="B7" s="43"/>
       <c r="C7" s="49"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="172"/>
+      <c r="D7" s="175"/>
+      <c r="E7" s="175"/>
       <c r="F7" s="45"/>
       <c r="G7" s="45"/>
       <c r="H7" s="50"/>
@@ -4573,8 +4585,8 @@
     <row r="8" spans="2:8" ht="23.25" customHeight="1">
       <c r="B8" s="43"/>
       <c r="C8" s="49"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="172"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
       <c r="F8" s="45"/>
       <c r="G8" s="45"/>
       <c r="H8" s="50"/>
@@ -4582,8 +4594,8 @@
     <row r="9" spans="2:8" ht="23.25" customHeight="1">
       <c r="B9" s="43"/>
       <c r="C9" s="49"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="175"/>
       <c r="F9" s="45"/>
       <c r="G9" s="45"/>
       <c r="H9" s="50"/>
@@ -4591,8 +4603,8 @@
     <row r="10" spans="2:8" ht="23.25" customHeight="1">
       <c r="B10" s="43"/>
       <c r="C10" s="49"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="172"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="175"/>
       <c r="F10" s="45"/>
       <c r="G10" s="45"/>
       <c r="H10" s="50"/>
@@ -4600,8 +4612,8 @@
     <row r="11" spans="2:8" ht="23.25" customHeight="1">
       <c r="B11" s="43"/>
       <c r="C11" s="49"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="172"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="175"/>
       <c r="F11" s="45"/>
       <c r="G11" s="45"/>
       <c r="H11" s="50"/>
@@ -4609,8 +4621,8 @@
     <row r="12" spans="2:8" ht="23.25" customHeight="1">
       <c r="B12" s="43"/>
       <c r="C12" s="49"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="172"/>
+      <c r="D12" s="175"/>
+      <c r="E12" s="175"/>
       <c r="F12" s="45"/>
       <c r="G12" s="45"/>
       <c r="H12" s="50"/>
@@ -4618,8 +4630,8 @@
     <row r="13" spans="2:8" ht="23.25" customHeight="1">
       <c r="B13" s="43"/>
       <c r="C13" s="49"/>
-      <c r="D13" s="172"/>
-      <c r="E13" s="172"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="175"/>
       <c r="F13" s="45"/>
       <c r="G13" s="45"/>
       <c r="H13" s="50"/>
@@ -4627,8 +4639,8 @@
     <row r="14" spans="2:8" ht="23.25" customHeight="1">
       <c r="B14" s="43"/>
       <c r="C14" s="49"/>
-      <c r="D14" s="172"/>
-      <c r="E14" s="172"/>
+      <c r="D14" s="175"/>
+      <c r="E14" s="175"/>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
       <c r="H14" s="50"/>
@@ -4636,8 +4648,8 @@
     <row r="15" spans="2:8" ht="23.25" customHeight="1">
       <c r="B15" s="43"/>
       <c r="C15" s="49"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="172"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
       <c r="F15" s="45"/>
       <c r="G15" s="45"/>
       <c r="H15" s="50"/>
@@ -4645,8 +4657,8 @@
     <row r="16" spans="2:8" ht="23.25" customHeight="1">
       <c r="B16" s="43"/>
       <c r="C16" s="49"/>
-      <c r="D16" s="172"/>
-      <c r="E16" s="172"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="175"/>
       <c r="F16" s="45"/>
       <c r="G16" s="45"/>
       <c r="H16" s="50"/>
@@ -4654,8 +4666,8 @@
     <row r="17" spans="2:8" ht="23.25" customHeight="1">
       <c r="B17" s="43"/>
       <c r="C17" s="49"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
+      <c r="D17" s="175"/>
+      <c r="E17" s="175"/>
       <c r="F17" s="45"/>
       <c r="G17" s="45"/>
       <c r="H17" s="50"/>
@@ -4663,8 +4675,8 @@
     <row r="18" spans="2:8" ht="23.25" customHeight="1">
       <c r="B18" s="43"/>
       <c r="C18" s="49"/>
-      <c r="D18" s="172"/>
-      <c r="E18" s="172"/>
+      <c r="D18" s="175"/>
+      <c r="E18" s="175"/>
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="50"/>
@@ -4672,8 +4684,8 @@
     <row r="19" spans="2:8" ht="23.25" customHeight="1">
       <c r="B19" s="43"/>
       <c r="C19" s="49"/>
-      <c r="D19" s="172"/>
-      <c r="E19" s="172"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="175"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="50"/>
@@ -4681,8 +4693,8 @@
     <row r="20" spans="2:8" ht="23.25" customHeight="1">
       <c r="B20" s="43"/>
       <c r="C20" s="49"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="175"/>
       <c r="F20" s="45"/>
       <c r="G20" s="45"/>
       <c r="H20" s="50"/>
@@ -4690,8 +4702,8 @@
     <row r="21" spans="2:8" ht="23.25" customHeight="1">
       <c r="B21" s="43"/>
       <c r="C21" s="49"/>
-      <c r="D21" s="172"/>
-      <c r="E21" s="172"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="175"/>
       <c r="F21" s="45"/>
       <c r="G21" s="45"/>
       <c r="H21" s="50"/>
@@ -4699,8 +4711,8 @@
     <row r="22" spans="2:8" ht="23.25" customHeight="1">
       <c r="B22" s="43"/>
       <c r="C22" s="49"/>
-      <c r="D22" s="172"/>
-      <c r="E22" s="172"/>
+      <c r="D22" s="175"/>
+      <c r="E22" s="175"/>
       <c r="F22" s="45"/>
       <c r="G22" s="45"/>
       <c r="H22" s="50"/>
@@ -4708,8 +4720,8 @@
     <row r="23" spans="2:8" ht="23.25" customHeight="1">
       <c r="B23" s="43"/>
       <c r="C23" s="49"/>
-      <c r="D23" s="172"/>
-      <c r="E23" s="172"/>
+      <c r="D23" s="175"/>
+      <c r="E23" s="175"/>
       <c r="F23" s="45"/>
       <c r="G23" s="45"/>
       <c r="H23" s="50"/>
@@ -4717,8 +4729,8 @@
     <row r="24" spans="2:8" ht="23.25" customHeight="1">
       <c r="B24" s="43"/>
       <c r="C24" s="49"/>
-      <c r="D24" s="172"/>
-      <c r="E24" s="172"/>
+      <c r="D24" s="175"/>
+      <c r="E24" s="175"/>
       <c r="F24" s="45"/>
       <c r="G24" s="45"/>
       <c r="H24" s="50"/>
@@ -4726,8 +4738,8 @@
     <row r="25" spans="2:8" ht="23.25" customHeight="1">
       <c r="B25" s="43"/>
       <c r="C25" s="49"/>
-      <c r="D25" s="172"/>
-      <c r="E25" s="172"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="175"/>
       <c r="F25" s="45"/>
       <c r="G25" s="45"/>
       <c r="H25" s="50"/>
@@ -4735,8 +4747,8 @@
     <row r="26" spans="2:8" ht="23.25" customHeight="1">
       <c r="B26" s="43"/>
       <c r="C26" s="49"/>
-      <c r="D26" s="172"/>
-      <c r="E26" s="172"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="175"/>
       <c r="F26" s="45"/>
       <c r="G26" s="45"/>
       <c r="H26" s="50"/>
@@ -4744,8 +4756,8 @@
     <row r="27" spans="2:8" ht="23.25" customHeight="1">
       <c r="B27" s="43"/>
       <c r="C27" s="49"/>
-      <c r="D27" s="172"/>
-      <c r="E27" s="172"/>
+      <c r="D27" s="175"/>
+      <c r="E27" s="175"/>
       <c r="F27" s="45"/>
       <c r="G27" s="45"/>
       <c r="H27" s="50"/>
@@ -4753,8 +4765,8 @@
     <row r="28" spans="2:8" ht="23.25" customHeight="1">
       <c r="B28" s="43"/>
       <c r="C28" s="49"/>
-      <c r="D28" s="172"/>
-      <c r="E28" s="172"/>
+      <c r="D28" s="175"/>
+      <c r="E28" s="175"/>
       <c r="F28" s="45"/>
       <c r="G28" s="45"/>
       <c r="H28" s="50"/>
@@ -4762,8 +4774,8 @@
     <row r="29" spans="2:8" ht="23.25" customHeight="1">
       <c r="B29" s="43"/>
       <c r="C29" s="49"/>
-      <c r="D29" s="172"/>
-      <c r="E29" s="172"/>
+      <c r="D29" s="175"/>
+      <c r="E29" s="175"/>
       <c r="F29" s="45"/>
       <c r="G29" s="45"/>
       <c r="H29" s="50"/>
@@ -4771,8 +4783,8 @@
     <row r="30" spans="2:8" ht="23.25" customHeight="1">
       <c r="B30" s="43"/>
       <c r="C30" s="49"/>
-      <c r="D30" s="172"/>
-      <c r="E30" s="172"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="175"/>
       <c r="F30" s="45"/>
       <c r="G30" s="45"/>
       <c r="H30" s="50"/>
@@ -4780,8 +4792,8 @@
     <row r="31" spans="2:8" ht="23.25" customHeight="1">
       <c r="B31" s="43"/>
       <c r="C31" s="49"/>
-      <c r="D31" s="172"/>
-      <c r="E31" s="172"/>
+      <c r="D31" s="175"/>
+      <c r="E31" s="175"/>
       <c r="F31" s="45"/>
       <c r="G31" s="45"/>
       <c r="H31" s="50"/>
@@ -4789,8 +4801,8 @@
     <row r="32" spans="2:8" ht="23.25" customHeight="1">
       <c r="B32" s="43"/>
       <c r="C32" s="49"/>
-      <c r="D32" s="172"/>
-      <c r="E32" s="172"/>
+      <c r="D32" s="175"/>
+      <c r="E32" s="175"/>
       <c r="F32" s="45"/>
       <c r="G32" s="45"/>
       <c r="H32" s="50"/>
@@ -4798,8 +4810,8 @@
     <row r="33" spans="2:8" ht="23.25" customHeight="1">
       <c r="B33" s="43"/>
       <c r="C33" s="49"/>
-      <c r="D33" s="172"/>
-      <c r="E33" s="172"/>
+      <c r="D33" s="175"/>
+      <c r="E33" s="175"/>
       <c r="F33" s="45"/>
       <c r="G33" s="45"/>
       <c r="H33" s="50"/>
@@ -4807,19 +4819,19 @@
     <row r="34" spans="2:8" ht="23.25" customHeight="1">
       <c r="B34" s="51"/>
       <c r="C34" s="52"/>
-      <c r="D34" s="173"/>
-      <c r="E34" s="173"/>
+      <c r="D34" s="176"/>
+      <c r="E34" s="176"/>
       <c r="F34" s="53"/>
       <c r="G34" s="53"/>
       <c r="H34" s="54"/>
     </row>
     <row r="35" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B35" s="174" t="s">
+      <c r="B35" s="177" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="175"/>
-      <c r="D35" s="175"/>
-      <c r="E35" s="175"/>
+      <c r="C35" s="178"/>
+      <c r="D35" s="178"/>
+      <c r="E35" s="178"/>
       <c r="F35" s="13">
         <f>SUM(F4:F34)</f>
         <v>0</v>

--- a/controller/src/main/resources/jxls_templates/jingwaijingsuanshu.xlsx
+++ b/controller/src/main/resources/jxls_templates/jingwaijingsuanshu.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_Code\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-420" yWindow="120" windowWidth="14520" windowHeight="10875" tabRatio="901"/>
+    <workbookView xWindow="-420" yWindow="120" windowWidth="14520" windowHeight="10872" tabRatio="901"/>
   </bookViews>
   <sheets>
     <sheet name="出差精算合計" sheetId="20" r:id="rId1"/>
@@ -19,6 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">出差精算合計!$B$2:$S$6</definedName>
     <definedName name="LSIソリューション開発グループ">設定!$C$11:$E$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">出差精算合計!$A$1:$T$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">公务电话费!$A$1:$I$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">設定!$A$1:$K$81</definedName>
     <definedName name="ソフトウェア開発力強化推進室">設定!$C$9:$D$9</definedName>
@@ -49,6 +50,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Admin</author>
+    <author>DONG</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -111,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0" shapeId="0">
+    <comment ref="B26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -122,11 +124,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:image(src="wfList3" lastCell="D26")</t>
+          <t>jx:image(src="wfList3" lastCell="C28")</t>
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="0" shapeId="0">
+    <comment ref="D26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -137,11 +139,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:image(src="wfList4" lastCell="H26")</t>
+          <t>jx:image(src="wfList4" lastCell="E28")</t>
         </r>
       </text>
     </comment>
-    <comment ref="I26" authorId="0" shapeId="0">
+    <comment ref="F26" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -152,7 +154,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:image(src="userim" lastCell="I26")</t>
+          <t>jx:image(src="userim" lastCell="G28")</t>
         </r>
       </text>
     </comment>
@@ -167,7 +169,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:image(src="wfList1" lastCell="Q26")</t>
+          <t>jx:image(src="wfList1" lastCell="Q28")</t>
         </r>
       </text>
     </comment>
@@ -182,7 +184,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:image(src="wfList2" lastCell="S26")</t>
+          <t>jx:image(src="wfList2" lastCell="S28")</t>
         </r>
       </text>
     </comment>
@@ -565,10 +567,6 @@
     <rPh sb="1" eb="3">
       <t>カイガイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>出差者姓名：</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -966,16 +964,18 @@
     <t>${eve.balance}</t>
     <phoneticPr fontId="7"/>
   </si>
+  <si>
+    <t>出差者姓名：</t>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="8">
-    <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
+  <numFmts count="6">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="178" formatCode="#,##0.000000_ "/>
@@ -1188,7 +1188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1848,6 +1848,17 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1867,7 +1878,7 @@
     <xf numFmtId="6" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2041,27 +2052,12 @@
     <xf numFmtId="177" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2075,39 +2071,44 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="40" fontId="12" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2139,18 +2140,21 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2161,6 +2165,135 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2171,165 +2304,6 @@
     </xf>
     <xf numFmtId="179" fontId="12" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2383,6 +2357,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2442,9 +2422,7 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="標準 2" xfId="1"/>
@@ -2853,185 +2831,163 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE96"/>
+  <dimension ref="A1:AE97"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="2.125" style="55" customWidth="1"/>
-    <col min="2" max="2" width="1.625" style="55" customWidth="1"/>
-    <col min="3" max="3" width="1.75" style="55" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="55" customWidth="1"/>
-    <col min="5" max="5" width="3.75" style="55" customWidth="1"/>
-    <col min="6" max="6" width="2.375" style="55" customWidth="1"/>
-    <col min="7" max="7" width="1.125" style="55" customWidth="1"/>
-    <col min="8" max="8" width="2.875" style="55" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="55" customWidth="1"/>
-    <col min="10" max="10" width="6.625" style="55" customWidth="1"/>
-    <col min="11" max="11" width="12.25" style="55" customWidth="1"/>
-    <col min="12" max="12" width="7.125" style="55" customWidth="1"/>
-    <col min="13" max="13" width="5.875" style="55" customWidth="1"/>
-    <col min="14" max="14" width="6.125" style="55" customWidth="1"/>
-    <col min="15" max="15" width="4.375" style="55" customWidth="1"/>
-    <col min="16" max="16" width="4.5" style="55" customWidth="1"/>
-    <col min="17" max="17" width="7" style="55" customWidth="1"/>
-    <col min="18" max="18" width="2.625" style="55" customWidth="1"/>
-    <col min="19" max="19" width="8" style="55" customWidth="1"/>
-    <col min="20" max="20" width="2.75" style="55" customWidth="1"/>
+    <col min="1" max="19" width="5.77734375" style="55" customWidth="1"/>
+    <col min="20" max="20" width="2.77734375" style="55" customWidth="1"/>
     <col min="21" max="32" width="9" style="55" customWidth="1"/>
     <col min="33" max="16384" width="9" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19"/>
-    <row r="2" spans="1:19" ht="32.25" customHeight="1">
-      <c r="B2" s="89" t="s">
+    <row r="1" spans="1:19" ht="19.95" customHeight="1"/>
+    <row r="2" spans="1:19" ht="19.95" customHeight="1">
+      <c r="B2" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-    </row>
-    <row r="3" spans="1:19" ht="27.95" customHeight="1">
-      <c r="B3" s="90" t="s">
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+    </row>
+    <row r="3" spans="1:19" ht="19.95" customHeight="1">
+      <c r="B3" s="181" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="181"/>
+      <c r="D3" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" s="88" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="91" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="J3" s="92" t="s">
+      <c r="M3" s="86"/>
+      <c r="N3" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="K3" s="92"/>
-      <c r="L3" s="90" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+    </row>
+    <row r="4" spans="1:19" ht="19.95" customHeight="1">
+      <c r="B4" s="181" t="s">
         <v>96</v>
       </c>
-      <c r="M3" s="90"/>
-      <c r="N3" s="93" t="s">
+      <c r="C4" s="181"/>
+      <c r="D4" s="87" t="s">
         <v>138</v>
       </c>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-    </row>
-    <row r="4" spans="1:19" ht="27.95" customHeight="1">
-      <c r="B4" s="90" t="s">
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="L4" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="91" t="s">
+      <c r="M4" s="86"/>
+      <c r="N4" s="90" t="s">
+        <v>142</v>
+      </c>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="R4" s="91" t="s">
+        <v>143</v>
+      </c>
+      <c r="S4" s="91"/>
+    </row>
+    <row r="5" spans="1:19" ht="19.95" customHeight="1">
+      <c r="B5" s="181" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="181"/>
+      <c r="D5" s="161" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="90" t="s">
-        <v>98</v>
-      </c>
-      <c r="M4" s="90"/>
-      <c r="N4" s="94" t="s">
-        <v>143</v>
-      </c>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="R4" s="95" t="s">
-        <v>144</v>
-      </c>
-      <c r="S4" s="95"/>
-    </row>
-    <row r="5" spans="1:19" ht="27.95" customHeight="1">
-      <c r="B5" s="90" t="s">
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="L5" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="174" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="90" t="s">
-        <v>101</v>
-      </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="173" t="e">
+      <c r="M5" s="86"/>
+      <c r="N5" s="160" t="e">
         <f>RIGHT(R4,10)-LEFT(N4,10)+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O5" s="173"/>
-      <c r="P5" s="173"/>
-      <c r="Q5" s="99" t="s">
+      <c r="O5" s="160"/>
+      <c r="P5" s="160"/>
+      <c r="Q5" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="99"/>
-      <c r="S5" s="70"/>
-    </row>
-    <row r="6" spans="1:19" ht="25.5" customHeight="1">
-      <c r="B6" s="90" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="162" t="s">
+      <c r="R5" s="93"/>
+      <c r="S5" s="65"/>
+    </row>
+    <row r="6" spans="1:19" ht="19.95" customHeight="1">
+      <c r="B6" s="181" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="163"/>
-      <c r="L6" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="M6" s="90"/>
-      <c r="N6" s="164" t="s">
-        <v>145</v>
-      </c>
-      <c r="O6" s="164"/>
-      <c r="P6" s="164"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-    </row>
-    <row r="7" spans="1:19" ht="13.5" customHeight="1">
+      <c r="C6" s="181"/>
+      <c r="D6" s="149" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="150"/>
+      <c r="L6" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="M6" s="86"/>
+      <c r="N6" s="151" t="s">
+        <v>144</v>
+      </c>
+      <c r="O6" s="151"/>
+      <c r="P6" s="151"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+    </row>
+    <row r="7" spans="1:19" ht="19.95" customHeight="1">
       <c r="B7" s="58"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
@@ -3051,7 +3007,7 @@
       <c r="R7" s="33"/>
       <c r="S7" s="33"/>
     </row>
-    <row r="8" spans="1:19" ht="17.25" customHeight="1">
+    <row r="8" spans="1:19" ht="19.95" customHeight="1">
       <c r="B8" s="58"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
@@ -3062,20 +3018,20 @@
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
       <c r="K8" s="59"/>
-      <c r="L8" s="165" t="s">
+      <c r="L8" s="152" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" s="153"/>
+      <c r="N8" s="154"/>
+      <c r="O8" s="155" t="s">
         <v>103</v>
       </c>
-      <c r="M8" s="166"/>
-      <c r="N8" s="167"/>
-      <c r="O8" s="168" t="s">
-        <v>104</v>
-      </c>
-      <c r="P8" s="166"/>
-      <c r="Q8" s="166"/>
-      <c r="R8" s="166"/>
-      <c r="S8" s="169"/>
-    </row>
-    <row r="9" spans="1:19" ht="17.25" customHeight="1">
+      <c r="P8" s="153"/>
+      <c r="Q8" s="153"/>
+      <c r="R8" s="153"/>
+      <c r="S8" s="156"/>
+    </row>
+    <row r="9" spans="1:19" ht="19.95" customHeight="1">
       <c r="B9" s="58"/>
       <c r="C9" s="58"/>
       <c r="D9" s="58"/>
@@ -3086,76 +3042,76 @@
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9" s="59"/>
-      <c r="L9" s="154" t="s">
+      <c r="L9" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="155"/>
-      <c r="N9" s="156"/>
-      <c r="O9" s="157"/>
-      <c r="P9" s="155"/>
-      <c r="Q9" s="155"/>
-      <c r="R9" s="155"/>
-      <c r="S9" s="158"/>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" customHeight="1">
-      <c r="B10" s="148"/>
-      <c r="C10" s="148"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="148"/>
-      <c r="K10" s="148"/>
-      <c r="L10" s="148"/>
-      <c r="M10" s="148"/>
-      <c r="N10" s="148"/>
-      <c r="O10" s="148"/>
-      <c r="P10" s="148"/>
-      <c r="Q10" s="148"/>
-      <c r="R10" s="148"/>
-      <c r="S10" s="148"/>
-    </row>
-    <row r="11" spans="1:19" ht="24.95" customHeight="1">
-      <c r="B11" s="159" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="160"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="170" t="s">
-        <v>147</v>
-      </c>
-      <c r="J11" s="171"/>
-      <c r="K11" s="172"/>
-      <c r="L11" s="161"/>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="161"/>
-      <c r="S11" s="161"/>
-    </row>
-    <row r="12" spans="1:19" ht="24.95" customHeight="1">
-      <c r="B12" s="96" t="s">
+      <c r="M9" s="95"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="162"/>
+      <c r="P9" s="95"/>
+      <c r="Q9" s="95"/>
+      <c r="R9" s="95"/>
+      <c r="S9" s="163"/>
+    </row>
+    <row r="10" spans="1:19" ht="19.95" customHeight="1">
+      <c r="B10" s="132"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="132"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="132"/>
+      <c r="P10" s="132"/>
+      <c r="Q10" s="132"/>
+      <c r="R10" s="132"/>
+      <c r="S10" s="132"/>
+    </row>
+    <row r="11" spans="1:19" ht="19.95" customHeight="1">
+      <c r="B11" s="146" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="157" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="86" t="s">
-        <v>172</v>
-      </c>
-      <c r="J12" s="87"/>
-      <c r="K12" s="88"/>
+      <c r="J11" s="158"/>
+      <c r="K11" s="159"/>
+      <c r="L11" s="148"/>
+      <c r="M11" s="148"/>
+      <c r="N11" s="148"/>
+      <c r="O11" s="148"/>
+      <c r="P11" s="148"/>
+      <c r="Q11" s="148"/>
+      <c r="R11" s="148"/>
+      <c r="S11" s="148"/>
+    </row>
+    <row r="12" spans="1:19" ht="19.95" customHeight="1">
+      <c r="B12" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="J12" s="83"/>
+      <c r="K12" s="84"/>
       <c r="L12" s="61"/>
       <c r="M12" s="61"/>
       <c r="N12" s="61"/>
@@ -3165,372 +3121,383 @@
       <c r="R12" s="61"/>
       <c r="S12" s="61"/>
     </row>
-    <row r="13" spans="1:19">
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="100"/>
-      <c r="Q13" s="100"/>
-      <c r="R13" s="100"/>
-      <c r="S13" s="100"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="B14" s="101" t="s">
+    <row r="13" spans="1:19" ht="19.95" customHeight="1">
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="97"/>
+    </row>
+    <row r="14" spans="1:19" ht="19.95" customHeight="1">
+      <c r="B14" s="98" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="103" t="s">
+      <c r="J14" s="92"/>
+      <c r="K14" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="J14" s="98"/>
-      <c r="K14" s="103" t="s">
+      <c r="L14" s="79"/>
+      <c r="M14" s="100" t="s">
         <v>150</v>
       </c>
-      <c r="L14" s="97"/>
-      <c r="M14" s="103" t="s">
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="100" t="s">
         <v>151</v>
       </c>
-      <c r="N14" s="97"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="103" t="s">
+      <c r="R14" s="79"/>
+      <c r="S14" s="78"/>
+    </row>
+    <row r="15" spans="1:19" ht="19.95" customHeight="1">
+      <c r="B15" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="R14" s="97"/>
-      <c r="S14" s="192"/>
-    </row>
-    <row r="15" spans="1:19" ht="24.95" customHeight="1">
-      <c r="B15" s="101" t="s">
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="102" t="s">
         <v>153</v>
       </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="109" t="s">
+      <c r="J15" s="103"/>
+      <c r="K15" s="104" t="s">
         <v>154</v>
       </c>
-      <c r="J15" s="110"/>
-      <c r="K15" s="111" t="s">
+      <c r="L15" s="105"/>
+      <c r="M15" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="L15" s="112"/>
-      <c r="M15" s="113" t="s">
+      <c r="N15" s="107"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="108"/>
+      <c r="Q15" s="109" t="s">
         <v>156</v>
       </c>
-      <c r="N15" s="114"/>
-      <c r="O15" s="114"/>
-      <c r="P15" s="115"/>
-      <c r="Q15" s="116" t="s">
+      <c r="R15" s="109"/>
+      <c r="S15" s="110"/>
+    </row>
+    <row r="16" spans="1:19" ht="19.95" customHeight="1">
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+    </row>
+    <row r="17" spans="2:31" ht="19.95" customHeight="1">
+      <c r="B17" s="130" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131" t="s">
+        <v>160</v>
+      </c>
+      <c r="J17" s="131"/>
+      <c r="K17" s="101" t="s">
+        <v>161</v>
+      </c>
+      <c r="L17" s="101" t="s">
+        <v>159</v>
+      </c>
+      <c r="M17" s="81"/>
+      <c r="N17" s="114" t="s">
+        <v>162</v>
+      </c>
+      <c r="O17" s="115"/>
+      <c r="P17" s="114" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q17" s="115"/>
+      <c r="R17" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="R15" s="116"/>
-      <c r="S15" s="117"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="71"/>
-    </row>
-    <row r="17" spans="2:31" ht="18" customHeight="1">
-      <c r="B17" s="137" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="138" t="s">
-        <v>161</v>
-      </c>
-      <c r="J17" s="138"/>
-      <c r="K17" s="107" t="s">
-        <v>162</v>
-      </c>
-      <c r="L17" s="107" t="s">
-        <v>160</v>
-      </c>
-      <c r="M17" s="108"/>
-      <c r="N17" s="121" t="s">
+      <c r="S17" s="111"/>
+    </row>
+    <row r="18" spans="2:31" ht="19.95" customHeight="1">
+      <c r="B18" s="98"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="112"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="126"/>
+      <c r="N18" s="116"/>
+      <c r="O18" s="117"/>
+      <c r="P18" s="116"/>
+      <c r="Q18" s="117"/>
+      <c r="R18" s="112"/>
+      <c r="S18" s="113"/>
+    </row>
+    <row r="19" spans="2:31" ht="19.95" customHeight="1">
+      <c r="B19" s="143" t="s">
         <v>163</v>
       </c>
-      <c r="O17" s="122"/>
-      <c r="P17" s="121" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q17" s="122"/>
-      <c r="R17" s="107" t="s">
-        <v>158</v>
-      </c>
-      <c r="S17" s="118"/>
-    </row>
-    <row r="18" spans="2:31" ht="15.75" customHeight="1">
-      <c r="B18" s="101"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="119"/>
-      <c r="L18" s="119"/>
-      <c r="M18" s="133"/>
-      <c r="N18" s="123"/>
-      <c r="O18" s="124"/>
-      <c r="P18" s="123"/>
-      <c r="Q18" s="124"/>
-      <c r="R18" s="119"/>
-      <c r="S18" s="120"/>
-    </row>
-    <row r="19" spans="2:31" ht="29.25" customHeight="1">
-      <c r="B19" s="104" t="s">
+      <c r="C19" s="144"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="145" t="s">
+        <v>172</v>
+      </c>
+      <c r="J19" s="145"/>
+      <c r="K19" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="L19" s="101" t="s">
+        <v>165</v>
+      </c>
+      <c r="M19" s="81"/>
+      <c r="N19" s="127" t="s">
+        <v>176</v>
+      </c>
+      <c r="O19" s="128"/>
+      <c r="P19" s="127" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q19" s="128"/>
+      <c r="R19" s="127" t="s">
+        <v>174</v>
+      </c>
+      <c r="S19" s="129"/>
+    </row>
+    <row r="20" spans="2:31" ht="19.95" customHeight="1">
+      <c r="B20" s="118" t="s">
         <v>164</v>
       </c>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="106" t="s">
-        <v>173</v>
-      </c>
-      <c r="J19" s="106"/>
-      <c r="K19" s="75" t="s">
-        <v>174</v>
-      </c>
-      <c r="L19" s="107" t="s">
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="120" t="s">
         <v>166</v>
       </c>
-      <c r="M19" s="108"/>
-      <c r="N19" s="134" t="s">
+      <c r="J20" s="120"/>
+      <c r="K20" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" s="121" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" s="122"/>
+      <c r="N20" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="O19" s="135"/>
-      <c r="P19" s="134" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q19" s="135"/>
-      <c r="R19" s="134" t="s">
-        <v>175</v>
-      </c>
-      <c r="S19" s="136"/>
-    </row>
-    <row r="20" spans="2:31" ht="29.25" customHeight="1">
-      <c r="B20" s="125" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="126"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="126"/>
-      <c r="I20" s="127" t="s">
-        <v>167</v>
-      </c>
-      <c r="J20" s="127"/>
-      <c r="K20" s="76" t="s">
-        <v>168</v>
-      </c>
-      <c r="L20" s="128" t="s">
+      <c r="O20" s="124"/>
+      <c r="P20" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="M20" s="129"/>
-      <c r="N20" s="130" t="s">
+      <c r="Q20" s="124"/>
+      <c r="R20" s="123" t="s">
+        <v>170</v>
+      </c>
+      <c r="S20" s="125"/>
+    </row>
+    <row r="21" spans="2:31" ht="19.95" customHeight="1">
+      <c r="B21" s="137" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="136"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="135"/>
+      <c r="N21" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="O21" s="140"/>
+      <c r="P21" s="139" t="s">
         <v>178</v>
       </c>
-      <c r="O20" s="131"/>
-      <c r="P20" s="130" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q20" s="131"/>
-      <c r="R20" s="130" t="s">
-        <v>171</v>
-      </c>
-      <c r="S20" s="132"/>
-    </row>
-    <row r="21" spans="2:31" ht="24" customHeight="1">
-      <c r="B21" s="140" t="s">
+      <c r="Q21" s="141"/>
+      <c r="R21" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="S21" s="142"/>
+    </row>
+    <row r="22" spans="2:31" ht="19.95" customHeight="1">
+      <c r="B22" s="75" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="141"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="141"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="139"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="146"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="142" t="s">
-        <v>180</v>
-      </c>
-      <c r="O21" s="143"/>
-      <c r="P21" s="142" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q21" s="144"/>
-      <c r="R21" s="142" t="s">
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="S21" s="145"/>
-    </row>
-    <row r="22" spans="2:31" ht="9.75" customHeight="1">
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="65"/>
-      <c r="S22" s="65"/>
-    </row>
-    <row r="23" spans="2:31" ht="24" customHeight="1">
-      <c r="B23" s="96" t="s">
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="76"/>
+      <c r="P22" s="76"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="76"/>
+      <c r="S22" s="76"/>
+    </row>
+    <row r="23" spans="2:31" ht="19.95" customHeight="1">
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="76"/>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="76"/>
+      <c r="S23" s="76"/>
+    </row>
+    <row r="24" spans="2:31" ht="19.95" customHeight="1">
+      <c r="B24" s="133"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="83" t="s">
-        <v>182</v>
-      </c>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="84"/>
-      <c r="S23" s="85"/>
-    </row>
-    <row r="24" spans="2:31" ht="23.25" customHeight="1">
-      <c r="B24" s="150"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66" t="s">
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="62"/>
+    </row>
+    <row r="25" spans="2:31" ht="19.95" customHeight="1">
+      <c r="B25" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="78"/>
+      <c r="D25" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="79"/>
+      <c r="F25" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="66"/>
-      <c r="S24" s="66"/>
-    </row>
-    <row r="25" spans="2:31" ht="20.100000000000001" customHeight="1">
-      <c r="B25" s="77"/>
-      <c r="C25" s="80" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="81"/>
-      <c r="E25" s="151" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="152"/>
-      <c r="G25" s="152"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="74" t="s">
+      <c r="G25" s="75"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="132"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="148"/>
-      <c r="N25" s="148"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="80" t="s">
-        <v>109</v>
-      </c>
       <c r="Q25" s="81"/>
-      <c r="R25" s="151" t="s">
+      <c r="R25" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="S25" s="153"/>
-    </row>
-    <row r="26" spans="2:31" ht="48.75" customHeight="1">
-      <c r="C26" s="78"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="148"/>
-      <c r="N26" s="148"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="79"/>
-      <c r="R26" s="146"/>
-      <c r="S26" s="149"/>
-    </row>
-    <row r="27" spans="2:31" ht="15.95" customHeight="1">
+      <c r="S25" s="111"/>
+    </row>
+    <row r="26" spans="2:31" ht="19.95" customHeight="1">
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="132"/>
+      <c r="N26" s="132"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="75"/>
+    </row>
+    <row r="27" spans="2:31" ht="19.95" customHeight="1">
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="75"/>
       <c r="T27" s="59"/>
       <c r="U27" s="59"/>
       <c r="V27" s="59"/>
@@ -3544,26 +3511,17 @@
       <c r="AD27" s="59"/>
       <c r="AE27" s="59"/>
     </row>
-    <row r="28" spans="2:31" ht="15.95" customHeight="1">
-      <c r="C28" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="82"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="82"/>
+    <row r="28" spans="2:31" ht="19.95" customHeight="1">
+      <c r="B28" s="75"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="75"/>
+      <c r="R28" s="75"/>
+      <c r="S28" s="75"/>
       <c r="T28" s="59"/>
       <c r="U28" s="59"/>
       <c r="V28" s="59"/>
@@ -3577,26 +3535,26 @@
       <c r="AD28" s="59"/>
       <c r="AE28" s="59"/>
     </row>
-    <row r="29" spans="2:31" ht="15.95" customHeight="1">
-      <c r="C29" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="82"/>
-      <c r="Q29" s="82"/>
-      <c r="R29" s="82"/>
-      <c r="S29" s="82"/>
+    <row r="29" spans="2:31" ht="19.95" customHeight="1">
+      <c r="B29" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="74"/>
       <c r="T29" s="59"/>
       <c r="U29" s="59"/>
       <c r="V29" s="59"/>
@@ -3610,26 +3568,26 @@
       <c r="AD29" s="59"/>
       <c r="AE29" s="59"/>
     </row>
-    <row r="30" spans="2:31" ht="15.95" customHeight="1">
-      <c r="C30" s="82" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="82"/>
-      <c r="Q30" s="82"/>
-      <c r="R30" s="82"/>
-      <c r="S30" s="82"/>
+    <row r="30" spans="2:31" ht="19.95" customHeight="1">
+      <c r="B30" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="74"/>
+      <c r="Q30" s="74"/>
+      <c r="R30" s="74"/>
       <c r="T30" s="59"/>
       <c r="U30" s="59"/>
       <c r="V30" s="59"/>
@@ -3643,19 +3601,27 @@
       <c r="AD30" s="59"/>
       <c r="AE30" s="59"/>
     </row>
-    <row r="31" spans="2:31" ht="15.95" customHeight="1">
-      <c r="C31" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="L31" s="69"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="69"/>
-      <c r="Q31" s="69"/>
-      <c r="R31" s="69"/>
-      <c r="S31" s="69"/>
-      <c r="T31" s="34"/>
+    <row r="31" spans="2:31" ht="19.95" customHeight="1">
+      <c r="B31" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="74"/>
+      <c r="T31" s="59"/>
       <c r="U31" s="59"/>
       <c r="V31" s="59"/>
       <c r="W31" s="59"/>
@@ -3668,15 +3634,18 @@
       <c r="AD31" s="59"/>
       <c r="AE31" s="59"/>
     </row>
-    <row r="32" spans="2:31" ht="15.95" customHeight="1">
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="69"/>
-      <c r="Q32" s="69"/>
-      <c r="R32" s="69"/>
-      <c r="S32" s="69"/>
+    <row r="32" spans="2:31" ht="19.95" customHeight="1">
+      <c r="B32" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="74"/>
+      <c r="Q32" s="74"/>
+      <c r="R32" s="74"/>
       <c r="T32" s="34"/>
       <c r="U32" s="59"/>
       <c r="V32" s="59"/>
@@ -3690,15 +3659,15 @@
       <c r="AD32" s="59"/>
       <c r="AE32" s="59"/>
     </row>
-    <row r="33" spans="12:31" ht="15.95" customHeight="1">
-      <c r="L33" s="69"/>
-      <c r="M33" s="69"/>
-      <c r="N33" s="69"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="69"/>
-      <c r="Q33" s="69"/>
-      <c r="R33" s="69"/>
-      <c r="S33" s="69"/>
+    <row r="33" spans="12:31" ht="15.9" customHeight="1">
+      <c r="L33" s="64"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="64"/>
+      <c r="Q33" s="64"/>
+      <c r="R33" s="64"/>
+      <c r="S33" s="64"/>
       <c r="T33" s="34"/>
       <c r="U33" s="59"/>
       <c r="V33" s="59"/>
@@ -3712,8 +3681,16 @@
       <c r="AD33" s="59"/>
       <c r="AE33" s="59"/>
     </row>
-    <row r="34" spans="12:31" ht="15.95" customHeight="1">
-      <c r="T34" s="59"/>
+    <row r="34" spans="12:31" ht="15.9" customHeight="1">
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="64"/>
+      <c r="R34" s="64"/>
+      <c r="S34" s="64"/>
+      <c r="T34" s="34"/>
       <c r="U34" s="59"/>
       <c r="V34" s="59"/>
       <c r="W34" s="59"/>
@@ -3726,7 +3703,7 @@
       <c r="AD34" s="59"/>
       <c r="AE34" s="59"/>
     </row>
-    <row r="35" spans="12:31" ht="15.95" customHeight="1">
+    <row r="35" spans="12:31" ht="15.9" customHeight="1">
       <c r="T35" s="59"/>
       <c r="U35" s="59"/>
       <c r="V35" s="59"/>
@@ -3740,7 +3717,7 @@
       <c r="AD35" s="59"/>
       <c r="AE35" s="59"/>
     </row>
-    <row r="36" spans="12:31" ht="15.95" customHeight="1">
+    <row r="36" spans="12:31" ht="15.9" customHeight="1">
       <c r="T36" s="59"/>
       <c r="U36" s="59"/>
       <c r="V36" s="59"/>
@@ -3754,35 +3731,35 @@
       <c r="AD36" s="59"/>
       <c r="AE36" s="59"/>
     </row>
-    <row r="37" spans="12:31" ht="15.95" customHeight="1">
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="34"/>
-      <c r="AB37" s="34"/>
-      <c r="AC37" s="34"/>
-      <c r="AD37" s="34"/>
-      <c r="AE37" s="34"/>
-    </row>
-    <row r="38" spans="12:31" ht="15.95" customHeight="1">
-      <c r="T38" s="59"/>
-      <c r="U38" s="59"/>
-      <c r="V38" s="59"/>
-      <c r="W38" s="59"/>
-      <c r="X38" s="59"/>
-      <c r="Y38" s="59"/>
-      <c r="Z38" s="59"/>
-      <c r="AA38" s="59"/>
-      <c r="AB38" s="59"/>
-      <c r="AC38" s="59"/>
-      <c r="AD38" s="59"/>
-      <c r="AE38" s="59"/>
-    </row>
-    <row r="39" spans="12:31" ht="15.95" customHeight="1">
+    <row r="37" spans="12:31" ht="15.9" customHeight="1">
+      <c r="T37" s="59"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="59"/>
+      <c r="W37" s="59"/>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="59"/>
+      <c r="Z37" s="59"/>
+      <c r="AA37" s="59"/>
+      <c r="AB37" s="59"/>
+      <c r="AC37" s="59"/>
+      <c r="AD37" s="59"/>
+      <c r="AE37" s="59"/>
+    </row>
+    <row r="38" spans="12:31" ht="15.9" customHeight="1">
+      <c r="T38" s="34"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="34"/>
+      <c r="W38" s="34"/>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="34"/>
+      <c r="AB38" s="34"/>
+      <c r="AC38" s="34"/>
+      <c r="AD38" s="34"/>
+      <c r="AE38" s="34"/>
+    </row>
+    <row r="39" spans="12:31" ht="15.9" customHeight="1">
       <c r="T39" s="59"/>
       <c r="U39" s="59"/>
       <c r="V39" s="59"/>
@@ -3796,7 +3773,7 @@
       <c r="AD39" s="59"/>
       <c r="AE39" s="59"/>
     </row>
-    <row r="40" spans="12:31" ht="15.95" customHeight="1">
+    <row r="40" spans="12:31" ht="15.9" customHeight="1">
       <c r="T40" s="59"/>
       <c r="U40" s="59"/>
       <c r="V40" s="59"/>
@@ -3810,90 +3787,94 @@
       <c r="AD40" s="59"/>
       <c r="AE40" s="59"/>
     </row>
-    <row r="41" spans="12:31" ht="15.95" customHeight="1"/>
-    <row r="42" spans="12:31" ht="15.95" customHeight="1"/>
-    <row r="43" spans="12:31" ht="15.95" customHeight="1"/>
-    <row r="44" spans="12:31" ht="15.95" customHeight="1"/>
-    <row r="45" spans="12:31" ht="15.95" customHeight="1"/>
-    <row r="46" spans="12:31" ht="15.95" customHeight="1"/>
-    <row r="47" spans="12:31" ht="15.95" customHeight="1"/>
-    <row r="48" spans="12:31" ht="15.95" customHeight="1"/>
-    <row r="49" ht="15.95" customHeight="1"/>
-    <row r="50" ht="15.95" customHeight="1"/>
-    <row r="51" ht="15.95" customHeight="1"/>
-    <row r="52" ht="15.95" customHeight="1"/>
-    <row r="53" ht="15.95" customHeight="1"/>
-    <row r="54" ht="15.95" customHeight="1"/>
-    <row r="55" ht="15.95" customHeight="1"/>
-    <row r="56" ht="15.95" customHeight="1"/>
-    <row r="57" ht="15.95" customHeight="1"/>
-    <row r="58" ht="15.95" customHeight="1"/>
-    <row r="59" ht="15.95" customHeight="1"/>
-    <row r="60" ht="15.95" customHeight="1"/>
-    <row r="61" ht="15.95" customHeight="1"/>
-    <row r="62" ht="15.95" customHeight="1"/>
-    <row r="63" ht="15.95" customHeight="1"/>
-    <row r="64" ht="15.95" customHeight="1"/>
-    <row r="65" ht="15.95" customHeight="1"/>
-    <row r="66" ht="15.95" customHeight="1"/>
-    <row r="67" ht="15.95" customHeight="1"/>
-    <row r="68" ht="15.95" customHeight="1"/>
-    <row r="69" ht="15.95" customHeight="1"/>
-    <row r="70" ht="15.95" customHeight="1"/>
-    <row r="71" ht="15.95" customHeight="1"/>
-    <row r="72" ht="15.95" customHeight="1"/>
-    <row r="73" ht="15.95" customHeight="1"/>
-    <row r="74" ht="15.95" customHeight="1"/>
-    <row r="75" ht="15.95" customHeight="1"/>
-    <row r="76" ht="15.95" customHeight="1"/>
-    <row r="77" ht="15.95" customHeight="1"/>
-    <row r="78" ht="15.95" customHeight="1"/>
-    <row r="79" ht="15.95" customHeight="1"/>
-    <row r="80" ht="15.95" customHeight="1"/>
-    <row r="81" ht="15.95" customHeight="1"/>
-    <row r="82" ht="15.95" customHeight="1"/>
-    <row r="83" ht="15.95" customHeight="1"/>
-    <row r="84" ht="15.95" customHeight="1"/>
-    <row r="85" ht="15.95" customHeight="1"/>
-    <row r="86" ht="15.95" customHeight="1"/>
-    <row r="87" ht="15.95" customHeight="1"/>
-    <row r="88" ht="15.95" customHeight="1"/>
-    <row r="89" ht="15.95" customHeight="1"/>
-    <row r="90" ht="15.95" customHeight="1"/>
-    <row r="91" ht="15.95" customHeight="1"/>
-    <row r="92" ht="15.95" customHeight="1"/>
-    <row r="93" ht="15.95" customHeight="1"/>
-    <row r="94" ht="15.95" customHeight="1"/>
-    <row r="95" ht="15.95" customHeight="1"/>
-    <row r="96" ht="15.95" customHeight="1"/>
+    <row r="41" spans="12:31" ht="15.9" customHeight="1">
+      <c r="T41" s="59"/>
+      <c r="U41" s="59"/>
+      <c r="V41" s="59"/>
+      <c r="W41" s="59"/>
+      <c r="X41" s="59"/>
+      <c r="Y41" s="59"/>
+      <c r="Z41" s="59"/>
+      <c r="AA41" s="59"/>
+      <c r="AB41" s="59"/>
+      <c r="AC41" s="59"/>
+      <c r="AD41" s="59"/>
+      <c r="AE41" s="59"/>
+    </row>
+    <row r="42" spans="12:31" ht="15.9" customHeight="1"/>
+    <row r="43" spans="12:31" ht="15.9" customHeight="1"/>
+    <row r="44" spans="12:31" ht="15.9" customHeight="1"/>
+    <row r="45" spans="12:31" ht="15.9" customHeight="1"/>
+    <row r="46" spans="12:31" ht="15.9" customHeight="1"/>
+    <row r="47" spans="12:31" ht="15.9" customHeight="1"/>
+    <row r="48" spans="12:31" ht="15.9" customHeight="1"/>
+    <row r="49" ht="15.9" customHeight="1"/>
+    <row r="50" ht="15.9" customHeight="1"/>
+    <row r="51" ht="15.9" customHeight="1"/>
+    <row r="52" ht="15.9" customHeight="1"/>
+    <row r="53" ht="15.9" customHeight="1"/>
+    <row r="54" ht="15.9" customHeight="1"/>
+    <row r="55" ht="15.9" customHeight="1"/>
+    <row r="56" ht="15.9" customHeight="1"/>
+    <row r="57" ht="15.9" customHeight="1"/>
+    <row r="58" ht="15.9" customHeight="1"/>
+    <row r="59" ht="15.9" customHeight="1"/>
+    <row r="60" ht="15.9" customHeight="1"/>
+    <row r="61" ht="15.9" customHeight="1"/>
+    <row r="62" ht="15.9" customHeight="1"/>
+    <row r="63" ht="15.9" customHeight="1"/>
+    <row r="64" ht="15.9" customHeight="1"/>
+    <row r="65" ht="15.9" customHeight="1"/>
+    <row r="66" ht="15.9" customHeight="1"/>
+    <row r="67" ht="15.9" customHeight="1"/>
+    <row r="68" ht="15.9" customHeight="1"/>
+    <row r="69" ht="15.9" customHeight="1"/>
+    <row r="70" ht="15.9" customHeight="1"/>
+    <row r="71" ht="15.9" customHeight="1"/>
+    <row r="72" ht="15.9" customHeight="1"/>
+    <row r="73" ht="15.9" customHeight="1"/>
+    <row r="74" ht="15.9" customHeight="1"/>
+    <row r="75" ht="15.9" customHeight="1"/>
+    <row r="76" ht="15.9" customHeight="1"/>
+    <row r="77" ht="15.9" customHeight="1"/>
+    <row r="78" ht="15.9" customHeight="1"/>
+    <row r="79" ht="15.9" customHeight="1"/>
+    <row r="80" ht="15.9" customHeight="1"/>
+    <row r="81" ht="15.9" customHeight="1"/>
+    <row r="82" ht="15.9" customHeight="1"/>
+    <row r="83" ht="15.9" customHeight="1"/>
+    <row r="84" ht="15.9" customHeight="1"/>
+    <row r="85" ht="15.9" customHeight="1"/>
+    <row r="86" ht="15.9" customHeight="1"/>
+    <row r="87" ht="15.9" customHeight="1"/>
+    <row r="88" ht="15.9" customHeight="1"/>
+    <row r="89" ht="15.9" customHeight="1"/>
+    <row r="90" ht="15.9" customHeight="1"/>
+    <row r="91" ht="15.9" customHeight="1"/>
+    <row r="92" ht="15.9" customHeight="1"/>
+    <row r="93" ht="15.9" customHeight="1"/>
+    <row r="94" ht="15.9" customHeight="1"/>
+    <row r="95" ht="15.9" customHeight="1"/>
+    <row r="96" ht="15.9" customHeight="1"/>
+    <row r="97" ht="15.9" customHeight="1"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
-  <mergeCells count="82">
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L9:N9"/>
+  <mergeCells count="77">
+    <mergeCell ref="B10:S10"/>
     <mergeCell ref="O9:S9"/>
-    <mergeCell ref="B10:S10"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="D5:J5"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="L11:S11"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="D6:J6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="O8:S8"/>
     <mergeCell ref="I11:K11"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:K5"/>
-    <mergeCell ref="C30:S30"/>
     <mergeCell ref="I17:J18"/>
-    <mergeCell ref="E26:H26"/>
     <mergeCell ref="M26:N26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="C28:S28"/>
-    <mergeCell ref="B23:H23"/>
     <mergeCell ref="B24:I24"/>
-    <mergeCell ref="E25:H25"/>
     <mergeCell ref="M25:N25"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="R25:S25"/>
@@ -3902,6 +3883,8 @@
     <mergeCell ref="N21:O21"/>
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="R21:S21"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="I19:J19"/>
     <mergeCell ref="Q15:S15"/>
     <mergeCell ref="R17:S18"/>
     <mergeCell ref="P17:Q18"/>
@@ -3918,51 +3901,54 @@
     <mergeCell ref="P19:Q19"/>
     <mergeCell ref="R19:S19"/>
     <mergeCell ref="B17:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="I19:J19"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="M15:P15"/>
+    <mergeCell ref="B13:S13"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="M14:P14"/>
     <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="I23:S23"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="B2:S2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="N3:S3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="D4:J4"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="B13:S13"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="B26:C28"/>
+    <mergeCell ref="D26:E28"/>
+    <mergeCell ref="F26:G28"/>
+    <mergeCell ref="P26:Q28"/>
+    <mergeCell ref="R26:S28"/>
+    <mergeCell ref="B22:H23"/>
+    <mergeCell ref="I22:S23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
     <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C29:S29"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:G9">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:K6">
-      <formula1>INDIRECT($E$4)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:J6">
+      <formula1>INDIRECT($D$4)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.43307086614173229" bottom="0.59055118110236227" header="0.23622047244094491" footer="0.70866141732283472"/>
-  <pageSetup paperSize="9" scale="94" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;R&amp;10松下电器軟件开发（大連）有限公司</oddFooter>
   </headerFooter>
@@ -3984,573 +3970,573 @@
       <selection pane="bottomRight" activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="12.625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="10.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="1.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="12.6640625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="1.6640625" style="1" customWidth="1"/>
     <col min="10" max="257" width="9" style="1"/>
     <col min="258" max="258" width="12" style="1" customWidth="1"/>
-    <col min="259" max="259" width="11.375" style="1" customWidth="1"/>
-    <col min="260" max="260" width="15.5" style="1" customWidth="1"/>
-    <col min="261" max="261" width="15.125" style="1" customWidth="1"/>
-    <col min="262" max="262" width="12.625" style="1" customWidth="1"/>
-    <col min="263" max="263" width="11.875" style="1" customWidth="1"/>
-    <col min="264" max="264" width="9.625" style="1" customWidth="1"/>
+    <col min="259" max="259" width="11.33203125" style="1" customWidth="1"/>
+    <col min="260" max="260" width="15.44140625" style="1" customWidth="1"/>
+    <col min="261" max="261" width="15.109375" style="1" customWidth="1"/>
+    <col min="262" max="262" width="12.6640625" style="1" customWidth="1"/>
+    <col min="263" max="263" width="11.88671875" style="1" customWidth="1"/>
+    <col min="264" max="264" width="9.6640625" style="1" customWidth="1"/>
     <col min="265" max="513" width="9" style="1"/>
     <col min="514" max="514" width="12" style="1" customWidth="1"/>
-    <col min="515" max="515" width="11.375" style="1" customWidth="1"/>
-    <col min="516" max="516" width="15.5" style="1" customWidth="1"/>
-    <col min="517" max="517" width="15.125" style="1" customWidth="1"/>
-    <col min="518" max="518" width="12.625" style="1" customWidth="1"/>
-    <col min="519" max="519" width="11.875" style="1" customWidth="1"/>
-    <col min="520" max="520" width="9.625" style="1" customWidth="1"/>
+    <col min="515" max="515" width="11.33203125" style="1" customWidth="1"/>
+    <col min="516" max="516" width="15.44140625" style="1" customWidth="1"/>
+    <col min="517" max="517" width="15.109375" style="1" customWidth="1"/>
+    <col min="518" max="518" width="12.6640625" style="1" customWidth="1"/>
+    <col min="519" max="519" width="11.88671875" style="1" customWidth="1"/>
+    <col min="520" max="520" width="9.6640625" style="1" customWidth="1"/>
     <col min="521" max="769" width="9" style="1"/>
     <col min="770" max="770" width="12" style="1" customWidth="1"/>
-    <col min="771" max="771" width="11.375" style="1" customWidth="1"/>
-    <col min="772" max="772" width="15.5" style="1" customWidth="1"/>
-    <col min="773" max="773" width="15.125" style="1" customWidth="1"/>
-    <col min="774" max="774" width="12.625" style="1" customWidth="1"/>
-    <col min="775" max="775" width="11.875" style="1" customWidth="1"/>
-    <col min="776" max="776" width="9.625" style="1" customWidth="1"/>
+    <col min="771" max="771" width="11.33203125" style="1" customWidth="1"/>
+    <col min="772" max="772" width="15.44140625" style="1" customWidth="1"/>
+    <col min="773" max="773" width="15.109375" style="1" customWidth="1"/>
+    <col min="774" max="774" width="12.6640625" style="1" customWidth="1"/>
+    <col min="775" max="775" width="11.88671875" style="1" customWidth="1"/>
+    <col min="776" max="776" width="9.6640625" style="1" customWidth="1"/>
     <col min="777" max="1025" width="9" style="1"/>
     <col min="1026" max="1026" width="12" style="1" customWidth="1"/>
-    <col min="1027" max="1027" width="11.375" style="1" customWidth="1"/>
-    <col min="1028" max="1028" width="15.5" style="1" customWidth="1"/>
-    <col min="1029" max="1029" width="15.125" style="1" customWidth="1"/>
-    <col min="1030" max="1030" width="12.625" style="1" customWidth="1"/>
-    <col min="1031" max="1031" width="11.875" style="1" customWidth="1"/>
-    <col min="1032" max="1032" width="9.625" style="1" customWidth="1"/>
+    <col min="1027" max="1027" width="11.33203125" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="15.44140625" style="1" customWidth="1"/>
+    <col min="1029" max="1029" width="15.109375" style="1" customWidth="1"/>
+    <col min="1030" max="1030" width="12.6640625" style="1" customWidth="1"/>
+    <col min="1031" max="1031" width="11.88671875" style="1" customWidth="1"/>
+    <col min="1032" max="1032" width="9.6640625" style="1" customWidth="1"/>
     <col min="1033" max="1281" width="9" style="1"/>
     <col min="1282" max="1282" width="12" style="1" customWidth="1"/>
-    <col min="1283" max="1283" width="11.375" style="1" customWidth="1"/>
-    <col min="1284" max="1284" width="15.5" style="1" customWidth="1"/>
-    <col min="1285" max="1285" width="15.125" style="1" customWidth="1"/>
-    <col min="1286" max="1286" width="12.625" style="1" customWidth="1"/>
-    <col min="1287" max="1287" width="11.875" style="1" customWidth="1"/>
-    <col min="1288" max="1288" width="9.625" style="1" customWidth="1"/>
+    <col min="1283" max="1283" width="11.33203125" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="15.44140625" style="1" customWidth="1"/>
+    <col min="1285" max="1285" width="15.109375" style="1" customWidth="1"/>
+    <col min="1286" max="1286" width="12.6640625" style="1" customWidth="1"/>
+    <col min="1287" max="1287" width="11.88671875" style="1" customWidth="1"/>
+    <col min="1288" max="1288" width="9.6640625" style="1" customWidth="1"/>
     <col min="1289" max="1537" width="9" style="1"/>
     <col min="1538" max="1538" width="12" style="1" customWidth="1"/>
-    <col min="1539" max="1539" width="11.375" style="1" customWidth="1"/>
-    <col min="1540" max="1540" width="15.5" style="1" customWidth="1"/>
-    <col min="1541" max="1541" width="15.125" style="1" customWidth="1"/>
-    <col min="1542" max="1542" width="12.625" style="1" customWidth="1"/>
-    <col min="1543" max="1543" width="11.875" style="1" customWidth="1"/>
-    <col min="1544" max="1544" width="9.625" style="1" customWidth="1"/>
+    <col min="1539" max="1539" width="11.33203125" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="15.44140625" style="1" customWidth="1"/>
+    <col min="1541" max="1541" width="15.109375" style="1" customWidth="1"/>
+    <col min="1542" max="1542" width="12.6640625" style="1" customWidth="1"/>
+    <col min="1543" max="1543" width="11.88671875" style="1" customWidth="1"/>
+    <col min="1544" max="1544" width="9.6640625" style="1" customWidth="1"/>
     <col min="1545" max="1793" width="9" style="1"/>
     <col min="1794" max="1794" width="12" style="1" customWidth="1"/>
-    <col min="1795" max="1795" width="11.375" style="1" customWidth="1"/>
-    <col min="1796" max="1796" width="15.5" style="1" customWidth="1"/>
-    <col min="1797" max="1797" width="15.125" style="1" customWidth="1"/>
-    <col min="1798" max="1798" width="12.625" style="1" customWidth="1"/>
-    <col min="1799" max="1799" width="11.875" style="1" customWidth="1"/>
-    <col min="1800" max="1800" width="9.625" style="1" customWidth="1"/>
+    <col min="1795" max="1795" width="11.33203125" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="15.44140625" style="1" customWidth="1"/>
+    <col min="1797" max="1797" width="15.109375" style="1" customWidth="1"/>
+    <col min="1798" max="1798" width="12.6640625" style="1" customWidth="1"/>
+    <col min="1799" max="1799" width="11.88671875" style="1" customWidth="1"/>
+    <col min="1800" max="1800" width="9.6640625" style="1" customWidth="1"/>
     <col min="1801" max="2049" width="9" style="1"/>
     <col min="2050" max="2050" width="12" style="1" customWidth="1"/>
-    <col min="2051" max="2051" width="11.375" style="1" customWidth="1"/>
-    <col min="2052" max="2052" width="15.5" style="1" customWidth="1"/>
-    <col min="2053" max="2053" width="15.125" style="1" customWidth="1"/>
-    <col min="2054" max="2054" width="12.625" style="1" customWidth="1"/>
-    <col min="2055" max="2055" width="11.875" style="1" customWidth="1"/>
-    <col min="2056" max="2056" width="9.625" style="1" customWidth="1"/>
+    <col min="2051" max="2051" width="11.33203125" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="15.44140625" style="1" customWidth="1"/>
+    <col min="2053" max="2053" width="15.109375" style="1" customWidth="1"/>
+    <col min="2054" max="2054" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2055" max="2055" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2056" max="2056" width="9.6640625" style="1" customWidth="1"/>
     <col min="2057" max="2305" width="9" style="1"/>
     <col min="2306" max="2306" width="12" style="1" customWidth="1"/>
-    <col min="2307" max="2307" width="11.375" style="1" customWidth="1"/>
-    <col min="2308" max="2308" width="15.5" style="1" customWidth="1"/>
-    <col min="2309" max="2309" width="15.125" style="1" customWidth="1"/>
-    <col min="2310" max="2310" width="12.625" style="1" customWidth="1"/>
-    <col min="2311" max="2311" width="11.875" style="1" customWidth="1"/>
-    <col min="2312" max="2312" width="9.625" style="1" customWidth="1"/>
+    <col min="2307" max="2307" width="11.33203125" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="15.44140625" style="1" customWidth="1"/>
+    <col min="2309" max="2309" width="15.109375" style="1" customWidth="1"/>
+    <col min="2310" max="2310" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2311" max="2311" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2312" max="2312" width="9.6640625" style="1" customWidth="1"/>
     <col min="2313" max="2561" width="9" style="1"/>
     <col min="2562" max="2562" width="12" style="1" customWidth="1"/>
-    <col min="2563" max="2563" width="11.375" style="1" customWidth="1"/>
-    <col min="2564" max="2564" width="15.5" style="1" customWidth="1"/>
-    <col min="2565" max="2565" width="15.125" style="1" customWidth="1"/>
-    <col min="2566" max="2566" width="12.625" style="1" customWidth="1"/>
-    <col min="2567" max="2567" width="11.875" style="1" customWidth="1"/>
-    <col min="2568" max="2568" width="9.625" style="1" customWidth="1"/>
+    <col min="2563" max="2563" width="11.33203125" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="15.44140625" style="1" customWidth="1"/>
+    <col min="2565" max="2565" width="15.109375" style="1" customWidth="1"/>
+    <col min="2566" max="2566" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2567" max="2567" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2568" max="2568" width="9.6640625" style="1" customWidth="1"/>
     <col min="2569" max="2817" width="9" style="1"/>
     <col min="2818" max="2818" width="12" style="1" customWidth="1"/>
-    <col min="2819" max="2819" width="11.375" style="1" customWidth="1"/>
-    <col min="2820" max="2820" width="15.5" style="1" customWidth="1"/>
-    <col min="2821" max="2821" width="15.125" style="1" customWidth="1"/>
-    <col min="2822" max="2822" width="12.625" style="1" customWidth="1"/>
-    <col min="2823" max="2823" width="11.875" style="1" customWidth="1"/>
-    <col min="2824" max="2824" width="9.625" style="1" customWidth="1"/>
+    <col min="2819" max="2819" width="11.33203125" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="15.44140625" style="1" customWidth="1"/>
+    <col min="2821" max="2821" width="15.109375" style="1" customWidth="1"/>
+    <col min="2822" max="2822" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2823" max="2823" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2824" max="2824" width="9.6640625" style="1" customWidth="1"/>
     <col min="2825" max="3073" width="9" style="1"/>
     <col min="3074" max="3074" width="12" style="1" customWidth="1"/>
-    <col min="3075" max="3075" width="11.375" style="1" customWidth="1"/>
-    <col min="3076" max="3076" width="15.5" style="1" customWidth="1"/>
-    <col min="3077" max="3077" width="15.125" style="1" customWidth="1"/>
-    <col min="3078" max="3078" width="12.625" style="1" customWidth="1"/>
-    <col min="3079" max="3079" width="11.875" style="1" customWidth="1"/>
-    <col min="3080" max="3080" width="9.625" style="1" customWidth="1"/>
+    <col min="3075" max="3075" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="15.44140625" style="1" customWidth="1"/>
+    <col min="3077" max="3077" width="15.109375" style="1" customWidth="1"/>
+    <col min="3078" max="3078" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3079" max="3079" width="11.88671875" style="1" customWidth="1"/>
+    <col min="3080" max="3080" width="9.6640625" style="1" customWidth="1"/>
     <col min="3081" max="3329" width="9" style="1"/>
     <col min="3330" max="3330" width="12" style="1" customWidth="1"/>
-    <col min="3331" max="3331" width="11.375" style="1" customWidth="1"/>
-    <col min="3332" max="3332" width="15.5" style="1" customWidth="1"/>
-    <col min="3333" max="3333" width="15.125" style="1" customWidth="1"/>
-    <col min="3334" max="3334" width="12.625" style="1" customWidth="1"/>
-    <col min="3335" max="3335" width="11.875" style="1" customWidth="1"/>
-    <col min="3336" max="3336" width="9.625" style="1" customWidth="1"/>
+    <col min="3331" max="3331" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="15.44140625" style="1" customWidth="1"/>
+    <col min="3333" max="3333" width="15.109375" style="1" customWidth="1"/>
+    <col min="3334" max="3334" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3335" max="3335" width="11.88671875" style="1" customWidth="1"/>
+    <col min="3336" max="3336" width="9.6640625" style="1" customWidth="1"/>
     <col min="3337" max="3585" width="9" style="1"/>
     <col min="3586" max="3586" width="12" style="1" customWidth="1"/>
-    <col min="3587" max="3587" width="11.375" style="1" customWidth="1"/>
-    <col min="3588" max="3588" width="15.5" style="1" customWidth="1"/>
-    <col min="3589" max="3589" width="15.125" style="1" customWidth="1"/>
-    <col min="3590" max="3590" width="12.625" style="1" customWidth="1"/>
-    <col min="3591" max="3591" width="11.875" style="1" customWidth="1"/>
-    <col min="3592" max="3592" width="9.625" style="1" customWidth="1"/>
+    <col min="3587" max="3587" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="15.44140625" style="1" customWidth="1"/>
+    <col min="3589" max="3589" width="15.109375" style="1" customWidth="1"/>
+    <col min="3590" max="3590" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3591" max="3591" width="11.88671875" style="1" customWidth="1"/>
+    <col min="3592" max="3592" width="9.6640625" style="1" customWidth="1"/>
     <col min="3593" max="3841" width="9" style="1"/>
     <col min="3842" max="3842" width="12" style="1" customWidth="1"/>
-    <col min="3843" max="3843" width="11.375" style="1" customWidth="1"/>
-    <col min="3844" max="3844" width="15.5" style="1" customWidth="1"/>
-    <col min="3845" max="3845" width="15.125" style="1" customWidth="1"/>
-    <col min="3846" max="3846" width="12.625" style="1" customWidth="1"/>
-    <col min="3847" max="3847" width="11.875" style="1" customWidth="1"/>
-    <col min="3848" max="3848" width="9.625" style="1" customWidth="1"/>
+    <col min="3843" max="3843" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="15.44140625" style="1" customWidth="1"/>
+    <col min="3845" max="3845" width="15.109375" style="1" customWidth="1"/>
+    <col min="3846" max="3846" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3847" max="3847" width="11.88671875" style="1" customWidth="1"/>
+    <col min="3848" max="3848" width="9.6640625" style="1" customWidth="1"/>
     <col min="3849" max="4097" width="9" style="1"/>
     <col min="4098" max="4098" width="12" style="1" customWidth="1"/>
-    <col min="4099" max="4099" width="11.375" style="1" customWidth="1"/>
-    <col min="4100" max="4100" width="15.5" style="1" customWidth="1"/>
-    <col min="4101" max="4101" width="15.125" style="1" customWidth="1"/>
-    <col min="4102" max="4102" width="12.625" style="1" customWidth="1"/>
-    <col min="4103" max="4103" width="11.875" style="1" customWidth="1"/>
-    <col min="4104" max="4104" width="9.625" style="1" customWidth="1"/>
+    <col min="4099" max="4099" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="15.44140625" style="1" customWidth="1"/>
+    <col min="4101" max="4101" width="15.109375" style="1" customWidth="1"/>
+    <col min="4102" max="4102" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4103" max="4103" width="11.88671875" style="1" customWidth="1"/>
+    <col min="4104" max="4104" width="9.6640625" style="1" customWidth="1"/>
     <col min="4105" max="4353" width="9" style="1"/>
     <col min="4354" max="4354" width="12" style="1" customWidth="1"/>
-    <col min="4355" max="4355" width="11.375" style="1" customWidth="1"/>
-    <col min="4356" max="4356" width="15.5" style="1" customWidth="1"/>
-    <col min="4357" max="4357" width="15.125" style="1" customWidth="1"/>
-    <col min="4358" max="4358" width="12.625" style="1" customWidth="1"/>
-    <col min="4359" max="4359" width="11.875" style="1" customWidth="1"/>
-    <col min="4360" max="4360" width="9.625" style="1" customWidth="1"/>
+    <col min="4355" max="4355" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="15.44140625" style="1" customWidth="1"/>
+    <col min="4357" max="4357" width="15.109375" style="1" customWidth="1"/>
+    <col min="4358" max="4358" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4359" max="4359" width="11.88671875" style="1" customWidth="1"/>
+    <col min="4360" max="4360" width="9.6640625" style="1" customWidth="1"/>
     <col min="4361" max="4609" width="9" style="1"/>
     <col min="4610" max="4610" width="12" style="1" customWidth="1"/>
-    <col min="4611" max="4611" width="11.375" style="1" customWidth="1"/>
-    <col min="4612" max="4612" width="15.5" style="1" customWidth="1"/>
-    <col min="4613" max="4613" width="15.125" style="1" customWidth="1"/>
-    <col min="4614" max="4614" width="12.625" style="1" customWidth="1"/>
-    <col min="4615" max="4615" width="11.875" style="1" customWidth="1"/>
-    <col min="4616" max="4616" width="9.625" style="1" customWidth="1"/>
+    <col min="4611" max="4611" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="15.44140625" style="1" customWidth="1"/>
+    <col min="4613" max="4613" width="15.109375" style="1" customWidth="1"/>
+    <col min="4614" max="4614" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4615" max="4615" width="11.88671875" style="1" customWidth="1"/>
+    <col min="4616" max="4616" width="9.6640625" style="1" customWidth="1"/>
     <col min="4617" max="4865" width="9" style="1"/>
     <col min="4866" max="4866" width="12" style="1" customWidth="1"/>
-    <col min="4867" max="4867" width="11.375" style="1" customWidth="1"/>
-    <col min="4868" max="4868" width="15.5" style="1" customWidth="1"/>
-    <col min="4869" max="4869" width="15.125" style="1" customWidth="1"/>
-    <col min="4870" max="4870" width="12.625" style="1" customWidth="1"/>
-    <col min="4871" max="4871" width="11.875" style="1" customWidth="1"/>
-    <col min="4872" max="4872" width="9.625" style="1" customWidth="1"/>
+    <col min="4867" max="4867" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="15.44140625" style="1" customWidth="1"/>
+    <col min="4869" max="4869" width="15.109375" style="1" customWidth="1"/>
+    <col min="4870" max="4870" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4871" max="4871" width="11.88671875" style="1" customWidth="1"/>
+    <col min="4872" max="4872" width="9.6640625" style="1" customWidth="1"/>
     <col min="4873" max="5121" width="9" style="1"/>
     <col min="5122" max="5122" width="12" style="1" customWidth="1"/>
-    <col min="5123" max="5123" width="11.375" style="1" customWidth="1"/>
-    <col min="5124" max="5124" width="15.5" style="1" customWidth="1"/>
-    <col min="5125" max="5125" width="15.125" style="1" customWidth="1"/>
-    <col min="5126" max="5126" width="12.625" style="1" customWidth="1"/>
-    <col min="5127" max="5127" width="11.875" style="1" customWidth="1"/>
-    <col min="5128" max="5128" width="9.625" style="1" customWidth="1"/>
+    <col min="5123" max="5123" width="11.33203125" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="15.44140625" style="1" customWidth="1"/>
+    <col min="5125" max="5125" width="15.109375" style="1" customWidth="1"/>
+    <col min="5126" max="5126" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5127" max="5127" width="11.88671875" style="1" customWidth="1"/>
+    <col min="5128" max="5128" width="9.6640625" style="1" customWidth="1"/>
     <col min="5129" max="5377" width="9" style="1"/>
     <col min="5378" max="5378" width="12" style="1" customWidth="1"/>
-    <col min="5379" max="5379" width="11.375" style="1" customWidth="1"/>
-    <col min="5380" max="5380" width="15.5" style="1" customWidth="1"/>
-    <col min="5381" max="5381" width="15.125" style="1" customWidth="1"/>
-    <col min="5382" max="5382" width="12.625" style="1" customWidth="1"/>
-    <col min="5383" max="5383" width="11.875" style="1" customWidth="1"/>
-    <col min="5384" max="5384" width="9.625" style="1" customWidth="1"/>
+    <col min="5379" max="5379" width="11.33203125" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="15.44140625" style="1" customWidth="1"/>
+    <col min="5381" max="5381" width="15.109375" style="1" customWidth="1"/>
+    <col min="5382" max="5382" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5383" max="5383" width="11.88671875" style="1" customWidth="1"/>
+    <col min="5384" max="5384" width="9.6640625" style="1" customWidth="1"/>
     <col min="5385" max="5633" width="9" style="1"/>
     <col min="5634" max="5634" width="12" style="1" customWidth="1"/>
-    <col min="5635" max="5635" width="11.375" style="1" customWidth="1"/>
-    <col min="5636" max="5636" width="15.5" style="1" customWidth="1"/>
-    <col min="5637" max="5637" width="15.125" style="1" customWidth="1"/>
-    <col min="5638" max="5638" width="12.625" style="1" customWidth="1"/>
-    <col min="5639" max="5639" width="11.875" style="1" customWidth="1"/>
-    <col min="5640" max="5640" width="9.625" style="1" customWidth="1"/>
+    <col min="5635" max="5635" width="11.33203125" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="15.44140625" style="1" customWidth="1"/>
+    <col min="5637" max="5637" width="15.109375" style="1" customWidth="1"/>
+    <col min="5638" max="5638" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5639" max="5639" width="11.88671875" style="1" customWidth="1"/>
+    <col min="5640" max="5640" width="9.6640625" style="1" customWidth="1"/>
     <col min="5641" max="5889" width="9" style="1"/>
     <col min="5890" max="5890" width="12" style="1" customWidth="1"/>
-    <col min="5891" max="5891" width="11.375" style="1" customWidth="1"/>
-    <col min="5892" max="5892" width="15.5" style="1" customWidth="1"/>
-    <col min="5893" max="5893" width="15.125" style="1" customWidth="1"/>
-    <col min="5894" max="5894" width="12.625" style="1" customWidth="1"/>
-    <col min="5895" max="5895" width="11.875" style="1" customWidth="1"/>
-    <col min="5896" max="5896" width="9.625" style="1" customWidth="1"/>
+    <col min="5891" max="5891" width="11.33203125" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="15.44140625" style="1" customWidth="1"/>
+    <col min="5893" max="5893" width="15.109375" style="1" customWidth="1"/>
+    <col min="5894" max="5894" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5895" max="5895" width="11.88671875" style="1" customWidth="1"/>
+    <col min="5896" max="5896" width="9.6640625" style="1" customWidth="1"/>
     <col min="5897" max="6145" width="9" style="1"/>
     <col min="6146" max="6146" width="12" style="1" customWidth="1"/>
-    <col min="6147" max="6147" width="11.375" style="1" customWidth="1"/>
-    <col min="6148" max="6148" width="15.5" style="1" customWidth="1"/>
-    <col min="6149" max="6149" width="15.125" style="1" customWidth="1"/>
-    <col min="6150" max="6150" width="12.625" style="1" customWidth="1"/>
-    <col min="6151" max="6151" width="11.875" style="1" customWidth="1"/>
-    <col min="6152" max="6152" width="9.625" style="1" customWidth="1"/>
+    <col min="6147" max="6147" width="11.33203125" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="15.44140625" style="1" customWidth="1"/>
+    <col min="6149" max="6149" width="15.109375" style="1" customWidth="1"/>
+    <col min="6150" max="6150" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6151" max="6151" width="11.88671875" style="1" customWidth="1"/>
+    <col min="6152" max="6152" width="9.6640625" style="1" customWidth="1"/>
     <col min="6153" max="6401" width="9" style="1"/>
     <col min="6402" max="6402" width="12" style="1" customWidth="1"/>
-    <col min="6403" max="6403" width="11.375" style="1" customWidth="1"/>
-    <col min="6404" max="6404" width="15.5" style="1" customWidth="1"/>
-    <col min="6405" max="6405" width="15.125" style="1" customWidth="1"/>
-    <col min="6406" max="6406" width="12.625" style="1" customWidth="1"/>
-    <col min="6407" max="6407" width="11.875" style="1" customWidth="1"/>
-    <col min="6408" max="6408" width="9.625" style="1" customWidth="1"/>
+    <col min="6403" max="6403" width="11.33203125" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="15.44140625" style="1" customWidth="1"/>
+    <col min="6405" max="6405" width="15.109375" style="1" customWidth="1"/>
+    <col min="6406" max="6406" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6407" max="6407" width="11.88671875" style="1" customWidth="1"/>
+    <col min="6408" max="6408" width="9.6640625" style="1" customWidth="1"/>
     <col min="6409" max="6657" width="9" style="1"/>
     <col min="6658" max="6658" width="12" style="1" customWidth="1"/>
-    <col min="6659" max="6659" width="11.375" style="1" customWidth="1"/>
-    <col min="6660" max="6660" width="15.5" style="1" customWidth="1"/>
-    <col min="6661" max="6661" width="15.125" style="1" customWidth="1"/>
-    <col min="6662" max="6662" width="12.625" style="1" customWidth="1"/>
-    <col min="6663" max="6663" width="11.875" style="1" customWidth="1"/>
-    <col min="6664" max="6664" width="9.625" style="1" customWidth="1"/>
+    <col min="6659" max="6659" width="11.33203125" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="15.44140625" style="1" customWidth="1"/>
+    <col min="6661" max="6661" width="15.109375" style="1" customWidth="1"/>
+    <col min="6662" max="6662" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6663" max="6663" width="11.88671875" style="1" customWidth="1"/>
+    <col min="6664" max="6664" width="9.6640625" style="1" customWidth="1"/>
     <col min="6665" max="6913" width="9" style="1"/>
     <col min="6914" max="6914" width="12" style="1" customWidth="1"/>
-    <col min="6915" max="6915" width="11.375" style="1" customWidth="1"/>
-    <col min="6916" max="6916" width="15.5" style="1" customWidth="1"/>
-    <col min="6917" max="6917" width="15.125" style="1" customWidth="1"/>
-    <col min="6918" max="6918" width="12.625" style="1" customWidth="1"/>
-    <col min="6919" max="6919" width="11.875" style="1" customWidth="1"/>
-    <col min="6920" max="6920" width="9.625" style="1" customWidth="1"/>
+    <col min="6915" max="6915" width="11.33203125" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="15.44140625" style="1" customWidth="1"/>
+    <col min="6917" max="6917" width="15.109375" style="1" customWidth="1"/>
+    <col min="6918" max="6918" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6919" max="6919" width="11.88671875" style="1" customWidth="1"/>
+    <col min="6920" max="6920" width="9.6640625" style="1" customWidth="1"/>
     <col min="6921" max="7169" width="9" style="1"/>
     <col min="7170" max="7170" width="12" style="1" customWidth="1"/>
-    <col min="7171" max="7171" width="11.375" style="1" customWidth="1"/>
-    <col min="7172" max="7172" width="15.5" style="1" customWidth="1"/>
-    <col min="7173" max="7173" width="15.125" style="1" customWidth="1"/>
-    <col min="7174" max="7174" width="12.625" style="1" customWidth="1"/>
-    <col min="7175" max="7175" width="11.875" style="1" customWidth="1"/>
-    <col min="7176" max="7176" width="9.625" style="1" customWidth="1"/>
+    <col min="7171" max="7171" width="11.33203125" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="15.44140625" style="1" customWidth="1"/>
+    <col min="7173" max="7173" width="15.109375" style="1" customWidth="1"/>
+    <col min="7174" max="7174" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7175" max="7175" width="11.88671875" style="1" customWidth="1"/>
+    <col min="7176" max="7176" width="9.6640625" style="1" customWidth="1"/>
     <col min="7177" max="7425" width="9" style="1"/>
     <col min="7426" max="7426" width="12" style="1" customWidth="1"/>
-    <col min="7427" max="7427" width="11.375" style="1" customWidth="1"/>
-    <col min="7428" max="7428" width="15.5" style="1" customWidth="1"/>
-    <col min="7429" max="7429" width="15.125" style="1" customWidth="1"/>
-    <col min="7430" max="7430" width="12.625" style="1" customWidth="1"/>
-    <col min="7431" max="7431" width="11.875" style="1" customWidth="1"/>
-    <col min="7432" max="7432" width="9.625" style="1" customWidth="1"/>
+    <col min="7427" max="7427" width="11.33203125" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="15.44140625" style="1" customWidth="1"/>
+    <col min="7429" max="7429" width="15.109375" style="1" customWidth="1"/>
+    <col min="7430" max="7430" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7431" max="7431" width="11.88671875" style="1" customWidth="1"/>
+    <col min="7432" max="7432" width="9.6640625" style="1" customWidth="1"/>
     <col min="7433" max="7681" width="9" style="1"/>
     <col min="7682" max="7682" width="12" style="1" customWidth="1"/>
-    <col min="7683" max="7683" width="11.375" style="1" customWidth="1"/>
-    <col min="7684" max="7684" width="15.5" style="1" customWidth="1"/>
-    <col min="7685" max="7685" width="15.125" style="1" customWidth="1"/>
-    <col min="7686" max="7686" width="12.625" style="1" customWidth="1"/>
-    <col min="7687" max="7687" width="11.875" style="1" customWidth="1"/>
-    <col min="7688" max="7688" width="9.625" style="1" customWidth="1"/>
+    <col min="7683" max="7683" width="11.33203125" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="15.44140625" style="1" customWidth="1"/>
+    <col min="7685" max="7685" width="15.109375" style="1" customWidth="1"/>
+    <col min="7686" max="7686" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7687" max="7687" width="11.88671875" style="1" customWidth="1"/>
+    <col min="7688" max="7688" width="9.6640625" style="1" customWidth="1"/>
     <col min="7689" max="7937" width="9" style="1"/>
     <col min="7938" max="7938" width="12" style="1" customWidth="1"/>
-    <col min="7939" max="7939" width="11.375" style="1" customWidth="1"/>
-    <col min="7940" max="7940" width="15.5" style="1" customWidth="1"/>
-    <col min="7941" max="7941" width="15.125" style="1" customWidth="1"/>
-    <col min="7942" max="7942" width="12.625" style="1" customWidth="1"/>
-    <col min="7943" max="7943" width="11.875" style="1" customWidth="1"/>
-    <col min="7944" max="7944" width="9.625" style="1" customWidth="1"/>
+    <col min="7939" max="7939" width="11.33203125" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="15.44140625" style="1" customWidth="1"/>
+    <col min="7941" max="7941" width="15.109375" style="1" customWidth="1"/>
+    <col min="7942" max="7942" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7943" max="7943" width="11.88671875" style="1" customWidth="1"/>
+    <col min="7944" max="7944" width="9.6640625" style="1" customWidth="1"/>
     <col min="7945" max="8193" width="9" style="1"/>
     <col min="8194" max="8194" width="12" style="1" customWidth="1"/>
-    <col min="8195" max="8195" width="11.375" style="1" customWidth="1"/>
-    <col min="8196" max="8196" width="15.5" style="1" customWidth="1"/>
-    <col min="8197" max="8197" width="15.125" style="1" customWidth="1"/>
-    <col min="8198" max="8198" width="12.625" style="1" customWidth="1"/>
-    <col min="8199" max="8199" width="11.875" style="1" customWidth="1"/>
-    <col min="8200" max="8200" width="9.625" style="1" customWidth="1"/>
+    <col min="8195" max="8195" width="11.33203125" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="15.44140625" style="1" customWidth="1"/>
+    <col min="8197" max="8197" width="15.109375" style="1" customWidth="1"/>
+    <col min="8198" max="8198" width="12.6640625" style="1" customWidth="1"/>
+    <col min="8199" max="8199" width="11.88671875" style="1" customWidth="1"/>
+    <col min="8200" max="8200" width="9.6640625" style="1" customWidth="1"/>
     <col min="8201" max="8449" width="9" style="1"/>
     <col min="8450" max="8450" width="12" style="1" customWidth="1"/>
-    <col min="8451" max="8451" width="11.375" style="1" customWidth="1"/>
-    <col min="8452" max="8452" width="15.5" style="1" customWidth="1"/>
-    <col min="8453" max="8453" width="15.125" style="1" customWidth="1"/>
-    <col min="8454" max="8454" width="12.625" style="1" customWidth="1"/>
-    <col min="8455" max="8455" width="11.875" style="1" customWidth="1"/>
-    <col min="8456" max="8456" width="9.625" style="1" customWidth="1"/>
+    <col min="8451" max="8451" width="11.33203125" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="15.44140625" style="1" customWidth="1"/>
+    <col min="8453" max="8453" width="15.109375" style="1" customWidth="1"/>
+    <col min="8454" max="8454" width="12.6640625" style="1" customWidth="1"/>
+    <col min="8455" max="8455" width="11.88671875" style="1" customWidth="1"/>
+    <col min="8456" max="8456" width="9.6640625" style="1" customWidth="1"/>
     <col min="8457" max="8705" width="9" style="1"/>
     <col min="8706" max="8706" width="12" style="1" customWidth="1"/>
-    <col min="8707" max="8707" width="11.375" style="1" customWidth="1"/>
-    <col min="8708" max="8708" width="15.5" style="1" customWidth="1"/>
-    <col min="8709" max="8709" width="15.125" style="1" customWidth="1"/>
-    <col min="8710" max="8710" width="12.625" style="1" customWidth="1"/>
-    <col min="8711" max="8711" width="11.875" style="1" customWidth="1"/>
-    <col min="8712" max="8712" width="9.625" style="1" customWidth="1"/>
+    <col min="8707" max="8707" width="11.33203125" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="15.44140625" style="1" customWidth="1"/>
+    <col min="8709" max="8709" width="15.109375" style="1" customWidth="1"/>
+    <col min="8710" max="8710" width="12.6640625" style="1" customWidth="1"/>
+    <col min="8711" max="8711" width="11.88671875" style="1" customWidth="1"/>
+    <col min="8712" max="8712" width="9.6640625" style="1" customWidth="1"/>
     <col min="8713" max="8961" width="9" style="1"/>
     <col min="8962" max="8962" width="12" style="1" customWidth="1"/>
-    <col min="8963" max="8963" width="11.375" style="1" customWidth="1"/>
-    <col min="8964" max="8964" width="15.5" style="1" customWidth="1"/>
-    <col min="8965" max="8965" width="15.125" style="1" customWidth="1"/>
-    <col min="8966" max="8966" width="12.625" style="1" customWidth="1"/>
-    <col min="8967" max="8967" width="11.875" style="1" customWidth="1"/>
-    <col min="8968" max="8968" width="9.625" style="1" customWidth="1"/>
+    <col min="8963" max="8963" width="11.33203125" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="15.44140625" style="1" customWidth="1"/>
+    <col min="8965" max="8965" width="15.109375" style="1" customWidth="1"/>
+    <col min="8966" max="8966" width="12.6640625" style="1" customWidth="1"/>
+    <col min="8967" max="8967" width="11.88671875" style="1" customWidth="1"/>
+    <col min="8968" max="8968" width="9.6640625" style="1" customWidth="1"/>
     <col min="8969" max="9217" width="9" style="1"/>
     <col min="9218" max="9218" width="12" style="1" customWidth="1"/>
-    <col min="9219" max="9219" width="11.375" style="1" customWidth="1"/>
-    <col min="9220" max="9220" width="15.5" style="1" customWidth="1"/>
-    <col min="9221" max="9221" width="15.125" style="1" customWidth="1"/>
-    <col min="9222" max="9222" width="12.625" style="1" customWidth="1"/>
-    <col min="9223" max="9223" width="11.875" style="1" customWidth="1"/>
-    <col min="9224" max="9224" width="9.625" style="1" customWidth="1"/>
+    <col min="9219" max="9219" width="11.33203125" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="15.44140625" style="1" customWidth="1"/>
+    <col min="9221" max="9221" width="15.109375" style="1" customWidth="1"/>
+    <col min="9222" max="9222" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9223" max="9223" width="11.88671875" style="1" customWidth="1"/>
+    <col min="9224" max="9224" width="9.6640625" style="1" customWidth="1"/>
     <col min="9225" max="9473" width="9" style="1"/>
     <col min="9474" max="9474" width="12" style="1" customWidth="1"/>
-    <col min="9475" max="9475" width="11.375" style="1" customWidth="1"/>
-    <col min="9476" max="9476" width="15.5" style="1" customWidth="1"/>
-    <col min="9477" max="9477" width="15.125" style="1" customWidth="1"/>
-    <col min="9478" max="9478" width="12.625" style="1" customWidth="1"/>
-    <col min="9479" max="9479" width="11.875" style="1" customWidth="1"/>
-    <col min="9480" max="9480" width="9.625" style="1" customWidth="1"/>
+    <col min="9475" max="9475" width="11.33203125" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="15.44140625" style="1" customWidth="1"/>
+    <col min="9477" max="9477" width="15.109375" style="1" customWidth="1"/>
+    <col min="9478" max="9478" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9479" max="9479" width="11.88671875" style="1" customWidth="1"/>
+    <col min="9480" max="9480" width="9.6640625" style="1" customWidth="1"/>
     <col min="9481" max="9729" width="9" style="1"/>
     <col min="9730" max="9730" width="12" style="1" customWidth="1"/>
-    <col min="9731" max="9731" width="11.375" style="1" customWidth="1"/>
-    <col min="9732" max="9732" width="15.5" style="1" customWidth="1"/>
-    <col min="9733" max="9733" width="15.125" style="1" customWidth="1"/>
-    <col min="9734" max="9734" width="12.625" style="1" customWidth="1"/>
-    <col min="9735" max="9735" width="11.875" style="1" customWidth="1"/>
-    <col min="9736" max="9736" width="9.625" style="1" customWidth="1"/>
+    <col min="9731" max="9731" width="11.33203125" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="15.44140625" style="1" customWidth="1"/>
+    <col min="9733" max="9733" width="15.109375" style="1" customWidth="1"/>
+    <col min="9734" max="9734" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9735" max="9735" width="11.88671875" style="1" customWidth="1"/>
+    <col min="9736" max="9736" width="9.6640625" style="1" customWidth="1"/>
     <col min="9737" max="9985" width="9" style="1"/>
     <col min="9986" max="9986" width="12" style="1" customWidth="1"/>
-    <col min="9987" max="9987" width="11.375" style="1" customWidth="1"/>
-    <col min="9988" max="9988" width="15.5" style="1" customWidth="1"/>
-    <col min="9989" max="9989" width="15.125" style="1" customWidth="1"/>
-    <col min="9990" max="9990" width="12.625" style="1" customWidth="1"/>
-    <col min="9991" max="9991" width="11.875" style="1" customWidth="1"/>
-    <col min="9992" max="9992" width="9.625" style="1" customWidth="1"/>
+    <col min="9987" max="9987" width="11.33203125" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="15.44140625" style="1" customWidth="1"/>
+    <col min="9989" max="9989" width="15.109375" style="1" customWidth="1"/>
+    <col min="9990" max="9990" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9991" max="9991" width="11.88671875" style="1" customWidth="1"/>
+    <col min="9992" max="9992" width="9.6640625" style="1" customWidth="1"/>
     <col min="9993" max="10241" width="9" style="1"/>
     <col min="10242" max="10242" width="12" style="1" customWidth="1"/>
-    <col min="10243" max="10243" width="11.375" style="1" customWidth="1"/>
-    <col min="10244" max="10244" width="15.5" style="1" customWidth="1"/>
-    <col min="10245" max="10245" width="15.125" style="1" customWidth="1"/>
-    <col min="10246" max="10246" width="12.625" style="1" customWidth="1"/>
-    <col min="10247" max="10247" width="11.875" style="1" customWidth="1"/>
-    <col min="10248" max="10248" width="9.625" style="1" customWidth="1"/>
+    <col min="10243" max="10243" width="11.33203125" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="15.44140625" style="1" customWidth="1"/>
+    <col min="10245" max="10245" width="15.109375" style="1" customWidth="1"/>
+    <col min="10246" max="10246" width="12.6640625" style="1" customWidth="1"/>
+    <col min="10247" max="10247" width="11.88671875" style="1" customWidth="1"/>
+    <col min="10248" max="10248" width="9.6640625" style="1" customWidth="1"/>
     <col min="10249" max="10497" width="9" style="1"/>
     <col min="10498" max="10498" width="12" style="1" customWidth="1"/>
-    <col min="10499" max="10499" width="11.375" style="1" customWidth="1"/>
-    <col min="10500" max="10500" width="15.5" style="1" customWidth="1"/>
-    <col min="10501" max="10501" width="15.125" style="1" customWidth="1"/>
-    <col min="10502" max="10502" width="12.625" style="1" customWidth="1"/>
-    <col min="10503" max="10503" width="11.875" style="1" customWidth="1"/>
-    <col min="10504" max="10504" width="9.625" style="1" customWidth="1"/>
+    <col min="10499" max="10499" width="11.33203125" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="15.44140625" style="1" customWidth="1"/>
+    <col min="10501" max="10501" width="15.109375" style="1" customWidth="1"/>
+    <col min="10502" max="10502" width="12.6640625" style="1" customWidth="1"/>
+    <col min="10503" max="10503" width="11.88671875" style="1" customWidth="1"/>
+    <col min="10504" max="10504" width="9.6640625" style="1" customWidth="1"/>
     <col min="10505" max="10753" width="9" style="1"/>
     <col min="10754" max="10754" width="12" style="1" customWidth="1"/>
-    <col min="10755" max="10755" width="11.375" style="1" customWidth="1"/>
-    <col min="10756" max="10756" width="15.5" style="1" customWidth="1"/>
-    <col min="10757" max="10757" width="15.125" style="1" customWidth="1"/>
-    <col min="10758" max="10758" width="12.625" style="1" customWidth="1"/>
-    <col min="10759" max="10759" width="11.875" style="1" customWidth="1"/>
-    <col min="10760" max="10760" width="9.625" style="1" customWidth="1"/>
+    <col min="10755" max="10755" width="11.33203125" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="15.44140625" style="1" customWidth="1"/>
+    <col min="10757" max="10757" width="15.109375" style="1" customWidth="1"/>
+    <col min="10758" max="10758" width="12.6640625" style="1" customWidth="1"/>
+    <col min="10759" max="10759" width="11.88671875" style="1" customWidth="1"/>
+    <col min="10760" max="10760" width="9.6640625" style="1" customWidth="1"/>
     <col min="10761" max="11009" width="9" style="1"/>
     <col min="11010" max="11010" width="12" style="1" customWidth="1"/>
-    <col min="11011" max="11011" width="11.375" style="1" customWidth="1"/>
-    <col min="11012" max="11012" width="15.5" style="1" customWidth="1"/>
-    <col min="11013" max="11013" width="15.125" style="1" customWidth="1"/>
-    <col min="11014" max="11014" width="12.625" style="1" customWidth="1"/>
-    <col min="11015" max="11015" width="11.875" style="1" customWidth="1"/>
-    <col min="11016" max="11016" width="9.625" style="1" customWidth="1"/>
+    <col min="11011" max="11011" width="11.33203125" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="15.44140625" style="1" customWidth="1"/>
+    <col min="11013" max="11013" width="15.109375" style="1" customWidth="1"/>
+    <col min="11014" max="11014" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11015" max="11015" width="11.88671875" style="1" customWidth="1"/>
+    <col min="11016" max="11016" width="9.6640625" style="1" customWidth="1"/>
     <col min="11017" max="11265" width="9" style="1"/>
     <col min="11266" max="11266" width="12" style="1" customWidth="1"/>
-    <col min="11267" max="11267" width="11.375" style="1" customWidth="1"/>
-    <col min="11268" max="11268" width="15.5" style="1" customWidth="1"/>
-    <col min="11269" max="11269" width="15.125" style="1" customWidth="1"/>
-    <col min="11270" max="11270" width="12.625" style="1" customWidth="1"/>
-    <col min="11271" max="11271" width="11.875" style="1" customWidth="1"/>
-    <col min="11272" max="11272" width="9.625" style="1" customWidth="1"/>
+    <col min="11267" max="11267" width="11.33203125" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="15.44140625" style="1" customWidth="1"/>
+    <col min="11269" max="11269" width="15.109375" style="1" customWidth="1"/>
+    <col min="11270" max="11270" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11271" max="11271" width="11.88671875" style="1" customWidth="1"/>
+    <col min="11272" max="11272" width="9.6640625" style="1" customWidth="1"/>
     <col min="11273" max="11521" width="9" style="1"/>
     <col min="11522" max="11522" width="12" style="1" customWidth="1"/>
-    <col min="11523" max="11523" width="11.375" style="1" customWidth="1"/>
-    <col min="11524" max="11524" width="15.5" style="1" customWidth="1"/>
-    <col min="11525" max="11525" width="15.125" style="1" customWidth="1"/>
-    <col min="11526" max="11526" width="12.625" style="1" customWidth="1"/>
-    <col min="11527" max="11527" width="11.875" style="1" customWidth="1"/>
-    <col min="11528" max="11528" width="9.625" style="1" customWidth="1"/>
+    <col min="11523" max="11523" width="11.33203125" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="15.44140625" style="1" customWidth="1"/>
+    <col min="11525" max="11525" width="15.109375" style="1" customWidth="1"/>
+    <col min="11526" max="11526" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11527" max="11527" width="11.88671875" style="1" customWidth="1"/>
+    <col min="11528" max="11528" width="9.6640625" style="1" customWidth="1"/>
     <col min="11529" max="11777" width="9" style="1"/>
     <col min="11778" max="11778" width="12" style="1" customWidth="1"/>
-    <col min="11779" max="11779" width="11.375" style="1" customWidth="1"/>
-    <col min="11780" max="11780" width="15.5" style="1" customWidth="1"/>
-    <col min="11781" max="11781" width="15.125" style="1" customWidth="1"/>
-    <col min="11782" max="11782" width="12.625" style="1" customWidth="1"/>
-    <col min="11783" max="11783" width="11.875" style="1" customWidth="1"/>
-    <col min="11784" max="11784" width="9.625" style="1" customWidth="1"/>
+    <col min="11779" max="11779" width="11.33203125" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="15.44140625" style="1" customWidth="1"/>
+    <col min="11781" max="11781" width="15.109375" style="1" customWidth="1"/>
+    <col min="11782" max="11782" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11783" max="11783" width="11.88671875" style="1" customWidth="1"/>
+    <col min="11784" max="11784" width="9.6640625" style="1" customWidth="1"/>
     <col min="11785" max="12033" width="9" style="1"/>
     <col min="12034" max="12034" width="12" style="1" customWidth="1"/>
-    <col min="12035" max="12035" width="11.375" style="1" customWidth="1"/>
-    <col min="12036" max="12036" width="15.5" style="1" customWidth="1"/>
-    <col min="12037" max="12037" width="15.125" style="1" customWidth="1"/>
-    <col min="12038" max="12038" width="12.625" style="1" customWidth="1"/>
-    <col min="12039" max="12039" width="11.875" style="1" customWidth="1"/>
-    <col min="12040" max="12040" width="9.625" style="1" customWidth="1"/>
+    <col min="12035" max="12035" width="11.33203125" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="15.44140625" style="1" customWidth="1"/>
+    <col min="12037" max="12037" width="15.109375" style="1" customWidth="1"/>
+    <col min="12038" max="12038" width="12.6640625" style="1" customWidth="1"/>
+    <col min="12039" max="12039" width="11.88671875" style="1" customWidth="1"/>
+    <col min="12040" max="12040" width="9.6640625" style="1" customWidth="1"/>
     <col min="12041" max="12289" width="9" style="1"/>
     <col min="12290" max="12290" width="12" style="1" customWidth="1"/>
-    <col min="12291" max="12291" width="11.375" style="1" customWidth="1"/>
-    <col min="12292" max="12292" width="15.5" style="1" customWidth="1"/>
-    <col min="12293" max="12293" width="15.125" style="1" customWidth="1"/>
-    <col min="12294" max="12294" width="12.625" style="1" customWidth="1"/>
-    <col min="12295" max="12295" width="11.875" style="1" customWidth="1"/>
-    <col min="12296" max="12296" width="9.625" style="1" customWidth="1"/>
+    <col min="12291" max="12291" width="11.33203125" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="15.44140625" style="1" customWidth="1"/>
+    <col min="12293" max="12293" width="15.109375" style="1" customWidth="1"/>
+    <col min="12294" max="12294" width="12.6640625" style="1" customWidth="1"/>
+    <col min="12295" max="12295" width="11.88671875" style="1" customWidth="1"/>
+    <col min="12296" max="12296" width="9.6640625" style="1" customWidth="1"/>
     <col min="12297" max="12545" width="9" style="1"/>
     <col min="12546" max="12546" width="12" style="1" customWidth="1"/>
-    <col min="12547" max="12547" width="11.375" style="1" customWidth="1"/>
-    <col min="12548" max="12548" width="15.5" style="1" customWidth="1"/>
-    <col min="12549" max="12549" width="15.125" style="1" customWidth="1"/>
-    <col min="12550" max="12550" width="12.625" style="1" customWidth="1"/>
-    <col min="12551" max="12551" width="11.875" style="1" customWidth="1"/>
-    <col min="12552" max="12552" width="9.625" style="1" customWidth="1"/>
+    <col min="12547" max="12547" width="11.33203125" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="15.44140625" style="1" customWidth="1"/>
+    <col min="12549" max="12549" width="15.109375" style="1" customWidth="1"/>
+    <col min="12550" max="12550" width="12.6640625" style="1" customWidth="1"/>
+    <col min="12551" max="12551" width="11.88671875" style="1" customWidth="1"/>
+    <col min="12552" max="12552" width="9.6640625" style="1" customWidth="1"/>
     <col min="12553" max="12801" width="9" style="1"/>
     <col min="12802" max="12802" width="12" style="1" customWidth="1"/>
-    <col min="12803" max="12803" width="11.375" style="1" customWidth="1"/>
-    <col min="12804" max="12804" width="15.5" style="1" customWidth="1"/>
-    <col min="12805" max="12805" width="15.125" style="1" customWidth="1"/>
-    <col min="12806" max="12806" width="12.625" style="1" customWidth="1"/>
-    <col min="12807" max="12807" width="11.875" style="1" customWidth="1"/>
-    <col min="12808" max="12808" width="9.625" style="1" customWidth="1"/>
+    <col min="12803" max="12803" width="11.33203125" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="15.44140625" style="1" customWidth="1"/>
+    <col min="12805" max="12805" width="15.109375" style="1" customWidth="1"/>
+    <col min="12806" max="12806" width="12.6640625" style="1" customWidth="1"/>
+    <col min="12807" max="12807" width="11.88671875" style="1" customWidth="1"/>
+    <col min="12808" max="12808" width="9.6640625" style="1" customWidth="1"/>
     <col min="12809" max="13057" width="9" style="1"/>
     <col min="13058" max="13058" width="12" style="1" customWidth="1"/>
-    <col min="13059" max="13059" width="11.375" style="1" customWidth="1"/>
-    <col min="13060" max="13060" width="15.5" style="1" customWidth="1"/>
-    <col min="13061" max="13061" width="15.125" style="1" customWidth="1"/>
-    <col min="13062" max="13062" width="12.625" style="1" customWidth="1"/>
-    <col min="13063" max="13063" width="11.875" style="1" customWidth="1"/>
-    <col min="13064" max="13064" width="9.625" style="1" customWidth="1"/>
+    <col min="13059" max="13059" width="11.33203125" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="15.44140625" style="1" customWidth="1"/>
+    <col min="13061" max="13061" width="15.109375" style="1" customWidth="1"/>
+    <col min="13062" max="13062" width="12.6640625" style="1" customWidth="1"/>
+    <col min="13063" max="13063" width="11.88671875" style="1" customWidth="1"/>
+    <col min="13064" max="13064" width="9.6640625" style="1" customWidth="1"/>
     <col min="13065" max="13313" width="9" style="1"/>
     <col min="13314" max="13314" width="12" style="1" customWidth="1"/>
-    <col min="13315" max="13315" width="11.375" style="1" customWidth="1"/>
-    <col min="13316" max="13316" width="15.5" style="1" customWidth="1"/>
-    <col min="13317" max="13317" width="15.125" style="1" customWidth="1"/>
-    <col min="13318" max="13318" width="12.625" style="1" customWidth="1"/>
-    <col min="13319" max="13319" width="11.875" style="1" customWidth="1"/>
-    <col min="13320" max="13320" width="9.625" style="1" customWidth="1"/>
+    <col min="13315" max="13315" width="11.33203125" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="15.44140625" style="1" customWidth="1"/>
+    <col min="13317" max="13317" width="15.109375" style="1" customWidth="1"/>
+    <col min="13318" max="13318" width="12.6640625" style="1" customWidth="1"/>
+    <col min="13319" max="13319" width="11.88671875" style="1" customWidth="1"/>
+    <col min="13320" max="13320" width="9.6640625" style="1" customWidth="1"/>
     <col min="13321" max="13569" width="9" style="1"/>
     <col min="13570" max="13570" width="12" style="1" customWidth="1"/>
-    <col min="13571" max="13571" width="11.375" style="1" customWidth="1"/>
-    <col min="13572" max="13572" width="15.5" style="1" customWidth="1"/>
-    <col min="13573" max="13573" width="15.125" style="1" customWidth="1"/>
-    <col min="13574" max="13574" width="12.625" style="1" customWidth="1"/>
-    <col min="13575" max="13575" width="11.875" style="1" customWidth="1"/>
-    <col min="13576" max="13576" width="9.625" style="1" customWidth="1"/>
+    <col min="13571" max="13571" width="11.33203125" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="15.44140625" style="1" customWidth="1"/>
+    <col min="13573" max="13573" width="15.109375" style="1" customWidth="1"/>
+    <col min="13574" max="13574" width="12.6640625" style="1" customWidth="1"/>
+    <col min="13575" max="13575" width="11.88671875" style="1" customWidth="1"/>
+    <col min="13576" max="13576" width="9.6640625" style="1" customWidth="1"/>
     <col min="13577" max="13825" width="9" style="1"/>
     <col min="13826" max="13826" width="12" style="1" customWidth="1"/>
-    <col min="13827" max="13827" width="11.375" style="1" customWidth="1"/>
-    <col min="13828" max="13828" width="15.5" style="1" customWidth="1"/>
-    <col min="13829" max="13829" width="15.125" style="1" customWidth="1"/>
-    <col min="13830" max="13830" width="12.625" style="1" customWidth="1"/>
-    <col min="13831" max="13831" width="11.875" style="1" customWidth="1"/>
-    <col min="13832" max="13832" width="9.625" style="1" customWidth="1"/>
+    <col min="13827" max="13827" width="11.33203125" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="15.44140625" style="1" customWidth="1"/>
+    <col min="13829" max="13829" width="15.109375" style="1" customWidth="1"/>
+    <col min="13830" max="13830" width="12.6640625" style="1" customWidth="1"/>
+    <col min="13831" max="13831" width="11.88671875" style="1" customWidth="1"/>
+    <col min="13832" max="13832" width="9.6640625" style="1" customWidth="1"/>
     <col min="13833" max="14081" width="9" style="1"/>
     <col min="14082" max="14082" width="12" style="1" customWidth="1"/>
-    <col min="14083" max="14083" width="11.375" style="1" customWidth="1"/>
-    <col min="14084" max="14084" width="15.5" style="1" customWidth="1"/>
-    <col min="14085" max="14085" width="15.125" style="1" customWidth="1"/>
-    <col min="14086" max="14086" width="12.625" style="1" customWidth="1"/>
-    <col min="14087" max="14087" width="11.875" style="1" customWidth="1"/>
-    <col min="14088" max="14088" width="9.625" style="1" customWidth="1"/>
+    <col min="14083" max="14083" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="15.44140625" style="1" customWidth="1"/>
+    <col min="14085" max="14085" width="15.109375" style="1" customWidth="1"/>
+    <col min="14086" max="14086" width="12.6640625" style="1" customWidth="1"/>
+    <col min="14087" max="14087" width="11.88671875" style="1" customWidth="1"/>
+    <col min="14088" max="14088" width="9.6640625" style="1" customWidth="1"/>
     <col min="14089" max="14337" width="9" style="1"/>
     <col min="14338" max="14338" width="12" style="1" customWidth="1"/>
-    <col min="14339" max="14339" width="11.375" style="1" customWidth="1"/>
-    <col min="14340" max="14340" width="15.5" style="1" customWidth="1"/>
-    <col min="14341" max="14341" width="15.125" style="1" customWidth="1"/>
-    <col min="14342" max="14342" width="12.625" style="1" customWidth="1"/>
-    <col min="14343" max="14343" width="11.875" style="1" customWidth="1"/>
-    <col min="14344" max="14344" width="9.625" style="1" customWidth="1"/>
+    <col min="14339" max="14339" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="15.44140625" style="1" customWidth="1"/>
+    <col min="14341" max="14341" width="15.109375" style="1" customWidth="1"/>
+    <col min="14342" max="14342" width="12.6640625" style="1" customWidth="1"/>
+    <col min="14343" max="14343" width="11.88671875" style="1" customWidth="1"/>
+    <col min="14344" max="14344" width="9.6640625" style="1" customWidth="1"/>
     <col min="14345" max="14593" width="9" style="1"/>
     <col min="14594" max="14594" width="12" style="1" customWidth="1"/>
-    <col min="14595" max="14595" width="11.375" style="1" customWidth="1"/>
-    <col min="14596" max="14596" width="15.5" style="1" customWidth="1"/>
-    <col min="14597" max="14597" width="15.125" style="1" customWidth="1"/>
-    <col min="14598" max="14598" width="12.625" style="1" customWidth="1"/>
-    <col min="14599" max="14599" width="11.875" style="1" customWidth="1"/>
-    <col min="14600" max="14600" width="9.625" style="1" customWidth="1"/>
+    <col min="14595" max="14595" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="15.44140625" style="1" customWidth="1"/>
+    <col min="14597" max="14597" width="15.109375" style="1" customWidth="1"/>
+    <col min="14598" max="14598" width="12.6640625" style="1" customWidth="1"/>
+    <col min="14599" max="14599" width="11.88671875" style="1" customWidth="1"/>
+    <col min="14600" max="14600" width="9.6640625" style="1" customWidth="1"/>
     <col min="14601" max="14849" width="9" style="1"/>
     <col min="14850" max="14850" width="12" style="1" customWidth="1"/>
-    <col min="14851" max="14851" width="11.375" style="1" customWidth="1"/>
-    <col min="14852" max="14852" width="15.5" style="1" customWidth="1"/>
-    <col min="14853" max="14853" width="15.125" style="1" customWidth="1"/>
-    <col min="14854" max="14854" width="12.625" style="1" customWidth="1"/>
-    <col min="14855" max="14855" width="11.875" style="1" customWidth="1"/>
-    <col min="14856" max="14856" width="9.625" style="1" customWidth="1"/>
+    <col min="14851" max="14851" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="15.44140625" style="1" customWidth="1"/>
+    <col min="14853" max="14853" width="15.109375" style="1" customWidth="1"/>
+    <col min="14854" max="14854" width="12.6640625" style="1" customWidth="1"/>
+    <col min="14855" max="14855" width="11.88671875" style="1" customWidth="1"/>
+    <col min="14856" max="14856" width="9.6640625" style="1" customWidth="1"/>
     <col min="14857" max="15105" width="9" style="1"/>
     <col min="15106" max="15106" width="12" style="1" customWidth="1"/>
-    <col min="15107" max="15107" width="11.375" style="1" customWidth="1"/>
-    <col min="15108" max="15108" width="15.5" style="1" customWidth="1"/>
-    <col min="15109" max="15109" width="15.125" style="1" customWidth="1"/>
-    <col min="15110" max="15110" width="12.625" style="1" customWidth="1"/>
-    <col min="15111" max="15111" width="11.875" style="1" customWidth="1"/>
-    <col min="15112" max="15112" width="9.625" style="1" customWidth="1"/>
+    <col min="15107" max="15107" width="11.33203125" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="15.44140625" style="1" customWidth="1"/>
+    <col min="15109" max="15109" width="15.109375" style="1" customWidth="1"/>
+    <col min="15110" max="15110" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15111" max="15111" width="11.88671875" style="1" customWidth="1"/>
+    <col min="15112" max="15112" width="9.6640625" style="1" customWidth="1"/>
     <col min="15113" max="15361" width="9" style="1"/>
     <col min="15362" max="15362" width="12" style="1" customWidth="1"/>
-    <col min="15363" max="15363" width="11.375" style="1" customWidth="1"/>
-    <col min="15364" max="15364" width="15.5" style="1" customWidth="1"/>
-    <col min="15365" max="15365" width="15.125" style="1" customWidth="1"/>
-    <col min="15366" max="15366" width="12.625" style="1" customWidth="1"/>
-    <col min="15367" max="15367" width="11.875" style="1" customWidth="1"/>
-    <col min="15368" max="15368" width="9.625" style="1" customWidth="1"/>
+    <col min="15363" max="15363" width="11.33203125" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="15.44140625" style="1" customWidth="1"/>
+    <col min="15365" max="15365" width="15.109375" style="1" customWidth="1"/>
+    <col min="15366" max="15366" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15367" max="15367" width="11.88671875" style="1" customWidth="1"/>
+    <col min="15368" max="15368" width="9.6640625" style="1" customWidth="1"/>
     <col min="15369" max="15617" width="9" style="1"/>
     <col min="15618" max="15618" width="12" style="1" customWidth="1"/>
-    <col min="15619" max="15619" width="11.375" style="1" customWidth="1"/>
-    <col min="15620" max="15620" width="15.5" style="1" customWidth="1"/>
-    <col min="15621" max="15621" width="15.125" style="1" customWidth="1"/>
-    <col min="15622" max="15622" width="12.625" style="1" customWidth="1"/>
-    <col min="15623" max="15623" width="11.875" style="1" customWidth="1"/>
-    <col min="15624" max="15624" width="9.625" style="1" customWidth="1"/>
+    <col min="15619" max="15619" width="11.33203125" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="15.44140625" style="1" customWidth="1"/>
+    <col min="15621" max="15621" width="15.109375" style="1" customWidth="1"/>
+    <col min="15622" max="15622" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15623" max="15623" width="11.88671875" style="1" customWidth="1"/>
+    <col min="15624" max="15624" width="9.6640625" style="1" customWidth="1"/>
     <col min="15625" max="15873" width="9" style="1"/>
     <col min="15874" max="15874" width="12" style="1" customWidth="1"/>
-    <col min="15875" max="15875" width="11.375" style="1" customWidth="1"/>
-    <col min="15876" max="15876" width="15.5" style="1" customWidth="1"/>
-    <col min="15877" max="15877" width="15.125" style="1" customWidth="1"/>
-    <col min="15878" max="15878" width="12.625" style="1" customWidth="1"/>
-    <col min="15879" max="15879" width="11.875" style="1" customWidth="1"/>
-    <col min="15880" max="15880" width="9.625" style="1" customWidth="1"/>
+    <col min="15875" max="15875" width="11.33203125" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="15.44140625" style="1" customWidth="1"/>
+    <col min="15877" max="15877" width="15.109375" style="1" customWidth="1"/>
+    <col min="15878" max="15878" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15879" max="15879" width="11.88671875" style="1" customWidth="1"/>
+    <col min="15880" max="15880" width="9.6640625" style="1" customWidth="1"/>
     <col min="15881" max="16129" width="9" style="1"/>
     <col min="16130" max="16130" width="12" style="1" customWidth="1"/>
-    <col min="16131" max="16131" width="11.375" style="1" customWidth="1"/>
-    <col min="16132" max="16132" width="15.5" style="1" customWidth="1"/>
-    <col min="16133" max="16133" width="15.125" style="1" customWidth="1"/>
-    <col min="16134" max="16134" width="12.625" style="1" customWidth="1"/>
-    <col min="16135" max="16135" width="11.875" style="1" customWidth="1"/>
-    <col min="16136" max="16136" width="9.625" style="1" customWidth="1"/>
+    <col min="16131" max="16131" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="15.44140625" style="1" customWidth="1"/>
+    <col min="16133" max="16133" width="15.109375" style="1" customWidth="1"/>
+    <col min="16134" max="16134" width="12.6640625" style="1" customWidth="1"/>
+    <col min="16135" max="16135" width="11.88671875" style="1" customWidth="1"/>
+    <col min="16136" max="16136" width="9.6640625" style="1" customWidth="1"/>
     <col min="16137" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="28.5" customHeight="1">
-      <c r="B1" s="179" t="s">
+      <c r="B1" s="168" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
-      <c r="H1" s="179"/>
-    </row>
-    <row r="2" spans="2:8" ht="16.7" customHeight="1">
-      <c r="B2" s="186" t="s">
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+    </row>
+    <row r="2" spans="2:8" ht="16.649999999999999" customHeight="1">
+      <c r="B2" s="175" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="177" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="188" t="s">
+      <c r="D2" s="177" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188" t="s">
+      <c r="E2" s="177"/>
+      <c r="F2" s="177" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="188"/>
-      <c r="H2" s="190" t="s">
+      <c r="G2" s="177"/>
+      <c r="H2" s="179" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="16.7" customHeight="1">
-      <c r="B3" s="187"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
+    <row r="3" spans="2:8" ht="16.649999999999999" customHeight="1">
+      <c r="B3" s="176"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
       <c r="F3" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="191"/>
+      <c r="H3" s="180"/>
     </row>
     <row r="4" spans="2:8" ht="23.25" customHeight="1">
       <c r="B4" s="39"/>
       <c r="C4" s="40"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="181"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="170"/>
       <c r="F4" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G4" s="41"/>
       <c r="H4" s="42"/>
@@ -4558,8 +4544,8 @@
     <row r="5" spans="2:8" ht="23.25" customHeight="1">
       <c r="B5" s="43"/>
       <c r="C5" s="44"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="183"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="172"/>
       <c r="F5" s="45"/>
       <c r="G5" s="45"/>
       <c r="H5" s="46"/>
@@ -4567,8 +4553,8 @@
     <row r="6" spans="2:8" ht="23.25" customHeight="1">
       <c r="B6" s="43"/>
       <c r="C6" s="44"/>
-      <c r="D6" s="184"/>
-      <c r="E6" s="185"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="174"/>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
       <c r="H6" s="48"/>
@@ -4576,8 +4562,8 @@
     <row r="7" spans="2:8" ht="23.25" customHeight="1">
       <c r="B7" s="43"/>
       <c r="C7" s="49"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="175"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
       <c r="F7" s="45"/>
       <c r="G7" s="45"/>
       <c r="H7" s="50"/>
@@ -4585,8 +4571,8 @@
     <row r="8" spans="2:8" ht="23.25" customHeight="1">
       <c r="B8" s="43"/>
       <c r="C8" s="49"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="175"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="164"/>
       <c r="F8" s="45"/>
       <c r="G8" s="45"/>
       <c r="H8" s="50"/>
@@ -4594,8 +4580,8 @@
     <row r="9" spans="2:8" ht="23.25" customHeight="1">
       <c r="B9" s="43"/>
       <c r="C9" s="49"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
       <c r="F9" s="45"/>
       <c r="G9" s="45"/>
       <c r="H9" s="50"/>
@@ -4603,8 +4589,8 @@
     <row r="10" spans="2:8" ht="23.25" customHeight="1">
       <c r="B10" s="43"/>
       <c r="C10" s="49"/>
-      <c r="D10" s="175"/>
-      <c r="E10" s="175"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
       <c r="F10" s="45"/>
       <c r="G10" s="45"/>
       <c r="H10" s="50"/>
@@ -4612,8 +4598,8 @@
     <row r="11" spans="2:8" ht="23.25" customHeight="1">
       <c r="B11" s="43"/>
       <c r="C11" s="49"/>
-      <c r="D11" s="175"/>
-      <c r="E11" s="175"/>
+      <c r="D11" s="164"/>
+      <c r="E11" s="164"/>
       <c r="F11" s="45"/>
       <c r="G11" s="45"/>
       <c r="H11" s="50"/>
@@ -4621,8 +4607,8 @@
     <row r="12" spans="2:8" ht="23.25" customHeight="1">
       <c r="B12" s="43"/>
       <c r="C12" s="49"/>
-      <c r="D12" s="175"/>
-      <c r="E12" s="175"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="164"/>
       <c r="F12" s="45"/>
       <c r="G12" s="45"/>
       <c r="H12" s="50"/>
@@ -4630,8 +4616,8 @@
     <row r="13" spans="2:8" ht="23.25" customHeight="1">
       <c r="B13" s="43"/>
       <c r="C13" s="49"/>
-      <c r="D13" s="175"/>
-      <c r="E13" s="175"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="164"/>
       <c r="F13" s="45"/>
       <c r="G13" s="45"/>
       <c r="H13" s="50"/>
@@ -4639,8 +4625,8 @@
     <row r="14" spans="2:8" ht="23.25" customHeight="1">
       <c r="B14" s="43"/>
       <c r="C14" s="49"/>
-      <c r="D14" s="175"/>
-      <c r="E14" s="175"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="164"/>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
       <c r="H14" s="50"/>
@@ -4648,8 +4634,8 @@
     <row r="15" spans="2:8" ht="23.25" customHeight="1">
       <c r="B15" s="43"/>
       <c r="C15" s="49"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="175"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="164"/>
       <c r="F15" s="45"/>
       <c r="G15" s="45"/>
       <c r="H15" s="50"/>
@@ -4657,8 +4643,8 @@
     <row r="16" spans="2:8" ht="23.25" customHeight="1">
       <c r="B16" s="43"/>
       <c r="C16" s="49"/>
-      <c r="D16" s="175"/>
-      <c r="E16" s="175"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="164"/>
       <c r="F16" s="45"/>
       <c r="G16" s="45"/>
       <c r="H16" s="50"/>
@@ -4666,8 +4652,8 @@
     <row r="17" spans="2:8" ht="23.25" customHeight="1">
       <c r="B17" s="43"/>
       <c r="C17" s="49"/>
-      <c r="D17" s="175"/>
-      <c r="E17" s="175"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="164"/>
       <c r="F17" s="45"/>
       <c r="G17" s="45"/>
       <c r="H17" s="50"/>
@@ -4675,8 +4661,8 @@
     <row r="18" spans="2:8" ht="23.25" customHeight="1">
       <c r="B18" s="43"/>
       <c r="C18" s="49"/>
-      <c r="D18" s="175"/>
-      <c r="E18" s="175"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="164"/>
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="50"/>
@@ -4684,8 +4670,8 @@
     <row r="19" spans="2:8" ht="23.25" customHeight="1">
       <c r="B19" s="43"/>
       <c r="C19" s="49"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="175"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="164"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="50"/>
@@ -4693,8 +4679,8 @@
     <row r="20" spans="2:8" ht="23.25" customHeight="1">
       <c r="B20" s="43"/>
       <c r="C20" s="49"/>
-      <c r="D20" s="175"/>
-      <c r="E20" s="175"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="164"/>
       <c r="F20" s="45"/>
       <c r="G20" s="45"/>
       <c r="H20" s="50"/>
@@ -4702,8 +4688,8 @@
     <row r="21" spans="2:8" ht="23.25" customHeight="1">
       <c r="B21" s="43"/>
       <c r="C21" s="49"/>
-      <c r="D21" s="175"/>
-      <c r="E21" s="175"/>
+      <c r="D21" s="164"/>
+      <c r="E21" s="164"/>
       <c r="F21" s="45"/>
       <c r="G21" s="45"/>
       <c r="H21" s="50"/>
@@ -4711,8 +4697,8 @@
     <row r="22" spans="2:8" ht="23.25" customHeight="1">
       <c r="B22" s="43"/>
       <c r="C22" s="49"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="175"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="164"/>
       <c r="F22" s="45"/>
       <c r="G22" s="45"/>
       <c r="H22" s="50"/>
@@ -4720,8 +4706,8 @@
     <row r="23" spans="2:8" ht="23.25" customHeight="1">
       <c r="B23" s="43"/>
       <c r="C23" s="49"/>
-      <c r="D23" s="175"/>
-      <c r="E23" s="175"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="164"/>
       <c r="F23" s="45"/>
       <c r="G23" s="45"/>
       <c r="H23" s="50"/>
@@ -4729,8 +4715,8 @@
     <row r="24" spans="2:8" ht="23.25" customHeight="1">
       <c r="B24" s="43"/>
       <c r="C24" s="49"/>
-      <c r="D24" s="175"/>
-      <c r="E24" s="175"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="164"/>
       <c r="F24" s="45"/>
       <c r="G24" s="45"/>
       <c r="H24" s="50"/>
@@ -4738,8 +4724,8 @@
     <row r="25" spans="2:8" ht="23.25" customHeight="1">
       <c r="B25" s="43"/>
       <c r="C25" s="49"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
+      <c r="D25" s="164"/>
+      <c r="E25" s="164"/>
       <c r="F25" s="45"/>
       <c r="G25" s="45"/>
       <c r="H25" s="50"/>
@@ -4747,8 +4733,8 @@
     <row r="26" spans="2:8" ht="23.25" customHeight="1">
       <c r="B26" s="43"/>
       <c r="C26" s="49"/>
-      <c r="D26" s="175"/>
-      <c r="E26" s="175"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="164"/>
       <c r="F26" s="45"/>
       <c r="G26" s="45"/>
       <c r="H26" s="50"/>
@@ -4756,8 +4742,8 @@
     <row r="27" spans="2:8" ht="23.25" customHeight="1">
       <c r="B27" s="43"/>
       <c r="C27" s="49"/>
-      <c r="D27" s="175"/>
-      <c r="E27" s="175"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="164"/>
       <c r="F27" s="45"/>
       <c r="G27" s="45"/>
       <c r="H27" s="50"/>
@@ -4765,8 +4751,8 @@
     <row r="28" spans="2:8" ht="23.25" customHeight="1">
       <c r="B28" s="43"/>
       <c r="C28" s="49"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="175"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="164"/>
       <c r="F28" s="45"/>
       <c r="G28" s="45"/>
       <c r="H28" s="50"/>
@@ -4774,8 +4760,8 @@
     <row r="29" spans="2:8" ht="23.25" customHeight="1">
       <c r="B29" s="43"/>
       <c r="C29" s="49"/>
-      <c r="D29" s="175"/>
-      <c r="E29" s="175"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="164"/>
       <c r="F29" s="45"/>
       <c r="G29" s="45"/>
       <c r="H29" s="50"/>
@@ -4783,8 +4769,8 @@
     <row r="30" spans="2:8" ht="23.25" customHeight="1">
       <c r="B30" s="43"/>
       <c r="C30" s="49"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="175"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
       <c r="F30" s="45"/>
       <c r="G30" s="45"/>
       <c r="H30" s="50"/>
@@ -4792,8 +4778,8 @@
     <row r="31" spans="2:8" ht="23.25" customHeight="1">
       <c r="B31" s="43"/>
       <c r="C31" s="49"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="175"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="164"/>
       <c r="F31" s="45"/>
       <c r="G31" s="45"/>
       <c r="H31" s="50"/>
@@ -4801,8 +4787,8 @@
     <row r="32" spans="2:8" ht="23.25" customHeight="1">
       <c r="B32" s="43"/>
       <c r="C32" s="49"/>
-      <c r="D32" s="175"/>
-      <c r="E32" s="175"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="164"/>
       <c r="F32" s="45"/>
       <c r="G32" s="45"/>
       <c r="H32" s="50"/>
@@ -4810,8 +4796,8 @@
     <row r="33" spans="2:8" ht="23.25" customHeight="1">
       <c r="B33" s="43"/>
       <c r="C33" s="49"/>
-      <c r="D33" s="175"/>
-      <c r="E33" s="175"/>
+      <c r="D33" s="164"/>
+      <c r="E33" s="164"/>
       <c r="F33" s="45"/>
       <c r="G33" s="45"/>
       <c r="H33" s="50"/>
@@ -4819,19 +4805,19 @@
     <row r="34" spans="2:8" ht="23.25" customHeight="1">
       <c r="B34" s="51"/>
       <c r="C34" s="52"/>
-      <c r="D34" s="176"/>
-      <c r="E34" s="176"/>
+      <c r="D34" s="165"/>
+      <c r="E34" s="165"/>
       <c r="F34" s="53"/>
       <c r="G34" s="53"/>
       <c r="H34" s="54"/>
     </row>
     <row r="35" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B35" s="177" t="s">
+      <c r="B35" s="166" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="178"/>
-      <c r="D35" s="178"/>
-      <c r="E35" s="178"/>
+      <c r="C35" s="167"/>
+      <c r="D35" s="167"/>
+      <c r="E35" s="167"/>
       <c r="F35" s="13">
         <f>SUM(F4:F34)</f>
         <v>0</v>
@@ -4886,7 +4872,7 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.43307086614173229" bottom="0.98425196850393704" header="0.23622047244094491" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="91" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;R&amp;10松下电器軟件开发（大連）有限公司</oddFooter>
   </headerFooter>
@@ -4902,1465 +4888,1465 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="19.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="19.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4" style="2" customWidth="1"/>
     <col min="12" max="35" width="9" style="2" customWidth="1"/>
     <col min="36" max="235" width="9" style="2"/>
-    <col min="236" max="236" width="1.625" style="2" customWidth="1"/>
-    <col min="237" max="237" width="1.75" style="2" customWidth="1"/>
-    <col min="238" max="238" width="7.375" style="2" customWidth="1"/>
-    <col min="239" max="239" width="4.125" style="2" customWidth="1"/>
-    <col min="240" max="240" width="2.375" style="2" customWidth="1"/>
+    <col min="236" max="236" width="1.6640625" style="2" customWidth="1"/>
+    <col min="237" max="237" width="1.77734375" style="2" customWidth="1"/>
+    <col min="238" max="238" width="7.33203125" style="2" customWidth="1"/>
+    <col min="239" max="239" width="4.109375" style="2" customWidth="1"/>
+    <col min="240" max="240" width="2.33203125" style="2" customWidth="1"/>
     <col min="241" max="241" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="242" max="242" width="2.125" style="2" customWidth="1"/>
-    <col min="243" max="243" width="2.625" style="2" customWidth="1"/>
+    <col min="242" max="242" width="2.109375" style="2" customWidth="1"/>
+    <col min="243" max="243" width="2.6640625" style="2" customWidth="1"/>
     <col min="244" max="244" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="245" max="245" width="9.25" style="2" customWidth="1"/>
-    <col min="246" max="246" width="12.25" style="2" customWidth="1"/>
-    <col min="247" max="247" width="9.125" style="2" customWidth="1"/>
-    <col min="248" max="248" width="3.125" style="2" customWidth="1"/>
-    <col min="249" max="249" width="5.625" style="2" customWidth="1"/>
-    <col min="250" max="250" width="6.5" style="2" customWidth="1"/>
+    <col min="245" max="245" width="9.21875" style="2" customWidth="1"/>
+    <col min="246" max="246" width="12.21875" style="2" customWidth="1"/>
+    <col min="247" max="247" width="9.109375" style="2" customWidth="1"/>
+    <col min="248" max="248" width="3.109375" style="2" customWidth="1"/>
+    <col min="249" max="249" width="5.6640625" style="2" customWidth="1"/>
+    <col min="250" max="250" width="6.44140625" style="2" customWidth="1"/>
     <col min="251" max="251" width="1" style="2" customWidth="1"/>
     <col min="252" max="252" width="3" style="2" customWidth="1"/>
-    <col min="253" max="253" width="7.125" style="2" customWidth="1"/>
-    <col min="254" max="254" width="2.75" style="2" customWidth="1"/>
-    <col min="255" max="255" width="8.625" style="2" customWidth="1"/>
+    <col min="253" max="253" width="7.109375" style="2" customWidth="1"/>
+    <col min="254" max="254" width="2.77734375" style="2" customWidth="1"/>
+    <col min="255" max="255" width="8.6640625" style="2" customWidth="1"/>
     <col min="256" max="266" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="267" max="291" width="9" style="2" customWidth="1"/>
     <col min="292" max="491" width="9" style="2"/>
-    <col min="492" max="492" width="1.625" style="2" customWidth="1"/>
-    <col min="493" max="493" width="1.75" style="2" customWidth="1"/>
-    <col min="494" max="494" width="7.375" style="2" customWidth="1"/>
-    <col min="495" max="495" width="4.125" style="2" customWidth="1"/>
-    <col min="496" max="496" width="2.375" style="2" customWidth="1"/>
+    <col min="492" max="492" width="1.6640625" style="2" customWidth="1"/>
+    <col min="493" max="493" width="1.77734375" style="2" customWidth="1"/>
+    <col min="494" max="494" width="7.33203125" style="2" customWidth="1"/>
+    <col min="495" max="495" width="4.109375" style="2" customWidth="1"/>
+    <col min="496" max="496" width="2.33203125" style="2" customWidth="1"/>
     <col min="497" max="497" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="498" max="498" width="2.125" style="2" customWidth="1"/>
-    <col min="499" max="499" width="2.625" style="2" customWidth="1"/>
+    <col min="498" max="498" width="2.109375" style="2" customWidth="1"/>
+    <col min="499" max="499" width="2.6640625" style="2" customWidth="1"/>
     <col min="500" max="500" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="501" max="501" width="9.25" style="2" customWidth="1"/>
-    <col min="502" max="502" width="12.25" style="2" customWidth="1"/>
-    <col min="503" max="503" width="9.125" style="2" customWidth="1"/>
-    <col min="504" max="504" width="3.125" style="2" customWidth="1"/>
-    <col min="505" max="505" width="5.625" style="2" customWidth="1"/>
-    <col min="506" max="506" width="6.5" style="2" customWidth="1"/>
+    <col min="501" max="501" width="9.21875" style="2" customWidth="1"/>
+    <col min="502" max="502" width="12.21875" style="2" customWidth="1"/>
+    <col min="503" max="503" width="9.109375" style="2" customWidth="1"/>
+    <col min="504" max="504" width="3.109375" style="2" customWidth="1"/>
+    <col min="505" max="505" width="5.6640625" style="2" customWidth="1"/>
+    <col min="506" max="506" width="6.44140625" style="2" customWidth="1"/>
     <col min="507" max="507" width="1" style="2" customWidth="1"/>
     <col min="508" max="508" width="3" style="2" customWidth="1"/>
-    <col min="509" max="509" width="7.125" style="2" customWidth="1"/>
-    <col min="510" max="510" width="2.75" style="2" customWidth="1"/>
-    <col min="511" max="511" width="8.625" style="2" customWidth="1"/>
+    <col min="509" max="509" width="7.109375" style="2" customWidth="1"/>
+    <col min="510" max="510" width="2.77734375" style="2" customWidth="1"/>
+    <col min="511" max="511" width="8.6640625" style="2" customWidth="1"/>
     <col min="512" max="522" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="523" max="547" width="9" style="2" customWidth="1"/>
     <col min="548" max="747" width="9" style="2"/>
-    <col min="748" max="748" width="1.625" style="2" customWidth="1"/>
-    <col min="749" max="749" width="1.75" style="2" customWidth="1"/>
-    <col min="750" max="750" width="7.375" style="2" customWidth="1"/>
-    <col min="751" max="751" width="4.125" style="2" customWidth="1"/>
-    <col min="752" max="752" width="2.375" style="2" customWidth="1"/>
+    <col min="748" max="748" width="1.6640625" style="2" customWidth="1"/>
+    <col min="749" max="749" width="1.77734375" style="2" customWidth="1"/>
+    <col min="750" max="750" width="7.33203125" style="2" customWidth="1"/>
+    <col min="751" max="751" width="4.109375" style="2" customWidth="1"/>
+    <col min="752" max="752" width="2.33203125" style="2" customWidth="1"/>
     <col min="753" max="753" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="754" max="754" width="2.125" style="2" customWidth="1"/>
-    <col min="755" max="755" width="2.625" style="2" customWidth="1"/>
+    <col min="754" max="754" width="2.109375" style="2" customWidth="1"/>
+    <col min="755" max="755" width="2.6640625" style="2" customWidth="1"/>
     <col min="756" max="756" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="757" max="757" width="9.25" style="2" customWidth="1"/>
-    <col min="758" max="758" width="12.25" style="2" customWidth="1"/>
-    <col min="759" max="759" width="9.125" style="2" customWidth="1"/>
-    <col min="760" max="760" width="3.125" style="2" customWidth="1"/>
-    <col min="761" max="761" width="5.625" style="2" customWidth="1"/>
-    <col min="762" max="762" width="6.5" style="2" customWidth="1"/>
+    <col min="757" max="757" width="9.21875" style="2" customWidth="1"/>
+    <col min="758" max="758" width="12.21875" style="2" customWidth="1"/>
+    <col min="759" max="759" width="9.109375" style="2" customWidth="1"/>
+    <col min="760" max="760" width="3.109375" style="2" customWidth="1"/>
+    <col min="761" max="761" width="5.6640625" style="2" customWidth="1"/>
+    <col min="762" max="762" width="6.44140625" style="2" customWidth="1"/>
     <col min="763" max="763" width="1" style="2" customWidth="1"/>
     <col min="764" max="764" width="3" style="2" customWidth="1"/>
-    <col min="765" max="765" width="7.125" style="2" customWidth="1"/>
-    <col min="766" max="766" width="2.75" style="2" customWidth="1"/>
-    <col min="767" max="767" width="8.625" style="2" customWidth="1"/>
+    <col min="765" max="765" width="7.109375" style="2" customWidth="1"/>
+    <col min="766" max="766" width="2.77734375" style="2" customWidth="1"/>
+    <col min="767" max="767" width="8.6640625" style="2" customWidth="1"/>
     <col min="768" max="778" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="779" max="803" width="9" style="2" customWidth="1"/>
     <col min="804" max="1003" width="9" style="2"/>
-    <col min="1004" max="1004" width="1.625" style="2" customWidth="1"/>
-    <col min="1005" max="1005" width="1.75" style="2" customWidth="1"/>
-    <col min="1006" max="1006" width="7.375" style="2" customWidth="1"/>
-    <col min="1007" max="1007" width="4.125" style="2" customWidth="1"/>
-    <col min="1008" max="1008" width="2.375" style="2" customWidth="1"/>
+    <col min="1004" max="1004" width="1.6640625" style="2" customWidth="1"/>
+    <col min="1005" max="1005" width="1.77734375" style="2" customWidth="1"/>
+    <col min="1006" max="1006" width="7.33203125" style="2" customWidth="1"/>
+    <col min="1007" max="1007" width="4.109375" style="2" customWidth="1"/>
+    <col min="1008" max="1008" width="2.33203125" style="2" customWidth="1"/>
     <col min="1009" max="1009" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="1010" max="1010" width="2.125" style="2" customWidth="1"/>
-    <col min="1011" max="1011" width="2.625" style="2" customWidth="1"/>
+    <col min="1010" max="1010" width="2.109375" style="2" customWidth="1"/>
+    <col min="1011" max="1011" width="2.6640625" style="2" customWidth="1"/>
     <col min="1012" max="1012" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="1013" max="1013" width="9.25" style="2" customWidth="1"/>
-    <col min="1014" max="1014" width="12.25" style="2" customWidth="1"/>
-    <col min="1015" max="1015" width="9.125" style="2" customWidth="1"/>
-    <col min="1016" max="1016" width="3.125" style="2" customWidth="1"/>
-    <col min="1017" max="1017" width="5.625" style="2" customWidth="1"/>
-    <col min="1018" max="1018" width="6.5" style="2" customWidth="1"/>
+    <col min="1013" max="1013" width="9.21875" style="2" customWidth="1"/>
+    <col min="1014" max="1014" width="12.21875" style="2" customWidth="1"/>
+    <col min="1015" max="1015" width="9.109375" style="2" customWidth="1"/>
+    <col min="1016" max="1016" width="3.109375" style="2" customWidth="1"/>
+    <col min="1017" max="1017" width="5.6640625" style="2" customWidth="1"/>
+    <col min="1018" max="1018" width="6.44140625" style="2" customWidth="1"/>
     <col min="1019" max="1019" width="1" style="2" customWidth="1"/>
     <col min="1020" max="1020" width="3" style="2" customWidth="1"/>
-    <col min="1021" max="1021" width="7.125" style="2" customWidth="1"/>
-    <col min="1022" max="1022" width="2.75" style="2" customWidth="1"/>
-    <col min="1023" max="1023" width="8.625" style="2" customWidth="1"/>
+    <col min="1021" max="1021" width="7.109375" style="2" customWidth="1"/>
+    <col min="1022" max="1022" width="2.77734375" style="2" customWidth="1"/>
+    <col min="1023" max="1023" width="8.6640625" style="2" customWidth="1"/>
     <col min="1024" max="1034" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="1035" max="1059" width="9" style="2" customWidth="1"/>
     <col min="1060" max="1259" width="9" style="2"/>
-    <col min="1260" max="1260" width="1.625" style="2" customWidth="1"/>
-    <col min="1261" max="1261" width="1.75" style="2" customWidth="1"/>
-    <col min="1262" max="1262" width="7.375" style="2" customWidth="1"/>
-    <col min="1263" max="1263" width="4.125" style="2" customWidth="1"/>
-    <col min="1264" max="1264" width="2.375" style="2" customWidth="1"/>
+    <col min="1260" max="1260" width="1.6640625" style="2" customWidth="1"/>
+    <col min="1261" max="1261" width="1.77734375" style="2" customWidth="1"/>
+    <col min="1262" max="1262" width="7.33203125" style="2" customWidth="1"/>
+    <col min="1263" max="1263" width="4.109375" style="2" customWidth="1"/>
+    <col min="1264" max="1264" width="2.33203125" style="2" customWidth="1"/>
     <col min="1265" max="1265" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="1266" max="1266" width="2.125" style="2" customWidth="1"/>
-    <col min="1267" max="1267" width="2.625" style="2" customWidth="1"/>
+    <col min="1266" max="1266" width="2.109375" style="2" customWidth="1"/>
+    <col min="1267" max="1267" width="2.6640625" style="2" customWidth="1"/>
     <col min="1268" max="1268" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="1269" max="1269" width="9.25" style="2" customWidth="1"/>
-    <col min="1270" max="1270" width="12.25" style="2" customWidth="1"/>
-    <col min="1271" max="1271" width="9.125" style="2" customWidth="1"/>
-    <col min="1272" max="1272" width="3.125" style="2" customWidth="1"/>
-    <col min="1273" max="1273" width="5.625" style="2" customWidth="1"/>
-    <col min="1274" max="1274" width="6.5" style="2" customWidth="1"/>
+    <col min="1269" max="1269" width="9.21875" style="2" customWidth="1"/>
+    <col min="1270" max="1270" width="12.21875" style="2" customWidth="1"/>
+    <col min="1271" max="1271" width="9.109375" style="2" customWidth="1"/>
+    <col min="1272" max="1272" width="3.109375" style="2" customWidth="1"/>
+    <col min="1273" max="1273" width="5.6640625" style="2" customWidth="1"/>
+    <col min="1274" max="1274" width="6.44140625" style="2" customWidth="1"/>
     <col min="1275" max="1275" width="1" style="2" customWidth="1"/>
     <col min="1276" max="1276" width="3" style="2" customWidth="1"/>
-    <col min="1277" max="1277" width="7.125" style="2" customWidth="1"/>
-    <col min="1278" max="1278" width="2.75" style="2" customWidth="1"/>
-    <col min="1279" max="1279" width="8.625" style="2" customWidth="1"/>
+    <col min="1277" max="1277" width="7.109375" style="2" customWidth="1"/>
+    <col min="1278" max="1278" width="2.77734375" style="2" customWidth="1"/>
+    <col min="1279" max="1279" width="8.6640625" style="2" customWidth="1"/>
     <col min="1280" max="1290" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="1291" max="1315" width="9" style="2" customWidth="1"/>
     <col min="1316" max="1515" width="9" style="2"/>
-    <col min="1516" max="1516" width="1.625" style="2" customWidth="1"/>
-    <col min="1517" max="1517" width="1.75" style="2" customWidth="1"/>
-    <col min="1518" max="1518" width="7.375" style="2" customWidth="1"/>
-    <col min="1519" max="1519" width="4.125" style="2" customWidth="1"/>
-    <col min="1520" max="1520" width="2.375" style="2" customWidth="1"/>
+    <col min="1516" max="1516" width="1.6640625" style="2" customWidth="1"/>
+    <col min="1517" max="1517" width="1.77734375" style="2" customWidth="1"/>
+    <col min="1518" max="1518" width="7.33203125" style="2" customWidth="1"/>
+    <col min="1519" max="1519" width="4.109375" style="2" customWidth="1"/>
+    <col min="1520" max="1520" width="2.33203125" style="2" customWidth="1"/>
     <col min="1521" max="1521" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="1522" max="1522" width="2.125" style="2" customWidth="1"/>
-    <col min="1523" max="1523" width="2.625" style="2" customWidth="1"/>
+    <col min="1522" max="1522" width="2.109375" style="2" customWidth="1"/>
+    <col min="1523" max="1523" width="2.6640625" style="2" customWidth="1"/>
     <col min="1524" max="1524" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="1525" max="1525" width="9.25" style="2" customWidth="1"/>
-    <col min="1526" max="1526" width="12.25" style="2" customWidth="1"/>
-    <col min="1527" max="1527" width="9.125" style="2" customWidth="1"/>
-    <col min="1528" max="1528" width="3.125" style="2" customWidth="1"/>
-    <col min="1529" max="1529" width="5.625" style="2" customWidth="1"/>
-    <col min="1530" max="1530" width="6.5" style="2" customWidth="1"/>
+    <col min="1525" max="1525" width="9.21875" style="2" customWidth="1"/>
+    <col min="1526" max="1526" width="12.21875" style="2" customWidth="1"/>
+    <col min="1527" max="1527" width="9.109375" style="2" customWidth="1"/>
+    <col min="1528" max="1528" width="3.109375" style="2" customWidth="1"/>
+    <col min="1529" max="1529" width="5.6640625" style="2" customWidth="1"/>
+    <col min="1530" max="1530" width="6.44140625" style="2" customWidth="1"/>
     <col min="1531" max="1531" width="1" style="2" customWidth="1"/>
     <col min="1532" max="1532" width="3" style="2" customWidth="1"/>
-    <col min="1533" max="1533" width="7.125" style="2" customWidth="1"/>
-    <col min="1534" max="1534" width="2.75" style="2" customWidth="1"/>
-    <col min="1535" max="1535" width="8.625" style="2" customWidth="1"/>
+    <col min="1533" max="1533" width="7.109375" style="2" customWidth="1"/>
+    <col min="1534" max="1534" width="2.77734375" style="2" customWidth="1"/>
+    <col min="1535" max="1535" width="8.6640625" style="2" customWidth="1"/>
     <col min="1536" max="1546" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="1547" max="1571" width="9" style="2" customWidth="1"/>
     <col min="1572" max="1771" width="9" style="2"/>
-    <col min="1772" max="1772" width="1.625" style="2" customWidth="1"/>
-    <col min="1773" max="1773" width="1.75" style="2" customWidth="1"/>
-    <col min="1774" max="1774" width="7.375" style="2" customWidth="1"/>
-    <col min="1775" max="1775" width="4.125" style="2" customWidth="1"/>
-    <col min="1776" max="1776" width="2.375" style="2" customWidth="1"/>
+    <col min="1772" max="1772" width="1.6640625" style="2" customWidth="1"/>
+    <col min="1773" max="1773" width="1.77734375" style="2" customWidth="1"/>
+    <col min="1774" max="1774" width="7.33203125" style="2" customWidth="1"/>
+    <col min="1775" max="1775" width="4.109375" style="2" customWidth="1"/>
+    <col min="1776" max="1776" width="2.33203125" style="2" customWidth="1"/>
     <col min="1777" max="1777" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="1778" max="1778" width="2.125" style="2" customWidth="1"/>
-    <col min="1779" max="1779" width="2.625" style="2" customWidth="1"/>
+    <col min="1778" max="1778" width="2.109375" style="2" customWidth="1"/>
+    <col min="1779" max="1779" width="2.6640625" style="2" customWidth="1"/>
     <col min="1780" max="1780" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="1781" max="1781" width="9.25" style="2" customWidth="1"/>
-    <col min="1782" max="1782" width="12.25" style="2" customWidth="1"/>
-    <col min="1783" max="1783" width="9.125" style="2" customWidth="1"/>
-    <col min="1784" max="1784" width="3.125" style="2" customWidth="1"/>
-    <col min="1785" max="1785" width="5.625" style="2" customWidth="1"/>
-    <col min="1786" max="1786" width="6.5" style="2" customWidth="1"/>
+    <col min="1781" max="1781" width="9.21875" style="2" customWidth="1"/>
+    <col min="1782" max="1782" width="12.21875" style="2" customWidth="1"/>
+    <col min="1783" max="1783" width="9.109375" style="2" customWidth="1"/>
+    <col min="1784" max="1784" width="3.109375" style="2" customWidth="1"/>
+    <col min="1785" max="1785" width="5.6640625" style="2" customWidth="1"/>
+    <col min="1786" max="1786" width="6.44140625" style="2" customWidth="1"/>
     <col min="1787" max="1787" width="1" style="2" customWidth="1"/>
     <col min="1788" max="1788" width="3" style="2" customWidth="1"/>
-    <col min="1789" max="1789" width="7.125" style="2" customWidth="1"/>
-    <col min="1790" max="1790" width="2.75" style="2" customWidth="1"/>
-    <col min="1791" max="1791" width="8.625" style="2" customWidth="1"/>
+    <col min="1789" max="1789" width="7.109375" style="2" customWidth="1"/>
+    <col min="1790" max="1790" width="2.77734375" style="2" customWidth="1"/>
+    <col min="1791" max="1791" width="8.6640625" style="2" customWidth="1"/>
     <col min="1792" max="1802" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="1803" max="1827" width="9" style="2" customWidth="1"/>
     <col min="1828" max="2027" width="9" style="2"/>
-    <col min="2028" max="2028" width="1.625" style="2" customWidth="1"/>
-    <col min="2029" max="2029" width="1.75" style="2" customWidth="1"/>
-    <col min="2030" max="2030" width="7.375" style="2" customWidth="1"/>
-    <col min="2031" max="2031" width="4.125" style="2" customWidth="1"/>
-    <col min="2032" max="2032" width="2.375" style="2" customWidth="1"/>
+    <col min="2028" max="2028" width="1.6640625" style="2" customWidth="1"/>
+    <col min="2029" max="2029" width="1.77734375" style="2" customWidth="1"/>
+    <col min="2030" max="2030" width="7.33203125" style="2" customWidth="1"/>
+    <col min="2031" max="2031" width="4.109375" style="2" customWidth="1"/>
+    <col min="2032" max="2032" width="2.33203125" style="2" customWidth="1"/>
     <col min="2033" max="2033" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="2034" max="2034" width="2.125" style="2" customWidth="1"/>
-    <col min="2035" max="2035" width="2.625" style="2" customWidth="1"/>
+    <col min="2034" max="2034" width="2.109375" style="2" customWidth="1"/>
+    <col min="2035" max="2035" width="2.6640625" style="2" customWidth="1"/>
     <col min="2036" max="2036" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="2037" max="2037" width="9.25" style="2" customWidth="1"/>
-    <col min="2038" max="2038" width="12.25" style="2" customWidth="1"/>
-    <col min="2039" max="2039" width="9.125" style="2" customWidth="1"/>
-    <col min="2040" max="2040" width="3.125" style="2" customWidth="1"/>
-    <col min="2041" max="2041" width="5.625" style="2" customWidth="1"/>
-    <col min="2042" max="2042" width="6.5" style="2" customWidth="1"/>
+    <col min="2037" max="2037" width="9.21875" style="2" customWidth="1"/>
+    <col min="2038" max="2038" width="12.21875" style="2" customWidth="1"/>
+    <col min="2039" max="2039" width="9.109375" style="2" customWidth="1"/>
+    <col min="2040" max="2040" width="3.109375" style="2" customWidth="1"/>
+    <col min="2041" max="2041" width="5.6640625" style="2" customWidth="1"/>
+    <col min="2042" max="2042" width="6.44140625" style="2" customWidth="1"/>
     <col min="2043" max="2043" width="1" style="2" customWidth="1"/>
     <col min="2044" max="2044" width="3" style="2" customWidth="1"/>
-    <col min="2045" max="2045" width="7.125" style="2" customWidth="1"/>
-    <col min="2046" max="2046" width="2.75" style="2" customWidth="1"/>
-    <col min="2047" max="2047" width="8.625" style="2" customWidth="1"/>
+    <col min="2045" max="2045" width="7.109375" style="2" customWidth="1"/>
+    <col min="2046" max="2046" width="2.77734375" style="2" customWidth="1"/>
+    <col min="2047" max="2047" width="8.6640625" style="2" customWidth="1"/>
     <col min="2048" max="2058" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="2059" max="2083" width="9" style="2" customWidth="1"/>
     <col min="2084" max="2283" width="9" style="2"/>
-    <col min="2284" max="2284" width="1.625" style="2" customWidth="1"/>
-    <col min="2285" max="2285" width="1.75" style="2" customWidth="1"/>
-    <col min="2286" max="2286" width="7.375" style="2" customWidth="1"/>
-    <col min="2287" max="2287" width="4.125" style="2" customWidth="1"/>
-    <col min="2288" max="2288" width="2.375" style="2" customWidth="1"/>
+    <col min="2284" max="2284" width="1.6640625" style="2" customWidth="1"/>
+    <col min="2285" max="2285" width="1.77734375" style="2" customWidth="1"/>
+    <col min="2286" max="2286" width="7.33203125" style="2" customWidth="1"/>
+    <col min="2287" max="2287" width="4.109375" style="2" customWidth="1"/>
+    <col min="2288" max="2288" width="2.33203125" style="2" customWidth="1"/>
     <col min="2289" max="2289" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="2290" max="2290" width="2.125" style="2" customWidth="1"/>
-    <col min="2291" max="2291" width="2.625" style="2" customWidth="1"/>
+    <col min="2290" max="2290" width="2.109375" style="2" customWidth="1"/>
+    <col min="2291" max="2291" width="2.6640625" style="2" customWidth="1"/>
     <col min="2292" max="2292" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="2293" max="2293" width="9.25" style="2" customWidth="1"/>
-    <col min="2294" max="2294" width="12.25" style="2" customWidth="1"/>
-    <col min="2295" max="2295" width="9.125" style="2" customWidth="1"/>
-    <col min="2296" max="2296" width="3.125" style="2" customWidth="1"/>
-    <col min="2297" max="2297" width="5.625" style="2" customWidth="1"/>
-    <col min="2298" max="2298" width="6.5" style="2" customWidth="1"/>
+    <col min="2293" max="2293" width="9.21875" style="2" customWidth="1"/>
+    <col min="2294" max="2294" width="12.21875" style="2" customWidth="1"/>
+    <col min="2295" max="2295" width="9.109375" style="2" customWidth="1"/>
+    <col min="2296" max="2296" width="3.109375" style="2" customWidth="1"/>
+    <col min="2297" max="2297" width="5.6640625" style="2" customWidth="1"/>
+    <col min="2298" max="2298" width="6.44140625" style="2" customWidth="1"/>
     <col min="2299" max="2299" width="1" style="2" customWidth="1"/>
     <col min="2300" max="2300" width="3" style="2" customWidth="1"/>
-    <col min="2301" max="2301" width="7.125" style="2" customWidth="1"/>
-    <col min="2302" max="2302" width="2.75" style="2" customWidth="1"/>
-    <col min="2303" max="2303" width="8.625" style="2" customWidth="1"/>
+    <col min="2301" max="2301" width="7.109375" style="2" customWidth="1"/>
+    <col min="2302" max="2302" width="2.77734375" style="2" customWidth="1"/>
+    <col min="2303" max="2303" width="8.6640625" style="2" customWidth="1"/>
     <col min="2304" max="2314" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="2315" max="2339" width="9" style="2" customWidth="1"/>
     <col min="2340" max="2539" width="9" style="2"/>
-    <col min="2540" max="2540" width="1.625" style="2" customWidth="1"/>
-    <col min="2541" max="2541" width="1.75" style="2" customWidth="1"/>
-    <col min="2542" max="2542" width="7.375" style="2" customWidth="1"/>
-    <col min="2543" max="2543" width="4.125" style="2" customWidth="1"/>
-    <col min="2544" max="2544" width="2.375" style="2" customWidth="1"/>
+    <col min="2540" max="2540" width="1.6640625" style="2" customWidth="1"/>
+    <col min="2541" max="2541" width="1.77734375" style="2" customWidth="1"/>
+    <col min="2542" max="2542" width="7.33203125" style="2" customWidth="1"/>
+    <col min="2543" max="2543" width="4.109375" style="2" customWidth="1"/>
+    <col min="2544" max="2544" width="2.33203125" style="2" customWidth="1"/>
     <col min="2545" max="2545" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="2546" max="2546" width="2.125" style="2" customWidth="1"/>
-    <col min="2547" max="2547" width="2.625" style="2" customWidth="1"/>
+    <col min="2546" max="2546" width="2.109375" style="2" customWidth="1"/>
+    <col min="2547" max="2547" width="2.6640625" style="2" customWidth="1"/>
     <col min="2548" max="2548" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="2549" max="2549" width="9.25" style="2" customWidth="1"/>
-    <col min="2550" max="2550" width="12.25" style="2" customWidth="1"/>
-    <col min="2551" max="2551" width="9.125" style="2" customWidth="1"/>
-    <col min="2552" max="2552" width="3.125" style="2" customWidth="1"/>
-    <col min="2553" max="2553" width="5.625" style="2" customWidth="1"/>
-    <col min="2554" max="2554" width="6.5" style="2" customWidth="1"/>
+    <col min="2549" max="2549" width="9.21875" style="2" customWidth="1"/>
+    <col min="2550" max="2550" width="12.21875" style="2" customWidth="1"/>
+    <col min="2551" max="2551" width="9.109375" style="2" customWidth="1"/>
+    <col min="2552" max="2552" width="3.109375" style="2" customWidth="1"/>
+    <col min="2553" max="2553" width="5.6640625" style="2" customWidth="1"/>
+    <col min="2554" max="2554" width="6.44140625" style="2" customWidth="1"/>
     <col min="2555" max="2555" width="1" style="2" customWidth="1"/>
     <col min="2556" max="2556" width="3" style="2" customWidth="1"/>
-    <col min="2557" max="2557" width="7.125" style="2" customWidth="1"/>
-    <col min="2558" max="2558" width="2.75" style="2" customWidth="1"/>
-    <col min="2559" max="2559" width="8.625" style="2" customWidth="1"/>
+    <col min="2557" max="2557" width="7.109375" style="2" customWidth="1"/>
+    <col min="2558" max="2558" width="2.77734375" style="2" customWidth="1"/>
+    <col min="2559" max="2559" width="8.6640625" style="2" customWidth="1"/>
     <col min="2560" max="2570" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="2571" max="2595" width="9" style="2" customWidth="1"/>
     <col min="2596" max="2795" width="9" style="2"/>
-    <col min="2796" max="2796" width="1.625" style="2" customWidth="1"/>
-    <col min="2797" max="2797" width="1.75" style="2" customWidth="1"/>
-    <col min="2798" max="2798" width="7.375" style="2" customWidth="1"/>
-    <col min="2799" max="2799" width="4.125" style="2" customWidth="1"/>
-    <col min="2800" max="2800" width="2.375" style="2" customWidth="1"/>
+    <col min="2796" max="2796" width="1.6640625" style="2" customWidth="1"/>
+    <col min="2797" max="2797" width="1.77734375" style="2" customWidth="1"/>
+    <col min="2798" max="2798" width="7.33203125" style="2" customWidth="1"/>
+    <col min="2799" max="2799" width="4.109375" style="2" customWidth="1"/>
+    <col min="2800" max="2800" width="2.33203125" style="2" customWidth="1"/>
     <col min="2801" max="2801" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="2802" max="2802" width="2.125" style="2" customWidth="1"/>
-    <col min="2803" max="2803" width="2.625" style="2" customWidth="1"/>
+    <col min="2802" max="2802" width="2.109375" style="2" customWidth="1"/>
+    <col min="2803" max="2803" width="2.6640625" style="2" customWidth="1"/>
     <col min="2804" max="2804" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="2805" max="2805" width="9.25" style="2" customWidth="1"/>
-    <col min="2806" max="2806" width="12.25" style="2" customWidth="1"/>
-    <col min="2807" max="2807" width="9.125" style="2" customWidth="1"/>
-    <col min="2808" max="2808" width="3.125" style="2" customWidth="1"/>
-    <col min="2809" max="2809" width="5.625" style="2" customWidth="1"/>
-    <col min="2810" max="2810" width="6.5" style="2" customWidth="1"/>
+    <col min="2805" max="2805" width="9.21875" style="2" customWidth="1"/>
+    <col min="2806" max="2806" width="12.21875" style="2" customWidth="1"/>
+    <col min="2807" max="2807" width="9.109375" style="2" customWidth="1"/>
+    <col min="2808" max="2808" width="3.109375" style="2" customWidth="1"/>
+    <col min="2809" max="2809" width="5.6640625" style="2" customWidth="1"/>
+    <col min="2810" max="2810" width="6.44140625" style="2" customWidth="1"/>
     <col min="2811" max="2811" width="1" style="2" customWidth="1"/>
     <col min="2812" max="2812" width="3" style="2" customWidth="1"/>
-    <col min="2813" max="2813" width="7.125" style="2" customWidth="1"/>
-    <col min="2814" max="2814" width="2.75" style="2" customWidth="1"/>
-    <col min="2815" max="2815" width="8.625" style="2" customWidth="1"/>
+    <col min="2813" max="2813" width="7.109375" style="2" customWidth="1"/>
+    <col min="2814" max="2814" width="2.77734375" style="2" customWidth="1"/>
+    <col min="2815" max="2815" width="8.6640625" style="2" customWidth="1"/>
     <col min="2816" max="2826" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="2827" max="2851" width="9" style="2" customWidth="1"/>
     <col min="2852" max="3051" width="9" style="2"/>
-    <col min="3052" max="3052" width="1.625" style="2" customWidth="1"/>
-    <col min="3053" max="3053" width="1.75" style="2" customWidth="1"/>
-    <col min="3054" max="3054" width="7.375" style="2" customWidth="1"/>
-    <col min="3055" max="3055" width="4.125" style="2" customWidth="1"/>
-    <col min="3056" max="3056" width="2.375" style="2" customWidth="1"/>
+    <col min="3052" max="3052" width="1.6640625" style="2" customWidth="1"/>
+    <col min="3053" max="3053" width="1.77734375" style="2" customWidth="1"/>
+    <col min="3054" max="3054" width="7.33203125" style="2" customWidth="1"/>
+    <col min="3055" max="3055" width="4.109375" style="2" customWidth="1"/>
+    <col min="3056" max="3056" width="2.33203125" style="2" customWidth="1"/>
     <col min="3057" max="3057" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="3058" max="3058" width="2.125" style="2" customWidth="1"/>
-    <col min="3059" max="3059" width="2.625" style="2" customWidth="1"/>
+    <col min="3058" max="3058" width="2.109375" style="2" customWidth="1"/>
+    <col min="3059" max="3059" width="2.6640625" style="2" customWidth="1"/>
     <col min="3060" max="3060" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="3061" max="3061" width="9.25" style="2" customWidth="1"/>
-    <col min="3062" max="3062" width="12.25" style="2" customWidth="1"/>
-    <col min="3063" max="3063" width="9.125" style="2" customWidth="1"/>
-    <col min="3064" max="3064" width="3.125" style="2" customWidth="1"/>
-    <col min="3065" max="3065" width="5.625" style="2" customWidth="1"/>
-    <col min="3066" max="3066" width="6.5" style="2" customWidth="1"/>
+    <col min="3061" max="3061" width="9.21875" style="2" customWidth="1"/>
+    <col min="3062" max="3062" width="12.21875" style="2" customWidth="1"/>
+    <col min="3063" max="3063" width="9.109375" style="2" customWidth="1"/>
+    <col min="3064" max="3064" width="3.109375" style="2" customWidth="1"/>
+    <col min="3065" max="3065" width="5.6640625" style="2" customWidth="1"/>
+    <col min="3066" max="3066" width="6.44140625" style="2" customWidth="1"/>
     <col min="3067" max="3067" width="1" style="2" customWidth="1"/>
     <col min="3068" max="3068" width="3" style="2" customWidth="1"/>
-    <col min="3069" max="3069" width="7.125" style="2" customWidth="1"/>
-    <col min="3070" max="3070" width="2.75" style="2" customWidth="1"/>
-    <col min="3071" max="3071" width="8.625" style="2" customWidth="1"/>
+    <col min="3069" max="3069" width="7.109375" style="2" customWidth="1"/>
+    <col min="3070" max="3070" width="2.77734375" style="2" customWidth="1"/>
+    <col min="3071" max="3071" width="8.6640625" style="2" customWidth="1"/>
     <col min="3072" max="3082" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="3083" max="3107" width="9" style="2" customWidth="1"/>
     <col min="3108" max="3307" width="9" style="2"/>
-    <col min="3308" max="3308" width="1.625" style="2" customWidth="1"/>
-    <col min="3309" max="3309" width="1.75" style="2" customWidth="1"/>
-    <col min="3310" max="3310" width="7.375" style="2" customWidth="1"/>
-    <col min="3311" max="3311" width="4.125" style="2" customWidth="1"/>
-    <col min="3312" max="3312" width="2.375" style="2" customWidth="1"/>
+    <col min="3308" max="3308" width="1.6640625" style="2" customWidth="1"/>
+    <col min="3309" max="3309" width="1.77734375" style="2" customWidth="1"/>
+    <col min="3310" max="3310" width="7.33203125" style="2" customWidth="1"/>
+    <col min="3311" max="3311" width="4.109375" style="2" customWidth="1"/>
+    <col min="3312" max="3312" width="2.33203125" style="2" customWidth="1"/>
     <col min="3313" max="3313" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="3314" max="3314" width="2.125" style="2" customWidth="1"/>
-    <col min="3315" max="3315" width="2.625" style="2" customWidth="1"/>
+    <col min="3314" max="3314" width="2.109375" style="2" customWidth="1"/>
+    <col min="3315" max="3315" width="2.6640625" style="2" customWidth="1"/>
     <col min="3316" max="3316" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="3317" max="3317" width="9.25" style="2" customWidth="1"/>
-    <col min="3318" max="3318" width="12.25" style="2" customWidth="1"/>
-    <col min="3319" max="3319" width="9.125" style="2" customWidth="1"/>
-    <col min="3320" max="3320" width="3.125" style="2" customWidth="1"/>
-    <col min="3321" max="3321" width="5.625" style="2" customWidth="1"/>
-    <col min="3322" max="3322" width="6.5" style="2" customWidth="1"/>
+    <col min="3317" max="3317" width="9.21875" style="2" customWidth="1"/>
+    <col min="3318" max="3318" width="12.21875" style="2" customWidth="1"/>
+    <col min="3319" max="3319" width="9.109375" style="2" customWidth="1"/>
+    <col min="3320" max="3320" width="3.109375" style="2" customWidth="1"/>
+    <col min="3321" max="3321" width="5.6640625" style="2" customWidth="1"/>
+    <col min="3322" max="3322" width="6.44140625" style="2" customWidth="1"/>
     <col min="3323" max="3323" width="1" style="2" customWidth="1"/>
     <col min="3324" max="3324" width="3" style="2" customWidth="1"/>
-    <col min="3325" max="3325" width="7.125" style="2" customWidth="1"/>
-    <col min="3326" max="3326" width="2.75" style="2" customWidth="1"/>
-    <col min="3327" max="3327" width="8.625" style="2" customWidth="1"/>
+    <col min="3325" max="3325" width="7.109375" style="2" customWidth="1"/>
+    <col min="3326" max="3326" width="2.77734375" style="2" customWidth="1"/>
+    <col min="3327" max="3327" width="8.6640625" style="2" customWidth="1"/>
     <col min="3328" max="3338" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="3339" max="3363" width="9" style="2" customWidth="1"/>
     <col min="3364" max="3563" width="9" style="2"/>
-    <col min="3564" max="3564" width="1.625" style="2" customWidth="1"/>
-    <col min="3565" max="3565" width="1.75" style="2" customWidth="1"/>
-    <col min="3566" max="3566" width="7.375" style="2" customWidth="1"/>
-    <col min="3567" max="3567" width="4.125" style="2" customWidth="1"/>
-    <col min="3568" max="3568" width="2.375" style="2" customWidth="1"/>
+    <col min="3564" max="3564" width="1.6640625" style="2" customWidth="1"/>
+    <col min="3565" max="3565" width="1.77734375" style="2" customWidth="1"/>
+    <col min="3566" max="3566" width="7.33203125" style="2" customWidth="1"/>
+    <col min="3567" max="3567" width="4.109375" style="2" customWidth="1"/>
+    <col min="3568" max="3568" width="2.33203125" style="2" customWidth="1"/>
     <col min="3569" max="3569" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="3570" max="3570" width="2.125" style="2" customWidth="1"/>
-    <col min="3571" max="3571" width="2.625" style="2" customWidth="1"/>
+    <col min="3570" max="3570" width="2.109375" style="2" customWidth="1"/>
+    <col min="3571" max="3571" width="2.6640625" style="2" customWidth="1"/>
     <col min="3572" max="3572" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="3573" max="3573" width="9.25" style="2" customWidth="1"/>
-    <col min="3574" max="3574" width="12.25" style="2" customWidth="1"/>
-    <col min="3575" max="3575" width="9.125" style="2" customWidth="1"/>
-    <col min="3576" max="3576" width="3.125" style="2" customWidth="1"/>
-    <col min="3577" max="3577" width="5.625" style="2" customWidth="1"/>
-    <col min="3578" max="3578" width="6.5" style="2" customWidth="1"/>
+    <col min="3573" max="3573" width="9.21875" style="2" customWidth="1"/>
+    <col min="3574" max="3574" width="12.21875" style="2" customWidth="1"/>
+    <col min="3575" max="3575" width="9.109375" style="2" customWidth="1"/>
+    <col min="3576" max="3576" width="3.109375" style="2" customWidth="1"/>
+    <col min="3577" max="3577" width="5.6640625" style="2" customWidth="1"/>
+    <col min="3578" max="3578" width="6.44140625" style="2" customWidth="1"/>
     <col min="3579" max="3579" width="1" style="2" customWidth="1"/>
     <col min="3580" max="3580" width="3" style="2" customWidth="1"/>
-    <col min="3581" max="3581" width="7.125" style="2" customWidth="1"/>
-    <col min="3582" max="3582" width="2.75" style="2" customWidth="1"/>
-    <col min="3583" max="3583" width="8.625" style="2" customWidth="1"/>
+    <col min="3581" max="3581" width="7.109375" style="2" customWidth="1"/>
+    <col min="3582" max="3582" width="2.77734375" style="2" customWidth="1"/>
+    <col min="3583" max="3583" width="8.6640625" style="2" customWidth="1"/>
     <col min="3584" max="3594" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="3595" max="3619" width="9" style="2" customWidth="1"/>
     <col min="3620" max="3819" width="9" style="2"/>
-    <col min="3820" max="3820" width="1.625" style="2" customWidth="1"/>
-    <col min="3821" max="3821" width="1.75" style="2" customWidth="1"/>
-    <col min="3822" max="3822" width="7.375" style="2" customWidth="1"/>
-    <col min="3823" max="3823" width="4.125" style="2" customWidth="1"/>
-    <col min="3824" max="3824" width="2.375" style="2" customWidth="1"/>
+    <col min="3820" max="3820" width="1.6640625" style="2" customWidth="1"/>
+    <col min="3821" max="3821" width="1.77734375" style="2" customWidth="1"/>
+    <col min="3822" max="3822" width="7.33203125" style="2" customWidth="1"/>
+    <col min="3823" max="3823" width="4.109375" style="2" customWidth="1"/>
+    <col min="3824" max="3824" width="2.33203125" style="2" customWidth="1"/>
     <col min="3825" max="3825" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="3826" max="3826" width="2.125" style="2" customWidth="1"/>
-    <col min="3827" max="3827" width="2.625" style="2" customWidth="1"/>
+    <col min="3826" max="3826" width="2.109375" style="2" customWidth="1"/>
+    <col min="3827" max="3827" width="2.6640625" style="2" customWidth="1"/>
     <col min="3828" max="3828" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="3829" max="3829" width="9.25" style="2" customWidth="1"/>
-    <col min="3830" max="3830" width="12.25" style="2" customWidth="1"/>
-    <col min="3831" max="3831" width="9.125" style="2" customWidth="1"/>
-    <col min="3832" max="3832" width="3.125" style="2" customWidth="1"/>
-    <col min="3833" max="3833" width="5.625" style="2" customWidth="1"/>
-    <col min="3834" max="3834" width="6.5" style="2" customWidth="1"/>
+    <col min="3829" max="3829" width="9.21875" style="2" customWidth="1"/>
+    <col min="3830" max="3830" width="12.21875" style="2" customWidth="1"/>
+    <col min="3831" max="3831" width="9.109375" style="2" customWidth="1"/>
+    <col min="3832" max="3832" width="3.109375" style="2" customWidth="1"/>
+    <col min="3833" max="3833" width="5.6640625" style="2" customWidth="1"/>
+    <col min="3834" max="3834" width="6.44140625" style="2" customWidth="1"/>
     <col min="3835" max="3835" width="1" style="2" customWidth="1"/>
     <col min="3836" max="3836" width="3" style="2" customWidth="1"/>
-    <col min="3837" max="3837" width="7.125" style="2" customWidth="1"/>
-    <col min="3838" max="3838" width="2.75" style="2" customWidth="1"/>
-    <col min="3839" max="3839" width="8.625" style="2" customWidth="1"/>
+    <col min="3837" max="3837" width="7.109375" style="2" customWidth="1"/>
+    <col min="3838" max="3838" width="2.77734375" style="2" customWidth="1"/>
+    <col min="3839" max="3839" width="8.6640625" style="2" customWidth="1"/>
     <col min="3840" max="3850" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="3851" max="3875" width="9" style="2" customWidth="1"/>
     <col min="3876" max="4075" width="9" style="2"/>
-    <col min="4076" max="4076" width="1.625" style="2" customWidth="1"/>
-    <col min="4077" max="4077" width="1.75" style="2" customWidth="1"/>
-    <col min="4078" max="4078" width="7.375" style="2" customWidth="1"/>
-    <col min="4079" max="4079" width="4.125" style="2" customWidth="1"/>
-    <col min="4080" max="4080" width="2.375" style="2" customWidth="1"/>
+    <col min="4076" max="4076" width="1.6640625" style="2" customWidth="1"/>
+    <col min="4077" max="4077" width="1.77734375" style="2" customWidth="1"/>
+    <col min="4078" max="4078" width="7.33203125" style="2" customWidth="1"/>
+    <col min="4079" max="4079" width="4.109375" style="2" customWidth="1"/>
+    <col min="4080" max="4080" width="2.33203125" style="2" customWidth="1"/>
     <col min="4081" max="4081" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="4082" max="4082" width="2.125" style="2" customWidth="1"/>
-    <col min="4083" max="4083" width="2.625" style="2" customWidth="1"/>
+    <col min="4082" max="4082" width="2.109375" style="2" customWidth="1"/>
+    <col min="4083" max="4083" width="2.6640625" style="2" customWidth="1"/>
     <col min="4084" max="4084" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="4085" max="4085" width="9.25" style="2" customWidth="1"/>
-    <col min="4086" max="4086" width="12.25" style="2" customWidth="1"/>
-    <col min="4087" max="4087" width="9.125" style="2" customWidth="1"/>
-    <col min="4088" max="4088" width="3.125" style="2" customWidth="1"/>
-    <col min="4089" max="4089" width="5.625" style="2" customWidth="1"/>
-    <col min="4090" max="4090" width="6.5" style="2" customWidth="1"/>
+    <col min="4085" max="4085" width="9.21875" style="2" customWidth="1"/>
+    <col min="4086" max="4086" width="12.21875" style="2" customWidth="1"/>
+    <col min="4087" max="4087" width="9.109375" style="2" customWidth="1"/>
+    <col min="4088" max="4088" width="3.109375" style="2" customWidth="1"/>
+    <col min="4089" max="4089" width="5.6640625" style="2" customWidth="1"/>
+    <col min="4090" max="4090" width="6.44140625" style="2" customWidth="1"/>
     <col min="4091" max="4091" width="1" style="2" customWidth="1"/>
     <col min="4092" max="4092" width="3" style="2" customWidth="1"/>
-    <col min="4093" max="4093" width="7.125" style="2" customWidth="1"/>
-    <col min="4094" max="4094" width="2.75" style="2" customWidth="1"/>
-    <col min="4095" max="4095" width="8.625" style="2" customWidth="1"/>
+    <col min="4093" max="4093" width="7.109375" style="2" customWidth="1"/>
+    <col min="4094" max="4094" width="2.77734375" style="2" customWidth="1"/>
+    <col min="4095" max="4095" width="8.6640625" style="2" customWidth="1"/>
     <col min="4096" max="4106" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="4107" max="4131" width="9" style="2" customWidth="1"/>
     <col min="4132" max="4331" width="9" style="2"/>
-    <col min="4332" max="4332" width="1.625" style="2" customWidth="1"/>
-    <col min="4333" max="4333" width="1.75" style="2" customWidth="1"/>
-    <col min="4334" max="4334" width="7.375" style="2" customWidth="1"/>
-    <col min="4335" max="4335" width="4.125" style="2" customWidth="1"/>
-    <col min="4336" max="4336" width="2.375" style="2" customWidth="1"/>
+    <col min="4332" max="4332" width="1.6640625" style="2" customWidth="1"/>
+    <col min="4333" max="4333" width="1.77734375" style="2" customWidth="1"/>
+    <col min="4334" max="4334" width="7.33203125" style="2" customWidth="1"/>
+    <col min="4335" max="4335" width="4.109375" style="2" customWidth="1"/>
+    <col min="4336" max="4336" width="2.33203125" style="2" customWidth="1"/>
     <col min="4337" max="4337" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="4338" max="4338" width="2.125" style="2" customWidth="1"/>
-    <col min="4339" max="4339" width="2.625" style="2" customWidth="1"/>
+    <col min="4338" max="4338" width="2.109375" style="2" customWidth="1"/>
+    <col min="4339" max="4339" width="2.6640625" style="2" customWidth="1"/>
     <col min="4340" max="4340" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="4341" max="4341" width="9.25" style="2" customWidth="1"/>
-    <col min="4342" max="4342" width="12.25" style="2" customWidth="1"/>
-    <col min="4343" max="4343" width="9.125" style="2" customWidth="1"/>
-    <col min="4344" max="4344" width="3.125" style="2" customWidth="1"/>
-    <col min="4345" max="4345" width="5.625" style="2" customWidth="1"/>
-    <col min="4346" max="4346" width="6.5" style="2" customWidth="1"/>
+    <col min="4341" max="4341" width="9.21875" style="2" customWidth="1"/>
+    <col min="4342" max="4342" width="12.21875" style="2" customWidth="1"/>
+    <col min="4343" max="4343" width="9.109375" style="2" customWidth="1"/>
+    <col min="4344" max="4344" width="3.109375" style="2" customWidth="1"/>
+    <col min="4345" max="4345" width="5.6640625" style="2" customWidth="1"/>
+    <col min="4346" max="4346" width="6.44140625" style="2" customWidth="1"/>
     <col min="4347" max="4347" width="1" style="2" customWidth="1"/>
     <col min="4348" max="4348" width="3" style="2" customWidth="1"/>
-    <col min="4349" max="4349" width="7.125" style="2" customWidth="1"/>
-    <col min="4350" max="4350" width="2.75" style="2" customWidth="1"/>
-    <col min="4351" max="4351" width="8.625" style="2" customWidth="1"/>
+    <col min="4349" max="4349" width="7.109375" style="2" customWidth="1"/>
+    <col min="4350" max="4350" width="2.77734375" style="2" customWidth="1"/>
+    <col min="4351" max="4351" width="8.6640625" style="2" customWidth="1"/>
     <col min="4352" max="4362" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="4363" max="4387" width="9" style="2" customWidth="1"/>
     <col min="4388" max="4587" width="9" style="2"/>
-    <col min="4588" max="4588" width="1.625" style="2" customWidth="1"/>
-    <col min="4589" max="4589" width="1.75" style="2" customWidth="1"/>
-    <col min="4590" max="4590" width="7.375" style="2" customWidth="1"/>
-    <col min="4591" max="4591" width="4.125" style="2" customWidth="1"/>
-    <col min="4592" max="4592" width="2.375" style="2" customWidth="1"/>
+    <col min="4588" max="4588" width="1.6640625" style="2" customWidth="1"/>
+    <col min="4589" max="4589" width="1.77734375" style="2" customWidth="1"/>
+    <col min="4590" max="4590" width="7.33203125" style="2" customWidth="1"/>
+    <col min="4591" max="4591" width="4.109375" style="2" customWidth="1"/>
+    <col min="4592" max="4592" width="2.33203125" style="2" customWidth="1"/>
     <col min="4593" max="4593" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="4594" max="4594" width="2.125" style="2" customWidth="1"/>
-    <col min="4595" max="4595" width="2.625" style="2" customWidth="1"/>
+    <col min="4594" max="4594" width="2.109375" style="2" customWidth="1"/>
+    <col min="4595" max="4595" width="2.6640625" style="2" customWidth="1"/>
     <col min="4596" max="4596" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="4597" max="4597" width="9.25" style="2" customWidth="1"/>
-    <col min="4598" max="4598" width="12.25" style="2" customWidth="1"/>
-    <col min="4599" max="4599" width="9.125" style="2" customWidth="1"/>
-    <col min="4600" max="4600" width="3.125" style="2" customWidth="1"/>
-    <col min="4601" max="4601" width="5.625" style="2" customWidth="1"/>
-    <col min="4602" max="4602" width="6.5" style="2" customWidth="1"/>
+    <col min="4597" max="4597" width="9.21875" style="2" customWidth="1"/>
+    <col min="4598" max="4598" width="12.21875" style="2" customWidth="1"/>
+    <col min="4599" max="4599" width="9.109375" style="2" customWidth="1"/>
+    <col min="4600" max="4600" width="3.109375" style="2" customWidth="1"/>
+    <col min="4601" max="4601" width="5.6640625" style="2" customWidth="1"/>
+    <col min="4602" max="4602" width="6.44140625" style="2" customWidth="1"/>
     <col min="4603" max="4603" width="1" style="2" customWidth="1"/>
     <col min="4604" max="4604" width="3" style="2" customWidth="1"/>
-    <col min="4605" max="4605" width="7.125" style="2" customWidth="1"/>
-    <col min="4606" max="4606" width="2.75" style="2" customWidth="1"/>
-    <col min="4607" max="4607" width="8.625" style="2" customWidth="1"/>
+    <col min="4605" max="4605" width="7.109375" style="2" customWidth="1"/>
+    <col min="4606" max="4606" width="2.77734375" style="2" customWidth="1"/>
+    <col min="4607" max="4607" width="8.6640625" style="2" customWidth="1"/>
     <col min="4608" max="4618" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="4619" max="4643" width="9" style="2" customWidth="1"/>
     <col min="4644" max="4843" width="9" style="2"/>
-    <col min="4844" max="4844" width="1.625" style="2" customWidth="1"/>
-    <col min="4845" max="4845" width="1.75" style="2" customWidth="1"/>
-    <col min="4846" max="4846" width="7.375" style="2" customWidth="1"/>
-    <col min="4847" max="4847" width="4.125" style="2" customWidth="1"/>
-    <col min="4848" max="4848" width="2.375" style="2" customWidth="1"/>
+    <col min="4844" max="4844" width="1.6640625" style="2" customWidth="1"/>
+    <col min="4845" max="4845" width="1.77734375" style="2" customWidth="1"/>
+    <col min="4846" max="4846" width="7.33203125" style="2" customWidth="1"/>
+    <col min="4847" max="4847" width="4.109375" style="2" customWidth="1"/>
+    <col min="4848" max="4848" width="2.33203125" style="2" customWidth="1"/>
     <col min="4849" max="4849" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="4850" max="4850" width="2.125" style="2" customWidth="1"/>
-    <col min="4851" max="4851" width="2.625" style="2" customWidth="1"/>
+    <col min="4850" max="4850" width="2.109375" style="2" customWidth="1"/>
+    <col min="4851" max="4851" width="2.6640625" style="2" customWidth="1"/>
     <col min="4852" max="4852" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="4853" max="4853" width="9.25" style="2" customWidth="1"/>
-    <col min="4854" max="4854" width="12.25" style="2" customWidth="1"/>
-    <col min="4855" max="4855" width="9.125" style="2" customWidth="1"/>
-    <col min="4856" max="4856" width="3.125" style="2" customWidth="1"/>
-    <col min="4857" max="4857" width="5.625" style="2" customWidth="1"/>
-    <col min="4858" max="4858" width="6.5" style="2" customWidth="1"/>
+    <col min="4853" max="4853" width="9.21875" style="2" customWidth="1"/>
+    <col min="4854" max="4854" width="12.21875" style="2" customWidth="1"/>
+    <col min="4855" max="4855" width="9.109375" style="2" customWidth="1"/>
+    <col min="4856" max="4856" width="3.109375" style="2" customWidth="1"/>
+    <col min="4857" max="4857" width="5.6640625" style="2" customWidth="1"/>
+    <col min="4858" max="4858" width="6.44140625" style="2" customWidth="1"/>
     <col min="4859" max="4859" width="1" style="2" customWidth="1"/>
     <col min="4860" max="4860" width="3" style="2" customWidth="1"/>
-    <col min="4861" max="4861" width="7.125" style="2" customWidth="1"/>
-    <col min="4862" max="4862" width="2.75" style="2" customWidth="1"/>
-    <col min="4863" max="4863" width="8.625" style="2" customWidth="1"/>
+    <col min="4861" max="4861" width="7.109375" style="2" customWidth="1"/>
+    <col min="4862" max="4862" width="2.77734375" style="2" customWidth="1"/>
+    <col min="4863" max="4863" width="8.6640625" style="2" customWidth="1"/>
     <col min="4864" max="4874" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="4875" max="4899" width="9" style="2" customWidth="1"/>
     <col min="4900" max="5099" width="9" style="2"/>
-    <col min="5100" max="5100" width="1.625" style="2" customWidth="1"/>
-    <col min="5101" max="5101" width="1.75" style="2" customWidth="1"/>
-    <col min="5102" max="5102" width="7.375" style="2" customWidth="1"/>
-    <col min="5103" max="5103" width="4.125" style="2" customWidth="1"/>
-    <col min="5104" max="5104" width="2.375" style="2" customWidth="1"/>
+    <col min="5100" max="5100" width="1.6640625" style="2" customWidth="1"/>
+    <col min="5101" max="5101" width="1.77734375" style="2" customWidth="1"/>
+    <col min="5102" max="5102" width="7.33203125" style="2" customWidth="1"/>
+    <col min="5103" max="5103" width="4.109375" style="2" customWidth="1"/>
+    <col min="5104" max="5104" width="2.33203125" style="2" customWidth="1"/>
     <col min="5105" max="5105" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="5106" max="5106" width="2.125" style="2" customWidth="1"/>
-    <col min="5107" max="5107" width="2.625" style="2" customWidth="1"/>
+    <col min="5106" max="5106" width="2.109375" style="2" customWidth="1"/>
+    <col min="5107" max="5107" width="2.6640625" style="2" customWidth="1"/>
     <col min="5108" max="5108" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="5109" max="5109" width="9.25" style="2" customWidth="1"/>
-    <col min="5110" max="5110" width="12.25" style="2" customWidth="1"/>
-    <col min="5111" max="5111" width="9.125" style="2" customWidth="1"/>
-    <col min="5112" max="5112" width="3.125" style="2" customWidth="1"/>
-    <col min="5113" max="5113" width="5.625" style="2" customWidth="1"/>
-    <col min="5114" max="5114" width="6.5" style="2" customWidth="1"/>
+    <col min="5109" max="5109" width="9.21875" style="2" customWidth="1"/>
+    <col min="5110" max="5110" width="12.21875" style="2" customWidth="1"/>
+    <col min="5111" max="5111" width="9.109375" style="2" customWidth="1"/>
+    <col min="5112" max="5112" width="3.109375" style="2" customWidth="1"/>
+    <col min="5113" max="5113" width="5.6640625" style="2" customWidth="1"/>
+    <col min="5114" max="5114" width="6.44140625" style="2" customWidth="1"/>
     <col min="5115" max="5115" width="1" style="2" customWidth="1"/>
     <col min="5116" max="5116" width="3" style="2" customWidth="1"/>
-    <col min="5117" max="5117" width="7.125" style="2" customWidth="1"/>
-    <col min="5118" max="5118" width="2.75" style="2" customWidth="1"/>
-    <col min="5119" max="5119" width="8.625" style="2" customWidth="1"/>
+    <col min="5117" max="5117" width="7.109375" style="2" customWidth="1"/>
+    <col min="5118" max="5118" width="2.77734375" style="2" customWidth="1"/>
+    <col min="5119" max="5119" width="8.6640625" style="2" customWidth="1"/>
     <col min="5120" max="5130" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="5131" max="5155" width="9" style="2" customWidth="1"/>
     <col min="5156" max="5355" width="9" style="2"/>
-    <col min="5356" max="5356" width="1.625" style="2" customWidth="1"/>
-    <col min="5357" max="5357" width="1.75" style="2" customWidth="1"/>
-    <col min="5358" max="5358" width="7.375" style="2" customWidth="1"/>
-    <col min="5359" max="5359" width="4.125" style="2" customWidth="1"/>
-    <col min="5360" max="5360" width="2.375" style="2" customWidth="1"/>
+    <col min="5356" max="5356" width="1.6640625" style="2" customWidth="1"/>
+    <col min="5357" max="5357" width="1.77734375" style="2" customWidth="1"/>
+    <col min="5358" max="5358" width="7.33203125" style="2" customWidth="1"/>
+    <col min="5359" max="5359" width="4.109375" style="2" customWidth="1"/>
+    <col min="5360" max="5360" width="2.33203125" style="2" customWidth="1"/>
     <col min="5361" max="5361" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="5362" max="5362" width="2.125" style="2" customWidth="1"/>
-    <col min="5363" max="5363" width="2.625" style="2" customWidth="1"/>
+    <col min="5362" max="5362" width="2.109375" style="2" customWidth="1"/>
+    <col min="5363" max="5363" width="2.6640625" style="2" customWidth="1"/>
     <col min="5364" max="5364" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="5365" max="5365" width="9.25" style="2" customWidth="1"/>
-    <col min="5366" max="5366" width="12.25" style="2" customWidth="1"/>
-    <col min="5367" max="5367" width="9.125" style="2" customWidth="1"/>
-    <col min="5368" max="5368" width="3.125" style="2" customWidth="1"/>
-    <col min="5369" max="5369" width="5.625" style="2" customWidth="1"/>
-    <col min="5370" max="5370" width="6.5" style="2" customWidth="1"/>
+    <col min="5365" max="5365" width="9.21875" style="2" customWidth="1"/>
+    <col min="5366" max="5366" width="12.21875" style="2" customWidth="1"/>
+    <col min="5367" max="5367" width="9.109375" style="2" customWidth="1"/>
+    <col min="5368" max="5368" width="3.109375" style="2" customWidth="1"/>
+    <col min="5369" max="5369" width="5.6640625" style="2" customWidth="1"/>
+    <col min="5370" max="5370" width="6.44140625" style="2" customWidth="1"/>
     <col min="5371" max="5371" width="1" style="2" customWidth="1"/>
     <col min="5372" max="5372" width="3" style="2" customWidth="1"/>
-    <col min="5373" max="5373" width="7.125" style="2" customWidth="1"/>
-    <col min="5374" max="5374" width="2.75" style="2" customWidth="1"/>
-    <col min="5375" max="5375" width="8.625" style="2" customWidth="1"/>
+    <col min="5373" max="5373" width="7.109375" style="2" customWidth="1"/>
+    <col min="5374" max="5374" width="2.77734375" style="2" customWidth="1"/>
+    <col min="5375" max="5375" width="8.6640625" style="2" customWidth="1"/>
     <col min="5376" max="5386" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="5387" max="5411" width="9" style="2" customWidth="1"/>
     <col min="5412" max="5611" width="9" style="2"/>
-    <col min="5612" max="5612" width="1.625" style="2" customWidth="1"/>
-    <col min="5613" max="5613" width="1.75" style="2" customWidth="1"/>
-    <col min="5614" max="5614" width="7.375" style="2" customWidth="1"/>
-    <col min="5615" max="5615" width="4.125" style="2" customWidth="1"/>
-    <col min="5616" max="5616" width="2.375" style="2" customWidth="1"/>
+    <col min="5612" max="5612" width="1.6640625" style="2" customWidth="1"/>
+    <col min="5613" max="5613" width="1.77734375" style="2" customWidth="1"/>
+    <col min="5614" max="5614" width="7.33203125" style="2" customWidth="1"/>
+    <col min="5615" max="5615" width="4.109375" style="2" customWidth="1"/>
+    <col min="5616" max="5616" width="2.33203125" style="2" customWidth="1"/>
     <col min="5617" max="5617" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="5618" max="5618" width="2.125" style="2" customWidth="1"/>
-    <col min="5619" max="5619" width="2.625" style="2" customWidth="1"/>
+    <col min="5618" max="5618" width="2.109375" style="2" customWidth="1"/>
+    <col min="5619" max="5619" width="2.6640625" style="2" customWidth="1"/>
     <col min="5620" max="5620" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="5621" max="5621" width="9.25" style="2" customWidth="1"/>
-    <col min="5622" max="5622" width="12.25" style="2" customWidth="1"/>
-    <col min="5623" max="5623" width="9.125" style="2" customWidth="1"/>
-    <col min="5624" max="5624" width="3.125" style="2" customWidth="1"/>
-    <col min="5625" max="5625" width="5.625" style="2" customWidth="1"/>
-    <col min="5626" max="5626" width="6.5" style="2" customWidth="1"/>
+    <col min="5621" max="5621" width="9.21875" style="2" customWidth="1"/>
+    <col min="5622" max="5622" width="12.21875" style="2" customWidth="1"/>
+    <col min="5623" max="5623" width="9.109375" style="2" customWidth="1"/>
+    <col min="5624" max="5624" width="3.109375" style="2" customWidth="1"/>
+    <col min="5625" max="5625" width="5.6640625" style="2" customWidth="1"/>
+    <col min="5626" max="5626" width="6.44140625" style="2" customWidth="1"/>
     <col min="5627" max="5627" width="1" style="2" customWidth="1"/>
     <col min="5628" max="5628" width="3" style="2" customWidth="1"/>
-    <col min="5629" max="5629" width="7.125" style="2" customWidth="1"/>
-    <col min="5630" max="5630" width="2.75" style="2" customWidth="1"/>
-    <col min="5631" max="5631" width="8.625" style="2" customWidth="1"/>
+    <col min="5629" max="5629" width="7.109375" style="2" customWidth="1"/>
+    <col min="5630" max="5630" width="2.77734375" style="2" customWidth="1"/>
+    <col min="5631" max="5631" width="8.6640625" style="2" customWidth="1"/>
     <col min="5632" max="5642" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="5643" max="5667" width="9" style="2" customWidth="1"/>
     <col min="5668" max="5867" width="9" style="2"/>
-    <col min="5868" max="5868" width="1.625" style="2" customWidth="1"/>
-    <col min="5869" max="5869" width="1.75" style="2" customWidth="1"/>
-    <col min="5870" max="5870" width="7.375" style="2" customWidth="1"/>
-    <col min="5871" max="5871" width="4.125" style="2" customWidth="1"/>
-    <col min="5872" max="5872" width="2.375" style="2" customWidth="1"/>
+    <col min="5868" max="5868" width="1.6640625" style="2" customWidth="1"/>
+    <col min="5869" max="5869" width="1.77734375" style="2" customWidth="1"/>
+    <col min="5870" max="5870" width="7.33203125" style="2" customWidth="1"/>
+    <col min="5871" max="5871" width="4.109375" style="2" customWidth="1"/>
+    <col min="5872" max="5872" width="2.33203125" style="2" customWidth="1"/>
     <col min="5873" max="5873" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="5874" max="5874" width="2.125" style="2" customWidth="1"/>
-    <col min="5875" max="5875" width="2.625" style="2" customWidth="1"/>
+    <col min="5874" max="5874" width="2.109375" style="2" customWidth="1"/>
+    <col min="5875" max="5875" width="2.6640625" style="2" customWidth="1"/>
     <col min="5876" max="5876" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="5877" max="5877" width="9.25" style="2" customWidth="1"/>
-    <col min="5878" max="5878" width="12.25" style="2" customWidth="1"/>
-    <col min="5879" max="5879" width="9.125" style="2" customWidth="1"/>
-    <col min="5880" max="5880" width="3.125" style="2" customWidth="1"/>
-    <col min="5881" max="5881" width="5.625" style="2" customWidth="1"/>
-    <col min="5882" max="5882" width="6.5" style="2" customWidth="1"/>
+    <col min="5877" max="5877" width="9.21875" style="2" customWidth="1"/>
+    <col min="5878" max="5878" width="12.21875" style="2" customWidth="1"/>
+    <col min="5879" max="5879" width="9.109375" style="2" customWidth="1"/>
+    <col min="5880" max="5880" width="3.109375" style="2" customWidth="1"/>
+    <col min="5881" max="5881" width="5.6640625" style="2" customWidth="1"/>
+    <col min="5882" max="5882" width="6.44140625" style="2" customWidth="1"/>
     <col min="5883" max="5883" width="1" style="2" customWidth="1"/>
     <col min="5884" max="5884" width="3" style="2" customWidth="1"/>
-    <col min="5885" max="5885" width="7.125" style="2" customWidth="1"/>
-    <col min="5886" max="5886" width="2.75" style="2" customWidth="1"/>
-    <col min="5887" max="5887" width="8.625" style="2" customWidth="1"/>
+    <col min="5885" max="5885" width="7.109375" style="2" customWidth="1"/>
+    <col min="5886" max="5886" width="2.77734375" style="2" customWidth="1"/>
+    <col min="5887" max="5887" width="8.6640625" style="2" customWidth="1"/>
     <col min="5888" max="5898" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="5899" max="5923" width="9" style="2" customWidth="1"/>
     <col min="5924" max="6123" width="9" style="2"/>
-    <col min="6124" max="6124" width="1.625" style="2" customWidth="1"/>
-    <col min="6125" max="6125" width="1.75" style="2" customWidth="1"/>
-    <col min="6126" max="6126" width="7.375" style="2" customWidth="1"/>
-    <col min="6127" max="6127" width="4.125" style="2" customWidth="1"/>
-    <col min="6128" max="6128" width="2.375" style="2" customWidth="1"/>
+    <col min="6124" max="6124" width="1.6640625" style="2" customWidth="1"/>
+    <col min="6125" max="6125" width="1.77734375" style="2" customWidth="1"/>
+    <col min="6126" max="6126" width="7.33203125" style="2" customWidth="1"/>
+    <col min="6127" max="6127" width="4.109375" style="2" customWidth="1"/>
+    <col min="6128" max="6128" width="2.33203125" style="2" customWidth="1"/>
     <col min="6129" max="6129" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="6130" max="6130" width="2.125" style="2" customWidth="1"/>
-    <col min="6131" max="6131" width="2.625" style="2" customWidth="1"/>
+    <col min="6130" max="6130" width="2.109375" style="2" customWidth="1"/>
+    <col min="6131" max="6131" width="2.6640625" style="2" customWidth="1"/>
     <col min="6132" max="6132" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="6133" max="6133" width="9.25" style="2" customWidth="1"/>
-    <col min="6134" max="6134" width="12.25" style="2" customWidth="1"/>
-    <col min="6135" max="6135" width="9.125" style="2" customWidth="1"/>
-    <col min="6136" max="6136" width="3.125" style="2" customWidth="1"/>
-    <col min="6137" max="6137" width="5.625" style="2" customWidth="1"/>
-    <col min="6138" max="6138" width="6.5" style="2" customWidth="1"/>
+    <col min="6133" max="6133" width="9.21875" style="2" customWidth="1"/>
+    <col min="6134" max="6134" width="12.21875" style="2" customWidth="1"/>
+    <col min="6135" max="6135" width="9.109375" style="2" customWidth="1"/>
+    <col min="6136" max="6136" width="3.109375" style="2" customWidth="1"/>
+    <col min="6137" max="6137" width="5.6640625" style="2" customWidth="1"/>
+    <col min="6138" max="6138" width="6.44140625" style="2" customWidth="1"/>
     <col min="6139" max="6139" width="1" style="2" customWidth="1"/>
     <col min="6140" max="6140" width="3" style="2" customWidth="1"/>
-    <col min="6141" max="6141" width="7.125" style="2" customWidth="1"/>
-    <col min="6142" max="6142" width="2.75" style="2" customWidth="1"/>
-    <col min="6143" max="6143" width="8.625" style="2" customWidth="1"/>
+    <col min="6141" max="6141" width="7.109375" style="2" customWidth="1"/>
+    <col min="6142" max="6142" width="2.77734375" style="2" customWidth="1"/>
+    <col min="6143" max="6143" width="8.6640625" style="2" customWidth="1"/>
     <col min="6144" max="6154" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="6155" max="6179" width="9" style="2" customWidth="1"/>
     <col min="6180" max="6379" width="9" style="2"/>
-    <col min="6380" max="6380" width="1.625" style="2" customWidth="1"/>
-    <col min="6381" max="6381" width="1.75" style="2" customWidth="1"/>
-    <col min="6382" max="6382" width="7.375" style="2" customWidth="1"/>
-    <col min="6383" max="6383" width="4.125" style="2" customWidth="1"/>
-    <col min="6384" max="6384" width="2.375" style="2" customWidth="1"/>
+    <col min="6380" max="6380" width="1.6640625" style="2" customWidth="1"/>
+    <col min="6381" max="6381" width="1.77734375" style="2" customWidth="1"/>
+    <col min="6382" max="6382" width="7.33203125" style="2" customWidth="1"/>
+    <col min="6383" max="6383" width="4.109375" style="2" customWidth="1"/>
+    <col min="6384" max="6384" width="2.33203125" style="2" customWidth="1"/>
     <col min="6385" max="6385" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="6386" max="6386" width="2.125" style="2" customWidth="1"/>
-    <col min="6387" max="6387" width="2.625" style="2" customWidth="1"/>
+    <col min="6386" max="6386" width="2.109375" style="2" customWidth="1"/>
+    <col min="6387" max="6387" width="2.6640625" style="2" customWidth="1"/>
     <col min="6388" max="6388" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="6389" max="6389" width="9.25" style="2" customWidth="1"/>
-    <col min="6390" max="6390" width="12.25" style="2" customWidth="1"/>
-    <col min="6391" max="6391" width="9.125" style="2" customWidth="1"/>
-    <col min="6392" max="6392" width="3.125" style="2" customWidth="1"/>
-    <col min="6393" max="6393" width="5.625" style="2" customWidth="1"/>
-    <col min="6394" max="6394" width="6.5" style="2" customWidth="1"/>
+    <col min="6389" max="6389" width="9.21875" style="2" customWidth="1"/>
+    <col min="6390" max="6390" width="12.21875" style="2" customWidth="1"/>
+    <col min="6391" max="6391" width="9.109375" style="2" customWidth="1"/>
+    <col min="6392" max="6392" width="3.109375" style="2" customWidth="1"/>
+    <col min="6393" max="6393" width="5.6640625" style="2" customWidth="1"/>
+    <col min="6394" max="6394" width="6.44140625" style="2" customWidth="1"/>
     <col min="6395" max="6395" width="1" style="2" customWidth="1"/>
     <col min="6396" max="6396" width="3" style="2" customWidth="1"/>
-    <col min="6397" max="6397" width="7.125" style="2" customWidth="1"/>
-    <col min="6398" max="6398" width="2.75" style="2" customWidth="1"/>
-    <col min="6399" max="6399" width="8.625" style="2" customWidth="1"/>
+    <col min="6397" max="6397" width="7.109375" style="2" customWidth="1"/>
+    <col min="6398" max="6398" width="2.77734375" style="2" customWidth="1"/>
+    <col min="6399" max="6399" width="8.6640625" style="2" customWidth="1"/>
     <col min="6400" max="6410" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="6411" max="6435" width="9" style="2" customWidth="1"/>
     <col min="6436" max="6635" width="9" style="2"/>
-    <col min="6636" max="6636" width="1.625" style="2" customWidth="1"/>
-    <col min="6637" max="6637" width="1.75" style="2" customWidth="1"/>
-    <col min="6638" max="6638" width="7.375" style="2" customWidth="1"/>
-    <col min="6639" max="6639" width="4.125" style="2" customWidth="1"/>
-    <col min="6640" max="6640" width="2.375" style="2" customWidth="1"/>
+    <col min="6636" max="6636" width="1.6640625" style="2" customWidth="1"/>
+    <col min="6637" max="6637" width="1.77734375" style="2" customWidth="1"/>
+    <col min="6638" max="6638" width="7.33203125" style="2" customWidth="1"/>
+    <col min="6639" max="6639" width="4.109375" style="2" customWidth="1"/>
+    <col min="6640" max="6640" width="2.33203125" style="2" customWidth="1"/>
     <col min="6641" max="6641" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="6642" max="6642" width="2.125" style="2" customWidth="1"/>
-    <col min="6643" max="6643" width="2.625" style="2" customWidth="1"/>
+    <col min="6642" max="6642" width="2.109375" style="2" customWidth="1"/>
+    <col min="6643" max="6643" width="2.6640625" style="2" customWidth="1"/>
     <col min="6644" max="6644" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="6645" max="6645" width="9.25" style="2" customWidth="1"/>
-    <col min="6646" max="6646" width="12.25" style="2" customWidth="1"/>
-    <col min="6647" max="6647" width="9.125" style="2" customWidth="1"/>
-    <col min="6648" max="6648" width="3.125" style="2" customWidth="1"/>
-    <col min="6649" max="6649" width="5.625" style="2" customWidth="1"/>
-    <col min="6650" max="6650" width="6.5" style="2" customWidth="1"/>
+    <col min="6645" max="6645" width="9.21875" style="2" customWidth="1"/>
+    <col min="6646" max="6646" width="12.21875" style="2" customWidth="1"/>
+    <col min="6647" max="6647" width="9.109375" style="2" customWidth="1"/>
+    <col min="6648" max="6648" width="3.109375" style="2" customWidth="1"/>
+    <col min="6649" max="6649" width="5.6640625" style="2" customWidth="1"/>
+    <col min="6650" max="6650" width="6.44140625" style="2" customWidth="1"/>
     <col min="6651" max="6651" width="1" style="2" customWidth="1"/>
     <col min="6652" max="6652" width="3" style="2" customWidth="1"/>
-    <col min="6653" max="6653" width="7.125" style="2" customWidth="1"/>
-    <col min="6654" max="6654" width="2.75" style="2" customWidth="1"/>
-    <col min="6655" max="6655" width="8.625" style="2" customWidth="1"/>
+    <col min="6653" max="6653" width="7.109375" style="2" customWidth="1"/>
+    <col min="6654" max="6654" width="2.77734375" style="2" customWidth="1"/>
+    <col min="6655" max="6655" width="8.6640625" style="2" customWidth="1"/>
     <col min="6656" max="6666" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="6667" max="6691" width="9" style="2" customWidth="1"/>
     <col min="6692" max="6891" width="9" style="2"/>
-    <col min="6892" max="6892" width="1.625" style="2" customWidth="1"/>
-    <col min="6893" max="6893" width="1.75" style="2" customWidth="1"/>
-    <col min="6894" max="6894" width="7.375" style="2" customWidth="1"/>
-    <col min="6895" max="6895" width="4.125" style="2" customWidth="1"/>
-    <col min="6896" max="6896" width="2.375" style="2" customWidth="1"/>
+    <col min="6892" max="6892" width="1.6640625" style="2" customWidth="1"/>
+    <col min="6893" max="6893" width="1.77734375" style="2" customWidth="1"/>
+    <col min="6894" max="6894" width="7.33203125" style="2" customWidth="1"/>
+    <col min="6895" max="6895" width="4.109375" style="2" customWidth="1"/>
+    <col min="6896" max="6896" width="2.33203125" style="2" customWidth="1"/>
     <col min="6897" max="6897" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="6898" max="6898" width="2.125" style="2" customWidth="1"/>
-    <col min="6899" max="6899" width="2.625" style="2" customWidth="1"/>
+    <col min="6898" max="6898" width="2.109375" style="2" customWidth="1"/>
+    <col min="6899" max="6899" width="2.6640625" style="2" customWidth="1"/>
     <col min="6900" max="6900" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="6901" max="6901" width="9.25" style="2" customWidth="1"/>
-    <col min="6902" max="6902" width="12.25" style="2" customWidth="1"/>
-    <col min="6903" max="6903" width="9.125" style="2" customWidth="1"/>
-    <col min="6904" max="6904" width="3.125" style="2" customWidth="1"/>
-    <col min="6905" max="6905" width="5.625" style="2" customWidth="1"/>
-    <col min="6906" max="6906" width="6.5" style="2" customWidth="1"/>
+    <col min="6901" max="6901" width="9.21875" style="2" customWidth="1"/>
+    <col min="6902" max="6902" width="12.21875" style="2" customWidth="1"/>
+    <col min="6903" max="6903" width="9.109375" style="2" customWidth="1"/>
+    <col min="6904" max="6904" width="3.109375" style="2" customWidth="1"/>
+    <col min="6905" max="6905" width="5.6640625" style="2" customWidth="1"/>
+    <col min="6906" max="6906" width="6.44140625" style="2" customWidth="1"/>
     <col min="6907" max="6907" width="1" style="2" customWidth="1"/>
     <col min="6908" max="6908" width="3" style="2" customWidth="1"/>
-    <col min="6909" max="6909" width="7.125" style="2" customWidth="1"/>
-    <col min="6910" max="6910" width="2.75" style="2" customWidth="1"/>
-    <col min="6911" max="6911" width="8.625" style="2" customWidth="1"/>
+    <col min="6909" max="6909" width="7.109375" style="2" customWidth="1"/>
+    <col min="6910" max="6910" width="2.77734375" style="2" customWidth="1"/>
+    <col min="6911" max="6911" width="8.6640625" style="2" customWidth="1"/>
     <col min="6912" max="6922" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="6923" max="6947" width="9" style="2" customWidth="1"/>
     <col min="6948" max="7147" width="9" style="2"/>
-    <col min="7148" max="7148" width="1.625" style="2" customWidth="1"/>
-    <col min="7149" max="7149" width="1.75" style="2" customWidth="1"/>
-    <col min="7150" max="7150" width="7.375" style="2" customWidth="1"/>
-    <col min="7151" max="7151" width="4.125" style="2" customWidth="1"/>
-    <col min="7152" max="7152" width="2.375" style="2" customWidth="1"/>
+    <col min="7148" max="7148" width="1.6640625" style="2" customWidth="1"/>
+    <col min="7149" max="7149" width="1.77734375" style="2" customWidth="1"/>
+    <col min="7150" max="7150" width="7.33203125" style="2" customWidth="1"/>
+    <col min="7151" max="7151" width="4.109375" style="2" customWidth="1"/>
+    <col min="7152" max="7152" width="2.33203125" style="2" customWidth="1"/>
     <col min="7153" max="7153" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="7154" max="7154" width="2.125" style="2" customWidth="1"/>
-    <col min="7155" max="7155" width="2.625" style="2" customWidth="1"/>
+    <col min="7154" max="7154" width="2.109375" style="2" customWidth="1"/>
+    <col min="7155" max="7155" width="2.6640625" style="2" customWidth="1"/>
     <col min="7156" max="7156" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="7157" max="7157" width="9.25" style="2" customWidth="1"/>
-    <col min="7158" max="7158" width="12.25" style="2" customWidth="1"/>
-    <col min="7159" max="7159" width="9.125" style="2" customWidth="1"/>
-    <col min="7160" max="7160" width="3.125" style="2" customWidth="1"/>
-    <col min="7161" max="7161" width="5.625" style="2" customWidth="1"/>
-    <col min="7162" max="7162" width="6.5" style="2" customWidth="1"/>
+    <col min="7157" max="7157" width="9.21875" style="2" customWidth="1"/>
+    <col min="7158" max="7158" width="12.21875" style="2" customWidth="1"/>
+    <col min="7159" max="7159" width="9.109375" style="2" customWidth="1"/>
+    <col min="7160" max="7160" width="3.109375" style="2" customWidth="1"/>
+    <col min="7161" max="7161" width="5.6640625" style="2" customWidth="1"/>
+    <col min="7162" max="7162" width="6.44140625" style="2" customWidth="1"/>
     <col min="7163" max="7163" width="1" style="2" customWidth="1"/>
     <col min="7164" max="7164" width="3" style="2" customWidth="1"/>
-    <col min="7165" max="7165" width="7.125" style="2" customWidth="1"/>
-    <col min="7166" max="7166" width="2.75" style="2" customWidth="1"/>
-    <col min="7167" max="7167" width="8.625" style="2" customWidth="1"/>
+    <col min="7165" max="7165" width="7.109375" style="2" customWidth="1"/>
+    <col min="7166" max="7166" width="2.77734375" style="2" customWidth="1"/>
+    <col min="7167" max="7167" width="8.6640625" style="2" customWidth="1"/>
     <col min="7168" max="7178" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="7179" max="7203" width="9" style="2" customWidth="1"/>
     <col min="7204" max="7403" width="9" style="2"/>
-    <col min="7404" max="7404" width="1.625" style="2" customWidth="1"/>
-    <col min="7405" max="7405" width="1.75" style="2" customWidth="1"/>
-    <col min="7406" max="7406" width="7.375" style="2" customWidth="1"/>
-    <col min="7407" max="7407" width="4.125" style="2" customWidth="1"/>
-    <col min="7408" max="7408" width="2.375" style="2" customWidth="1"/>
+    <col min="7404" max="7404" width="1.6640625" style="2" customWidth="1"/>
+    <col min="7405" max="7405" width="1.77734375" style="2" customWidth="1"/>
+    <col min="7406" max="7406" width="7.33203125" style="2" customWidth="1"/>
+    <col min="7407" max="7407" width="4.109375" style="2" customWidth="1"/>
+    <col min="7408" max="7408" width="2.33203125" style="2" customWidth="1"/>
     <col min="7409" max="7409" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="7410" max="7410" width="2.125" style="2" customWidth="1"/>
-    <col min="7411" max="7411" width="2.625" style="2" customWidth="1"/>
+    <col min="7410" max="7410" width="2.109375" style="2" customWidth="1"/>
+    <col min="7411" max="7411" width="2.6640625" style="2" customWidth="1"/>
     <col min="7412" max="7412" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="7413" max="7413" width="9.25" style="2" customWidth="1"/>
-    <col min="7414" max="7414" width="12.25" style="2" customWidth="1"/>
-    <col min="7415" max="7415" width="9.125" style="2" customWidth="1"/>
-    <col min="7416" max="7416" width="3.125" style="2" customWidth="1"/>
-    <col min="7417" max="7417" width="5.625" style="2" customWidth="1"/>
-    <col min="7418" max="7418" width="6.5" style="2" customWidth="1"/>
+    <col min="7413" max="7413" width="9.21875" style="2" customWidth="1"/>
+    <col min="7414" max="7414" width="12.21875" style="2" customWidth="1"/>
+    <col min="7415" max="7415" width="9.109375" style="2" customWidth="1"/>
+    <col min="7416" max="7416" width="3.109375" style="2" customWidth="1"/>
+    <col min="7417" max="7417" width="5.6640625" style="2" customWidth="1"/>
+    <col min="7418" max="7418" width="6.44140625" style="2" customWidth="1"/>
     <col min="7419" max="7419" width="1" style="2" customWidth="1"/>
     <col min="7420" max="7420" width="3" style="2" customWidth="1"/>
-    <col min="7421" max="7421" width="7.125" style="2" customWidth="1"/>
-    <col min="7422" max="7422" width="2.75" style="2" customWidth="1"/>
-    <col min="7423" max="7423" width="8.625" style="2" customWidth="1"/>
+    <col min="7421" max="7421" width="7.109375" style="2" customWidth="1"/>
+    <col min="7422" max="7422" width="2.77734375" style="2" customWidth="1"/>
+    <col min="7423" max="7423" width="8.6640625" style="2" customWidth="1"/>
     <col min="7424" max="7434" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="7435" max="7459" width="9" style="2" customWidth="1"/>
     <col min="7460" max="7659" width="9" style="2"/>
-    <col min="7660" max="7660" width="1.625" style="2" customWidth="1"/>
-    <col min="7661" max="7661" width="1.75" style="2" customWidth="1"/>
-    <col min="7662" max="7662" width="7.375" style="2" customWidth="1"/>
-    <col min="7663" max="7663" width="4.125" style="2" customWidth="1"/>
-    <col min="7664" max="7664" width="2.375" style="2" customWidth="1"/>
+    <col min="7660" max="7660" width="1.6640625" style="2" customWidth="1"/>
+    <col min="7661" max="7661" width="1.77734375" style="2" customWidth="1"/>
+    <col min="7662" max="7662" width="7.33203125" style="2" customWidth="1"/>
+    <col min="7663" max="7663" width="4.109375" style="2" customWidth="1"/>
+    <col min="7664" max="7664" width="2.33203125" style="2" customWidth="1"/>
     <col min="7665" max="7665" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="7666" max="7666" width="2.125" style="2" customWidth="1"/>
-    <col min="7667" max="7667" width="2.625" style="2" customWidth="1"/>
+    <col min="7666" max="7666" width="2.109375" style="2" customWidth="1"/>
+    <col min="7667" max="7667" width="2.6640625" style="2" customWidth="1"/>
     <col min="7668" max="7668" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="7669" max="7669" width="9.25" style="2" customWidth="1"/>
-    <col min="7670" max="7670" width="12.25" style="2" customWidth="1"/>
-    <col min="7671" max="7671" width="9.125" style="2" customWidth="1"/>
-    <col min="7672" max="7672" width="3.125" style="2" customWidth="1"/>
-    <col min="7673" max="7673" width="5.625" style="2" customWidth="1"/>
-    <col min="7674" max="7674" width="6.5" style="2" customWidth="1"/>
+    <col min="7669" max="7669" width="9.21875" style="2" customWidth="1"/>
+    <col min="7670" max="7670" width="12.21875" style="2" customWidth="1"/>
+    <col min="7671" max="7671" width="9.109375" style="2" customWidth="1"/>
+    <col min="7672" max="7672" width="3.109375" style="2" customWidth="1"/>
+    <col min="7673" max="7673" width="5.6640625" style="2" customWidth="1"/>
+    <col min="7674" max="7674" width="6.44140625" style="2" customWidth="1"/>
     <col min="7675" max="7675" width="1" style="2" customWidth="1"/>
     <col min="7676" max="7676" width="3" style="2" customWidth="1"/>
-    <col min="7677" max="7677" width="7.125" style="2" customWidth="1"/>
-    <col min="7678" max="7678" width="2.75" style="2" customWidth="1"/>
-    <col min="7679" max="7679" width="8.625" style="2" customWidth="1"/>
+    <col min="7677" max="7677" width="7.109375" style="2" customWidth="1"/>
+    <col min="7678" max="7678" width="2.77734375" style="2" customWidth="1"/>
+    <col min="7679" max="7679" width="8.6640625" style="2" customWidth="1"/>
     <col min="7680" max="7690" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="7691" max="7715" width="9" style="2" customWidth="1"/>
     <col min="7716" max="7915" width="9" style="2"/>
-    <col min="7916" max="7916" width="1.625" style="2" customWidth="1"/>
-    <col min="7917" max="7917" width="1.75" style="2" customWidth="1"/>
-    <col min="7918" max="7918" width="7.375" style="2" customWidth="1"/>
-    <col min="7919" max="7919" width="4.125" style="2" customWidth="1"/>
-    <col min="7920" max="7920" width="2.375" style="2" customWidth="1"/>
+    <col min="7916" max="7916" width="1.6640625" style="2" customWidth="1"/>
+    <col min="7917" max="7917" width="1.77734375" style="2" customWidth="1"/>
+    <col min="7918" max="7918" width="7.33203125" style="2" customWidth="1"/>
+    <col min="7919" max="7919" width="4.109375" style="2" customWidth="1"/>
+    <col min="7920" max="7920" width="2.33203125" style="2" customWidth="1"/>
     <col min="7921" max="7921" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="7922" max="7922" width="2.125" style="2" customWidth="1"/>
-    <col min="7923" max="7923" width="2.625" style="2" customWidth="1"/>
+    <col min="7922" max="7922" width="2.109375" style="2" customWidth="1"/>
+    <col min="7923" max="7923" width="2.6640625" style="2" customWidth="1"/>
     <col min="7924" max="7924" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="7925" max="7925" width="9.25" style="2" customWidth="1"/>
-    <col min="7926" max="7926" width="12.25" style="2" customWidth="1"/>
-    <col min="7927" max="7927" width="9.125" style="2" customWidth="1"/>
-    <col min="7928" max="7928" width="3.125" style="2" customWidth="1"/>
-    <col min="7929" max="7929" width="5.625" style="2" customWidth="1"/>
-    <col min="7930" max="7930" width="6.5" style="2" customWidth="1"/>
+    <col min="7925" max="7925" width="9.21875" style="2" customWidth="1"/>
+    <col min="7926" max="7926" width="12.21875" style="2" customWidth="1"/>
+    <col min="7927" max="7927" width="9.109375" style="2" customWidth="1"/>
+    <col min="7928" max="7928" width="3.109375" style="2" customWidth="1"/>
+    <col min="7929" max="7929" width="5.6640625" style="2" customWidth="1"/>
+    <col min="7930" max="7930" width="6.44140625" style="2" customWidth="1"/>
     <col min="7931" max="7931" width="1" style="2" customWidth="1"/>
     <col min="7932" max="7932" width="3" style="2" customWidth="1"/>
-    <col min="7933" max="7933" width="7.125" style="2" customWidth="1"/>
-    <col min="7934" max="7934" width="2.75" style="2" customWidth="1"/>
-    <col min="7935" max="7935" width="8.625" style="2" customWidth="1"/>
+    <col min="7933" max="7933" width="7.109375" style="2" customWidth="1"/>
+    <col min="7934" max="7934" width="2.77734375" style="2" customWidth="1"/>
+    <col min="7935" max="7935" width="8.6640625" style="2" customWidth="1"/>
     <col min="7936" max="7946" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="7947" max="7971" width="9" style="2" customWidth="1"/>
     <col min="7972" max="8171" width="9" style="2"/>
-    <col min="8172" max="8172" width="1.625" style="2" customWidth="1"/>
-    <col min="8173" max="8173" width="1.75" style="2" customWidth="1"/>
-    <col min="8174" max="8174" width="7.375" style="2" customWidth="1"/>
-    <col min="8175" max="8175" width="4.125" style="2" customWidth="1"/>
-    <col min="8176" max="8176" width="2.375" style="2" customWidth="1"/>
+    <col min="8172" max="8172" width="1.6640625" style="2" customWidth="1"/>
+    <col min="8173" max="8173" width="1.77734375" style="2" customWidth="1"/>
+    <col min="8174" max="8174" width="7.33203125" style="2" customWidth="1"/>
+    <col min="8175" max="8175" width="4.109375" style="2" customWidth="1"/>
+    <col min="8176" max="8176" width="2.33203125" style="2" customWidth="1"/>
     <col min="8177" max="8177" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="8178" max="8178" width="2.125" style="2" customWidth="1"/>
-    <col min="8179" max="8179" width="2.625" style="2" customWidth="1"/>
+    <col min="8178" max="8178" width="2.109375" style="2" customWidth="1"/>
+    <col min="8179" max="8179" width="2.6640625" style="2" customWidth="1"/>
     <col min="8180" max="8180" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="8181" max="8181" width="9.25" style="2" customWidth="1"/>
-    <col min="8182" max="8182" width="12.25" style="2" customWidth="1"/>
-    <col min="8183" max="8183" width="9.125" style="2" customWidth="1"/>
-    <col min="8184" max="8184" width="3.125" style="2" customWidth="1"/>
-    <col min="8185" max="8185" width="5.625" style="2" customWidth="1"/>
-    <col min="8186" max="8186" width="6.5" style="2" customWidth="1"/>
+    <col min="8181" max="8181" width="9.21875" style="2" customWidth="1"/>
+    <col min="8182" max="8182" width="12.21875" style="2" customWidth="1"/>
+    <col min="8183" max="8183" width="9.109375" style="2" customWidth="1"/>
+    <col min="8184" max="8184" width="3.109375" style="2" customWidth="1"/>
+    <col min="8185" max="8185" width="5.6640625" style="2" customWidth="1"/>
+    <col min="8186" max="8186" width="6.44140625" style="2" customWidth="1"/>
     <col min="8187" max="8187" width="1" style="2" customWidth="1"/>
     <col min="8188" max="8188" width="3" style="2" customWidth="1"/>
-    <col min="8189" max="8189" width="7.125" style="2" customWidth="1"/>
-    <col min="8190" max="8190" width="2.75" style="2" customWidth="1"/>
-    <col min="8191" max="8191" width="8.625" style="2" customWidth="1"/>
+    <col min="8189" max="8189" width="7.109375" style="2" customWidth="1"/>
+    <col min="8190" max="8190" width="2.77734375" style="2" customWidth="1"/>
+    <col min="8191" max="8191" width="8.6640625" style="2" customWidth="1"/>
     <col min="8192" max="8202" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="8203" max="8227" width="9" style="2" customWidth="1"/>
     <col min="8228" max="8427" width="9" style="2"/>
-    <col min="8428" max="8428" width="1.625" style="2" customWidth="1"/>
-    <col min="8429" max="8429" width="1.75" style="2" customWidth="1"/>
-    <col min="8430" max="8430" width="7.375" style="2" customWidth="1"/>
-    <col min="8431" max="8431" width="4.125" style="2" customWidth="1"/>
-    <col min="8432" max="8432" width="2.375" style="2" customWidth="1"/>
+    <col min="8428" max="8428" width="1.6640625" style="2" customWidth="1"/>
+    <col min="8429" max="8429" width="1.77734375" style="2" customWidth="1"/>
+    <col min="8430" max="8430" width="7.33203125" style="2" customWidth="1"/>
+    <col min="8431" max="8431" width="4.109375" style="2" customWidth="1"/>
+    <col min="8432" max="8432" width="2.33203125" style="2" customWidth="1"/>
     <col min="8433" max="8433" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="8434" max="8434" width="2.125" style="2" customWidth="1"/>
-    <col min="8435" max="8435" width="2.625" style="2" customWidth="1"/>
+    <col min="8434" max="8434" width="2.109375" style="2" customWidth="1"/>
+    <col min="8435" max="8435" width="2.6640625" style="2" customWidth="1"/>
     <col min="8436" max="8436" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="8437" max="8437" width="9.25" style="2" customWidth="1"/>
-    <col min="8438" max="8438" width="12.25" style="2" customWidth="1"/>
-    <col min="8439" max="8439" width="9.125" style="2" customWidth="1"/>
-    <col min="8440" max="8440" width="3.125" style="2" customWidth="1"/>
-    <col min="8441" max="8441" width="5.625" style="2" customWidth="1"/>
-    <col min="8442" max="8442" width="6.5" style="2" customWidth="1"/>
+    <col min="8437" max="8437" width="9.21875" style="2" customWidth="1"/>
+    <col min="8438" max="8438" width="12.21875" style="2" customWidth="1"/>
+    <col min="8439" max="8439" width="9.109375" style="2" customWidth="1"/>
+    <col min="8440" max="8440" width="3.109375" style="2" customWidth="1"/>
+    <col min="8441" max="8441" width="5.6640625" style="2" customWidth="1"/>
+    <col min="8442" max="8442" width="6.44140625" style="2" customWidth="1"/>
     <col min="8443" max="8443" width="1" style="2" customWidth="1"/>
     <col min="8444" max="8444" width="3" style="2" customWidth="1"/>
-    <col min="8445" max="8445" width="7.125" style="2" customWidth="1"/>
-    <col min="8446" max="8446" width="2.75" style="2" customWidth="1"/>
-    <col min="8447" max="8447" width="8.625" style="2" customWidth="1"/>
+    <col min="8445" max="8445" width="7.109375" style="2" customWidth="1"/>
+    <col min="8446" max="8446" width="2.77734375" style="2" customWidth="1"/>
+    <col min="8447" max="8447" width="8.6640625" style="2" customWidth="1"/>
     <col min="8448" max="8458" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="8459" max="8483" width="9" style="2" customWidth="1"/>
     <col min="8484" max="8683" width="9" style="2"/>
-    <col min="8684" max="8684" width="1.625" style="2" customWidth="1"/>
-    <col min="8685" max="8685" width="1.75" style="2" customWidth="1"/>
-    <col min="8686" max="8686" width="7.375" style="2" customWidth="1"/>
-    <col min="8687" max="8687" width="4.125" style="2" customWidth="1"/>
-    <col min="8688" max="8688" width="2.375" style="2" customWidth="1"/>
+    <col min="8684" max="8684" width="1.6640625" style="2" customWidth="1"/>
+    <col min="8685" max="8685" width="1.77734375" style="2" customWidth="1"/>
+    <col min="8686" max="8686" width="7.33203125" style="2" customWidth="1"/>
+    <col min="8687" max="8687" width="4.109375" style="2" customWidth="1"/>
+    <col min="8688" max="8688" width="2.33203125" style="2" customWidth="1"/>
     <col min="8689" max="8689" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="8690" max="8690" width="2.125" style="2" customWidth="1"/>
-    <col min="8691" max="8691" width="2.625" style="2" customWidth="1"/>
+    <col min="8690" max="8690" width="2.109375" style="2" customWidth="1"/>
+    <col min="8691" max="8691" width="2.6640625" style="2" customWidth="1"/>
     <col min="8692" max="8692" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="8693" max="8693" width="9.25" style="2" customWidth="1"/>
-    <col min="8694" max="8694" width="12.25" style="2" customWidth="1"/>
-    <col min="8695" max="8695" width="9.125" style="2" customWidth="1"/>
-    <col min="8696" max="8696" width="3.125" style="2" customWidth="1"/>
-    <col min="8697" max="8697" width="5.625" style="2" customWidth="1"/>
-    <col min="8698" max="8698" width="6.5" style="2" customWidth="1"/>
+    <col min="8693" max="8693" width="9.21875" style="2" customWidth="1"/>
+    <col min="8694" max="8694" width="12.21875" style="2" customWidth="1"/>
+    <col min="8695" max="8695" width="9.109375" style="2" customWidth="1"/>
+    <col min="8696" max="8696" width="3.109375" style="2" customWidth="1"/>
+    <col min="8697" max="8697" width="5.6640625" style="2" customWidth="1"/>
+    <col min="8698" max="8698" width="6.44140625" style="2" customWidth="1"/>
     <col min="8699" max="8699" width="1" style="2" customWidth="1"/>
     <col min="8700" max="8700" width="3" style="2" customWidth="1"/>
-    <col min="8701" max="8701" width="7.125" style="2" customWidth="1"/>
-    <col min="8702" max="8702" width="2.75" style="2" customWidth="1"/>
-    <col min="8703" max="8703" width="8.625" style="2" customWidth="1"/>
+    <col min="8701" max="8701" width="7.109375" style="2" customWidth="1"/>
+    <col min="8702" max="8702" width="2.77734375" style="2" customWidth="1"/>
+    <col min="8703" max="8703" width="8.6640625" style="2" customWidth="1"/>
     <col min="8704" max="8714" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="8715" max="8739" width="9" style="2" customWidth="1"/>
     <col min="8740" max="8939" width="9" style="2"/>
-    <col min="8940" max="8940" width="1.625" style="2" customWidth="1"/>
-    <col min="8941" max="8941" width="1.75" style="2" customWidth="1"/>
-    <col min="8942" max="8942" width="7.375" style="2" customWidth="1"/>
-    <col min="8943" max="8943" width="4.125" style="2" customWidth="1"/>
-    <col min="8944" max="8944" width="2.375" style="2" customWidth="1"/>
+    <col min="8940" max="8940" width="1.6640625" style="2" customWidth="1"/>
+    <col min="8941" max="8941" width="1.77734375" style="2" customWidth="1"/>
+    <col min="8942" max="8942" width="7.33203125" style="2" customWidth="1"/>
+    <col min="8943" max="8943" width="4.109375" style="2" customWidth="1"/>
+    <col min="8944" max="8944" width="2.33203125" style="2" customWidth="1"/>
     <col min="8945" max="8945" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="8946" max="8946" width="2.125" style="2" customWidth="1"/>
-    <col min="8947" max="8947" width="2.625" style="2" customWidth="1"/>
+    <col min="8946" max="8946" width="2.109375" style="2" customWidth="1"/>
+    <col min="8947" max="8947" width="2.6640625" style="2" customWidth="1"/>
     <col min="8948" max="8948" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="8949" max="8949" width="9.25" style="2" customWidth="1"/>
-    <col min="8950" max="8950" width="12.25" style="2" customWidth="1"/>
-    <col min="8951" max="8951" width="9.125" style="2" customWidth="1"/>
-    <col min="8952" max="8952" width="3.125" style="2" customWidth="1"/>
-    <col min="8953" max="8953" width="5.625" style="2" customWidth="1"/>
-    <col min="8954" max="8954" width="6.5" style="2" customWidth="1"/>
+    <col min="8949" max="8949" width="9.21875" style="2" customWidth="1"/>
+    <col min="8950" max="8950" width="12.21875" style="2" customWidth="1"/>
+    <col min="8951" max="8951" width="9.109375" style="2" customWidth="1"/>
+    <col min="8952" max="8952" width="3.109375" style="2" customWidth="1"/>
+    <col min="8953" max="8953" width="5.6640625" style="2" customWidth="1"/>
+    <col min="8954" max="8954" width="6.44140625" style="2" customWidth="1"/>
     <col min="8955" max="8955" width="1" style="2" customWidth="1"/>
     <col min="8956" max="8956" width="3" style="2" customWidth="1"/>
-    <col min="8957" max="8957" width="7.125" style="2" customWidth="1"/>
-    <col min="8958" max="8958" width="2.75" style="2" customWidth="1"/>
-    <col min="8959" max="8959" width="8.625" style="2" customWidth="1"/>
+    <col min="8957" max="8957" width="7.109375" style="2" customWidth="1"/>
+    <col min="8958" max="8958" width="2.77734375" style="2" customWidth="1"/>
+    <col min="8959" max="8959" width="8.6640625" style="2" customWidth="1"/>
     <col min="8960" max="8970" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="8971" max="8995" width="9" style="2" customWidth="1"/>
     <col min="8996" max="9195" width="9" style="2"/>
-    <col min="9196" max="9196" width="1.625" style="2" customWidth="1"/>
-    <col min="9197" max="9197" width="1.75" style="2" customWidth="1"/>
-    <col min="9198" max="9198" width="7.375" style="2" customWidth="1"/>
-    <col min="9199" max="9199" width="4.125" style="2" customWidth="1"/>
-    <col min="9200" max="9200" width="2.375" style="2" customWidth="1"/>
+    <col min="9196" max="9196" width="1.6640625" style="2" customWidth="1"/>
+    <col min="9197" max="9197" width="1.77734375" style="2" customWidth="1"/>
+    <col min="9198" max="9198" width="7.33203125" style="2" customWidth="1"/>
+    <col min="9199" max="9199" width="4.109375" style="2" customWidth="1"/>
+    <col min="9200" max="9200" width="2.33203125" style="2" customWidth="1"/>
     <col min="9201" max="9201" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="9202" max="9202" width="2.125" style="2" customWidth="1"/>
-    <col min="9203" max="9203" width="2.625" style="2" customWidth="1"/>
+    <col min="9202" max="9202" width="2.109375" style="2" customWidth="1"/>
+    <col min="9203" max="9203" width="2.6640625" style="2" customWidth="1"/>
     <col min="9204" max="9204" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="9205" max="9205" width="9.25" style="2" customWidth="1"/>
-    <col min="9206" max="9206" width="12.25" style="2" customWidth="1"/>
-    <col min="9207" max="9207" width="9.125" style="2" customWidth="1"/>
-    <col min="9208" max="9208" width="3.125" style="2" customWidth="1"/>
-    <col min="9209" max="9209" width="5.625" style="2" customWidth="1"/>
-    <col min="9210" max="9210" width="6.5" style="2" customWidth="1"/>
+    <col min="9205" max="9205" width="9.21875" style="2" customWidth="1"/>
+    <col min="9206" max="9206" width="12.21875" style="2" customWidth="1"/>
+    <col min="9207" max="9207" width="9.109375" style="2" customWidth="1"/>
+    <col min="9208" max="9208" width="3.109375" style="2" customWidth="1"/>
+    <col min="9209" max="9209" width="5.6640625" style="2" customWidth="1"/>
+    <col min="9210" max="9210" width="6.44140625" style="2" customWidth="1"/>
     <col min="9211" max="9211" width="1" style="2" customWidth="1"/>
     <col min="9212" max="9212" width="3" style="2" customWidth="1"/>
-    <col min="9213" max="9213" width="7.125" style="2" customWidth="1"/>
-    <col min="9214" max="9214" width="2.75" style="2" customWidth="1"/>
-    <col min="9215" max="9215" width="8.625" style="2" customWidth="1"/>
+    <col min="9213" max="9213" width="7.109375" style="2" customWidth="1"/>
+    <col min="9214" max="9214" width="2.77734375" style="2" customWidth="1"/>
+    <col min="9215" max="9215" width="8.6640625" style="2" customWidth="1"/>
     <col min="9216" max="9226" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="9227" max="9251" width="9" style="2" customWidth="1"/>
     <col min="9252" max="9451" width="9" style="2"/>
-    <col min="9452" max="9452" width="1.625" style="2" customWidth="1"/>
-    <col min="9453" max="9453" width="1.75" style="2" customWidth="1"/>
-    <col min="9454" max="9454" width="7.375" style="2" customWidth="1"/>
-    <col min="9455" max="9455" width="4.125" style="2" customWidth="1"/>
-    <col min="9456" max="9456" width="2.375" style="2" customWidth="1"/>
+    <col min="9452" max="9452" width="1.6640625" style="2" customWidth="1"/>
+    <col min="9453" max="9453" width="1.77734375" style="2" customWidth="1"/>
+    <col min="9454" max="9454" width="7.33203125" style="2" customWidth="1"/>
+    <col min="9455" max="9455" width="4.109375" style="2" customWidth="1"/>
+    <col min="9456" max="9456" width="2.33203125" style="2" customWidth="1"/>
     <col min="9457" max="9457" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="9458" max="9458" width="2.125" style="2" customWidth="1"/>
-    <col min="9459" max="9459" width="2.625" style="2" customWidth="1"/>
+    <col min="9458" max="9458" width="2.109375" style="2" customWidth="1"/>
+    <col min="9459" max="9459" width="2.6640625" style="2" customWidth="1"/>
     <col min="9460" max="9460" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="9461" max="9461" width="9.25" style="2" customWidth="1"/>
-    <col min="9462" max="9462" width="12.25" style="2" customWidth="1"/>
-    <col min="9463" max="9463" width="9.125" style="2" customWidth="1"/>
-    <col min="9464" max="9464" width="3.125" style="2" customWidth="1"/>
-    <col min="9465" max="9465" width="5.625" style="2" customWidth="1"/>
-    <col min="9466" max="9466" width="6.5" style="2" customWidth="1"/>
+    <col min="9461" max="9461" width="9.21875" style="2" customWidth="1"/>
+    <col min="9462" max="9462" width="12.21875" style="2" customWidth="1"/>
+    <col min="9463" max="9463" width="9.109375" style="2" customWidth="1"/>
+    <col min="9464" max="9464" width="3.109375" style="2" customWidth="1"/>
+    <col min="9465" max="9465" width="5.6640625" style="2" customWidth="1"/>
+    <col min="9466" max="9466" width="6.44140625" style="2" customWidth="1"/>
     <col min="9467" max="9467" width="1" style="2" customWidth="1"/>
     <col min="9468" max="9468" width="3" style="2" customWidth="1"/>
-    <col min="9469" max="9469" width="7.125" style="2" customWidth="1"/>
-    <col min="9470" max="9470" width="2.75" style="2" customWidth="1"/>
-    <col min="9471" max="9471" width="8.625" style="2" customWidth="1"/>
+    <col min="9469" max="9469" width="7.109375" style="2" customWidth="1"/>
+    <col min="9470" max="9470" width="2.77734375" style="2" customWidth="1"/>
+    <col min="9471" max="9471" width="8.6640625" style="2" customWidth="1"/>
     <col min="9472" max="9482" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="9483" max="9507" width="9" style="2" customWidth="1"/>
     <col min="9508" max="9707" width="9" style="2"/>
-    <col min="9708" max="9708" width="1.625" style="2" customWidth="1"/>
-    <col min="9709" max="9709" width="1.75" style="2" customWidth="1"/>
-    <col min="9710" max="9710" width="7.375" style="2" customWidth="1"/>
-    <col min="9711" max="9711" width="4.125" style="2" customWidth="1"/>
-    <col min="9712" max="9712" width="2.375" style="2" customWidth="1"/>
+    <col min="9708" max="9708" width="1.6640625" style="2" customWidth="1"/>
+    <col min="9709" max="9709" width="1.77734375" style="2" customWidth="1"/>
+    <col min="9710" max="9710" width="7.33203125" style="2" customWidth="1"/>
+    <col min="9711" max="9711" width="4.109375" style="2" customWidth="1"/>
+    <col min="9712" max="9712" width="2.33203125" style="2" customWidth="1"/>
     <col min="9713" max="9713" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="9714" max="9714" width="2.125" style="2" customWidth="1"/>
-    <col min="9715" max="9715" width="2.625" style="2" customWidth="1"/>
+    <col min="9714" max="9714" width="2.109375" style="2" customWidth="1"/>
+    <col min="9715" max="9715" width="2.6640625" style="2" customWidth="1"/>
     <col min="9716" max="9716" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="9717" max="9717" width="9.25" style="2" customWidth="1"/>
-    <col min="9718" max="9718" width="12.25" style="2" customWidth="1"/>
-    <col min="9719" max="9719" width="9.125" style="2" customWidth="1"/>
-    <col min="9720" max="9720" width="3.125" style="2" customWidth="1"/>
-    <col min="9721" max="9721" width="5.625" style="2" customWidth="1"/>
-    <col min="9722" max="9722" width="6.5" style="2" customWidth="1"/>
+    <col min="9717" max="9717" width="9.21875" style="2" customWidth="1"/>
+    <col min="9718" max="9718" width="12.21875" style="2" customWidth="1"/>
+    <col min="9719" max="9719" width="9.109375" style="2" customWidth="1"/>
+    <col min="9720" max="9720" width="3.109375" style="2" customWidth="1"/>
+    <col min="9721" max="9721" width="5.6640625" style="2" customWidth="1"/>
+    <col min="9722" max="9722" width="6.44140625" style="2" customWidth="1"/>
     <col min="9723" max="9723" width="1" style="2" customWidth="1"/>
     <col min="9724" max="9724" width="3" style="2" customWidth="1"/>
-    <col min="9725" max="9725" width="7.125" style="2" customWidth="1"/>
-    <col min="9726" max="9726" width="2.75" style="2" customWidth="1"/>
-    <col min="9727" max="9727" width="8.625" style="2" customWidth="1"/>
+    <col min="9725" max="9725" width="7.109375" style="2" customWidth="1"/>
+    <col min="9726" max="9726" width="2.77734375" style="2" customWidth="1"/>
+    <col min="9727" max="9727" width="8.6640625" style="2" customWidth="1"/>
     <col min="9728" max="9738" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="9739" max="9763" width="9" style="2" customWidth="1"/>
     <col min="9764" max="9963" width="9" style="2"/>
-    <col min="9964" max="9964" width="1.625" style="2" customWidth="1"/>
-    <col min="9965" max="9965" width="1.75" style="2" customWidth="1"/>
-    <col min="9966" max="9966" width="7.375" style="2" customWidth="1"/>
-    <col min="9967" max="9967" width="4.125" style="2" customWidth="1"/>
-    <col min="9968" max="9968" width="2.375" style="2" customWidth="1"/>
+    <col min="9964" max="9964" width="1.6640625" style="2" customWidth="1"/>
+    <col min="9965" max="9965" width="1.77734375" style="2" customWidth="1"/>
+    <col min="9966" max="9966" width="7.33203125" style="2" customWidth="1"/>
+    <col min="9967" max="9967" width="4.109375" style="2" customWidth="1"/>
+    <col min="9968" max="9968" width="2.33203125" style="2" customWidth="1"/>
     <col min="9969" max="9969" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="9970" max="9970" width="2.125" style="2" customWidth="1"/>
-    <col min="9971" max="9971" width="2.625" style="2" customWidth="1"/>
+    <col min="9970" max="9970" width="2.109375" style="2" customWidth="1"/>
+    <col min="9971" max="9971" width="2.6640625" style="2" customWidth="1"/>
     <col min="9972" max="9972" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="9973" max="9973" width="9.25" style="2" customWidth="1"/>
-    <col min="9974" max="9974" width="12.25" style="2" customWidth="1"/>
-    <col min="9975" max="9975" width="9.125" style="2" customWidth="1"/>
-    <col min="9976" max="9976" width="3.125" style="2" customWidth="1"/>
-    <col min="9977" max="9977" width="5.625" style="2" customWidth="1"/>
-    <col min="9978" max="9978" width="6.5" style="2" customWidth="1"/>
+    <col min="9973" max="9973" width="9.21875" style="2" customWidth="1"/>
+    <col min="9974" max="9974" width="12.21875" style="2" customWidth="1"/>
+    <col min="9975" max="9975" width="9.109375" style="2" customWidth="1"/>
+    <col min="9976" max="9976" width="3.109375" style="2" customWidth="1"/>
+    <col min="9977" max="9977" width="5.6640625" style="2" customWidth="1"/>
+    <col min="9978" max="9978" width="6.44140625" style="2" customWidth="1"/>
     <col min="9979" max="9979" width="1" style="2" customWidth="1"/>
     <col min="9980" max="9980" width="3" style="2" customWidth="1"/>
-    <col min="9981" max="9981" width="7.125" style="2" customWidth="1"/>
-    <col min="9982" max="9982" width="2.75" style="2" customWidth="1"/>
-    <col min="9983" max="9983" width="8.625" style="2" customWidth="1"/>
+    <col min="9981" max="9981" width="7.109375" style="2" customWidth="1"/>
+    <col min="9982" max="9982" width="2.77734375" style="2" customWidth="1"/>
+    <col min="9983" max="9983" width="8.6640625" style="2" customWidth="1"/>
     <col min="9984" max="9994" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="9995" max="10019" width="9" style="2" customWidth="1"/>
     <col min="10020" max="10219" width="9" style="2"/>
-    <col min="10220" max="10220" width="1.625" style="2" customWidth="1"/>
-    <col min="10221" max="10221" width="1.75" style="2" customWidth="1"/>
-    <col min="10222" max="10222" width="7.375" style="2" customWidth="1"/>
-    <col min="10223" max="10223" width="4.125" style="2" customWidth="1"/>
-    <col min="10224" max="10224" width="2.375" style="2" customWidth="1"/>
+    <col min="10220" max="10220" width="1.6640625" style="2" customWidth="1"/>
+    <col min="10221" max="10221" width="1.77734375" style="2" customWidth="1"/>
+    <col min="10222" max="10222" width="7.33203125" style="2" customWidth="1"/>
+    <col min="10223" max="10223" width="4.109375" style="2" customWidth="1"/>
+    <col min="10224" max="10224" width="2.33203125" style="2" customWidth="1"/>
     <col min="10225" max="10225" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="10226" max="10226" width="2.125" style="2" customWidth="1"/>
-    <col min="10227" max="10227" width="2.625" style="2" customWidth="1"/>
+    <col min="10226" max="10226" width="2.109375" style="2" customWidth="1"/>
+    <col min="10227" max="10227" width="2.6640625" style="2" customWidth="1"/>
     <col min="10228" max="10228" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="10229" max="10229" width="9.25" style="2" customWidth="1"/>
-    <col min="10230" max="10230" width="12.25" style="2" customWidth="1"/>
-    <col min="10231" max="10231" width="9.125" style="2" customWidth="1"/>
-    <col min="10232" max="10232" width="3.125" style="2" customWidth="1"/>
-    <col min="10233" max="10233" width="5.625" style="2" customWidth="1"/>
-    <col min="10234" max="10234" width="6.5" style="2" customWidth="1"/>
+    <col min="10229" max="10229" width="9.21875" style="2" customWidth="1"/>
+    <col min="10230" max="10230" width="12.21875" style="2" customWidth="1"/>
+    <col min="10231" max="10231" width="9.109375" style="2" customWidth="1"/>
+    <col min="10232" max="10232" width="3.109375" style="2" customWidth="1"/>
+    <col min="10233" max="10233" width="5.6640625" style="2" customWidth="1"/>
+    <col min="10234" max="10234" width="6.44140625" style="2" customWidth="1"/>
     <col min="10235" max="10235" width="1" style="2" customWidth="1"/>
     <col min="10236" max="10236" width="3" style="2" customWidth="1"/>
-    <col min="10237" max="10237" width="7.125" style="2" customWidth="1"/>
-    <col min="10238" max="10238" width="2.75" style="2" customWidth="1"/>
-    <col min="10239" max="10239" width="8.625" style="2" customWidth="1"/>
+    <col min="10237" max="10237" width="7.109375" style="2" customWidth="1"/>
+    <col min="10238" max="10238" width="2.77734375" style="2" customWidth="1"/>
+    <col min="10239" max="10239" width="8.6640625" style="2" customWidth="1"/>
     <col min="10240" max="10250" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="10251" max="10275" width="9" style="2" customWidth="1"/>
     <col min="10276" max="10475" width="9" style="2"/>
-    <col min="10476" max="10476" width="1.625" style="2" customWidth="1"/>
-    <col min="10477" max="10477" width="1.75" style="2" customWidth="1"/>
-    <col min="10478" max="10478" width="7.375" style="2" customWidth="1"/>
-    <col min="10479" max="10479" width="4.125" style="2" customWidth="1"/>
-    <col min="10480" max="10480" width="2.375" style="2" customWidth="1"/>
+    <col min="10476" max="10476" width="1.6640625" style="2" customWidth="1"/>
+    <col min="10477" max="10477" width="1.77734375" style="2" customWidth="1"/>
+    <col min="10478" max="10478" width="7.33203125" style="2" customWidth="1"/>
+    <col min="10479" max="10479" width="4.109375" style="2" customWidth="1"/>
+    <col min="10480" max="10480" width="2.33203125" style="2" customWidth="1"/>
     <col min="10481" max="10481" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="10482" max="10482" width="2.125" style="2" customWidth="1"/>
-    <col min="10483" max="10483" width="2.625" style="2" customWidth="1"/>
+    <col min="10482" max="10482" width="2.109375" style="2" customWidth="1"/>
+    <col min="10483" max="10483" width="2.6640625" style="2" customWidth="1"/>
     <col min="10484" max="10484" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="10485" max="10485" width="9.25" style="2" customWidth="1"/>
-    <col min="10486" max="10486" width="12.25" style="2" customWidth="1"/>
-    <col min="10487" max="10487" width="9.125" style="2" customWidth="1"/>
-    <col min="10488" max="10488" width="3.125" style="2" customWidth="1"/>
-    <col min="10489" max="10489" width="5.625" style="2" customWidth="1"/>
-    <col min="10490" max="10490" width="6.5" style="2" customWidth="1"/>
+    <col min="10485" max="10485" width="9.21875" style="2" customWidth="1"/>
+    <col min="10486" max="10486" width="12.21875" style="2" customWidth="1"/>
+    <col min="10487" max="10487" width="9.109375" style="2" customWidth="1"/>
+    <col min="10488" max="10488" width="3.109375" style="2" customWidth="1"/>
+    <col min="10489" max="10489" width="5.6640625" style="2" customWidth="1"/>
+    <col min="10490" max="10490" width="6.44140625" style="2" customWidth="1"/>
     <col min="10491" max="10491" width="1" style="2" customWidth="1"/>
     <col min="10492" max="10492" width="3" style="2" customWidth="1"/>
-    <col min="10493" max="10493" width="7.125" style="2" customWidth="1"/>
-    <col min="10494" max="10494" width="2.75" style="2" customWidth="1"/>
-    <col min="10495" max="10495" width="8.625" style="2" customWidth="1"/>
+    <col min="10493" max="10493" width="7.109375" style="2" customWidth="1"/>
+    <col min="10494" max="10494" width="2.77734375" style="2" customWidth="1"/>
+    <col min="10495" max="10495" width="8.6640625" style="2" customWidth="1"/>
     <col min="10496" max="10506" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="10507" max="10531" width="9" style="2" customWidth="1"/>
     <col min="10532" max="10731" width="9" style="2"/>
-    <col min="10732" max="10732" width="1.625" style="2" customWidth="1"/>
-    <col min="10733" max="10733" width="1.75" style="2" customWidth="1"/>
-    <col min="10734" max="10734" width="7.375" style="2" customWidth="1"/>
-    <col min="10735" max="10735" width="4.125" style="2" customWidth="1"/>
-    <col min="10736" max="10736" width="2.375" style="2" customWidth="1"/>
+    <col min="10732" max="10732" width="1.6640625" style="2" customWidth="1"/>
+    <col min="10733" max="10733" width="1.77734375" style="2" customWidth="1"/>
+    <col min="10734" max="10734" width="7.33203125" style="2" customWidth="1"/>
+    <col min="10735" max="10735" width="4.109375" style="2" customWidth="1"/>
+    <col min="10736" max="10736" width="2.33203125" style="2" customWidth="1"/>
     <col min="10737" max="10737" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="10738" max="10738" width="2.125" style="2" customWidth="1"/>
-    <col min="10739" max="10739" width="2.625" style="2" customWidth="1"/>
+    <col min="10738" max="10738" width="2.109375" style="2" customWidth="1"/>
+    <col min="10739" max="10739" width="2.6640625" style="2" customWidth="1"/>
     <col min="10740" max="10740" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="10741" max="10741" width="9.25" style="2" customWidth="1"/>
-    <col min="10742" max="10742" width="12.25" style="2" customWidth="1"/>
-    <col min="10743" max="10743" width="9.125" style="2" customWidth="1"/>
-    <col min="10744" max="10744" width="3.125" style="2" customWidth="1"/>
-    <col min="10745" max="10745" width="5.625" style="2" customWidth="1"/>
-    <col min="10746" max="10746" width="6.5" style="2" customWidth="1"/>
+    <col min="10741" max="10741" width="9.21875" style="2" customWidth="1"/>
+    <col min="10742" max="10742" width="12.21875" style="2" customWidth="1"/>
+    <col min="10743" max="10743" width="9.109375" style="2" customWidth="1"/>
+    <col min="10744" max="10744" width="3.109375" style="2" customWidth="1"/>
+    <col min="10745" max="10745" width="5.6640625" style="2" customWidth="1"/>
+    <col min="10746" max="10746" width="6.44140625" style="2" customWidth="1"/>
     <col min="10747" max="10747" width="1" style="2" customWidth="1"/>
     <col min="10748" max="10748" width="3" style="2" customWidth="1"/>
-    <col min="10749" max="10749" width="7.125" style="2" customWidth="1"/>
-    <col min="10750" max="10750" width="2.75" style="2" customWidth="1"/>
-    <col min="10751" max="10751" width="8.625" style="2" customWidth="1"/>
+    <col min="10749" max="10749" width="7.109375" style="2" customWidth="1"/>
+    <col min="10750" max="10750" width="2.77734375" style="2" customWidth="1"/>
+    <col min="10751" max="10751" width="8.6640625" style="2" customWidth="1"/>
     <col min="10752" max="10762" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="10763" max="10787" width="9" style="2" customWidth="1"/>
     <col min="10788" max="10987" width="9" style="2"/>
-    <col min="10988" max="10988" width="1.625" style="2" customWidth="1"/>
-    <col min="10989" max="10989" width="1.75" style="2" customWidth="1"/>
-    <col min="10990" max="10990" width="7.375" style="2" customWidth="1"/>
-    <col min="10991" max="10991" width="4.125" style="2" customWidth="1"/>
-    <col min="10992" max="10992" width="2.375" style="2" customWidth="1"/>
+    <col min="10988" max="10988" width="1.6640625" style="2" customWidth="1"/>
+    <col min="10989" max="10989" width="1.77734375" style="2" customWidth="1"/>
+    <col min="10990" max="10990" width="7.33203125" style="2" customWidth="1"/>
+    <col min="10991" max="10991" width="4.109375" style="2" customWidth="1"/>
+    <col min="10992" max="10992" width="2.33203125" style="2" customWidth="1"/>
     <col min="10993" max="10993" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="10994" max="10994" width="2.125" style="2" customWidth="1"/>
-    <col min="10995" max="10995" width="2.625" style="2" customWidth="1"/>
+    <col min="10994" max="10994" width="2.109375" style="2" customWidth="1"/>
+    <col min="10995" max="10995" width="2.6640625" style="2" customWidth="1"/>
     <col min="10996" max="10996" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="10997" max="10997" width="9.25" style="2" customWidth="1"/>
-    <col min="10998" max="10998" width="12.25" style="2" customWidth="1"/>
-    <col min="10999" max="10999" width="9.125" style="2" customWidth="1"/>
-    <col min="11000" max="11000" width="3.125" style="2" customWidth="1"/>
-    <col min="11001" max="11001" width="5.625" style="2" customWidth="1"/>
-    <col min="11002" max="11002" width="6.5" style="2" customWidth="1"/>
+    <col min="10997" max="10997" width="9.21875" style="2" customWidth="1"/>
+    <col min="10998" max="10998" width="12.21875" style="2" customWidth="1"/>
+    <col min="10999" max="10999" width="9.109375" style="2" customWidth="1"/>
+    <col min="11000" max="11000" width="3.109375" style="2" customWidth="1"/>
+    <col min="11001" max="11001" width="5.6640625" style="2" customWidth="1"/>
+    <col min="11002" max="11002" width="6.44140625" style="2" customWidth="1"/>
     <col min="11003" max="11003" width="1" style="2" customWidth="1"/>
     <col min="11004" max="11004" width="3" style="2" customWidth="1"/>
-    <col min="11005" max="11005" width="7.125" style="2" customWidth="1"/>
-    <col min="11006" max="11006" width="2.75" style="2" customWidth="1"/>
-    <col min="11007" max="11007" width="8.625" style="2" customWidth="1"/>
+    <col min="11005" max="11005" width="7.109375" style="2" customWidth="1"/>
+    <col min="11006" max="11006" width="2.77734375" style="2" customWidth="1"/>
+    <col min="11007" max="11007" width="8.6640625" style="2" customWidth="1"/>
     <col min="11008" max="11018" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="11019" max="11043" width="9" style="2" customWidth="1"/>
     <col min="11044" max="11243" width="9" style="2"/>
-    <col min="11244" max="11244" width="1.625" style="2" customWidth="1"/>
-    <col min="11245" max="11245" width="1.75" style="2" customWidth="1"/>
-    <col min="11246" max="11246" width="7.375" style="2" customWidth="1"/>
-    <col min="11247" max="11247" width="4.125" style="2" customWidth="1"/>
-    <col min="11248" max="11248" width="2.375" style="2" customWidth="1"/>
+    <col min="11244" max="11244" width="1.6640625" style="2" customWidth="1"/>
+    <col min="11245" max="11245" width="1.77734375" style="2" customWidth="1"/>
+    <col min="11246" max="11246" width="7.33203125" style="2" customWidth="1"/>
+    <col min="11247" max="11247" width="4.109375" style="2" customWidth="1"/>
+    <col min="11248" max="11248" width="2.33203125" style="2" customWidth="1"/>
     <col min="11249" max="11249" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="11250" max="11250" width="2.125" style="2" customWidth="1"/>
-    <col min="11251" max="11251" width="2.625" style="2" customWidth="1"/>
+    <col min="11250" max="11250" width="2.109375" style="2" customWidth="1"/>
+    <col min="11251" max="11251" width="2.6640625" style="2" customWidth="1"/>
     <col min="11252" max="11252" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="11253" max="11253" width="9.25" style="2" customWidth="1"/>
-    <col min="11254" max="11254" width="12.25" style="2" customWidth="1"/>
-    <col min="11255" max="11255" width="9.125" style="2" customWidth="1"/>
-    <col min="11256" max="11256" width="3.125" style="2" customWidth="1"/>
-    <col min="11257" max="11257" width="5.625" style="2" customWidth="1"/>
-    <col min="11258" max="11258" width="6.5" style="2" customWidth="1"/>
+    <col min="11253" max="11253" width="9.21875" style="2" customWidth="1"/>
+    <col min="11254" max="11254" width="12.21875" style="2" customWidth="1"/>
+    <col min="11255" max="11255" width="9.109375" style="2" customWidth="1"/>
+    <col min="11256" max="11256" width="3.109375" style="2" customWidth="1"/>
+    <col min="11257" max="11257" width="5.6640625" style="2" customWidth="1"/>
+    <col min="11258" max="11258" width="6.44140625" style="2" customWidth="1"/>
     <col min="11259" max="11259" width="1" style="2" customWidth="1"/>
     <col min="11260" max="11260" width="3" style="2" customWidth="1"/>
-    <col min="11261" max="11261" width="7.125" style="2" customWidth="1"/>
-    <col min="11262" max="11262" width="2.75" style="2" customWidth="1"/>
-    <col min="11263" max="11263" width="8.625" style="2" customWidth="1"/>
+    <col min="11261" max="11261" width="7.109375" style="2" customWidth="1"/>
+    <col min="11262" max="11262" width="2.77734375" style="2" customWidth="1"/>
+    <col min="11263" max="11263" width="8.6640625" style="2" customWidth="1"/>
     <col min="11264" max="11274" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="11275" max="11299" width="9" style="2" customWidth="1"/>
     <col min="11300" max="11499" width="9" style="2"/>
-    <col min="11500" max="11500" width="1.625" style="2" customWidth="1"/>
-    <col min="11501" max="11501" width="1.75" style="2" customWidth="1"/>
-    <col min="11502" max="11502" width="7.375" style="2" customWidth="1"/>
-    <col min="11503" max="11503" width="4.125" style="2" customWidth="1"/>
-    <col min="11504" max="11504" width="2.375" style="2" customWidth="1"/>
+    <col min="11500" max="11500" width="1.6640625" style="2" customWidth="1"/>
+    <col min="11501" max="11501" width="1.77734375" style="2" customWidth="1"/>
+    <col min="11502" max="11502" width="7.33203125" style="2" customWidth="1"/>
+    <col min="11503" max="11503" width="4.109375" style="2" customWidth="1"/>
+    <col min="11504" max="11504" width="2.33203125" style="2" customWidth="1"/>
     <col min="11505" max="11505" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="11506" max="11506" width="2.125" style="2" customWidth="1"/>
-    <col min="11507" max="11507" width="2.625" style="2" customWidth="1"/>
+    <col min="11506" max="11506" width="2.109375" style="2" customWidth="1"/>
+    <col min="11507" max="11507" width="2.6640625" style="2" customWidth="1"/>
     <col min="11508" max="11508" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="11509" max="11509" width="9.25" style="2" customWidth="1"/>
-    <col min="11510" max="11510" width="12.25" style="2" customWidth="1"/>
-    <col min="11511" max="11511" width="9.125" style="2" customWidth="1"/>
-    <col min="11512" max="11512" width="3.125" style="2" customWidth="1"/>
-    <col min="11513" max="11513" width="5.625" style="2" customWidth="1"/>
-    <col min="11514" max="11514" width="6.5" style="2" customWidth="1"/>
+    <col min="11509" max="11509" width="9.21875" style="2" customWidth="1"/>
+    <col min="11510" max="11510" width="12.21875" style="2" customWidth="1"/>
+    <col min="11511" max="11511" width="9.109375" style="2" customWidth="1"/>
+    <col min="11512" max="11512" width="3.109375" style="2" customWidth="1"/>
+    <col min="11513" max="11513" width="5.6640625" style="2" customWidth="1"/>
+    <col min="11514" max="11514" width="6.44140625" style="2" customWidth="1"/>
     <col min="11515" max="11515" width="1" style="2" customWidth="1"/>
     <col min="11516" max="11516" width="3" style="2" customWidth="1"/>
-    <col min="11517" max="11517" width="7.125" style="2" customWidth="1"/>
-    <col min="11518" max="11518" width="2.75" style="2" customWidth="1"/>
-    <col min="11519" max="11519" width="8.625" style="2" customWidth="1"/>
+    <col min="11517" max="11517" width="7.109375" style="2" customWidth="1"/>
+    <col min="11518" max="11518" width="2.77734375" style="2" customWidth="1"/>
+    <col min="11519" max="11519" width="8.6640625" style="2" customWidth="1"/>
     <col min="11520" max="11530" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="11531" max="11555" width="9" style="2" customWidth="1"/>
     <col min="11556" max="11755" width="9" style="2"/>
-    <col min="11756" max="11756" width="1.625" style="2" customWidth="1"/>
-    <col min="11757" max="11757" width="1.75" style="2" customWidth="1"/>
-    <col min="11758" max="11758" width="7.375" style="2" customWidth="1"/>
-    <col min="11759" max="11759" width="4.125" style="2" customWidth="1"/>
-    <col min="11760" max="11760" width="2.375" style="2" customWidth="1"/>
+    <col min="11756" max="11756" width="1.6640625" style="2" customWidth="1"/>
+    <col min="11757" max="11757" width="1.77734375" style="2" customWidth="1"/>
+    <col min="11758" max="11758" width="7.33203125" style="2" customWidth="1"/>
+    <col min="11759" max="11759" width="4.109375" style="2" customWidth="1"/>
+    <col min="11760" max="11760" width="2.33203125" style="2" customWidth="1"/>
     <col min="11761" max="11761" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="11762" max="11762" width="2.125" style="2" customWidth="1"/>
-    <col min="11763" max="11763" width="2.625" style="2" customWidth="1"/>
+    <col min="11762" max="11762" width="2.109375" style="2" customWidth="1"/>
+    <col min="11763" max="11763" width="2.6640625" style="2" customWidth="1"/>
     <col min="11764" max="11764" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="11765" max="11765" width="9.25" style="2" customWidth="1"/>
-    <col min="11766" max="11766" width="12.25" style="2" customWidth="1"/>
-    <col min="11767" max="11767" width="9.125" style="2" customWidth="1"/>
-    <col min="11768" max="11768" width="3.125" style="2" customWidth="1"/>
-    <col min="11769" max="11769" width="5.625" style="2" customWidth="1"/>
-    <col min="11770" max="11770" width="6.5" style="2" customWidth="1"/>
+    <col min="11765" max="11765" width="9.21875" style="2" customWidth="1"/>
+    <col min="11766" max="11766" width="12.21875" style="2" customWidth="1"/>
+    <col min="11767" max="11767" width="9.109375" style="2" customWidth="1"/>
+    <col min="11768" max="11768" width="3.109375" style="2" customWidth="1"/>
+    <col min="11769" max="11769" width="5.6640625" style="2" customWidth="1"/>
+    <col min="11770" max="11770" width="6.44140625" style="2" customWidth="1"/>
     <col min="11771" max="11771" width="1" style="2" customWidth="1"/>
     <col min="11772" max="11772" width="3" style="2" customWidth="1"/>
-    <col min="11773" max="11773" width="7.125" style="2" customWidth="1"/>
-    <col min="11774" max="11774" width="2.75" style="2" customWidth="1"/>
-    <col min="11775" max="11775" width="8.625" style="2" customWidth="1"/>
+    <col min="11773" max="11773" width="7.109375" style="2" customWidth="1"/>
+    <col min="11774" max="11774" width="2.77734375" style="2" customWidth="1"/>
+    <col min="11775" max="11775" width="8.6640625" style="2" customWidth="1"/>
     <col min="11776" max="11786" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="11787" max="11811" width="9" style="2" customWidth="1"/>
     <col min="11812" max="12011" width="9" style="2"/>
-    <col min="12012" max="12012" width="1.625" style="2" customWidth="1"/>
-    <col min="12013" max="12013" width="1.75" style="2" customWidth="1"/>
-    <col min="12014" max="12014" width="7.375" style="2" customWidth="1"/>
-    <col min="12015" max="12015" width="4.125" style="2" customWidth="1"/>
-    <col min="12016" max="12016" width="2.375" style="2" customWidth="1"/>
+    <col min="12012" max="12012" width="1.6640625" style="2" customWidth="1"/>
+    <col min="12013" max="12013" width="1.77734375" style="2" customWidth="1"/>
+    <col min="12014" max="12014" width="7.33203125" style="2" customWidth="1"/>
+    <col min="12015" max="12015" width="4.109375" style="2" customWidth="1"/>
+    <col min="12016" max="12016" width="2.33203125" style="2" customWidth="1"/>
     <col min="12017" max="12017" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="12018" max="12018" width="2.125" style="2" customWidth="1"/>
-    <col min="12019" max="12019" width="2.625" style="2" customWidth="1"/>
+    <col min="12018" max="12018" width="2.109375" style="2" customWidth="1"/>
+    <col min="12019" max="12019" width="2.6640625" style="2" customWidth="1"/>
     <col min="12020" max="12020" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="12021" max="12021" width="9.25" style="2" customWidth="1"/>
-    <col min="12022" max="12022" width="12.25" style="2" customWidth="1"/>
-    <col min="12023" max="12023" width="9.125" style="2" customWidth="1"/>
-    <col min="12024" max="12024" width="3.125" style="2" customWidth="1"/>
-    <col min="12025" max="12025" width="5.625" style="2" customWidth="1"/>
-    <col min="12026" max="12026" width="6.5" style="2" customWidth="1"/>
+    <col min="12021" max="12021" width="9.21875" style="2" customWidth="1"/>
+    <col min="12022" max="12022" width="12.21875" style="2" customWidth="1"/>
+    <col min="12023" max="12023" width="9.109375" style="2" customWidth="1"/>
+    <col min="12024" max="12024" width="3.109375" style="2" customWidth="1"/>
+    <col min="12025" max="12025" width="5.6640625" style="2" customWidth="1"/>
+    <col min="12026" max="12026" width="6.44140625" style="2" customWidth="1"/>
     <col min="12027" max="12027" width="1" style="2" customWidth="1"/>
     <col min="12028" max="12028" width="3" style="2" customWidth="1"/>
-    <col min="12029" max="12029" width="7.125" style="2" customWidth="1"/>
-    <col min="12030" max="12030" width="2.75" style="2" customWidth="1"/>
-    <col min="12031" max="12031" width="8.625" style="2" customWidth="1"/>
+    <col min="12029" max="12029" width="7.109375" style="2" customWidth="1"/>
+    <col min="12030" max="12030" width="2.77734375" style="2" customWidth="1"/>
+    <col min="12031" max="12031" width="8.6640625" style="2" customWidth="1"/>
     <col min="12032" max="12042" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="12043" max="12067" width="9" style="2" customWidth="1"/>
     <col min="12068" max="12267" width="9" style="2"/>
-    <col min="12268" max="12268" width="1.625" style="2" customWidth="1"/>
-    <col min="12269" max="12269" width="1.75" style="2" customWidth="1"/>
-    <col min="12270" max="12270" width="7.375" style="2" customWidth="1"/>
-    <col min="12271" max="12271" width="4.125" style="2" customWidth="1"/>
-    <col min="12272" max="12272" width="2.375" style="2" customWidth="1"/>
+    <col min="12268" max="12268" width="1.6640625" style="2" customWidth="1"/>
+    <col min="12269" max="12269" width="1.77734375" style="2" customWidth="1"/>
+    <col min="12270" max="12270" width="7.33203125" style="2" customWidth="1"/>
+    <col min="12271" max="12271" width="4.109375" style="2" customWidth="1"/>
+    <col min="12272" max="12272" width="2.33203125" style="2" customWidth="1"/>
     <col min="12273" max="12273" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="12274" max="12274" width="2.125" style="2" customWidth="1"/>
-    <col min="12275" max="12275" width="2.625" style="2" customWidth="1"/>
+    <col min="12274" max="12274" width="2.109375" style="2" customWidth="1"/>
+    <col min="12275" max="12275" width="2.6640625" style="2" customWidth="1"/>
     <col min="12276" max="12276" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="12277" max="12277" width="9.25" style="2" customWidth="1"/>
-    <col min="12278" max="12278" width="12.25" style="2" customWidth="1"/>
-    <col min="12279" max="12279" width="9.125" style="2" customWidth="1"/>
-    <col min="12280" max="12280" width="3.125" style="2" customWidth="1"/>
-    <col min="12281" max="12281" width="5.625" style="2" customWidth="1"/>
-    <col min="12282" max="12282" width="6.5" style="2" customWidth="1"/>
+    <col min="12277" max="12277" width="9.21875" style="2" customWidth="1"/>
+    <col min="12278" max="12278" width="12.21875" style="2" customWidth="1"/>
+    <col min="12279" max="12279" width="9.109375" style="2" customWidth="1"/>
+    <col min="12280" max="12280" width="3.109375" style="2" customWidth="1"/>
+    <col min="12281" max="12281" width="5.6640625" style="2" customWidth="1"/>
+    <col min="12282" max="12282" width="6.44140625" style="2" customWidth="1"/>
     <col min="12283" max="12283" width="1" style="2" customWidth="1"/>
     <col min="12284" max="12284" width="3" style="2" customWidth="1"/>
-    <col min="12285" max="12285" width="7.125" style="2" customWidth="1"/>
-    <col min="12286" max="12286" width="2.75" style="2" customWidth="1"/>
-    <col min="12287" max="12287" width="8.625" style="2" customWidth="1"/>
+    <col min="12285" max="12285" width="7.109375" style="2" customWidth="1"/>
+    <col min="12286" max="12286" width="2.77734375" style="2" customWidth="1"/>
+    <col min="12287" max="12287" width="8.6640625" style="2" customWidth="1"/>
     <col min="12288" max="12298" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="12299" max="12323" width="9" style="2" customWidth="1"/>
     <col min="12324" max="12523" width="9" style="2"/>
-    <col min="12524" max="12524" width="1.625" style="2" customWidth="1"/>
-    <col min="12525" max="12525" width="1.75" style="2" customWidth="1"/>
-    <col min="12526" max="12526" width="7.375" style="2" customWidth="1"/>
-    <col min="12527" max="12527" width="4.125" style="2" customWidth="1"/>
-    <col min="12528" max="12528" width="2.375" style="2" customWidth="1"/>
+    <col min="12524" max="12524" width="1.6640625" style="2" customWidth="1"/>
+    <col min="12525" max="12525" width="1.77734375" style="2" customWidth="1"/>
+    <col min="12526" max="12526" width="7.33203125" style="2" customWidth="1"/>
+    <col min="12527" max="12527" width="4.109375" style="2" customWidth="1"/>
+    <col min="12528" max="12528" width="2.33203125" style="2" customWidth="1"/>
     <col min="12529" max="12529" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="12530" max="12530" width="2.125" style="2" customWidth="1"/>
-    <col min="12531" max="12531" width="2.625" style="2" customWidth="1"/>
+    <col min="12530" max="12530" width="2.109375" style="2" customWidth="1"/>
+    <col min="12531" max="12531" width="2.6640625" style="2" customWidth="1"/>
     <col min="12532" max="12532" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="12533" max="12533" width="9.25" style="2" customWidth="1"/>
-    <col min="12534" max="12534" width="12.25" style="2" customWidth="1"/>
-    <col min="12535" max="12535" width="9.125" style="2" customWidth="1"/>
-    <col min="12536" max="12536" width="3.125" style="2" customWidth="1"/>
-    <col min="12537" max="12537" width="5.625" style="2" customWidth="1"/>
-    <col min="12538" max="12538" width="6.5" style="2" customWidth="1"/>
+    <col min="12533" max="12533" width="9.21875" style="2" customWidth="1"/>
+    <col min="12534" max="12534" width="12.21875" style="2" customWidth="1"/>
+    <col min="12535" max="12535" width="9.109375" style="2" customWidth="1"/>
+    <col min="12536" max="12536" width="3.109375" style="2" customWidth="1"/>
+    <col min="12537" max="12537" width="5.6640625" style="2" customWidth="1"/>
+    <col min="12538" max="12538" width="6.44140625" style="2" customWidth="1"/>
     <col min="12539" max="12539" width="1" style="2" customWidth="1"/>
     <col min="12540" max="12540" width="3" style="2" customWidth="1"/>
-    <col min="12541" max="12541" width="7.125" style="2" customWidth="1"/>
-    <col min="12542" max="12542" width="2.75" style="2" customWidth="1"/>
-    <col min="12543" max="12543" width="8.625" style="2" customWidth="1"/>
+    <col min="12541" max="12541" width="7.109375" style="2" customWidth="1"/>
+    <col min="12542" max="12542" width="2.77734375" style="2" customWidth="1"/>
+    <col min="12543" max="12543" width="8.6640625" style="2" customWidth="1"/>
     <col min="12544" max="12554" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="12555" max="12579" width="9" style="2" customWidth="1"/>
     <col min="12580" max="12779" width="9" style="2"/>
-    <col min="12780" max="12780" width="1.625" style="2" customWidth="1"/>
-    <col min="12781" max="12781" width="1.75" style="2" customWidth="1"/>
-    <col min="12782" max="12782" width="7.375" style="2" customWidth="1"/>
-    <col min="12783" max="12783" width="4.125" style="2" customWidth="1"/>
-    <col min="12784" max="12784" width="2.375" style="2" customWidth="1"/>
+    <col min="12780" max="12780" width="1.6640625" style="2" customWidth="1"/>
+    <col min="12781" max="12781" width="1.77734375" style="2" customWidth="1"/>
+    <col min="12782" max="12782" width="7.33203125" style="2" customWidth="1"/>
+    <col min="12783" max="12783" width="4.109375" style="2" customWidth="1"/>
+    <col min="12784" max="12784" width="2.33203125" style="2" customWidth="1"/>
     <col min="12785" max="12785" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="12786" max="12786" width="2.125" style="2" customWidth="1"/>
-    <col min="12787" max="12787" width="2.625" style="2" customWidth="1"/>
+    <col min="12786" max="12786" width="2.109375" style="2" customWidth="1"/>
+    <col min="12787" max="12787" width="2.6640625" style="2" customWidth="1"/>
     <col min="12788" max="12788" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="12789" max="12789" width="9.25" style="2" customWidth="1"/>
-    <col min="12790" max="12790" width="12.25" style="2" customWidth="1"/>
-    <col min="12791" max="12791" width="9.125" style="2" customWidth="1"/>
-    <col min="12792" max="12792" width="3.125" style="2" customWidth="1"/>
-    <col min="12793" max="12793" width="5.625" style="2" customWidth="1"/>
-    <col min="12794" max="12794" width="6.5" style="2" customWidth="1"/>
+    <col min="12789" max="12789" width="9.21875" style="2" customWidth="1"/>
+    <col min="12790" max="12790" width="12.21875" style="2" customWidth="1"/>
+    <col min="12791" max="12791" width="9.109375" style="2" customWidth="1"/>
+    <col min="12792" max="12792" width="3.109375" style="2" customWidth="1"/>
+    <col min="12793" max="12793" width="5.6640625" style="2" customWidth="1"/>
+    <col min="12794" max="12794" width="6.44140625" style="2" customWidth="1"/>
     <col min="12795" max="12795" width="1" style="2" customWidth="1"/>
     <col min="12796" max="12796" width="3" style="2" customWidth="1"/>
-    <col min="12797" max="12797" width="7.125" style="2" customWidth="1"/>
-    <col min="12798" max="12798" width="2.75" style="2" customWidth="1"/>
-    <col min="12799" max="12799" width="8.625" style="2" customWidth="1"/>
+    <col min="12797" max="12797" width="7.109375" style="2" customWidth="1"/>
+    <col min="12798" max="12798" width="2.77734375" style="2" customWidth="1"/>
+    <col min="12799" max="12799" width="8.6640625" style="2" customWidth="1"/>
     <col min="12800" max="12810" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="12811" max="12835" width="9" style="2" customWidth="1"/>
     <col min="12836" max="13035" width="9" style="2"/>
-    <col min="13036" max="13036" width="1.625" style="2" customWidth="1"/>
-    <col min="13037" max="13037" width="1.75" style="2" customWidth="1"/>
-    <col min="13038" max="13038" width="7.375" style="2" customWidth="1"/>
-    <col min="13039" max="13039" width="4.125" style="2" customWidth="1"/>
-    <col min="13040" max="13040" width="2.375" style="2" customWidth="1"/>
+    <col min="13036" max="13036" width="1.6640625" style="2" customWidth="1"/>
+    <col min="13037" max="13037" width="1.77734375" style="2" customWidth="1"/>
+    <col min="13038" max="13038" width="7.33203125" style="2" customWidth="1"/>
+    <col min="13039" max="13039" width="4.109375" style="2" customWidth="1"/>
+    <col min="13040" max="13040" width="2.33203125" style="2" customWidth="1"/>
     <col min="13041" max="13041" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="13042" max="13042" width="2.125" style="2" customWidth="1"/>
-    <col min="13043" max="13043" width="2.625" style="2" customWidth="1"/>
+    <col min="13042" max="13042" width="2.109375" style="2" customWidth="1"/>
+    <col min="13043" max="13043" width="2.6640625" style="2" customWidth="1"/>
     <col min="13044" max="13044" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="13045" max="13045" width="9.25" style="2" customWidth="1"/>
-    <col min="13046" max="13046" width="12.25" style="2" customWidth="1"/>
-    <col min="13047" max="13047" width="9.125" style="2" customWidth="1"/>
-    <col min="13048" max="13048" width="3.125" style="2" customWidth="1"/>
-    <col min="13049" max="13049" width="5.625" style="2" customWidth="1"/>
-    <col min="13050" max="13050" width="6.5" style="2" customWidth="1"/>
+    <col min="13045" max="13045" width="9.21875" style="2" customWidth="1"/>
+    <col min="13046" max="13046" width="12.21875" style="2" customWidth="1"/>
+    <col min="13047" max="13047" width="9.109375" style="2" customWidth="1"/>
+    <col min="13048" max="13048" width="3.109375" style="2" customWidth="1"/>
+    <col min="13049" max="13049" width="5.6640625" style="2" customWidth="1"/>
+    <col min="13050" max="13050" width="6.44140625" style="2" customWidth="1"/>
     <col min="13051" max="13051" width="1" style="2" customWidth="1"/>
     <col min="13052" max="13052" width="3" style="2" customWidth="1"/>
-    <col min="13053" max="13053" width="7.125" style="2" customWidth="1"/>
-    <col min="13054" max="13054" width="2.75" style="2" customWidth="1"/>
-    <col min="13055" max="13055" width="8.625" style="2" customWidth="1"/>
+    <col min="13053" max="13053" width="7.109375" style="2" customWidth="1"/>
+    <col min="13054" max="13054" width="2.77734375" style="2" customWidth="1"/>
+    <col min="13055" max="13055" width="8.6640625" style="2" customWidth="1"/>
     <col min="13056" max="13066" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="13067" max="13091" width="9" style="2" customWidth="1"/>
     <col min="13092" max="13291" width="9" style="2"/>
-    <col min="13292" max="13292" width="1.625" style="2" customWidth="1"/>
-    <col min="13293" max="13293" width="1.75" style="2" customWidth="1"/>
-    <col min="13294" max="13294" width="7.375" style="2" customWidth="1"/>
-    <col min="13295" max="13295" width="4.125" style="2" customWidth="1"/>
-    <col min="13296" max="13296" width="2.375" style="2" customWidth="1"/>
+    <col min="13292" max="13292" width="1.6640625" style="2" customWidth="1"/>
+    <col min="13293" max="13293" width="1.77734375" style="2" customWidth="1"/>
+    <col min="13294" max="13294" width="7.33203125" style="2" customWidth="1"/>
+    <col min="13295" max="13295" width="4.109375" style="2" customWidth="1"/>
+    <col min="13296" max="13296" width="2.33203125" style="2" customWidth="1"/>
     <col min="13297" max="13297" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="13298" max="13298" width="2.125" style="2" customWidth="1"/>
-    <col min="13299" max="13299" width="2.625" style="2" customWidth="1"/>
+    <col min="13298" max="13298" width="2.109375" style="2" customWidth="1"/>
+    <col min="13299" max="13299" width="2.6640625" style="2" customWidth="1"/>
     <col min="13300" max="13300" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="13301" max="13301" width="9.25" style="2" customWidth="1"/>
-    <col min="13302" max="13302" width="12.25" style="2" customWidth="1"/>
-    <col min="13303" max="13303" width="9.125" style="2" customWidth="1"/>
-    <col min="13304" max="13304" width="3.125" style="2" customWidth="1"/>
-    <col min="13305" max="13305" width="5.625" style="2" customWidth="1"/>
-    <col min="13306" max="13306" width="6.5" style="2" customWidth="1"/>
+    <col min="13301" max="13301" width="9.21875" style="2" customWidth="1"/>
+    <col min="13302" max="13302" width="12.21875" style="2" customWidth="1"/>
+    <col min="13303" max="13303" width="9.109375" style="2" customWidth="1"/>
+    <col min="13304" max="13304" width="3.109375" style="2" customWidth="1"/>
+    <col min="13305" max="13305" width="5.6640625" style="2" customWidth="1"/>
+    <col min="13306" max="13306" width="6.44140625" style="2" customWidth="1"/>
     <col min="13307" max="13307" width="1" style="2" customWidth="1"/>
     <col min="13308" max="13308" width="3" style="2" customWidth="1"/>
-    <col min="13309" max="13309" width="7.125" style="2" customWidth="1"/>
-    <col min="13310" max="13310" width="2.75" style="2" customWidth="1"/>
-    <col min="13311" max="13311" width="8.625" style="2" customWidth="1"/>
+    <col min="13309" max="13309" width="7.109375" style="2" customWidth="1"/>
+    <col min="13310" max="13310" width="2.77734375" style="2" customWidth="1"/>
+    <col min="13311" max="13311" width="8.6640625" style="2" customWidth="1"/>
     <col min="13312" max="13322" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="13323" max="13347" width="9" style="2" customWidth="1"/>
     <col min="13348" max="13547" width="9" style="2"/>
-    <col min="13548" max="13548" width="1.625" style="2" customWidth="1"/>
-    <col min="13549" max="13549" width="1.75" style="2" customWidth="1"/>
-    <col min="13550" max="13550" width="7.375" style="2" customWidth="1"/>
-    <col min="13551" max="13551" width="4.125" style="2" customWidth="1"/>
-    <col min="13552" max="13552" width="2.375" style="2" customWidth="1"/>
+    <col min="13548" max="13548" width="1.6640625" style="2" customWidth="1"/>
+    <col min="13549" max="13549" width="1.77734375" style="2" customWidth="1"/>
+    <col min="13550" max="13550" width="7.33203125" style="2" customWidth="1"/>
+    <col min="13551" max="13551" width="4.109375" style="2" customWidth="1"/>
+    <col min="13552" max="13552" width="2.33203125" style="2" customWidth="1"/>
     <col min="13553" max="13553" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="13554" max="13554" width="2.125" style="2" customWidth="1"/>
-    <col min="13555" max="13555" width="2.625" style="2" customWidth="1"/>
+    <col min="13554" max="13554" width="2.109375" style="2" customWidth="1"/>
+    <col min="13555" max="13555" width="2.6640625" style="2" customWidth="1"/>
     <col min="13556" max="13556" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="13557" max="13557" width="9.25" style="2" customWidth="1"/>
-    <col min="13558" max="13558" width="12.25" style="2" customWidth="1"/>
-    <col min="13559" max="13559" width="9.125" style="2" customWidth="1"/>
-    <col min="13560" max="13560" width="3.125" style="2" customWidth="1"/>
-    <col min="13561" max="13561" width="5.625" style="2" customWidth="1"/>
-    <col min="13562" max="13562" width="6.5" style="2" customWidth="1"/>
+    <col min="13557" max="13557" width="9.21875" style="2" customWidth="1"/>
+    <col min="13558" max="13558" width="12.21875" style="2" customWidth="1"/>
+    <col min="13559" max="13559" width="9.109375" style="2" customWidth="1"/>
+    <col min="13560" max="13560" width="3.109375" style="2" customWidth="1"/>
+    <col min="13561" max="13561" width="5.6640625" style="2" customWidth="1"/>
+    <col min="13562" max="13562" width="6.44140625" style="2" customWidth="1"/>
     <col min="13563" max="13563" width="1" style="2" customWidth="1"/>
     <col min="13564" max="13564" width="3" style="2" customWidth="1"/>
-    <col min="13565" max="13565" width="7.125" style="2" customWidth="1"/>
-    <col min="13566" max="13566" width="2.75" style="2" customWidth="1"/>
-    <col min="13567" max="13567" width="8.625" style="2" customWidth="1"/>
+    <col min="13565" max="13565" width="7.109375" style="2" customWidth="1"/>
+    <col min="13566" max="13566" width="2.77734375" style="2" customWidth="1"/>
+    <col min="13567" max="13567" width="8.6640625" style="2" customWidth="1"/>
     <col min="13568" max="13578" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="13579" max="13603" width="9" style="2" customWidth="1"/>
     <col min="13604" max="13803" width="9" style="2"/>
-    <col min="13804" max="13804" width="1.625" style="2" customWidth="1"/>
-    <col min="13805" max="13805" width="1.75" style="2" customWidth="1"/>
-    <col min="13806" max="13806" width="7.375" style="2" customWidth="1"/>
-    <col min="13807" max="13807" width="4.125" style="2" customWidth="1"/>
-    <col min="13808" max="13808" width="2.375" style="2" customWidth="1"/>
+    <col min="13804" max="13804" width="1.6640625" style="2" customWidth="1"/>
+    <col min="13805" max="13805" width="1.77734375" style="2" customWidth="1"/>
+    <col min="13806" max="13806" width="7.33203125" style="2" customWidth="1"/>
+    <col min="13807" max="13807" width="4.109375" style="2" customWidth="1"/>
+    <col min="13808" max="13808" width="2.33203125" style="2" customWidth="1"/>
     <col min="13809" max="13809" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="13810" max="13810" width="2.125" style="2" customWidth="1"/>
-    <col min="13811" max="13811" width="2.625" style="2" customWidth="1"/>
+    <col min="13810" max="13810" width="2.109375" style="2" customWidth="1"/>
+    <col min="13811" max="13811" width="2.6640625" style="2" customWidth="1"/>
     <col min="13812" max="13812" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="13813" max="13813" width="9.25" style="2" customWidth="1"/>
-    <col min="13814" max="13814" width="12.25" style="2" customWidth="1"/>
-    <col min="13815" max="13815" width="9.125" style="2" customWidth="1"/>
-    <col min="13816" max="13816" width="3.125" style="2" customWidth="1"/>
-    <col min="13817" max="13817" width="5.625" style="2" customWidth="1"/>
-    <col min="13818" max="13818" width="6.5" style="2" customWidth="1"/>
+    <col min="13813" max="13813" width="9.21875" style="2" customWidth="1"/>
+    <col min="13814" max="13814" width="12.21875" style="2" customWidth="1"/>
+    <col min="13815" max="13815" width="9.109375" style="2" customWidth="1"/>
+    <col min="13816" max="13816" width="3.109375" style="2" customWidth="1"/>
+    <col min="13817" max="13817" width="5.6640625" style="2" customWidth="1"/>
+    <col min="13818" max="13818" width="6.44140625" style="2" customWidth="1"/>
     <col min="13819" max="13819" width="1" style="2" customWidth="1"/>
     <col min="13820" max="13820" width="3" style="2" customWidth="1"/>
-    <col min="13821" max="13821" width="7.125" style="2" customWidth="1"/>
-    <col min="13822" max="13822" width="2.75" style="2" customWidth="1"/>
-    <col min="13823" max="13823" width="8.625" style="2" customWidth="1"/>
+    <col min="13821" max="13821" width="7.109375" style="2" customWidth="1"/>
+    <col min="13822" max="13822" width="2.77734375" style="2" customWidth="1"/>
+    <col min="13823" max="13823" width="8.6640625" style="2" customWidth="1"/>
     <col min="13824" max="13834" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="13835" max="13859" width="9" style="2" customWidth="1"/>
     <col min="13860" max="14059" width="9" style="2"/>
-    <col min="14060" max="14060" width="1.625" style="2" customWidth="1"/>
-    <col min="14061" max="14061" width="1.75" style="2" customWidth="1"/>
-    <col min="14062" max="14062" width="7.375" style="2" customWidth="1"/>
-    <col min="14063" max="14063" width="4.125" style="2" customWidth="1"/>
-    <col min="14064" max="14064" width="2.375" style="2" customWidth="1"/>
+    <col min="14060" max="14060" width="1.6640625" style="2" customWidth="1"/>
+    <col min="14061" max="14061" width="1.77734375" style="2" customWidth="1"/>
+    <col min="14062" max="14062" width="7.33203125" style="2" customWidth="1"/>
+    <col min="14063" max="14063" width="4.109375" style="2" customWidth="1"/>
+    <col min="14064" max="14064" width="2.33203125" style="2" customWidth="1"/>
     <col min="14065" max="14065" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="14066" max="14066" width="2.125" style="2" customWidth="1"/>
-    <col min="14067" max="14067" width="2.625" style="2" customWidth="1"/>
+    <col min="14066" max="14066" width="2.109375" style="2" customWidth="1"/>
+    <col min="14067" max="14067" width="2.6640625" style="2" customWidth="1"/>
     <col min="14068" max="14068" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="14069" max="14069" width="9.25" style="2" customWidth="1"/>
-    <col min="14070" max="14070" width="12.25" style="2" customWidth="1"/>
-    <col min="14071" max="14071" width="9.125" style="2" customWidth="1"/>
-    <col min="14072" max="14072" width="3.125" style="2" customWidth="1"/>
-    <col min="14073" max="14073" width="5.625" style="2" customWidth="1"/>
-    <col min="14074" max="14074" width="6.5" style="2" customWidth="1"/>
+    <col min="14069" max="14069" width="9.21875" style="2" customWidth="1"/>
+    <col min="14070" max="14070" width="12.21875" style="2" customWidth="1"/>
+    <col min="14071" max="14071" width="9.109375" style="2" customWidth="1"/>
+    <col min="14072" max="14072" width="3.109375" style="2" customWidth="1"/>
+    <col min="14073" max="14073" width="5.6640625" style="2" customWidth="1"/>
+    <col min="14074" max="14074" width="6.44140625" style="2" customWidth="1"/>
     <col min="14075" max="14075" width="1" style="2" customWidth="1"/>
     <col min="14076" max="14076" width="3" style="2" customWidth="1"/>
-    <col min="14077" max="14077" width="7.125" style="2" customWidth="1"/>
-    <col min="14078" max="14078" width="2.75" style="2" customWidth="1"/>
-    <col min="14079" max="14079" width="8.625" style="2" customWidth="1"/>
+    <col min="14077" max="14077" width="7.109375" style="2" customWidth="1"/>
+    <col min="14078" max="14078" width="2.77734375" style="2" customWidth="1"/>
+    <col min="14079" max="14079" width="8.6640625" style="2" customWidth="1"/>
     <col min="14080" max="14090" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="14091" max="14115" width="9" style="2" customWidth="1"/>
     <col min="14116" max="14315" width="9" style="2"/>
-    <col min="14316" max="14316" width="1.625" style="2" customWidth="1"/>
-    <col min="14317" max="14317" width="1.75" style="2" customWidth="1"/>
-    <col min="14318" max="14318" width="7.375" style="2" customWidth="1"/>
-    <col min="14319" max="14319" width="4.125" style="2" customWidth="1"/>
-    <col min="14320" max="14320" width="2.375" style="2" customWidth="1"/>
+    <col min="14316" max="14316" width="1.6640625" style="2" customWidth="1"/>
+    <col min="14317" max="14317" width="1.77734375" style="2" customWidth="1"/>
+    <col min="14318" max="14318" width="7.33203125" style="2" customWidth="1"/>
+    <col min="14319" max="14319" width="4.109375" style="2" customWidth="1"/>
+    <col min="14320" max="14320" width="2.33203125" style="2" customWidth="1"/>
     <col min="14321" max="14321" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="14322" max="14322" width="2.125" style="2" customWidth="1"/>
-    <col min="14323" max="14323" width="2.625" style="2" customWidth="1"/>
+    <col min="14322" max="14322" width="2.109375" style="2" customWidth="1"/>
+    <col min="14323" max="14323" width="2.6640625" style="2" customWidth="1"/>
     <col min="14324" max="14324" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="14325" max="14325" width="9.25" style="2" customWidth="1"/>
-    <col min="14326" max="14326" width="12.25" style="2" customWidth="1"/>
-    <col min="14327" max="14327" width="9.125" style="2" customWidth="1"/>
-    <col min="14328" max="14328" width="3.125" style="2" customWidth="1"/>
-    <col min="14329" max="14329" width="5.625" style="2" customWidth="1"/>
-    <col min="14330" max="14330" width="6.5" style="2" customWidth="1"/>
+    <col min="14325" max="14325" width="9.21875" style="2" customWidth="1"/>
+    <col min="14326" max="14326" width="12.21875" style="2" customWidth="1"/>
+    <col min="14327" max="14327" width="9.109375" style="2" customWidth="1"/>
+    <col min="14328" max="14328" width="3.109375" style="2" customWidth="1"/>
+    <col min="14329" max="14329" width="5.6640625" style="2" customWidth="1"/>
+    <col min="14330" max="14330" width="6.44140625" style="2" customWidth="1"/>
     <col min="14331" max="14331" width="1" style="2" customWidth="1"/>
     <col min="14332" max="14332" width="3" style="2" customWidth="1"/>
-    <col min="14333" max="14333" width="7.125" style="2" customWidth="1"/>
-    <col min="14334" max="14334" width="2.75" style="2" customWidth="1"/>
-    <col min="14335" max="14335" width="8.625" style="2" customWidth="1"/>
+    <col min="14333" max="14333" width="7.109375" style="2" customWidth="1"/>
+    <col min="14334" max="14334" width="2.77734375" style="2" customWidth="1"/>
+    <col min="14335" max="14335" width="8.6640625" style="2" customWidth="1"/>
     <col min="14336" max="14346" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="14347" max="14371" width="9" style="2" customWidth="1"/>
     <col min="14372" max="14571" width="9" style="2"/>
-    <col min="14572" max="14572" width="1.625" style="2" customWidth="1"/>
-    <col min="14573" max="14573" width="1.75" style="2" customWidth="1"/>
-    <col min="14574" max="14574" width="7.375" style="2" customWidth="1"/>
-    <col min="14575" max="14575" width="4.125" style="2" customWidth="1"/>
-    <col min="14576" max="14576" width="2.375" style="2" customWidth="1"/>
+    <col min="14572" max="14572" width="1.6640625" style="2" customWidth="1"/>
+    <col min="14573" max="14573" width="1.77734375" style="2" customWidth="1"/>
+    <col min="14574" max="14574" width="7.33203125" style="2" customWidth="1"/>
+    <col min="14575" max="14575" width="4.109375" style="2" customWidth="1"/>
+    <col min="14576" max="14576" width="2.33203125" style="2" customWidth="1"/>
     <col min="14577" max="14577" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="14578" max="14578" width="2.125" style="2" customWidth="1"/>
-    <col min="14579" max="14579" width="2.625" style="2" customWidth="1"/>
+    <col min="14578" max="14578" width="2.109375" style="2" customWidth="1"/>
+    <col min="14579" max="14579" width="2.6640625" style="2" customWidth="1"/>
     <col min="14580" max="14580" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="14581" max="14581" width="9.25" style="2" customWidth="1"/>
-    <col min="14582" max="14582" width="12.25" style="2" customWidth="1"/>
-    <col min="14583" max="14583" width="9.125" style="2" customWidth="1"/>
-    <col min="14584" max="14584" width="3.125" style="2" customWidth="1"/>
-    <col min="14585" max="14585" width="5.625" style="2" customWidth="1"/>
-    <col min="14586" max="14586" width="6.5" style="2" customWidth="1"/>
+    <col min="14581" max="14581" width="9.21875" style="2" customWidth="1"/>
+    <col min="14582" max="14582" width="12.21875" style="2" customWidth="1"/>
+    <col min="14583" max="14583" width="9.109375" style="2" customWidth="1"/>
+    <col min="14584" max="14584" width="3.109375" style="2" customWidth="1"/>
+    <col min="14585" max="14585" width="5.6640625" style="2" customWidth="1"/>
+    <col min="14586" max="14586" width="6.44140625" style="2" customWidth="1"/>
     <col min="14587" max="14587" width="1" style="2" customWidth="1"/>
     <col min="14588" max="14588" width="3" style="2" customWidth="1"/>
-    <col min="14589" max="14589" width="7.125" style="2" customWidth="1"/>
-    <col min="14590" max="14590" width="2.75" style="2" customWidth="1"/>
-    <col min="14591" max="14591" width="8.625" style="2" customWidth="1"/>
+    <col min="14589" max="14589" width="7.109375" style="2" customWidth="1"/>
+    <col min="14590" max="14590" width="2.77734375" style="2" customWidth="1"/>
+    <col min="14591" max="14591" width="8.6640625" style="2" customWidth="1"/>
     <col min="14592" max="14602" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="14603" max="14627" width="9" style="2" customWidth="1"/>
     <col min="14628" max="14827" width="9" style="2"/>
-    <col min="14828" max="14828" width="1.625" style="2" customWidth="1"/>
-    <col min="14829" max="14829" width="1.75" style="2" customWidth="1"/>
-    <col min="14830" max="14830" width="7.375" style="2" customWidth="1"/>
-    <col min="14831" max="14831" width="4.125" style="2" customWidth="1"/>
-    <col min="14832" max="14832" width="2.375" style="2" customWidth="1"/>
+    <col min="14828" max="14828" width="1.6640625" style="2" customWidth="1"/>
+    <col min="14829" max="14829" width="1.77734375" style="2" customWidth="1"/>
+    <col min="14830" max="14830" width="7.33203125" style="2" customWidth="1"/>
+    <col min="14831" max="14831" width="4.109375" style="2" customWidth="1"/>
+    <col min="14832" max="14832" width="2.33203125" style="2" customWidth="1"/>
     <col min="14833" max="14833" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="14834" max="14834" width="2.125" style="2" customWidth="1"/>
-    <col min="14835" max="14835" width="2.625" style="2" customWidth="1"/>
+    <col min="14834" max="14834" width="2.109375" style="2" customWidth="1"/>
+    <col min="14835" max="14835" width="2.6640625" style="2" customWidth="1"/>
     <col min="14836" max="14836" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="14837" max="14837" width="9.25" style="2" customWidth="1"/>
-    <col min="14838" max="14838" width="12.25" style="2" customWidth="1"/>
-    <col min="14839" max="14839" width="9.125" style="2" customWidth="1"/>
-    <col min="14840" max="14840" width="3.125" style="2" customWidth="1"/>
-    <col min="14841" max="14841" width="5.625" style="2" customWidth="1"/>
-    <col min="14842" max="14842" width="6.5" style="2" customWidth="1"/>
+    <col min="14837" max="14837" width="9.21875" style="2" customWidth="1"/>
+    <col min="14838" max="14838" width="12.21875" style="2" customWidth="1"/>
+    <col min="14839" max="14839" width="9.109375" style="2" customWidth="1"/>
+    <col min="14840" max="14840" width="3.109375" style="2" customWidth="1"/>
+    <col min="14841" max="14841" width="5.6640625" style="2" customWidth="1"/>
+    <col min="14842" max="14842" width="6.44140625" style="2" customWidth="1"/>
     <col min="14843" max="14843" width="1" style="2" customWidth="1"/>
     <col min="14844" max="14844" width="3" style="2" customWidth="1"/>
-    <col min="14845" max="14845" width="7.125" style="2" customWidth="1"/>
-    <col min="14846" max="14846" width="2.75" style="2" customWidth="1"/>
-    <col min="14847" max="14847" width="8.625" style="2" customWidth="1"/>
+    <col min="14845" max="14845" width="7.109375" style="2" customWidth="1"/>
+    <col min="14846" max="14846" width="2.77734375" style="2" customWidth="1"/>
+    <col min="14847" max="14847" width="8.6640625" style="2" customWidth="1"/>
     <col min="14848" max="14858" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="14859" max="14883" width="9" style="2" customWidth="1"/>
     <col min="14884" max="15083" width="9" style="2"/>
-    <col min="15084" max="15084" width="1.625" style="2" customWidth="1"/>
-    <col min="15085" max="15085" width="1.75" style="2" customWidth="1"/>
-    <col min="15086" max="15086" width="7.375" style="2" customWidth="1"/>
-    <col min="15087" max="15087" width="4.125" style="2" customWidth="1"/>
-    <col min="15088" max="15088" width="2.375" style="2" customWidth="1"/>
+    <col min="15084" max="15084" width="1.6640625" style="2" customWidth="1"/>
+    <col min="15085" max="15085" width="1.77734375" style="2" customWidth="1"/>
+    <col min="15086" max="15086" width="7.33203125" style="2" customWidth="1"/>
+    <col min="15087" max="15087" width="4.109375" style="2" customWidth="1"/>
+    <col min="15088" max="15088" width="2.33203125" style="2" customWidth="1"/>
     <col min="15089" max="15089" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="15090" max="15090" width="2.125" style="2" customWidth="1"/>
-    <col min="15091" max="15091" width="2.625" style="2" customWidth="1"/>
+    <col min="15090" max="15090" width="2.109375" style="2" customWidth="1"/>
+    <col min="15091" max="15091" width="2.6640625" style="2" customWidth="1"/>
     <col min="15092" max="15092" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="15093" max="15093" width="9.25" style="2" customWidth="1"/>
-    <col min="15094" max="15094" width="12.25" style="2" customWidth="1"/>
-    <col min="15095" max="15095" width="9.125" style="2" customWidth="1"/>
-    <col min="15096" max="15096" width="3.125" style="2" customWidth="1"/>
-    <col min="15097" max="15097" width="5.625" style="2" customWidth="1"/>
-    <col min="15098" max="15098" width="6.5" style="2" customWidth="1"/>
+    <col min="15093" max="15093" width="9.21875" style="2" customWidth="1"/>
+    <col min="15094" max="15094" width="12.21875" style="2" customWidth="1"/>
+    <col min="15095" max="15095" width="9.109375" style="2" customWidth="1"/>
+    <col min="15096" max="15096" width="3.109375" style="2" customWidth="1"/>
+    <col min="15097" max="15097" width="5.6640625" style="2" customWidth="1"/>
+    <col min="15098" max="15098" width="6.44140625" style="2" customWidth="1"/>
     <col min="15099" max="15099" width="1" style="2" customWidth="1"/>
     <col min="15100" max="15100" width="3" style="2" customWidth="1"/>
-    <col min="15101" max="15101" width="7.125" style="2" customWidth="1"/>
-    <col min="15102" max="15102" width="2.75" style="2" customWidth="1"/>
-    <col min="15103" max="15103" width="8.625" style="2" customWidth="1"/>
+    <col min="15101" max="15101" width="7.109375" style="2" customWidth="1"/>
+    <col min="15102" max="15102" width="2.77734375" style="2" customWidth="1"/>
+    <col min="15103" max="15103" width="8.6640625" style="2" customWidth="1"/>
     <col min="15104" max="15114" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="15115" max="15139" width="9" style="2" customWidth="1"/>
     <col min="15140" max="15339" width="9" style="2"/>
-    <col min="15340" max="15340" width="1.625" style="2" customWidth="1"/>
-    <col min="15341" max="15341" width="1.75" style="2" customWidth="1"/>
-    <col min="15342" max="15342" width="7.375" style="2" customWidth="1"/>
-    <col min="15343" max="15343" width="4.125" style="2" customWidth="1"/>
-    <col min="15344" max="15344" width="2.375" style="2" customWidth="1"/>
+    <col min="15340" max="15340" width="1.6640625" style="2" customWidth="1"/>
+    <col min="15341" max="15341" width="1.77734375" style="2" customWidth="1"/>
+    <col min="15342" max="15342" width="7.33203125" style="2" customWidth="1"/>
+    <col min="15343" max="15343" width="4.109375" style="2" customWidth="1"/>
+    <col min="15344" max="15344" width="2.33203125" style="2" customWidth="1"/>
     <col min="15345" max="15345" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="15346" max="15346" width="2.125" style="2" customWidth="1"/>
-    <col min="15347" max="15347" width="2.625" style="2" customWidth="1"/>
+    <col min="15346" max="15346" width="2.109375" style="2" customWidth="1"/>
+    <col min="15347" max="15347" width="2.6640625" style="2" customWidth="1"/>
     <col min="15348" max="15348" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="15349" max="15349" width="9.25" style="2" customWidth="1"/>
-    <col min="15350" max="15350" width="12.25" style="2" customWidth="1"/>
-    <col min="15351" max="15351" width="9.125" style="2" customWidth="1"/>
-    <col min="15352" max="15352" width="3.125" style="2" customWidth="1"/>
-    <col min="15353" max="15353" width="5.625" style="2" customWidth="1"/>
-    <col min="15354" max="15354" width="6.5" style="2" customWidth="1"/>
+    <col min="15349" max="15349" width="9.21875" style="2" customWidth="1"/>
+    <col min="15350" max="15350" width="12.21875" style="2" customWidth="1"/>
+    <col min="15351" max="15351" width="9.109375" style="2" customWidth="1"/>
+    <col min="15352" max="15352" width="3.109375" style="2" customWidth="1"/>
+    <col min="15353" max="15353" width="5.6640625" style="2" customWidth="1"/>
+    <col min="15354" max="15354" width="6.44140625" style="2" customWidth="1"/>
     <col min="15355" max="15355" width="1" style="2" customWidth="1"/>
     <col min="15356" max="15356" width="3" style="2" customWidth="1"/>
-    <col min="15357" max="15357" width="7.125" style="2" customWidth="1"/>
-    <col min="15358" max="15358" width="2.75" style="2" customWidth="1"/>
-    <col min="15359" max="15359" width="8.625" style="2" customWidth="1"/>
+    <col min="15357" max="15357" width="7.109375" style="2" customWidth="1"/>
+    <col min="15358" max="15358" width="2.77734375" style="2" customWidth="1"/>
+    <col min="15359" max="15359" width="8.6640625" style="2" customWidth="1"/>
     <col min="15360" max="15370" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="15371" max="15395" width="9" style="2" customWidth="1"/>
     <col min="15396" max="15595" width="9" style="2"/>
-    <col min="15596" max="15596" width="1.625" style="2" customWidth="1"/>
-    <col min="15597" max="15597" width="1.75" style="2" customWidth="1"/>
-    <col min="15598" max="15598" width="7.375" style="2" customWidth="1"/>
-    <col min="15599" max="15599" width="4.125" style="2" customWidth="1"/>
-    <col min="15600" max="15600" width="2.375" style="2" customWidth="1"/>
+    <col min="15596" max="15596" width="1.6640625" style="2" customWidth="1"/>
+    <col min="15597" max="15597" width="1.77734375" style="2" customWidth="1"/>
+    <col min="15598" max="15598" width="7.33203125" style="2" customWidth="1"/>
+    <col min="15599" max="15599" width="4.109375" style="2" customWidth="1"/>
+    <col min="15600" max="15600" width="2.33203125" style="2" customWidth="1"/>
     <col min="15601" max="15601" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="15602" max="15602" width="2.125" style="2" customWidth="1"/>
-    <col min="15603" max="15603" width="2.625" style="2" customWidth="1"/>
+    <col min="15602" max="15602" width="2.109375" style="2" customWidth="1"/>
+    <col min="15603" max="15603" width="2.6640625" style="2" customWidth="1"/>
     <col min="15604" max="15604" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="15605" max="15605" width="9.25" style="2" customWidth="1"/>
-    <col min="15606" max="15606" width="12.25" style="2" customWidth="1"/>
-    <col min="15607" max="15607" width="9.125" style="2" customWidth="1"/>
-    <col min="15608" max="15608" width="3.125" style="2" customWidth="1"/>
-    <col min="15609" max="15609" width="5.625" style="2" customWidth="1"/>
-    <col min="15610" max="15610" width="6.5" style="2" customWidth="1"/>
+    <col min="15605" max="15605" width="9.21875" style="2" customWidth="1"/>
+    <col min="15606" max="15606" width="12.21875" style="2" customWidth="1"/>
+    <col min="15607" max="15607" width="9.109375" style="2" customWidth="1"/>
+    <col min="15608" max="15608" width="3.109375" style="2" customWidth="1"/>
+    <col min="15609" max="15609" width="5.6640625" style="2" customWidth="1"/>
+    <col min="15610" max="15610" width="6.44140625" style="2" customWidth="1"/>
     <col min="15611" max="15611" width="1" style="2" customWidth="1"/>
     <col min="15612" max="15612" width="3" style="2" customWidth="1"/>
-    <col min="15613" max="15613" width="7.125" style="2" customWidth="1"/>
-    <col min="15614" max="15614" width="2.75" style="2" customWidth="1"/>
-    <col min="15615" max="15615" width="8.625" style="2" customWidth="1"/>
+    <col min="15613" max="15613" width="7.109375" style="2" customWidth="1"/>
+    <col min="15614" max="15614" width="2.77734375" style="2" customWidth="1"/>
+    <col min="15615" max="15615" width="8.6640625" style="2" customWidth="1"/>
     <col min="15616" max="15626" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="15627" max="15651" width="9" style="2" customWidth="1"/>
     <col min="15652" max="15851" width="9" style="2"/>
-    <col min="15852" max="15852" width="1.625" style="2" customWidth="1"/>
-    <col min="15853" max="15853" width="1.75" style="2" customWidth="1"/>
-    <col min="15854" max="15854" width="7.375" style="2" customWidth="1"/>
-    <col min="15855" max="15855" width="4.125" style="2" customWidth="1"/>
-    <col min="15856" max="15856" width="2.375" style="2" customWidth="1"/>
+    <col min="15852" max="15852" width="1.6640625" style="2" customWidth="1"/>
+    <col min="15853" max="15853" width="1.77734375" style="2" customWidth="1"/>
+    <col min="15854" max="15854" width="7.33203125" style="2" customWidth="1"/>
+    <col min="15855" max="15855" width="4.109375" style="2" customWidth="1"/>
+    <col min="15856" max="15856" width="2.33203125" style="2" customWidth="1"/>
     <col min="15857" max="15857" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="15858" max="15858" width="2.125" style="2" customWidth="1"/>
-    <col min="15859" max="15859" width="2.625" style="2" customWidth="1"/>
+    <col min="15858" max="15858" width="2.109375" style="2" customWidth="1"/>
+    <col min="15859" max="15859" width="2.6640625" style="2" customWidth="1"/>
     <col min="15860" max="15860" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="15861" max="15861" width="9.25" style="2" customWidth="1"/>
-    <col min="15862" max="15862" width="12.25" style="2" customWidth="1"/>
-    <col min="15863" max="15863" width="9.125" style="2" customWidth="1"/>
-    <col min="15864" max="15864" width="3.125" style="2" customWidth="1"/>
-    <col min="15865" max="15865" width="5.625" style="2" customWidth="1"/>
-    <col min="15866" max="15866" width="6.5" style="2" customWidth="1"/>
+    <col min="15861" max="15861" width="9.21875" style="2" customWidth="1"/>
+    <col min="15862" max="15862" width="12.21875" style="2" customWidth="1"/>
+    <col min="15863" max="15863" width="9.109375" style="2" customWidth="1"/>
+    <col min="15864" max="15864" width="3.109375" style="2" customWidth="1"/>
+    <col min="15865" max="15865" width="5.6640625" style="2" customWidth="1"/>
+    <col min="15866" max="15866" width="6.44140625" style="2" customWidth="1"/>
     <col min="15867" max="15867" width="1" style="2" customWidth="1"/>
     <col min="15868" max="15868" width="3" style="2" customWidth="1"/>
-    <col min="15869" max="15869" width="7.125" style="2" customWidth="1"/>
-    <col min="15870" max="15870" width="2.75" style="2" customWidth="1"/>
-    <col min="15871" max="15871" width="8.625" style="2" customWidth="1"/>
+    <col min="15869" max="15869" width="7.109375" style="2" customWidth="1"/>
+    <col min="15870" max="15870" width="2.77734375" style="2" customWidth="1"/>
+    <col min="15871" max="15871" width="8.6640625" style="2" customWidth="1"/>
     <col min="15872" max="15882" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="15883" max="15907" width="9" style="2" customWidth="1"/>
     <col min="15908" max="16107" width="9" style="2"/>
-    <col min="16108" max="16108" width="1.625" style="2" customWidth="1"/>
-    <col min="16109" max="16109" width="1.75" style="2" customWidth="1"/>
-    <col min="16110" max="16110" width="7.375" style="2" customWidth="1"/>
-    <col min="16111" max="16111" width="4.125" style="2" customWidth="1"/>
-    <col min="16112" max="16112" width="2.375" style="2" customWidth="1"/>
+    <col min="16108" max="16108" width="1.6640625" style="2" customWidth="1"/>
+    <col min="16109" max="16109" width="1.77734375" style="2" customWidth="1"/>
+    <col min="16110" max="16110" width="7.33203125" style="2" customWidth="1"/>
+    <col min="16111" max="16111" width="4.109375" style="2" customWidth="1"/>
+    <col min="16112" max="16112" width="2.33203125" style="2" customWidth="1"/>
     <col min="16113" max="16113" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="16114" max="16114" width="2.125" style="2" customWidth="1"/>
-    <col min="16115" max="16115" width="2.625" style="2" customWidth="1"/>
+    <col min="16114" max="16114" width="2.109375" style="2" customWidth="1"/>
+    <col min="16115" max="16115" width="2.6640625" style="2" customWidth="1"/>
     <col min="16116" max="16116" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="16117" max="16117" width="9.25" style="2" customWidth="1"/>
-    <col min="16118" max="16118" width="12.25" style="2" customWidth="1"/>
-    <col min="16119" max="16119" width="9.125" style="2" customWidth="1"/>
-    <col min="16120" max="16120" width="3.125" style="2" customWidth="1"/>
-    <col min="16121" max="16121" width="5.625" style="2" customWidth="1"/>
-    <col min="16122" max="16122" width="6.5" style="2" customWidth="1"/>
+    <col min="16117" max="16117" width="9.21875" style="2" customWidth="1"/>
+    <col min="16118" max="16118" width="12.21875" style="2" customWidth="1"/>
+    <col min="16119" max="16119" width="9.109375" style="2" customWidth="1"/>
+    <col min="16120" max="16120" width="3.109375" style="2" customWidth="1"/>
+    <col min="16121" max="16121" width="5.6640625" style="2" customWidth="1"/>
+    <col min="16122" max="16122" width="6.44140625" style="2" customWidth="1"/>
     <col min="16123" max="16123" width="1" style="2" customWidth="1"/>
     <col min="16124" max="16124" width="3" style="2" customWidth="1"/>
-    <col min="16125" max="16125" width="7.125" style="2" customWidth="1"/>
-    <col min="16126" max="16126" width="2.75" style="2" customWidth="1"/>
-    <col min="16127" max="16127" width="8.625" style="2" customWidth="1"/>
+    <col min="16125" max="16125" width="7.109375" style="2" customWidth="1"/>
+    <col min="16126" max="16126" width="2.77734375" style="2" customWidth="1"/>
+    <col min="16127" max="16127" width="8.6640625" style="2" customWidth="1"/>
     <col min="16128" max="16138" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="16139" max="16163" width="9" style="2" customWidth="1"/>
     <col min="16164" max="16384" width="9" style="2"/>
@@ -6635,7 +6621,7 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
     </row>
-    <row r="11" spans="2:23">
+    <row r="11" spans="2:23" ht="25.2">
       <c r="B11" s="8" t="s">
         <v>32</v>
       </c>
@@ -6819,17 +6805,17 @@
         <v>93</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H18" s="35"/>
       <c r="I18" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -6852,13 +6838,13 @@
         <v>3200</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I19" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="J19" s="27" t="s">
         <v>117</v>
-      </c>
-      <c r="J19" s="27" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -6881,13 +6867,13 @@
         <v>1500</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I20" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="J20" s="27" t="s">
         <v>119</v>
-      </c>
-      <c r="J20" s="27" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="2:10">
@@ -6904,19 +6890,19 @@
         <v>0.5</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G21" s="30">
         <v>4500</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I21" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="J21" s="29" t="s">
         <v>121</v>
-      </c>
-      <c r="J21" s="29" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="22" spans="2:10">
@@ -6924,7 +6910,7 @@
         <v>87</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>79</v>
@@ -6933,13 +6919,13 @@
         <v>1.5</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G22" s="30">
         <v>2800</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I22" s="25"/>
     </row>
@@ -6957,7 +6943,7 @@
         <v>60</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I23" s="25"/>
     </row>
@@ -6972,7 +6958,7 @@
         <v>50</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I24" s="25"/>
     </row>
@@ -6987,7 +6973,7 @@
         <v>50</v>
       </c>
       <c r="H25" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I25" s="25"/>
     </row>
@@ -7002,7 +6988,7 @@
         <v>40</v>
       </c>
       <c r="H26" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I26" s="25"/>
     </row>
@@ -7019,27 +7005,27 @@
     </row>
     <row r="31" spans="2:10">
       <c r="F31" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="G31" s="30" t="s">
+      <c r="H31" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="H31" s="23" t="s">
-        <v>126</v>
-      </c>
       <c r="I31" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J31" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="2:10">
       <c r="F32" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="G32" s="27" t="s">
         <v>117</v>
-      </c>
-      <c r="G32" s="27" t="s">
-        <v>118</v>
       </c>
       <c r="H32" s="16" t="s">
         <v>70</v>
@@ -7054,10 +7040,10 @@
     </row>
     <row r="33" spans="6:10">
       <c r="F33" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" s="27" t="s">
         <v>117</v>
-      </c>
-      <c r="G33" s="27" t="s">
-        <v>118</v>
       </c>
       <c r="H33" s="16" t="s">
         <v>71</v>
@@ -7072,13 +7058,13 @@
     </row>
     <row r="34" spans="6:10">
       <c r="F34" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="G34" s="27" t="s">
-        <v>118</v>
-      </c>
       <c r="H34" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I34" s="16" t="str">
         <f t="shared" si="0"/>
@@ -7090,13 +7076,13 @@
     </row>
     <row r="35" spans="6:10">
       <c r="F35" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="G35" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="G35" s="27" t="s">
-        <v>118</v>
-      </c>
       <c r="H35" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I35" s="16" t="str">
         <f t="shared" si="0"/>
@@ -7109,10 +7095,10 @@
     </row>
     <row r="36" spans="6:10">
       <c r="F36" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H36" s="16" t="s">
         <v>70</v>
@@ -7127,10 +7113,10 @@
     </row>
     <row r="37" spans="6:10">
       <c r="F37" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H37" s="16" t="s">
         <v>71</v>
@@ -7145,13 +7131,13 @@
     </row>
     <row r="38" spans="6:10">
       <c r="F38" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I38" s="16" t="str">
         <f t="shared" si="0"/>
@@ -7163,13 +7149,13 @@
     </row>
     <row r="39" spans="6:10">
       <c r="F39" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I39" s="16" t="str">
         <f t="shared" si="0"/>
@@ -7182,10 +7168,10 @@
     </row>
     <row r="40" spans="6:10">
       <c r="F40" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H40" s="16" t="s">
         <v>70</v>
@@ -7200,10 +7186,10 @@
     </row>
     <row r="41" spans="6:10">
       <c r="F41" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H41" s="16" t="s">
         <v>71</v>
@@ -7218,13 +7204,13 @@
     </row>
     <row r="42" spans="6:10">
       <c r="F42" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I42" s="16" t="str">
         <f t="shared" si="0"/>
@@ -7236,13 +7222,13 @@
     </row>
     <row r="43" spans="6:10">
       <c r="F43" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I43" s="16" t="str">
         <f t="shared" si="0"/>
@@ -7255,10 +7241,10 @@
     </row>
     <row r="44" spans="6:10">
       <c r="F44" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G44" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H44" s="23" t="s">
         <v>70</v>
@@ -7273,10 +7259,10 @@
     </row>
     <row r="45" spans="6:10">
       <c r="F45" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G45" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H45" s="23" t="s">
         <v>71</v>
@@ -7291,13 +7277,13 @@
     </row>
     <row r="46" spans="6:10">
       <c r="F46" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G46" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I46" s="23" t="str">
         <f t="shared" si="1"/>
@@ -7309,13 +7295,13 @@
     </row>
     <row r="47" spans="6:10">
       <c r="F47" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G47" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I47" s="23" t="str">
         <f t="shared" si="1"/>
@@ -7328,10 +7314,10 @@
     </row>
     <row r="48" spans="6:10">
       <c r="F48" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="G48" s="31" t="s">
         <v>119</v>
-      </c>
-      <c r="G48" s="31" t="s">
-        <v>120</v>
       </c>
       <c r="H48" s="23" t="s">
         <v>70</v>
@@ -7346,10 +7332,10 @@
     </row>
     <row r="49" spans="6:10">
       <c r="F49" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="G49" s="31" t="s">
         <v>119</v>
-      </c>
-      <c r="G49" s="31" t="s">
-        <v>120</v>
       </c>
       <c r="H49" s="23" t="s">
         <v>71</v>
@@ -7364,13 +7350,13 @@
     </row>
     <row r="50" spans="6:10">
       <c r="F50" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="G50" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="G50" s="31" t="s">
-        <v>120</v>
-      </c>
       <c r="H50" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I50" s="23" t="str">
         <f t="shared" si="1"/>
@@ -7382,13 +7368,13 @@
     </row>
     <row r="51" spans="6:10">
       <c r="F51" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="G51" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="G51" s="31" t="s">
-        <v>120</v>
-      </c>
       <c r="H51" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I51" s="23" t="str">
         <f t="shared" si="1"/>
@@ -7401,10 +7387,10 @@
     </row>
     <row r="52" spans="6:10">
       <c r="F52" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G52" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H52" s="23" t="s">
         <v>70</v>
@@ -7419,10 +7405,10 @@
     </row>
     <row r="53" spans="6:10">
       <c r="F53" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G53" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H53" s="23" t="s">
         <v>71</v>
@@ -7437,13 +7423,13 @@
     </row>
     <row r="54" spans="6:10">
       <c r="F54" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G54" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I54" s="23" t="str">
         <f t="shared" si="1"/>
@@ -7455,13 +7441,13 @@
     </row>
     <row r="55" spans="6:10">
       <c r="F55" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G55" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H55" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I55" s="23" t="str">
         <f t="shared" si="1"/>
@@ -7474,10 +7460,10 @@
     </row>
     <row r="56" spans="6:10">
       <c r="F56" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G56" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H56" s="16" t="s">
         <v>70</v>
@@ -7492,10 +7478,10 @@
     </row>
     <row r="57" spans="6:10">
       <c r="F57" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G57" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H57" s="16" t="s">
         <v>71</v>
@@ -7510,13 +7496,13 @@
     </row>
     <row r="58" spans="6:10">
       <c r="F58" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G58" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I58" s="16" t="str">
         <f t="shared" si="2"/>
@@ -7528,13 +7514,13 @@
     </row>
     <row r="59" spans="6:10">
       <c r="F59" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G59" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I59" s="16" t="str">
         <f t="shared" si="2"/>
@@ -7547,10 +7533,10 @@
     </row>
     <row r="60" spans="6:10">
       <c r="F60" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G60" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H60" s="16" t="s">
         <v>70</v>
@@ -7565,10 +7551,10 @@
     </row>
     <row r="61" spans="6:10">
       <c r="F61" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G61" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H61" s="16" t="s">
         <v>71</v>
@@ -7583,13 +7569,13 @@
     </row>
     <row r="62" spans="6:10">
       <c r="F62" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G62" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I62" s="16" t="str">
         <f t="shared" si="2"/>
@@ -7601,13 +7587,13 @@
     </row>
     <row r="63" spans="6:10">
       <c r="F63" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G63" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I63" s="16" t="str">
         <f t="shared" si="2"/>
@@ -7620,10 +7606,10 @@
     </row>
     <row r="64" spans="6:10">
       <c r="F64" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="G64" s="29" t="s">
         <v>121</v>
-      </c>
-      <c r="G64" s="29" t="s">
-        <v>122</v>
       </c>
       <c r="H64" s="16" t="s">
         <v>70</v>
@@ -7638,10 +7624,10 @@
     </row>
     <row r="65" spans="6:10">
       <c r="F65" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="G65" s="29" t="s">
         <v>121</v>
-      </c>
-      <c r="G65" s="29" t="s">
-        <v>122</v>
       </c>
       <c r="H65" s="16" t="s">
         <v>71</v>
@@ -7656,13 +7642,13 @@
     </row>
     <row r="66" spans="6:10">
       <c r="F66" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="G66" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="G66" s="29" t="s">
-        <v>122</v>
-      </c>
       <c r="H66" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I66" s="16" t="str">
         <f t="shared" si="2"/>
@@ -7674,13 +7660,13 @@
     </row>
     <row r="67" spans="6:10">
       <c r="F67" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="G67" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="G67" s="29" t="s">
-        <v>122</v>
-      </c>
       <c r="H67" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I67" s="16" t="str">
         <f t="shared" si="2"/>
@@ -7696,27 +7682,27 @@
         <v>92</v>
       </c>
       <c r="G70" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H70" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="H70" s="30" t="s">
-        <v>125</v>
-      </c>
       <c r="I70" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J70" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="6:10">
       <c r="F71" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G71" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="H71" s="27" t="s">
         <v>117</v>
-      </c>
-      <c r="H71" s="27" t="s">
-        <v>118</v>
       </c>
       <c r="I71" s="38" t="str">
         <f>F71&amp;G71&amp;H71</f>
@@ -7728,13 +7714,13 @@
     </row>
     <row r="72" spans="6:10">
       <c r="F72" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G72" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H72" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I72" s="38" t="str">
         <f t="shared" ref="I72:I79" si="3">F72&amp;G72&amp;H72</f>
@@ -7746,13 +7732,13 @@
     </row>
     <row r="73" spans="6:10">
       <c r="F73" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G73" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H73" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I73" s="38" t="str">
         <f t="shared" si="3"/>
@@ -7764,13 +7750,13 @@
     </row>
     <row r="74" spans="6:10">
       <c r="F74" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H74" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I74" s="38" t="str">
         <f t="shared" si="3"/>
@@ -7782,13 +7768,13 @@
     </row>
     <row r="75" spans="6:10">
       <c r="F75" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G75" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H75" s="27" t="s">
         <v>119</v>
-      </c>
-      <c r="H75" s="27" t="s">
-        <v>120</v>
       </c>
       <c r="I75" s="38" t="str">
         <f t="shared" si="3"/>
@@ -7800,13 +7786,13 @@
     </row>
     <row r="76" spans="6:10">
       <c r="F76" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H76" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I76" s="38" t="str">
         <f t="shared" si="3"/>
@@ -7818,13 +7804,13 @@
     </row>
     <row r="77" spans="6:10">
       <c r="F77" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G77" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H77" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I77" s="38" t="str">
         <f t="shared" si="3"/>
@@ -7836,13 +7822,13 @@
     </row>
     <row r="78" spans="6:10">
       <c r="F78" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G78" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H78" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I78" s="38" t="str">
         <f t="shared" si="3"/>
@@ -7854,13 +7840,13 @@
     </row>
     <row r="79" spans="6:10">
       <c r="F79" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G79" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="H79" s="29" t="s">
         <v>121</v>
-      </c>
-      <c r="H79" s="29" t="s">
-        <v>122</v>
       </c>
       <c r="I79" s="38" t="str">
         <f t="shared" si="3"/>

--- a/controller/src/main/resources/jxls_templates/jingwaijingsuanshu.xlsx
+++ b/controller/src/main/resources/jxls_templates/jingwaijingsuanshu.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_Code\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-420" yWindow="120" windowWidth="14520" windowHeight="10872" tabRatio="901"/>
+    <workbookView xWindow="-420" yWindow="120" windowWidth="14520" windowHeight="10875" tabRatio="901"/>
   </bookViews>
   <sheets>
     <sheet name="出差精算合計" sheetId="20" r:id="rId1"/>
@@ -843,10 +843,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>${c.currencyexchangerate}</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>${c.amount}</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -949,6 +945,14 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>出差者姓名：</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>${sumrmb}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>${rmbflg}</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -957,15 +961,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>${sumrmb}</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>${eve.balance}</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>出差者姓名：</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>${c.currencyexchangerate}</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -973,15 +973,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+  <numFmts count="8">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="178" formatCode="#,##0.000000_ "/>
     <numFmt numFmtId="179" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="181" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="182" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -1020,7 +1022,6 @@
     <font>
       <sz val="11"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="6"/>
@@ -1037,7 +1038,6 @@
     <font>
       <sz val="10"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1049,7 +1049,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1068,7 +1067,6 @@
       <b/>
       <sz val="12"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1080,12 +1078,10 @@
     <font>
       <sz val="14"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1096,13 +1092,11 @@
     <font>
       <sz val="10"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1133,7 +1127,6 @@
     <font>
       <sz val="12"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1147,6 +1140,17 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1835,19 +1839,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1864,6 +1855,17 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1878,7 +1880,7 @@
     <xf numFmtId="6" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2036,7 +2038,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2089,236 +2090,45 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -2351,85 +2161,285 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="12" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="12" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="12" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="12" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="12" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="28" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 2 2" xfId="2"/>
     <cellStyle name="標準 2 3" xfId="6"/>
     <cellStyle name="標準 3" xfId="4"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="通貨 2" xfId="3"/>
     <cellStyle name="通貨 2 2" xfId="5"/>
   </cellStyles>
@@ -2833,173 +2843,173 @@
   </sheetPr>
   <dimension ref="A1:AE97"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20:S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="19" width="5.77734375" style="55" customWidth="1"/>
-    <col min="20" max="20" width="2.77734375" style="55" customWidth="1"/>
+    <col min="1" max="19" width="5.75" style="55" customWidth="1"/>
+    <col min="20" max="20" width="2.75" style="55" customWidth="1"/>
     <col min="21" max="32" width="9" style="55" customWidth="1"/>
     <col min="33" max="16384" width="9" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="19.95" customHeight="1"/>
-    <row r="2" spans="1:19" ht="19.95" customHeight="1">
-      <c r="B2" s="85" t="s">
+    <row r="1" spans="1:19" ht="19.899999999999999" customHeight="1"/>
+    <row r="2" spans="1:19" ht="19.899999999999999" customHeight="1">
+      <c r="B2" s="143" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-    </row>
-    <row r="3" spans="1:19" ht="19.95" customHeight="1">
-      <c r="B3" s="181" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="181"/>
-      <c r="D3" s="87" t="s">
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="143"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="143"/>
+    </row>
+    <row r="3" spans="1:19" ht="19.899999999999999" customHeight="1">
+      <c r="B3" s="74" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="56" t="s">
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="144" t="s">
         <v>127</v>
       </c>
-      <c r="I3" s="88" t="s">
+      <c r="H3" s="144"/>
+      <c r="I3" s="144" t="s">
         <v>136</v>
       </c>
-      <c r="J3" s="88"/>
-      <c r="L3" s="86" t="s">
+      <c r="J3" s="144"/>
+      <c r="L3" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="M3" s="86"/>
-      <c r="N3" s="89" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-    </row>
-    <row r="4" spans="1:19" ht="19.95" customHeight="1">
-      <c r="B4" s="181" t="s">
+      <c r="O3" s="176"/>
+      <c r="P3" s="176"/>
+      <c r="Q3" s="176"/>
+      <c r="R3" s="176"/>
+      <c r="S3" s="176"/>
+    </row>
+    <row r="4" spans="1:19" ht="19.899999999999999" customHeight="1">
+      <c r="B4" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="181"/>
-      <c r="D4" s="87" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="L4" s="86" t="s">
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="L4" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="M4" s="86"/>
-      <c r="N4" s="90" t="s">
+      <c r="M4" s="87"/>
+      <c r="N4" s="168" t="s">
         <v>142</v>
       </c>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="57" t="s">
+      <c r="O4" s="168"/>
+      <c r="P4" s="168"/>
+      <c r="Q4" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="R4" s="91" t="s">
+      <c r="R4" s="169" t="s">
         <v>143</v>
       </c>
-      <c r="S4" s="91"/>
-    </row>
-    <row r="5" spans="1:19" ht="19.95" customHeight="1">
-      <c r="B5" s="181" t="s">
+      <c r="S4" s="169"/>
+    </row>
+    <row r="5" spans="1:19" ht="19.899999999999999" customHeight="1">
+      <c r="B5" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="181"/>
-      <c r="D5" s="161" t="s">
+      <c r="C5" s="74"/>
+      <c r="D5" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="L5" s="86" t="s">
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="L5" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="160" t="e">
+      <c r="M5" s="87"/>
+      <c r="N5" s="79" t="e">
         <f>RIGHT(R4,10)-LEFT(N4,10)+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O5" s="160"/>
-      <c r="P5" s="160"/>
-      <c r="Q5" s="93" t="s">
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="93"/>
-      <c r="S5" s="65"/>
-    </row>
-    <row r="6" spans="1:19" ht="19.95" customHeight="1">
-      <c r="B6" s="181" t="s">
+      <c r="R5" s="146"/>
+      <c r="S5" s="64"/>
+    </row>
+    <row r="6" spans="1:19" ht="19.899999999999999" customHeight="1">
+      <c r="B6" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="181"/>
-      <c r="D6" s="149" t="s">
+      <c r="C6" s="74"/>
+      <c r="D6" s="85" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="150"/>
-      <c r="L6" s="86" t="s">
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="L6" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="M6" s="86"/>
-      <c r="N6" s="151" t="s">
+      <c r="M6" s="87"/>
+      <c r="N6" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="O6" s="151"/>
-      <c r="P6" s="151"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-    </row>
-    <row r="7" spans="1:19" ht="19.95" customHeight="1">
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+    </row>
+    <row r="7" spans="1:19" ht="19.899999999999999" customHeight="1">
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
       <c r="E7" s="33"/>
       <c r="F7" s="33"/>
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
       <c r="N7" s="33"/>
       <c r="O7" s="33"/>
       <c r="P7" s="33"/>
@@ -3007,745 +3017,745 @@
       <c r="R7" s="33"/>
       <c r="S7" s="33"/>
     </row>
-    <row r="8" spans="1:19" ht="19.95" customHeight="1">
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
+    <row r="8" spans="1:19" ht="19.899999999999999" customHeight="1">
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="152" t="s">
+      <c r="K8" s="58"/>
+      <c r="L8" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="M8" s="153"/>
-      <c r="N8" s="154"/>
-      <c r="O8" s="155" t="s">
+      <c r="M8" s="90"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="P8" s="153"/>
-      <c r="Q8" s="153"/>
-      <c r="R8" s="153"/>
-      <c r="S8" s="156"/>
-    </row>
-    <row r="9" spans="1:19" ht="19.95" customHeight="1">
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="93"/>
+    </row>
+    <row r="9" spans="1:19" ht="19.899999999999999" customHeight="1">
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="94" t="s">
+      <c r="K9" s="58"/>
+      <c r="L9" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="95"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="162"/>
-      <c r="P9" s="95"/>
-      <c r="Q9" s="95"/>
-      <c r="R9" s="95"/>
-      <c r="S9" s="163"/>
-    </row>
-    <row r="10" spans="1:19" ht="19.95" customHeight="1">
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="132"/>
-      <c r="H10" s="132"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="132"/>
-      <c r="K10" s="132"/>
-      <c r="L10" s="132"/>
-      <c r="M10" s="132"/>
-      <c r="N10" s="132"/>
-      <c r="O10" s="132"/>
-      <c r="P10" s="132"/>
-      <c r="Q10" s="132"/>
-      <c r="R10" s="132"/>
-      <c r="S10" s="132"/>
-    </row>
-    <row r="11" spans="1:19" ht="19.95" customHeight="1">
-      <c r="B11" s="146" t="s">
+      <c r="M9" s="77"/>
+      <c r="N9" s="148"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="78"/>
+    </row>
+    <row r="10" spans="1:19" ht="19.899999999999999" customHeight="1">
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+    </row>
+    <row r="11" spans="1:19" ht="19.899999999999999" customHeight="1">
+      <c r="B11" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="157" t="s">
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="94" t="s">
         <v>146</v>
       </c>
-      <c r="J11" s="158"/>
-      <c r="K11" s="159"/>
-      <c r="L11" s="148"/>
-      <c r="M11" s="148"/>
-      <c r="N11" s="148"/>
-      <c r="O11" s="148"/>
-      <c r="P11" s="148"/>
-      <c r="Q11" s="148"/>
-      <c r="R11" s="148"/>
-      <c r="S11" s="148"/>
-    </row>
-    <row r="12" spans="1:19" ht="19.95" customHeight="1">
-      <c r="B12" s="77" t="s">
+      <c r="J11" s="95"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="84"/>
+    </row>
+    <row r="12" spans="1:19" ht="19.899999999999999" customHeight="1">
+      <c r="B12" s="145" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="82" t="s">
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="140" t="s">
+        <v>170</v>
+      </c>
+      <c r="J12" s="141"/>
+      <c r="K12" s="142"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+    </row>
+    <row r="13" spans="1:19" ht="19.899999999999999" customHeight="1">
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="136"/>
+      <c r="Q13" s="136"/>
+      <c r="R13" s="136"/>
+      <c r="S13" s="136"/>
+    </row>
+    <row r="14" spans="1:19" ht="19.899999999999999" customHeight="1">
+      <c r="B14" s="129" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="177" t="s">
+        <v>148</v>
+      </c>
+      <c r="J14" s="178"/>
+      <c r="K14" s="137" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" s="100"/>
+      <c r="M14" s="137" t="s">
+        <v>150</v>
+      </c>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="138"/>
+      <c r="Q14" s="137" t="s">
+        <v>151</v>
+      </c>
+      <c r="R14" s="100"/>
+      <c r="S14" s="139"/>
+    </row>
+    <row r="15" spans="1:19" ht="19.899999999999999" customHeight="1">
+      <c r="B15" s="129" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="181" t="s">
+        <v>182</v>
+      </c>
+      <c r="J15" s="130"/>
+      <c r="K15" s="131" t="s">
+        <v>153</v>
+      </c>
+      <c r="L15" s="132"/>
+      <c r="M15" s="133" t="s">
+        <v>154</v>
+      </c>
+      <c r="N15" s="134"/>
+      <c r="O15" s="134"/>
+      <c r="P15" s="135"/>
+      <c r="Q15" s="111" t="s">
+        <v>155</v>
+      </c>
+      <c r="R15" s="111"/>
+      <c r="S15" s="112"/>
+    </row>
+    <row r="16" spans="1:19" ht="19.899999999999999" customHeight="1">
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="65"/>
+    </row>
+    <row r="17" spans="2:31" ht="19.899999999999999" customHeight="1">
+      <c r="B17" s="128" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97" t="s">
+        <v>159</v>
+      </c>
+      <c r="J17" s="97"/>
+      <c r="K17" s="179" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" s="103" t="s">
+        <v>158</v>
+      </c>
+      <c r="M17" s="124"/>
+      <c r="N17" s="115" t="s">
+        <v>161</v>
+      </c>
+      <c r="O17" s="116"/>
+      <c r="P17" s="115" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q17" s="116"/>
+      <c r="R17" s="103" t="s">
+        <v>156</v>
+      </c>
+      <c r="S17" s="104"/>
+    </row>
+    <row r="18" spans="2:31" ht="19.899999999999999" customHeight="1">
+      <c r="B18" s="129"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="180"/>
+      <c r="L18" s="113"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="117"/>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="113"/>
+      <c r="S18" s="114"/>
+    </row>
+    <row r="19" spans="2:31" ht="19.899999999999999" customHeight="1">
+      <c r="B19" s="108" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="109"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="110" t="s">
         <v>171</v>
       </c>
-      <c r="J12" s="83"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-    </row>
-    <row r="13" spans="1:19" ht="19.95" customHeight="1">
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="97"/>
-    </row>
-    <row r="14" spans="1:19" ht="19.95" customHeight="1">
-      <c r="B14" s="98" t="s">
-        <v>147</v>
-      </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="100" t="s">
-        <v>148</v>
-      </c>
-      <c r="J14" s="92"/>
-      <c r="K14" s="100" t="s">
-        <v>149</v>
-      </c>
-      <c r="L14" s="79"/>
-      <c r="M14" s="100" t="s">
-        <v>150</v>
-      </c>
-      <c r="N14" s="79"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="92"/>
-      <c r="Q14" s="100" t="s">
-        <v>151</v>
-      </c>
-      <c r="R14" s="79"/>
-      <c r="S14" s="78"/>
-    </row>
-    <row r="15" spans="1:19" ht="19.95" customHeight="1">
-      <c r="B15" s="98" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="102" t="s">
-        <v>153</v>
-      </c>
-      <c r="J15" s="103"/>
-      <c r="K15" s="104" t="s">
-        <v>154</v>
-      </c>
-      <c r="L15" s="105"/>
-      <c r="M15" s="106" t="s">
-        <v>155</v>
-      </c>
-      <c r="N15" s="107"/>
-      <c r="O15" s="107"/>
-      <c r="P15" s="108"/>
-      <c r="Q15" s="109" t="s">
-        <v>156</v>
-      </c>
-      <c r="R15" s="109"/>
-      <c r="S15" s="110"/>
-    </row>
-    <row r="16" spans="1:19" ht="19.95" customHeight="1">
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
-    </row>
-    <row r="17" spans="2:31" ht="19.95" customHeight="1">
-      <c r="B17" s="130" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="131" t="s">
-        <v>160</v>
-      </c>
-      <c r="J17" s="131"/>
-      <c r="K17" s="101" t="s">
-        <v>161</v>
-      </c>
-      <c r="L17" s="101" t="s">
-        <v>159</v>
-      </c>
-      <c r="M17" s="81"/>
-      <c r="N17" s="114" t="s">
-        <v>162</v>
-      </c>
-      <c r="O17" s="115"/>
-      <c r="P17" s="114" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q17" s="115"/>
-      <c r="R17" s="101" t="s">
-        <v>157</v>
-      </c>
-      <c r="S17" s="111"/>
-    </row>
-    <row r="18" spans="2:31" ht="19.95" customHeight="1">
-      <c r="B18" s="98"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="112"/>
-      <c r="L18" s="112"/>
-      <c r="M18" s="126"/>
-      <c r="N18" s="116"/>
-      <c r="O18" s="117"/>
-      <c r="P18" s="116"/>
-      <c r="Q18" s="117"/>
-      <c r="R18" s="112"/>
-      <c r="S18" s="113"/>
-    </row>
-    <row r="19" spans="2:31" ht="19.95" customHeight="1">
-      <c r="B19" s="143" t="s">
+      <c r="J19" s="110"/>
+      <c r="K19" s="68" t="s">
+        <v>172</v>
+      </c>
+      <c r="L19" s="103" t="s">
+        <v>164</v>
+      </c>
+      <c r="M19" s="124"/>
+      <c r="N19" s="126" t="s">
+        <v>175</v>
+      </c>
+      <c r="O19" s="127"/>
+      <c r="P19" s="126" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q19" s="127"/>
+      <c r="R19" s="182" t="s">
+        <v>173</v>
+      </c>
+      <c r="S19" s="183"/>
+    </row>
+    <row r="20" spans="2:31" ht="19.899999999999999" customHeight="1">
+      <c r="B20" s="119" t="s">
         <v>163</v>
       </c>
-      <c r="C19" s="144"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="144"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="145" t="s">
-        <v>172</v>
-      </c>
-      <c r="J19" s="145"/>
-      <c r="K19" s="69" t="s">
-        <v>173</v>
-      </c>
-      <c r="L19" s="101" t="s">
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="121" t="s">
         <v>165</v>
       </c>
-      <c r="M19" s="81"/>
-      <c r="N19" s="127" t="s">
+      <c r="J20" s="121"/>
+      <c r="K20" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="L20" s="122" t="s">
+        <v>167</v>
+      </c>
+      <c r="M20" s="123"/>
+      <c r="N20" s="126" t="s">
         <v>176</v>
       </c>
-      <c r="O19" s="128"/>
-      <c r="P19" s="127" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q19" s="128"/>
-      <c r="R19" s="127" t="s">
-        <v>174</v>
-      </c>
-      <c r="S19" s="129"/>
-    </row>
-    <row r="20" spans="2:31" ht="19.95" customHeight="1">
-      <c r="B20" s="118" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="120" t="s">
-        <v>166</v>
-      </c>
-      <c r="J20" s="120"/>
-      <c r="K20" s="70" t="s">
-        <v>167</v>
-      </c>
-      <c r="L20" s="121" t="s">
+      <c r="O20" s="127"/>
+      <c r="P20" s="126" t="s">
         <v>168</v>
       </c>
-      <c r="M20" s="122"/>
-      <c r="N20" s="123" t="s">
-        <v>177</v>
-      </c>
-      <c r="O20" s="124"/>
-      <c r="P20" s="123" t="s">
+      <c r="Q20" s="127"/>
+      <c r="R20" s="182" t="s">
         <v>169</v>
       </c>
-      <c r="Q20" s="124"/>
-      <c r="R20" s="123" t="s">
-        <v>170</v>
-      </c>
-      <c r="S20" s="125"/>
-    </row>
-    <row r="21" spans="2:31" ht="19.95" customHeight="1">
-      <c r="B21" s="137" t="s">
+      <c r="S20" s="183"/>
+    </row>
+    <row r="21" spans="2:31" ht="19.899999999999999" customHeight="1">
+      <c r="B21" s="106" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="138"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="136"/>
-      <c r="J21" s="136"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="134"/>
-      <c r="M21" s="135"/>
-      <c r="N21" s="139" t="s">
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="102"/>
+      <c r="N21" s="126" t="s">
+        <v>180</v>
+      </c>
+      <c r="O21" s="127"/>
+      <c r="P21" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="O21" s="140"/>
-      <c r="P21" s="139" t="s">
+      <c r="Q21" s="127"/>
+      <c r="R21" s="126" t="s">
         <v>178</v>
       </c>
-      <c r="Q21" s="141"/>
-      <c r="R21" s="139" t="s">
-        <v>180</v>
-      </c>
-      <c r="S21" s="142"/>
-    </row>
-    <row r="22" spans="2:31" ht="19.95" customHeight="1">
-      <c r="B22" s="75" t="s">
+      <c r="S21" s="127"/>
+    </row>
+    <row r="22" spans="2:31" ht="19.899999999999999" customHeight="1">
+      <c r="B22" s="149" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="76" t="s">
+      <c r="C22" s="149"/>
+      <c r="D22" s="149"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="149"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="149"/>
+      <c r="I22" s="170" t="s">
         <v>181</v>
       </c>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="76"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="76"/>
-      <c r="R22" s="76"/>
-      <c r="S22" s="76"/>
-    </row>
-    <row r="23" spans="2:31" ht="19.95" customHeight="1">
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="76"/>
-      <c r="S23" s="76"/>
-    </row>
-    <row r="24" spans="2:31" ht="19.95" customHeight="1">
-      <c r="B24" s="133"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="133"/>
-      <c r="I24" s="133"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62" t="s">
+      <c r="J22" s="171"/>
+      <c r="K22" s="171"/>
+      <c r="L22" s="171"/>
+      <c r="M22" s="171"/>
+      <c r="N22" s="171"/>
+      <c r="O22" s="171"/>
+      <c r="P22" s="171"/>
+      <c r="Q22" s="171"/>
+      <c r="R22" s="171"/>
+      <c r="S22" s="172"/>
+    </row>
+    <row r="23" spans="2:31" ht="19.899999999999999" customHeight="1">
+      <c r="B23" s="149"/>
+      <c r="C23" s="149"/>
+      <c r="D23" s="149"/>
+      <c r="E23" s="149"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="149"/>
+      <c r="I23" s="173"/>
+      <c r="J23" s="174"/>
+      <c r="K23" s="174"/>
+      <c r="L23" s="174"/>
+      <c r="M23" s="174"/>
+      <c r="N23" s="174"/>
+      <c r="O23" s="174"/>
+      <c r="P23" s="174"/>
+      <c r="Q23" s="174"/>
+      <c r="R23" s="174"/>
+      <c r="S23" s="175"/>
+    </row>
+    <row r="24" spans="2:31" ht="19.899999999999999" customHeight="1">
+      <c r="B24" s="99"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="62"/>
-      <c r="R24" s="62"/>
-      <c r="S24" s="62"/>
-    </row>
-    <row r="25" spans="2:31" ht="19.95" customHeight="1">
-      <c r="B25" s="77" t="s">
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="61"/>
+    </row>
+    <row r="25" spans="2:31" ht="19.899999999999999" customHeight="1">
+      <c r="B25" s="145" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="78"/>
-      <c r="D25" s="77" t="s">
+      <c r="C25" s="139"/>
+      <c r="D25" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="79"/>
-      <c r="F25" s="75" t="s">
+      <c r="E25" s="100"/>
+      <c r="F25" s="149" t="s">
         <v>107</v>
       </c>
-      <c r="G25" s="75"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="132"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="80" t="s">
+      <c r="G25" s="149"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="150" t="s">
         <v>108</v>
       </c>
-      <c r="Q25" s="81"/>
-      <c r="R25" s="101" t="s">
+      <c r="Q25" s="124"/>
+      <c r="R25" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="S25" s="111"/>
-    </row>
-    <row r="26" spans="2:31" ht="19.95" customHeight="1">
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="132"/>
-      <c r="N26" s="132"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="75"/>
-      <c r="S26" s="75"/>
-    </row>
-    <row r="27" spans="2:31" ht="19.95" customHeight="1">
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="75"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="59"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="59"/>
-      <c r="Z27" s="59"/>
-      <c r="AA27" s="59"/>
-      <c r="AB27" s="59"/>
-      <c r="AC27" s="59"/>
-      <c r="AD27" s="59"/>
-      <c r="AE27" s="59"/>
-    </row>
-    <row r="28" spans="2:31" ht="19.95" customHeight="1">
-      <c r="B28" s="75"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="P28" s="75"/>
-      <c r="Q28" s="75"/>
-      <c r="R28" s="75"/>
-      <c r="S28" s="75"/>
-      <c r="T28" s="59"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="59"/>
-      <c r="Z28" s="59"/>
-      <c r="AA28" s="59"/>
-      <c r="AB28" s="59"/>
-      <c r="AC28" s="59"/>
-      <c r="AD28" s="59"/>
-      <c r="AE28" s="59"/>
-    </row>
-    <row r="29" spans="2:31" ht="19.95" customHeight="1">
-      <c r="B29" s="74" t="s">
+      <c r="S25" s="104"/>
+    </row>
+    <row r="26" spans="2:31" ht="19.899999999999999" customHeight="1">
+      <c r="B26" s="149"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="149"/>
+      <c r="Q26" s="149"/>
+      <c r="R26" s="149"/>
+      <c r="S26" s="149"/>
+    </row>
+    <row r="27" spans="2:31" ht="19.899999999999999" customHeight="1">
+      <c r="B27" s="149"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="149"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="P27" s="149"/>
+      <c r="Q27" s="149"/>
+      <c r="R27" s="149"/>
+      <c r="S27" s="149"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="58"/>
+      <c r="Y27" s="58"/>
+      <c r="Z27" s="58"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="58"/>
+      <c r="AC27" s="58"/>
+      <c r="AD27" s="58"/>
+      <c r="AE27" s="58"/>
+    </row>
+    <row r="28" spans="2:31" ht="19.899999999999999" customHeight="1">
+      <c r="B28" s="149"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="P28" s="149"/>
+      <c r="Q28" s="149"/>
+      <c r="R28" s="149"/>
+      <c r="S28" s="149"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="58"/>
+      <c r="Y28" s="58"/>
+      <c r="Z28" s="58"/>
+      <c r="AA28" s="58"/>
+      <c r="AB28" s="58"/>
+      <c r="AC28" s="58"/>
+      <c r="AD28" s="58"/>
+      <c r="AE28" s="58"/>
+    </row>
+    <row r="29" spans="2:31" ht="19.899999999999999" customHeight="1">
+      <c r="B29" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="74"/>
-      <c r="O29" s="74"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="74"/>
-      <c r="R29" s="74"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="59"/>
-      <c r="Z29" s="59"/>
-      <c r="AA29" s="59"/>
-      <c r="AB29" s="59"/>
-      <c r="AC29" s="59"/>
-      <c r="AD29" s="59"/>
-      <c r="AE29" s="59"/>
-    </row>
-    <row r="30" spans="2:31" ht="19.95" customHeight="1">
-      <c r="B30" s="74" t="s">
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="73"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="58"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="58"/>
+      <c r="Y29" s="58"/>
+      <c r="Z29" s="58"/>
+      <c r="AA29" s="58"/>
+      <c r="AB29" s="58"/>
+      <c r="AC29" s="58"/>
+      <c r="AD29" s="58"/>
+      <c r="AE29" s="58"/>
+    </row>
+    <row r="30" spans="2:31" ht="19.899999999999999" customHeight="1">
+      <c r="B30" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="74"/>
-      <c r="O30" s="74"/>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="74"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="59"/>
-      <c r="X30" s="59"/>
-      <c r="Y30" s="59"/>
-      <c r="Z30" s="59"/>
-      <c r="AA30" s="59"/>
-      <c r="AB30" s="59"/>
-      <c r="AC30" s="59"/>
-      <c r="AD30" s="59"/>
-      <c r="AE30" s="59"/>
-    </row>
-    <row r="31" spans="2:31" ht="19.95" customHeight="1">
-      <c r="B31" s="74" t="s">
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="T30" s="58"/>
+      <c r="U30" s="58"/>
+      <c r="V30" s="58"/>
+      <c r="W30" s="58"/>
+      <c r="X30" s="58"/>
+      <c r="Y30" s="58"/>
+      <c r="Z30" s="58"/>
+      <c r="AA30" s="58"/>
+      <c r="AB30" s="58"/>
+      <c r="AC30" s="58"/>
+      <c r="AD30" s="58"/>
+      <c r="AE30" s="58"/>
+    </row>
+    <row r="31" spans="2:31" ht="19.899999999999999" customHeight="1">
+      <c r="B31" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="74"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="59"/>
-      <c r="AA31" s="59"/>
-      <c r="AB31" s="59"/>
-      <c r="AC31" s="59"/>
-      <c r="AD31" s="59"/>
-      <c r="AE31" s="59"/>
-    </row>
-    <row r="32" spans="2:31" ht="19.95" customHeight="1">
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="73"/>
+      <c r="T31" s="58"/>
+      <c r="U31" s="58"/>
+      <c r="V31" s="58"/>
+      <c r="W31" s="58"/>
+      <c r="X31" s="58"/>
+      <c r="Y31" s="58"/>
+      <c r="Z31" s="58"/>
+      <c r="AA31" s="58"/>
+      <c r="AB31" s="58"/>
+      <c r="AC31" s="58"/>
+      <c r="AD31" s="58"/>
+      <c r="AE31" s="58"/>
+    </row>
+    <row r="32" spans="2:31" ht="19.899999999999999" customHeight="1">
       <c r="B32" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="74"/>
-      <c r="P32" s="74"/>
-      <c r="Q32" s="74"/>
-      <c r="R32" s="74"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="73"/>
       <c r="T32" s="34"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="59"/>
-      <c r="Z32" s="59"/>
-      <c r="AA32" s="59"/>
-      <c r="AB32" s="59"/>
-      <c r="AC32" s="59"/>
-      <c r="AD32" s="59"/>
-      <c r="AE32" s="59"/>
-    </row>
-    <row r="33" spans="12:31" ht="15.9" customHeight="1">
-      <c r="L33" s="64"/>
-      <c r="M33" s="64"/>
-      <c r="N33" s="64"/>
-      <c r="O33" s="64"/>
-      <c r="P33" s="64"/>
-      <c r="Q33" s="64"/>
-      <c r="R33" s="64"/>
-      <c r="S33" s="64"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="58"/>
+      <c r="W32" s="58"/>
+      <c r="X32" s="58"/>
+      <c r="Y32" s="58"/>
+      <c r="Z32" s="58"/>
+      <c r="AA32" s="58"/>
+      <c r="AB32" s="58"/>
+      <c r="AC32" s="58"/>
+      <c r="AD32" s="58"/>
+      <c r="AE32" s="58"/>
+    </row>
+    <row r="33" spans="12:31" ht="15.95" customHeight="1">
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="63"/>
+      <c r="R33" s="63"/>
+      <c r="S33" s="63"/>
       <c r="T33" s="34"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="59"/>
-      <c r="Y33" s="59"/>
-      <c r="Z33" s="59"/>
-      <c r="AA33" s="59"/>
-      <c r="AB33" s="59"/>
-      <c r="AC33" s="59"/>
-      <c r="AD33" s="59"/>
-      <c r="AE33" s="59"/>
-    </row>
-    <row r="34" spans="12:31" ht="15.9" customHeight="1">
-      <c r="L34" s="64"/>
-      <c r="M34" s="64"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="64"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="64"/>
-      <c r="S34" s="64"/>
+      <c r="U33" s="58"/>
+      <c r="V33" s="58"/>
+      <c r="W33" s="58"/>
+      <c r="X33" s="58"/>
+      <c r="Y33" s="58"/>
+      <c r="Z33" s="58"/>
+      <c r="AA33" s="58"/>
+      <c r="AB33" s="58"/>
+      <c r="AC33" s="58"/>
+      <c r="AD33" s="58"/>
+      <c r="AE33" s="58"/>
+    </row>
+    <row r="34" spans="12:31" ht="15.95" customHeight="1">
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="63"/>
+      <c r="R34" s="63"/>
+      <c r="S34" s="63"/>
       <c r="T34" s="34"/>
-      <c r="U34" s="59"/>
-      <c r="V34" s="59"/>
-      <c r="W34" s="59"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="59"/>
-      <c r="Z34" s="59"/>
-      <c r="AA34" s="59"/>
-      <c r="AB34" s="59"/>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="59"/>
-      <c r="AE34" s="59"/>
-    </row>
-    <row r="35" spans="12:31" ht="15.9" customHeight="1">
-      <c r="T35" s="59"/>
-      <c r="U35" s="59"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="59"/>
-      <c r="X35" s="59"/>
-      <c r="Y35" s="59"/>
-      <c r="Z35" s="59"/>
-      <c r="AA35" s="59"/>
-      <c r="AB35" s="59"/>
-      <c r="AC35" s="59"/>
-      <c r="AD35" s="59"/>
-      <c r="AE35" s="59"/>
-    </row>
-    <row r="36" spans="12:31" ht="15.9" customHeight="1">
-      <c r="T36" s="59"/>
-      <c r="U36" s="59"/>
-      <c r="V36" s="59"/>
-      <c r="W36" s="59"/>
-      <c r="X36" s="59"/>
-      <c r="Y36" s="59"/>
-      <c r="Z36" s="59"/>
-      <c r="AA36" s="59"/>
-      <c r="AB36" s="59"/>
-      <c r="AC36" s="59"/>
-      <c r="AD36" s="59"/>
-      <c r="AE36" s="59"/>
-    </row>
-    <row r="37" spans="12:31" ht="15.9" customHeight="1">
-      <c r="T37" s="59"/>
-      <c r="U37" s="59"/>
-      <c r="V37" s="59"/>
-      <c r="W37" s="59"/>
-      <c r="X37" s="59"/>
-      <c r="Y37" s="59"/>
-      <c r="Z37" s="59"/>
-      <c r="AA37" s="59"/>
-      <c r="AB37" s="59"/>
-      <c r="AC37" s="59"/>
-      <c r="AD37" s="59"/>
-      <c r="AE37" s="59"/>
-    </row>
-    <row r="38" spans="12:31" ht="15.9" customHeight="1">
+      <c r="U34" s="58"/>
+      <c r="V34" s="58"/>
+      <c r="W34" s="58"/>
+      <c r="X34" s="58"/>
+      <c r="Y34" s="58"/>
+      <c r="Z34" s="58"/>
+      <c r="AA34" s="58"/>
+      <c r="AB34" s="58"/>
+      <c r="AC34" s="58"/>
+      <c r="AD34" s="58"/>
+      <c r="AE34" s="58"/>
+    </row>
+    <row r="35" spans="12:31" ht="15.95" customHeight="1">
+      <c r="T35" s="58"/>
+      <c r="U35" s="58"/>
+      <c r="V35" s="58"/>
+      <c r="W35" s="58"/>
+      <c r="X35" s="58"/>
+      <c r="Y35" s="58"/>
+      <c r="Z35" s="58"/>
+      <c r="AA35" s="58"/>
+      <c r="AB35" s="58"/>
+      <c r="AC35" s="58"/>
+      <c r="AD35" s="58"/>
+      <c r="AE35" s="58"/>
+    </row>
+    <row r="36" spans="12:31" ht="15.95" customHeight="1">
+      <c r="T36" s="58"/>
+      <c r="U36" s="58"/>
+      <c r="V36" s="58"/>
+      <c r="W36" s="58"/>
+      <c r="X36" s="58"/>
+      <c r="Y36" s="58"/>
+      <c r="Z36" s="58"/>
+      <c r="AA36" s="58"/>
+      <c r="AB36" s="58"/>
+      <c r="AC36" s="58"/>
+      <c r="AD36" s="58"/>
+      <c r="AE36" s="58"/>
+    </row>
+    <row r="37" spans="12:31" ht="15.95" customHeight="1">
+      <c r="T37" s="58"/>
+      <c r="U37" s="58"/>
+      <c r="V37" s="58"/>
+      <c r="W37" s="58"/>
+      <c r="X37" s="58"/>
+      <c r="Y37" s="58"/>
+      <c r="Z37" s="58"/>
+      <c r="AA37" s="58"/>
+      <c r="AB37" s="58"/>
+      <c r="AC37" s="58"/>
+      <c r="AD37" s="58"/>
+      <c r="AE37" s="58"/>
+    </row>
+    <row r="38" spans="12:31" ht="15.95" customHeight="1">
       <c r="T38" s="34"/>
       <c r="U38" s="34"/>
       <c r="V38" s="34"/>
@@ -3759,132 +3769,141 @@
       <c r="AD38" s="34"/>
       <c r="AE38" s="34"/>
     </row>
-    <row r="39" spans="12:31" ht="15.9" customHeight="1">
-      <c r="T39" s="59"/>
-      <c r="U39" s="59"/>
-      <c r="V39" s="59"/>
-      <c r="W39" s="59"/>
-      <c r="X39" s="59"/>
-      <c r="Y39" s="59"/>
-      <c r="Z39" s="59"/>
-      <c r="AA39" s="59"/>
-      <c r="AB39" s="59"/>
-      <c r="AC39" s="59"/>
-      <c r="AD39" s="59"/>
-      <c r="AE39" s="59"/>
-    </row>
-    <row r="40" spans="12:31" ht="15.9" customHeight="1">
-      <c r="T40" s="59"/>
-      <c r="U40" s="59"/>
-      <c r="V40" s="59"/>
-      <c r="W40" s="59"/>
-      <c r="X40" s="59"/>
-      <c r="Y40" s="59"/>
-      <c r="Z40" s="59"/>
-      <c r="AA40" s="59"/>
-      <c r="AB40" s="59"/>
-      <c r="AC40" s="59"/>
-      <c r="AD40" s="59"/>
-      <c r="AE40" s="59"/>
-    </row>
-    <row r="41" spans="12:31" ht="15.9" customHeight="1">
-      <c r="T41" s="59"/>
-      <c r="U41" s="59"/>
-      <c r="V41" s="59"/>
-      <c r="W41" s="59"/>
-      <c r="X41" s="59"/>
-      <c r="Y41" s="59"/>
-      <c r="Z41" s="59"/>
-      <c r="AA41" s="59"/>
-      <c r="AB41" s="59"/>
-      <c r="AC41" s="59"/>
-      <c r="AD41" s="59"/>
-      <c r="AE41" s="59"/>
-    </row>
-    <row r="42" spans="12:31" ht="15.9" customHeight="1"/>
-    <row r="43" spans="12:31" ht="15.9" customHeight="1"/>
-    <row r="44" spans="12:31" ht="15.9" customHeight="1"/>
-    <row r="45" spans="12:31" ht="15.9" customHeight="1"/>
-    <row r="46" spans="12:31" ht="15.9" customHeight="1"/>
-    <row r="47" spans="12:31" ht="15.9" customHeight="1"/>
-    <row r="48" spans="12:31" ht="15.9" customHeight="1"/>
-    <row r="49" ht="15.9" customHeight="1"/>
-    <row r="50" ht="15.9" customHeight="1"/>
-    <row r="51" ht="15.9" customHeight="1"/>
-    <row r="52" ht="15.9" customHeight="1"/>
-    <row r="53" ht="15.9" customHeight="1"/>
-    <row r="54" ht="15.9" customHeight="1"/>
-    <row r="55" ht="15.9" customHeight="1"/>
-    <row r="56" ht="15.9" customHeight="1"/>
-    <row r="57" ht="15.9" customHeight="1"/>
-    <row r="58" ht="15.9" customHeight="1"/>
-    <row r="59" ht="15.9" customHeight="1"/>
-    <row r="60" ht="15.9" customHeight="1"/>
-    <row r="61" ht="15.9" customHeight="1"/>
-    <row r="62" ht="15.9" customHeight="1"/>
-    <row r="63" ht="15.9" customHeight="1"/>
-    <row r="64" ht="15.9" customHeight="1"/>
-    <row r="65" ht="15.9" customHeight="1"/>
-    <row r="66" ht="15.9" customHeight="1"/>
-    <row r="67" ht="15.9" customHeight="1"/>
-    <row r="68" ht="15.9" customHeight="1"/>
-    <row r="69" ht="15.9" customHeight="1"/>
-    <row r="70" ht="15.9" customHeight="1"/>
-    <row r="71" ht="15.9" customHeight="1"/>
-    <row r="72" ht="15.9" customHeight="1"/>
-    <row r="73" ht="15.9" customHeight="1"/>
-    <row r="74" ht="15.9" customHeight="1"/>
-    <row r="75" ht="15.9" customHeight="1"/>
-    <row r="76" ht="15.9" customHeight="1"/>
-    <row r="77" ht="15.9" customHeight="1"/>
-    <row r="78" ht="15.9" customHeight="1"/>
-    <row r="79" ht="15.9" customHeight="1"/>
-    <row r="80" ht="15.9" customHeight="1"/>
-    <row r="81" ht="15.9" customHeight="1"/>
-    <row r="82" ht="15.9" customHeight="1"/>
-    <row r="83" ht="15.9" customHeight="1"/>
-    <row r="84" ht="15.9" customHeight="1"/>
-    <row r="85" ht="15.9" customHeight="1"/>
-    <row r="86" ht="15.9" customHeight="1"/>
-    <row r="87" ht="15.9" customHeight="1"/>
-    <row r="88" ht="15.9" customHeight="1"/>
-    <row r="89" ht="15.9" customHeight="1"/>
-    <row r="90" ht="15.9" customHeight="1"/>
-    <row r="91" ht="15.9" customHeight="1"/>
-    <row r="92" ht="15.9" customHeight="1"/>
-    <row r="93" ht="15.9" customHeight="1"/>
-    <row r="94" ht="15.9" customHeight="1"/>
-    <row r="95" ht="15.9" customHeight="1"/>
-    <row r="96" ht="15.9" customHeight="1"/>
-    <row r="97" ht="15.9" customHeight="1"/>
+    <row r="39" spans="12:31" ht="15.95" customHeight="1">
+      <c r="T39" s="58"/>
+      <c r="U39" s="58"/>
+      <c r="V39" s="58"/>
+      <c r="W39" s="58"/>
+      <c r="X39" s="58"/>
+      <c r="Y39" s="58"/>
+      <c r="Z39" s="58"/>
+      <c r="AA39" s="58"/>
+      <c r="AB39" s="58"/>
+      <c r="AC39" s="58"/>
+      <c r="AD39" s="58"/>
+      <c r="AE39" s="58"/>
+    </row>
+    <row r="40" spans="12:31" ht="15.95" customHeight="1">
+      <c r="T40" s="58"/>
+      <c r="U40" s="58"/>
+      <c r="V40" s="58"/>
+      <c r="W40" s="58"/>
+      <c r="X40" s="58"/>
+      <c r="Y40" s="58"/>
+      <c r="Z40" s="58"/>
+      <c r="AA40" s="58"/>
+      <c r="AB40" s="58"/>
+      <c r="AC40" s="58"/>
+      <c r="AD40" s="58"/>
+      <c r="AE40" s="58"/>
+    </row>
+    <row r="41" spans="12:31" ht="15.95" customHeight="1">
+      <c r="T41" s="58"/>
+      <c r="U41" s="58"/>
+      <c r="V41" s="58"/>
+      <c r="W41" s="58"/>
+      <c r="X41" s="58"/>
+      <c r="Y41" s="58"/>
+      <c r="Z41" s="58"/>
+      <c r="AA41" s="58"/>
+      <c r="AB41" s="58"/>
+      <c r="AC41" s="58"/>
+      <c r="AD41" s="58"/>
+      <c r="AE41" s="58"/>
+    </row>
+    <row r="42" spans="12:31" ht="15.95" customHeight="1"/>
+    <row r="43" spans="12:31" ht="15.95" customHeight="1"/>
+    <row r="44" spans="12:31" ht="15.95" customHeight="1"/>
+    <row r="45" spans="12:31" ht="15.95" customHeight="1"/>
+    <row r="46" spans="12:31" ht="15.95" customHeight="1"/>
+    <row r="47" spans="12:31" ht="15.95" customHeight="1"/>
+    <row r="48" spans="12:31" ht="15.95" customHeight="1"/>
+    <row r="49" ht="15.95" customHeight="1"/>
+    <row r="50" ht="15.95" customHeight="1"/>
+    <row r="51" ht="15.95" customHeight="1"/>
+    <row r="52" ht="15.95" customHeight="1"/>
+    <row r="53" ht="15.95" customHeight="1"/>
+    <row r="54" ht="15.95" customHeight="1"/>
+    <row r="55" ht="15.95" customHeight="1"/>
+    <row r="56" ht="15.95" customHeight="1"/>
+    <row r="57" ht="15.95" customHeight="1"/>
+    <row r="58" ht="15.95" customHeight="1"/>
+    <row r="59" ht="15.95" customHeight="1"/>
+    <row r="60" ht="15.95" customHeight="1"/>
+    <row r="61" ht="15.95" customHeight="1"/>
+    <row r="62" ht="15.95" customHeight="1"/>
+    <row r="63" ht="15.95" customHeight="1"/>
+    <row r="64" ht="15.95" customHeight="1"/>
+    <row r="65" ht="15.95" customHeight="1"/>
+    <row r="66" ht="15.95" customHeight="1"/>
+    <row r="67" ht="15.95" customHeight="1"/>
+    <row r="68" ht="15.95" customHeight="1"/>
+    <row r="69" ht="15.95" customHeight="1"/>
+    <row r="70" ht="15.95" customHeight="1"/>
+    <row r="71" ht="15.95" customHeight="1"/>
+    <row r="72" ht="15.95" customHeight="1"/>
+    <row r="73" ht="15.95" customHeight="1"/>
+    <row r="74" ht="15.95" customHeight="1"/>
+    <row r="75" ht="15.95" customHeight="1"/>
+    <row r="76" ht="15.95" customHeight="1"/>
+    <row r="77" ht="15.95" customHeight="1"/>
+    <row r="78" ht="15.95" customHeight="1"/>
+    <row r="79" ht="15.95" customHeight="1"/>
+    <row r="80" ht="15.95" customHeight="1"/>
+    <row r="81" ht="15.95" customHeight="1"/>
+    <row r="82" ht="15.95" customHeight="1"/>
+    <row r="83" ht="15.95" customHeight="1"/>
+    <row r="84" ht="15.95" customHeight="1"/>
+    <row r="85" ht="15.95" customHeight="1"/>
+    <row r="86" ht="15.95" customHeight="1"/>
+    <row r="87" ht="15.95" customHeight="1"/>
+    <row r="88" ht="15.95" customHeight="1"/>
+    <row r="89" ht="15.95" customHeight="1"/>
+    <row r="90" ht="15.95" customHeight="1"/>
+    <row r="91" ht="15.95" customHeight="1"/>
+    <row r="92" ht="15.95" customHeight="1"/>
+    <row r="93" ht="15.95" customHeight="1"/>
+    <row r="94" ht="15.95" customHeight="1"/>
+    <row r="95" ht="15.95" customHeight="1"/>
+    <row r="96" ht="15.95" customHeight="1"/>
+    <row r="97" ht="15.95" customHeight="1"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
-  <mergeCells count="77">
-    <mergeCell ref="B10:S10"/>
-    <mergeCell ref="O9:S9"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="L11:S11"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:S8"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="I19:J19"/>
+  <mergeCells count="78">
+    <mergeCell ref="P26:Q28"/>
+    <mergeCell ref="R26:S28"/>
+    <mergeCell ref="B22:H23"/>
+    <mergeCell ref="I22:S23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B13:S13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:P15"/>
     <mergeCell ref="Q15:S15"/>
     <mergeCell ref="R17:S18"/>
     <mergeCell ref="P17:Q18"/>
@@ -3901,42 +3920,34 @@
     <mergeCell ref="P19:Q19"/>
     <mergeCell ref="R19:S19"/>
     <mergeCell ref="B17:H18"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="B13:S13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="B2:S2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:S3"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="I19:J19"/>
     <mergeCell ref="B26:C28"/>
     <mergeCell ref="D26:E28"/>
     <mergeCell ref="F26:G28"/>
-    <mergeCell ref="P26:Q28"/>
-    <mergeCell ref="R26:S28"/>
-    <mergeCell ref="B22:H23"/>
-    <mergeCell ref="I22:S23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="B10:S10"/>
+    <mergeCell ref="O9:S9"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="L11:S11"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:S8"/>
+    <mergeCell ref="I11:K11"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
@@ -3948,7 +3959,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.43307086614173229" bottom="0.59055118110236227" header="0.23622047244094491" footer="0.70866141732283472"/>
-  <pageSetup paperSize="9" scale="81" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;R&amp;10松下电器軟件开发（大連）有限公司</oddFooter>
   </headerFooter>
@@ -3970,571 +3981,571 @@
       <selection pane="bottomRight" activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="12.6640625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="1.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="12.625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="1.625" style="1" customWidth="1"/>
     <col min="10" max="257" width="9" style="1"/>
     <col min="258" max="258" width="12" style="1" customWidth="1"/>
-    <col min="259" max="259" width="11.33203125" style="1" customWidth="1"/>
-    <col min="260" max="260" width="15.44140625" style="1" customWidth="1"/>
-    <col min="261" max="261" width="15.109375" style="1" customWidth="1"/>
-    <col min="262" max="262" width="12.6640625" style="1" customWidth="1"/>
-    <col min="263" max="263" width="11.88671875" style="1" customWidth="1"/>
-    <col min="264" max="264" width="9.6640625" style="1" customWidth="1"/>
+    <col min="259" max="259" width="11.375" style="1" customWidth="1"/>
+    <col min="260" max="260" width="15.5" style="1" customWidth="1"/>
+    <col min="261" max="261" width="15.125" style="1" customWidth="1"/>
+    <col min="262" max="262" width="12.625" style="1" customWidth="1"/>
+    <col min="263" max="263" width="11.875" style="1" customWidth="1"/>
+    <col min="264" max="264" width="9.625" style="1" customWidth="1"/>
     <col min="265" max="513" width="9" style="1"/>
     <col min="514" max="514" width="12" style="1" customWidth="1"/>
-    <col min="515" max="515" width="11.33203125" style="1" customWidth="1"/>
-    <col min="516" max="516" width="15.44140625" style="1" customWidth="1"/>
-    <col min="517" max="517" width="15.109375" style="1" customWidth="1"/>
-    <col min="518" max="518" width="12.6640625" style="1" customWidth="1"/>
-    <col min="519" max="519" width="11.88671875" style="1" customWidth="1"/>
-    <col min="520" max="520" width="9.6640625" style="1" customWidth="1"/>
+    <col min="515" max="515" width="11.375" style="1" customWidth="1"/>
+    <col min="516" max="516" width="15.5" style="1" customWidth="1"/>
+    <col min="517" max="517" width="15.125" style="1" customWidth="1"/>
+    <col min="518" max="518" width="12.625" style="1" customWidth="1"/>
+    <col min="519" max="519" width="11.875" style="1" customWidth="1"/>
+    <col min="520" max="520" width="9.625" style="1" customWidth="1"/>
     <col min="521" max="769" width="9" style="1"/>
     <col min="770" max="770" width="12" style="1" customWidth="1"/>
-    <col min="771" max="771" width="11.33203125" style="1" customWidth="1"/>
-    <col min="772" max="772" width="15.44140625" style="1" customWidth="1"/>
-    <col min="773" max="773" width="15.109375" style="1" customWidth="1"/>
-    <col min="774" max="774" width="12.6640625" style="1" customWidth="1"/>
-    <col min="775" max="775" width="11.88671875" style="1" customWidth="1"/>
-    <col min="776" max="776" width="9.6640625" style="1" customWidth="1"/>
+    <col min="771" max="771" width="11.375" style="1" customWidth="1"/>
+    <col min="772" max="772" width="15.5" style="1" customWidth="1"/>
+    <col min="773" max="773" width="15.125" style="1" customWidth="1"/>
+    <col min="774" max="774" width="12.625" style="1" customWidth="1"/>
+    <col min="775" max="775" width="11.875" style="1" customWidth="1"/>
+    <col min="776" max="776" width="9.625" style="1" customWidth="1"/>
     <col min="777" max="1025" width="9" style="1"/>
     <col min="1026" max="1026" width="12" style="1" customWidth="1"/>
-    <col min="1027" max="1027" width="11.33203125" style="1" customWidth="1"/>
-    <col min="1028" max="1028" width="15.44140625" style="1" customWidth="1"/>
-    <col min="1029" max="1029" width="15.109375" style="1" customWidth="1"/>
-    <col min="1030" max="1030" width="12.6640625" style="1" customWidth="1"/>
-    <col min="1031" max="1031" width="11.88671875" style="1" customWidth="1"/>
-    <col min="1032" max="1032" width="9.6640625" style="1" customWidth="1"/>
+    <col min="1027" max="1027" width="11.375" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="15.5" style="1" customWidth="1"/>
+    <col min="1029" max="1029" width="15.125" style="1" customWidth="1"/>
+    <col min="1030" max="1030" width="12.625" style="1" customWidth="1"/>
+    <col min="1031" max="1031" width="11.875" style="1" customWidth="1"/>
+    <col min="1032" max="1032" width="9.625" style="1" customWidth="1"/>
     <col min="1033" max="1281" width="9" style="1"/>
     <col min="1282" max="1282" width="12" style="1" customWidth="1"/>
-    <col min="1283" max="1283" width="11.33203125" style="1" customWidth="1"/>
-    <col min="1284" max="1284" width="15.44140625" style="1" customWidth="1"/>
-    <col min="1285" max="1285" width="15.109375" style="1" customWidth="1"/>
-    <col min="1286" max="1286" width="12.6640625" style="1" customWidth="1"/>
-    <col min="1287" max="1287" width="11.88671875" style="1" customWidth="1"/>
-    <col min="1288" max="1288" width="9.6640625" style="1" customWidth="1"/>
+    <col min="1283" max="1283" width="11.375" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="15.5" style="1" customWidth="1"/>
+    <col min="1285" max="1285" width="15.125" style="1" customWidth="1"/>
+    <col min="1286" max="1286" width="12.625" style="1" customWidth="1"/>
+    <col min="1287" max="1287" width="11.875" style="1" customWidth="1"/>
+    <col min="1288" max="1288" width="9.625" style="1" customWidth="1"/>
     <col min="1289" max="1537" width="9" style="1"/>
     <col min="1538" max="1538" width="12" style="1" customWidth="1"/>
-    <col min="1539" max="1539" width="11.33203125" style="1" customWidth="1"/>
-    <col min="1540" max="1540" width="15.44140625" style="1" customWidth="1"/>
-    <col min="1541" max="1541" width="15.109375" style="1" customWidth="1"/>
-    <col min="1542" max="1542" width="12.6640625" style="1" customWidth="1"/>
-    <col min="1543" max="1543" width="11.88671875" style="1" customWidth="1"/>
-    <col min="1544" max="1544" width="9.6640625" style="1" customWidth="1"/>
+    <col min="1539" max="1539" width="11.375" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="15.5" style="1" customWidth="1"/>
+    <col min="1541" max="1541" width="15.125" style="1" customWidth="1"/>
+    <col min="1542" max="1542" width="12.625" style="1" customWidth="1"/>
+    <col min="1543" max="1543" width="11.875" style="1" customWidth="1"/>
+    <col min="1544" max="1544" width="9.625" style="1" customWidth="1"/>
     <col min="1545" max="1793" width="9" style="1"/>
     <col min="1794" max="1794" width="12" style="1" customWidth="1"/>
-    <col min="1795" max="1795" width="11.33203125" style="1" customWidth="1"/>
-    <col min="1796" max="1796" width="15.44140625" style="1" customWidth="1"/>
-    <col min="1797" max="1797" width="15.109375" style="1" customWidth="1"/>
-    <col min="1798" max="1798" width="12.6640625" style="1" customWidth="1"/>
-    <col min="1799" max="1799" width="11.88671875" style="1" customWidth="1"/>
-    <col min="1800" max="1800" width="9.6640625" style="1" customWidth="1"/>
+    <col min="1795" max="1795" width="11.375" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="15.5" style="1" customWidth="1"/>
+    <col min="1797" max="1797" width="15.125" style="1" customWidth="1"/>
+    <col min="1798" max="1798" width="12.625" style="1" customWidth="1"/>
+    <col min="1799" max="1799" width="11.875" style="1" customWidth="1"/>
+    <col min="1800" max="1800" width="9.625" style="1" customWidth="1"/>
     <col min="1801" max="2049" width="9" style="1"/>
     <col min="2050" max="2050" width="12" style="1" customWidth="1"/>
-    <col min="2051" max="2051" width="11.33203125" style="1" customWidth="1"/>
-    <col min="2052" max="2052" width="15.44140625" style="1" customWidth="1"/>
-    <col min="2053" max="2053" width="15.109375" style="1" customWidth="1"/>
-    <col min="2054" max="2054" width="12.6640625" style="1" customWidth="1"/>
-    <col min="2055" max="2055" width="11.88671875" style="1" customWidth="1"/>
-    <col min="2056" max="2056" width="9.6640625" style="1" customWidth="1"/>
+    <col min="2051" max="2051" width="11.375" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="15.5" style="1" customWidth="1"/>
+    <col min="2053" max="2053" width="15.125" style="1" customWidth="1"/>
+    <col min="2054" max="2054" width="12.625" style="1" customWidth="1"/>
+    <col min="2055" max="2055" width="11.875" style="1" customWidth="1"/>
+    <col min="2056" max="2056" width="9.625" style="1" customWidth="1"/>
     <col min="2057" max="2305" width="9" style="1"/>
     <col min="2306" max="2306" width="12" style="1" customWidth="1"/>
-    <col min="2307" max="2307" width="11.33203125" style="1" customWidth="1"/>
-    <col min="2308" max="2308" width="15.44140625" style="1" customWidth="1"/>
-    <col min="2309" max="2309" width="15.109375" style="1" customWidth="1"/>
-    <col min="2310" max="2310" width="12.6640625" style="1" customWidth="1"/>
-    <col min="2311" max="2311" width="11.88671875" style="1" customWidth="1"/>
-    <col min="2312" max="2312" width="9.6640625" style="1" customWidth="1"/>
+    <col min="2307" max="2307" width="11.375" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="15.5" style="1" customWidth="1"/>
+    <col min="2309" max="2309" width="15.125" style="1" customWidth="1"/>
+    <col min="2310" max="2310" width="12.625" style="1" customWidth="1"/>
+    <col min="2311" max="2311" width="11.875" style="1" customWidth="1"/>
+    <col min="2312" max="2312" width="9.625" style="1" customWidth="1"/>
     <col min="2313" max="2561" width="9" style="1"/>
     <col min="2562" max="2562" width="12" style="1" customWidth="1"/>
-    <col min="2563" max="2563" width="11.33203125" style="1" customWidth="1"/>
-    <col min="2564" max="2564" width="15.44140625" style="1" customWidth="1"/>
-    <col min="2565" max="2565" width="15.109375" style="1" customWidth="1"/>
-    <col min="2566" max="2566" width="12.6640625" style="1" customWidth="1"/>
-    <col min="2567" max="2567" width="11.88671875" style="1" customWidth="1"/>
-    <col min="2568" max="2568" width="9.6640625" style="1" customWidth="1"/>
+    <col min="2563" max="2563" width="11.375" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="15.5" style="1" customWidth="1"/>
+    <col min="2565" max="2565" width="15.125" style="1" customWidth="1"/>
+    <col min="2566" max="2566" width="12.625" style="1" customWidth="1"/>
+    <col min="2567" max="2567" width="11.875" style="1" customWidth="1"/>
+    <col min="2568" max="2568" width="9.625" style="1" customWidth="1"/>
     <col min="2569" max="2817" width="9" style="1"/>
     <col min="2818" max="2818" width="12" style="1" customWidth="1"/>
-    <col min="2819" max="2819" width="11.33203125" style="1" customWidth="1"/>
-    <col min="2820" max="2820" width="15.44140625" style="1" customWidth="1"/>
-    <col min="2821" max="2821" width="15.109375" style="1" customWidth="1"/>
-    <col min="2822" max="2822" width="12.6640625" style="1" customWidth="1"/>
-    <col min="2823" max="2823" width="11.88671875" style="1" customWidth="1"/>
-    <col min="2824" max="2824" width="9.6640625" style="1" customWidth="1"/>
+    <col min="2819" max="2819" width="11.375" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="15.5" style="1" customWidth="1"/>
+    <col min="2821" max="2821" width="15.125" style="1" customWidth="1"/>
+    <col min="2822" max="2822" width="12.625" style="1" customWidth="1"/>
+    <col min="2823" max="2823" width="11.875" style="1" customWidth="1"/>
+    <col min="2824" max="2824" width="9.625" style="1" customWidth="1"/>
     <col min="2825" max="3073" width="9" style="1"/>
     <col min="3074" max="3074" width="12" style="1" customWidth="1"/>
-    <col min="3075" max="3075" width="11.33203125" style="1" customWidth="1"/>
-    <col min="3076" max="3076" width="15.44140625" style="1" customWidth="1"/>
-    <col min="3077" max="3077" width="15.109375" style="1" customWidth="1"/>
-    <col min="3078" max="3078" width="12.6640625" style="1" customWidth="1"/>
-    <col min="3079" max="3079" width="11.88671875" style="1" customWidth="1"/>
-    <col min="3080" max="3080" width="9.6640625" style="1" customWidth="1"/>
+    <col min="3075" max="3075" width="11.375" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="15.5" style="1" customWidth="1"/>
+    <col min="3077" max="3077" width="15.125" style="1" customWidth="1"/>
+    <col min="3078" max="3078" width="12.625" style="1" customWidth="1"/>
+    <col min="3079" max="3079" width="11.875" style="1" customWidth="1"/>
+    <col min="3080" max="3080" width="9.625" style="1" customWidth="1"/>
     <col min="3081" max="3329" width="9" style="1"/>
     <col min="3330" max="3330" width="12" style="1" customWidth="1"/>
-    <col min="3331" max="3331" width="11.33203125" style="1" customWidth="1"/>
-    <col min="3332" max="3332" width="15.44140625" style="1" customWidth="1"/>
-    <col min="3333" max="3333" width="15.109375" style="1" customWidth="1"/>
-    <col min="3334" max="3334" width="12.6640625" style="1" customWidth="1"/>
-    <col min="3335" max="3335" width="11.88671875" style="1" customWidth="1"/>
-    <col min="3336" max="3336" width="9.6640625" style="1" customWidth="1"/>
+    <col min="3331" max="3331" width="11.375" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="15.5" style="1" customWidth="1"/>
+    <col min="3333" max="3333" width="15.125" style="1" customWidth="1"/>
+    <col min="3334" max="3334" width="12.625" style="1" customWidth="1"/>
+    <col min="3335" max="3335" width="11.875" style="1" customWidth="1"/>
+    <col min="3336" max="3336" width="9.625" style="1" customWidth="1"/>
     <col min="3337" max="3585" width="9" style="1"/>
     <col min="3586" max="3586" width="12" style="1" customWidth="1"/>
-    <col min="3587" max="3587" width="11.33203125" style="1" customWidth="1"/>
-    <col min="3588" max="3588" width="15.44140625" style="1" customWidth="1"/>
-    <col min="3589" max="3589" width="15.109375" style="1" customWidth="1"/>
-    <col min="3590" max="3590" width="12.6640625" style="1" customWidth="1"/>
-    <col min="3591" max="3591" width="11.88671875" style="1" customWidth="1"/>
-    <col min="3592" max="3592" width="9.6640625" style="1" customWidth="1"/>
+    <col min="3587" max="3587" width="11.375" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="15.5" style="1" customWidth="1"/>
+    <col min="3589" max="3589" width="15.125" style="1" customWidth="1"/>
+    <col min="3590" max="3590" width="12.625" style="1" customWidth="1"/>
+    <col min="3591" max="3591" width="11.875" style="1" customWidth="1"/>
+    <col min="3592" max="3592" width="9.625" style="1" customWidth="1"/>
     <col min="3593" max="3841" width="9" style="1"/>
     <col min="3842" max="3842" width="12" style="1" customWidth="1"/>
-    <col min="3843" max="3843" width="11.33203125" style="1" customWidth="1"/>
-    <col min="3844" max="3844" width="15.44140625" style="1" customWidth="1"/>
-    <col min="3845" max="3845" width="15.109375" style="1" customWidth="1"/>
-    <col min="3846" max="3846" width="12.6640625" style="1" customWidth="1"/>
-    <col min="3847" max="3847" width="11.88671875" style="1" customWidth="1"/>
-    <col min="3848" max="3848" width="9.6640625" style="1" customWidth="1"/>
+    <col min="3843" max="3843" width="11.375" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="15.5" style="1" customWidth="1"/>
+    <col min="3845" max="3845" width="15.125" style="1" customWidth="1"/>
+    <col min="3846" max="3846" width="12.625" style="1" customWidth="1"/>
+    <col min="3847" max="3847" width="11.875" style="1" customWidth="1"/>
+    <col min="3848" max="3848" width="9.625" style="1" customWidth="1"/>
     <col min="3849" max="4097" width="9" style="1"/>
     <col min="4098" max="4098" width="12" style="1" customWidth="1"/>
-    <col min="4099" max="4099" width="11.33203125" style="1" customWidth="1"/>
-    <col min="4100" max="4100" width="15.44140625" style="1" customWidth="1"/>
-    <col min="4101" max="4101" width="15.109375" style="1" customWidth="1"/>
-    <col min="4102" max="4102" width="12.6640625" style="1" customWidth="1"/>
-    <col min="4103" max="4103" width="11.88671875" style="1" customWidth="1"/>
-    <col min="4104" max="4104" width="9.6640625" style="1" customWidth="1"/>
+    <col min="4099" max="4099" width="11.375" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="15.5" style="1" customWidth="1"/>
+    <col min="4101" max="4101" width="15.125" style="1" customWidth="1"/>
+    <col min="4102" max="4102" width="12.625" style="1" customWidth="1"/>
+    <col min="4103" max="4103" width="11.875" style="1" customWidth="1"/>
+    <col min="4104" max="4104" width="9.625" style="1" customWidth="1"/>
     <col min="4105" max="4353" width="9" style="1"/>
     <col min="4354" max="4354" width="12" style="1" customWidth="1"/>
-    <col min="4355" max="4355" width="11.33203125" style="1" customWidth="1"/>
-    <col min="4356" max="4356" width="15.44140625" style="1" customWidth="1"/>
-    <col min="4357" max="4357" width="15.109375" style="1" customWidth="1"/>
-    <col min="4358" max="4358" width="12.6640625" style="1" customWidth="1"/>
-    <col min="4359" max="4359" width="11.88671875" style="1" customWidth="1"/>
-    <col min="4360" max="4360" width="9.6640625" style="1" customWidth="1"/>
+    <col min="4355" max="4355" width="11.375" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="15.5" style="1" customWidth="1"/>
+    <col min="4357" max="4357" width="15.125" style="1" customWidth="1"/>
+    <col min="4358" max="4358" width="12.625" style="1" customWidth="1"/>
+    <col min="4359" max="4359" width="11.875" style="1" customWidth="1"/>
+    <col min="4360" max="4360" width="9.625" style="1" customWidth="1"/>
     <col min="4361" max="4609" width="9" style="1"/>
     <col min="4610" max="4610" width="12" style="1" customWidth="1"/>
-    <col min="4611" max="4611" width="11.33203125" style="1" customWidth="1"/>
-    <col min="4612" max="4612" width="15.44140625" style="1" customWidth="1"/>
-    <col min="4613" max="4613" width="15.109375" style="1" customWidth="1"/>
-    <col min="4614" max="4614" width="12.6640625" style="1" customWidth="1"/>
-    <col min="4615" max="4615" width="11.88671875" style="1" customWidth="1"/>
-    <col min="4616" max="4616" width="9.6640625" style="1" customWidth="1"/>
+    <col min="4611" max="4611" width="11.375" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="15.5" style="1" customWidth="1"/>
+    <col min="4613" max="4613" width="15.125" style="1" customWidth="1"/>
+    <col min="4614" max="4614" width="12.625" style="1" customWidth="1"/>
+    <col min="4615" max="4615" width="11.875" style="1" customWidth="1"/>
+    <col min="4616" max="4616" width="9.625" style="1" customWidth="1"/>
     <col min="4617" max="4865" width="9" style="1"/>
     <col min="4866" max="4866" width="12" style="1" customWidth="1"/>
-    <col min="4867" max="4867" width="11.33203125" style="1" customWidth="1"/>
-    <col min="4868" max="4868" width="15.44140625" style="1" customWidth="1"/>
-    <col min="4869" max="4869" width="15.109375" style="1" customWidth="1"/>
-    <col min="4870" max="4870" width="12.6640625" style="1" customWidth="1"/>
-    <col min="4871" max="4871" width="11.88671875" style="1" customWidth="1"/>
-    <col min="4872" max="4872" width="9.6640625" style="1" customWidth="1"/>
+    <col min="4867" max="4867" width="11.375" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="15.5" style="1" customWidth="1"/>
+    <col min="4869" max="4869" width="15.125" style="1" customWidth="1"/>
+    <col min="4870" max="4870" width="12.625" style="1" customWidth="1"/>
+    <col min="4871" max="4871" width="11.875" style="1" customWidth="1"/>
+    <col min="4872" max="4872" width="9.625" style="1" customWidth="1"/>
     <col min="4873" max="5121" width="9" style="1"/>
     <col min="5122" max="5122" width="12" style="1" customWidth="1"/>
-    <col min="5123" max="5123" width="11.33203125" style="1" customWidth="1"/>
-    <col min="5124" max="5124" width="15.44140625" style="1" customWidth="1"/>
-    <col min="5125" max="5125" width="15.109375" style="1" customWidth="1"/>
-    <col min="5126" max="5126" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5127" max="5127" width="11.88671875" style="1" customWidth="1"/>
-    <col min="5128" max="5128" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5123" max="5123" width="11.375" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="15.5" style="1" customWidth="1"/>
+    <col min="5125" max="5125" width="15.125" style="1" customWidth="1"/>
+    <col min="5126" max="5126" width="12.625" style="1" customWidth="1"/>
+    <col min="5127" max="5127" width="11.875" style="1" customWidth="1"/>
+    <col min="5128" max="5128" width="9.625" style="1" customWidth="1"/>
     <col min="5129" max="5377" width="9" style="1"/>
     <col min="5378" max="5378" width="12" style="1" customWidth="1"/>
-    <col min="5379" max="5379" width="11.33203125" style="1" customWidth="1"/>
-    <col min="5380" max="5380" width="15.44140625" style="1" customWidth="1"/>
-    <col min="5381" max="5381" width="15.109375" style="1" customWidth="1"/>
-    <col min="5382" max="5382" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5383" max="5383" width="11.88671875" style="1" customWidth="1"/>
-    <col min="5384" max="5384" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5379" max="5379" width="11.375" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="15.5" style="1" customWidth="1"/>
+    <col min="5381" max="5381" width="15.125" style="1" customWidth="1"/>
+    <col min="5382" max="5382" width="12.625" style="1" customWidth="1"/>
+    <col min="5383" max="5383" width="11.875" style="1" customWidth="1"/>
+    <col min="5384" max="5384" width="9.625" style="1" customWidth="1"/>
     <col min="5385" max="5633" width="9" style="1"/>
     <col min="5634" max="5634" width="12" style="1" customWidth="1"/>
-    <col min="5635" max="5635" width="11.33203125" style="1" customWidth="1"/>
-    <col min="5636" max="5636" width="15.44140625" style="1" customWidth="1"/>
-    <col min="5637" max="5637" width="15.109375" style="1" customWidth="1"/>
-    <col min="5638" max="5638" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5639" max="5639" width="11.88671875" style="1" customWidth="1"/>
-    <col min="5640" max="5640" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5635" max="5635" width="11.375" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="15.5" style="1" customWidth="1"/>
+    <col min="5637" max="5637" width="15.125" style="1" customWidth="1"/>
+    <col min="5638" max="5638" width="12.625" style="1" customWidth="1"/>
+    <col min="5639" max="5639" width="11.875" style="1" customWidth="1"/>
+    <col min="5640" max="5640" width="9.625" style="1" customWidth="1"/>
     <col min="5641" max="5889" width="9" style="1"/>
     <col min="5890" max="5890" width="12" style="1" customWidth="1"/>
-    <col min="5891" max="5891" width="11.33203125" style="1" customWidth="1"/>
-    <col min="5892" max="5892" width="15.44140625" style="1" customWidth="1"/>
-    <col min="5893" max="5893" width="15.109375" style="1" customWidth="1"/>
-    <col min="5894" max="5894" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5895" max="5895" width="11.88671875" style="1" customWidth="1"/>
-    <col min="5896" max="5896" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5891" max="5891" width="11.375" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="15.5" style="1" customWidth="1"/>
+    <col min="5893" max="5893" width="15.125" style="1" customWidth="1"/>
+    <col min="5894" max="5894" width="12.625" style="1" customWidth="1"/>
+    <col min="5895" max="5895" width="11.875" style="1" customWidth="1"/>
+    <col min="5896" max="5896" width="9.625" style="1" customWidth="1"/>
     <col min="5897" max="6145" width="9" style="1"/>
     <col min="6146" max="6146" width="12" style="1" customWidth="1"/>
-    <col min="6147" max="6147" width="11.33203125" style="1" customWidth="1"/>
-    <col min="6148" max="6148" width="15.44140625" style="1" customWidth="1"/>
-    <col min="6149" max="6149" width="15.109375" style="1" customWidth="1"/>
-    <col min="6150" max="6150" width="12.6640625" style="1" customWidth="1"/>
-    <col min="6151" max="6151" width="11.88671875" style="1" customWidth="1"/>
-    <col min="6152" max="6152" width="9.6640625" style="1" customWidth="1"/>
+    <col min="6147" max="6147" width="11.375" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="15.5" style="1" customWidth="1"/>
+    <col min="6149" max="6149" width="15.125" style="1" customWidth="1"/>
+    <col min="6150" max="6150" width="12.625" style="1" customWidth="1"/>
+    <col min="6151" max="6151" width="11.875" style="1" customWidth="1"/>
+    <col min="6152" max="6152" width="9.625" style="1" customWidth="1"/>
     <col min="6153" max="6401" width="9" style="1"/>
     <col min="6402" max="6402" width="12" style="1" customWidth="1"/>
-    <col min="6403" max="6403" width="11.33203125" style="1" customWidth="1"/>
-    <col min="6404" max="6404" width="15.44140625" style="1" customWidth="1"/>
-    <col min="6405" max="6405" width="15.109375" style="1" customWidth="1"/>
-    <col min="6406" max="6406" width="12.6640625" style="1" customWidth="1"/>
-    <col min="6407" max="6407" width="11.88671875" style="1" customWidth="1"/>
-    <col min="6408" max="6408" width="9.6640625" style="1" customWidth="1"/>
+    <col min="6403" max="6403" width="11.375" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="15.5" style="1" customWidth="1"/>
+    <col min="6405" max="6405" width="15.125" style="1" customWidth="1"/>
+    <col min="6406" max="6406" width="12.625" style="1" customWidth="1"/>
+    <col min="6407" max="6407" width="11.875" style="1" customWidth="1"/>
+    <col min="6408" max="6408" width="9.625" style="1" customWidth="1"/>
     <col min="6409" max="6657" width="9" style="1"/>
     <col min="6658" max="6658" width="12" style="1" customWidth="1"/>
-    <col min="6659" max="6659" width="11.33203125" style="1" customWidth="1"/>
-    <col min="6660" max="6660" width="15.44140625" style="1" customWidth="1"/>
-    <col min="6661" max="6661" width="15.109375" style="1" customWidth="1"/>
-    <col min="6662" max="6662" width="12.6640625" style="1" customWidth="1"/>
-    <col min="6663" max="6663" width="11.88671875" style="1" customWidth="1"/>
-    <col min="6664" max="6664" width="9.6640625" style="1" customWidth="1"/>
+    <col min="6659" max="6659" width="11.375" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="15.5" style="1" customWidth="1"/>
+    <col min="6661" max="6661" width="15.125" style="1" customWidth="1"/>
+    <col min="6662" max="6662" width="12.625" style="1" customWidth="1"/>
+    <col min="6663" max="6663" width="11.875" style="1" customWidth="1"/>
+    <col min="6664" max="6664" width="9.625" style="1" customWidth="1"/>
     <col min="6665" max="6913" width="9" style="1"/>
     <col min="6914" max="6914" width="12" style="1" customWidth="1"/>
-    <col min="6915" max="6915" width="11.33203125" style="1" customWidth="1"/>
-    <col min="6916" max="6916" width="15.44140625" style="1" customWidth="1"/>
-    <col min="6917" max="6917" width="15.109375" style="1" customWidth="1"/>
-    <col min="6918" max="6918" width="12.6640625" style="1" customWidth="1"/>
-    <col min="6919" max="6919" width="11.88671875" style="1" customWidth="1"/>
-    <col min="6920" max="6920" width="9.6640625" style="1" customWidth="1"/>
+    <col min="6915" max="6915" width="11.375" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="15.5" style="1" customWidth="1"/>
+    <col min="6917" max="6917" width="15.125" style="1" customWidth="1"/>
+    <col min="6918" max="6918" width="12.625" style="1" customWidth="1"/>
+    <col min="6919" max="6919" width="11.875" style="1" customWidth="1"/>
+    <col min="6920" max="6920" width="9.625" style="1" customWidth="1"/>
     <col min="6921" max="7169" width="9" style="1"/>
     <col min="7170" max="7170" width="12" style="1" customWidth="1"/>
-    <col min="7171" max="7171" width="11.33203125" style="1" customWidth="1"/>
-    <col min="7172" max="7172" width="15.44140625" style="1" customWidth="1"/>
-    <col min="7173" max="7173" width="15.109375" style="1" customWidth="1"/>
-    <col min="7174" max="7174" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7175" max="7175" width="11.88671875" style="1" customWidth="1"/>
-    <col min="7176" max="7176" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7171" max="7171" width="11.375" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="15.5" style="1" customWidth="1"/>
+    <col min="7173" max="7173" width="15.125" style="1" customWidth="1"/>
+    <col min="7174" max="7174" width="12.625" style="1" customWidth="1"/>
+    <col min="7175" max="7175" width="11.875" style="1" customWidth="1"/>
+    <col min="7176" max="7176" width="9.625" style="1" customWidth="1"/>
     <col min="7177" max="7425" width="9" style="1"/>
     <col min="7426" max="7426" width="12" style="1" customWidth="1"/>
-    <col min="7427" max="7427" width="11.33203125" style="1" customWidth="1"/>
-    <col min="7428" max="7428" width="15.44140625" style="1" customWidth="1"/>
-    <col min="7429" max="7429" width="15.109375" style="1" customWidth="1"/>
-    <col min="7430" max="7430" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7431" max="7431" width="11.88671875" style="1" customWidth="1"/>
-    <col min="7432" max="7432" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7427" max="7427" width="11.375" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="15.5" style="1" customWidth="1"/>
+    <col min="7429" max="7429" width="15.125" style="1" customWidth="1"/>
+    <col min="7430" max="7430" width="12.625" style="1" customWidth="1"/>
+    <col min="7431" max="7431" width="11.875" style="1" customWidth="1"/>
+    <col min="7432" max="7432" width="9.625" style="1" customWidth="1"/>
     <col min="7433" max="7681" width="9" style="1"/>
     <col min="7682" max="7682" width="12" style="1" customWidth="1"/>
-    <col min="7683" max="7683" width="11.33203125" style="1" customWidth="1"/>
-    <col min="7684" max="7684" width="15.44140625" style="1" customWidth="1"/>
-    <col min="7685" max="7685" width="15.109375" style="1" customWidth="1"/>
-    <col min="7686" max="7686" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7687" max="7687" width="11.88671875" style="1" customWidth="1"/>
-    <col min="7688" max="7688" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7683" max="7683" width="11.375" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="15.5" style="1" customWidth="1"/>
+    <col min="7685" max="7685" width="15.125" style="1" customWidth="1"/>
+    <col min="7686" max="7686" width="12.625" style="1" customWidth="1"/>
+    <col min="7687" max="7687" width="11.875" style="1" customWidth="1"/>
+    <col min="7688" max="7688" width="9.625" style="1" customWidth="1"/>
     <col min="7689" max="7937" width="9" style="1"/>
     <col min="7938" max="7938" width="12" style="1" customWidth="1"/>
-    <col min="7939" max="7939" width="11.33203125" style="1" customWidth="1"/>
-    <col min="7940" max="7940" width="15.44140625" style="1" customWidth="1"/>
-    <col min="7941" max="7941" width="15.109375" style="1" customWidth="1"/>
-    <col min="7942" max="7942" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7943" max="7943" width="11.88671875" style="1" customWidth="1"/>
-    <col min="7944" max="7944" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7939" max="7939" width="11.375" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="15.5" style="1" customWidth="1"/>
+    <col min="7941" max="7941" width="15.125" style="1" customWidth="1"/>
+    <col min="7942" max="7942" width="12.625" style="1" customWidth="1"/>
+    <col min="7943" max="7943" width="11.875" style="1" customWidth="1"/>
+    <col min="7944" max="7944" width="9.625" style="1" customWidth="1"/>
     <col min="7945" max="8193" width="9" style="1"/>
     <col min="8194" max="8194" width="12" style="1" customWidth="1"/>
-    <col min="8195" max="8195" width="11.33203125" style="1" customWidth="1"/>
-    <col min="8196" max="8196" width="15.44140625" style="1" customWidth="1"/>
-    <col min="8197" max="8197" width="15.109375" style="1" customWidth="1"/>
-    <col min="8198" max="8198" width="12.6640625" style="1" customWidth="1"/>
-    <col min="8199" max="8199" width="11.88671875" style="1" customWidth="1"/>
-    <col min="8200" max="8200" width="9.6640625" style="1" customWidth="1"/>
+    <col min="8195" max="8195" width="11.375" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="15.5" style="1" customWidth="1"/>
+    <col min="8197" max="8197" width="15.125" style="1" customWidth="1"/>
+    <col min="8198" max="8198" width="12.625" style="1" customWidth="1"/>
+    <col min="8199" max="8199" width="11.875" style="1" customWidth="1"/>
+    <col min="8200" max="8200" width="9.625" style="1" customWidth="1"/>
     <col min="8201" max="8449" width="9" style="1"/>
     <col min="8450" max="8450" width="12" style="1" customWidth="1"/>
-    <col min="8451" max="8451" width="11.33203125" style="1" customWidth="1"/>
-    <col min="8452" max="8452" width="15.44140625" style="1" customWidth="1"/>
-    <col min="8453" max="8453" width="15.109375" style="1" customWidth="1"/>
-    <col min="8454" max="8454" width="12.6640625" style="1" customWidth="1"/>
-    <col min="8455" max="8455" width="11.88671875" style="1" customWidth="1"/>
-    <col min="8456" max="8456" width="9.6640625" style="1" customWidth="1"/>
+    <col min="8451" max="8451" width="11.375" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="15.5" style="1" customWidth="1"/>
+    <col min="8453" max="8453" width="15.125" style="1" customWidth="1"/>
+    <col min="8454" max="8454" width="12.625" style="1" customWidth="1"/>
+    <col min="8455" max="8455" width="11.875" style="1" customWidth="1"/>
+    <col min="8456" max="8456" width="9.625" style="1" customWidth="1"/>
     <col min="8457" max="8705" width="9" style="1"/>
     <col min="8706" max="8706" width="12" style="1" customWidth="1"/>
-    <col min="8707" max="8707" width="11.33203125" style="1" customWidth="1"/>
-    <col min="8708" max="8708" width="15.44140625" style="1" customWidth="1"/>
-    <col min="8709" max="8709" width="15.109375" style="1" customWidth="1"/>
-    <col min="8710" max="8710" width="12.6640625" style="1" customWidth="1"/>
-    <col min="8711" max="8711" width="11.88671875" style="1" customWidth="1"/>
-    <col min="8712" max="8712" width="9.6640625" style="1" customWidth="1"/>
+    <col min="8707" max="8707" width="11.375" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="15.5" style="1" customWidth="1"/>
+    <col min="8709" max="8709" width="15.125" style="1" customWidth="1"/>
+    <col min="8710" max="8710" width="12.625" style="1" customWidth="1"/>
+    <col min="8711" max="8711" width="11.875" style="1" customWidth="1"/>
+    <col min="8712" max="8712" width="9.625" style="1" customWidth="1"/>
     <col min="8713" max="8961" width="9" style="1"/>
     <col min="8962" max="8962" width="12" style="1" customWidth="1"/>
-    <col min="8963" max="8963" width="11.33203125" style="1" customWidth="1"/>
-    <col min="8964" max="8964" width="15.44140625" style="1" customWidth="1"/>
-    <col min="8965" max="8965" width="15.109375" style="1" customWidth="1"/>
-    <col min="8966" max="8966" width="12.6640625" style="1" customWidth="1"/>
-    <col min="8967" max="8967" width="11.88671875" style="1" customWidth="1"/>
-    <col min="8968" max="8968" width="9.6640625" style="1" customWidth="1"/>
+    <col min="8963" max="8963" width="11.375" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="15.5" style="1" customWidth="1"/>
+    <col min="8965" max="8965" width="15.125" style="1" customWidth="1"/>
+    <col min="8966" max="8966" width="12.625" style="1" customWidth="1"/>
+    <col min="8967" max="8967" width="11.875" style="1" customWidth="1"/>
+    <col min="8968" max="8968" width="9.625" style="1" customWidth="1"/>
     <col min="8969" max="9217" width="9" style="1"/>
     <col min="9218" max="9218" width="12" style="1" customWidth="1"/>
-    <col min="9219" max="9219" width="11.33203125" style="1" customWidth="1"/>
-    <col min="9220" max="9220" width="15.44140625" style="1" customWidth="1"/>
-    <col min="9221" max="9221" width="15.109375" style="1" customWidth="1"/>
-    <col min="9222" max="9222" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9223" max="9223" width="11.88671875" style="1" customWidth="1"/>
-    <col min="9224" max="9224" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9219" max="9219" width="11.375" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="15.5" style="1" customWidth="1"/>
+    <col min="9221" max="9221" width="15.125" style="1" customWidth="1"/>
+    <col min="9222" max="9222" width="12.625" style="1" customWidth="1"/>
+    <col min="9223" max="9223" width="11.875" style="1" customWidth="1"/>
+    <col min="9224" max="9224" width="9.625" style="1" customWidth="1"/>
     <col min="9225" max="9473" width="9" style="1"/>
     <col min="9474" max="9474" width="12" style="1" customWidth="1"/>
-    <col min="9475" max="9475" width="11.33203125" style="1" customWidth="1"/>
-    <col min="9476" max="9476" width="15.44140625" style="1" customWidth="1"/>
-    <col min="9477" max="9477" width="15.109375" style="1" customWidth="1"/>
-    <col min="9478" max="9478" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9479" max="9479" width="11.88671875" style="1" customWidth="1"/>
-    <col min="9480" max="9480" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9475" max="9475" width="11.375" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="15.5" style="1" customWidth="1"/>
+    <col min="9477" max="9477" width="15.125" style="1" customWidth="1"/>
+    <col min="9478" max="9478" width="12.625" style="1" customWidth="1"/>
+    <col min="9479" max="9479" width="11.875" style="1" customWidth="1"/>
+    <col min="9480" max="9480" width="9.625" style="1" customWidth="1"/>
     <col min="9481" max="9729" width="9" style="1"/>
     <col min="9730" max="9730" width="12" style="1" customWidth="1"/>
-    <col min="9731" max="9731" width="11.33203125" style="1" customWidth="1"/>
-    <col min="9732" max="9732" width="15.44140625" style="1" customWidth="1"/>
-    <col min="9733" max="9733" width="15.109375" style="1" customWidth="1"/>
-    <col min="9734" max="9734" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9735" max="9735" width="11.88671875" style="1" customWidth="1"/>
-    <col min="9736" max="9736" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9731" max="9731" width="11.375" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="15.5" style="1" customWidth="1"/>
+    <col min="9733" max="9733" width="15.125" style="1" customWidth="1"/>
+    <col min="9734" max="9734" width="12.625" style="1" customWidth="1"/>
+    <col min="9735" max="9735" width="11.875" style="1" customWidth="1"/>
+    <col min="9736" max="9736" width="9.625" style="1" customWidth="1"/>
     <col min="9737" max="9985" width="9" style="1"/>
     <col min="9986" max="9986" width="12" style="1" customWidth="1"/>
-    <col min="9987" max="9987" width="11.33203125" style="1" customWidth="1"/>
-    <col min="9988" max="9988" width="15.44140625" style="1" customWidth="1"/>
-    <col min="9989" max="9989" width="15.109375" style="1" customWidth="1"/>
-    <col min="9990" max="9990" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9991" max="9991" width="11.88671875" style="1" customWidth="1"/>
-    <col min="9992" max="9992" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9987" max="9987" width="11.375" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="15.5" style="1" customWidth="1"/>
+    <col min="9989" max="9989" width="15.125" style="1" customWidth="1"/>
+    <col min="9990" max="9990" width="12.625" style="1" customWidth="1"/>
+    <col min="9991" max="9991" width="11.875" style="1" customWidth="1"/>
+    <col min="9992" max="9992" width="9.625" style="1" customWidth="1"/>
     <col min="9993" max="10241" width="9" style="1"/>
     <col min="10242" max="10242" width="12" style="1" customWidth="1"/>
-    <col min="10243" max="10243" width="11.33203125" style="1" customWidth="1"/>
-    <col min="10244" max="10244" width="15.44140625" style="1" customWidth="1"/>
-    <col min="10245" max="10245" width="15.109375" style="1" customWidth="1"/>
-    <col min="10246" max="10246" width="12.6640625" style="1" customWidth="1"/>
-    <col min="10247" max="10247" width="11.88671875" style="1" customWidth="1"/>
-    <col min="10248" max="10248" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10243" max="10243" width="11.375" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="15.5" style="1" customWidth="1"/>
+    <col min="10245" max="10245" width="15.125" style="1" customWidth="1"/>
+    <col min="10246" max="10246" width="12.625" style="1" customWidth="1"/>
+    <col min="10247" max="10247" width="11.875" style="1" customWidth="1"/>
+    <col min="10248" max="10248" width="9.625" style="1" customWidth="1"/>
     <col min="10249" max="10497" width="9" style="1"/>
     <col min="10498" max="10498" width="12" style="1" customWidth="1"/>
-    <col min="10499" max="10499" width="11.33203125" style="1" customWidth="1"/>
-    <col min="10500" max="10500" width="15.44140625" style="1" customWidth="1"/>
-    <col min="10501" max="10501" width="15.109375" style="1" customWidth="1"/>
-    <col min="10502" max="10502" width="12.6640625" style="1" customWidth="1"/>
-    <col min="10503" max="10503" width="11.88671875" style="1" customWidth="1"/>
-    <col min="10504" max="10504" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10499" max="10499" width="11.375" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="15.5" style="1" customWidth="1"/>
+    <col min="10501" max="10501" width="15.125" style="1" customWidth="1"/>
+    <col min="10502" max="10502" width="12.625" style="1" customWidth="1"/>
+    <col min="10503" max="10503" width="11.875" style="1" customWidth="1"/>
+    <col min="10504" max="10504" width="9.625" style="1" customWidth="1"/>
     <col min="10505" max="10753" width="9" style="1"/>
     <col min="10754" max="10754" width="12" style="1" customWidth="1"/>
-    <col min="10755" max="10755" width="11.33203125" style="1" customWidth="1"/>
-    <col min="10756" max="10756" width="15.44140625" style="1" customWidth="1"/>
-    <col min="10757" max="10757" width="15.109375" style="1" customWidth="1"/>
-    <col min="10758" max="10758" width="12.6640625" style="1" customWidth="1"/>
-    <col min="10759" max="10759" width="11.88671875" style="1" customWidth="1"/>
-    <col min="10760" max="10760" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10755" max="10755" width="11.375" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="15.5" style="1" customWidth="1"/>
+    <col min="10757" max="10757" width="15.125" style="1" customWidth="1"/>
+    <col min="10758" max="10758" width="12.625" style="1" customWidth="1"/>
+    <col min="10759" max="10759" width="11.875" style="1" customWidth="1"/>
+    <col min="10760" max="10760" width="9.625" style="1" customWidth="1"/>
     <col min="10761" max="11009" width="9" style="1"/>
     <col min="11010" max="11010" width="12" style="1" customWidth="1"/>
-    <col min="11011" max="11011" width="11.33203125" style="1" customWidth="1"/>
-    <col min="11012" max="11012" width="15.44140625" style="1" customWidth="1"/>
-    <col min="11013" max="11013" width="15.109375" style="1" customWidth="1"/>
-    <col min="11014" max="11014" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11015" max="11015" width="11.88671875" style="1" customWidth="1"/>
-    <col min="11016" max="11016" width="9.6640625" style="1" customWidth="1"/>
+    <col min="11011" max="11011" width="11.375" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="15.5" style="1" customWidth="1"/>
+    <col min="11013" max="11013" width="15.125" style="1" customWidth="1"/>
+    <col min="11014" max="11014" width="12.625" style="1" customWidth="1"/>
+    <col min="11015" max="11015" width="11.875" style="1" customWidth="1"/>
+    <col min="11016" max="11016" width="9.625" style="1" customWidth="1"/>
     <col min="11017" max="11265" width="9" style="1"/>
     <col min="11266" max="11266" width="12" style="1" customWidth="1"/>
-    <col min="11267" max="11267" width="11.33203125" style="1" customWidth="1"/>
-    <col min="11268" max="11268" width="15.44140625" style="1" customWidth="1"/>
-    <col min="11269" max="11269" width="15.109375" style="1" customWidth="1"/>
-    <col min="11270" max="11270" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11271" max="11271" width="11.88671875" style="1" customWidth="1"/>
-    <col min="11272" max="11272" width="9.6640625" style="1" customWidth="1"/>
+    <col min="11267" max="11267" width="11.375" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="15.5" style="1" customWidth="1"/>
+    <col min="11269" max="11269" width="15.125" style="1" customWidth="1"/>
+    <col min="11270" max="11270" width="12.625" style="1" customWidth="1"/>
+    <col min="11271" max="11271" width="11.875" style="1" customWidth="1"/>
+    <col min="11272" max="11272" width="9.625" style="1" customWidth="1"/>
     <col min="11273" max="11521" width="9" style="1"/>
     <col min="11522" max="11522" width="12" style="1" customWidth="1"/>
-    <col min="11523" max="11523" width="11.33203125" style="1" customWidth="1"/>
-    <col min="11524" max="11524" width="15.44140625" style="1" customWidth="1"/>
-    <col min="11525" max="11525" width="15.109375" style="1" customWidth="1"/>
-    <col min="11526" max="11526" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11527" max="11527" width="11.88671875" style="1" customWidth="1"/>
-    <col min="11528" max="11528" width="9.6640625" style="1" customWidth="1"/>
+    <col min="11523" max="11523" width="11.375" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="15.5" style="1" customWidth="1"/>
+    <col min="11525" max="11525" width="15.125" style="1" customWidth="1"/>
+    <col min="11526" max="11526" width="12.625" style="1" customWidth="1"/>
+    <col min="11527" max="11527" width="11.875" style="1" customWidth="1"/>
+    <col min="11528" max="11528" width="9.625" style="1" customWidth="1"/>
     <col min="11529" max="11777" width="9" style="1"/>
     <col min="11778" max="11778" width="12" style="1" customWidth="1"/>
-    <col min="11779" max="11779" width="11.33203125" style="1" customWidth="1"/>
-    <col min="11780" max="11780" width="15.44140625" style="1" customWidth="1"/>
-    <col min="11781" max="11781" width="15.109375" style="1" customWidth="1"/>
-    <col min="11782" max="11782" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11783" max="11783" width="11.88671875" style="1" customWidth="1"/>
-    <col min="11784" max="11784" width="9.6640625" style="1" customWidth="1"/>
+    <col min="11779" max="11779" width="11.375" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="15.5" style="1" customWidth="1"/>
+    <col min="11781" max="11781" width="15.125" style="1" customWidth="1"/>
+    <col min="11782" max="11782" width="12.625" style="1" customWidth="1"/>
+    <col min="11783" max="11783" width="11.875" style="1" customWidth="1"/>
+    <col min="11784" max="11784" width="9.625" style="1" customWidth="1"/>
     <col min="11785" max="12033" width="9" style="1"/>
     <col min="12034" max="12034" width="12" style="1" customWidth="1"/>
-    <col min="12035" max="12035" width="11.33203125" style="1" customWidth="1"/>
-    <col min="12036" max="12036" width="15.44140625" style="1" customWidth="1"/>
-    <col min="12037" max="12037" width="15.109375" style="1" customWidth="1"/>
-    <col min="12038" max="12038" width="12.6640625" style="1" customWidth="1"/>
-    <col min="12039" max="12039" width="11.88671875" style="1" customWidth="1"/>
-    <col min="12040" max="12040" width="9.6640625" style="1" customWidth="1"/>
+    <col min="12035" max="12035" width="11.375" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="15.5" style="1" customWidth="1"/>
+    <col min="12037" max="12037" width="15.125" style="1" customWidth="1"/>
+    <col min="12038" max="12038" width="12.625" style="1" customWidth="1"/>
+    <col min="12039" max="12039" width="11.875" style="1" customWidth="1"/>
+    <col min="12040" max="12040" width="9.625" style="1" customWidth="1"/>
     <col min="12041" max="12289" width="9" style="1"/>
     <col min="12290" max="12290" width="12" style="1" customWidth="1"/>
-    <col min="12291" max="12291" width="11.33203125" style="1" customWidth="1"/>
-    <col min="12292" max="12292" width="15.44140625" style="1" customWidth="1"/>
-    <col min="12293" max="12293" width="15.109375" style="1" customWidth="1"/>
-    <col min="12294" max="12294" width="12.6640625" style="1" customWidth="1"/>
-    <col min="12295" max="12295" width="11.88671875" style="1" customWidth="1"/>
-    <col min="12296" max="12296" width="9.6640625" style="1" customWidth="1"/>
+    <col min="12291" max="12291" width="11.375" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="15.5" style="1" customWidth="1"/>
+    <col min="12293" max="12293" width="15.125" style="1" customWidth="1"/>
+    <col min="12294" max="12294" width="12.625" style="1" customWidth="1"/>
+    <col min="12295" max="12295" width="11.875" style="1" customWidth="1"/>
+    <col min="12296" max="12296" width="9.625" style="1" customWidth="1"/>
     <col min="12297" max="12545" width="9" style="1"/>
     <col min="12546" max="12546" width="12" style="1" customWidth="1"/>
-    <col min="12547" max="12547" width="11.33203125" style="1" customWidth="1"/>
-    <col min="12548" max="12548" width="15.44140625" style="1" customWidth="1"/>
-    <col min="12549" max="12549" width="15.109375" style="1" customWidth="1"/>
-    <col min="12550" max="12550" width="12.6640625" style="1" customWidth="1"/>
-    <col min="12551" max="12551" width="11.88671875" style="1" customWidth="1"/>
-    <col min="12552" max="12552" width="9.6640625" style="1" customWidth="1"/>
+    <col min="12547" max="12547" width="11.375" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="15.5" style="1" customWidth="1"/>
+    <col min="12549" max="12549" width="15.125" style="1" customWidth="1"/>
+    <col min="12550" max="12550" width="12.625" style="1" customWidth="1"/>
+    <col min="12551" max="12551" width="11.875" style="1" customWidth="1"/>
+    <col min="12552" max="12552" width="9.625" style="1" customWidth="1"/>
     <col min="12553" max="12801" width="9" style="1"/>
     <col min="12802" max="12802" width="12" style="1" customWidth="1"/>
-    <col min="12803" max="12803" width="11.33203125" style="1" customWidth="1"/>
-    <col min="12804" max="12804" width="15.44140625" style="1" customWidth="1"/>
-    <col min="12805" max="12805" width="15.109375" style="1" customWidth="1"/>
-    <col min="12806" max="12806" width="12.6640625" style="1" customWidth="1"/>
-    <col min="12807" max="12807" width="11.88671875" style="1" customWidth="1"/>
-    <col min="12808" max="12808" width="9.6640625" style="1" customWidth="1"/>
+    <col min="12803" max="12803" width="11.375" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="15.5" style="1" customWidth="1"/>
+    <col min="12805" max="12805" width="15.125" style="1" customWidth="1"/>
+    <col min="12806" max="12806" width="12.625" style="1" customWidth="1"/>
+    <col min="12807" max="12807" width="11.875" style="1" customWidth="1"/>
+    <col min="12808" max="12808" width="9.625" style="1" customWidth="1"/>
     <col min="12809" max="13057" width="9" style="1"/>
     <col min="13058" max="13058" width="12" style="1" customWidth="1"/>
-    <col min="13059" max="13059" width="11.33203125" style="1" customWidth="1"/>
-    <col min="13060" max="13060" width="15.44140625" style="1" customWidth="1"/>
-    <col min="13061" max="13061" width="15.109375" style="1" customWidth="1"/>
-    <col min="13062" max="13062" width="12.6640625" style="1" customWidth="1"/>
-    <col min="13063" max="13063" width="11.88671875" style="1" customWidth="1"/>
-    <col min="13064" max="13064" width="9.6640625" style="1" customWidth="1"/>
+    <col min="13059" max="13059" width="11.375" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="15.5" style="1" customWidth="1"/>
+    <col min="13061" max="13061" width="15.125" style="1" customWidth="1"/>
+    <col min="13062" max="13062" width="12.625" style="1" customWidth="1"/>
+    <col min="13063" max="13063" width="11.875" style="1" customWidth="1"/>
+    <col min="13064" max="13064" width="9.625" style="1" customWidth="1"/>
     <col min="13065" max="13313" width="9" style="1"/>
     <col min="13314" max="13314" width="12" style="1" customWidth="1"/>
-    <col min="13315" max="13315" width="11.33203125" style="1" customWidth="1"/>
-    <col min="13316" max="13316" width="15.44140625" style="1" customWidth="1"/>
-    <col min="13317" max="13317" width="15.109375" style="1" customWidth="1"/>
-    <col min="13318" max="13318" width="12.6640625" style="1" customWidth="1"/>
-    <col min="13319" max="13319" width="11.88671875" style="1" customWidth="1"/>
-    <col min="13320" max="13320" width="9.6640625" style="1" customWidth="1"/>
+    <col min="13315" max="13315" width="11.375" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="15.5" style="1" customWidth="1"/>
+    <col min="13317" max="13317" width="15.125" style="1" customWidth="1"/>
+    <col min="13318" max="13318" width="12.625" style="1" customWidth="1"/>
+    <col min="13319" max="13319" width="11.875" style="1" customWidth="1"/>
+    <col min="13320" max="13320" width="9.625" style="1" customWidth="1"/>
     <col min="13321" max="13569" width="9" style="1"/>
     <col min="13570" max="13570" width="12" style="1" customWidth="1"/>
-    <col min="13571" max="13571" width="11.33203125" style="1" customWidth="1"/>
-    <col min="13572" max="13572" width="15.44140625" style="1" customWidth="1"/>
-    <col min="13573" max="13573" width="15.109375" style="1" customWidth="1"/>
-    <col min="13574" max="13574" width="12.6640625" style="1" customWidth="1"/>
-    <col min="13575" max="13575" width="11.88671875" style="1" customWidth="1"/>
-    <col min="13576" max="13576" width="9.6640625" style="1" customWidth="1"/>
+    <col min="13571" max="13571" width="11.375" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="15.5" style="1" customWidth="1"/>
+    <col min="13573" max="13573" width="15.125" style="1" customWidth="1"/>
+    <col min="13574" max="13574" width="12.625" style="1" customWidth="1"/>
+    <col min="13575" max="13575" width="11.875" style="1" customWidth="1"/>
+    <col min="13576" max="13576" width="9.625" style="1" customWidth="1"/>
     <col min="13577" max="13825" width="9" style="1"/>
     <col min="13826" max="13826" width="12" style="1" customWidth="1"/>
-    <col min="13827" max="13827" width="11.33203125" style="1" customWidth="1"/>
-    <col min="13828" max="13828" width="15.44140625" style="1" customWidth="1"/>
-    <col min="13829" max="13829" width="15.109375" style="1" customWidth="1"/>
-    <col min="13830" max="13830" width="12.6640625" style="1" customWidth="1"/>
-    <col min="13831" max="13831" width="11.88671875" style="1" customWidth="1"/>
-    <col min="13832" max="13832" width="9.6640625" style="1" customWidth="1"/>
+    <col min="13827" max="13827" width="11.375" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="15.5" style="1" customWidth="1"/>
+    <col min="13829" max="13829" width="15.125" style="1" customWidth="1"/>
+    <col min="13830" max="13830" width="12.625" style="1" customWidth="1"/>
+    <col min="13831" max="13831" width="11.875" style="1" customWidth="1"/>
+    <col min="13832" max="13832" width="9.625" style="1" customWidth="1"/>
     <col min="13833" max="14081" width="9" style="1"/>
     <col min="14082" max="14082" width="12" style="1" customWidth="1"/>
-    <col min="14083" max="14083" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14084" max="14084" width="15.44140625" style="1" customWidth="1"/>
-    <col min="14085" max="14085" width="15.109375" style="1" customWidth="1"/>
-    <col min="14086" max="14086" width="12.6640625" style="1" customWidth="1"/>
-    <col min="14087" max="14087" width="11.88671875" style="1" customWidth="1"/>
-    <col min="14088" max="14088" width="9.6640625" style="1" customWidth="1"/>
+    <col min="14083" max="14083" width="11.375" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="15.5" style="1" customWidth="1"/>
+    <col min="14085" max="14085" width="15.125" style="1" customWidth="1"/>
+    <col min="14086" max="14086" width="12.625" style="1" customWidth="1"/>
+    <col min="14087" max="14087" width="11.875" style="1" customWidth="1"/>
+    <col min="14088" max="14088" width="9.625" style="1" customWidth="1"/>
     <col min="14089" max="14337" width="9" style="1"/>
     <col min="14338" max="14338" width="12" style="1" customWidth="1"/>
-    <col min="14339" max="14339" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14340" max="14340" width="15.44140625" style="1" customWidth="1"/>
-    <col min="14341" max="14341" width="15.109375" style="1" customWidth="1"/>
-    <col min="14342" max="14342" width="12.6640625" style="1" customWidth="1"/>
-    <col min="14343" max="14343" width="11.88671875" style="1" customWidth="1"/>
-    <col min="14344" max="14344" width="9.6640625" style="1" customWidth="1"/>
+    <col min="14339" max="14339" width="11.375" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="15.5" style="1" customWidth="1"/>
+    <col min="14341" max="14341" width="15.125" style="1" customWidth="1"/>
+    <col min="14342" max="14342" width="12.625" style="1" customWidth="1"/>
+    <col min="14343" max="14343" width="11.875" style="1" customWidth="1"/>
+    <col min="14344" max="14344" width="9.625" style="1" customWidth="1"/>
     <col min="14345" max="14593" width="9" style="1"/>
     <col min="14594" max="14594" width="12" style="1" customWidth="1"/>
-    <col min="14595" max="14595" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14596" max="14596" width="15.44140625" style="1" customWidth="1"/>
-    <col min="14597" max="14597" width="15.109375" style="1" customWidth="1"/>
-    <col min="14598" max="14598" width="12.6640625" style="1" customWidth="1"/>
-    <col min="14599" max="14599" width="11.88671875" style="1" customWidth="1"/>
-    <col min="14600" max="14600" width="9.6640625" style="1" customWidth="1"/>
+    <col min="14595" max="14595" width="11.375" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="15.5" style="1" customWidth="1"/>
+    <col min="14597" max="14597" width="15.125" style="1" customWidth="1"/>
+    <col min="14598" max="14598" width="12.625" style="1" customWidth="1"/>
+    <col min="14599" max="14599" width="11.875" style="1" customWidth="1"/>
+    <col min="14600" max="14600" width="9.625" style="1" customWidth="1"/>
     <col min="14601" max="14849" width="9" style="1"/>
     <col min="14850" max="14850" width="12" style="1" customWidth="1"/>
-    <col min="14851" max="14851" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14852" max="14852" width="15.44140625" style="1" customWidth="1"/>
-    <col min="14853" max="14853" width="15.109375" style="1" customWidth="1"/>
-    <col min="14854" max="14854" width="12.6640625" style="1" customWidth="1"/>
-    <col min="14855" max="14855" width="11.88671875" style="1" customWidth="1"/>
-    <col min="14856" max="14856" width="9.6640625" style="1" customWidth="1"/>
+    <col min="14851" max="14851" width="11.375" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="15.5" style="1" customWidth="1"/>
+    <col min="14853" max="14853" width="15.125" style="1" customWidth="1"/>
+    <col min="14854" max="14854" width="12.625" style="1" customWidth="1"/>
+    <col min="14855" max="14855" width="11.875" style="1" customWidth="1"/>
+    <col min="14856" max="14856" width="9.625" style="1" customWidth="1"/>
     <col min="14857" max="15105" width="9" style="1"/>
     <col min="15106" max="15106" width="12" style="1" customWidth="1"/>
-    <col min="15107" max="15107" width="11.33203125" style="1" customWidth="1"/>
-    <col min="15108" max="15108" width="15.44140625" style="1" customWidth="1"/>
-    <col min="15109" max="15109" width="15.109375" style="1" customWidth="1"/>
-    <col min="15110" max="15110" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15111" max="15111" width="11.88671875" style="1" customWidth="1"/>
-    <col min="15112" max="15112" width="9.6640625" style="1" customWidth="1"/>
+    <col min="15107" max="15107" width="11.375" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="15.5" style="1" customWidth="1"/>
+    <col min="15109" max="15109" width="15.125" style="1" customWidth="1"/>
+    <col min="15110" max="15110" width="12.625" style="1" customWidth="1"/>
+    <col min="15111" max="15111" width="11.875" style="1" customWidth="1"/>
+    <col min="15112" max="15112" width="9.625" style="1" customWidth="1"/>
     <col min="15113" max="15361" width="9" style="1"/>
     <col min="15362" max="15362" width="12" style="1" customWidth="1"/>
-    <col min="15363" max="15363" width="11.33203125" style="1" customWidth="1"/>
-    <col min="15364" max="15364" width="15.44140625" style="1" customWidth="1"/>
-    <col min="15365" max="15365" width="15.109375" style="1" customWidth="1"/>
-    <col min="15366" max="15366" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15367" max="15367" width="11.88671875" style="1" customWidth="1"/>
-    <col min="15368" max="15368" width="9.6640625" style="1" customWidth="1"/>
+    <col min="15363" max="15363" width="11.375" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="15.5" style="1" customWidth="1"/>
+    <col min="15365" max="15365" width="15.125" style="1" customWidth="1"/>
+    <col min="15366" max="15366" width="12.625" style="1" customWidth="1"/>
+    <col min="15367" max="15367" width="11.875" style="1" customWidth="1"/>
+    <col min="15368" max="15368" width="9.625" style="1" customWidth="1"/>
     <col min="15369" max="15617" width="9" style="1"/>
     <col min="15618" max="15618" width="12" style="1" customWidth="1"/>
-    <col min="15619" max="15619" width="11.33203125" style="1" customWidth="1"/>
-    <col min="15620" max="15620" width="15.44140625" style="1" customWidth="1"/>
-    <col min="15621" max="15621" width="15.109375" style="1" customWidth="1"/>
-    <col min="15622" max="15622" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15623" max="15623" width="11.88671875" style="1" customWidth="1"/>
-    <col min="15624" max="15624" width="9.6640625" style="1" customWidth="1"/>
+    <col min="15619" max="15619" width="11.375" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="15.5" style="1" customWidth="1"/>
+    <col min="15621" max="15621" width="15.125" style="1" customWidth="1"/>
+    <col min="15622" max="15622" width="12.625" style="1" customWidth="1"/>
+    <col min="15623" max="15623" width="11.875" style="1" customWidth="1"/>
+    <col min="15624" max="15624" width="9.625" style="1" customWidth="1"/>
     <col min="15625" max="15873" width="9" style="1"/>
     <col min="15874" max="15874" width="12" style="1" customWidth="1"/>
-    <col min="15875" max="15875" width="11.33203125" style="1" customWidth="1"/>
-    <col min="15876" max="15876" width="15.44140625" style="1" customWidth="1"/>
-    <col min="15877" max="15877" width="15.109375" style="1" customWidth="1"/>
-    <col min="15878" max="15878" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15879" max="15879" width="11.88671875" style="1" customWidth="1"/>
-    <col min="15880" max="15880" width="9.6640625" style="1" customWidth="1"/>
+    <col min="15875" max="15875" width="11.375" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="15.5" style="1" customWidth="1"/>
+    <col min="15877" max="15877" width="15.125" style="1" customWidth="1"/>
+    <col min="15878" max="15878" width="12.625" style="1" customWidth="1"/>
+    <col min="15879" max="15879" width="11.875" style="1" customWidth="1"/>
+    <col min="15880" max="15880" width="9.625" style="1" customWidth="1"/>
     <col min="15881" max="16129" width="9" style="1"/>
     <col min="16130" max="16130" width="12" style="1" customWidth="1"/>
-    <col min="16131" max="16131" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16132" max="16132" width="15.44140625" style="1" customWidth="1"/>
-    <col min="16133" max="16133" width="15.109375" style="1" customWidth="1"/>
-    <col min="16134" max="16134" width="12.6640625" style="1" customWidth="1"/>
-    <col min="16135" max="16135" width="11.88671875" style="1" customWidth="1"/>
-    <col min="16136" max="16136" width="9.6640625" style="1" customWidth="1"/>
+    <col min="16131" max="16131" width="11.375" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="15.5" style="1" customWidth="1"/>
+    <col min="16133" max="16133" width="15.125" style="1" customWidth="1"/>
+    <col min="16134" max="16134" width="12.625" style="1" customWidth="1"/>
+    <col min="16135" max="16135" width="11.875" style="1" customWidth="1"/>
+    <col min="16136" max="16136" width="9.625" style="1" customWidth="1"/>
     <col min="16137" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="28.5" customHeight="1">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="167" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-    </row>
-    <row r="2" spans="2:8" ht="16.649999999999999" customHeight="1">
-      <c r="B2" s="175" t="s">
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+    </row>
+    <row r="2" spans="2:8" ht="16.7" customHeight="1">
+      <c r="B2" s="151" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="177" t="s">
+      <c r="C2" s="153" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="177" t="s">
+      <c r="D2" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177" t="s">
+      <c r="E2" s="153"/>
+      <c r="F2" s="153" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="177"/>
-      <c r="H2" s="179" t="s">
+      <c r="G2" s="153"/>
+      <c r="H2" s="155" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="16.649999999999999" customHeight="1">
-      <c r="B3" s="176"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
+    <row r="3" spans="2:8" ht="16.7" customHeight="1">
+      <c r="B3" s="152"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
       <c r="F3" s="36" t="s">
         <v>133</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="180"/>
+      <c r="H3" s="156"/>
     </row>
     <row r="4" spans="2:8" ht="23.25" customHeight="1">
       <c r="B4" s="39"/>
       <c r="C4" s="40"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="170"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="159"/>
       <c r="F4" s="21" t="s">
         <v>134</v>
       </c>
@@ -4544,8 +4555,8 @@
     <row r="5" spans="2:8" ht="23.25" customHeight="1">
       <c r="B5" s="43"/>
       <c r="C5" s="44"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="172"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="161"/>
       <c r="F5" s="45"/>
       <c r="G5" s="45"/>
       <c r="H5" s="46"/>
@@ -4553,8 +4564,8 @@
     <row r="6" spans="2:8" ht="23.25" customHeight="1">
       <c r="B6" s="43"/>
       <c r="C6" s="44"/>
-      <c r="D6" s="173"/>
-      <c r="E6" s="174"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="163"/>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
       <c r="H6" s="48"/>
@@ -4562,8 +4573,8 @@
     <row r="7" spans="2:8" ht="23.25" customHeight="1">
       <c r="B7" s="43"/>
       <c r="C7" s="49"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
       <c r="F7" s="45"/>
       <c r="G7" s="45"/>
       <c r="H7" s="50"/>
@@ -4571,8 +4582,8 @@
     <row r="8" spans="2:8" ht="23.25" customHeight="1">
       <c r="B8" s="43"/>
       <c r="C8" s="49"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="164"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
       <c r="F8" s="45"/>
       <c r="G8" s="45"/>
       <c r="H8" s="50"/>
@@ -4580,8 +4591,8 @@
     <row r="9" spans="2:8" ht="23.25" customHeight="1">
       <c r="B9" s="43"/>
       <c r="C9" s="49"/>
-      <c r="D9" s="164"/>
-      <c r="E9" s="164"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="45"/>
       <c r="G9" s="45"/>
       <c r="H9" s="50"/>
@@ -4589,8 +4600,8 @@
     <row r="10" spans="2:8" ht="23.25" customHeight="1">
       <c r="B10" s="43"/>
       <c r="C10" s="49"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="157"/>
       <c r="F10" s="45"/>
       <c r="G10" s="45"/>
       <c r="H10" s="50"/>
@@ -4598,8 +4609,8 @@
     <row r="11" spans="2:8" ht="23.25" customHeight="1">
       <c r="B11" s="43"/>
       <c r="C11" s="49"/>
-      <c r="D11" s="164"/>
-      <c r="E11" s="164"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="157"/>
       <c r="F11" s="45"/>
       <c r="G11" s="45"/>
       <c r="H11" s="50"/>
@@ -4607,8 +4618,8 @@
     <row r="12" spans="2:8" ht="23.25" customHeight="1">
       <c r="B12" s="43"/>
       <c r="C12" s="49"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="164"/>
+      <c r="D12" s="157"/>
+      <c r="E12" s="157"/>
       <c r="F12" s="45"/>
       <c r="G12" s="45"/>
       <c r="H12" s="50"/>
@@ -4616,8 +4627,8 @@
     <row r="13" spans="2:8" ht="23.25" customHeight="1">
       <c r="B13" s="43"/>
       <c r="C13" s="49"/>
-      <c r="D13" s="164"/>
-      <c r="E13" s="164"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="157"/>
       <c r="F13" s="45"/>
       <c r="G13" s="45"/>
       <c r="H13" s="50"/>
@@ -4625,8 +4636,8 @@
     <row r="14" spans="2:8" ht="23.25" customHeight="1">
       <c r="B14" s="43"/>
       <c r="C14" s="49"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="164"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="157"/>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
       <c r="H14" s="50"/>
@@ -4634,8 +4645,8 @@
     <row r="15" spans="2:8" ht="23.25" customHeight="1">
       <c r="B15" s="43"/>
       <c r="C15" s="49"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="164"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="157"/>
       <c r="F15" s="45"/>
       <c r="G15" s="45"/>
       <c r="H15" s="50"/>
@@ -4643,8 +4654,8 @@
     <row r="16" spans="2:8" ht="23.25" customHeight="1">
       <c r="B16" s="43"/>
       <c r="C16" s="49"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="164"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
       <c r="F16" s="45"/>
       <c r="G16" s="45"/>
       <c r="H16" s="50"/>
@@ -4652,8 +4663,8 @@
     <row r="17" spans="2:8" ht="23.25" customHeight="1">
       <c r="B17" s="43"/>
       <c r="C17" s="49"/>
-      <c r="D17" s="164"/>
-      <c r="E17" s="164"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="157"/>
       <c r="F17" s="45"/>
       <c r="G17" s="45"/>
       <c r="H17" s="50"/>
@@ -4661,8 +4672,8 @@
     <row r="18" spans="2:8" ht="23.25" customHeight="1">
       <c r="B18" s="43"/>
       <c r="C18" s="49"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="164"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="157"/>
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="50"/>
@@ -4670,8 +4681,8 @@
     <row r="19" spans="2:8" ht="23.25" customHeight="1">
       <c r="B19" s="43"/>
       <c r="C19" s="49"/>
-      <c r="D19" s="164"/>
-      <c r="E19" s="164"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="50"/>
@@ -4679,8 +4690,8 @@
     <row r="20" spans="2:8" ht="23.25" customHeight="1">
       <c r="B20" s="43"/>
       <c r="C20" s="49"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="164"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="157"/>
       <c r="F20" s="45"/>
       <c r="G20" s="45"/>
       <c r="H20" s="50"/>
@@ -4688,8 +4699,8 @@
     <row r="21" spans="2:8" ht="23.25" customHeight="1">
       <c r="B21" s="43"/>
       <c r="C21" s="49"/>
-      <c r="D21" s="164"/>
-      <c r="E21" s="164"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
       <c r="F21" s="45"/>
       <c r="G21" s="45"/>
       <c r="H21" s="50"/>
@@ -4697,8 +4708,8 @@
     <row r="22" spans="2:8" ht="23.25" customHeight="1">
       <c r="B22" s="43"/>
       <c r="C22" s="49"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="164"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="157"/>
       <c r="F22" s="45"/>
       <c r="G22" s="45"/>
       <c r="H22" s="50"/>
@@ -4706,8 +4717,8 @@
     <row r="23" spans="2:8" ht="23.25" customHeight="1">
       <c r="B23" s="43"/>
       <c r="C23" s="49"/>
-      <c r="D23" s="164"/>
-      <c r="E23" s="164"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="157"/>
       <c r="F23" s="45"/>
       <c r="G23" s="45"/>
       <c r="H23" s="50"/>
@@ -4715,8 +4726,8 @@
     <row r="24" spans="2:8" ht="23.25" customHeight="1">
       <c r="B24" s="43"/>
       <c r="C24" s="49"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="164"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
       <c r="F24" s="45"/>
       <c r="G24" s="45"/>
       <c r="H24" s="50"/>
@@ -4724,8 +4735,8 @@
     <row r="25" spans="2:8" ht="23.25" customHeight="1">
       <c r="B25" s="43"/>
       <c r="C25" s="49"/>
-      <c r="D25" s="164"/>
-      <c r="E25" s="164"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="157"/>
       <c r="F25" s="45"/>
       <c r="G25" s="45"/>
       <c r="H25" s="50"/>
@@ -4733,8 +4744,8 @@
     <row r="26" spans="2:8" ht="23.25" customHeight="1">
       <c r="B26" s="43"/>
       <c r="C26" s="49"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="164"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="157"/>
       <c r="F26" s="45"/>
       <c r="G26" s="45"/>
       <c r="H26" s="50"/>
@@ -4742,8 +4753,8 @@
     <row r="27" spans="2:8" ht="23.25" customHeight="1">
       <c r="B27" s="43"/>
       <c r="C27" s="49"/>
-      <c r="D27" s="164"/>
-      <c r="E27" s="164"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="157"/>
       <c r="F27" s="45"/>
       <c r="G27" s="45"/>
       <c r="H27" s="50"/>
@@ -4751,8 +4762,8 @@
     <row r="28" spans="2:8" ht="23.25" customHeight="1">
       <c r="B28" s="43"/>
       <c r="C28" s="49"/>
-      <c r="D28" s="164"/>
-      <c r="E28" s="164"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="157"/>
       <c r="F28" s="45"/>
       <c r="G28" s="45"/>
       <c r="H28" s="50"/>
@@ -4760,8 +4771,8 @@
     <row r="29" spans="2:8" ht="23.25" customHeight="1">
       <c r="B29" s="43"/>
       <c r="C29" s="49"/>
-      <c r="D29" s="164"/>
-      <c r="E29" s="164"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="157"/>
       <c r="F29" s="45"/>
       <c r="G29" s="45"/>
       <c r="H29" s="50"/>
@@ -4769,8 +4780,8 @@
     <row r="30" spans="2:8" ht="23.25" customHeight="1">
       <c r="B30" s="43"/>
       <c r="C30" s="49"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="157"/>
       <c r="F30" s="45"/>
       <c r="G30" s="45"/>
       <c r="H30" s="50"/>
@@ -4778,8 +4789,8 @@
     <row r="31" spans="2:8" ht="23.25" customHeight="1">
       <c r="B31" s="43"/>
       <c r="C31" s="49"/>
-      <c r="D31" s="164"/>
-      <c r="E31" s="164"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
       <c r="F31" s="45"/>
       <c r="G31" s="45"/>
       <c r="H31" s="50"/>
@@ -4787,8 +4798,8 @@
     <row r="32" spans="2:8" ht="23.25" customHeight="1">
       <c r="B32" s="43"/>
       <c r="C32" s="49"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="164"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="157"/>
       <c r="F32" s="45"/>
       <c r="G32" s="45"/>
       <c r="H32" s="50"/>
@@ -4796,8 +4807,8 @@
     <row r="33" spans="2:8" ht="23.25" customHeight="1">
       <c r="B33" s="43"/>
       <c r="C33" s="49"/>
-      <c r="D33" s="164"/>
-      <c r="E33" s="164"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="157"/>
       <c r="F33" s="45"/>
       <c r="G33" s="45"/>
       <c r="H33" s="50"/>
@@ -4805,19 +4816,19 @@
     <row r="34" spans="2:8" ht="23.25" customHeight="1">
       <c r="B34" s="51"/>
       <c r="C34" s="52"/>
-      <c r="D34" s="165"/>
-      <c r="E34" s="165"/>
+      <c r="D34" s="164"/>
+      <c r="E34" s="164"/>
       <c r="F34" s="53"/>
       <c r="G34" s="53"/>
       <c r="H34" s="54"/>
     </row>
     <row r="35" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B35" s="166" t="s">
+      <c r="B35" s="165" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
-      <c r="E35" s="167"/>
+      <c r="C35" s="166"/>
+      <c r="D35" s="166"/>
+      <c r="E35" s="166"/>
       <c r="F35" s="13">
         <f>SUM(F4:F34)</f>
         <v>0</v>
@@ -4831,28 +4842,6 @@
     <row r="36" spans="2:8" ht="6.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B35:E35"/>
@@ -4869,10 +4858,32 @@
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.43307086614173229" bottom="0.98425196850393704" header="0.23622047244094491" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;R&amp;10松下电器軟件开发（大連）有限公司</oddFooter>
   </headerFooter>
@@ -4888,1465 +4899,1465 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="19.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="19.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.75" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4" style="2" customWidth="1"/>
     <col min="12" max="35" width="9" style="2" customWidth="1"/>
     <col min="36" max="235" width="9" style="2"/>
-    <col min="236" max="236" width="1.6640625" style="2" customWidth="1"/>
-    <col min="237" max="237" width="1.77734375" style="2" customWidth="1"/>
-    <col min="238" max="238" width="7.33203125" style="2" customWidth="1"/>
-    <col min="239" max="239" width="4.109375" style="2" customWidth="1"/>
-    <col min="240" max="240" width="2.33203125" style="2" customWidth="1"/>
+    <col min="236" max="236" width="1.625" style="2" customWidth="1"/>
+    <col min="237" max="237" width="1.75" style="2" customWidth="1"/>
+    <col min="238" max="238" width="7.375" style="2" customWidth="1"/>
+    <col min="239" max="239" width="4.125" style="2" customWidth="1"/>
+    <col min="240" max="240" width="2.375" style="2" customWidth="1"/>
     <col min="241" max="241" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="242" max="242" width="2.109375" style="2" customWidth="1"/>
-    <col min="243" max="243" width="2.6640625" style="2" customWidth="1"/>
+    <col min="242" max="242" width="2.125" style="2" customWidth="1"/>
+    <col min="243" max="243" width="2.625" style="2" customWidth="1"/>
     <col min="244" max="244" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="245" max="245" width="9.21875" style="2" customWidth="1"/>
-    <col min="246" max="246" width="12.21875" style="2" customWidth="1"/>
-    <col min="247" max="247" width="9.109375" style="2" customWidth="1"/>
-    <col min="248" max="248" width="3.109375" style="2" customWidth="1"/>
-    <col min="249" max="249" width="5.6640625" style="2" customWidth="1"/>
-    <col min="250" max="250" width="6.44140625" style="2" customWidth="1"/>
+    <col min="245" max="245" width="9.25" style="2" customWidth="1"/>
+    <col min="246" max="246" width="12.25" style="2" customWidth="1"/>
+    <col min="247" max="247" width="9.125" style="2" customWidth="1"/>
+    <col min="248" max="248" width="3.125" style="2" customWidth="1"/>
+    <col min="249" max="249" width="5.625" style="2" customWidth="1"/>
+    <col min="250" max="250" width="6.5" style="2" customWidth="1"/>
     <col min="251" max="251" width="1" style="2" customWidth="1"/>
     <col min="252" max="252" width="3" style="2" customWidth="1"/>
-    <col min="253" max="253" width="7.109375" style="2" customWidth="1"/>
-    <col min="254" max="254" width="2.77734375" style="2" customWidth="1"/>
-    <col min="255" max="255" width="8.6640625" style="2" customWidth="1"/>
+    <col min="253" max="253" width="7.125" style="2" customWidth="1"/>
+    <col min="254" max="254" width="2.75" style="2" customWidth="1"/>
+    <col min="255" max="255" width="8.625" style="2" customWidth="1"/>
     <col min="256" max="266" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="267" max="291" width="9" style="2" customWidth="1"/>
     <col min="292" max="491" width="9" style="2"/>
-    <col min="492" max="492" width="1.6640625" style="2" customWidth="1"/>
-    <col min="493" max="493" width="1.77734375" style="2" customWidth="1"/>
-    <col min="494" max="494" width="7.33203125" style="2" customWidth="1"/>
-    <col min="495" max="495" width="4.109375" style="2" customWidth="1"/>
-    <col min="496" max="496" width="2.33203125" style="2" customWidth="1"/>
+    <col min="492" max="492" width="1.625" style="2" customWidth="1"/>
+    <col min="493" max="493" width="1.75" style="2" customWidth="1"/>
+    <col min="494" max="494" width="7.375" style="2" customWidth="1"/>
+    <col min="495" max="495" width="4.125" style="2" customWidth="1"/>
+    <col min="496" max="496" width="2.375" style="2" customWidth="1"/>
     <col min="497" max="497" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="498" max="498" width="2.109375" style="2" customWidth="1"/>
-    <col min="499" max="499" width="2.6640625" style="2" customWidth="1"/>
+    <col min="498" max="498" width="2.125" style="2" customWidth="1"/>
+    <col min="499" max="499" width="2.625" style="2" customWidth="1"/>
     <col min="500" max="500" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="501" max="501" width="9.21875" style="2" customWidth="1"/>
-    <col min="502" max="502" width="12.21875" style="2" customWidth="1"/>
-    <col min="503" max="503" width="9.109375" style="2" customWidth="1"/>
-    <col min="504" max="504" width="3.109375" style="2" customWidth="1"/>
-    <col min="505" max="505" width="5.6640625" style="2" customWidth="1"/>
-    <col min="506" max="506" width="6.44140625" style="2" customWidth="1"/>
+    <col min="501" max="501" width="9.25" style="2" customWidth="1"/>
+    <col min="502" max="502" width="12.25" style="2" customWidth="1"/>
+    <col min="503" max="503" width="9.125" style="2" customWidth="1"/>
+    <col min="504" max="504" width="3.125" style="2" customWidth="1"/>
+    <col min="505" max="505" width="5.625" style="2" customWidth="1"/>
+    <col min="506" max="506" width="6.5" style="2" customWidth="1"/>
     <col min="507" max="507" width="1" style="2" customWidth="1"/>
     <col min="508" max="508" width="3" style="2" customWidth="1"/>
-    <col min="509" max="509" width="7.109375" style="2" customWidth="1"/>
-    <col min="510" max="510" width="2.77734375" style="2" customWidth="1"/>
-    <col min="511" max="511" width="8.6640625" style="2" customWidth="1"/>
+    <col min="509" max="509" width="7.125" style="2" customWidth="1"/>
+    <col min="510" max="510" width="2.75" style="2" customWidth="1"/>
+    <col min="511" max="511" width="8.625" style="2" customWidth="1"/>
     <col min="512" max="522" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="523" max="547" width="9" style="2" customWidth="1"/>
     <col min="548" max="747" width="9" style="2"/>
-    <col min="748" max="748" width="1.6640625" style="2" customWidth="1"/>
-    <col min="749" max="749" width="1.77734375" style="2" customWidth="1"/>
-    <col min="750" max="750" width="7.33203125" style="2" customWidth="1"/>
-    <col min="751" max="751" width="4.109375" style="2" customWidth="1"/>
-    <col min="752" max="752" width="2.33203125" style="2" customWidth="1"/>
+    <col min="748" max="748" width="1.625" style="2" customWidth="1"/>
+    <col min="749" max="749" width="1.75" style="2" customWidth="1"/>
+    <col min="750" max="750" width="7.375" style="2" customWidth="1"/>
+    <col min="751" max="751" width="4.125" style="2" customWidth="1"/>
+    <col min="752" max="752" width="2.375" style="2" customWidth="1"/>
     <col min="753" max="753" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="754" max="754" width="2.109375" style="2" customWidth="1"/>
-    <col min="755" max="755" width="2.6640625" style="2" customWidth="1"/>
+    <col min="754" max="754" width="2.125" style="2" customWidth="1"/>
+    <col min="755" max="755" width="2.625" style="2" customWidth="1"/>
     <col min="756" max="756" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="757" max="757" width="9.21875" style="2" customWidth="1"/>
-    <col min="758" max="758" width="12.21875" style="2" customWidth="1"/>
-    <col min="759" max="759" width="9.109375" style="2" customWidth="1"/>
-    <col min="760" max="760" width="3.109375" style="2" customWidth="1"/>
-    <col min="761" max="761" width="5.6640625" style="2" customWidth="1"/>
-    <col min="762" max="762" width="6.44140625" style="2" customWidth="1"/>
+    <col min="757" max="757" width="9.25" style="2" customWidth="1"/>
+    <col min="758" max="758" width="12.25" style="2" customWidth="1"/>
+    <col min="759" max="759" width="9.125" style="2" customWidth="1"/>
+    <col min="760" max="760" width="3.125" style="2" customWidth="1"/>
+    <col min="761" max="761" width="5.625" style="2" customWidth="1"/>
+    <col min="762" max="762" width="6.5" style="2" customWidth="1"/>
     <col min="763" max="763" width="1" style="2" customWidth="1"/>
     <col min="764" max="764" width="3" style="2" customWidth="1"/>
-    <col min="765" max="765" width="7.109375" style="2" customWidth="1"/>
-    <col min="766" max="766" width="2.77734375" style="2" customWidth="1"/>
-    <col min="767" max="767" width="8.6640625" style="2" customWidth="1"/>
+    <col min="765" max="765" width="7.125" style="2" customWidth="1"/>
+    <col min="766" max="766" width="2.75" style="2" customWidth="1"/>
+    <col min="767" max="767" width="8.625" style="2" customWidth="1"/>
     <col min="768" max="778" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="779" max="803" width="9" style="2" customWidth="1"/>
     <col min="804" max="1003" width="9" style="2"/>
-    <col min="1004" max="1004" width="1.6640625" style="2" customWidth="1"/>
-    <col min="1005" max="1005" width="1.77734375" style="2" customWidth="1"/>
-    <col min="1006" max="1006" width="7.33203125" style="2" customWidth="1"/>
-    <col min="1007" max="1007" width="4.109375" style="2" customWidth="1"/>
-    <col min="1008" max="1008" width="2.33203125" style="2" customWidth="1"/>
+    <col min="1004" max="1004" width="1.625" style="2" customWidth="1"/>
+    <col min="1005" max="1005" width="1.75" style="2" customWidth="1"/>
+    <col min="1006" max="1006" width="7.375" style="2" customWidth="1"/>
+    <col min="1007" max="1007" width="4.125" style="2" customWidth="1"/>
+    <col min="1008" max="1008" width="2.375" style="2" customWidth="1"/>
     <col min="1009" max="1009" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="1010" max="1010" width="2.109375" style="2" customWidth="1"/>
-    <col min="1011" max="1011" width="2.6640625" style="2" customWidth="1"/>
+    <col min="1010" max="1010" width="2.125" style="2" customWidth="1"/>
+    <col min="1011" max="1011" width="2.625" style="2" customWidth="1"/>
     <col min="1012" max="1012" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="1013" max="1013" width="9.21875" style="2" customWidth="1"/>
-    <col min="1014" max="1014" width="12.21875" style="2" customWidth="1"/>
-    <col min="1015" max="1015" width="9.109375" style="2" customWidth="1"/>
-    <col min="1016" max="1016" width="3.109375" style="2" customWidth="1"/>
-    <col min="1017" max="1017" width="5.6640625" style="2" customWidth="1"/>
-    <col min="1018" max="1018" width="6.44140625" style="2" customWidth="1"/>
+    <col min="1013" max="1013" width="9.25" style="2" customWidth="1"/>
+    <col min="1014" max="1014" width="12.25" style="2" customWidth="1"/>
+    <col min="1015" max="1015" width="9.125" style="2" customWidth="1"/>
+    <col min="1016" max="1016" width="3.125" style="2" customWidth="1"/>
+    <col min="1017" max="1017" width="5.625" style="2" customWidth="1"/>
+    <col min="1018" max="1018" width="6.5" style="2" customWidth="1"/>
     <col min="1019" max="1019" width="1" style="2" customWidth="1"/>
     <col min="1020" max="1020" width="3" style="2" customWidth="1"/>
-    <col min="1021" max="1021" width="7.109375" style="2" customWidth="1"/>
-    <col min="1022" max="1022" width="2.77734375" style="2" customWidth="1"/>
-    <col min="1023" max="1023" width="8.6640625" style="2" customWidth="1"/>
+    <col min="1021" max="1021" width="7.125" style="2" customWidth="1"/>
+    <col min="1022" max="1022" width="2.75" style="2" customWidth="1"/>
+    <col min="1023" max="1023" width="8.625" style="2" customWidth="1"/>
     <col min="1024" max="1034" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="1035" max="1059" width="9" style="2" customWidth="1"/>
     <col min="1060" max="1259" width="9" style="2"/>
-    <col min="1260" max="1260" width="1.6640625" style="2" customWidth="1"/>
-    <col min="1261" max="1261" width="1.77734375" style="2" customWidth="1"/>
-    <col min="1262" max="1262" width="7.33203125" style="2" customWidth="1"/>
-    <col min="1263" max="1263" width="4.109375" style="2" customWidth="1"/>
-    <col min="1264" max="1264" width="2.33203125" style="2" customWidth="1"/>
+    <col min="1260" max="1260" width="1.625" style="2" customWidth="1"/>
+    <col min="1261" max="1261" width="1.75" style="2" customWidth="1"/>
+    <col min="1262" max="1262" width="7.375" style="2" customWidth="1"/>
+    <col min="1263" max="1263" width="4.125" style="2" customWidth="1"/>
+    <col min="1264" max="1264" width="2.375" style="2" customWidth="1"/>
     <col min="1265" max="1265" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="1266" max="1266" width="2.109375" style="2" customWidth="1"/>
-    <col min="1267" max="1267" width="2.6640625" style="2" customWidth="1"/>
+    <col min="1266" max="1266" width="2.125" style="2" customWidth="1"/>
+    <col min="1267" max="1267" width="2.625" style="2" customWidth="1"/>
     <col min="1268" max="1268" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="1269" max="1269" width="9.21875" style="2" customWidth="1"/>
-    <col min="1270" max="1270" width="12.21875" style="2" customWidth="1"/>
-    <col min="1271" max="1271" width="9.109375" style="2" customWidth="1"/>
-    <col min="1272" max="1272" width="3.109375" style="2" customWidth="1"/>
-    <col min="1273" max="1273" width="5.6640625" style="2" customWidth="1"/>
-    <col min="1274" max="1274" width="6.44140625" style="2" customWidth="1"/>
+    <col min="1269" max="1269" width="9.25" style="2" customWidth="1"/>
+    <col min="1270" max="1270" width="12.25" style="2" customWidth="1"/>
+    <col min="1271" max="1271" width="9.125" style="2" customWidth="1"/>
+    <col min="1272" max="1272" width="3.125" style="2" customWidth="1"/>
+    <col min="1273" max="1273" width="5.625" style="2" customWidth="1"/>
+    <col min="1274" max="1274" width="6.5" style="2" customWidth="1"/>
     <col min="1275" max="1275" width="1" style="2" customWidth="1"/>
     <col min="1276" max="1276" width="3" style="2" customWidth="1"/>
-    <col min="1277" max="1277" width="7.109375" style="2" customWidth="1"/>
-    <col min="1278" max="1278" width="2.77734375" style="2" customWidth="1"/>
-    <col min="1279" max="1279" width="8.6640625" style="2" customWidth="1"/>
+    <col min="1277" max="1277" width="7.125" style="2" customWidth="1"/>
+    <col min="1278" max="1278" width="2.75" style="2" customWidth="1"/>
+    <col min="1279" max="1279" width="8.625" style="2" customWidth="1"/>
     <col min="1280" max="1290" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="1291" max="1315" width="9" style="2" customWidth="1"/>
     <col min="1316" max="1515" width="9" style="2"/>
-    <col min="1516" max="1516" width="1.6640625" style="2" customWidth="1"/>
-    <col min="1517" max="1517" width="1.77734375" style="2" customWidth="1"/>
-    <col min="1518" max="1518" width="7.33203125" style="2" customWidth="1"/>
-    <col min="1519" max="1519" width="4.109375" style="2" customWidth="1"/>
-    <col min="1520" max="1520" width="2.33203125" style="2" customWidth="1"/>
+    <col min="1516" max="1516" width="1.625" style="2" customWidth="1"/>
+    <col min="1517" max="1517" width="1.75" style="2" customWidth="1"/>
+    <col min="1518" max="1518" width="7.375" style="2" customWidth="1"/>
+    <col min="1519" max="1519" width="4.125" style="2" customWidth="1"/>
+    <col min="1520" max="1520" width="2.375" style="2" customWidth="1"/>
     <col min="1521" max="1521" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="1522" max="1522" width="2.109375" style="2" customWidth="1"/>
-    <col min="1523" max="1523" width="2.6640625" style="2" customWidth="1"/>
+    <col min="1522" max="1522" width="2.125" style="2" customWidth="1"/>
+    <col min="1523" max="1523" width="2.625" style="2" customWidth="1"/>
     <col min="1524" max="1524" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="1525" max="1525" width="9.21875" style="2" customWidth="1"/>
-    <col min="1526" max="1526" width="12.21875" style="2" customWidth="1"/>
-    <col min="1527" max="1527" width="9.109375" style="2" customWidth="1"/>
-    <col min="1528" max="1528" width="3.109375" style="2" customWidth="1"/>
-    <col min="1529" max="1529" width="5.6640625" style="2" customWidth="1"/>
-    <col min="1530" max="1530" width="6.44140625" style="2" customWidth="1"/>
+    <col min="1525" max="1525" width="9.25" style="2" customWidth="1"/>
+    <col min="1526" max="1526" width="12.25" style="2" customWidth="1"/>
+    <col min="1527" max="1527" width="9.125" style="2" customWidth="1"/>
+    <col min="1528" max="1528" width="3.125" style="2" customWidth="1"/>
+    <col min="1529" max="1529" width="5.625" style="2" customWidth="1"/>
+    <col min="1530" max="1530" width="6.5" style="2" customWidth="1"/>
     <col min="1531" max="1531" width="1" style="2" customWidth="1"/>
     <col min="1532" max="1532" width="3" style="2" customWidth="1"/>
-    <col min="1533" max="1533" width="7.109375" style="2" customWidth="1"/>
-    <col min="1534" max="1534" width="2.77734375" style="2" customWidth="1"/>
-    <col min="1535" max="1535" width="8.6640625" style="2" customWidth="1"/>
+    <col min="1533" max="1533" width="7.125" style="2" customWidth="1"/>
+    <col min="1534" max="1534" width="2.75" style="2" customWidth="1"/>
+    <col min="1535" max="1535" width="8.625" style="2" customWidth="1"/>
     <col min="1536" max="1546" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="1547" max="1571" width="9" style="2" customWidth="1"/>
     <col min="1572" max="1771" width="9" style="2"/>
-    <col min="1772" max="1772" width="1.6640625" style="2" customWidth="1"/>
-    <col min="1773" max="1773" width="1.77734375" style="2" customWidth="1"/>
-    <col min="1774" max="1774" width="7.33203125" style="2" customWidth="1"/>
-    <col min="1775" max="1775" width="4.109375" style="2" customWidth="1"/>
-    <col min="1776" max="1776" width="2.33203125" style="2" customWidth="1"/>
+    <col min="1772" max="1772" width="1.625" style="2" customWidth="1"/>
+    <col min="1773" max="1773" width="1.75" style="2" customWidth="1"/>
+    <col min="1774" max="1774" width="7.375" style="2" customWidth="1"/>
+    <col min="1775" max="1775" width="4.125" style="2" customWidth="1"/>
+    <col min="1776" max="1776" width="2.375" style="2" customWidth="1"/>
     <col min="1777" max="1777" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="1778" max="1778" width="2.109375" style="2" customWidth="1"/>
-    <col min="1779" max="1779" width="2.6640625" style="2" customWidth="1"/>
+    <col min="1778" max="1778" width="2.125" style="2" customWidth="1"/>
+    <col min="1779" max="1779" width="2.625" style="2" customWidth="1"/>
     <col min="1780" max="1780" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="1781" max="1781" width="9.21875" style="2" customWidth="1"/>
-    <col min="1782" max="1782" width="12.21875" style="2" customWidth="1"/>
-    <col min="1783" max="1783" width="9.109375" style="2" customWidth="1"/>
-    <col min="1784" max="1784" width="3.109375" style="2" customWidth="1"/>
-    <col min="1785" max="1785" width="5.6640625" style="2" customWidth="1"/>
-    <col min="1786" max="1786" width="6.44140625" style="2" customWidth="1"/>
+    <col min="1781" max="1781" width="9.25" style="2" customWidth="1"/>
+    <col min="1782" max="1782" width="12.25" style="2" customWidth="1"/>
+    <col min="1783" max="1783" width="9.125" style="2" customWidth="1"/>
+    <col min="1784" max="1784" width="3.125" style="2" customWidth="1"/>
+    <col min="1785" max="1785" width="5.625" style="2" customWidth="1"/>
+    <col min="1786" max="1786" width="6.5" style="2" customWidth="1"/>
     <col min="1787" max="1787" width="1" style="2" customWidth="1"/>
     <col min="1788" max="1788" width="3" style="2" customWidth="1"/>
-    <col min="1789" max="1789" width="7.109375" style="2" customWidth="1"/>
-    <col min="1790" max="1790" width="2.77734375" style="2" customWidth="1"/>
-    <col min="1791" max="1791" width="8.6640625" style="2" customWidth="1"/>
+    <col min="1789" max="1789" width="7.125" style="2" customWidth="1"/>
+    <col min="1790" max="1790" width="2.75" style="2" customWidth="1"/>
+    <col min="1791" max="1791" width="8.625" style="2" customWidth="1"/>
     <col min="1792" max="1802" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="1803" max="1827" width="9" style="2" customWidth="1"/>
     <col min="1828" max="2027" width="9" style="2"/>
-    <col min="2028" max="2028" width="1.6640625" style="2" customWidth="1"/>
-    <col min="2029" max="2029" width="1.77734375" style="2" customWidth="1"/>
-    <col min="2030" max="2030" width="7.33203125" style="2" customWidth="1"/>
-    <col min="2031" max="2031" width="4.109375" style="2" customWidth="1"/>
-    <col min="2032" max="2032" width="2.33203125" style="2" customWidth="1"/>
+    <col min="2028" max="2028" width="1.625" style="2" customWidth="1"/>
+    <col min="2029" max="2029" width="1.75" style="2" customWidth="1"/>
+    <col min="2030" max="2030" width="7.375" style="2" customWidth="1"/>
+    <col min="2031" max="2031" width="4.125" style="2" customWidth="1"/>
+    <col min="2032" max="2032" width="2.375" style="2" customWidth="1"/>
     <col min="2033" max="2033" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="2034" max="2034" width="2.109375" style="2" customWidth="1"/>
-    <col min="2035" max="2035" width="2.6640625" style="2" customWidth="1"/>
+    <col min="2034" max="2034" width="2.125" style="2" customWidth="1"/>
+    <col min="2035" max="2035" width="2.625" style="2" customWidth="1"/>
     <col min="2036" max="2036" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="2037" max="2037" width="9.21875" style="2" customWidth="1"/>
-    <col min="2038" max="2038" width="12.21875" style="2" customWidth="1"/>
-    <col min="2039" max="2039" width="9.109375" style="2" customWidth="1"/>
-    <col min="2040" max="2040" width="3.109375" style="2" customWidth="1"/>
-    <col min="2041" max="2041" width="5.6640625" style="2" customWidth="1"/>
-    <col min="2042" max="2042" width="6.44140625" style="2" customWidth="1"/>
+    <col min="2037" max="2037" width="9.25" style="2" customWidth="1"/>
+    <col min="2038" max="2038" width="12.25" style="2" customWidth="1"/>
+    <col min="2039" max="2039" width="9.125" style="2" customWidth="1"/>
+    <col min="2040" max="2040" width="3.125" style="2" customWidth="1"/>
+    <col min="2041" max="2041" width="5.625" style="2" customWidth="1"/>
+    <col min="2042" max="2042" width="6.5" style="2" customWidth="1"/>
     <col min="2043" max="2043" width="1" style="2" customWidth="1"/>
     <col min="2044" max="2044" width="3" style="2" customWidth="1"/>
-    <col min="2045" max="2045" width="7.109375" style="2" customWidth="1"/>
-    <col min="2046" max="2046" width="2.77734375" style="2" customWidth="1"/>
-    <col min="2047" max="2047" width="8.6640625" style="2" customWidth="1"/>
+    <col min="2045" max="2045" width="7.125" style="2" customWidth="1"/>
+    <col min="2046" max="2046" width="2.75" style="2" customWidth="1"/>
+    <col min="2047" max="2047" width="8.625" style="2" customWidth="1"/>
     <col min="2048" max="2058" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="2059" max="2083" width="9" style="2" customWidth="1"/>
     <col min="2084" max="2283" width="9" style="2"/>
-    <col min="2284" max="2284" width="1.6640625" style="2" customWidth="1"/>
-    <col min="2285" max="2285" width="1.77734375" style="2" customWidth="1"/>
-    <col min="2286" max="2286" width="7.33203125" style="2" customWidth="1"/>
-    <col min="2287" max="2287" width="4.109375" style="2" customWidth="1"/>
-    <col min="2288" max="2288" width="2.33203125" style="2" customWidth="1"/>
+    <col min="2284" max="2284" width="1.625" style="2" customWidth="1"/>
+    <col min="2285" max="2285" width="1.75" style="2" customWidth="1"/>
+    <col min="2286" max="2286" width="7.375" style="2" customWidth="1"/>
+    <col min="2287" max="2287" width="4.125" style="2" customWidth="1"/>
+    <col min="2288" max="2288" width="2.375" style="2" customWidth="1"/>
     <col min="2289" max="2289" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="2290" max="2290" width="2.109375" style="2" customWidth="1"/>
-    <col min="2291" max="2291" width="2.6640625" style="2" customWidth="1"/>
+    <col min="2290" max="2290" width="2.125" style="2" customWidth="1"/>
+    <col min="2291" max="2291" width="2.625" style="2" customWidth="1"/>
     <col min="2292" max="2292" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="2293" max="2293" width="9.21875" style="2" customWidth="1"/>
-    <col min="2294" max="2294" width="12.21875" style="2" customWidth="1"/>
-    <col min="2295" max="2295" width="9.109375" style="2" customWidth="1"/>
-    <col min="2296" max="2296" width="3.109375" style="2" customWidth="1"/>
-    <col min="2297" max="2297" width="5.6640625" style="2" customWidth="1"/>
-    <col min="2298" max="2298" width="6.44140625" style="2" customWidth="1"/>
+    <col min="2293" max="2293" width="9.25" style="2" customWidth="1"/>
+    <col min="2294" max="2294" width="12.25" style="2" customWidth="1"/>
+    <col min="2295" max="2295" width="9.125" style="2" customWidth="1"/>
+    <col min="2296" max="2296" width="3.125" style="2" customWidth="1"/>
+    <col min="2297" max="2297" width="5.625" style="2" customWidth="1"/>
+    <col min="2298" max="2298" width="6.5" style="2" customWidth="1"/>
     <col min="2299" max="2299" width="1" style="2" customWidth="1"/>
     <col min="2300" max="2300" width="3" style="2" customWidth="1"/>
-    <col min="2301" max="2301" width="7.109375" style="2" customWidth="1"/>
-    <col min="2302" max="2302" width="2.77734375" style="2" customWidth="1"/>
-    <col min="2303" max="2303" width="8.6640625" style="2" customWidth="1"/>
+    <col min="2301" max="2301" width="7.125" style="2" customWidth="1"/>
+    <col min="2302" max="2302" width="2.75" style="2" customWidth="1"/>
+    <col min="2303" max="2303" width="8.625" style="2" customWidth="1"/>
     <col min="2304" max="2314" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="2315" max="2339" width="9" style="2" customWidth="1"/>
     <col min="2340" max="2539" width="9" style="2"/>
-    <col min="2540" max="2540" width="1.6640625" style="2" customWidth="1"/>
-    <col min="2541" max="2541" width="1.77734375" style="2" customWidth="1"/>
-    <col min="2542" max="2542" width="7.33203125" style="2" customWidth="1"/>
-    <col min="2543" max="2543" width="4.109375" style="2" customWidth="1"/>
-    <col min="2544" max="2544" width="2.33203125" style="2" customWidth="1"/>
+    <col min="2540" max="2540" width="1.625" style="2" customWidth="1"/>
+    <col min="2541" max="2541" width="1.75" style="2" customWidth="1"/>
+    <col min="2542" max="2542" width="7.375" style="2" customWidth="1"/>
+    <col min="2543" max="2543" width="4.125" style="2" customWidth="1"/>
+    <col min="2544" max="2544" width="2.375" style="2" customWidth="1"/>
     <col min="2545" max="2545" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="2546" max="2546" width="2.109375" style="2" customWidth="1"/>
-    <col min="2547" max="2547" width="2.6640625" style="2" customWidth="1"/>
+    <col min="2546" max="2546" width="2.125" style="2" customWidth="1"/>
+    <col min="2547" max="2547" width="2.625" style="2" customWidth="1"/>
     <col min="2548" max="2548" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="2549" max="2549" width="9.21875" style="2" customWidth="1"/>
-    <col min="2550" max="2550" width="12.21875" style="2" customWidth="1"/>
-    <col min="2551" max="2551" width="9.109375" style="2" customWidth="1"/>
-    <col min="2552" max="2552" width="3.109375" style="2" customWidth="1"/>
-    <col min="2553" max="2553" width="5.6640625" style="2" customWidth="1"/>
-    <col min="2554" max="2554" width="6.44140625" style="2" customWidth="1"/>
+    <col min="2549" max="2549" width="9.25" style="2" customWidth="1"/>
+    <col min="2550" max="2550" width="12.25" style="2" customWidth="1"/>
+    <col min="2551" max="2551" width="9.125" style="2" customWidth="1"/>
+    <col min="2552" max="2552" width="3.125" style="2" customWidth="1"/>
+    <col min="2553" max="2553" width="5.625" style="2" customWidth="1"/>
+    <col min="2554" max="2554" width="6.5" style="2" customWidth="1"/>
     <col min="2555" max="2555" width="1" style="2" customWidth="1"/>
     <col min="2556" max="2556" width="3" style="2" customWidth="1"/>
-    <col min="2557" max="2557" width="7.109375" style="2" customWidth="1"/>
-    <col min="2558" max="2558" width="2.77734375" style="2" customWidth="1"/>
-    <col min="2559" max="2559" width="8.6640625" style="2" customWidth="1"/>
+    <col min="2557" max="2557" width="7.125" style="2" customWidth="1"/>
+    <col min="2558" max="2558" width="2.75" style="2" customWidth="1"/>
+    <col min="2559" max="2559" width="8.625" style="2" customWidth="1"/>
     <col min="2560" max="2570" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="2571" max="2595" width="9" style="2" customWidth="1"/>
     <col min="2596" max="2795" width="9" style="2"/>
-    <col min="2796" max="2796" width="1.6640625" style="2" customWidth="1"/>
-    <col min="2797" max="2797" width="1.77734375" style="2" customWidth="1"/>
-    <col min="2798" max="2798" width="7.33203125" style="2" customWidth="1"/>
-    <col min="2799" max="2799" width="4.109375" style="2" customWidth="1"/>
-    <col min="2800" max="2800" width="2.33203125" style="2" customWidth="1"/>
+    <col min="2796" max="2796" width="1.625" style="2" customWidth="1"/>
+    <col min="2797" max="2797" width="1.75" style="2" customWidth="1"/>
+    <col min="2798" max="2798" width="7.375" style="2" customWidth="1"/>
+    <col min="2799" max="2799" width="4.125" style="2" customWidth="1"/>
+    <col min="2800" max="2800" width="2.375" style="2" customWidth="1"/>
     <col min="2801" max="2801" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="2802" max="2802" width="2.109375" style="2" customWidth="1"/>
-    <col min="2803" max="2803" width="2.6640625" style="2" customWidth="1"/>
+    <col min="2802" max="2802" width="2.125" style="2" customWidth="1"/>
+    <col min="2803" max="2803" width="2.625" style="2" customWidth="1"/>
     <col min="2804" max="2804" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="2805" max="2805" width="9.21875" style="2" customWidth="1"/>
-    <col min="2806" max="2806" width="12.21875" style="2" customWidth="1"/>
-    <col min="2807" max="2807" width="9.109375" style="2" customWidth="1"/>
-    <col min="2808" max="2808" width="3.109375" style="2" customWidth="1"/>
-    <col min="2809" max="2809" width="5.6640625" style="2" customWidth="1"/>
-    <col min="2810" max="2810" width="6.44140625" style="2" customWidth="1"/>
+    <col min="2805" max="2805" width="9.25" style="2" customWidth="1"/>
+    <col min="2806" max="2806" width="12.25" style="2" customWidth="1"/>
+    <col min="2807" max="2807" width="9.125" style="2" customWidth="1"/>
+    <col min="2808" max="2808" width="3.125" style="2" customWidth="1"/>
+    <col min="2809" max="2809" width="5.625" style="2" customWidth="1"/>
+    <col min="2810" max="2810" width="6.5" style="2" customWidth="1"/>
     <col min="2811" max="2811" width="1" style="2" customWidth="1"/>
     <col min="2812" max="2812" width="3" style="2" customWidth="1"/>
-    <col min="2813" max="2813" width="7.109375" style="2" customWidth="1"/>
-    <col min="2814" max="2814" width="2.77734375" style="2" customWidth="1"/>
-    <col min="2815" max="2815" width="8.6640625" style="2" customWidth="1"/>
+    <col min="2813" max="2813" width="7.125" style="2" customWidth="1"/>
+    <col min="2814" max="2814" width="2.75" style="2" customWidth="1"/>
+    <col min="2815" max="2815" width="8.625" style="2" customWidth="1"/>
     <col min="2816" max="2826" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="2827" max="2851" width="9" style="2" customWidth="1"/>
     <col min="2852" max="3051" width="9" style="2"/>
-    <col min="3052" max="3052" width="1.6640625" style="2" customWidth="1"/>
-    <col min="3053" max="3053" width="1.77734375" style="2" customWidth="1"/>
-    <col min="3054" max="3054" width="7.33203125" style="2" customWidth="1"/>
-    <col min="3055" max="3055" width="4.109375" style="2" customWidth="1"/>
-    <col min="3056" max="3056" width="2.33203125" style="2" customWidth="1"/>
+    <col min="3052" max="3052" width="1.625" style="2" customWidth="1"/>
+    <col min="3053" max="3053" width="1.75" style="2" customWidth="1"/>
+    <col min="3054" max="3054" width="7.375" style="2" customWidth="1"/>
+    <col min="3055" max="3055" width="4.125" style="2" customWidth="1"/>
+    <col min="3056" max="3056" width="2.375" style="2" customWidth="1"/>
     <col min="3057" max="3057" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="3058" max="3058" width="2.109375" style="2" customWidth="1"/>
-    <col min="3059" max="3059" width="2.6640625" style="2" customWidth="1"/>
+    <col min="3058" max="3058" width="2.125" style="2" customWidth="1"/>
+    <col min="3059" max="3059" width="2.625" style="2" customWidth="1"/>
     <col min="3060" max="3060" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="3061" max="3061" width="9.21875" style="2" customWidth="1"/>
-    <col min="3062" max="3062" width="12.21875" style="2" customWidth="1"/>
-    <col min="3063" max="3063" width="9.109375" style="2" customWidth="1"/>
-    <col min="3064" max="3064" width="3.109375" style="2" customWidth="1"/>
-    <col min="3065" max="3065" width="5.6640625" style="2" customWidth="1"/>
-    <col min="3066" max="3066" width="6.44140625" style="2" customWidth="1"/>
+    <col min="3061" max="3061" width="9.25" style="2" customWidth="1"/>
+    <col min="3062" max="3062" width="12.25" style="2" customWidth="1"/>
+    <col min="3063" max="3063" width="9.125" style="2" customWidth="1"/>
+    <col min="3064" max="3064" width="3.125" style="2" customWidth="1"/>
+    <col min="3065" max="3065" width="5.625" style="2" customWidth="1"/>
+    <col min="3066" max="3066" width="6.5" style="2" customWidth="1"/>
     <col min="3067" max="3067" width="1" style="2" customWidth="1"/>
     <col min="3068" max="3068" width="3" style="2" customWidth="1"/>
-    <col min="3069" max="3069" width="7.109375" style="2" customWidth="1"/>
-    <col min="3070" max="3070" width="2.77734375" style="2" customWidth="1"/>
-    <col min="3071" max="3071" width="8.6640625" style="2" customWidth="1"/>
+    <col min="3069" max="3069" width="7.125" style="2" customWidth="1"/>
+    <col min="3070" max="3070" width="2.75" style="2" customWidth="1"/>
+    <col min="3071" max="3071" width="8.625" style="2" customWidth="1"/>
     <col min="3072" max="3082" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="3083" max="3107" width="9" style="2" customWidth="1"/>
     <col min="3108" max="3307" width="9" style="2"/>
-    <col min="3308" max="3308" width="1.6640625" style="2" customWidth="1"/>
-    <col min="3309" max="3309" width="1.77734375" style="2" customWidth="1"/>
-    <col min="3310" max="3310" width="7.33203125" style="2" customWidth="1"/>
-    <col min="3311" max="3311" width="4.109375" style="2" customWidth="1"/>
-    <col min="3312" max="3312" width="2.33203125" style="2" customWidth="1"/>
+    <col min="3308" max="3308" width="1.625" style="2" customWidth="1"/>
+    <col min="3309" max="3309" width="1.75" style="2" customWidth="1"/>
+    <col min="3310" max="3310" width="7.375" style="2" customWidth="1"/>
+    <col min="3311" max="3311" width="4.125" style="2" customWidth="1"/>
+    <col min="3312" max="3312" width="2.375" style="2" customWidth="1"/>
     <col min="3313" max="3313" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="3314" max="3314" width="2.109375" style="2" customWidth="1"/>
-    <col min="3315" max="3315" width="2.6640625" style="2" customWidth="1"/>
+    <col min="3314" max="3314" width="2.125" style="2" customWidth="1"/>
+    <col min="3315" max="3315" width="2.625" style="2" customWidth="1"/>
     <col min="3316" max="3316" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="3317" max="3317" width="9.21875" style="2" customWidth="1"/>
-    <col min="3318" max="3318" width="12.21875" style="2" customWidth="1"/>
-    <col min="3319" max="3319" width="9.109375" style="2" customWidth="1"/>
-    <col min="3320" max="3320" width="3.109375" style="2" customWidth="1"/>
-    <col min="3321" max="3321" width="5.6640625" style="2" customWidth="1"/>
-    <col min="3322" max="3322" width="6.44140625" style="2" customWidth="1"/>
+    <col min="3317" max="3317" width="9.25" style="2" customWidth="1"/>
+    <col min="3318" max="3318" width="12.25" style="2" customWidth="1"/>
+    <col min="3319" max="3319" width="9.125" style="2" customWidth="1"/>
+    <col min="3320" max="3320" width="3.125" style="2" customWidth="1"/>
+    <col min="3321" max="3321" width="5.625" style="2" customWidth="1"/>
+    <col min="3322" max="3322" width="6.5" style="2" customWidth="1"/>
     <col min="3323" max="3323" width="1" style="2" customWidth="1"/>
     <col min="3324" max="3324" width="3" style="2" customWidth="1"/>
-    <col min="3325" max="3325" width="7.109375" style="2" customWidth="1"/>
-    <col min="3326" max="3326" width="2.77734375" style="2" customWidth="1"/>
-    <col min="3327" max="3327" width="8.6640625" style="2" customWidth="1"/>
+    <col min="3325" max="3325" width="7.125" style="2" customWidth="1"/>
+    <col min="3326" max="3326" width="2.75" style="2" customWidth="1"/>
+    <col min="3327" max="3327" width="8.625" style="2" customWidth="1"/>
     <col min="3328" max="3338" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="3339" max="3363" width="9" style="2" customWidth="1"/>
     <col min="3364" max="3563" width="9" style="2"/>
-    <col min="3564" max="3564" width="1.6640625" style="2" customWidth="1"/>
-    <col min="3565" max="3565" width="1.77734375" style="2" customWidth="1"/>
-    <col min="3566" max="3566" width="7.33203125" style="2" customWidth="1"/>
-    <col min="3567" max="3567" width="4.109375" style="2" customWidth="1"/>
-    <col min="3568" max="3568" width="2.33203125" style="2" customWidth="1"/>
+    <col min="3564" max="3564" width="1.625" style="2" customWidth="1"/>
+    <col min="3565" max="3565" width="1.75" style="2" customWidth="1"/>
+    <col min="3566" max="3566" width="7.375" style="2" customWidth="1"/>
+    <col min="3567" max="3567" width="4.125" style="2" customWidth="1"/>
+    <col min="3568" max="3568" width="2.375" style="2" customWidth="1"/>
     <col min="3569" max="3569" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="3570" max="3570" width="2.109375" style="2" customWidth="1"/>
-    <col min="3571" max="3571" width="2.6640625" style="2" customWidth="1"/>
+    <col min="3570" max="3570" width="2.125" style="2" customWidth="1"/>
+    <col min="3571" max="3571" width="2.625" style="2" customWidth="1"/>
     <col min="3572" max="3572" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="3573" max="3573" width="9.21875" style="2" customWidth="1"/>
-    <col min="3574" max="3574" width="12.21875" style="2" customWidth="1"/>
-    <col min="3575" max="3575" width="9.109375" style="2" customWidth="1"/>
-    <col min="3576" max="3576" width="3.109375" style="2" customWidth="1"/>
-    <col min="3577" max="3577" width="5.6640625" style="2" customWidth="1"/>
-    <col min="3578" max="3578" width="6.44140625" style="2" customWidth="1"/>
+    <col min="3573" max="3573" width="9.25" style="2" customWidth="1"/>
+    <col min="3574" max="3574" width="12.25" style="2" customWidth="1"/>
+    <col min="3575" max="3575" width="9.125" style="2" customWidth="1"/>
+    <col min="3576" max="3576" width="3.125" style="2" customWidth="1"/>
+    <col min="3577" max="3577" width="5.625" style="2" customWidth="1"/>
+    <col min="3578" max="3578" width="6.5" style="2" customWidth="1"/>
     <col min="3579" max="3579" width="1" style="2" customWidth="1"/>
     <col min="3580" max="3580" width="3" style="2" customWidth="1"/>
-    <col min="3581" max="3581" width="7.109375" style="2" customWidth="1"/>
-    <col min="3582" max="3582" width="2.77734375" style="2" customWidth="1"/>
-    <col min="3583" max="3583" width="8.6640625" style="2" customWidth="1"/>
+    <col min="3581" max="3581" width="7.125" style="2" customWidth="1"/>
+    <col min="3582" max="3582" width="2.75" style="2" customWidth="1"/>
+    <col min="3583" max="3583" width="8.625" style="2" customWidth="1"/>
     <col min="3584" max="3594" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="3595" max="3619" width="9" style="2" customWidth="1"/>
     <col min="3620" max="3819" width="9" style="2"/>
-    <col min="3820" max="3820" width="1.6640625" style="2" customWidth="1"/>
-    <col min="3821" max="3821" width="1.77734375" style="2" customWidth="1"/>
-    <col min="3822" max="3822" width="7.33203125" style="2" customWidth="1"/>
-    <col min="3823" max="3823" width="4.109375" style="2" customWidth="1"/>
-    <col min="3824" max="3824" width="2.33203125" style="2" customWidth="1"/>
+    <col min="3820" max="3820" width="1.625" style="2" customWidth="1"/>
+    <col min="3821" max="3821" width="1.75" style="2" customWidth="1"/>
+    <col min="3822" max="3822" width="7.375" style="2" customWidth="1"/>
+    <col min="3823" max="3823" width="4.125" style="2" customWidth="1"/>
+    <col min="3824" max="3824" width="2.375" style="2" customWidth="1"/>
     <col min="3825" max="3825" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="3826" max="3826" width="2.109375" style="2" customWidth="1"/>
-    <col min="3827" max="3827" width="2.6640625" style="2" customWidth="1"/>
+    <col min="3826" max="3826" width="2.125" style="2" customWidth="1"/>
+    <col min="3827" max="3827" width="2.625" style="2" customWidth="1"/>
     <col min="3828" max="3828" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="3829" max="3829" width="9.21875" style="2" customWidth="1"/>
-    <col min="3830" max="3830" width="12.21875" style="2" customWidth="1"/>
-    <col min="3831" max="3831" width="9.109375" style="2" customWidth="1"/>
-    <col min="3832" max="3832" width="3.109375" style="2" customWidth="1"/>
-    <col min="3833" max="3833" width="5.6640625" style="2" customWidth="1"/>
-    <col min="3834" max="3834" width="6.44140625" style="2" customWidth="1"/>
+    <col min="3829" max="3829" width="9.25" style="2" customWidth="1"/>
+    <col min="3830" max="3830" width="12.25" style="2" customWidth="1"/>
+    <col min="3831" max="3831" width="9.125" style="2" customWidth="1"/>
+    <col min="3832" max="3832" width="3.125" style="2" customWidth="1"/>
+    <col min="3833" max="3833" width="5.625" style="2" customWidth="1"/>
+    <col min="3834" max="3834" width="6.5" style="2" customWidth="1"/>
     <col min="3835" max="3835" width="1" style="2" customWidth="1"/>
     <col min="3836" max="3836" width="3" style="2" customWidth="1"/>
-    <col min="3837" max="3837" width="7.109375" style="2" customWidth="1"/>
-    <col min="3838" max="3838" width="2.77734375" style="2" customWidth="1"/>
-    <col min="3839" max="3839" width="8.6640625" style="2" customWidth="1"/>
+    <col min="3837" max="3837" width="7.125" style="2" customWidth="1"/>
+    <col min="3838" max="3838" width="2.75" style="2" customWidth="1"/>
+    <col min="3839" max="3839" width="8.625" style="2" customWidth="1"/>
     <col min="3840" max="3850" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="3851" max="3875" width="9" style="2" customWidth="1"/>
     <col min="3876" max="4075" width="9" style="2"/>
-    <col min="4076" max="4076" width="1.6640625" style="2" customWidth="1"/>
-    <col min="4077" max="4077" width="1.77734375" style="2" customWidth="1"/>
-    <col min="4078" max="4078" width="7.33203125" style="2" customWidth="1"/>
-    <col min="4079" max="4079" width="4.109375" style="2" customWidth="1"/>
-    <col min="4080" max="4080" width="2.33203125" style="2" customWidth="1"/>
+    <col min="4076" max="4076" width="1.625" style="2" customWidth="1"/>
+    <col min="4077" max="4077" width="1.75" style="2" customWidth="1"/>
+    <col min="4078" max="4078" width="7.375" style="2" customWidth="1"/>
+    <col min="4079" max="4079" width="4.125" style="2" customWidth="1"/>
+    <col min="4080" max="4080" width="2.375" style="2" customWidth="1"/>
     <col min="4081" max="4081" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="4082" max="4082" width="2.109375" style="2" customWidth="1"/>
-    <col min="4083" max="4083" width="2.6640625" style="2" customWidth="1"/>
+    <col min="4082" max="4082" width="2.125" style="2" customWidth="1"/>
+    <col min="4083" max="4083" width="2.625" style="2" customWidth="1"/>
     <col min="4084" max="4084" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="4085" max="4085" width="9.21875" style="2" customWidth="1"/>
-    <col min="4086" max="4086" width="12.21875" style="2" customWidth="1"/>
-    <col min="4087" max="4087" width="9.109375" style="2" customWidth="1"/>
-    <col min="4088" max="4088" width="3.109375" style="2" customWidth="1"/>
-    <col min="4089" max="4089" width="5.6640625" style="2" customWidth="1"/>
-    <col min="4090" max="4090" width="6.44140625" style="2" customWidth="1"/>
+    <col min="4085" max="4085" width="9.25" style="2" customWidth="1"/>
+    <col min="4086" max="4086" width="12.25" style="2" customWidth="1"/>
+    <col min="4087" max="4087" width="9.125" style="2" customWidth="1"/>
+    <col min="4088" max="4088" width="3.125" style="2" customWidth="1"/>
+    <col min="4089" max="4089" width="5.625" style="2" customWidth="1"/>
+    <col min="4090" max="4090" width="6.5" style="2" customWidth="1"/>
     <col min="4091" max="4091" width="1" style="2" customWidth="1"/>
     <col min="4092" max="4092" width="3" style="2" customWidth="1"/>
-    <col min="4093" max="4093" width="7.109375" style="2" customWidth="1"/>
-    <col min="4094" max="4094" width="2.77734375" style="2" customWidth="1"/>
-    <col min="4095" max="4095" width="8.6640625" style="2" customWidth="1"/>
+    <col min="4093" max="4093" width="7.125" style="2" customWidth="1"/>
+    <col min="4094" max="4094" width="2.75" style="2" customWidth="1"/>
+    <col min="4095" max="4095" width="8.625" style="2" customWidth="1"/>
     <col min="4096" max="4106" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="4107" max="4131" width="9" style="2" customWidth="1"/>
     <col min="4132" max="4331" width="9" style="2"/>
-    <col min="4332" max="4332" width="1.6640625" style="2" customWidth="1"/>
-    <col min="4333" max="4333" width="1.77734375" style="2" customWidth="1"/>
-    <col min="4334" max="4334" width="7.33203125" style="2" customWidth="1"/>
-    <col min="4335" max="4335" width="4.109375" style="2" customWidth="1"/>
-    <col min="4336" max="4336" width="2.33203125" style="2" customWidth="1"/>
+    <col min="4332" max="4332" width="1.625" style="2" customWidth="1"/>
+    <col min="4333" max="4333" width="1.75" style="2" customWidth="1"/>
+    <col min="4334" max="4334" width="7.375" style="2" customWidth="1"/>
+    <col min="4335" max="4335" width="4.125" style="2" customWidth="1"/>
+    <col min="4336" max="4336" width="2.375" style="2" customWidth="1"/>
     <col min="4337" max="4337" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="4338" max="4338" width="2.109375" style="2" customWidth="1"/>
-    <col min="4339" max="4339" width="2.6640625" style="2" customWidth="1"/>
+    <col min="4338" max="4338" width="2.125" style="2" customWidth="1"/>
+    <col min="4339" max="4339" width="2.625" style="2" customWidth="1"/>
     <col min="4340" max="4340" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="4341" max="4341" width="9.21875" style="2" customWidth="1"/>
-    <col min="4342" max="4342" width="12.21875" style="2" customWidth="1"/>
-    <col min="4343" max="4343" width="9.109375" style="2" customWidth="1"/>
-    <col min="4344" max="4344" width="3.109375" style="2" customWidth="1"/>
-    <col min="4345" max="4345" width="5.6640625" style="2" customWidth="1"/>
-    <col min="4346" max="4346" width="6.44140625" style="2" customWidth="1"/>
+    <col min="4341" max="4341" width="9.25" style="2" customWidth="1"/>
+    <col min="4342" max="4342" width="12.25" style="2" customWidth="1"/>
+    <col min="4343" max="4343" width="9.125" style="2" customWidth="1"/>
+    <col min="4344" max="4344" width="3.125" style="2" customWidth="1"/>
+    <col min="4345" max="4345" width="5.625" style="2" customWidth="1"/>
+    <col min="4346" max="4346" width="6.5" style="2" customWidth="1"/>
     <col min="4347" max="4347" width="1" style="2" customWidth="1"/>
     <col min="4348" max="4348" width="3" style="2" customWidth="1"/>
-    <col min="4349" max="4349" width="7.109375" style="2" customWidth="1"/>
-    <col min="4350" max="4350" width="2.77734375" style="2" customWidth="1"/>
-    <col min="4351" max="4351" width="8.6640625" style="2" customWidth="1"/>
+    <col min="4349" max="4349" width="7.125" style="2" customWidth="1"/>
+    <col min="4350" max="4350" width="2.75" style="2" customWidth="1"/>
+    <col min="4351" max="4351" width="8.625" style="2" customWidth="1"/>
     <col min="4352" max="4362" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="4363" max="4387" width="9" style="2" customWidth="1"/>
     <col min="4388" max="4587" width="9" style="2"/>
-    <col min="4588" max="4588" width="1.6640625" style="2" customWidth="1"/>
-    <col min="4589" max="4589" width="1.77734375" style="2" customWidth="1"/>
-    <col min="4590" max="4590" width="7.33203125" style="2" customWidth="1"/>
-    <col min="4591" max="4591" width="4.109375" style="2" customWidth="1"/>
-    <col min="4592" max="4592" width="2.33203125" style="2" customWidth="1"/>
+    <col min="4588" max="4588" width="1.625" style="2" customWidth="1"/>
+    <col min="4589" max="4589" width="1.75" style="2" customWidth="1"/>
+    <col min="4590" max="4590" width="7.375" style="2" customWidth="1"/>
+    <col min="4591" max="4591" width="4.125" style="2" customWidth="1"/>
+    <col min="4592" max="4592" width="2.375" style="2" customWidth="1"/>
     <col min="4593" max="4593" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="4594" max="4594" width="2.109375" style="2" customWidth="1"/>
-    <col min="4595" max="4595" width="2.6640625" style="2" customWidth="1"/>
+    <col min="4594" max="4594" width="2.125" style="2" customWidth="1"/>
+    <col min="4595" max="4595" width="2.625" style="2" customWidth="1"/>
     <col min="4596" max="4596" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="4597" max="4597" width="9.21875" style="2" customWidth="1"/>
-    <col min="4598" max="4598" width="12.21875" style="2" customWidth="1"/>
-    <col min="4599" max="4599" width="9.109375" style="2" customWidth="1"/>
-    <col min="4600" max="4600" width="3.109375" style="2" customWidth="1"/>
-    <col min="4601" max="4601" width="5.6640625" style="2" customWidth="1"/>
-    <col min="4602" max="4602" width="6.44140625" style="2" customWidth="1"/>
+    <col min="4597" max="4597" width="9.25" style="2" customWidth="1"/>
+    <col min="4598" max="4598" width="12.25" style="2" customWidth="1"/>
+    <col min="4599" max="4599" width="9.125" style="2" customWidth="1"/>
+    <col min="4600" max="4600" width="3.125" style="2" customWidth="1"/>
+    <col min="4601" max="4601" width="5.625" style="2" customWidth="1"/>
+    <col min="4602" max="4602" width="6.5" style="2" customWidth="1"/>
     <col min="4603" max="4603" width="1" style="2" customWidth="1"/>
     <col min="4604" max="4604" width="3" style="2" customWidth="1"/>
-    <col min="4605" max="4605" width="7.109375" style="2" customWidth="1"/>
-    <col min="4606" max="4606" width="2.77734375" style="2" customWidth="1"/>
-    <col min="4607" max="4607" width="8.6640625" style="2" customWidth="1"/>
+    <col min="4605" max="4605" width="7.125" style="2" customWidth="1"/>
+    <col min="4606" max="4606" width="2.75" style="2" customWidth="1"/>
+    <col min="4607" max="4607" width="8.625" style="2" customWidth="1"/>
     <col min="4608" max="4618" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="4619" max="4643" width="9" style="2" customWidth="1"/>
     <col min="4644" max="4843" width="9" style="2"/>
-    <col min="4844" max="4844" width="1.6640625" style="2" customWidth="1"/>
-    <col min="4845" max="4845" width="1.77734375" style="2" customWidth="1"/>
-    <col min="4846" max="4846" width="7.33203125" style="2" customWidth="1"/>
-    <col min="4847" max="4847" width="4.109375" style="2" customWidth="1"/>
-    <col min="4848" max="4848" width="2.33203125" style="2" customWidth="1"/>
+    <col min="4844" max="4844" width="1.625" style="2" customWidth="1"/>
+    <col min="4845" max="4845" width="1.75" style="2" customWidth="1"/>
+    <col min="4846" max="4846" width="7.375" style="2" customWidth="1"/>
+    <col min="4847" max="4847" width="4.125" style="2" customWidth="1"/>
+    <col min="4848" max="4848" width="2.375" style="2" customWidth="1"/>
     <col min="4849" max="4849" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="4850" max="4850" width="2.109375" style="2" customWidth="1"/>
-    <col min="4851" max="4851" width="2.6640625" style="2" customWidth="1"/>
+    <col min="4850" max="4850" width="2.125" style="2" customWidth="1"/>
+    <col min="4851" max="4851" width="2.625" style="2" customWidth="1"/>
     <col min="4852" max="4852" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="4853" max="4853" width="9.21875" style="2" customWidth="1"/>
-    <col min="4854" max="4854" width="12.21875" style="2" customWidth="1"/>
-    <col min="4855" max="4855" width="9.109375" style="2" customWidth="1"/>
-    <col min="4856" max="4856" width="3.109375" style="2" customWidth="1"/>
-    <col min="4857" max="4857" width="5.6640625" style="2" customWidth="1"/>
-    <col min="4858" max="4858" width="6.44140625" style="2" customWidth="1"/>
+    <col min="4853" max="4853" width="9.25" style="2" customWidth="1"/>
+    <col min="4854" max="4854" width="12.25" style="2" customWidth="1"/>
+    <col min="4855" max="4855" width="9.125" style="2" customWidth="1"/>
+    <col min="4856" max="4856" width="3.125" style="2" customWidth="1"/>
+    <col min="4857" max="4857" width="5.625" style="2" customWidth="1"/>
+    <col min="4858" max="4858" width="6.5" style="2" customWidth="1"/>
     <col min="4859" max="4859" width="1" style="2" customWidth="1"/>
     <col min="4860" max="4860" width="3" style="2" customWidth="1"/>
-    <col min="4861" max="4861" width="7.109375" style="2" customWidth="1"/>
-    <col min="4862" max="4862" width="2.77734375" style="2" customWidth="1"/>
-    <col min="4863" max="4863" width="8.6640625" style="2" customWidth="1"/>
+    <col min="4861" max="4861" width="7.125" style="2" customWidth="1"/>
+    <col min="4862" max="4862" width="2.75" style="2" customWidth="1"/>
+    <col min="4863" max="4863" width="8.625" style="2" customWidth="1"/>
     <col min="4864" max="4874" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="4875" max="4899" width="9" style="2" customWidth="1"/>
     <col min="4900" max="5099" width="9" style="2"/>
-    <col min="5100" max="5100" width="1.6640625" style="2" customWidth="1"/>
-    <col min="5101" max="5101" width="1.77734375" style="2" customWidth="1"/>
-    <col min="5102" max="5102" width="7.33203125" style="2" customWidth="1"/>
-    <col min="5103" max="5103" width="4.109375" style="2" customWidth="1"/>
-    <col min="5104" max="5104" width="2.33203125" style="2" customWidth="1"/>
+    <col min="5100" max="5100" width="1.625" style="2" customWidth="1"/>
+    <col min="5101" max="5101" width="1.75" style="2" customWidth="1"/>
+    <col min="5102" max="5102" width="7.375" style="2" customWidth="1"/>
+    <col min="5103" max="5103" width="4.125" style="2" customWidth="1"/>
+    <col min="5104" max="5104" width="2.375" style="2" customWidth="1"/>
     <col min="5105" max="5105" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="5106" max="5106" width="2.109375" style="2" customWidth="1"/>
-    <col min="5107" max="5107" width="2.6640625" style="2" customWidth="1"/>
+    <col min="5106" max="5106" width="2.125" style="2" customWidth="1"/>
+    <col min="5107" max="5107" width="2.625" style="2" customWidth="1"/>
     <col min="5108" max="5108" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="5109" max="5109" width="9.21875" style="2" customWidth="1"/>
-    <col min="5110" max="5110" width="12.21875" style="2" customWidth="1"/>
-    <col min="5111" max="5111" width="9.109375" style="2" customWidth="1"/>
-    <col min="5112" max="5112" width="3.109375" style="2" customWidth="1"/>
-    <col min="5113" max="5113" width="5.6640625" style="2" customWidth="1"/>
-    <col min="5114" max="5114" width="6.44140625" style="2" customWidth="1"/>
+    <col min="5109" max="5109" width="9.25" style="2" customWidth="1"/>
+    <col min="5110" max="5110" width="12.25" style="2" customWidth="1"/>
+    <col min="5111" max="5111" width="9.125" style="2" customWidth="1"/>
+    <col min="5112" max="5112" width="3.125" style="2" customWidth="1"/>
+    <col min="5113" max="5113" width="5.625" style="2" customWidth="1"/>
+    <col min="5114" max="5114" width="6.5" style="2" customWidth="1"/>
     <col min="5115" max="5115" width="1" style="2" customWidth="1"/>
     <col min="5116" max="5116" width="3" style="2" customWidth="1"/>
-    <col min="5117" max="5117" width="7.109375" style="2" customWidth="1"/>
-    <col min="5118" max="5118" width="2.77734375" style="2" customWidth="1"/>
-    <col min="5119" max="5119" width="8.6640625" style="2" customWidth="1"/>
+    <col min="5117" max="5117" width="7.125" style="2" customWidth="1"/>
+    <col min="5118" max="5118" width="2.75" style="2" customWidth="1"/>
+    <col min="5119" max="5119" width="8.625" style="2" customWidth="1"/>
     <col min="5120" max="5130" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="5131" max="5155" width="9" style="2" customWidth="1"/>
     <col min="5156" max="5355" width="9" style="2"/>
-    <col min="5356" max="5356" width="1.6640625" style="2" customWidth="1"/>
-    <col min="5357" max="5357" width="1.77734375" style="2" customWidth="1"/>
-    <col min="5358" max="5358" width="7.33203125" style="2" customWidth="1"/>
-    <col min="5359" max="5359" width="4.109375" style="2" customWidth="1"/>
-    <col min="5360" max="5360" width="2.33203125" style="2" customWidth="1"/>
+    <col min="5356" max="5356" width="1.625" style="2" customWidth="1"/>
+    <col min="5357" max="5357" width="1.75" style="2" customWidth="1"/>
+    <col min="5358" max="5358" width="7.375" style="2" customWidth="1"/>
+    <col min="5359" max="5359" width="4.125" style="2" customWidth="1"/>
+    <col min="5360" max="5360" width="2.375" style="2" customWidth="1"/>
     <col min="5361" max="5361" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="5362" max="5362" width="2.109375" style="2" customWidth="1"/>
-    <col min="5363" max="5363" width="2.6640625" style="2" customWidth="1"/>
+    <col min="5362" max="5362" width="2.125" style="2" customWidth="1"/>
+    <col min="5363" max="5363" width="2.625" style="2" customWidth="1"/>
     <col min="5364" max="5364" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="5365" max="5365" width="9.21875" style="2" customWidth="1"/>
-    <col min="5366" max="5366" width="12.21875" style="2" customWidth="1"/>
-    <col min="5367" max="5367" width="9.109375" style="2" customWidth="1"/>
-    <col min="5368" max="5368" width="3.109375" style="2" customWidth="1"/>
-    <col min="5369" max="5369" width="5.6640625" style="2" customWidth="1"/>
-    <col min="5370" max="5370" width="6.44140625" style="2" customWidth="1"/>
+    <col min="5365" max="5365" width="9.25" style="2" customWidth="1"/>
+    <col min="5366" max="5366" width="12.25" style="2" customWidth="1"/>
+    <col min="5367" max="5367" width="9.125" style="2" customWidth="1"/>
+    <col min="5368" max="5368" width="3.125" style="2" customWidth="1"/>
+    <col min="5369" max="5369" width="5.625" style="2" customWidth="1"/>
+    <col min="5370" max="5370" width="6.5" style="2" customWidth="1"/>
     <col min="5371" max="5371" width="1" style="2" customWidth="1"/>
     <col min="5372" max="5372" width="3" style="2" customWidth="1"/>
-    <col min="5373" max="5373" width="7.109375" style="2" customWidth="1"/>
-    <col min="5374" max="5374" width="2.77734375" style="2" customWidth="1"/>
-    <col min="5375" max="5375" width="8.6640625" style="2" customWidth="1"/>
+    <col min="5373" max="5373" width="7.125" style="2" customWidth="1"/>
+    <col min="5374" max="5374" width="2.75" style="2" customWidth="1"/>
+    <col min="5375" max="5375" width="8.625" style="2" customWidth="1"/>
     <col min="5376" max="5386" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="5387" max="5411" width="9" style="2" customWidth="1"/>
     <col min="5412" max="5611" width="9" style="2"/>
-    <col min="5612" max="5612" width="1.6640625" style="2" customWidth="1"/>
-    <col min="5613" max="5613" width="1.77734375" style="2" customWidth="1"/>
-    <col min="5614" max="5614" width="7.33203125" style="2" customWidth="1"/>
-    <col min="5615" max="5615" width="4.109375" style="2" customWidth="1"/>
-    <col min="5616" max="5616" width="2.33203125" style="2" customWidth="1"/>
+    <col min="5612" max="5612" width="1.625" style="2" customWidth="1"/>
+    <col min="5613" max="5613" width="1.75" style="2" customWidth="1"/>
+    <col min="5614" max="5614" width="7.375" style="2" customWidth="1"/>
+    <col min="5615" max="5615" width="4.125" style="2" customWidth="1"/>
+    <col min="5616" max="5616" width="2.375" style="2" customWidth="1"/>
     <col min="5617" max="5617" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="5618" max="5618" width="2.109375" style="2" customWidth="1"/>
-    <col min="5619" max="5619" width="2.6640625" style="2" customWidth="1"/>
+    <col min="5618" max="5618" width="2.125" style="2" customWidth="1"/>
+    <col min="5619" max="5619" width="2.625" style="2" customWidth="1"/>
     <col min="5620" max="5620" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="5621" max="5621" width="9.21875" style="2" customWidth="1"/>
-    <col min="5622" max="5622" width="12.21875" style="2" customWidth="1"/>
-    <col min="5623" max="5623" width="9.109375" style="2" customWidth="1"/>
-    <col min="5624" max="5624" width="3.109375" style="2" customWidth="1"/>
-    <col min="5625" max="5625" width="5.6640625" style="2" customWidth="1"/>
-    <col min="5626" max="5626" width="6.44140625" style="2" customWidth="1"/>
+    <col min="5621" max="5621" width="9.25" style="2" customWidth="1"/>
+    <col min="5622" max="5622" width="12.25" style="2" customWidth="1"/>
+    <col min="5623" max="5623" width="9.125" style="2" customWidth="1"/>
+    <col min="5624" max="5624" width="3.125" style="2" customWidth="1"/>
+    <col min="5625" max="5625" width="5.625" style="2" customWidth="1"/>
+    <col min="5626" max="5626" width="6.5" style="2" customWidth="1"/>
     <col min="5627" max="5627" width="1" style="2" customWidth="1"/>
     <col min="5628" max="5628" width="3" style="2" customWidth="1"/>
-    <col min="5629" max="5629" width="7.109375" style="2" customWidth="1"/>
-    <col min="5630" max="5630" width="2.77734375" style="2" customWidth="1"/>
-    <col min="5631" max="5631" width="8.6640625" style="2" customWidth="1"/>
+    <col min="5629" max="5629" width="7.125" style="2" customWidth="1"/>
+    <col min="5630" max="5630" width="2.75" style="2" customWidth="1"/>
+    <col min="5631" max="5631" width="8.625" style="2" customWidth="1"/>
     <col min="5632" max="5642" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="5643" max="5667" width="9" style="2" customWidth="1"/>
     <col min="5668" max="5867" width="9" style="2"/>
-    <col min="5868" max="5868" width="1.6640625" style="2" customWidth="1"/>
-    <col min="5869" max="5869" width="1.77734375" style="2" customWidth="1"/>
-    <col min="5870" max="5870" width="7.33203125" style="2" customWidth="1"/>
-    <col min="5871" max="5871" width="4.109375" style="2" customWidth="1"/>
-    <col min="5872" max="5872" width="2.33203125" style="2" customWidth="1"/>
+    <col min="5868" max="5868" width="1.625" style="2" customWidth="1"/>
+    <col min="5869" max="5869" width="1.75" style="2" customWidth="1"/>
+    <col min="5870" max="5870" width="7.375" style="2" customWidth="1"/>
+    <col min="5871" max="5871" width="4.125" style="2" customWidth="1"/>
+    <col min="5872" max="5872" width="2.375" style="2" customWidth="1"/>
     <col min="5873" max="5873" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="5874" max="5874" width="2.109375" style="2" customWidth="1"/>
-    <col min="5875" max="5875" width="2.6640625" style="2" customWidth="1"/>
+    <col min="5874" max="5874" width="2.125" style="2" customWidth="1"/>
+    <col min="5875" max="5875" width="2.625" style="2" customWidth="1"/>
     <col min="5876" max="5876" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="5877" max="5877" width="9.21875" style="2" customWidth="1"/>
-    <col min="5878" max="5878" width="12.21875" style="2" customWidth="1"/>
-    <col min="5879" max="5879" width="9.109375" style="2" customWidth="1"/>
-    <col min="5880" max="5880" width="3.109375" style="2" customWidth="1"/>
-    <col min="5881" max="5881" width="5.6640625" style="2" customWidth="1"/>
-    <col min="5882" max="5882" width="6.44140625" style="2" customWidth="1"/>
+    <col min="5877" max="5877" width="9.25" style="2" customWidth="1"/>
+    <col min="5878" max="5878" width="12.25" style="2" customWidth="1"/>
+    <col min="5879" max="5879" width="9.125" style="2" customWidth="1"/>
+    <col min="5880" max="5880" width="3.125" style="2" customWidth="1"/>
+    <col min="5881" max="5881" width="5.625" style="2" customWidth="1"/>
+    <col min="5882" max="5882" width="6.5" style="2" customWidth="1"/>
     <col min="5883" max="5883" width="1" style="2" customWidth="1"/>
     <col min="5884" max="5884" width="3" style="2" customWidth="1"/>
-    <col min="5885" max="5885" width="7.109375" style="2" customWidth="1"/>
-    <col min="5886" max="5886" width="2.77734375" style="2" customWidth="1"/>
-    <col min="5887" max="5887" width="8.6640625" style="2" customWidth="1"/>
+    <col min="5885" max="5885" width="7.125" style="2" customWidth="1"/>
+    <col min="5886" max="5886" width="2.75" style="2" customWidth="1"/>
+    <col min="5887" max="5887" width="8.625" style="2" customWidth="1"/>
     <col min="5888" max="5898" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="5899" max="5923" width="9" style="2" customWidth="1"/>
     <col min="5924" max="6123" width="9" style="2"/>
-    <col min="6124" max="6124" width="1.6640625" style="2" customWidth="1"/>
-    <col min="6125" max="6125" width="1.77734375" style="2" customWidth="1"/>
-    <col min="6126" max="6126" width="7.33203125" style="2" customWidth="1"/>
-    <col min="6127" max="6127" width="4.109375" style="2" customWidth="1"/>
-    <col min="6128" max="6128" width="2.33203125" style="2" customWidth="1"/>
+    <col min="6124" max="6124" width="1.625" style="2" customWidth="1"/>
+    <col min="6125" max="6125" width="1.75" style="2" customWidth="1"/>
+    <col min="6126" max="6126" width="7.375" style="2" customWidth="1"/>
+    <col min="6127" max="6127" width="4.125" style="2" customWidth="1"/>
+    <col min="6128" max="6128" width="2.375" style="2" customWidth="1"/>
     <col min="6129" max="6129" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="6130" max="6130" width="2.109375" style="2" customWidth="1"/>
-    <col min="6131" max="6131" width="2.6640625" style="2" customWidth="1"/>
+    <col min="6130" max="6130" width="2.125" style="2" customWidth="1"/>
+    <col min="6131" max="6131" width="2.625" style="2" customWidth="1"/>
     <col min="6132" max="6132" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="6133" max="6133" width="9.21875" style="2" customWidth="1"/>
-    <col min="6134" max="6134" width="12.21875" style="2" customWidth="1"/>
-    <col min="6135" max="6135" width="9.109375" style="2" customWidth="1"/>
-    <col min="6136" max="6136" width="3.109375" style="2" customWidth="1"/>
-    <col min="6137" max="6137" width="5.6640625" style="2" customWidth="1"/>
-    <col min="6138" max="6138" width="6.44140625" style="2" customWidth="1"/>
+    <col min="6133" max="6133" width="9.25" style="2" customWidth="1"/>
+    <col min="6134" max="6134" width="12.25" style="2" customWidth="1"/>
+    <col min="6135" max="6135" width="9.125" style="2" customWidth="1"/>
+    <col min="6136" max="6136" width="3.125" style="2" customWidth="1"/>
+    <col min="6137" max="6137" width="5.625" style="2" customWidth="1"/>
+    <col min="6138" max="6138" width="6.5" style="2" customWidth="1"/>
     <col min="6139" max="6139" width="1" style="2" customWidth="1"/>
     <col min="6140" max="6140" width="3" style="2" customWidth="1"/>
-    <col min="6141" max="6141" width="7.109375" style="2" customWidth="1"/>
-    <col min="6142" max="6142" width="2.77734375" style="2" customWidth="1"/>
-    <col min="6143" max="6143" width="8.6640625" style="2" customWidth="1"/>
+    <col min="6141" max="6141" width="7.125" style="2" customWidth="1"/>
+    <col min="6142" max="6142" width="2.75" style="2" customWidth="1"/>
+    <col min="6143" max="6143" width="8.625" style="2" customWidth="1"/>
     <col min="6144" max="6154" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="6155" max="6179" width="9" style="2" customWidth="1"/>
     <col min="6180" max="6379" width="9" style="2"/>
-    <col min="6380" max="6380" width="1.6640625" style="2" customWidth="1"/>
-    <col min="6381" max="6381" width="1.77734375" style="2" customWidth="1"/>
-    <col min="6382" max="6382" width="7.33203125" style="2" customWidth="1"/>
-    <col min="6383" max="6383" width="4.109375" style="2" customWidth="1"/>
-    <col min="6384" max="6384" width="2.33203125" style="2" customWidth="1"/>
+    <col min="6380" max="6380" width="1.625" style="2" customWidth="1"/>
+    <col min="6381" max="6381" width="1.75" style="2" customWidth="1"/>
+    <col min="6382" max="6382" width="7.375" style="2" customWidth="1"/>
+    <col min="6383" max="6383" width="4.125" style="2" customWidth="1"/>
+    <col min="6384" max="6384" width="2.375" style="2" customWidth="1"/>
     <col min="6385" max="6385" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="6386" max="6386" width="2.109375" style="2" customWidth="1"/>
-    <col min="6387" max="6387" width="2.6640625" style="2" customWidth="1"/>
+    <col min="6386" max="6386" width="2.125" style="2" customWidth="1"/>
+    <col min="6387" max="6387" width="2.625" style="2" customWidth="1"/>
     <col min="6388" max="6388" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="6389" max="6389" width="9.21875" style="2" customWidth="1"/>
-    <col min="6390" max="6390" width="12.21875" style="2" customWidth="1"/>
-    <col min="6391" max="6391" width="9.109375" style="2" customWidth="1"/>
-    <col min="6392" max="6392" width="3.109375" style="2" customWidth="1"/>
-    <col min="6393" max="6393" width="5.6640625" style="2" customWidth="1"/>
-    <col min="6394" max="6394" width="6.44140625" style="2" customWidth="1"/>
+    <col min="6389" max="6389" width="9.25" style="2" customWidth="1"/>
+    <col min="6390" max="6390" width="12.25" style="2" customWidth="1"/>
+    <col min="6391" max="6391" width="9.125" style="2" customWidth="1"/>
+    <col min="6392" max="6392" width="3.125" style="2" customWidth="1"/>
+    <col min="6393" max="6393" width="5.625" style="2" customWidth="1"/>
+    <col min="6394" max="6394" width="6.5" style="2" customWidth="1"/>
     <col min="6395" max="6395" width="1" style="2" customWidth="1"/>
     <col min="6396" max="6396" width="3" style="2" customWidth="1"/>
-    <col min="6397" max="6397" width="7.109375" style="2" customWidth="1"/>
-    <col min="6398" max="6398" width="2.77734375" style="2" customWidth="1"/>
-    <col min="6399" max="6399" width="8.6640625" style="2" customWidth="1"/>
+    <col min="6397" max="6397" width="7.125" style="2" customWidth="1"/>
+    <col min="6398" max="6398" width="2.75" style="2" customWidth="1"/>
+    <col min="6399" max="6399" width="8.625" style="2" customWidth="1"/>
     <col min="6400" max="6410" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="6411" max="6435" width="9" style="2" customWidth="1"/>
     <col min="6436" max="6635" width="9" style="2"/>
-    <col min="6636" max="6636" width="1.6640625" style="2" customWidth="1"/>
-    <col min="6637" max="6637" width="1.77734375" style="2" customWidth="1"/>
-    <col min="6638" max="6638" width="7.33203125" style="2" customWidth="1"/>
-    <col min="6639" max="6639" width="4.109375" style="2" customWidth="1"/>
-    <col min="6640" max="6640" width="2.33203125" style="2" customWidth="1"/>
+    <col min="6636" max="6636" width="1.625" style="2" customWidth="1"/>
+    <col min="6637" max="6637" width="1.75" style="2" customWidth="1"/>
+    <col min="6638" max="6638" width="7.375" style="2" customWidth="1"/>
+    <col min="6639" max="6639" width="4.125" style="2" customWidth="1"/>
+    <col min="6640" max="6640" width="2.375" style="2" customWidth="1"/>
     <col min="6641" max="6641" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="6642" max="6642" width="2.109375" style="2" customWidth="1"/>
-    <col min="6643" max="6643" width="2.6640625" style="2" customWidth="1"/>
+    <col min="6642" max="6642" width="2.125" style="2" customWidth="1"/>
+    <col min="6643" max="6643" width="2.625" style="2" customWidth="1"/>
     <col min="6644" max="6644" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="6645" max="6645" width="9.21875" style="2" customWidth="1"/>
-    <col min="6646" max="6646" width="12.21875" style="2" customWidth="1"/>
-    <col min="6647" max="6647" width="9.109375" style="2" customWidth="1"/>
-    <col min="6648" max="6648" width="3.109375" style="2" customWidth="1"/>
-    <col min="6649" max="6649" width="5.6640625" style="2" customWidth="1"/>
-    <col min="6650" max="6650" width="6.44140625" style="2" customWidth="1"/>
+    <col min="6645" max="6645" width="9.25" style="2" customWidth="1"/>
+    <col min="6646" max="6646" width="12.25" style="2" customWidth="1"/>
+    <col min="6647" max="6647" width="9.125" style="2" customWidth="1"/>
+    <col min="6648" max="6648" width="3.125" style="2" customWidth="1"/>
+    <col min="6649" max="6649" width="5.625" style="2" customWidth="1"/>
+    <col min="6650" max="6650" width="6.5" style="2" customWidth="1"/>
     <col min="6651" max="6651" width="1" style="2" customWidth="1"/>
     <col min="6652" max="6652" width="3" style="2" customWidth="1"/>
-    <col min="6653" max="6653" width="7.109375" style="2" customWidth="1"/>
-    <col min="6654" max="6654" width="2.77734375" style="2" customWidth="1"/>
-    <col min="6655" max="6655" width="8.6640625" style="2" customWidth="1"/>
+    <col min="6653" max="6653" width="7.125" style="2" customWidth="1"/>
+    <col min="6654" max="6654" width="2.75" style="2" customWidth="1"/>
+    <col min="6655" max="6655" width="8.625" style="2" customWidth="1"/>
     <col min="6656" max="6666" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="6667" max="6691" width="9" style="2" customWidth="1"/>
     <col min="6692" max="6891" width="9" style="2"/>
-    <col min="6892" max="6892" width="1.6640625" style="2" customWidth="1"/>
-    <col min="6893" max="6893" width="1.77734375" style="2" customWidth="1"/>
-    <col min="6894" max="6894" width="7.33203125" style="2" customWidth="1"/>
-    <col min="6895" max="6895" width="4.109375" style="2" customWidth="1"/>
-    <col min="6896" max="6896" width="2.33203125" style="2" customWidth="1"/>
+    <col min="6892" max="6892" width="1.625" style="2" customWidth="1"/>
+    <col min="6893" max="6893" width="1.75" style="2" customWidth="1"/>
+    <col min="6894" max="6894" width="7.375" style="2" customWidth="1"/>
+    <col min="6895" max="6895" width="4.125" style="2" customWidth="1"/>
+    <col min="6896" max="6896" width="2.375" style="2" customWidth="1"/>
     <col min="6897" max="6897" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="6898" max="6898" width="2.109375" style="2" customWidth="1"/>
-    <col min="6899" max="6899" width="2.6640625" style="2" customWidth="1"/>
+    <col min="6898" max="6898" width="2.125" style="2" customWidth="1"/>
+    <col min="6899" max="6899" width="2.625" style="2" customWidth="1"/>
     <col min="6900" max="6900" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="6901" max="6901" width="9.21875" style="2" customWidth="1"/>
-    <col min="6902" max="6902" width="12.21875" style="2" customWidth="1"/>
-    <col min="6903" max="6903" width="9.109375" style="2" customWidth="1"/>
-    <col min="6904" max="6904" width="3.109375" style="2" customWidth="1"/>
-    <col min="6905" max="6905" width="5.6640625" style="2" customWidth="1"/>
-    <col min="6906" max="6906" width="6.44140625" style="2" customWidth="1"/>
+    <col min="6901" max="6901" width="9.25" style="2" customWidth="1"/>
+    <col min="6902" max="6902" width="12.25" style="2" customWidth="1"/>
+    <col min="6903" max="6903" width="9.125" style="2" customWidth="1"/>
+    <col min="6904" max="6904" width="3.125" style="2" customWidth="1"/>
+    <col min="6905" max="6905" width="5.625" style="2" customWidth="1"/>
+    <col min="6906" max="6906" width="6.5" style="2" customWidth="1"/>
     <col min="6907" max="6907" width="1" style="2" customWidth="1"/>
     <col min="6908" max="6908" width="3" style="2" customWidth="1"/>
-    <col min="6909" max="6909" width="7.109375" style="2" customWidth="1"/>
-    <col min="6910" max="6910" width="2.77734375" style="2" customWidth="1"/>
-    <col min="6911" max="6911" width="8.6640625" style="2" customWidth="1"/>
+    <col min="6909" max="6909" width="7.125" style="2" customWidth="1"/>
+    <col min="6910" max="6910" width="2.75" style="2" customWidth="1"/>
+    <col min="6911" max="6911" width="8.625" style="2" customWidth="1"/>
     <col min="6912" max="6922" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="6923" max="6947" width="9" style="2" customWidth="1"/>
     <col min="6948" max="7147" width="9" style="2"/>
-    <col min="7148" max="7148" width="1.6640625" style="2" customWidth="1"/>
-    <col min="7149" max="7149" width="1.77734375" style="2" customWidth="1"/>
-    <col min="7150" max="7150" width="7.33203125" style="2" customWidth="1"/>
-    <col min="7151" max="7151" width="4.109375" style="2" customWidth="1"/>
-    <col min="7152" max="7152" width="2.33203125" style="2" customWidth="1"/>
+    <col min="7148" max="7148" width="1.625" style="2" customWidth="1"/>
+    <col min="7149" max="7149" width="1.75" style="2" customWidth="1"/>
+    <col min="7150" max="7150" width="7.375" style="2" customWidth="1"/>
+    <col min="7151" max="7151" width="4.125" style="2" customWidth="1"/>
+    <col min="7152" max="7152" width="2.375" style="2" customWidth="1"/>
     <col min="7153" max="7153" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="7154" max="7154" width="2.109375" style="2" customWidth="1"/>
-    <col min="7155" max="7155" width="2.6640625" style="2" customWidth="1"/>
+    <col min="7154" max="7154" width="2.125" style="2" customWidth="1"/>
+    <col min="7155" max="7155" width="2.625" style="2" customWidth="1"/>
     <col min="7156" max="7156" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="7157" max="7157" width="9.21875" style="2" customWidth="1"/>
-    <col min="7158" max="7158" width="12.21875" style="2" customWidth="1"/>
-    <col min="7159" max="7159" width="9.109375" style="2" customWidth="1"/>
-    <col min="7160" max="7160" width="3.109375" style="2" customWidth="1"/>
-    <col min="7161" max="7161" width="5.6640625" style="2" customWidth="1"/>
-    <col min="7162" max="7162" width="6.44140625" style="2" customWidth="1"/>
+    <col min="7157" max="7157" width="9.25" style="2" customWidth="1"/>
+    <col min="7158" max="7158" width="12.25" style="2" customWidth="1"/>
+    <col min="7159" max="7159" width="9.125" style="2" customWidth="1"/>
+    <col min="7160" max="7160" width="3.125" style="2" customWidth="1"/>
+    <col min="7161" max="7161" width="5.625" style="2" customWidth="1"/>
+    <col min="7162" max="7162" width="6.5" style="2" customWidth="1"/>
     <col min="7163" max="7163" width="1" style="2" customWidth="1"/>
     <col min="7164" max="7164" width="3" style="2" customWidth="1"/>
-    <col min="7165" max="7165" width="7.109375" style="2" customWidth="1"/>
-    <col min="7166" max="7166" width="2.77734375" style="2" customWidth="1"/>
-    <col min="7167" max="7167" width="8.6640625" style="2" customWidth="1"/>
+    <col min="7165" max="7165" width="7.125" style="2" customWidth="1"/>
+    <col min="7166" max="7166" width="2.75" style="2" customWidth="1"/>
+    <col min="7167" max="7167" width="8.625" style="2" customWidth="1"/>
     <col min="7168" max="7178" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="7179" max="7203" width="9" style="2" customWidth="1"/>
     <col min="7204" max="7403" width="9" style="2"/>
-    <col min="7404" max="7404" width="1.6640625" style="2" customWidth="1"/>
-    <col min="7405" max="7405" width="1.77734375" style="2" customWidth="1"/>
-    <col min="7406" max="7406" width="7.33203125" style="2" customWidth="1"/>
-    <col min="7407" max="7407" width="4.109375" style="2" customWidth="1"/>
-    <col min="7408" max="7408" width="2.33203125" style="2" customWidth="1"/>
+    <col min="7404" max="7404" width="1.625" style="2" customWidth="1"/>
+    <col min="7405" max="7405" width="1.75" style="2" customWidth="1"/>
+    <col min="7406" max="7406" width="7.375" style="2" customWidth="1"/>
+    <col min="7407" max="7407" width="4.125" style="2" customWidth="1"/>
+    <col min="7408" max="7408" width="2.375" style="2" customWidth="1"/>
     <col min="7409" max="7409" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="7410" max="7410" width="2.109375" style="2" customWidth="1"/>
-    <col min="7411" max="7411" width="2.6640625" style="2" customWidth="1"/>
+    <col min="7410" max="7410" width="2.125" style="2" customWidth="1"/>
+    <col min="7411" max="7411" width="2.625" style="2" customWidth="1"/>
     <col min="7412" max="7412" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="7413" max="7413" width="9.21875" style="2" customWidth="1"/>
-    <col min="7414" max="7414" width="12.21875" style="2" customWidth="1"/>
-    <col min="7415" max="7415" width="9.109375" style="2" customWidth="1"/>
-    <col min="7416" max="7416" width="3.109375" style="2" customWidth="1"/>
-    <col min="7417" max="7417" width="5.6640625" style="2" customWidth="1"/>
-    <col min="7418" max="7418" width="6.44140625" style="2" customWidth="1"/>
+    <col min="7413" max="7413" width="9.25" style="2" customWidth="1"/>
+    <col min="7414" max="7414" width="12.25" style="2" customWidth="1"/>
+    <col min="7415" max="7415" width="9.125" style="2" customWidth="1"/>
+    <col min="7416" max="7416" width="3.125" style="2" customWidth="1"/>
+    <col min="7417" max="7417" width="5.625" style="2" customWidth="1"/>
+    <col min="7418" max="7418" width="6.5" style="2" customWidth="1"/>
     <col min="7419" max="7419" width="1" style="2" customWidth="1"/>
     <col min="7420" max="7420" width="3" style="2" customWidth="1"/>
-    <col min="7421" max="7421" width="7.109375" style="2" customWidth="1"/>
-    <col min="7422" max="7422" width="2.77734375" style="2" customWidth="1"/>
-    <col min="7423" max="7423" width="8.6640625" style="2" customWidth="1"/>
+    <col min="7421" max="7421" width="7.125" style="2" customWidth="1"/>
+    <col min="7422" max="7422" width="2.75" style="2" customWidth="1"/>
+    <col min="7423" max="7423" width="8.625" style="2" customWidth="1"/>
     <col min="7424" max="7434" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="7435" max="7459" width="9" style="2" customWidth="1"/>
     <col min="7460" max="7659" width="9" style="2"/>
-    <col min="7660" max="7660" width="1.6640625" style="2" customWidth="1"/>
-    <col min="7661" max="7661" width="1.77734375" style="2" customWidth="1"/>
-    <col min="7662" max="7662" width="7.33203125" style="2" customWidth="1"/>
-    <col min="7663" max="7663" width="4.109375" style="2" customWidth="1"/>
-    <col min="7664" max="7664" width="2.33203125" style="2" customWidth="1"/>
+    <col min="7660" max="7660" width="1.625" style="2" customWidth="1"/>
+    <col min="7661" max="7661" width="1.75" style="2" customWidth="1"/>
+    <col min="7662" max="7662" width="7.375" style="2" customWidth="1"/>
+    <col min="7663" max="7663" width="4.125" style="2" customWidth="1"/>
+    <col min="7664" max="7664" width="2.375" style="2" customWidth="1"/>
     <col min="7665" max="7665" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="7666" max="7666" width="2.109375" style="2" customWidth="1"/>
-    <col min="7667" max="7667" width="2.6640625" style="2" customWidth="1"/>
+    <col min="7666" max="7666" width="2.125" style="2" customWidth="1"/>
+    <col min="7667" max="7667" width="2.625" style="2" customWidth="1"/>
     <col min="7668" max="7668" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="7669" max="7669" width="9.21875" style="2" customWidth="1"/>
-    <col min="7670" max="7670" width="12.21875" style="2" customWidth="1"/>
-    <col min="7671" max="7671" width="9.109375" style="2" customWidth="1"/>
-    <col min="7672" max="7672" width="3.109375" style="2" customWidth="1"/>
-    <col min="7673" max="7673" width="5.6640625" style="2" customWidth="1"/>
-    <col min="7674" max="7674" width="6.44140625" style="2" customWidth="1"/>
+    <col min="7669" max="7669" width="9.25" style="2" customWidth="1"/>
+    <col min="7670" max="7670" width="12.25" style="2" customWidth="1"/>
+    <col min="7671" max="7671" width="9.125" style="2" customWidth="1"/>
+    <col min="7672" max="7672" width="3.125" style="2" customWidth="1"/>
+    <col min="7673" max="7673" width="5.625" style="2" customWidth="1"/>
+    <col min="7674" max="7674" width="6.5" style="2" customWidth="1"/>
     <col min="7675" max="7675" width="1" style="2" customWidth="1"/>
     <col min="7676" max="7676" width="3" style="2" customWidth="1"/>
-    <col min="7677" max="7677" width="7.109375" style="2" customWidth="1"/>
-    <col min="7678" max="7678" width="2.77734375" style="2" customWidth="1"/>
-    <col min="7679" max="7679" width="8.6640625" style="2" customWidth="1"/>
+    <col min="7677" max="7677" width="7.125" style="2" customWidth="1"/>
+    <col min="7678" max="7678" width="2.75" style="2" customWidth="1"/>
+    <col min="7679" max="7679" width="8.625" style="2" customWidth="1"/>
     <col min="7680" max="7690" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="7691" max="7715" width="9" style="2" customWidth="1"/>
     <col min="7716" max="7915" width="9" style="2"/>
-    <col min="7916" max="7916" width="1.6640625" style="2" customWidth="1"/>
-    <col min="7917" max="7917" width="1.77734375" style="2" customWidth="1"/>
-    <col min="7918" max="7918" width="7.33203125" style="2" customWidth="1"/>
-    <col min="7919" max="7919" width="4.109375" style="2" customWidth="1"/>
-    <col min="7920" max="7920" width="2.33203125" style="2" customWidth="1"/>
+    <col min="7916" max="7916" width="1.625" style="2" customWidth="1"/>
+    <col min="7917" max="7917" width="1.75" style="2" customWidth="1"/>
+    <col min="7918" max="7918" width="7.375" style="2" customWidth="1"/>
+    <col min="7919" max="7919" width="4.125" style="2" customWidth="1"/>
+    <col min="7920" max="7920" width="2.375" style="2" customWidth="1"/>
     <col min="7921" max="7921" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="7922" max="7922" width="2.109375" style="2" customWidth="1"/>
-    <col min="7923" max="7923" width="2.6640625" style="2" customWidth="1"/>
+    <col min="7922" max="7922" width="2.125" style="2" customWidth="1"/>
+    <col min="7923" max="7923" width="2.625" style="2" customWidth="1"/>
     <col min="7924" max="7924" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="7925" max="7925" width="9.21875" style="2" customWidth="1"/>
-    <col min="7926" max="7926" width="12.21875" style="2" customWidth="1"/>
-    <col min="7927" max="7927" width="9.109375" style="2" customWidth="1"/>
-    <col min="7928" max="7928" width="3.109375" style="2" customWidth="1"/>
-    <col min="7929" max="7929" width="5.6640625" style="2" customWidth="1"/>
-    <col min="7930" max="7930" width="6.44140625" style="2" customWidth="1"/>
+    <col min="7925" max="7925" width="9.25" style="2" customWidth="1"/>
+    <col min="7926" max="7926" width="12.25" style="2" customWidth="1"/>
+    <col min="7927" max="7927" width="9.125" style="2" customWidth="1"/>
+    <col min="7928" max="7928" width="3.125" style="2" customWidth="1"/>
+    <col min="7929" max="7929" width="5.625" style="2" customWidth="1"/>
+    <col min="7930" max="7930" width="6.5" style="2" customWidth="1"/>
     <col min="7931" max="7931" width="1" style="2" customWidth="1"/>
     <col min="7932" max="7932" width="3" style="2" customWidth="1"/>
-    <col min="7933" max="7933" width="7.109375" style="2" customWidth="1"/>
-    <col min="7934" max="7934" width="2.77734375" style="2" customWidth="1"/>
-    <col min="7935" max="7935" width="8.6640625" style="2" customWidth="1"/>
+    <col min="7933" max="7933" width="7.125" style="2" customWidth="1"/>
+    <col min="7934" max="7934" width="2.75" style="2" customWidth="1"/>
+    <col min="7935" max="7935" width="8.625" style="2" customWidth="1"/>
     <col min="7936" max="7946" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="7947" max="7971" width="9" style="2" customWidth="1"/>
     <col min="7972" max="8171" width="9" style="2"/>
-    <col min="8172" max="8172" width="1.6640625" style="2" customWidth="1"/>
-    <col min="8173" max="8173" width="1.77734375" style="2" customWidth="1"/>
-    <col min="8174" max="8174" width="7.33203125" style="2" customWidth="1"/>
-    <col min="8175" max="8175" width="4.109375" style="2" customWidth="1"/>
-    <col min="8176" max="8176" width="2.33203125" style="2" customWidth="1"/>
+    <col min="8172" max="8172" width="1.625" style="2" customWidth="1"/>
+    <col min="8173" max="8173" width="1.75" style="2" customWidth="1"/>
+    <col min="8174" max="8174" width="7.375" style="2" customWidth="1"/>
+    <col min="8175" max="8175" width="4.125" style="2" customWidth="1"/>
+    <col min="8176" max="8176" width="2.375" style="2" customWidth="1"/>
     <col min="8177" max="8177" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="8178" max="8178" width="2.109375" style="2" customWidth="1"/>
-    <col min="8179" max="8179" width="2.6640625" style="2" customWidth="1"/>
+    <col min="8178" max="8178" width="2.125" style="2" customWidth="1"/>
+    <col min="8179" max="8179" width="2.625" style="2" customWidth="1"/>
     <col min="8180" max="8180" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="8181" max="8181" width="9.21875" style="2" customWidth="1"/>
-    <col min="8182" max="8182" width="12.21875" style="2" customWidth="1"/>
-    <col min="8183" max="8183" width="9.109375" style="2" customWidth="1"/>
-    <col min="8184" max="8184" width="3.109375" style="2" customWidth="1"/>
-    <col min="8185" max="8185" width="5.6640625" style="2" customWidth="1"/>
-    <col min="8186" max="8186" width="6.44140625" style="2" customWidth="1"/>
+    <col min="8181" max="8181" width="9.25" style="2" customWidth="1"/>
+    <col min="8182" max="8182" width="12.25" style="2" customWidth="1"/>
+    <col min="8183" max="8183" width="9.125" style="2" customWidth="1"/>
+    <col min="8184" max="8184" width="3.125" style="2" customWidth="1"/>
+    <col min="8185" max="8185" width="5.625" style="2" customWidth="1"/>
+    <col min="8186" max="8186" width="6.5" style="2" customWidth="1"/>
     <col min="8187" max="8187" width="1" style="2" customWidth="1"/>
     <col min="8188" max="8188" width="3" style="2" customWidth="1"/>
-    <col min="8189" max="8189" width="7.109375" style="2" customWidth="1"/>
-    <col min="8190" max="8190" width="2.77734375" style="2" customWidth="1"/>
-    <col min="8191" max="8191" width="8.6640625" style="2" customWidth="1"/>
+    <col min="8189" max="8189" width="7.125" style="2" customWidth="1"/>
+    <col min="8190" max="8190" width="2.75" style="2" customWidth="1"/>
+    <col min="8191" max="8191" width="8.625" style="2" customWidth="1"/>
     <col min="8192" max="8202" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="8203" max="8227" width="9" style="2" customWidth="1"/>
     <col min="8228" max="8427" width="9" style="2"/>
-    <col min="8428" max="8428" width="1.6640625" style="2" customWidth="1"/>
-    <col min="8429" max="8429" width="1.77734375" style="2" customWidth="1"/>
-    <col min="8430" max="8430" width="7.33203125" style="2" customWidth="1"/>
-    <col min="8431" max="8431" width="4.109375" style="2" customWidth="1"/>
-    <col min="8432" max="8432" width="2.33203125" style="2" customWidth="1"/>
+    <col min="8428" max="8428" width="1.625" style="2" customWidth="1"/>
+    <col min="8429" max="8429" width="1.75" style="2" customWidth="1"/>
+    <col min="8430" max="8430" width="7.375" style="2" customWidth="1"/>
+    <col min="8431" max="8431" width="4.125" style="2" customWidth="1"/>
+    <col min="8432" max="8432" width="2.375" style="2" customWidth="1"/>
     <col min="8433" max="8433" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="8434" max="8434" width="2.109375" style="2" customWidth="1"/>
-    <col min="8435" max="8435" width="2.6640625" style="2" customWidth="1"/>
+    <col min="8434" max="8434" width="2.125" style="2" customWidth="1"/>
+    <col min="8435" max="8435" width="2.625" style="2" customWidth="1"/>
     <col min="8436" max="8436" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="8437" max="8437" width="9.21875" style="2" customWidth="1"/>
-    <col min="8438" max="8438" width="12.21875" style="2" customWidth="1"/>
-    <col min="8439" max="8439" width="9.109375" style="2" customWidth="1"/>
-    <col min="8440" max="8440" width="3.109375" style="2" customWidth="1"/>
-    <col min="8441" max="8441" width="5.6640625" style="2" customWidth="1"/>
-    <col min="8442" max="8442" width="6.44140625" style="2" customWidth="1"/>
+    <col min="8437" max="8437" width="9.25" style="2" customWidth="1"/>
+    <col min="8438" max="8438" width="12.25" style="2" customWidth="1"/>
+    <col min="8439" max="8439" width="9.125" style="2" customWidth="1"/>
+    <col min="8440" max="8440" width="3.125" style="2" customWidth="1"/>
+    <col min="8441" max="8441" width="5.625" style="2" customWidth="1"/>
+    <col min="8442" max="8442" width="6.5" style="2" customWidth="1"/>
     <col min="8443" max="8443" width="1" style="2" customWidth="1"/>
     <col min="8444" max="8444" width="3" style="2" customWidth="1"/>
-    <col min="8445" max="8445" width="7.109375" style="2" customWidth="1"/>
-    <col min="8446" max="8446" width="2.77734375" style="2" customWidth="1"/>
-    <col min="8447" max="8447" width="8.6640625" style="2" customWidth="1"/>
+    <col min="8445" max="8445" width="7.125" style="2" customWidth="1"/>
+    <col min="8446" max="8446" width="2.75" style="2" customWidth="1"/>
+    <col min="8447" max="8447" width="8.625" style="2" customWidth="1"/>
     <col min="8448" max="8458" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="8459" max="8483" width="9" style="2" customWidth="1"/>
     <col min="8484" max="8683" width="9" style="2"/>
-    <col min="8684" max="8684" width="1.6640625" style="2" customWidth="1"/>
-    <col min="8685" max="8685" width="1.77734375" style="2" customWidth="1"/>
-    <col min="8686" max="8686" width="7.33203125" style="2" customWidth="1"/>
-    <col min="8687" max="8687" width="4.109375" style="2" customWidth="1"/>
-    <col min="8688" max="8688" width="2.33203125" style="2" customWidth="1"/>
+    <col min="8684" max="8684" width="1.625" style="2" customWidth="1"/>
+    <col min="8685" max="8685" width="1.75" style="2" customWidth="1"/>
+    <col min="8686" max="8686" width="7.375" style="2" customWidth="1"/>
+    <col min="8687" max="8687" width="4.125" style="2" customWidth="1"/>
+    <col min="8688" max="8688" width="2.375" style="2" customWidth="1"/>
     <col min="8689" max="8689" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="8690" max="8690" width="2.109375" style="2" customWidth="1"/>
-    <col min="8691" max="8691" width="2.6640625" style="2" customWidth="1"/>
+    <col min="8690" max="8690" width="2.125" style="2" customWidth="1"/>
+    <col min="8691" max="8691" width="2.625" style="2" customWidth="1"/>
     <col min="8692" max="8692" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="8693" max="8693" width="9.21875" style="2" customWidth="1"/>
-    <col min="8694" max="8694" width="12.21875" style="2" customWidth="1"/>
-    <col min="8695" max="8695" width="9.109375" style="2" customWidth="1"/>
-    <col min="8696" max="8696" width="3.109375" style="2" customWidth="1"/>
-    <col min="8697" max="8697" width="5.6640625" style="2" customWidth="1"/>
-    <col min="8698" max="8698" width="6.44140625" style="2" customWidth="1"/>
+    <col min="8693" max="8693" width="9.25" style="2" customWidth="1"/>
+    <col min="8694" max="8694" width="12.25" style="2" customWidth="1"/>
+    <col min="8695" max="8695" width="9.125" style="2" customWidth="1"/>
+    <col min="8696" max="8696" width="3.125" style="2" customWidth="1"/>
+    <col min="8697" max="8697" width="5.625" style="2" customWidth="1"/>
+    <col min="8698" max="8698" width="6.5" style="2" customWidth="1"/>
     <col min="8699" max="8699" width="1" style="2" customWidth="1"/>
     <col min="8700" max="8700" width="3" style="2" customWidth="1"/>
-    <col min="8701" max="8701" width="7.109375" style="2" customWidth="1"/>
-    <col min="8702" max="8702" width="2.77734375" style="2" customWidth="1"/>
-    <col min="8703" max="8703" width="8.6640625" style="2" customWidth="1"/>
+    <col min="8701" max="8701" width="7.125" style="2" customWidth="1"/>
+    <col min="8702" max="8702" width="2.75" style="2" customWidth="1"/>
+    <col min="8703" max="8703" width="8.625" style="2" customWidth="1"/>
     <col min="8704" max="8714" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="8715" max="8739" width="9" style="2" customWidth="1"/>
     <col min="8740" max="8939" width="9" style="2"/>
-    <col min="8940" max="8940" width="1.6640625" style="2" customWidth="1"/>
-    <col min="8941" max="8941" width="1.77734375" style="2" customWidth="1"/>
-    <col min="8942" max="8942" width="7.33203125" style="2" customWidth="1"/>
-    <col min="8943" max="8943" width="4.109375" style="2" customWidth="1"/>
-    <col min="8944" max="8944" width="2.33203125" style="2" customWidth="1"/>
+    <col min="8940" max="8940" width="1.625" style="2" customWidth="1"/>
+    <col min="8941" max="8941" width="1.75" style="2" customWidth="1"/>
+    <col min="8942" max="8942" width="7.375" style="2" customWidth="1"/>
+    <col min="8943" max="8943" width="4.125" style="2" customWidth="1"/>
+    <col min="8944" max="8944" width="2.375" style="2" customWidth="1"/>
     <col min="8945" max="8945" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="8946" max="8946" width="2.109375" style="2" customWidth="1"/>
-    <col min="8947" max="8947" width="2.6640625" style="2" customWidth="1"/>
+    <col min="8946" max="8946" width="2.125" style="2" customWidth="1"/>
+    <col min="8947" max="8947" width="2.625" style="2" customWidth="1"/>
     <col min="8948" max="8948" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="8949" max="8949" width="9.21875" style="2" customWidth="1"/>
-    <col min="8950" max="8950" width="12.21875" style="2" customWidth="1"/>
-    <col min="8951" max="8951" width="9.109375" style="2" customWidth="1"/>
-    <col min="8952" max="8952" width="3.109375" style="2" customWidth="1"/>
-    <col min="8953" max="8953" width="5.6640625" style="2" customWidth="1"/>
-    <col min="8954" max="8954" width="6.44140625" style="2" customWidth="1"/>
+    <col min="8949" max="8949" width="9.25" style="2" customWidth="1"/>
+    <col min="8950" max="8950" width="12.25" style="2" customWidth="1"/>
+    <col min="8951" max="8951" width="9.125" style="2" customWidth="1"/>
+    <col min="8952" max="8952" width="3.125" style="2" customWidth="1"/>
+    <col min="8953" max="8953" width="5.625" style="2" customWidth="1"/>
+    <col min="8954" max="8954" width="6.5" style="2" customWidth="1"/>
     <col min="8955" max="8955" width="1" style="2" customWidth="1"/>
     <col min="8956" max="8956" width="3" style="2" customWidth="1"/>
-    <col min="8957" max="8957" width="7.109375" style="2" customWidth="1"/>
-    <col min="8958" max="8958" width="2.77734375" style="2" customWidth="1"/>
-    <col min="8959" max="8959" width="8.6640625" style="2" customWidth="1"/>
+    <col min="8957" max="8957" width="7.125" style="2" customWidth="1"/>
+    <col min="8958" max="8958" width="2.75" style="2" customWidth="1"/>
+    <col min="8959" max="8959" width="8.625" style="2" customWidth="1"/>
     <col min="8960" max="8970" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="8971" max="8995" width="9" style="2" customWidth="1"/>
     <col min="8996" max="9195" width="9" style="2"/>
-    <col min="9196" max="9196" width="1.6640625" style="2" customWidth="1"/>
-    <col min="9197" max="9197" width="1.77734375" style="2" customWidth="1"/>
-    <col min="9198" max="9198" width="7.33203125" style="2" customWidth="1"/>
-    <col min="9199" max="9199" width="4.109375" style="2" customWidth="1"/>
-    <col min="9200" max="9200" width="2.33203125" style="2" customWidth="1"/>
+    <col min="9196" max="9196" width="1.625" style="2" customWidth="1"/>
+    <col min="9197" max="9197" width="1.75" style="2" customWidth="1"/>
+    <col min="9198" max="9198" width="7.375" style="2" customWidth="1"/>
+    <col min="9199" max="9199" width="4.125" style="2" customWidth="1"/>
+    <col min="9200" max="9200" width="2.375" style="2" customWidth="1"/>
     <col min="9201" max="9201" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="9202" max="9202" width="2.109375" style="2" customWidth="1"/>
-    <col min="9203" max="9203" width="2.6640625" style="2" customWidth="1"/>
+    <col min="9202" max="9202" width="2.125" style="2" customWidth="1"/>
+    <col min="9203" max="9203" width="2.625" style="2" customWidth="1"/>
     <col min="9204" max="9204" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="9205" max="9205" width="9.21875" style="2" customWidth="1"/>
-    <col min="9206" max="9206" width="12.21875" style="2" customWidth="1"/>
-    <col min="9207" max="9207" width="9.109375" style="2" customWidth="1"/>
-    <col min="9208" max="9208" width="3.109375" style="2" customWidth="1"/>
-    <col min="9209" max="9209" width="5.6640625" style="2" customWidth="1"/>
-    <col min="9210" max="9210" width="6.44140625" style="2" customWidth="1"/>
+    <col min="9205" max="9205" width="9.25" style="2" customWidth="1"/>
+    <col min="9206" max="9206" width="12.25" style="2" customWidth="1"/>
+    <col min="9207" max="9207" width="9.125" style="2" customWidth="1"/>
+    <col min="9208" max="9208" width="3.125" style="2" customWidth="1"/>
+    <col min="9209" max="9209" width="5.625" style="2" customWidth="1"/>
+    <col min="9210" max="9210" width="6.5" style="2" customWidth="1"/>
     <col min="9211" max="9211" width="1" style="2" customWidth="1"/>
     <col min="9212" max="9212" width="3" style="2" customWidth="1"/>
-    <col min="9213" max="9213" width="7.109375" style="2" customWidth="1"/>
-    <col min="9214" max="9214" width="2.77734375" style="2" customWidth="1"/>
-    <col min="9215" max="9215" width="8.6640625" style="2" customWidth="1"/>
+    <col min="9213" max="9213" width="7.125" style="2" customWidth="1"/>
+    <col min="9214" max="9214" width="2.75" style="2" customWidth="1"/>
+    <col min="9215" max="9215" width="8.625" style="2" customWidth="1"/>
     <col min="9216" max="9226" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="9227" max="9251" width="9" style="2" customWidth="1"/>
     <col min="9252" max="9451" width="9" style="2"/>
-    <col min="9452" max="9452" width="1.6640625" style="2" customWidth="1"/>
-    <col min="9453" max="9453" width="1.77734375" style="2" customWidth="1"/>
-    <col min="9454" max="9454" width="7.33203125" style="2" customWidth="1"/>
-    <col min="9455" max="9455" width="4.109375" style="2" customWidth="1"/>
-    <col min="9456" max="9456" width="2.33203125" style="2" customWidth="1"/>
+    <col min="9452" max="9452" width="1.625" style="2" customWidth="1"/>
+    <col min="9453" max="9453" width="1.75" style="2" customWidth="1"/>
+    <col min="9454" max="9454" width="7.375" style="2" customWidth="1"/>
+    <col min="9455" max="9455" width="4.125" style="2" customWidth="1"/>
+    <col min="9456" max="9456" width="2.375" style="2" customWidth="1"/>
     <col min="9457" max="9457" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="9458" max="9458" width="2.109375" style="2" customWidth="1"/>
-    <col min="9459" max="9459" width="2.6640625" style="2" customWidth="1"/>
+    <col min="9458" max="9458" width="2.125" style="2" customWidth="1"/>
+    <col min="9459" max="9459" width="2.625" style="2" customWidth="1"/>
     <col min="9460" max="9460" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="9461" max="9461" width="9.21875" style="2" customWidth="1"/>
-    <col min="9462" max="9462" width="12.21875" style="2" customWidth="1"/>
-    <col min="9463" max="9463" width="9.109375" style="2" customWidth="1"/>
-    <col min="9464" max="9464" width="3.109375" style="2" customWidth="1"/>
-    <col min="9465" max="9465" width="5.6640625" style="2" customWidth="1"/>
-    <col min="9466" max="9466" width="6.44140625" style="2" customWidth="1"/>
+    <col min="9461" max="9461" width="9.25" style="2" customWidth="1"/>
+    <col min="9462" max="9462" width="12.25" style="2" customWidth="1"/>
+    <col min="9463" max="9463" width="9.125" style="2" customWidth="1"/>
+    <col min="9464" max="9464" width="3.125" style="2" customWidth="1"/>
+    <col min="9465" max="9465" width="5.625" style="2" customWidth="1"/>
+    <col min="9466" max="9466" width="6.5" style="2" customWidth="1"/>
     <col min="9467" max="9467" width="1" style="2" customWidth="1"/>
     <col min="9468" max="9468" width="3" style="2" customWidth="1"/>
-    <col min="9469" max="9469" width="7.109375" style="2" customWidth="1"/>
-    <col min="9470" max="9470" width="2.77734375" style="2" customWidth="1"/>
-    <col min="9471" max="9471" width="8.6640625" style="2" customWidth="1"/>
+    <col min="9469" max="9469" width="7.125" style="2" customWidth="1"/>
+    <col min="9470" max="9470" width="2.75" style="2" customWidth="1"/>
+    <col min="9471" max="9471" width="8.625" style="2" customWidth="1"/>
     <col min="9472" max="9482" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="9483" max="9507" width="9" style="2" customWidth="1"/>
     <col min="9508" max="9707" width="9" style="2"/>
-    <col min="9708" max="9708" width="1.6640625" style="2" customWidth="1"/>
-    <col min="9709" max="9709" width="1.77734375" style="2" customWidth="1"/>
-    <col min="9710" max="9710" width="7.33203125" style="2" customWidth="1"/>
-    <col min="9711" max="9711" width="4.109375" style="2" customWidth="1"/>
-    <col min="9712" max="9712" width="2.33203125" style="2" customWidth="1"/>
+    <col min="9708" max="9708" width="1.625" style="2" customWidth="1"/>
+    <col min="9709" max="9709" width="1.75" style="2" customWidth="1"/>
+    <col min="9710" max="9710" width="7.375" style="2" customWidth="1"/>
+    <col min="9711" max="9711" width="4.125" style="2" customWidth="1"/>
+    <col min="9712" max="9712" width="2.375" style="2" customWidth="1"/>
     <col min="9713" max="9713" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="9714" max="9714" width="2.109375" style="2" customWidth="1"/>
-    <col min="9715" max="9715" width="2.6640625" style="2" customWidth="1"/>
+    <col min="9714" max="9714" width="2.125" style="2" customWidth="1"/>
+    <col min="9715" max="9715" width="2.625" style="2" customWidth="1"/>
     <col min="9716" max="9716" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="9717" max="9717" width="9.21875" style="2" customWidth="1"/>
-    <col min="9718" max="9718" width="12.21875" style="2" customWidth="1"/>
-    <col min="9719" max="9719" width="9.109375" style="2" customWidth="1"/>
-    <col min="9720" max="9720" width="3.109375" style="2" customWidth="1"/>
-    <col min="9721" max="9721" width="5.6640625" style="2" customWidth="1"/>
-    <col min="9722" max="9722" width="6.44140625" style="2" customWidth="1"/>
+    <col min="9717" max="9717" width="9.25" style="2" customWidth="1"/>
+    <col min="9718" max="9718" width="12.25" style="2" customWidth="1"/>
+    <col min="9719" max="9719" width="9.125" style="2" customWidth="1"/>
+    <col min="9720" max="9720" width="3.125" style="2" customWidth="1"/>
+    <col min="9721" max="9721" width="5.625" style="2" customWidth="1"/>
+    <col min="9722" max="9722" width="6.5" style="2" customWidth="1"/>
     <col min="9723" max="9723" width="1" style="2" customWidth="1"/>
     <col min="9724" max="9724" width="3" style="2" customWidth="1"/>
-    <col min="9725" max="9725" width="7.109375" style="2" customWidth="1"/>
-    <col min="9726" max="9726" width="2.77734375" style="2" customWidth="1"/>
-    <col min="9727" max="9727" width="8.6640625" style="2" customWidth="1"/>
+    <col min="9725" max="9725" width="7.125" style="2" customWidth="1"/>
+    <col min="9726" max="9726" width="2.75" style="2" customWidth="1"/>
+    <col min="9727" max="9727" width="8.625" style="2" customWidth="1"/>
     <col min="9728" max="9738" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="9739" max="9763" width="9" style="2" customWidth="1"/>
     <col min="9764" max="9963" width="9" style="2"/>
-    <col min="9964" max="9964" width="1.6640625" style="2" customWidth="1"/>
-    <col min="9965" max="9965" width="1.77734375" style="2" customWidth="1"/>
-    <col min="9966" max="9966" width="7.33203125" style="2" customWidth="1"/>
-    <col min="9967" max="9967" width="4.109375" style="2" customWidth="1"/>
-    <col min="9968" max="9968" width="2.33203125" style="2" customWidth="1"/>
+    <col min="9964" max="9964" width="1.625" style="2" customWidth="1"/>
+    <col min="9965" max="9965" width="1.75" style="2" customWidth="1"/>
+    <col min="9966" max="9966" width="7.375" style="2" customWidth="1"/>
+    <col min="9967" max="9967" width="4.125" style="2" customWidth="1"/>
+    <col min="9968" max="9968" width="2.375" style="2" customWidth="1"/>
     <col min="9969" max="9969" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="9970" max="9970" width="2.109375" style="2" customWidth="1"/>
-    <col min="9971" max="9971" width="2.6640625" style="2" customWidth="1"/>
+    <col min="9970" max="9970" width="2.125" style="2" customWidth="1"/>
+    <col min="9971" max="9971" width="2.625" style="2" customWidth="1"/>
     <col min="9972" max="9972" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="9973" max="9973" width="9.21875" style="2" customWidth="1"/>
-    <col min="9974" max="9974" width="12.21875" style="2" customWidth="1"/>
-    <col min="9975" max="9975" width="9.109375" style="2" customWidth="1"/>
-    <col min="9976" max="9976" width="3.109375" style="2" customWidth="1"/>
-    <col min="9977" max="9977" width="5.6640625" style="2" customWidth="1"/>
-    <col min="9978" max="9978" width="6.44140625" style="2" customWidth="1"/>
+    <col min="9973" max="9973" width="9.25" style="2" customWidth="1"/>
+    <col min="9974" max="9974" width="12.25" style="2" customWidth="1"/>
+    <col min="9975" max="9975" width="9.125" style="2" customWidth="1"/>
+    <col min="9976" max="9976" width="3.125" style="2" customWidth="1"/>
+    <col min="9977" max="9977" width="5.625" style="2" customWidth="1"/>
+    <col min="9978" max="9978" width="6.5" style="2" customWidth="1"/>
     <col min="9979" max="9979" width="1" style="2" customWidth="1"/>
     <col min="9980" max="9980" width="3" style="2" customWidth="1"/>
-    <col min="9981" max="9981" width="7.109375" style="2" customWidth="1"/>
-    <col min="9982" max="9982" width="2.77734375" style="2" customWidth="1"/>
-    <col min="9983" max="9983" width="8.6640625" style="2" customWidth="1"/>
+    <col min="9981" max="9981" width="7.125" style="2" customWidth="1"/>
+    <col min="9982" max="9982" width="2.75" style="2" customWidth="1"/>
+    <col min="9983" max="9983" width="8.625" style="2" customWidth="1"/>
     <col min="9984" max="9994" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="9995" max="10019" width="9" style="2" customWidth="1"/>
     <col min="10020" max="10219" width="9" style="2"/>
-    <col min="10220" max="10220" width="1.6640625" style="2" customWidth="1"/>
-    <col min="10221" max="10221" width="1.77734375" style="2" customWidth="1"/>
-    <col min="10222" max="10222" width="7.33203125" style="2" customWidth="1"/>
-    <col min="10223" max="10223" width="4.109375" style="2" customWidth="1"/>
-    <col min="10224" max="10224" width="2.33203125" style="2" customWidth="1"/>
+    <col min="10220" max="10220" width="1.625" style="2" customWidth="1"/>
+    <col min="10221" max="10221" width="1.75" style="2" customWidth="1"/>
+    <col min="10222" max="10222" width="7.375" style="2" customWidth="1"/>
+    <col min="10223" max="10223" width="4.125" style="2" customWidth="1"/>
+    <col min="10224" max="10224" width="2.375" style="2" customWidth="1"/>
     <col min="10225" max="10225" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="10226" max="10226" width="2.109375" style="2" customWidth="1"/>
-    <col min="10227" max="10227" width="2.6640625" style="2" customWidth="1"/>
+    <col min="10226" max="10226" width="2.125" style="2" customWidth="1"/>
+    <col min="10227" max="10227" width="2.625" style="2" customWidth="1"/>
     <col min="10228" max="10228" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="10229" max="10229" width="9.21875" style="2" customWidth="1"/>
-    <col min="10230" max="10230" width="12.21875" style="2" customWidth="1"/>
-    <col min="10231" max="10231" width="9.109375" style="2" customWidth="1"/>
-    <col min="10232" max="10232" width="3.109375" style="2" customWidth="1"/>
-    <col min="10233" max="10233" width="5.6640625" style="2" customWidth="1"/>
-    <col min="10234" max="10234" width="6.44140625" style="2" customWidth="1"/>
+    <col min="10229" max="10229" width="9.25" style="2" customWidth="1"/>
+    <col min="10230" max="10230" width="12.25" style="2" customWidth="1"/>
+    <col min="10231" max="10231" width="9.125" style="2" customWidth="1"/>
+    <col min="10232" max="10232" width="3.125" style="2" customWidth="1"/>
+    <col min="10233" max="10233" width="5.625" style="2" customWidth="1"/>
+    <col min="10234" max="10234" width="6.5" style="2" customWidth="1"/>
     <col min="10235" max="10235" width="1" style="2" customWidth="1"/>
     <col min="10236" max="10236" width="3" style="2" customWidth="1"/>
-    <col min="10237" max="10237" width="7.109375" style="2" customWidth="1"/>
-    <col min="10238" max="10238" width="2.77734375" style="2" customWidth="1"/>
-    <col min="10239" max="10239" width="8.6640625" style="2" customWidth="1"/>
+    <col min="10237" max="10237" width="7.125" style="2" customWidth="1"/>
+    <col min="10238" max="10238" width="2.75" style="2" customWidth="1"/>
+    <col min="10239" max="10239" width="8.625" style="2" customWidth="1"/>
     <col min="10240" max="10250" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="10251" max="10275" width="9" style="2" customWidth="1"/>
     <col min="10276" max="10475" width="9" style="2"/>
-    <col min="10476" max="10476" width="1.6640625" style="2" customWidth="1"/>
-    <col min="10477" max="10477" width="1.77734375" style="2" customWidth="1"/>
-    <col min="10478" max="10478" width="7.33203125" style="2" customWidth="1"/>
-    <col min="10479" max="10479" width="4.109375" style="2" customWidth="1"/>
-    <col min="10480" max="10480" width="2.33203125" style="2" customWidth="1"/>
+    <col min="10476" max="10476" width="1.625" style="2" customWidth="1"/>
+    <col min="10477" max="10477" width="1.75" style="2" customWidth="1"/>
+    <col min="10478" max="10478" width="7.375" style="2" customWidth="1"/>
+    <col min="10479" max="10479" width="4.125" style="2" customWidth="1"/>
+    <col min="10480" max="10480" width="2.375" style="2" customWidth="1"/>
     <col min="10481" max="10481" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="10482" max="10482" width="2.109375" style="2" customWidth="1"/>
-    <col min="10483" max="10483" width="2.6640625" style="2" customWidth="1"/>
+    <col min="10482" max="10482" width="2.125" style="2" customWidth="1"/>
+    <col min="10483" max="10483" width="2.625" style="2" customWidth="1"/>
     <col min="10484" max="10484" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="10485" max="10485" width="9.21875" style="2" customWidth="1"/>
-    <col min="10486" max="10486" width="12.21875" style="2" customWidth="1"/>
-    <col min="10487" max="10487" width="9.109375" style="2" customWidth="1"/>
-    <col min="10488" max="10488" width="3.109375" style="2" customWidth="1"/>
-    <col min="10489" max="10489" width="5.6640625" style="2" customWidth="1"/>
-    <col min="10490" max="10490" width="6.44140625" style="2" customWidth="1"/>
+    <col min="10485" max="10485" width="9.25" style="2" customWidth="1"/>
+    <col min="10486" max="10486" width="12.25" style="2" customWidth="1"/>
+    <col min="10487" max="10487" width="9.125" style="2" customWidth="1"/>
+    <col min="10488" max="10488" width="3.125" style="2" customWidth="1"/>
+    <col min="10489" max="10489" width="5.625" style="2" customWidth="1"/>
+    <col min="10490" max="10490" width="6.5" style="2" customWidth="1"/>
     <col min="10491" max="10491" width="1" style="2" customWidth="1"/>
     <col min="10492" max="10492" width="3" style="2" customWidth="1"/>
-    <col min="10493" max="10493" width="7.109375" style="2" customWidth="1"/>
-    <col min="10494" max="10494" width="2.77734375" style="2" customWidth="1"/>
-    <col min="10495" max="10495" width="8.6640625" style="2" customWidth="1"/>
+    <col min="10493" max="10493" width="7.125" style="2" customWidth="1"/>
+    <col min="10494" max="10494" width="2.75" style="2" customWidth="1"/>
+    <col min="10495" max="10495" width="8.625" style="2" customWidth="1"/>
     <col min="10496" max="10506" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="10507" max="10531" width="9" style="2" customWidth="1"/>
     <col min="10532" max="10731" width="9" style="2"/>
-    <col min="10732" max="10732" width="1.6640625" style="2" customWidth="1"/>
-    <col min="10733" max="10733" width="1.77734375" style="2" customWidth="1"/>
-    <col min="10734" max="10734" width="7.33203125" style="2" customWidth="1"/>
-    <col min="10735" max="10735" width="4.109375" style="2" customWidth="1"/>
-    <col min="10736" max="10736" width="2.33203125" style="2" customWidth="1"/>
+    <col min="10732" max="10732" width="1.625" style="2" customWidth="1"/>
+    <col min="10733" max="10733" width="1.75" style="2" customWidth="1"/>
+    <col min="10734" max="10734" width="7.375" style="2" customWidth="1"/>
+    <col min="10735" max="10735" width="4.125" style="2" customWidth="1"/>
+    <col min="10736" max="10736" width="2.375" style="2" customWidth="1"/>
     <col min="10737" max="10737" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="10738" max="10738" width="2.109375" style="2" customWidth="1"/>
-    <col min="10739" max="10739" width="2.6640625" style="2" customWidth="1"/>
+    <col min="10738" max="10738" width="2.125" style="2" customWidth="1"/>
+    <col min="10739" max="10739" width="2.625" style="2" customWidth="1"/>
     <col min="10740" max="10740" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="10741" max="10741" width="9.21875" style="2" customWidth="1"/>
-    <col min="10742" max="10742" width="12.21875" style="2" customWidth="1"/>
-    <col min="10743" max="10743" width="9.109375" style="2" customWidth="1"/>
-    <col min="10744" max="10744" width="3.109375" style="2" customWidth="1"/>
-    <col min="10745" max="10745" width="5.6640625" style="2" customWidth="1"/>
-    <col min="10746" max="10746" width="6.44140625" style="2" customWidth="1"/>
+    <col min="10741" max="10741" width="9.25" style="2" customWidth="1"/>
+    <col min="10742" max="10742" width="12.25" style="2" customWidth="1"/>
+    <col min="10743" max="10743" width="9.125" style="2" customWidth="1"/>
+    <col min="10744" max="10744" width="3.125" style="2" customWidth="1"/>
+    <col min="10745" max="10745" width="5.625" style="2" customWidth="1"/>
+    <col min="10746" max="10746" width="6.5" style="2" customWidth="1"/>
     <col min="10747" max="10747" width="1" style="2" customWidth="1"/>
     <col min="10748" max="10748" width="3" style="2" customWidth="1"/>
-    <col min="10749" max="10749" width="7.109375" style="2" customWidth="1"/>
-    <col min="10750" max="10750" width="2.77734375" style="2" customWidth="1"/>
-    <col min="10751" max="10751" width="8.6640625" style="2" customWidth="1"/>
+    <col min="10749" max="10749" width="7.125" style="2" customWidth="1"/>
+    <col min="10750" max="10750" width="2.75" style="2" customWidth="1"/>
+    <col min="10751" max="10751" width="8.625" style="2" customWidth="1"/>
     <col min="10752" max="10762" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="10763" max="10787" width="9" style="2" customWidth="1"/>
     <col min="10788" max="10987" width="9" style="2"/>
-    <col min="10988" max="10988" width="1.6640625" style="2" customWidth="1"/>
-    <col min="10989" max="10989" width="1.77734375" style="2" customWidth="1"/>
-    <col min="10990" max="10990" width="7.33203125" style="2" customWidth="1"/>
-    <col min="10991" max="10991" width="4.109375" style="2" customWidth="1"/>
-    <col min="10992" max="10992" width="2.33203125" style="2" customWidth="1"/>
+    <col min="10988" max="10988" width="1.625" style="2" customWidth="1"/>
+    <col min="10989" max="10989" width="1.75" style="2" customWidth="1"/>
+    <col min="10990" max="10990" width="7.375" style="2" customWidth="1"/>
+    <col min="10991" max="10991" width="4.125" style="2" customWidth="1"/>
+    <col min="10992" max="10992" width="2.375" style="2" customWidth="1"/>
     <col min="10993" max="10993" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="10994" max="10994" width="2.109375" style="2" customWidth="1"/>
-    <col min="10995" max="10995" width="2.6640625" style="2" customWidth="1"/>
+    <col min="10994" max="10994" width="2.125" style="2" customWidth="1"/>
+    <col min="10995" max="10995" width="2.625" style="2" customWidth="1"/>
     <col min="10996" max="10996" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="10997" max="10997" width="9.21875" style="2" customWidth="1"/>
-    <col min="10998" max="10998" width="12.21875" style="2" customWidth="1"/>
-    <col min="10999" max="10999" width="9.109375" style="2" customWidth="1"/>
-    <col min="11000" max="11000" width="3.109375" style="2" customWidth="1"/>
-    <col min="11001" max="11001" width="5.6640625" style="2" customWidth="1"/>
-    <col min="11002" max="11002" width="6.44140625" style="2" customWidth="1"/>
+    <col min="10997" max="10997" width="9.25" style="2" customWidth="1"/>
+    <col min="10998" max="10998" width="12.25" style="2" customWidth="1"/>
+    <col min="10999" max="10999" width="9.125" style="2" customWidth="1"/>
+    <col min="11000" max="11000" width="3.125" style="2" customWidth="1"/>
+    <col min="11001" max="11001" width="5.625" style="2" customWidth="1"/>
+    <col min="11002" max="11002" width="6.5" style="2" customWidth="1"/>
     <col min="11003" max="11003" width="1" style="2" customWidth="1"/>
     <col min="11004" max="11004" width="3" style="2" customWidth="1"/>
-    <col min="11005" max="11005" width="7.109375" style="2" customWidth="1"/>
-    <col min="11006" max="11006" width="2.77734375" style="2" customWidth="1"/>
-    <col min="11007" max="11007" width="8.6640625" style="2" customWidth="1"/>
+    <col min="11005" max="11005" width="7.125" style="2" customWidth="1"/>
+    <col min="11006" max="11006" width="2.75" style="2" customWidth="1"/>
+    <col min="11007" max="11007" width="8.625" style="2" customWidth="1"/>
     <col min="11008" max="11018" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="11019" max="11043" width="9" style="2" customWidth="1"/>
     <col min="11044" max="11243" width="9" style="2"/>
-    <col min="11244" max="11244" width="1.6640625" style="2" customWidth="1"/>
-    <col min="11245" max="11245" width="1.77734375" style="2" customWidth="1"/>
-    <col min="11246" max="11246" width="7.33203125" style="2" customWidth="1"/>
-    <col min="11247" max="11247" width="4.109375" style="2" customWidth="1"/>
-    <col min="11248" max="11248" width="2.33203125" style="2" customWidth="1"/>
+    <col min="11244" max="11244" width="1.625" style="2" customWidth="1"/>
+    <col min="11245" max="11245" width="1.75" style="2" customWidth="1"/>
+    <col min="11246" max="11246" width="7.375" style="2" customWidth="1"/>
+    <col min="11247" max="11247" width="4.125" style="2" customWidth="1"/>
+    <col min="11248" max="11248" width="2.375" style="2" customWidth="1"/>
     <col min="11249" max="11249" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="11250" max="11250" width="2.109375" style="2" customWidth="1"/>
-    <col min="11251" max="11251" width="2.6640625" style="2" customWidth="1"/>
+    <col min="11250" max="11250" width="2.125" style="2" customWidth="1"/>
+    <col min="11251" max="11251" width="2.625" style="2" customWidth="1"/>
     <col min="11252" max="11252" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="11253" max="11253" width="9.21875" style="2" customWidth="1"/>
-    <col min="11254" max="11254" width="12.21875" style="2" customWidth="1"/>
-    <col min="11255" max="11255" width="9.109375" style="2" customWidth="1"/>
-    <col min="11256" max="11256" width="3.109375" style="2" customWidth="1"/>
-    <col min="11257" max="11257" width="5.6640625" style="2" customWidth="1"/>
-    <col min="11258" max="11258" width="6.44140625" style="2" customWidth="1"/>
+    <col min="11253" max="11253" width="9.25" style="2" customWidth="1"/>
+    <col min="11254" max="11254" width="12.25" style="2" customWidth="1"/>
+    <col min="11255" max="11255" width="9.125" style="2" customWidth="1"/>
+    <col min="11256" max="11256" width="3.125" style="2" customWidth="1"/>
+    <col min="11257" max="11257" width="5.625" style="2" customWidth="1"/>
+    <col min="11258" max="11258" width="6.5" style="2" customWidth="1"/>
     <col min="11259" max="11259" width="1" style="2" customWidth="1"/>
     <col min="11260" max="11260" width="3" style="2" customWidth="1"/>
-    <col min="11261" max="11261" width="7.109375" style="2" customWidth="1"/>
-    <col min="11262" max="11262" width="2.77734375" style="2" customWidth="1"/>
-    <col min="11263" max="11263" width="8.6640625" style="2" customWidth="1"/>
+    <col min="11261" max="11261" width="7.125" style="2" customWidth="1"/>
+    <col min="11262" max="11262" width="2.75" style="2" customWidth="1"/>
+    <col min="11263" max="11263" width="8.625" style="2" customWidth="1"/>
     <col min="11264" max="11274" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="11275" max="11299" width="9" style="2" customWidth="1"/>
     <col min="11300" max="11499" width="9" style="2"/>
-    <col min="11500" max="11500" width="1.6640625" style="2" customWidth="1"/>
-    <col min="11501" max="11501" width="1.77734375" style="2" customWidth="1"/>
-    <col min="11502" max="11502" width="7.33203125" style="2" customWidth="1"/>
-    <col min="11503" max="11503" width="4.109375" style="2" customWidth="1"/>
-    <col min="11504" max="11504" width="2.33203125" style="2" customWidth="1"/>
+    <col min="11500" max="11500" width="1.625" style="2" customWidth="1"/>
+    <col min="11501" max="11501" width="1.75" style="2" customWidth="1"/>
+    <col min="11502" max="11502" width="7.375" style="2" customWidth="1"/>
+    <col min="11503" max="11503" width="4.125" style="2" customWidth="1"/>
+    <col min="11504" max="11504" width="2.375" style="2" customWidth="1"/>
     <col min="11505" max="11505" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="11506" max="11506" width="2.109375" style="2" customWidth="1"/>
-    <col min="11507" max="11507" width="2.6640625" style="2" customWidth="1"/>
+    <col min="11506" max="11506" width="2.125" style="2" customWidth="1"/>
+    <col min="11507" max="11507" width="2.625" style="2" customWidth="1"/>
     <col min="11508" max="11508" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="11509" max="11509" width="9.21875" style="2" customWidth="1"/>
-    <col min="11510" max="11510" width="12.21875" style="2" customWidth="1"/>
-    <col min="11511" max="11511" width="9.109375" style="2" customWidth="1"/>
-    <col min="11512" max="11512" width="3.109375" style="2" customWidth="1"/>
-    <col min="11513" max="11513" width="5.6640625" style="2" customWidth="1"/>
-    <col min="11514" max="11514" width="6.44140625" style="2" customWidth="1"/>
+    <col min="11509" max="11509" width="9.25" style="2" customWidth="1"/>
+    <col min="11510" max="11510" width="12.25" style="2" customWidth="1"/>
+    <col min="11511" max="11511" width="9.125" style="2" customWidth="1"/>
+    <col min="11512" max="11512" width="3.125" style="2" customWidth="1"/>
+    <col min="11513" max="11513" width="5.625" style="2" customWidth="1"/>
+    <col min="11514" max="11514" width="6.5" style="2" customWidth="1"/>
     <col min="11515" max="11515" width="1" style="2" customWidth="1"/>
     <col min="11516" max="11516" width="3" style="2" customWidth="1"/>
-    <col min="11517" max="11517" width="7.109375" style="2" customWidth="1"/>
-    <col min="11518" max="11518" width="2.77734375" style="2" customWidth="1"/>
-    <col min="11519" max="11519" width="8.6640625" style="2" customWidth="1"/>
+    <col min="11517" max="11517" width="7.125" style="2" customWidth="1"/>
+    <col min="11518" max="11518" width="2.75" style="2" customWidth="1"/>
+    <col min="11519" max="11519" width="8.625" style="2" customWidth="1"/>
     <col min="11520" max="11530" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="11531" max="11555" width="9" style="2" customWidth="1"/>
     <col min="11556" max="11755" width="9" style="2"/>
-    <col min="11756" max="11756" width="1.6640625" style="2" customWidth="1"/>
-    <col min="11757" max="11757" width="1.77734375" style="2" customWidth="1"/>
-    <col min="11758" max="11758" width="7.33203125" style="2" customWidth="1"/>
-    <col min="11759" max="11759" width="4.109375" style="2" customWidth="1"/>
-    <col min="11760" max="11760" width="2.33203125" style="2" customWidth="1"/>
+    <col min="11756" max="11756" width="1.625" style="2" customWidth="1"/>
+    <col min="11757" max="11757" width="1.75" style="2" customWidth="1"/>
+    <col min="11758" max="11758" width="7.375" style="2" customWidth="1"/>
+    <col min="11759" max="11759" width="4.125" style="2" customWidth="1"/>
+    <col min="11760" max="11760" width="2.375" style="2" customWidth="1"/>
     <col min="11761" max="11761" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="11762" max="11762" width="2.109375" style="2" customWidth="1"/>
-    <col min="11763" max="11763" width="2.6640625" style="2" customWidth="1"/>
+    <col min="11762" max="11762" width="2.125" style="2" customWidth="1"/>
+    <col min="11763" max="11763" width="2.625" style="2" customWidth="1"/>
     <col min="11764" max="11764" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="11765" max="11765" width="9.21875" style="2" customWidth="1"/>
-    <col min="11766" max="11766" width="12.21875" style="2" customWidth="1"/>
-    <col min="11767" max="11767" width="9.109375" style="2" customWidth="1"/>
-    <col min="11768" max="11768" width="3.109375" style="2" customWidth="1"/>
-    <col min="11769" max="11769" width="5.6640625" style="2" customWidth="1"/>
-    <col min="11770" max="11770" width="6.44140625" style="2" customWidth="1"/>
+    <col min="11765" max="11765" width="9.25" style="2" customWidth="1"/>
+    <col min="11766" max="11766" width="12.25" style="2" customWidth="1"/>
+    <col min="11767" max="11767" width="9.125" style="2" customWidth="1"/>
+    <col min="11768" max="11768" width="3.125" style="2" customWidth="1"/>
+    <col min="11769" max="11769" width="5.625" style="2" customWidth="1"/>
+    <col min="11770" max="11770" width="6.5" style="2" customWidth="1"/>
     <col min="11771" max="11771" width="1" style="2" customWidth="1"/>
     <col min="11772" max="11772" width="3" style="2" customWidth="1"/>
-    <col min="11773" max="11773" width="7.109375" style="2" customWidth="1"/>
-    <col min="11774" max="11774" width="2.77734375" style="2" customWidth="1"/>
-    <col min="11775" max="11775" width="8.6640625" style="2" customWidth="1"/>
+    <col min="11773" max="11773" width="7.125" style="2" customWidth="1"/>
+    <col min="11774" max="11774" width="2.75" style="2" customWidth="1"/>
+    <col min="11775" max="11775" width="8.625" style="2" customWidth="1"/>
     <col min="11776" max="11786" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="11787" max="11811" width="9" style="2" customWidth="1"/>
     <col min="11812" max="12011" width="9" style="2"/>
-    <col min="12012" max="12012" width="1.6640625" style="2" customWidth="1"/>
-    <col min="12013" max="12013" width="1.77734375" style="2" customWidth="1"/>
-    <col min="12014" max="12014" width="7.33203125" style="2" customWidth="1"/>
-    <col min="12015" max="12015" width="4.109375" style="2" customWidth="1"/>
-    <col min="12016" max="12016" width="2.33203125" style="2" customWidth="1"/>
+    <col min="12012" max="12012" width="1.625" style="2" customWidth="1"/>
+    <col min="12013" max="12013" width="1.75" style="2" customWidth="1"/>
+    <col min="12014" max="12014" width="7.375" style="2" customWidth="1"/>
+    <col min="12015" max="12015" width="4.125" style="2" customWidth="1"/>
+    <col min="12016" max="12016" width="2.375" style="2" customWidth="1"/>
     <col min="12017" max="12017" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="12018" max="12018" width="2.109375" style="2" customWidth="1"/>
-    <col min="12019" max="12019" width="2.6640625" style="2" customWidth="1"/>
+    <col min="12018" max="12018" width="2.125" style="2" customWidth="1"/>
+    <col min="12019" max="12019" width="2.625" style="2" customWidth="1"/>
     <col min="12020" max="12020" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="12021" max="12021" width="9.21875" style="2" customWidth="1"/>
-    <col min="12022" max="12022" width="12.21875" style="2" customWidth="1"/>
-    <col min="12023" max="12023" width="9.109375" style="2" customWidth="1"/>
-    <col min="12024" max="12024" width="3.109375" style="2" customWidth="1"/>
-    <col min="12025" max="12025" width="5.6640625" style="2" customWidth="1"/>
-    <col min="12026" max="12026" width="6.44140625" style="2" customWidth="1"/>
+    <col min="12021" max="12021" width="9.25" style="2" customWidth="1"/>
+    <col min="12022" max="12022" width="12.25" style="2" customWidth="1"/>
+    <col min="12023" max="12023" width="9.125" style="2" customWidth="1"/>
+    <col min="12024" max="12024" width="3.125" style="2" customWidth="1"/>
+    <col min="12025" max="12025" width="5.625" style="2" customWidth="1"/>
+    <col min="12026" max="12026" width="6.5" style="2" customWidth="1"/>
     <col min="12027" max="12027" width="1" style="2" customWidth="1"/>
     <col min="12028" max="12028" width="3" style="2" customWidth="1"/>
-    <col min="12029" max="12029" width="7.109375" style="2" customWidth="1"/>
-    <col min="12030" max="12030" width="2.77734375" style="2" customWidth="1"/>
-    <col min="12031" max="12031" width="8.6640625" style="2" customWidth="1"/>
+    <col min="12029" max="12029" width="7.125" style="2" customWidth="1"/>
+    <col min="12030" max="12030" width="2.75" style="2" customWidth="1"/>
+    <col min="12031" max="12031" width="8.625" style="2" customWidth="1"/>
     <col min="12032" max="12042" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="12043" max="12067" width="9" style="2" customWidth="1"/>
     <col min="12068" max="12267" width="9" style="2"/>
-    <col min="12268" max="12268" width="1.6640625" style="2" customWidth="1"/>
-    <col min="12269" max="12269" width="1.77734375" style="2" customWidth="1"/>
-    <col min="12270" max="12270" width="7.33203125" style="2" customWidth="1"/>
-    <col min="12271" max="12271" width="4.109375" style="2" customWidth="1"/>
-    <col min="12272" max="12272" width="2.33203125" style="2" customWidth="1"/>
+    <col min="12268" max="12268" width="1.625" style="2" customWidth="1"/>
+    <col min="12269" max="12269" width="1.75" style="2" customWidth="1"/>
+    <col min="12270" max="12270" width="7.375" style="2" customWidth="1"/>
+    <col min="12271" max="12271" width="4.125" style="2" customWidth="1"/>
+    <col min="12272" max="12272" width="2.375" style="2" customWidth="1"/>
     <col min="12273" max="12273" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="12274" max="12274" width="2.109375" style="2" customWidth="1"/>
-    <col min="12275" max="12275" width="2.6640625" style="2" customWidth="1"/>
+    <col min="12274" max="12274" width="2.125" style="2" customWidth="1"/>
+    <col min="12275" max="12275" width="2.625" style="2" customWidth="1"/>
     <col min="12276" max="12276" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="12277" max="12277" width="9.21875" style="2" customWidth="1"/>
-    <col min="12278" max="12278" width="12.21875" style="2" customWidth="1"/>
-    <col min="12279" max="12279" width="9.109375" style="2" customWidth="1"/>
-    <col min="12280" max="12280" width="3.109375" style="2" customWidth="1"/>
-    <col min="12281" max="12281" width="5.6640625" style="2" customWidth="1"/>
-    <col min="12282" max="12282" width="6.44140625" style="2" customWidth="1"/>
+    <col min="12277" max="12277" width="9.25" style="2" customWidth="1"/>
+    <col min="12278" max="12278" width="12.25" style="2" customWidth="1"/>
+    <col min="12279" max="12279" width="9.125" style="2" customWidth="1"/>
+    <col min="12280" max="12280" width="3.125" style="2" customWidth="1"/>
+    <col min="12281" max="12281" width="5.625" style="2" customWidth="1"/>
+    <col min="12282" max="12282" width="6.5" style="2" customWidth="1"/>
     <col min="12283" max="12283" width="1" style="2" customWidth="1"/>
     <col min="12284" max="12284" width="3" style="2" customWidth="1"/>
-    <col min="12285" max="12285" width="7.109375" style="2" customWidth="1"/>
-    <col min="12286" max="12286" width="2.77734375" style="2" customWidth="1"/>
-    <col min="12287" max="12287" width="8.6640625" style="2" customWidth="1"/>
+    <col min="12285" max="12285" width="7.125" style="2" customWidth="1"/>
+    <col min="12286" max="12286" width="2.75" style="2" customWidth="1"/>
+    <col min="12287" max="12287" width="8.625" style="2" customWidth="1"/>
     <col min="12288" max="12298" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="12299" max="12323" width="9" style="2" customWidth="1"/>
     <col min="12324" max="12523" width="9" style="2"/>
-    <col min="12524" max="12524" width="1.6640625" style="2" customWidth="1"/>
-    <col min="12525" max="12525" width="1.77734375" style="2" customWidth="1"/>
-    <col min="12526" max="12526" width="7.33203125" style="2" customWidth="1"/>
-    <col min="12527" max="12527" width="4.109375" style="2" customWidth="1"/>
-    <col min="12528" max="12528" width="2.33203125" style="2" customWidth="1"/>
+    <col min="12524" max="12524" width="1.625" style="2" customWidth="1"/>
+    <col min="12525" max="12525" width="1.75" style="2" customWidth="1"/>
+    <col min="12526" max="12526" width="7.375" style="2" customWidth="1"/>
+    <col min="12527" max="12527" width="4.125" style="2" customWidth="1"/>
+    <col min="12528" max="12528" width="2.375" style="2" customWidth="1"/>
     <col min="12529" max="12529" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="12530" max="12530" width="2.109375" style="2" customWidth="1"/>
-    <col min="12531" max="12531" width="2.6640625" style="2" customWidth="1"/>
+    <col min="12530" max="12530" width="2.125" style="2" customWidth="1"/>
+    <col min="12531" max="12531" width="2.625" style="2" customWidth="1"/>
     <col min="12532" max="12532" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="12533" max="12533" width="9.21875" style="2" customWidth="1"/>
-    <col min="12534" max="12534" width="12.21875" style="2" customWidth="1"/>
-    <col min="12535" max="12535" width="9.109375" style="2" customWidth="1"/>
-    <col min="12536" max="12536" width="3.109375" style="2" customWidth="1"/>
-    <col min="12537" max="12537" width="5.6640625" style="2" customWidth="1"/>
-    <col min="12538" max="12538" width="6.44140625" style="2" customWidth="1"/>
+    <col min="12533" max="12533" width="9.25" style="2" customWidth="1"/>
+    <col min="12534" max="12534" width="12.25" style="2" customWidth="1"/>
+    <col min="12535" max="12535" width="9.125" style="2" customWidth="1"/>
+    <col min="12536" max="12536" width="3.125" style="2" customWidth="1"/>
+    <col min="12537" max="12537" width="5.625" style="2" customWidth="1"/>
+    <col min="12538" max="12538" width="6.5" style="2" customWidth="1"/>
     <col min="12539" max="12539" width="1" style="2" customWidth="1"/>
     <col min="12540" max="12540" width="3" style="2" customWidth="1"/>
-    <col min="12541" max="12541" width="7.109375" style="2" customWidth="1"/>
-    <col min="12542" max="12542" width="2.77734375" style="2" customWidth="1"/>
-    <col min="12543" max="12543" width="8.6640625" style="2" customWidth="1"/>
+    <col min="12541" max="12541" width="7.125" style="2" customWidth="1"/>
+    <col min="12542" max="12542" width="2.75" style="2" customWidth="1"/>
+    <col min="12543" max="12543" width="8.625" style="2" customWidth="1"/>
     <col min="12544" max="12554" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="12555" max="12579" width="9" style="2" customWidth="1"/>
     <col min="12580" max="12779" width="9" style="2"/>
-    <col min="12780" max="12780" width="1.6640625" style="2" customWidth="1"/>
-    <col min="12781" max="12781" width="1.77734375" style="2" customWidth="1"/>
-    <col min="12782" max="12782" width="7.33203125" style="2" customWidth="1"/>
-    <col min="12783" max="12783" width="4.109375" style="2" customWidth="1"/>
-    <col min="12784" max="12784" width="2.33203125" style="2" customWidth="1"/>
+    <col min="12780" max="12780" width="1.625" style="2" customWidth="1"/>
+    <col min="12781" max="12781" width="1.75" style="2" customWidth="1"/>
+    <col min="12782" max="12782" width="7.375" style="2" customWidth="1"/>
+    <col min="12783" max="12783" width="4.125" style="2" customWidth="1"/>
+    <col min="12784" max="12784" width="2.375" style="2" customWidth="1"/>
     <col min="12785" max="12785" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="12786" max="12786" width="2.109375" style="2" customWidth="1"/>
-    <col min="12787" max="12787" width="2.6640625" style="2" customWidth="1"/>
+    <col min="12786" max="12786" width="2.125" style="2" customWidth="1"/>
+    <col min="12787" max="12787" width="2.625" style="2" customWidth="1"/>
     <col min="12788" max="12788" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="12789" max="12789" width="9.21875" style="2" customWidth="1"/>
-    <col min="12790" max="12790" width="12.21875" style="2" customWidth="1"/>
-    <col min="12791" max="12791" width="9.109375" style="2" customWidth="1"/>
-    <col min="12792" max="12792" width="3.109375" style="2" customWidth="1"/>
-    <col min="12793" max="12793" width="5.6640625" style="2" customWidth="1"/>
-    <col min="12794" max="12794" width="6.44140625" style="2" customWidth="1"/>
+    <col min="12789" max="12789" width="9.25" style="2" customWidth="1"/>
+    <col min="12790" max="12790" width="12.25" style="2" customWidth="1"/>
+    <col min="12791" max="12791" width="9.125" style="2" customWidth="1"/>
+    <col min="12792" max="12792" width="3.125" style="2" customWidth="1"/>
+    <col min="12793" max="12793" width="5.625" style="2" customWidth="1"/>
+    <col min="12794" max="12794" width="6.5" style="2" customWidth="1"/>
     <col min="12795" max="12795" width="1" style="2" customWidth="1"/>
     <col min="12796" max="12796" width="3" style="2" customWidth="1"/>
-    <col min="12797" max="12797" width="7.109375" style="2" customWidth="1"/>
-    <col min="12798" max="12798" width="2.77734375" style="2" customWidth="1"/>
-    <col min="12799" max="12799" width="8.6640625" style="2" customWidth="1"/>
+    <col min="12797" max="12797" width="7.125" style="2" customWidth="1"/>
+    <col min="12798" max="12798" width="2.75" style="2" customWidth="1"/>
+    <col min="12799" max="12799" width="8.625" style="2" customWidth="1"/>
     <col min="12800" max="12810" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="12811" max="12835" width="9" style="2" customWidth="1"/>
     <col min="12836" max="13035" width="9" style="2"/>
-    <col min="13036" max="13036" width="1.6640625" style="2" customWidth="1"/>
-    <col min="13037" max="13037" width="1.77734375" style="2" customWidth="1"/>
-    <col min="13038" max="13038" width="7.33203125" style="2" customWidth="1"/>
-    <col min="13039" max="13039" width="4.109375" style="2" customWidth="1"/>
-    <col min="13040" max="13040" width="2.33203125" style="2" customWidth="1"/>
+    <col min="13036" max="13036" width="1.625" style="2" customWidth="1"/>
+    <col min="13037" max="13037" width="1.75" style="2" customWidth="1"/>
+    <col min="13038" max="13038" width="7.375" style="2" customWidth="1"/>
+    <col min="13039" max="13039" width="4.125" style="2" customWidth="1"/>
+    <col min="13040" max="13040" width="2.375" style="2" customWidth="1"/>
     <col min="13041" max="13041" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="13042" max="13042" width="2.109375" style="2" customWidth="1"/>
-    <col min="13043" max="13043" width="2.6640625" style="2" customWidth="1"/>
+    <col min="13042" max="13042" width="2.125" style="2" customWidth="1"/>
+    <col min="13043" max="13043" width="2.625" style="2" customWidth="1"/>
     <col min="13044" max="13044" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="13045" max="13045" width="9.21875" style="2" customWidth="1"/>
-    <col min="13046" max="13046" width="12.21875" style="2" customWidth="1"/>
-    <col min="13047" max="13047" width="9.109375" style="2" customWidth="1"/>
-    <col min="13048" max="13048" width="3.109375" style="2" customWidth="1"/>
-    <col min="13049" max="13049" width="5.6640625" style="2" customWidth="1"/>
-    <col min="13050" max="13050" width="6.44140625" style="2" customWidth="1"/>
+    <col min="13045" max="13045" width="9.25" style="2" customWidth="1"/>
+    <col min="13046" max="13046" width="12.25" style="2" customWidth="1"/>
+    <col min="13047" max="13047" width="9.125" style="2" customWidth="1"/>
+    <col min="13048" max="13048" width="3.125" style="2" customWidth="1"/>
+    <col min="13049" max="13049" width="5.625" style="2" customWidth="1"/>
+    <col min="13050" max="13050" width="6.5" style="2" customWidth="1"/>
     <col min="13051" max="13051" width="1" style="2" customWidth="1"/>
     <col min="13052" max="13052" width="3" style="2" customWidth="1"/>
-    <col min="13053" max="13053" width="7.109375" style="2" customWidth="1"/>
-    <col min="13054" max="13054" width="2.77734375" style="2" customWidth="1"/>
-    <col min="13055" max="13055" width="8.6640625" style="2" customWidth="1"/>
+    <col min="13053" max="13053" width="7.125" style="2" customWidth="1"/>
+    <col min="13054" max="13054" width="2.75" style="2" customWidth="1"/>
+    <col min="13055" max="13055" width="8.625" style="2" customWidth="1"/>
     <col min="13056" max="13066" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="13067" max="13091" width="9" style="2" customWidth="1"/>
     <col min="13092" max="13291" width="9" style="2"/>
-    <col min="13292" max="13292" width="1.6640625" style="2" customWidth="1"/>
-    <col min="13293" max="13293" width="1.77734375" style="2" customWidth="1"/>
-    <col min="13294" max="13294" width="7.33203125" style="2" customWidth="1"/>
-    <col min="13295" max="13295" width="4.109375" style="2" customWidth="1"/>
-    <col min="13296" max="13296" width="2.33203125" style="2" customWidth="1"/>
+    <col min="13292" max="13292" width="1.625" style="2" customWidth="1"/>
+    <col min="13293" max="13293" width="1.75" style="2" customWidth="1"/>
+    <col min="13294" max="13294" width="7.375" style="2" customWidth="1"/>
+    <col min="13295" max="13295" width="4.125" style="2" customWidth="1"/>
+    <col min="13296" max="13296" width="2.375" style="2" customWidth="1"/>
     <col min="13297" max="13297" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="13298" max="13298" width="2.109375" style="2" customWidth="1"/>
-    <col min="13299" max="13299" width="2.6640625" style="2" customWidth="1"/>
+    <col min="13298" max="13298" width="2.125" style="2" customWidth="1"/>
+    <col min="13299" max="13299" width="2.625" style="2" customWidth="1"/>
     <col min="13300" max="13300" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="13301" max="13301" width="9.21875" style="2" customWidth="1"/>
-    <col min="13302" max="13302" width="12.21875" style="2" customWidth="1"/>
-    <col min="13303" max="13303" width="9.109375" style="2" customWidth="1"/>
-    <col min="13304" max="13304" width="3.109375" style="2" customWidth="1"/>
-    <col min="13305" max="13305" width="5.6640625" style="2" customWidth="1"/>
-    <col min="13306" max="13306" width="6.44140625" style="2" customWidth="1"/>
+    <col min="13301" max="13301" width="9.25" style="2" customWidth="1"/>
+    <col min="13302" max="13302" width="12.25" style="2" customWidth="1"/>
+    <col min="13303" max="13303" width="9.125" style="2" customWidth="1"/>
+    <col min="13304" max="13304" width="3.125" style="2" customWidth="1"/>
+    <col min="13305" max="13305" width="5.625" style="2" customWidth="1"/>
+    <col min="13306" max="13306" width="6.5" style="2" customWidth="1"/>
     <col min="13307" max="13307" width="1" style="2" customWidth="1"/>
     <col min="13308" max="13308" width="3" style="2" customWidth="1"/>
-    <col min="13309" max="13309" width="7.109375" style="2" customWidth="1"/>
-    <col min="13310" max="13310" width="2.77734375" style="2" customWidth="1"/>
-    <col min="13311" max="13311" width="8.6640625" style="2" customWidth="1"/>
+    <col min="13309" max="13309" width="7.125" style="2" customWidth="1"/>
+    <col min="13310" max="13310" width="2.75" style="2" customWidth="1"/>
+    <col min="13311" max="13311" width="8.625" style="2" customWidth="1"/>
     <col min="13312" max="13322" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="13323" max="13347" width="9" style="2" customWidth="1"/>
     <col min="13348" max="13547" width="9" style="2"/>
-    <col min="13548" max="13548" width="1.6640625" style="2" customWidth="1"/>
-    <col min="13549" max="13549" width="1.77734375" style="2" customWidth="1"/>
-    <col min="13550" max="13550" width="7.33203125" style="2" customWidth="1"/>
-    <col min="13551" max="13551" width="4.109375" style="2" customWidth="1"/>
-    <col min="13552" max="13552" width="2.33203125" style="2" customWidth="1"/>
+    <col min="13548" max="13548" width="1.625" style="2" customWidth="1"/>
+    <col min="13549" max="13549" width="1.75" style="2" customWidth="1"/>
+    <col min="13550" max="13550" width="7.375" style="2" customWidth="1"/>
+    <col min="13551" max="13551" width="4.125" style="2" customWidth="1"/>
+    <col min="13552" max="13552" width="2.375" style="2" customWidth="1"/>
     <col min="13553" max="13553" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="13554" max="13554" width="2.109375" style="2" customWidth="1"/>
-    <col min="13555" max="13555" width="2.6640625" style="2" customWidth="1"/>
+    <col min="13554" max="13554" width="2.125" style="2" customWidth="1"/>
+    <col min="13555" max="13555" width="2.625" style="2" customWidth="1"/>
     <col min="13556" max="13556" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="13557" max="13557" width="9.21875" style="2" customWidth="1"/>
-    <col min="13558" max="13558" width="12.21875" style="2" customWidth="1"/>
-    <col min="13559" max="13559" width="9.109375" style="2" customWidth="1"/>
-    <col min="13560" max="13560" width="3.109375" style="2" customWidth="1"/>
-    <col min="13561" max="13561" width="5.6640625" style="2" customWidth="1"/>
-    <col min="13562" max="13562" width="6.44140625" style="2" customWidth="1"/>
+    <col min="13557" max="13557" width="9.25" style="2" customWidth="1"/>
+    <col min="13558" max="13558" width="12.25" style="2" customWidth="1"/>
+    <col min="13559" max="13559" width="9.125" style="2" customWidth="1"/>
+    <col min="13560" max="13560" width="3.125" style="2" customWidth="1"/>
+    <col min="13561" max="13561" width="5.625" style="2" customWidth="1"/>
+    <col min="13562" max="13562" width="6.5" style="2" customWidth="1"/>
     <col min="13563" max="13563" width="1" style="2" customWidth="1"/>
     <col min="13564" max="13564" width="3" style="2" customWidth="1"/>
-    <col min="13565" max="13565" width="7.109375" style="2" customWidth="1"/>
-    <col min="13566" max="13566" width="2.77734375" style="2" customWidth="1"/>
-    <col min="13567" max="13567" width="8.6640625" style="2" customWidth="1"/>
+    <col min="13565" max="13565" width="7.125" style="2" customWidth="1"/>
+    <col min="13566" max="13566" width="2.75" style="2" customWidth="1"/>
+    <col min="13567" max="13567" width="8.625" style="2" customWidth="1"/>
     <col min="13568" max="13578" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="13579" max="13603" width="9" style="2" customWidth="1"/>
     <col min="13604" max="13803" width="9" style="2"/>
-    <col min="13804" max="13804" width="1.6640625" style="2" customWidth="1"/>
-    <col min="13805" max="13805" width="1.77734375" style="2" customWidth="1"/>
-    <col min="13806" max="13806" width="7.33203125" style="2" customWidth="1"/>
-    <col min="13807" max="13807" width="4.109375" style="2" customWidth="1"/>
-    <col min="13808" max="13808" width="2.33203125" style="2" customWidth="1"/>
+    <col min="13804" max="13804" width="1.625" style="2" customWidth="1"/>
+    <col min="13805" max="13805" width="1.75" style="2" customWidth="1"/>
+    <col min="13806" max="13806" width="7.375" style="2" customWidth="1"/>
+    <col min="13807" max="13807" width="4.125" style="2" customWidth="1"/>
+    <col min="13808" max="13808" width="2.375" style="2" customWidth="1"/>
     <col min="13809" max="13809" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="13810" max="13810" width="2.109375" style="2" customWidth="1"/>
-    <col min="13811" max="13811" width="2.6640625" style="2" customWidth="1"/>
+    <col min="13810" max="13810" width="2.125" style="2" customWidth="1"/>
+    <col min="13811" max="13811" width="2.625" style="2" customWidth="1"/>
     <col min="13812" max="13812" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="13813" max="13813" width="9.21875" style="2" customWidth="1"/>
-    <col min="13814" max="13814" width="12.21875" style="2" customWidth="1"/>
-    <col min="13815" max="13815" width="9.109375" style="2" customWidth="1"/>
-    <col min="13816" max="13816" width="3.109375" style="2" customWidth="1"/>
-    <col min="13817" max="13817" width="5.6640625" style="2" customWidth="1"/>
-    <col min="13818" max="13818" width="6.44140625" style="2" customWidth="1"/>
+    <col min="13813" max="13813" width="9.25" style="2" customWidth="1"/>
+    <col min="13814" max="13814" width="12.25" style="2" customWidth="1"/>
+    <col min="13815" max="13815" width="9.125" style="2" customWidth="1"/>
+    <col min="13816" max="13816" width="3.125" style="2" customWidth="1"/>
+    <col min="13817" max="13817" width="5.625" style="2" customWidth="1"/>
+    <col min="13818" max="13818" width="6.5" style="2" customWidth="1"/>
     <col min="13819" max="13819" width="1" style="2" customWidth="1"/>
     <col min="13820" max="13820" width="3" style="2" customWidth="1"/>
-    <col min="13821" max="13821" width="7.109375" style="2" customWidth="1"/>
-    <col min="13822" max="13822" width="2.77734375" style="2" customWidth="1"/>
-    <col min="13823" max="13823" width="8.6640625" style="2" customWidth="1"/>
+    <col min="13821" max="13821" width="7.125" style="2" customWidth="1"/>
+    <col min="13822" max="13822" width="2.75" style="2" customWidth="1"/>
+    <col min="13823" max="13823" width="8.625" style="2" customWidth="1"/>
     <col min="13824" max="13834" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="13835" max="13859" width="9" style="2" customWidth="1"/>
     <col min="13860" max="14059" width="9" style="2"/>
-    <col min="14060" max="14060" width="1.6640625" style="2" customWidth="1"/>
-    <col min="14061" max="14061" width="1.77734375" style="2" customWidth="1"/>
-    <col min="14062" max="14062" width="7.33203125" style="2" customWidth="1"/>
-    <col min="14063" max="14063" width="4.109375" style="2" customWidth="1"/>
-    <col min="14064" max="14064" width="2.33203125" style="2" customWidth="1"/>
+    <col min="14060" max="14060" width="1.625" style="2" customWidth="1"/>
+    <col min="14061" max="14061" width="1.75" style="2" customWidth="1"/>
+    <col min="14062" max="14062" width="7.375" style="2" customWidth="1"/>
+    <col min="14063" max="14063" width="4.125" style="2" customWidth="1"/>
+    <col min="14064" max="14064" width="2.375" style="2" customWidth="1"/>
     <col min="14065" max="14065" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="14066" max="14066" width="2.109375" style="2" customWidth="1"/>
-    <col min="14067" max="14067" width="2.6640625" style="2" customWidth="1"/>
+    <col min="14066" max="14066" width="2.125" style="2" customWidth="1"/>
+    <col min="14067" max="14067" width="2.625" style="2" customWidth="1"/>
     <col min="14068" max="14068" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="14069" max="14069" width="9.21875" style="2" customWidth="1"/>
-    <col min="14070" max="14070" width="12.21875" style="2" customWidth="1"/>
-    <col min="14071" max="14071" width="9.109375" style="2" customWidth="1"/>
-    <col min="14072" max="14072" width="3.109375" style="2" customWidth="1"/>
-    <col min="14073" max="14073" width="5.6640625" style="2" customWidth="1"/>
-    <col min="14074" max="14074" width="6.44140625" style="2" customWidth="1"/>
+    <col min="14069" max="14069" width="9.25" style="2" customWidth="1"/>
+    <col min="14070" max="14070" width="12.25" style="2" customWidth="1"/>
+    <col min="14071" max="14071" width="9.125" style="2" customWidth="1"/>
+    <col min="14072" max="14072" width="3.125" style="2" customWidth="1"/>
+    <col min="14073" max="14073" width="5.625" style="2" customWidth="1"/>
+    <col min="14074" max="14074" width="6.5" style="2" customWidth="1"/>
     <col min="14075" max="14075" width="1" style="2" customWidth="1"/>
     <col min="14076" max="14076" width="3" style="2" customWidth="1"/>
-    <col min="14077" max="14077" width="7.109375" style="2" customWidth="1"/>
-    <col min="14078" max="14078" width="2.77734375" style="2" customWidth="1"/>
-    <col min="14079" max="14079" width="8.6640625" style="2" customWidth="1"/>
+    <col min="14077" max="14077" width="7.125" style="2" customWidth="1"/>
+    <col min="14078" max="14078" width="2.75" style="2" customWidth="1"/>
+    <col min="14079" max="14079" width="8.625" style="2" customWidth="1"/>
     <col min="14080" max="14090" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="14091" max="14115" width="9" style="2" customWidth="1"/>
     <col min="14116" max="14315" width="9" style="2"/>
-    <col min="14316" max="14316" width="1.6640625" style="2" customWidth="1"/>
-    <col min="14317" max="14317" width="1.77734375" style="2" customWidth="1"/>
-    <col min="14318" max="14318" width="7.33203125" style="2" customWidth="1"/>
-    <col min="14319" max="14319" width="4.109375" style="2" customWidth="1"/>
-    <col min="14320" max="14320" width="2.33203125" style="2" customWidth="1"/>
+    <col min="14316" max="14316" width="1.625" style="2" customWidth="1"/>
+    <col min="14317" max="14317" width="1.75" style="2" customWidth="1"/>
+    <col min="14318" max="14318" width="7.375" style="2" customWidth="1"/>
+    <col min="14319" max="14319" width="4.125" style="2" customWidth="1"/>
+    <col min="14320" max="14320" width="2.375" style="2" customWidth="1"/>
     <col min="14321" max="14321" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="14322" max="14322" width="2.109375" style="2" customWidth="1"/>
-    <col min="14323" max="14323" width="2.6640625" style="2" customWidth="1"/>
+    <col min="14322" max="14322" width="2.125" style="2" customWidth="1"/>
+    <col min="14323" max="14323" width="2.625" style="2" customWidth="1"/>
     <col min="14324" max="14324" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="14325" max="14325" width="9.21875" style="2" customWidth="1"/>
-    <col min="14326" max="14326" width="12.21875" style="2" customWidth="1"/>
-    <col min="14327" max="14327" width="9.109375" style="2" customWidth="1"/>
-    <col min="14328" max="14328" width="3.109375" style="2" customWidth="1"/>
-    <col min="14329" max="14329" width="5.6640625" style="2" customWidth="1"/>
-    <col min="14330" max="14330" width="6.44140625" style="2" customWidth="1"/>
+    <col min="14325" max="14325" width="9.25" style="2" customWidth="1"/>
+    <col min="14326" max="14326" width="12.25" style="2" customWidth="1"/>
+    <col min="14327" max="14327" width="9.125" style="2" customWidth="1"/>
+    <col min="14328" max="14328" width="3.125" style="2" customWidth="1"/>
+    <col min="14329" max="14329" width="5.625" style="2" customWidth="1"/>
+    <col min="14330" max="14330" width="6.5" style="2" customWidth="1"/>
     <col min="14331" max="14331" width="1" style="2" customWidth="1"/>
     <col min="14332" max="14332" width="3" style="2" customWidth="1"/>
-    <col min="14333" max="14333" width="7.109375" style="2" customWidth="1"/>
-    <col min="14334" max="14334" width="2.77734375" style="2" customWidth="1"/>
-    <col min="14335" max="14335" width="8.6640625" style="2" customWidth="1"/>
+    <col min="14333" max="14333" width="7.125" style="2" customWidth="1"/>
+    <col min="14334" max="14334" width="2.75" style="2" customWidth="1"/>
+    <col min="14335" max="14335" width="8.625" style="2" customWidth="1"/>
     <col min="14336" max="14346" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="14347" max="14371" width="9" style="2" customWidth="1"/>
     <col min="14372" max="14571" width="9" style="2"/>
-    <col min="14572" max="14572" width="1.6640625" style="2" customWidth="1"/>
-    <col min="14573" max="14573" width="1.77734375" style="2" customWidth="1"/>
-    <col min="14574" max="14574" width="7.33203125" style="2" customWidth="1"/>
-    <col min="14575" max="14575" width="4.109375" style="2" customWidth="1"/>
-    <col min="14576" max="14576" width="2.33203125" style="2" customWidth="1"/>
+    <col min="14572" max="14572" width="1.625" style="2" customWidth="1"/>
+    <col min="14573" max="14573" width="1.75" style="2" customWidth="1"/>
+    <col min="14574" max="14574" width="7.375" style="2" customWidth="1"/>
+    <col min="14575" max="14575" width="4.125" style="2" customWidth="1"/>
+    <col min="14576" max="14576" width="2.375" style="2" customWidth="1"/>
     <col min="14577" max="14577" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="14578" max="14578" width="2.109375" style="2" customWidth="1"/>
-    <col min="14579" max="14579" width="2.6640625" style="2" customWidth="1"/>
+    <col min="14578" max="14578" width="2.125" style="2" customWidth="1"/>
+    <col min="14579" max="14579" width="2.625" style="2" customWidth="1"/>
     <col min="14580" max="14580" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="14581" max="14581" width="9.21875" style="2" customWidth="1"/>
-    <col min="14582" max="14582" width="12.21875" style="2" customWidth="1"/>
-    <col min="14583" max="14583" width="9.109375" style="2" customWidth="1"/>
-    <col min="14584" max="14584" width="3.109375" style="2" customWidth="1"/>
-    <col min="14585" max="14585" width="5.6640625" style="2" customWidth="1"/>
-    <col min="14586" max="14586" width="6.44140625" style="2" customWidth="1"/>
+    <col min="14581" max="14581" width="9.25" style="2" customWidth="1"/>
+    <col min="14582" max="14582" width="12.25" style="2" customWidth="1"/>
+    <col min="14583" max="14583" width="9.125" style="2" customWidth="1"/>
+    <col min="14584" max="14584" width="3.125" style="2" customWidth="1"/>
+    <col min="14585" max="14585" width="5.625" style="2" customWidth="1"/>
+    <col min="14586" max="14586" width="6.5" style="2" customWidth="1"/>
     <col min="14587" max="14587" width="1" style="2" customWidth="1"/>
     <col min="14588" max="14588" width="3" style="2" customWidth="1"/>
-    <col min="14589" max="14589" width="7.109375" style="2" customWidth="1"/>
-    <col min="14590" max="14590" width="2.77734375" style="2" customWidth="1"/>
-    <col min="14591" max="14591" width="8.6640625" style="2" customWidth="1"/>
+    <col min="14589" max="14589" width="7.125" style="2" customWidth="1"/>
+    <col min="14590" max="14590" width="2.75" style="2" customWidth="1"/>
+    <col min="14591" max="14591" width="8.625" style="2" customWidth="1"/>
     <col min="14592" max="14602" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="14603" max="14627" width="9" style="2" customWidth="1"/>
     <col min="14628" max="14827" width="9" style="2"/>
-    <col min="14828" max="14828" width="1.6640625" style="2" customWidth="1"/>
-    <col min="14829" max="14829" width="1.77734375" style="2" customWidth="1"/>
-    <col min="14830" max="14830" width="7.33203125" style="2" customWidth="1"/>
-    <col min="14831" max="14831" width="4.109375" style="2" customWidth="1"/>
-    <col min="14832" max="14832" width="2.33203125" style="2" customWidth="1"/>
+    <col min="14828" max="14828" width="1.625" style="2" customWidth="1"/>
+    <col min="14829" max="14829" width="1.75" style="2" customWidth="1"/>
+    <col min="14830" max="14830" width="7.375" style="2" customWidth="1"/>
+    <col min="14831" max="14831" width="4.125" style="2" customWidth="1"/>
+    <col min="14832" max="14832" width="2.375" style="2" customWidth="1"/>
     <col min="14833" max="14833" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="14834" max="14834" width="2.109375" style="2" customWidth="1"/>
-    <col min="14835" max="14835" width="2.6640625" style="2" customWidth="1"/>
+    <col min="14834" max="14834" width="2.125" style="2" customWidth="1"/>
+    <col min="14835" max="14835" width="2.625" style="2" customWidth="1"/>
     <col min="14836" max="14836" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="14837" max="14837" width="9.21875" style="2" customWidth="1"/>
-    <col min="14838" max="14838" width="12.21875" style="2" customWidth="1"/>
-    <col min="14839" max="14839" width="9.109375" style="2" customWidth="1"/>
-    <col min="14840" max="14840" width="3.109375" style="2" customWidth="1"/>
-    <col min="14841" max="14841" width="5.6640625" style="2" customWidth="1"/>
-    <col min="14842" max="14842" width="6.44140625" style="2" customWidth="1"/>
+    <col min="14837" max="14837" width="9.25" style="2" customWidth="1"/>
+    <col min="14838" max="14838" width="12.25" style="2" customWidth="1"/>
+    <col min="14839" max="14839" width="9.125" style="2" customWidth="1"/>
+    <col min="14840" max="14840" width="3.125" style="2" customWidth="1"/>
+    <col min="14841" max="14841" width="5.625" style="2" customWidth="1"/>
+    <col min="14842" max="14842" width="6.5" style="2" customWidth="1"/>
     <col min="14843" max="14843" width="1" style="2" customWidth="1"/>
     <col min="14844" max="14844" width="3" style="2" customWidth="1"/>
-    <col min="14845" max="14845" width="7.109375" style="2" customWidth="1"/>
-    <col min="14846" max="14846" width="2.77734375" style="2" customWidth="1"/>
-    <col min="14847" max="14847" width="8.6640625" style="2" customWidth="1"/>
+    <col min="14845" max="14845" width="7.125" style="2" customWidth="1"/>
+    <col min="14846" max="14846" width="2.75" style="2" customWidth="1"/>
+    <col min="14847" max="14847" width="8.625" style="2" customWidth="1"/>
     <col min="14848" max="14858" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="14859" max="14883" width="9" style="2" customWidth="1"/>
     <col min="14884" max="15083" width="9" style="2"/>
-    <col min="15084" max="15084" width="1.6640625" style="2" customWidth="1"/>
-    <col min="15085" max="15085" width="1.77734375" style="2" customWidth="1"/>
-    <col min="15086" max="15086" width="7.33203125" style="2" customWidth="1"/>
-    <col min="15087" max="15087" width="4.109375" style="2" customWidth="1"/>
-    <col min="15088" max="15088" width="2.33203125" style="2" customWidth="1"/>
+    <col min="15084" max="15084" width="1.625" style="2" customWidth="1"/>
+    <col min="15085" max="15085" width="1.75" style="2" customWidth="1"/>
+    <col min="15086" max="15086" width="7.375" style="2" customWidth="1"/>
+    <col min="15087" max="15087" width="4.125" style="2" customWidth="1"/>
+    <col min="15088" max="15088" width="2.375" style="2" customWidth="1"/>
     <col min="15089" max="15089" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="15090" max="15090" width="2.109375" style="2" customWidth="1"/>
-    <col min="15091" max="15091" width="2.6640625" style="2" customWidth="1"/>
+    <col min="15090" max="15090" width="2.125" style="2" customWidth="1"/>
+    <col min="15091" max="15091" width="2.625" style="2" customWidth="1"/>
     <col min="15092" max="15092" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="15093" max="15093" width="9.21875" style="2" customWidth="1"/>
-    <col min="15094" max="15094" width="12.21875" style="2" customWidth="1"/>
-    <col min="15095" max="15095" width="9.109375" style="2" customWidth="1"/>
-    <col min="15096" max="15096" width="3.109375" style="2" customWidth="1"/>
-    <col min="15097" max="15097" width="5.6640625" style="2" customWidth="1"/>
-    <col min="15098" max="15098" width="6.44140625" style="2" customWidth="1"/>
+    <col min="15093" max="15093" width="9.25" style="2" customWidth="1"/>
+    <col min="15094" max="15094" width="12.25" style="2" customWidth="1"/>
+    <col min="15095" max="15095" width="9.125" style="2" customWidth="1"/>
+    <col min="15096" max="15096" width="3.125" style="2" customWidth="1"/>
+    <col min="15097" max="15097" width="5.625" style="2" customWidth="1"/>
+    <col min="15098" max="15098" width="6.5" style="2" customWidth="1"/>
     <col min="15099" max="15099" width="1" style="2" customWidth="1"/>
     <col min="15100" max="15100" width="3" style="2" customWidth="1"/>
-    <col min="15101" max="15101" width="7.109375" style="2" customWidth="1"/>
-    <col min="15102" max="15102" width="2.77734375" style="2" customWidth="1"/>
-    <col min="15103" max="15103" width="8.6640625" style="2" customWidth="1"/>
+    <col min="15101" max="15101" width="7.125" style="2" customWidth="1"/>
+    <col min="15102" max="15102" width="2.75" style="2" customWidth="1"/>
+    <col min="15103" max="15103" width="8.625" style="2" customWidth="1"/>
     <col min="15104" max="15114" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="15115" max="15139" width="9" style="2" customWidth="1"/>
     <col min="15140" max="15339" width="9" style="2"/>
-    <col min="15340" max="15340" width="1.6640625" style="2" customWidth="1"/>
-    <col min="15341" max="15341" width="1.77734375" style="2" customWidth="1"/>
-    <col min="15342" max="15342" width="7.33203125" style="2" customWidth="1"/>
-    <col min="15343" max="15343" width="4.109375" style="2" customWidth="1"/>
-    <col min="15344" max="15344" width="2.33203125" style="2" customWidth="1"/>
+    <col min="15340" max="15340" width="1.625" style="2" customWidth="1"/>
+    <col min="15341" max="15341" width="1.75" style="2" customWidth="1"/>
+    <col min="15342" max="15342" width="7.375" style="2" customWidth="1"/>
+    <col min="15343" max="15343" width="4.125" style="2" customWidth="1"/>
+    <col min="15344" max="15344" width="2.375" style="2" customWidth="1"/>
     <col min="15345" max="15345" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="15346" max="15346" width="2.109375" style="2" customWidth="1"/>
-    <col min="15347" max="15347" width="2.6640625" style="2" customWidth="1"/>
+    <col min="15346" max="15346" width="2.125" style="2" customWidth="1"/>
+    <col min="15347" max="15347" width="2.625" style="2" customWidth="1"/>
     <col min="15348" max="15348" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="15349" max="15349" width="9.21875" style="2" customWidth="1"/>
-    <col min="15350" max="15350" width="12.21875" style="2" customWidth="1"/>
-    <col min="15351" max="15351" width="9.109375" style="2" customWidth="1"/>
-    <col min="15352" max="15352" width="3.109375" style="2" customWidth="1"/>
-    <col min="15353" max="15353" width="5.6640625" style="2" customWidth="1"/>
-    <col min="15354" max="15354" width="6.44140625" style="2" customWidth="1"/>
+    <col min="15349" max="15349" width="9.25" style="2" customWidth="1"/>
+    <col min="15350" max="15350" width="12.25" style="2" customWidth="1"/>
+    <col min="15351" max="15351" width="9.125" style="2" customWidth="1"/>
+    <col min="15352" max="15352" width="3.125" style="2" customWidth="1"/>
+    <col min="15353" max="15353" width="5.625" style="2" customWidth="1"/>
+    <col min="15354" max="15354" width="6.5" style="2" customWidth="1"/>
     <col min="15355" max="15355" width="1" style="2" customWidth="1"/>
     <col min="15356" max="15356" width="3" style="2" customWidth="1"/>
-    <col min="15357" max="15357" width="7.109375" style="2" customWidth="1"/>
-    <col min="15358" max="15358" width="2.77734375" style="2" customWidth="1"/>
-    <col min="15359" max="15359" width="8.6640625" style="2" customWidth="1"/>
+    <col min="15357" max="15357" width="7.125" style="2" customWidth="1"/>
+    <col min="15358" max="15358" width="2.75" style="2" customWidth="1"/>
+    <col min="15359" max="15359" width="8.625" style="2" customWidth="1"/>
     <col min="15360" max="15370" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="15371" max="15395" width="9" style="2" customWidth="1"/>
     <col min="15396" max="15595" width="9" style="2"/>
-    <col min="15596" max="15596" width="1.6640625" style="2" customWidth="1"/>
-    <col min="15597" max="15597" width="1.77734375" style="2" customWidth="1"/>
-    <col min="15598" max="15598" width="7.33203125" style="2" customWidth="1"/>
-    <col min="15599" max="15599" width="4.109375" style="2" customWidth="1"/>
-    <col min="15600" max="15600" width="2.33203125" style="2" customWidth="1"/>
+    <col min="15596" max="15596" width="1.625" style="2" customWidth="1"/>
+    <col min="15597" max="15597" width="1.75" style="2" customWidth="1"/>
+    <col min="15598" max="15598" width="7.375" style="2" customWidth="1"/>
+    <col min="15599" max="15599" width="4.125" style="2" customWidth="1"/>
+    <col min="15600" max="15600" width="2.375" style="2" customWidth="1"/>
     <col min="15601" max="15601" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="15602" max="15602" width="2.109375" style="2" customWidth="1"/>
-    <col min="15603" max="15603" width="2.6640625" style="2" customWidth="1"/>
+    <col min="15602" max="15602" width="2.125" style="2" customWidth="1"/>
+    <col min="15603" max="15603" width="2.625" style="2" customWidth="1"/>
     <col min="15604" max="15604" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="15605" max="15605" width="9.21875" style="2" customWidth="1"/>
-    <col min="15606" max="15606" width="12.21875" style="2" customWidth="1"/>
-    <col min="15607" max="15607" width="9.109375" style="2" customWidth="1"/>
-    <col min="15608" max="15608" width="3.109375" style="2" customWidth="1"/>
-    <col min="15609" max="15609" width="5.6640625" style="2" customWidth="1"/>
-    <col min="15610" max="15610" width="6.44140625" style="2" customWidth="1"/>
+    <col min="15605" max="15605" width="9.25" style="2" customWidth="1"/>
+    <col min="15606" max="15606" width="12.25" style="2" customWidth="1"/>
+    <col min="15607" max="15607" width="9.125" style="2" customWidth="1"/>
+    <col min="15608" max="15608" width="3.125" style="2" customWidth="1"/>
+    <col min="15609" max="15609" width="5.625" style="2" customWidth="1"/>
+    <col min="15610" max="15610" width="6.5" style="2" customWidth="1"/>
     <col min="15611" max="15611" width="1" style="2" customWidth="1"/>
     <col min="15612" max="15612" width="3" style="2" customWidth="1"/>
-    <col min="15613" max="15613" width="7.109375" style="2" customWidth="1"/>
-    <col min="15614" max="15614" width="2.77734375" style="2" customWidth="1"/>
-    <col min="15615" max="15615" width="8.6640625" style="2" customWidth="1"/>
+    <col min="15613" max="15613" width="7.125" style="2" customWidth="1"/>
+    <col min="15614" max="15614" width="2.75" style="2" customWidth="1"/>
+    <col min="15615" max="15615" width="8.625" style="2" customWidth="1"/>
     <col min="15616" max="15626" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="15627" max="15651" width="9" style="2" customWidth="1"/>
     <col min="15652" max="15851" width="9" style="2"/>
-    <col min="15852" max="15852" width="1.6640625" style="2" customWidth="1"/>
-    <col min="15853" max="15853" width="1.77734375" style="2" customWidth="1"/>
-    <col min="15854" max="15854" width="7.33203125" style="2" customWidth="1"/>
-    <col min="15855" max="15855" width="4.109375" style="2" customWidth="1"/>
-    <col min="15856" max="15856" width="2.33203125" style="2" customWidth="1"/>
+    <col min="15852" max="15852" width="1.625" style="2" customWidth="1"/>
+    <col min="15853" max="15853" width="1.75" style="2" customWidth="1"/>
+    <col min="15854" max="15854" width="7.375" style="2" customWidth="1"/>
+    <col min="15855" max="15855" width="4.125" style="2" customWidth="1"/>
+    <col min="15856" max="15856" width="2.375" style="2" customWidth="1"/>
     <col min="15857" max="15857" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="15858" max="15858" width="2.109375" style="2" customWidth="1"/>
-    <col min="15859" max="15859" width="2.6640625" style="2" customWidth="1"/>
+    <col min="15858" max="15858" width="2.125" style="2" customWidth="1"/>
+    <col min="15859" max="15859" width="2.625" style="2" customWidth="1"/>
     <col min="15860" max="15860" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="15861" max="15861" width="9.21875" style="2" customWidth="1"/>
-    <col min="15862" max="15862" width="12.21875" style="2" customWidth="1"/>
-    <col min="15863" max="15863" width="9.109375" style="2" customWidth="1"/>
-    <col min="15864" max="15864" width="3.109375" style="2" customWidth="1"/>
-    <col min="15865" max="15865" width="5.6640625" style="2" customWidth="1"/>
-    <col min="15866" max="15866" width="6.44140625" style="2" customWidth="1"/>
+    <col min="15861" max="15861" width="9.25" style="2" customWidth="1"/>
+    <col min="15862" max="15862" width="12.25" style="2" customWidth="1"/>
+    <col min="15863" max="15863" width="9.125" style="2" customWidth="1"/>
+    <col min="15864" max="15864" width="3.125" style="2" customWidth="1"/>
+    <col min="15865" max="15865" width="5.625" style="2" customWidth="1"/>
+    <col min="15866" max="15866" width="6.5" style="2" customWidth="1"/>
     <col min="15867" max="15867" width="1" style="2" customWidth="1"/>
     <col min="15868" max="15868" width="3" style="2" customWidth="1"/>
-    <col min="15869" max="15869" width="7.109375" style="2" customWidth="1"/>
-    <col min="15870" max="15870" width="2.77734375" style="2" customWidth="1"/>
-    <col min="15871" max="15871" width="8.6640625" style="2" customWidth="1"/>
+    <col min="15869" max="15869" width="7.125" style="2" customWidth="1"/>
+    <col min="15870" max="15870" width="2.75" style="2" customWidth="1"/>
+    <col min="15871" max="15871" width="8.625" style="2" customWidth="1"/>
     <col min="15872" max="15882" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="15883" max="15907" width="9" style="2" customWidth="1"/>
     <col min="15908" max="16107" width="9" style="2"/>
-    <col min="16108" max="16108" width="1.6640625" style="2" customWidth="1"/>
-    <col min="16109" max="16109" width="1.77734375" style="2" customWidth="1"/>
-    <col min="16110" max="16110" width="7.33203125" style="2" customWidth="1"/>
-    <col min="16111" max="16111" width="4.109375" style="2" customWidth="1"/>
-    <col min="16112" max="16112" width="2.33203125" style="2" customWidth="1"/>
+    <col min="16108" max="16108" width="1.625" style="2" customWidth="1"/>
+    <col min="16109" max="16109" width="1.75" style="2" customWidth="1"/>
+    <col min="16110" max="16110" width="7.375" style="2" customWidth="1"/>
+    <col min="16111" max="16111" width="4.125" style="2" customWidth="1"/>
+    <col min="16112" max="16112" width="2.375" style="2" customWidth="1"/>
     <col min="16113" max="16113" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="16114" max="16114" width="2.109375" style="2" customWidth="1"/>
-    <col min="16115" max="16115" width="2.6640625" style="2" customWidth="1"/>
+    <col min="16114" max="16114" width="2.125" style="2" customWidth="1"/>
+    <col min="16115" max="16115" width="2.625" style="2" customWidth="1"/>
     <col min="16116" max="16116" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="16117" max="16117" width="9.21875" style="2" customWidth="1"/>
-    <col min="16118" max="16118" width="12.21875" style="2" customWidth="1"/>
-    <col min="16119" max="16119" width="9.109375" style="2" customWidth="1"/>
-    <col min="16120" max="16120" width="3.109375" style="2" customWidth="1"/>
-    <col min="16121" max="16121" width="5.6640625" style="2" customWidth="1"/>
-    <col min="16122" max="16122" width="6.44140625" style="2" customWidth="1"/>
+    <col min="16117" max="16117" width="9.25" style="2" customWidth="1"/>
+    <col min="16118" max="16118" width="12.25" style="2" customWidth="1"/>
+    <col min="16119" max="16119" width="9.125" style="2" customWidth="1"/>
+    <col min="16120" max="16120" width="3.125" style="2" customWidth="1"/>
+    <col min="16121" max="16121" width="5.625" style="2" customWidth="1"/>
+    <col min="16122" max="16122" width="6.5" style="2" customWidth="1"/>
     <col min="16123" max="16123" width="1" style="2" customWidth="1"/>
     <col min="16124" max="16124" width="3" style="2" customWidth="1"/>
-    <col min="16125" max="16125" width="7.109375" style="2" customWidth="1"/>
-    <col min="16126" max="16126" width="2.77734375" style="2" customWidth="1"/>
-    <col min="16127" max="16127" width="8.6640625" style="2" customWidth="1"/>
+    <col min="16125" max="16125" width="7.125" style="2" customWidth="1"/>
+    <col min="16126" max="16126" width="2.75" style="2" customWidth="1"/>
+    <col min="16127" max="16127" width="8.625" style="2" customWidth="1"/>
     <col min="16128" max="16138" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="16139" max="16163" width="9" style="2" customWidth="1"/>
     <col min="16164" max="16384" width="9" style="2"/>
@@ -6621,7 +6632,7 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
     </row>
-    <row r="11" spans="2:23" ht="25.2">
+    <row r="11" spans="2:23">
       <c r="B11" s="8" t="s">
         <v>32</v>
       </c>

--- a/controller/src/main/resources/jxls_templates/jingwaijingsuanshu.xlsx
+++ b/controller/src/main/resources/jxls_templates/jingwaijingsuanshu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,28 +19,28 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">出差精算合計!$B$2:$S$6</definedName>
     <definedName name="LSIソリューション開発グループ">設定!$C$11:$E$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">公务电话费!$A$1:$I$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">出差精算合計!$A$1:$T$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">公务电话费!$A$1:$I$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">設定!$A$1:$K$81</definedName>
     <definedName name="ソフトウェア開発力強化推進室">設定!$C$9:$D$9</definedName>
-    <definedName name="部門">設定!$B$3:$B$16</definedName>
-    <definedName name="財務推進室">設定!$C$4:$D$4</definedName>
-    <definedName name="車載LSI開発グループ">設定!$C$14:$G$14</definedName>
-    <definedName name="車載商品開発グループ">設定!$C$13:$G$13</definedName>
-    <definedName name="地域区分">設定!$I$19:$I$21</definedName>
+    <definedName name="移动时间">設定!$D$19:$D$27</definedName>
+    <definedName name="開発企画推進室">設定!$C$5:$E$5</definedName>
     <definedName name="活动内容">設定!$B$19:$B$23</definedName>
     <definedName name="基盤技術応用グループ">設定!$C$7:$D$7</definedName>
     <definedName name="交通工具">設定!$C$19:$C$22</definedName>
-    <definedName name="開発企画推進室">設定!$C$5:$E$5</definedName>
-    <definedName name="设施类型">設定!$F$19:$F$22</definedName>
+    <definedName name="財務推進室">設定!$C$4:$D$4</definedName>
     <definedName name="社会システム開発グループ">設定!$C$16:$F$16</definedName>
     <definedName name="社员区分">設定!$J$19:$J$21</definedName>
-    <definedName name="移动时间">設定!$D$19:$D$27</definedName>
-    <definedName name="制御システム開発グループ">設定!$C$8:$J$8</definedName>
-    <definedName name="助成推進室">設定!$C$3:$H$3</definedName>
+    <definedName name="車載LSI開発グループ">設定!$C$14:$G$14</definedName>
+    <definedName name="車載商品開発グループ">設定!$C$13:$G$13</definedName>
     <definedName name="住空間·業務空間開発グループ">設定!$C$15:$G$15</definedName>
     <definedName name="住空間端末開発グループ">設定!$C$10:$E$10</definedName>
+    <definedName name="助成推進室">設定!$C$3:$H$3</definedName>
+    <definedName name="制御システム開発グループ">設定!$C$8:$J$8</definedName>
     <definedName name="組込基盤技術開発グループ">設定!$C$12:$E$12</definedName>
+    <definedName name="地域区分">設定!$I$19:$I$21</definedName>
+    <definedName name="部門">設定!$B$3:$B$16</definedName>
+    <definedName name="设施类型">設定!$F$19:$F$22</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -893,10 +893,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>${t.currency}</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>${a.accountcode}</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -934,10 +930,6 @@
   </si>
   <si>
     <t>${t.rmb}</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>${t.foreigncurrency}</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -957,31 +949,37 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>${traflg}</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>${eve.balance}</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>${c.currencyexchangerate}</t>
     <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>${t.currency}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>${t.foreigncurrency}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>${traflg}</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="8">
+  <numFmts count="6">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0.000000_ "/>
     <numFmt numFmtId="179" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-    <numFmt numFmtId="181" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="182" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="182" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1070,7 +1068,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="major"/>
@@ -1880,7 +1878,7 @@
     <xf numFmtId="6" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2091,9 +2089,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2149,297 +2144,297 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="28" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="12" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="12" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="12" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="12" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="12" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="28" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="29" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 2 2" xfId="2"/>
     <cellStyle name="標準 2 3" xfId="6"/>
     <cellStyle name="標準 3" xfId="4"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="通貨 2" xfId="3"/>
     <cellStyle name="通貨 2 2" xfId="5"/>
   </cellStyles>
@@ -2843,9 +2838,7 @@
   </sheetPr>
   <dimension ref="A1:AE97"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20:S20"/>
-    </sheetView>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
@@ -2857,117 +2850,117 @@
   <sheetData>
     <row r="1" spans="1:19" ht="19.899999999999999" customHeight="1"/>
     <row r="2" spans="1:19" ht="19.899999999999999" customHeight="1">
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="143"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
     </row>
     <row r="3" spans="1:19" ht="19.899999999999999" customHeight="1">
       <c r="B3" s="74" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C3" s="74"/>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="80" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="144" t="s">
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="132" t="s">
         <v>127</v>
       </c>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144" t="s">
+      <c r="H3" s="132"/>
+      <c r="I3" s="132" t="s">
         <v>136</v>
       </c>
-      <c r="J3" s="144"/>
-      <c r="L3" s="87" t="s">
+      <c r="J3" s="132"/>
+      <c r="L3" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="M3" s="87"/>
-      <c r="N3" s="176" t="s">
+      <c r="M3" s="86"/>
+      <c r="N3" s="158" t="s">
         <v>137</v>
       </c>
-      <c r="O3" s="176"/>
-      <c r="P3" s="176"/>
-      <c r="Q3" s="176"/>
-      <c r="R3" s="176"/>
-      <c r="S3" s="176"/>
+      <c r="O3" s="158"/>
+      <c r="P3" s="158"/>
+      <c r="Q3" s="158"/>
+      <c r="R3" s="158"/>
+      <c r="S3" s="158"/>
     </row>
     <row r="4" spans="1:19" ht="19.899999999999999" customHeight="1">
       <c r="B4" s="74" t="s">
         <v>96</v>
       </c>
       <c r="C4" s="74"/>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="L4" s="87" t="s">
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="L4" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="M4" s="87"/>
-      <c r="N4" s="168" t="s">
+      <c r="M4" s="86"/>
+      <c r="N4" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="O4" s="168"/>
-      <c r="P4" s="168"/>
+      <c r="O4" s="159"/>
+      <c r="P4" s="159"/>
       <c r="Q4" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="R4" s="169" t="s">
+      <c r="R4" s="160" t="s">
         <v>143</v>
       </c>
-      <c r="S4" s="169"/>
+      <c r="S4" s="160"/>
     </row>
     <row r="5" spans="1:19" ht="19.899999999999999" customHeight="1">
       <c r="B5" s="74" t="s">
         <v>99</v>
       </c>
       <c r="C5" s="74"/>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="L5" s="87" t="s">
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="L5" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="79" t="e">
+      <c r="M5" s="86"/>
+      <c r="N5" s="78" t="e">
         <f>RIGHT(R4,10)-LEFT(N4,10)+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="146" t="s">
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="146"/>
+      <c r="R5" s="134"/>
       <c r="S5" s="64"/>
     </row>
     <row r="6" spans="1:19" ht="19.899999999999999" customHeight="1">
@@ -2975,24 +2968,24 @@
         <v>141</v>
       </c>
       <c r="C6" s="74"/>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="L6" s="87" t="s">
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="L6" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="M6" s="87"/>
-      <c r="N6" s="88" t="s">
+      <c r="M6" s="86"/>
+      <c r="N6" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
       <c r="Q6" s="64"/>
       <c r="R6" s="64"/>
       <c r="S6" s="64"/>
@@ -3028,18 +3021,18 @@
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
       <c r="K8" s="58"/>
-      <c r="L8" s="89" t="s">
+      <c r="L8" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="M8" s="90"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="92" t="s">
+      <c r="M8" s="89"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="93"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="92"/>
     </row>
     <row r="9" spans="1:19" ht="19.899999999999999" customHeight="1">
       <c r="B9" s="57"/>
@@ -3052,76 +3045,76 @@
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9" s="58"/>
-      <c r="L9" s="147" t="s">
+      <c r="L9" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="77"/>
-      <c r="N9" s="148"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="78"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="136"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="77"/>
     </row>
     <row r="10" spans="1:19" ht="19.899999999999999" customHeight="1">
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="75"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="137"/>
+      <c r="M10" s="137"/>
+      <c r="N10" s="137"/>
+      <c r="O10" s="137"/>
+      <c r="P10" s="137"/>
+      <c r="Q10" s="137"/>
+      <c r="R10" s="137"/>
+      <c r="S10" s="137"/>
     </row>
     <row r="11" spans="1:19" ht="19.899999999999999" customHeight="1">
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="94" t="s">
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="168" t="s">
         <v>146</v>
       </c>
-      <c r="J11" s="95"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="84"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="84"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="170"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
     </row>
     <row r="12" spans="1:19" ht="19.899999999999999" customHeight="1">
-      <c r="B12" s="145" t="s">
+      <c r="B12" s="133" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="140" t="s">
-        <v>170</v>
-      </c>
-      <c r="J12" s="141"/>
-      <c r="K12" s="142"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="171" t="s">
+        <v>169</v>
+      </c>
+      <c r="J12" s="172"/>
+      <c r="K12" s="173"/>
       <c r="L12" s="60"/>
       <c r="M12" s="60"/>
       <c r="N12" s="60"/>
@@ -3132,84 +3125,84 @@
       <c r="S12" s="60"/>
     </row>
     <row r="13" spans="1:19" ht="19.899999999999999" customHeight="1">
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="136"/>
-      <c r="M13" s="136"/>
-      <c r="N13" s="136"/>
-      <c r="O13" s="136"/>
-      <c r="P13" s="136"/>
-      <c r="Q13" s="136"/>
-      <c r="R13" s="136"/>
-      <c r="S13" s="136"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="125"/>
+      <c r="M13" s="125"/>
+      <c r="N13" s="125"/>
+      <c r="O13" s="125"/>
+      <c r="P13" s="125"/>
+      <c r="Q13" s="125"/>
+      <c r="R13" s="125"/>
+      <c r="S13" s="125"/>
     </row>
     <row r="14" spans="1:19" ht="19.899999999999999" customHeight="1">
-      <c r="B14" s="129" t="s">
+      <c r="B14" s="117" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="177" t="s">
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="126" t="s">
         <v>148</v>
       </c>
-      <c r="J14" s="178"/>
-      <c r="K14" s="137" t="s">
+      <c r="J14" s="127"/>
+      <c r="K14" s="128" t="s">
         <v>149</v>
       </c>
-      <c r="L14" s="100"/>
-      <c r="M14" s="137" t="s">
+      <c r="L14" s="124"/>
+      <c r="M14" s="128" t="s">
         <v>150</v>
       </c>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="138"/>
-      <c r="Q14" s="137" t="s">
+      <c r="N14" s="124"/>
+      <c r="O14" s="124"/>
+      <c r="P14" s="129"/>
+      <c r="Q14" s="128" t="s">
         <v>151</v>
       </c>
-      <c r="R14" s="100"/>
-      <c r="S14" s="139"/>
+      <c r="R14" s="124"/>
+      <c r="S14" s="130"/>
     </row>
     <row r="15" spans="1:19" ht="19.899999999999999" customHeight="1">
-      <c r="B15" s="129" t="s">
+      <c r="B15" s="117" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="181" t="s">
-        <v>182</v>
-      </c>
-      <c r="J15" s="130"/>
-      <c r="K15" s="131" t="s">
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="119" t="s">
+        <v>179</v>
+      </c>
+      <c r="J15" s="120"/>
+      <c r="K15" s="161" t="s">
         <v>153</v>
       </c>
-      <c r="L15" s="132"/>
-      <c r="M15" s="133" t="s">
+      <c r="L15" s="162"/>
+      <c r="M15" s="165" t="s">
         <v>154</v>
       </c>
-      <c r="N15" s="134"/>
-      <c r="O15" s="134"/>
-      <c r="P15" s="135"/>
-      <c r="Q15" s="111" t="s">
+      <c r="N15" s="166"/>
+      <c r="O15" s="166"/>
+      <c r="P15" s="167"/>
+      <c r="Q15" s="163" t="s">
         <v>155</v>
       </c>
-      <c r="R15" s="111"/>
-      <c r="S15" s="112"/>
+      <c r="R15" s="163"/>
+      <c r="S15" s="164"/>
     </row>
     <row r="16" spans="1:19" ht="19.899999999999999" customHeight="1">
       <c r="B16" s="65"/>
@@ -3232,208 +3225,208 @@
       <c r="S16" s="65"/>
     </row>
     <row r="17" spans="2:31" ht="19.899999999999999" customHeight="1">
-      <c r="B17" s="128" t="s">
+      <c r="B17" s="115" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="97" t="s">
+      <c r="C17" s="116"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116" t="s">
         <v>159</v>
       </c>
-      <c r="J17" s="97"/>
-      <c r="K17" s="179" t="s">
+      <c r="J17" s="116"/>
+      <c r="K17" s="111" t="s">
         <v>160</v>
       </c>
-      <c r="L17" s="103" t="s">
+      <c r="L17" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="M17" s="124"/>
-      <c r="N17" s="115" t="s">
+      <c r="M17" s="113"/>
+      <c r="N17" s="102" t="s">
         <v>161</v>
       </c>
-      <c r="O17" s="116"/>
-      <c r="P17" s="115" t="s">
+      <c r="O17" s="103"/>
+      <c r="P17" s="102" t="s">
         <v>157</v>
       </c>
-      <c r="Q17" s="116"/>
-      <c r="R17" s="103" t="s">
+      <c r="Q17" s="103"/>
+      <c r="R17" s="98" t="s">
         <v>156</v>
       </c>
-      <c r="S17" s="104"/>
+      <c r="S17" s="99"/>
     </row>
     <row r="18" spans="2:31" ht="19.899999999999999" customHeight="1">
-      <c r="B18" s="129"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="180"/>
-      <c r="L18" s="113"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="117"/>
-      <c r="O18" s="118"/>
-      <c r="P18" s="117"/>
-      <c r="Q18" s="118"/>
-      <c r="R18" s="113"/>
-      <c r="S18" s="114"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="112"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="114"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="104"/>
+      <c r="Q18" s="105"/>
+      <c r="R18" s="100"/>
+      <c r="S18" s="101"/>
     </row>
     <row r="19" spans="2:31" ht="19.899999999999999" customHeight="1">
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="121" t="s">
         <v>162</v>
       </c>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="110" t="s">
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="123" t="s">
+        <v>170</v>
+      </c>
+      <c r="J19" s="123"/>
+      <c r="K19" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="J19" s="110"/>
-      <c r="K19" s="68" t="s">
+      <c r="L19" s="98" t="s">
+        <v>180</v>
+      </c>
+      <c r="M19" s="113"/>
+      <c r="N19" s="174" t="s">
+        <v>181</v>
+      </c>
+      <c r="O19" s="175"/>
+      <c r="P19" s="174" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q19" s="175"/>
+      <c r="R19" s="176" t="s">
         <v>172</v>
       </c>
-      <c r="L19" s="103" t="s">
+      <c r="S19" s="177"/>
+    </row>
+    <row r="20" spans="2:31" ht="19.899999999999999" customHeight="1">
+      <c r="B20" s="106" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="108" t="s">
         <v>164</v>
       </c>
-      <c r="M19" s="124"/>
-      <c r="N19" s="126" t="s">
-        <v>175</v>
-      </c>
-      <c r="O19" s="127"/>
-      <c r="P19" s="126" t="s">
+      <c r="J20" s="108"/>
+      <c r="K20" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="L20" s="109" t="s">
+        <v>166</v>
+      </c>
+      <c r="M20" s="110"/>
+      <c r="N20" s="174" t="s">
         <v>174</v>
       </c>
-      <c r="Q19" s="127"/>
-      <c r="R19" s="182" t="s">
-        <v>173</v>
-      </c>
-      <c r="S19" s="183"/>
-    </row>
-    <row r="20" spans="2:31" ht="19.899999999999999" customHeight="1">
-      <c r="B20" s="119" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="121" t="s">
-        <v>165</v>
-      </c>
-      <c r="J20" s="121"/>
-      <c r="K20" s="69" t="s">
-        <v>166</v>
-      </c>
-      <c r="L20" s="122" t="s">
+      <c r="O20" s="175"/>
+      <c r="P20" s="174" t="s">
         <v>167</v>
       </c>
-      <c r="M20" s="123"/>
-      <c r="N20" s="126" t="s">
+      <c r="Q20" s="175"/>
+      <c r="R20" s="176" t="s">
+        <v>168</v>
+      </c>
+      <c r="S20" s="177"/>
+    </row>
+    <row r="21" spans="2:31" ht="19.899999999999999" customHeight="1">
+      <c r="B21" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="174" t="s">
+        <v>182</v>
+      </c>
+      <c r="O21" s="175"/>
+      <c r="P21" s="174" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q21" s="175"/>
+      <c r="R21" s="174" t="s">
         <v>176</v>
       </c>
-      <c r="O20" s="127"/>
-      <c r="P20" s="126" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q20" s="127"/>
-      <c r="R20" s="182" t="s">
-        <v>169</v>
-      </c>
-      <c r="S20" s="183"/>
-    </row>
-    <row r="21" spans="2:31" ht="19.899999999999999" customHeight="1">
-      <c r="B21" s="106" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="102"/>
-      <c r="N21" s="126" t="s">
-        <v>180</v>
-      </c>
-      <c r="O21" s="127"/>
-      <c r="P21" s="126" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q21" s="127"/>
-      <c r="R21" s="126" t="s">
+      <c r="S21" s="175"/>
+    </row>
+    <row r="22" spans="2:31" ht="19.899999999999999" customHeight="1">
+      <c r="B22" s="138" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="178" t="s">
         <v>178</v>
       </c>
-      <c r="S21" s="127"/>
-    </row>
-    <row r="22" spans="2:31" ht="19.899999999999999" customHeight="1">
-      <c r="B22" s="149" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="149"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="149"/>
-      <c r="G22" s="149"/>
-      <c r="H22" s="149"/>
-      <c r="I22" s="170" t="s">
-        <v>181</v>
-      </c>
-      <c r="J22" s="171"/>
-      <c r="K22" s="171"/>
-      <c r="L22" s="171"/>
-      <c r="M22" s="171"/>
-      <c r="N22" s="171"/>
-      <c r="O22" s="171"/>
-      <c r="P22" s="171"/>
-      <c r="Q22" s="171"/>
-      <c r="R22" s="171"/>
-      <c r="S22" s="172"/>
+      <c r="J22" s="179"/>
+      <c r="K22" s="179"/>
+      <c r="L22" s="179"/>
+      <c r="M22" s="179"/>
+      <c r="N22" s="179"/>
+      <c r="O22" s="179"/>
+      <c r="P22" s="179"/>
+      <c r="Q22" s="179"/>
+      <c r="R22" s="179"/>
+      <c r="S22" s="175"/>
     </row>
     <row r="23" spans="2:31" ht="19.899999999999999" customHeight="1">
-      <c r="B23" s="149"/>
-      <c r="C23" s="149"/>
-      <c r="D23" s="149"/>
-      <c r="E23" s="149"/>
-      <c r="F23" s="149"/>
-      <c r="G23" s="149"/>
-      <c r="H23" s="149"/>
-      <c r="I23" s="173"/>
-      <c r="J23" s="174"/>
-      <c r="K23" s="174"/>
-      <c r="L23" s="174"/>
-      <c r="M23" s="174"/>
-      <c r="N23" s="174"/>
-      <c r="O23" s="174"/>
-      <c r="P23" s="174"/>
-      <c r="Q23" s="174"/>
-      <c r="R23" s="174"/>
-      <c r="S23" s="175"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="180"/>
+      <c r="J23" s="181"/>
+      <c r="K23" s="181"/>
+      <c r="L23" s="181"/>
+      <c r="M23" s="181"/>
+      <c r="N23" s="181"/>
+      <c r="O23" s="181"/>
+      <c r="P23" s="181"/>
+      <c r="Q23" s="181"/>
+      <c r="R23" s="181"/>
+      <c r="S23" s="182"/>
     </row>
     <row r="24" spans="2:31" ht="19.899999999999999" customHeight="1">
-      <c r="B24" s="99"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
+      <c r="B24" s="140"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="140"/>
+      <c r="I24" s="140"/>
       <c r="J24" s="61"/>
       <c r="K24" s="61"/>
       <c r="L24" s="61"/>
@@ -3448,66 +3441,66 @@
       <c r="S24" s="61"/>
     </row>
     <row r="25" spans="2:31" ht="19.899999999999999" customHeight="1">
-      <c r="B25" s="145" t="s">
+      <c r="B25" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="139"/>
-      <c r="D25" s="145" t="s">
+      <c r="C25" s="130"/>
+      <c r="D25" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="100"/>
-      <c r="F25" s="149" t="s">
+      <c r="E25" s="124"/>
+      <c r="F25" s="138" t="s">
         <v>107</v>
       </c>
-      <c r="G25" s="149"/>
+      <c r="G25" s="138"/>
       <c r="H25" s="61"/>
       <c r="I25" s="70"/>
       <c r="J25" s="62"/>
       <c r="K25" s="62"/>
       <c r="L25" s="62"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
+      <c r="M25" s="137"/>
+      <c r="N25" s="137"/>
       <c r="O25" s="67"/>
-      <c r="P25" s="150" t="s">
+      <c r="P25" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="Q25" s="124"/>
-      <c r="R25" s="103" t="s">
+      <c r="Q25" s="113"/>
+      <c r="R25" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="S25" s="104"/>
+      <c r="S25" s="99"/>
     </row>
     <row r="26" spans="2:31" ht="19.899999999999999" customHeight="1">
-      <c r="B26" s="149"/>
-      <c r="C26" s="149"/>
-      <c r="D26" s="149"/>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
       <c r="H26" s="72"/>
       <c r="I26" s="71"/>
       <c r="J26" s="61"/>
       <c r="K26" s="61"/>
       <c r="L26" s="61"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
+      <c r="M26" s="137"/>
+      <c r="N26" s="137"/>
       <c r="O26" s="67"/>
-      <c r="P26" s="149"/>
-      <c r="Q26" s="149"/>
-      <c r="R26" s="149"/>
-      <c r="S26" s="149"/>
+      <c r="P26" s="138"/>
+      <c r="Q26" s="138"/>
+      <c r="R26" s="138"/>
+      <c r="S26" s="138"/>
     </row>
     <row r="27" spans="2:31" ht="19.899999999999999" customHeight="1">
-      <c r="B27" s="149"/>
-      <c r="C27" s="149"/>
-      <c r="D27" s="149"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="P27" s="149"/>
-      <c r="Q27" s="149"/>
-      <c r="R27" s="149"/>
-      <c r="S27" s="149"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
+      <c r="P27" s="138"/>
+      <c r="Q27" s="138"/>
+      <c r="R27" s="138"/>
+      <c r="S27" s="138"/>
       <c r="T27" s="58"/>
       <c r="U27" s="58"/>
       <c r="V27" s="58"/>
@@ -3522,16 +3515,16 @@
       <c r="AE27" s="58"/>
     </row>
     <row r="28" spans="2:31" ht="19.899999999999999" customHeight="1">
-      <c r="B28" s="149"/>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="P28" s="149"/>
-      <c r="Q28" s="149"/>
-      <c r="R28" s="149"/>
-      <c r="S28" s="149"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
+      <c r="P28" s="138"/>
+      <c r="Q28" s="138"/>
+      <c r="R28" s="138"/>
+      <c r="S28" s="138"/>
       <c r="T28" s="58"/>
       <c r="U28" s="58"/>
       <c r="V28" s="58"/>
@@ -3878,6 +3871,13 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="B26:C28"/>
+    <mergeCell ref="D26:E28"/>
+    <mergeCell ref="F26:G28"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="B2:S2"/>
     <mergeCell ref="I3:J3"/>
@@ -3893,6 +3893,7 @@
     <mergeCell ref="L9:N9"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B10:S10"/>
     <mergeCell ref="B13:S13"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="I14:J14"/>
@@ -3904,6 +3905,9 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="M15:P15"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="I19:J19"/>
     <mergeCell ref="Q15:S15"/>
     <mergeCell ref="R17:S18"/>
     <mergeCell ref="P17:Q18"/>
@@ -3920,23 +3924,12 @@
     <mergeCell ref="P19:Q19"/>
     <mergeCell ref="R19:S19"/>
     <mergeCell ref="B17:H18"/>
-    <mergeCell ref="R25:S25"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="N21:O21"/>
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="R21:S21"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="M25:N25"/>
     <mergeCell ref="L21:M21"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B26:C28"/>
-    <mergeCell ref="D26:E28"/>
-    <mergeCell ref="F26:G28"/>
-    <mergeCell ref="B10:S10"/>
     <mergeCell ref="O9:S9"/>
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="D5:J5"/>
@@ -4499,53 +4492,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="28.5" customHeight="1">
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="157" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
     </row>
     <row r="2" spans="2:8" ht="16.7" customHeight="1">
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="153" t="s">
+      <c r="C2" s="143" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="153" t="s">
+      <c r="D2" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153" t="s">
+      <c r="E2" s="143"/>
+      <c r="F2" s="143" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="153"/>
-      <c r="H2" s="155" t="s">
+      <c r="G2" s="143"/>
+      <c r="H2" s="145" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="16.7" customHeight="1">
-      <c r="B3" s="152"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
       <c r="F3" s="36" t="s">
         <v>133</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="156"/>
+      <c r="H3" s="146"/>
     </row>
     <row r="4" spans="2:8" ht="23.25" customHeight="1">
       <c r="B4" s="39"/>
       <c r="C4" s="40"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="159"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="149"/>
       <c r="F4" s="21" t="s">
         <v>134</v>
       </c>
@@ -4555,8 +4548,8 @@
     <row r="5" spans="2:8" ht="23.25" customHeight="1">
       <c r="B5" s="43"/>
       <c r="C5" s="44"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="161"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="151"/>
       <c r="F5" s="45"/>
       <c r="G5" s="45"/>
       <c r="H5" s="46"/>
@@ -4564,8 +4557,8 @@
     <row r="6" spans="2:8" ht="23.25" customHeight="1">
       <c r="B6" s="43"/>
       <c r="C6" s="44"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="163"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="153"/>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
       <c r="H6" s="48"/>
@@ -4573,8 +4566,8 @@
     <row r="7" spans="2:8" ht="23.25" customHeight="1">
       <c r="B7" s="43"/>
       <c r="C7" s="49"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
       <c r="F7" s="45"/>
       <c r="G7" s="45"/>
       <c r="H7" s="50"/>
@@ -4582,8 +4575,8 @@
     <row r="8" spans="2:8" ht="23.25" customHeight="1">
       <c r="B8" s="43"/>
       <c r="C8" s="49"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="157"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="147"/>
       <c r="F8" s="45"/>
       <c r="G8" s="45"/>
       <c r="H8" s="50"/>
@@ -4591,8 +4584,8 @@
     <row r="9" spans="2:8" ht="23.25" customHeight="1">
       <c r="B9" s="43"/>
       <c r="C9" s="49"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="147"/>
       <c r="F9" s="45"/>
       <c r="G9" s="45"/>
       <c r="H9" s="50"/>
@@ -4600,8 +4593,8 @@
     <row r="10" spans="2:8" ht="23.25" customHeight="1">
       <c r="B10" s="43"/>
       <c r="C10" s="49"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="157"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
       <c r="F10" s="45"/>
       <c r="G10" s="45"/>
       <c r="H10" s="50"/>
@@ -4609,8 +4602,8 @@
     <row r="11" spans="2:8" ht="23.25" customHeight="1">
       <c r="B11" s="43"/>
       <c r="C11" s="49"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="157"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
       <c r="F11" s="45"/>
       <c r="G11" s="45"/>
       <c r="H11" s="50"/>
@@ -4618,8 +4611,8 @@
     <row r="12" spans="2:8" ht="23.25" customHeight="1">
       <c r="B12" s="43"/>
       <c r="C12" s="49"/>
-      <c r="D12" s="157"/>
-      <c r="E12" s="157"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
       <c r="F12" s="45"/>
       <c r="G12" s="45"/>
       <c r="H12" s="50"/>
@@ -4627,8 +4620,8 @@
     <row r="13" spans="2:8" ht="23.25" customHeight="1">
       <c r="B13" s="43"/>
       <c r="C13" s="49"/>
-      <c r="D13" s="157"/>
-      <c r="E13" s="157"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
       <c r="F13" s="45"/>
       <c r="G13" s="45"/>
       <c r="H13" s="50"/>
@@ -4636,8 +4629,8 @@
     <row r="14" spans="2:8" ht="23.25" customHeight="1">
       <c r="B14" s="43"/>
       <c r="C14" s="49"/>
-      <c r="D14" s="157"/>
-      <c r="E14" s="157"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
       <c r="H14" s="50"/>
@@ -4645,8 +4638,8 @@
     <row r="15" spans="2:8" ht="23.25" customHeight="1">
       <c r="B15" s="43"/>
       <c r="C15" s="49"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="157"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
       <c r="F15" s="45"/>
       <c r="G15" s="45"/>
       <c r="H15" s="50"/>
@@ -4654,8 +4647,8 @@
     <row r="16" spans="2:8" ht="23.25" customHeight="1">
       <c r="B16" s="43"/>
       <c r="C16" s="49"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
       <c r="F16" s="45"/>
       <c r="G16" s="45"/>
       <c r="H16" s="50"/>
@@ -4663,8 +4656,8 @@
     <row r="17" spans="2:8" ht="23.25" customHeight="1">
       <c r="B17" s="43"/>
       <c r="C17" s="49"/>
-      <c r="D17" s="157"/>
-      <c r="E17" s="157"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
       <c r="F17" s="45"/>
       <c r="G17" s="45"/>
       <c r="H17" s="50"/>
@@ -4672,8 +4665,8 @@
     <row r="18" spans="2:8" ht="23.25" customHeight="1">
       <c r="B18" s="43"/>
       <c r="C18" s="49"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="157"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="50"/>
@@ -4681,8 +4674,8 @@
     <row r="19" spans="2:8" ht="23.25" customHeight="1">
       <c r="B19" s="43"/>
       <c r="C19" s="49"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="147"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="50"/>
@@ -4690,8 +4683,8 @@
     <row r="20" spans="2:8" ht="23.25" customHeight="1">
       <c r="B20" s="43"/>
       <c r="C20" s="49"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="157"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
       <c r="F20" s="45"/>
       <c r="G20" s="45"/>
       <c r="H20" s="50"/>
@@ -4699,8 +4692,8 @@
     <row r="21" spans="2:8" ht="23.25" customHeight="1">
       <c r="B21" s="43"/>
       <c r="C21" s="49"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="157"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="147"/>
       <c r="F21" s="45"/>
       <c r="G21" s="45"/>
       <c r="H21" s="50"/>
@@ -4708,8 +4701,8 @@
     <row r="22" spans="2:8" ht="23.25" customHeight="1">
       <c r="B22" s="43"/>
       <c r="C22" s="49"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="157"/>
+      <c r="D22" s="147"/>
+      <c r="E22" s="147"/>
       <c r="F22" s="45"/>
       <c r="G22" s="45"/>
       <c r="H22" s="50"/>
@@ -4717,8 +4710,8 @@
     <row r="23" spans="2:8" ht="23.25" customHeight="1">
       <c r="B23" s="43"/>
       <c r="C23" s="49"/>
-      <c r="D23" s="157"/>
-      <c r="E23" s="157"/>
+      <c r="D23" s="147"/>
+      <c r="E23" s="147"/>
       <c r="F23" s="45"/>
       <c r="G23" s="45"/>
       <c r="H23" s="50"/>
@@ -4726,8 +4719,8 @@
     <row r="24" spans="2:8" ht="23.25" customHeight="1">
       <c r="B24" s="43"/>
       <c r="C24" s="49"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="157"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="147"/>
       <c r="F24" s="45"/>
       <c r="G24" s="45"/>
       <c r="H24" s="50"/>
@@ -4735,8 +4728,8 @@
     <row r="25" spans="2:8" ht="23.25" customHeight="1">
       <c r="B25" s="43"/>
       <c r="C25" s="49"/>
-      <c r="D25" s="157"/>
-      <c r="E25" s="157"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="147"/>
       <c r="F25" s="45"/>
       <c r="G25" s="45"/>
       <c r="H25" s="50"/>
@@ -4744,8 +4737,8 @@
     <row r="26" spans="2:8" ht="23.25" customHeight="1">
       <c r="B26" s="43"/>
       <c r="C26" s="49"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="157"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="147"/>
       <c r="F26" s="45"/>
       <c r="G26" s="45"/>
       <c r="H26" s="50"/>
@@ -4753,8 +4746,8 @@
     <row r="27" spans="2:8" ht="23.25" customHeight="1">
       <c r="B27" s="43"/>
       <c r="C27" s="49"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="157"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147"/>
       <c r="F27" s="45"/>
       <c r="G27" s="45"/>
       <c r="H27" s="50"/>
@@ -4762,8 +4755,8 @@
     <row r="28" spans="2:8" ht="23.25" customHeight="1">
       <c r="B28" s="43"/>
       <c r="C28" s="49"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="147"/>
       <c r="F28" s="45"/>
       <c r="G28" s="45"/>
       <c r="H28" s="50"/>
@@ -4771,8 +4764,8 @@
     <row r="29" spans="2:8" ht="23.25" customHeight="1">
       <c r="B29" s="43"/>
       <c r="C29" s="49"/>
-      <c r="D29" s="157"/>
-      <c r="E29" s="157"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
       <c r="F29" s="45"/>
       <c r="G29" s="45"/>
       <c r="H29" s="50"/>
@@ -4780,8 +4773,8 @@
     <row r="30" spans="2:8" ht="23.25" customHeight="1">
       <c r="B30" s="43"/>
       <c r="C30" s="49"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="157"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="147"/>
       <c r="F30" s="45"/>
       <c r="G30" s="45"/>
       <c r="H30" s="50"/>
@@ -4789,8 +4782,8 @@
     <row r="31" spans="2:8" ht="23.25" customHeight="1">
       <c r="B31" s="43"/>
       <c r="C31" s="49"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="147"/>
       <c r="F31" s="45"/>
       <c r="G31" s="45"/>
       <c r="H31" s="50"/>
@@ -4798,8 +4791,8 @@
     <row r="32" spans="2:8" ht="23.25" customHeight="1">
       <c r="B32" s="43"/>
       <c r="C32" s="49"/>
-      <c r="D32" s="157"/>
-      <c r="E32" s="157"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
       <c r="F32" s="45"/>
       <c r="G32" s="45"/>
       <c r="H32" s="50"/>
@@ -4807,8 +4800,8 @@
     <row r="33" spans="2:8" ht="23.25" customHeight="1">
       <c r="B33" s="43"/>
       <c r="C33" s="49"/>
-      <c r="D33" s="157"/>
-      <c r="E33" s="157"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="147"/>
       <c r="F33" s="45"/>
       <c r="G33" s="45"/>
       <c r="H33" s="50"/>
@@ -4816,19 +4809,19 @@
     <row r="34" spans="2:8" ht="23.25" customHeight="1">
       <c r="B34" s="51"/>
       <c r="C34" s="52"/>
-      <c r="D34" s="164"/>
-      <c r="E34" s="164"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="154"/>
       <c r="F34" s="53"/>
       <c r="G34" s="53"/>
       <c r="H34" s="54"/>
     </row>
     <row r="35" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B35" s="165" t="s">
+      <c r="B35" s="155" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="166"/>
-      <c r="D35" s="166"/>
-      <c r="E35" s="166"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="156"/>
       <c r="F35" s="13">
         <f>SUM(F4:F34)</f>
         <v>0</v>
@@ -4883,7 +4876,7 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.43307086614173229" bottom="0.98425196850393704" header="0.23622047244094491" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="90" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;R&amp;10松下电器軟件开发（大連）有限公司</oddFooter>
   </headerFooter>

--- a/controller/src/main/resources/jxls_templates/jingwaijingsuanshu.xlsx
+++ b/controller/src/main/resources/jxls_templates/jingwaijingsuanshu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,30 +17,30 @@
     <sheet name="設定" sheetId="15" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">出差精算合計!$B$2:$S$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">出差精算合計!$B$2:$S$10</definedName>
     <definedName name="LSIソリューション開発グループ">設定!$C$11:$E$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">出差精算合計!$A$1:$T$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">公务电话费!$A$1:$I$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">出差精算合計!$A$1:$T$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">設定!$A$1:$K$81</definedName>
     <definedName name="ソフトウェア開発力強化推進室">設定!$C$9:$D$9</definedName>
-    <definedName name="移动时间">設定!$D$19:$D$27</definedName>
-    <definedName name="開発企画推進室">設定!$C$5:$E$5</definedName>
+    <definedName name="部門">設定!$B$3:$B$16</definedName>
+    <definedName name="財務推進室">設定!$C$4:$D$4</definedName>
+    <definedName name="車載LSI開発グループ">設定!$C$14:$G$14</definedName>
+    <definedName name="車載商品開発グループ">設定!$C$13:$G$13</definedName>
+    <definedName name="地域区分">設定!$I$19:$I$21</definedName>
     <definedName name="活动内容">設定!$B$19:$B$23</definedName>
     <definedName name="基盤技術応用グループ">設定!$C$7:$D$7</definedName>
     <definedName name="交通工具">設定!$C$19:$C$22</definedName>
-    <definedName name="財務推進室">設定!$C$4:$D$4</definedName>
+    <definedName name="開発企画推進室">設定!$C$5:$E$5</definedName>
+    <definedName name="设施类型">設定!$F$19:$F$22</definedName>
     <definedName name="社会システム開発グループ">設定!$C$16:$F$16</definedName>
     <definedName name="社员区分">設定!$J$19:$J$21</definedName>
-    <definedName name="車載LSI開発グループ">設定!$C$14:$G$14</definedName>
-    <definedName name="車載商品開発グループ">設定!$C$13:$G$13</definedName>
+    <definedName name="移动时间">設定!$D$19:$D$27</definedName>
+    <definedName name="制御システム開発グループ">設定!$C$8:$J$8</definedName>
+    <definedName name="助成推進室">設定!$C$3:$H$3</definedName>
     <definedName name="住空間·業務空間開発グループ">設定!$C$15:$G$15</definedName>
     <definedName name="住空間端末開発グループ">設定!$C$10:$E$10</definedName>
-    <definedName name="助成推進室">設定!$C$3:$H$3</definedName>
-    <definedName name="制御システム開発グループ">設定!$C$8:$J$8</definedName>
     <definedName name="組込基盤技術開発グループ">設定!$C$12:$E$12</definedName>
-    <definedName name="地域区分">設定!$I$19:$I$21</definedName>
-    <definedName name="部門">設定!$B$3:$B$16</definedName>
-    <definedName name="设施类型">設定!$F$19:$F$22</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -68,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0" shapeId="0">
+    <comment ref="B23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0" shapeId="0">
+    <comment ref="B24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -113,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="0" shapeId="0">
+    <comment ref="B30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -128,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D26" authorId="0" shapeId="0">
+    <comment ref="D30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F26" authorId="1" shapeId="0">
+    <comment ref="F30" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -158,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P26" authorId="0" shapeId="0">
+    <comment ref="P30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R26" authorId="0" shapeId="0">
+    <comment ref="R30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -978,10 +978,10 @@
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="179" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-    <numFmt numFmtId="182" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="179" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -1020,6 +1020,8 @@
     <font>
       <sz val="11"/>
       <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="6"/>
@@ -1036,6 +1038,8 @@
     <font>
       <sz val="10"/>
       <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1047,6 +1051,8 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1065,10 +1071,12 @@
       <b/>
       <sz val="12"/>
       <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="major"/>
@@ -1076,10 +1084,14 @@
     <font>
       <sz val="14"/>
       <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1090,11 +1102,15 @@
     <font>
       <sz val="10"/>
       <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1125,6 +1141,8 @@
     <font>
       <sz val="12"/>
       <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1138,6 +1156,8 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1148,6 +1168,12 @@
     <font>
       <sz val="11"/>
       <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -1878,7 +1904,7 @@
     <xf numFmtId="6" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2089,6 +2115,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2144,242 +2176,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="29" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="28" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2392,6 +2188,156 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2401,17 +2347,35 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2426,15 +2390,80 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 2 2" xfId="2"/>
     <cellStyle name="標準 2 3" xfId="6"/>
     <cellStyle name="標準 3" xfId="4"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="通貨 2" xfId="3"/>
     <cellStyle name="通貨 2 2" xfId="5"/>
   </cellStyles>
@@ -2836,794 +2865,754 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE97"/>
+  <dimension ref="A1:AE101"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="19" width="5.75" style="55" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="55" customWidth="1"/>
+    <col min="2" max="19" width="5.75" style="55" customWidth="1"/>
     <col min="20" max="20" width="2.75" style="55" customWidth="1"/>
     <col min="21" max="32" width="9" style="55" customWidth="1"/>
     <col min="33" max="16384" width="9" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="19.899999999999999" customHeight="1"/>
-    <row r="2" spans="1:19" ht="19.899999999999999" customHeight="1">
-      <c r="B2" s="131" t="s">
+    <row r="1" spans="1:19" ht="20.100000000000001" customHeight="1"/>
+    <row r="2" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="B2" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="131"/>
-    </row>
-    <row r="3" spans="1:19" ht="19.899999999999999" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+    </row>
+    <row r="3" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+    </row>
+    <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+    </row>
+    <row r="5" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+    </row>
+    <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+    </row>
+    <row r="7" spans="1:19" ht="24" customHeight="1">
+      <c r="B7" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="80" t="s">
+      <c r="C7" s="74"/>
+      <c r="D7" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="132" t="s">
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="150" t="s">
         <v>127</v>
       </c>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132" t="s">
+      <c r="H7" s="150"/>
+      <c r="I7" s="150" t="s">
         <v>136</v>
       </c>
-      <c r="J3" s="132"/>
-      <c r="L3" s="86" t="s">
+      <c r="J7" s="150"/>
+      <c r="L7" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="M3" s="86"/>
-      <c r="N3" s="158" t="s">
+      <c r="M7" s="88"/>
+      <c r="N7" s="151" t="s">
         <v>137</v>
       </c>
-      <c r="O3" s="158"/>
-      <c r="P3" s="158"/>
-      <c r="Q3" s="158"/>
-      <c r="R3" s="158"/>
-      <c r="S3" s="158"/>
-    </row>
-    <row r="4" spans="1:19" ht="19.899999999999999" customHeight="1">
-      <c r="B4" s="74" t="s">
+      <c r="O7" s="151"/>
+      <c r="P7" s="151"/>
+      <c r="Q7" s="151"/>
+      <c r="R7" s="151"/>
+      <c r="S7" s="151"/>
+    </row>
+    <row r="8" spans="1:19" ht="24" customHeight="1">
+      <c r="B8" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="80" t="s">
+      <c r="C8" s="74"/>
+      <c r="D8" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="L4" s="86" t="s">
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="L8" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="M4" s="86"/>
-      <c r="N4" s="159" t="s">
+      <c r="M8" s="88"/>
+      <c r="N8" s="152" t="s">
         <v>142</v>
       </c>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="56" t="s">
+      <c r="O8" s="152"/>
+      <c r="P8" s="152"/>
+      <c r="Q8" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="R4" s="160" t="s">
+      <c r="R8" s="153" t="s">
         <v>143</v>
       </c>
-      <c r="S4" s="160"/>
-    </row>
-    <row r="5" spans="1:19" ht="19.899999999999999" customHeight="1">
-      <c r="B5" s="74" t="s">
+      <c r="S8" s="153"/>
+    </row>
+    <row r="9" spans="1:19" ht="24" customHeight="1">
+      <c r="B9" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="79" t="s">
+      <c r="C9" s="74"/>
+      <c r="D9" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="L5" s="86" t="s">
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="L9" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="78" t="e">
-        <f>RIGHT(R4,10)-LEFT(N4,10)+1</f>
+      <c r="M9" s="88"/>
+      <c r="N9" s="80" t="e">
+        <f>RIGHT(R8,10)-LEFT(N8,10)+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="134" t="s">
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="134"/>
-      <c r="S5" s="64"/>
-    </row>
-    <row r="6" spans="1:19" ht="19.899999999999999" customHeight="1">
-      <c r="B6" s="74" t="s">
+      <c r="R9" s="155"/>
+      <c r="S9" s="64"/>
+    </row>
+    <row r="10" spans="1:19" ht="24" customHeight="1">
+      <c r="B10" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="84" t="s">
+      <c r="C10" s="74"/>
+      <c r="D10" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="L6" s="86" t="s">
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="L10" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="M6" s="86"/>
-      <c r="N6" s="87" t="s">
+      <c r="M10" s="88"/>
+      <c r="N10" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-    </row>
-    <row r="7" spans="1:19" ht="19.899999999999999" customHeight="1">
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-    </row>
-    <row r="8" spans="1:19" ht="19.899999999999999" customHeight="1">
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="88" t="s">
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+    </row>
+    <row r="11" spans="1:19" ht="24" customHeight="1">
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+    </row>
+    <row r="12" spans="1:19" ht="24" customHeight="1">
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="M8" s="89"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="91" t="s">
+      <c r="M12" s="91"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="89"/>
-      <c r="S8" s="92"/>
-    </row>
-    <row r="9" spans="1:19" ht="19.899999999999999" customHeight="1">
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="135" t="s">
+      <c r="P12" s="91"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="91"/>
+      <c r="S12" s="94"/>
+    </row>
+    <row r="13" spans="1:19" ht="24" customHeight="1">
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="76"/>
-      <c r="N9" s="136"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="77"/>
-    </row>
-    <row r="10" spans="1:19" ht="19.899999999999999" customHeight="1">
-      <c r="B10" s="137"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="137"/>
-      <c r="M10" s="137"/>
-      <c r="N10" s="137"/>
-      <c r="O10" s="137"/>
-      <c r="P10" s="137"/>
-      <c r="Q10" s="137"/>
-      <c r="R10" s="137"/>
-      <c r="S10" s="137"/>
-    </row>
-    <row r="11" spans="1:19" ht="19.899999999999999" customHeight="1">
-      <c r="B11" s="81" t="s">
+      <c r="M13" s="78"/>
+      <c r="N13" s="157"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="79"/>
+    </row>
+    <row r="14" spans="1:19" ht="24" customHeight="1">
+      <c r="B14" s="158"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="158"/>
+      <c r="K14" s="158"/>
+      <c r="L14" s="158"/>
+      <c r="M14" s="158"/>
+      <c r="N14" s="158"/>
+      <c r="O14" s="158"/>
+      <c r="P14" s="158"/>
+      <c r="Q14" s="158"/>
+      <c r="R14" s="158"/>
+      <c r="S14" s="158"/>
+    </row>
+    <row r="15" spans="1:19" ht="24" customHeight="1">
+      <c r="B15" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="168" t="s">
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="J11" s="169"/>
-      <c r="K11" s="170"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="83"/>
-      <c r="S11" s="83"/>
-    </row>
-    <row r="12" spans="1:19" ht="19.899999999999999" customHeight="1">
-      <c r="B12" s="133" t="s">
+      <c r="J15" s="96"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+    </row>
+    <row r="16" spans="1:19" ht="24" customHeight="1">
+      <c r="B16" s="154" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="171" t="s">
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="147" t="s">
         <v>169</v>
       </c>
-      <c r="J12" s="172"/>
-      <c r="K12" s="173"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="60"/>
-    </row>
-    <row r="13" spans="1:19" ht="19.899999999999999" customHeight="1">
-      <c r="B13" s="124"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="125"/>
-      <c r="M13" s="125"/>
-      <c r="N13" s="125"/>
-      <c r="O13" s="125"/>
-      <c r="P13" s="125"/>
-      <c r="Q13" s="125"/>
-      <c r="R13" s="125"/>
-      <c r="S13" s="125"/>
-    </row>
-    <row r="14" spans="1:19" ht="19.899999999999999" customHeight="1">
-      <c r="B14" s="117" t="s">
+      <c r="J16" s="148"/>
+      <c r="K16" s="149"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
+    </row>
+    <row r="17" spans="2:31" ht="24" customHeight="1">
+      <c r="B17" s="140"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="140"/>
+      <c r="K17" s="140"/>
+      <c r="L17" s="141"/>
+      <c r="M17" s="141"/>
+      <c r="N17" s="141"/>
+      <c r="O17" s="141"/>
+      <c r="P17" s="141"/>
+      <c r="Q17" s="141"/>
+      <c r="R17" s="141"/>
+      <c r="S17" s="141"/>
+    </row>
+    <row r="18" spans="2:31" ht="24" customHeight="1">
+      <c r="B18" s="128" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="126" t="s">
+      <c r="C18" s="129"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="142" t="s">
         <v>148</v>
       </c>
-      <c r="J14" s="127"/>
-      <c r="K14" s="128" t="s">
+      <c r="J18" s="143"/>
+      <c r="K18" s="144" t="s">
         <v>149</v>
       </c>
-      <c r="L14" s="124"/>
-      <c r="M14" s="128" t="s">
+      <c r="L18" s="140"/>
+      <c r="M18" s="144" t="s">
         <v>150</v>
       </c>
-      <c r="N14" s="124"/>
-      <c r="O14" s="124"/>
-      <c r="P14" s="129"/>
-      <c r="Q14" s="128" t="s">
+      <c r="N18" s="140"/>
+      <c r="O18" s="140"/>
+      <c r="P18" s="145"/>
+      <c r="Q18" s="144" t="s">
         <v>151</v>
       </c>
-      <c r="R14" s="124"/>
-      <c r="S14" s="130"/>
-    </row>
-    <row r="15" spans="1:19" ht="19.899999999999999" customHeight="1">
-      <c r="B15" s="117" t="s">
+      <c r="R18" s="140"/>
+      <c r="S18" s="146"/>
+    </row>
+    <row r="19" spans="2:31" ht="24" customHeight="1">
+      <c r="B19" s="128" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="119" t="s">
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="130" t="s">
         <v>179</v>
       </c>
-      <c r="J15" s="120"/>
-      <c r="K15" s="161" t="s">
+      <c r="J19" s="131"/>
+      <c r="K19" s="132" t="s">
         <v>153</v>
       </c>
-      <c r="L15" s="162"/>
-      <c r="M15" s="165" t="s">
+      <c r="L19" s="133"/>
+      <c r="M19" s="134" t="s">
         <v>154</v>
       </c>
-      <c r="N15" s="166"/>
-      <c r="O15" s="166"/>
-      <c r="P15" s="167"/>
-      <c r="Q15" s="163" t="s">
+      <c r="N19" s="135"/>
+      <c r="O19" s="135"/>
+      <c r="P19" s="136"/>
+      <c r="Q19" s="105" t="s">
         <v>155</v>
       </c>
-      <c r="R15" s="163"/>
-      <c r="S15" s="164"/>
-    </row>
-    <row r="16" spans="1:19" ht="19.899999999999999" customHeight="1">
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
-      <c r="S16" s="65"/>
-    </row>
-    <row r="17" spans="2:31" ht="19.899999999999999" customHeight="1">
-      <c r="B17" s="115" t="s">
+      <c r="R19" s="105"/>
+      <c r="S19" s="106"/>
+    </row>
+    <row r="20" spans="2:31" ht="24" customHeight="1">
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+    </row>
+    <row r="21" spans="2:31" ht="24" customHeight="1">
+      <c r="B21" s="126" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="116"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116" t="s">
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="127" t="s">
         <v>159</v>
       </c>
-      <c r="J17" s="116"/>
-      <c r="K17" s="111" t="s">
+      <c r="J21" s="127"/>
+      <c r="K21" s="122" t="s">
         <v>160</v>
       </c>
-      <c r="L17" s="98" t="s">
+      <c r="L21" s="107" t="s">
         <v>158</v>
       </c>
-      <c r="M17" s="113"/>
-      <c r="N17" s="102" t="s">
+      <c r="M21" s="124"/>
+      <c r="N21" s="111" t="s">
         <v>161</v>
       </c>
-      <c r="O17" s="103"/>
-      <c r="P17" s="102" t="s">
+      <c r="O21" s="112"/>
+      <c r="P21" s="111" t="s">
         <v>157</v>
       </c>
-      <c r="Q17" s="103"/>
-      <c r="R17" s="98" t="s">
+      <c r="Q21" s="112"/>
+      <c r="R21" s="107" t="s">
         <v>156</v>
       </c>
-      <c r="S17" s="99"/>
-    </row>
-    <row r="18" spans="2:31" ht="19.899999999999999" customHeight="1">
-      <c r="B18" s="117"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="118"/>
-      <c r="K18" s="112"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="114"/>
-      <c r="N18" s="104"/>
-      <c r="O18" s="105"/>
-      <c r="P18" s="104"/>
-      <c r="Q18" s="105"/>
-      <c r="R18" s="100"/>
-      <c r="S18" s="101"/>
-    </row>
-    <row r="19" spans="2:31" ht="19.899999999999999" customHeight="1">
-      <c r="B19" s="121" t="s">
+      <c r="S21" s="108"/>
+    </row>
+    <row r="22" spans="2:31" ht="24" customHeight="1">
+      <c r="B22" s="128"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="109"/>
+      <c r="M22" s="125"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="114"/>
+      <c r="P22" s="113"/>
+      <c r="Q22" s="114"/>
+      <c r="R22" s="109"/>
+      <c r="S22" s="110"/>
+    </row>
+    <row r="23" spans="2:31" ht="24" customHeight="1">
+      <c r="B23" s="137" t="s">
         <v>162</v>
       </c>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="123" t="s">
-        <v>170</v>
-      </c>
-      <c r="J19" s="123"/>
-      <c r="K19" s="68" t="s">
-        <v>171</v>
-      </c>
-      <c r="L19" s="98" t="s">
-        <v>180</v>
-      </c>
-      <c r="M19" s="113"/>
-      <c r="N19" s="174" t="s">
-        <v>181</v>
-      </c>
-      <c r="O19" s="175"/>
-      <c r="P19" s="174" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q19" s="175"/>
-      <c r="R19" s="176" t="s">
-        <v>172</v>
-      </c>
-      <c r="S19" s="177"/>
-    </row>
-    <row r="20" spans="2:31" ht="19.899999999999999" customHeight="1">
-      <c r="B20" s="106" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="108" t="s">
-        <v>164</v>
-      </c>
-      <c r="J20" s="108"/>
-      <c r="K20" s="69" t="s">
-        <v>165</v>
-      </c>
-      <c r="L20" s="109" t="s">
-        <v>166</v>
-      </c>
-      <c r="M20" s="110"/>
-      <c r="N20" s="174" t="s">
-        <v>174</v>
-      </c>
-      <c r="O20" s="175"/>
-      <c r="P20" s="174" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q20" s="175"/>
-      <c r="R20" s="176" t="s">
-        <v>168</v>
-      </c>
-      <c r="S20" s="177"/>
-    </row>
-    <row r="21" spans="2:31" ht="19.899999999999999" customHeight="1">
-      <c r="B21" s="94" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="174" t="s">
-        <v>182</v>
-      </c>
-      <c r="O21" s="175"/>
-      <c r="P21" s="174" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q21" s="175"/>
-      <c r="R21" s="174" t="s">
-        <v>176</v>
-      </c>
-      <c r="S21" s="175"/>
-    </row>
-    <row r="22" spans="2:31" ht="19.899999999999999" customHeight="1">
-      <c r="B22" s="138" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="138"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="138"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="178" t="s">
-        <v>178</v>
-      </c>
-      <c r="J22" s="179"/>
-      <c r="K22" s="179"/>
-      <c r="L22" s="179"/>
-      <c r="M22" s="179"/>
-      <c r="N22" s="179"/>
-      <c r="O22" s="179"/>
-      <c r="P22" s="179"/>
-      <c r="Q22" s="179"/>
-      <c r="R22" s="179"/>
-      <c r="S22" s="175"/>
-    </row>
-    <row r="23" spans="2:31" ht="19.899999999999999" customHeight="1">
-      <c r="B23" s="138"/>
       <c r="C23" s="138"/>
       <c r="D23" s="138"/>
       <c r="E23" s="138"/>
       <c r="F23" s="138"/>
       <c r="G23" s="138"/>
       <c r="H23" s="138"/>
-      <c r="I23" s="180"/>
-      <c r="J23" s="181"/>
-      <c r="K23" s="181"/>
-      <c r="L23" s="181"/>
-      <c r="M23" s="181"/>
-      <c r="N23" s="181"/>
-      <c r="O23" s="181"/>
-      <c r="P23" s="181"/>
-      <c r="Q23" s="181"/>
-      <c r="R23" s="181"/>
-      <c r="S23" s="182"/>
-    </row>
-    <row r="24" spans="2:31" ht="19.899999999999999" customHeight="1">
-      <c r="B24" s="140"/>
-      <c r="C24" s="124"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="124"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61" t="s">
+      <c r="I23" s="139" t="s">
+        <v>170</v>
+      </c>
+      <c r="J23" s="139"/>
+      <c r="K23" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="L23" s="107" t="s">
+        <v>180</v>
+      </c>
+      <c r="M23" s="124"/>
+      <c r="N23" s="101" t="s">
+        <v>181</v>
+      </c>
+      <c r="O23" s="102"/>
+      <c r="P23" s="101" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q23" s="102"/>
+      <c r="R23" s="120" t="s">
+        <v>172</v>
+      </c>
+      <c r="S23" s="121"/>
+    </row>
+    <row r="24" spans="2:31" ht="24" customHeight="1">
+      <c r="B24" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="117" t="s">
+        <v>164</v>
+      </c>
+      <c r="J24" s="117"/>
+      <c r="K24" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="L24" s="118" t="s">
+        <v>166</v>
+      </c>
+      <c r="M24" s="119"/>
+      <c r="N24" s="101" t="s">
+        <v>174</v>
+      </c>
+      <c r="O24" s="102"/>
+      <c r="P24" s="101" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q24" s="102"/>
+      <c r="R24" s="120" t="s">
+        <v>168</v>
+      </c>
+      <c r="S24" s="121"/>
+    </row>
+    <row r="25" spans="2:31" ht="24" customHeight="1">
+      <c r="B25" s="99" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="104"/>
+      <c r="N25" s="101" t="s">
+        <v>182</v>
+      </c>
+      <c r="O25" s="102"/>
+      <c r="P25" s="101" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q25" s="102"/>
+      <c r="R25" s="101" t="s">
+        <v>176</v>
+      </c>
+      <c r="S25" s="102"/>
+    </row>
+    <row r="26" spans="2:31" ht="24" customHeight="1">
+      <c r="B26" s="159" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="159"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="160" t="s">
+        <v>178</v>
+      </c>
+      <c r="J26" s="161"/>
+      <c r="K26" s="161"/>
+      <c r="L26" s="161"/>
+      <c r="M26" s="161"/>
+      <c r="N26" s="161"/>
+      <c r="O26" s="161"/>
+      <c r="P26" s="161"/>
+      <c r="Q26" s="161"/>
+      <c r="R26" s="161"/>
+      <c r="S26" s="102"/>
+    </row>
+    <row r="27" spans="2:31" ht="24" customHeight="1">
+      <c r="B27" s="159"/>
+      <c r="C27" s="159"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="162"/>
+      <c r="J27" s="163"/>
+      <c r="K27" s="163"/>
+      <c r="L27" s="163"/>
+      <c r="M27" s="163"/>
+      <c r="N27" s="163"/>
+      <c r="O27" s="163"/>
+      <c r="P27" s="163"/>
+      <c r="Q27" s="163"/>
+      <c r="R27" s="163"/>
+      <c r="S27" s="164"/>
+    </row>
+    <row r="28" spans="2:31" ht="19.899999999999999" customHeight="1">
+      <c r="B28" s="166"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="166"/>
+      <c r="I28" s="166"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="61"/>
-      <c r="S24" s="61"/>
-    </row>
-    <row r="25" spans="2:31" ht="19.899999999999999" customHeight="1">
-      <c r="B25" s="133" t="s">
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+    </row>
+    <row r="29" spans="2:31" ht="19.899999999999999" customHeight="1">
+      <c r="B29" s="154" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="130"/>
-      <c r="D25" s="133" t="s">
+      <c r="C29" s="146"/>
+      <c r="D29" s="154" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="124"/>
-      <c r="F25" s="138" t="s">
+      <c r="E29" s="140"/>
+      <c r="F29" s="159" t="s">
         <v>107</v>
       </c>
-      <c r="G25" s="138"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="137"/>
-      <c r="N25" s="137"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="139" t="s">
+      <c r="G29" s="159"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="158"/>
+      <c r="N29" s="158"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="165" t="s">
         <v>108</v>
       </c>
-      <c r="Q25" s="113"/>
-      <c r="R25" s="98" t="s">
+      <c r="Q29" s="124"/>
+      <c r="R29" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="S25" s="99"/>
-    </row>
-    <row r="26" spans="2:31" ht="19.899999999999999" customHeight="1">
-      <c r="B26" s="138"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="137"/>
-      <c r="N26" s="137"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="138"/>
-      <c r="Q26" s="138"/>
-      <c r="R26" s="138"/>
-      <c r="S26" s="138"/>
-    </row>
-    <row r="27" spans="2:31" ht="19.899999999999999" customHeight="1">
-      <c r="B27" s="138"/>
-      <c r="C27" s="138"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="138"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="138"/>
-      <c r="P27" s="138"/>
-      <c r="Q27" s="138"/>
-      <c r="R27" s="138"/>
-      <c r="S27" s="138"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="58"/>
-      <c r="Y27" s="58"/>
-      <c r="Z27" s="58"/>
-      <c r="AA27" s="58"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="58"/>
-      <c r="AD27" s="58"/>
-      <c r="AE27" s="58"/>
-    </row>
-    <row r="28" spans="2:31" ht="19.899999999999999" customHeight="1">
-      <c r="B28" s="138"/>
-      <c r="C28" s="138"/>
-      <c r="D28" s="138"/>
-      <c r="E28" s="138"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="138"/>
-      <c r="P28" s="138"/>
-      <c r="Q28" s="138"/>
-      <c r="R28" s="138"/>
-      <c r="S28" s="138"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="58"/>
-      <c r="W28" s="58"/>
-      <c r="X28" s="58"/>
-      <c r="Y28" s="58"/>
-      <c r="Z28" s="58"/>
-      <c r="AA28" s="58"/>
-      <c r="AB28" s="58"/>
-      <c r="AC28" s="58"/>
-      <c r="AD28" s="58"/>
-      <c r="AE28" s="58"/>
-    </row>
-    <row r="29" spans="2:31" ht="19.899999999999999" customHeight="1">
-      <c r="B29" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="73"/>
-      <c r="R29" s="73"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="58"/>
-      <c r="W29" s="58"/>
-      <c r="X29" s="58"/>
-      <c r="Y29" s="58"/>
-      <c r="Z29" s="58"/>
-      <c r="AA29" s="58"/>
-      <c r="AB29" s="58"/>
-      <c r="AC29" s="58"/>
-      <c r="AD29" s="58"/>
-      <c r="AE29" s="58"/>
+      <c r="S29" s="108"/>
     </row>
     <row r="30" spans="2:31" ht="19.899999999999999" customHeight="1">
-      <c r="B30" s="73" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="73"/>
-      <c r="Q30" s="73"/>
-      <c r="R30" s="73"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="58"/>
-      <c r="W30" s="58"/>
-      <c r="X30" s="58"/>
-      <c r="Y30" s="58"/>
-      <c r="Z30" s="58"/>
-      <c r="AA30" s="58"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="58"/>
-      <c r="AD30" s="58"/>
-      <c r="AE30" s="58"/>
+      <c r="B30" s="159"/>
+      <c r="C30" s="159"/>
+      <c r="D30" s="159"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="158"/>
+      <c r="N30" s="158"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="159"/>
+      <c r="Q30" s="159"/>
+      <c r="R30" s="159"/>
+      <c r="S30" s="159"/>
     </row>
     <row r="31" spans="2:31" ht="19.899999999999999" customHeight="1">
-      <c r="B31" s="73" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="73"/>
-      <c r="R31" s="73"/>
+      <c r="B31" s="159"/>
+      <c r="C31" s="159"/>
+      <c r="D31" s="159"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="159"/>
+      <c r="P31" s="159"/>
+      <c r="Q31" s="159"/>
+      <c r="R31" s="159"/>
+      <c r="S31" s="159"/>
       <c r="T31" s="58"/>
       <c r="U31" s="58"/>
       <c r="V31" s="58"/>
@@ -3638,18 +3627,17 @@
       <c r="AE31" s="58"/>
     </row>
     <row r="32" spans="2:31" ht="19.899999999999999" customHeight="1">
-      <c r="B32" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="73"/>
-      <c r="Q32" s="73"/>
-      <c r="R32" s="73"/>
-      <c r="T32" s="34"/>
+      <c r="B32" s="159"/>
+      <c r="C32" s="159"/>
+      <c r="D32" s="159"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="159"/>
+      <c r="P32" s="159"/>
+      <c r="Q32" s="159"/>
+      <c r="R32" s="159"/>
+      <c r="S32" s="159"/>
+      <c r="T32" s="58"/>
       <c r="U32" s="58"/>
       <c r="V32" s="58"/>
       <c r="W32" s="58"/>
@@ -3662,16 +3650,27 @@
       <c r="AD32" s="58"/>
       <c r="AE32" s="58"/>
     </row>
-    <row r="33" spans="12:31" ht="15.95" customHeight="1">
-      <c r="L33" s="63"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="63"/>
-      <c r="P33" s="63"/>
-      <c r="Q33" s="63"/>
-      <c r="R33" s="63"/>
-      <c r="S33" s="63"/>
-      <c r="T33" s="34"/>
+    <row r="33" spans="2:31" ht="19.899999999999999" customHeight="1">
+      <c r="B33" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="73"/>
+      <c r="T33" s="58"/>
       <c r="U33" s="58"/>
       <c r="V33" s="58"/>
       <c r="W33" s="58"/>
@@ -3684,16 +3683,27 @@
       <c r="AD33" s="58"/>
       <c r="AE33" s="58"/>
     </row>
-    <row r="34" spans="12:31" ht="15.95" customHeight="1">
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="63"/>
-      <c r="O34" s="63"/>
-      <c r="P34" s="63"/>
-      <c r="Q34" s="63"/>
-      <c r="R34" s="63"/>
-      <c r="S34" s="63"/>
-      <c r="T34" s="34"/>
+    <row r="34" spans="2:31" ht="19.899999999999999" customHeight="1">
+      <c r="B34" s="73" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="73"/>
+      <c r="Q34" s="73"/>
+      <c r="R34" s="73"/>
+      <c r="T34" s="58"/>
       <c r="U34" s="58"/>
       <c r="V34" s="58"/>
       <c r="W34" s="58"/>
@@ -3706,7 +3716,26 @@
       <c r="AD34" s="58"/>
       <c r="AE34" s="58"/>
     </row>
-    <row r="35" spans="12:31" ht="15.95" customHeight="1">
+    <row r="35" spans="2:31" ht="19.899999999999999" customHeight="1">
+      <c r="B35" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="73"/>
       <c r="T35" s="58"/>
       <c r="U35" s="58"/>
       <c r="V35" s="58"/>
@@ -3720,8 +3749,19 @@
       <c r="AD35" s="58"/>
       <c r="AE35" s="58"/>
     </row>
-    <row r="36" spans="12:31" ht="15.95" customHeight="1">
-      <c r="T36" s="58"/>
+    <row r="36" spans="2:31" ht="19.899999999999999" customHeight="1">
+      <c r="B36" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="73"/>
+      <c r="P36" s="73"/>
+      <c r="Q36" s="73"/>
+      <c r="R36" s="73"/>
+      <c r="T36" s="34"/>
       <c r="U36" s="58"/>
       <c r="V36" s="58"/>
       <c r="W36" s="58"/>
@@ -3734,8 +3774,16 @@
       <c r="AD36" s="58"/>
       <c r="AE36" s="58"/>
     </row>
-    <row r="37" spans="12:31" ht="15.95" customHeight="1">
-      <c r="T37" s="58"/>
+    <row r="37" spans="2:31" ht="15.95" customHeight="1">
+      <c r="L37" s="63"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="63"/>
+      <c r="T37" s="34"/>
       <c r="U37" s="58"/>
       <c r="V37" s="58"/>
       <c r="W37" s="58"/>
@@ -3748,21 +3796,29 @@
       <c r="AD37" s="58"/>
       <c r="AE37" s="58"/>
     </row>
-    <row r="38" spans="12:31" ht="15.95" customHeight="1">
+    <row r="38" spans="2:31" ht="15.95" customHeight="1">
+      <c r="L38" s="63"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="63"/>
+      <c r="R38" s="63"/>
+      <c r="S38" s="63"/>
       <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="34"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="34"/>
-      <c r="AB38" s="34"/>
-      <c r="AC38" s="34"/>
-      <c r="AD38" s="34"/>
-      <c r="AE38" s="34"/>
-    </row>
-    <row r="39" spans="12:31" ht="15.95" customHeight="1">
+      <c r="U38" s="58"/>
+      <c r="V38" s="58"/>
+      <c r="W38" s="58"/>
+      <c r="X38" s="58"/>
+      <c r="Y38" s="58"/>
+      <c r="Z38" s="58"/>
+      <c r="AA38" s="58"/>
+      <c r="AB38" s="58"/>
+      <c r="AC38" s="58"/>
+      <c r="AD38" s="58"/>
+      <c r="AE38" s="58"/>
+    </row>
+    <row r="39" spans="2:31" ht="15.95" customHeight="1">
       <c r="T39" s="58"/>
       <c r="U39" s="58"/>
       <c r="V39" s="58"/>
@@ -3776,7 +3832,7 @@
       <c r="AD39" s="58"/>
       <c r="AE39" s="58"/>
     </row>
-    <row r="40" spans="12:31" ht="15.95" customHeight="1">
+    <row r="40" spans="2:31" ht="15.95" customHeight="1">
       <c r="T40" s="58"/>
       <c r="U40" s="58"/>
       <c r="V40" s="58"/>
@@ -3790,7 +3846,7 @@
       <c r="AD40" s="58"/>
       <c r="AE40" s="58"/>
     </row>
-    <row r="41" spans="12:31" ht="15.95" customHeight="1">
+    <row r="41" spans="2:31" ht="15.95" customHeight="1">
       <c r="T41" s="58"/>
       <c r="U41" s="58"/>
       <c r="V41" s="58"/>
@@ -3804,13 +3860,65 @@
       <c r="AD41" s="58"/>
       <c r="AE41" s="58"/>
     </row>
-    <row r="42" spans="12:31" ht="15.95" customHeight="1"/>
-    <row r="43" spans="12:31" ht="15.95" customHeight="1"/>
-    <row r="44" spans="12:31" ht="15.95" customHeight="1"/>
-    <row r="45" spans="12:31" ht="15.95" customHeight="1"/>
-    <row r="46" spans="12:31" ht="15.95" customHeight="1"/>
-    <row r="47" spans="12:31" ht="15.95" customHeight="1"/>
-    <row r="48" spans="12:31" ht="15.95" customHeight="1"/>
+    <row r="42" spans="2:31" ht="15.95" customHeight="1">
+      <c r="T42" s="34"/>
+      <c r="U42" s="34"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="34"/>
+      <c r="X42" s="34"/>
+      <c r="Y42" s="34"/>
+      <c r="Z42" s="34"/>
+      <c r="AA42" s="34"/>
+      <c r="AB42" s="34"/>
+      <c r="AC42" s="34"/>
+      <c r="AD42" s="34"/>
+      <c r="AE42" s="34"/>
+    </row>
+    <row r="43" spans="2:31" ht="15.95" customHeight="1">
+      <c r="T43" s="58"/>
+      <c r="U43" s="58"/>
+      <c r="V43" s="58"/>
+      <c r="W43" s="58"/>
+      <c r="X43" s="58"/>
+      <c r="Y43" s="58"/>
+      <c r="Z43" s="58"/>
+      <c r="AA43" s="58"/>
+      <c r="AB43" s="58"/>
+      <c r="AC43" s="58"/>
+      <c r="AD43" s="58"/>
+      <c r="AE43" s="58"/>
+    </row>
+    <row r="44" spans="2:31" ht="15.95" customHeight="1">
+      <c r="T44" s="58"/>
+      <c r="U44" s="58"/>
+      <c r="V44" s="58"/>
+      <c r="W44" s="58"/>
+      <c r="X44" s="58"/>
+      <c r="Y44" s="58"/>
+      <c r="Z44" s="58"/>
+      <c r="AA44" s="58"/>
+      <c r="AB44" s="58"/>
+      <c r="AC44" s="58"/>
+      <c r="AD44" s="58"/>
+      <c r="AE44" s="58"/>
+    </row>
+    <row r="45" spans="2:31" ht="15.95" customHeight="1">
+      <c r="T45" s="58"/>
+      <c r="U45" s="58"/>
+      <c r="V45" s="58"/>
+      <c r="W45" s="58"/>
+      <c r="X45" s="58"/>
+      <c r="Y45" s="58"/>
+      <c r="Z45" s="58"/>
+      <c r="AA45" s="58"/>
+      <c r="AB45" s="58"/>
+      <c r="AC45" s="58"/>
+      <c r="AD45" s="58"/>
+      <c r="AE45" s="58"/>
+    </row>
+    <row r="46" spans="2:31" ht="15.95" customHeight="1"/>
+    <row r="47" spans="2:31" ht="15.95" customHeight="1"/>
+    <row r="48" spans="2:31" ht="15.95" customHeight="1"/>
     <row r="49" ht="15.95" customHeight="1"/>
     <row r="50" ht="15.95" customHeight="1"/>
     <row r="51" ht="15.95" customHeight="1"/>
@@ -3860,99 +3968,103 @@
     <row r="95" ht="15.95" customHeight="1"/>
     <row r="96" ht="15.95" customHeight="1"/>
     <row r="97" ht="15.95" customHeight="1"/>
+    <row r="98" ht="15.95" customHeight="1"/>
+    <row r="99" ht="15.95" customHeight="1"/>
+    <row r="100" ht="15.95" customHeight="1"/>
+    <row r="101" ht="15.95" customHeight="1"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <mergeCells count="78">
-    <mergeCell ref="P26:Q28"/>
-    <mergeCell ref="R26:S28"/>
-    <mergeCell ref="B22:H23"/>
-    <mergeCell ref="I22:S23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="P30:Q32"/>
+    <mergeCell ref="R30:S32"/>
+    <mergeCell ref="B26:H27"/>
+    <mergeCell ref="I26:S27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="B30:C32"/>
+    <mergeCell ref="D30:E32"/>
+    <mergeCell ref="F30:G32"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B14:S14"/>
+    <mergeCell ref="B17:S17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="R21:S22"/>
+    <mergeCell ref="P21:Q22"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:M22"/>
+    <mergeCell ref="N21:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="B21:H22"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="N25:O25"/>
     <mergeCell ref="P25:Q25"/>
     <mergeCell ref="R25:S25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="B26:C28"/>
-    <mergeCell ref="D26:E28"/>
-    <mergeCell ref="F26:G28"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="B2:S2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:S3"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B10:S10"/>
-    <mergeCell ref="B13:S13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="B2:S3"/>
+    <mergeCell ref="O13:S13"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="D9:J9"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="R17:S18"/>
-    <mergeCell ref="P17:Q18"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:M18"/>
-    <mergeCell ref="N17:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="B17:H18"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="O9:S9"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="L11:S11"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:S8"/>
-    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L15:S15"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="I15:K15"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:G9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:G13">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:J6">
-      <formula1>INDIRECT($D$4)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:J10">
+      <formula1>INDIRECT($D$8)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.43307086614173229" bottom="0.59055118110236227" header="0.23622047244094491" footer="0.70866141732283472"/>
-  <pageSetup paperSize="9" scale="82" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="78" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;R&amp;10松下电器軟件开发（大連）有限公司</oddFooter>
   </headerFooter>
@@ -4492,53 +4604,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="28.5" customHeight="1">
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="183" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
     </row>
     <row r="2" spans="2:8" ht="16.7" customHeight="1">
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="143" t="s">
+      <c r="C2" s="169" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="143" t="s">
+      <c r="D2" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143" t="s">
+      <c r="E2" s="169"/>
+      <c r="F2" s="169" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="143"/>
-      <c r="H2" s="145" t="s">
+      <c r="G2" s="169"/>
+      <c r="H2" s="171" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="16.7" customHeight="1">
-      <c r="B3" s="142"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
       <c r="F3" s="36" t="s">
         <v>133</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="146"/>
+      <c r="H3" s="172"/>
     </row>
     <row r="4" spans="2:8" ht="23.25" customHeight="1">
       <c r="B4" s="39"/>
       <c r="C4" s="40"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="149"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="175"/>
       <c r="F4" s="21" t="s">
         <v>134</v>
       </c>
@@ -4548,8 +4660,8 @@
     <row r="5" spans="2:8" ht="23.25" customHeight="1">
       <c r="B5" s="43"/>
       <c r="C5" s="44"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="151"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="177"/>
       <c r="F5" s="45"/>
       <c r="G5" s="45"/>
       <c r="H5" s="46"/>
@@ -4557,8 +4669,8 @@
     <row r="6" spans="2:8" ht="23.25" customHeight="1">
       <c r="B6" s="43"/>
       <c r="C6" s="44"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="153"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="179"/>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
       <c r="H6" s="48"/>
@@ -4566,8 +4678,8 @@
     <row r="7" spans="2:8" ht="23.25" customHeight="1">
       <c r="B7" s="43"/>
       <c r="C7" s="49"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
       <c r="F7" s="45"/>
       <c r="G7" s="45"/>
       <c r="H7" s="50"/>
@@ -4575,8 +4687,8 @@
     <row r="8" spans="2:8" ht="23.25" customHeight="1">
       <c r="B8" s="43"/>
       <c r="C8" s="49"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="173"/>
       <c r="F8" s="45"/>
       <c r="G8" s="45"/>
       <c r="H8" s="50"/>
@@ -4584,8 +4696,8 @@
     <row r="9" spans="2:8" ht="23.25" customHeight="1">
       <c r="B9" s="43"/>
       <c r="C9" s="49"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="147"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="173"/>
       <c r="F9" s="45"/>
       <c r="G9" s="45"/>
       <c r="H9" s="50"/>
@@ -4593,8 +4705,8 @@
     <row r="10" spans="2:8" ht="23.25" customHeight="1">
       <c r="B10" s="43"/>
       <c r="C10" s="49"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="173"/>
       <c r="F10" s="45"/>
       <c r="G10" s="45"/>
       <c r="H10" s="50"/>
@@ -4602,8 +4714,8 @@
     <row r="11" spans="2:8" ht="23.25" customHeight="1">
       <c r="B11" s="43"/>
       <c r="C11" s="49"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="173"/>
       <c r="F11" s="45"/>
       <c r="G11" s="45"/>
       <c r="H11" s="50"/>
@@ -4611,8 +4723,8 @@
     <row r="12" spans="2:8" ht="23.25" customHeight="1">
       <c r="B12" s="43"/>
       <c r="C12" s="49"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="147"/>
+      <c r="D12" s="173"/>
+      <c r="E12" s="173"/>
       <c r="F12" s="45"/>
       <c r="G12" s="45"/>
       <c r="H12" s="50"/>
@@ -4620,8 +4732,8 @@
     <row r="13" spans="2:8" ht="23.25" customHeight="1">
       <c r="B13" s="43"/>
       <c r="C13" s="49"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
+      <c r="D13" s="173"/>
+      <c r="E13" s="173"/>
       <c r="F13" s="45"/>
       <c r="G13" s="45"/>
       <c r="H13" s="50"/>
@@ -4629,8 +4741,8 @@
     <row r="14" spans="2:8" ht="23.25" customHeight="1">
       <c r="B14" s="43"/>
       <c r="C14" s="49"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
+      <c r="D14" s="173"/>
+      <c r="E14" s="173"/>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
       <c r="H14" s="50"/>
@@ -4638,8 +4750,8 @@
     <row r="15" spans="2:8" ht="23.25" customHeight="1">
       <c r="B15" s="43"/>
       <c r="C15" s="49"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="173"/>
       <c r="F15" s="45"/>
       <c r="G15" s="45"/>
       <c r="H15" s="50"/>
@@ -4647,8 +4759,8 @@
     <row r="16" spans="2:8" ht="23.25" customHeight="1">
       <c r="B16" s="43"/>
       <c r="C16" s="49"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="173"/>
       <c r="F16" s="45"/>
       <c r="G16" s="45"/>
       <c r="H16" s="50"/>
@@ -4656,8 +4768,8 @@
     <row r="17" spans="2:8" ht="23.25" customHeight="1">
       <c r="B17" s="43"/>
       <c r="C17" s="49"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
       <c r="F17" s="45"/>
       <c r="G17" s="45"/>
       <c r="H17" s="50"/>
@@ -4665,8 +4777,8 @@
     <row r="18" spans="2:8" ht="23.25" customHeight="1">
       <c r="B18" s="43"/>
       <c r="C18" s="49"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
+      <c r="D18" s="173"/>
+      <c r="E18" s="173"/>
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="50"/>
@@ -4674,8 +4786,8 @@
     <row r="19" spans="2:8" ht="23.25" customHeight="1">
       <c r="B19" s="43"/>
       <c r="C19" s="49"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="173"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="50"/>
@@ -4683,8 +4795,8 @@
     <row r="20" spans="2:8" ht="23.25" customHeight="1">
       <c r="B20" s="43"/>
       <c r="C20" s="49"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
+      <c r="D20" s="173"/>
+      <c r="E20" s="173"/>
       <c r="F20" s="45"/>
       <c r="G20" s="45"/>
       <c r="H20" s="50"/>
@@ -4692,8 +4804,8 @@
     <row r="21" spans="2:8" ht="23.25" customHeight="1">
       <c r="B21" s="43"/>
       <c r="C21" s="49"/>
-      <c r="D21" s="147"/>
-      <c r="E21" s="147"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="173"/>
       <c r="F21" s="45"/>
       <c r="G21" s="45"/>
       <c r="H21" s="50"/>
@@ -4701,8 +4813,8 @@
     <row r="22" spans="2:8" ht="23.25" customHeight="1">
       <c r="B22" s="43"/>
       <c r="C22" s="49"/>
-      <c r="D22" s="147"/>
-      <c r="E22" s="147"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="173"/>
       <c r="F22" s="45"/>
       <c r="G22" s="45"/>
       <c r="H22" s="50"/>
@@ -4710,8 +4822,8 @@
     <row r="23" spans="2:8" ht="23.25" customHeight="1">
       <c r="B23" s="43"/>
       <c r="C23" s="49"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="147"/>
+      <c r="D23" s="173"/>
+      <c r="E23" s="173"/>
       <c r="F23" s="45"/>
       <c r="G23" s="45"/>
       <c r="H23" s="50"/>
@@ -4719,8 +4831,8 @@
     <row r="24" spans="2:8" ht="23.25" customHeight="1">
       <c r="B24" s="43"/>
       <c r="C24" s="49"/>
-      <c r="D24" s="147"/>
-      <c r="E24" s="147"/>
+      <c r="D24" s="173"/>
+      <c r="E24" s="173"/>
       <c r="F24" s="45"/>
       <c r="G24" s="45"/>
       <c r="H24" s="50"/>
@@ -4728,8 +4840,8 @@
     <row r="25" spans="2:8" ht="23.25" customHeight="1">
       <c r="B25" s="43"/>
       <c r="C25" s="49"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
+      <c r="D25" s="173"/>
+      <c r="E25" s="173"/>
       <c r="F25" s="45"/>
       <c r="G25" s="45"/>
       <c r="H25" s="50"/>
@@ -4737,8 +4849,8 @@
     <row r="26" spans="2:8" ht="23.25" customHeight="1">
       <c r="B26" s="43"/>
       <c r="C26" s="49"/>
-      <c r="D26" s="147"/>
-      <c r="E26" s="147"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="173"/>
       <c r="F26" s="45"/>
       <c r="G26" s="45"/>
       <c r="H26" s="50"/>
@@ -4746,8 +4858,8 @@
     <row r="27" spans="2:8" ht="23.25" customHeight="1">
       <c r="B27" s="43"/>
       <c r="C27" s="49"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="147"/>
+      <c r="D27" s="173"/>
+      <c r="E27" s="173"/>
       <c r="F27" s="45"/>
       <c r="G27" s="45"/>
       <c r="H27" s="50"/>
@@ -4755,8 +4867,8 @@
     <row r="28" spans="2:8" ht="23.25" customHeight="1">
       <c r="B28" s="43"/>
       <c r="C28" s="49"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="173"/>
       <c r="F28" s="45"/>
       <c r="G28" s="45"/>
       <c r="H28" s="50"/>
@@ -4764,8 +4876,8 @@
     <row r="29" spans="2:8" ht="23.25" customHeight="1">
       <c r="B29" s="43"/>
       <c r="C29" s="49"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
+      <c r="D29" s="173"/>
+      <c r="E29" s="173"/>
       <c r="F29" s="45"/>
       <c r="G29" s="45"/>
       <c r="H29" s="50"/>
@@ -4773,8 +4885,8 @@
     <row r="30" spans="2:8" ht="23.25" customHeight="1">
       <c r="B30" s="43"/>
       <c r="C30" s="49"/>
-      <c r="D30" s="147"/>
-      <c r="E30" s="147"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="173"/>
       <c r="F30" s="45"/>
       <c r="G30" s="45"/>
       <c r="H30" s="50"/>
@@ -4782,8 +4894,8 @@
     <row r="31" spans="2:8" ht="23.25" customHeight="1">
       <c r="B31" s="43"/>
       <c r="C31" s="49"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="147"/>
+      <c r="D31" s="173"/>
+      <c r="E31" s="173"/>
       <c r="F31" s="45"/>
       <c r="G31" s="45"/>
       <c r="H31" s="50"/>
@@ -4791,8 +4903,8 @@
     <row r="32" spans="2:8" ht="23.25" customHeight="1">
       <c r="B32" s="43"/>
       <c r="C32" s="49"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
+      <c r="D32" s="173"/>
+      <c r="E32" s="173"/>
       <c r="F32" s="45"/>
       <c r="G32" s="45"/>
       <c r="H32" s="50"/>
@@ -4800,8 +4912,8 @@
     <row r="33" spans="2:8" ht="23.25" customHeight="1">
       <c r="B33" s="43"/>
       <c r="C33" s="49"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="147"/>
+      <c r="D33" s="173"/>
+      <c r="E33" s="173"/>
       <c r="F33" s="45"/>
       <c r="G33" s="45"/>
       <c r="H33" s="50"/>
@@ -4809,19 +4921,19 @@
     <row r="34" spans="2:8" ht="23.25" customHeight="1">
       <c r="B34" s="51"/>
       <c r="C34" s="52"/>
-      <c r="D34" s="154"/>
-      <c r="E34" s="154"/>
+      <c r="D34" s="180"/>
+      <c r="E34" s="180"/>
       <c r="F34" s="53"/>
       <c r="G34" s="53"/>
       <c r="H34" s="54"/>
     </row>
     <row r="35" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B35" s="155" t="s">
+      <c r="B35" s="181" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="156"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="156"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="182"/>
+      <c r="E35" s="182"/>
       <c r="F35" s="13">
         <f>SUM(F4:F34)</f>
         <v>0</v>
@@ -4876,7 +4988,7 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.43307086614173229" bottom="0.98425196850393704" header="0.23622047244094491" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="92" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;R&amp;10松下电器軟件开发（大連）有限公司</oddFooter>
   </headerFooter>

--- a/controller/src/main/resources/jxls_templates/jingwaijingsuanshu.xlsx
+++ b/controller/src/main/resources/jxls_templates/jingwaijingsuanshu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" tabRatio="901"/>
+    <workbookView windowWidth="19200" windowHeight="7430" tabRatio="901"/>
   </bookViews>
   <sheets>
     <sheet name="出差精算合計" sheetId="20" r:id="rId1"/>
@@ -12,30 +12,30 @@
     <sheet name="設定" sheetId="15" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">出差精算合計!$B$2:$S$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">出差精算合計!$B$2:$S$6</definedName>
     <definedName name="LSIソリューション開発グループ">設定!$C$11:$E$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">出差精算合計!$A$1:$T$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">公务电话费!$A$1:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">出差精算合計!$A$1:$T$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">設定!$A$1:$K$81</definedName>
     <definedName name="ソフトウェア開発力強化推進室">設定!$C$9:$D$9</definedName>
-    <definedName name="部門">設定!$B$3:$B$16</definedName>
-    <definedName name="財務推進室">設定!$C$4:$D$4</definedName>
-    <definedName name="車載LSI開発グループ">設定!$C$14:$G$14</definedName>
-    <definedName name="車載商品開発グループ">設定!$C$13:$G$13</definedName>
-    <definedName name="地域区分">設定!$I$19:$I$21</definedName>
+    <definedName name="移动时间">設定!$D$19:$D$27</definedName>
+    <definedName name="開発企画推進室">設定!$C$5:$E$5</definedName>
     <definedName name="活动内容">設定!$B$19:$B$23</definedName>
     <definedName name="基盤技術応用グループ">設定!$C$7:$D$7</definedName>
     <definedName name="交通工具">設定!$C$19:$C$22</definedName>
-    <definedName name="開発企画推進室">設定!$C$5:$E$5</definedName>
-    <definedName name="设施类型">設定!$F$19:$F$22</definedName>
+    <definedName name="財務推進室">設定!$C$4:$D$4</definedName>
     <definedName name="社会システム開発グループ">設定!$C$16:$F$16</definedName>
     <definedName name="社员区分">設定!$J$19:$J$21</definedName>
-    <definedName name="移动时间">設定!$D$19:$D$27</definedName>
-    <definedName name="制御システム開発グループ">設定!$C$8:$J$8</definedName>
-    <definedName name="助成推進室">設定!$C$3:$H$3</definedName>
+    <definedName name="車載LSI開発グループ">設定!$C$14:$G$14</definedName>
+    <definedName name="車載商品開発グループ">設定!$C$13:$G$13</definedName>
     <definedName name="住空間·業務空間開発グループ">設定!$C$15:$G$15</definedName>
     <definedName name="住空間端末開発グループ">設定!$C$10:$E$10</definedName>
+    <definedName name="助成推進室">設定!$C$3:$H$3</definedName>
+    <definedName name="制御システム開発グループ">設定!$C$8:$J$8</definedName>
     <definedName name="組込基盤技術開発グループ">設定!$C$12:$E$12</definedName>
+    <definedName name="地域区分">設定!$I$19:$I$21</definedName>
+    <definedName name="部門">設定!$B$3:$B$16</definedName>
+    <definedName name="设施类型">設定!$F$19:$F$22</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -61,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0">
+    <comment ref="B19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0">
+    <comment ref="B20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="0">
+    <comment ref="B21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -109,11 +109,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="other", var="0", lastCell="S21")</t>
+          <t>jx:each(items="other", var="o", lastCell="S21")</t>
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0">
+    <comment ref="B27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -122,11 +122,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:image(src="wfList3" lastCell="C28")</t>
+          <t>jx:image(src="wfList3" lastCell="C29")</t>
         </r>
       </text>
     </comment>
-    <comment ref="D31" authorId="0">
+    <comment ref="D27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -135,11 +135,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:image(src="wfList4" lastCell="E28")</t>
+          <t>jx:image(src="wfList4" lastCell="E29")</t>
         </r>
       </text>
     </comment>
-    <comment ref="F31" authorId="1">
+    <comment ref="F27" authorId="1">
       <text>
         <r>
           <rPr>
@@ -148,11 +148,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:image(src="userim" lastCell="G28")</t>
+          <t>jx:image(src="userim" lastCell="G29")</t>
         </r>
       </text>
     </comment>
-    <comment ref="P31" authorId="0">
+    <comment ref="P27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -161,11 +161,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:image(src="wfList1" lastCell="Q28")</t>
+          <t>jx:image(src="wfList1" lastCell="Q29")</t>
         </r>
       </text>
     </comment>
-    <comment ref="R31" authorId="0">
+    <comment ref="R27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:image(src="wfList2" lastCell="S28")</t>
+          <t>jx:image(src="wfList2" lastCell="S29")</t>
         </r>
       </text>
     </comment>
@@ -739,18 +739,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
-    <numFmt numFmtId="178" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="177" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
     <numFmt numFmtId="179" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="180" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-    <numFmt numFmtId="181" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="181" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="45">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -828,11 +828,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="24"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="18"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -844,14 +839,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="SimSun"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ 明朝"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -866,38 +881,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -906,6 +899,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -925,9 +940,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -941,9 +1002,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -957,56 +1018,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="SimSun"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1061,7 +1076,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,13 +1184,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,31 +1202,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,91 +1226,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1235,7 +1244,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1919,69 +1934,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2004,8 +1956,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2020,163 +2026,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="53" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="55" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2365,32 +2380,29 @@
     <xf numFmtId="40" fontId="12" fillId="0" borderId="24" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="25" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="25" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2430,10 +2442,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2442,10 +2460,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2469,13 +2487,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="2" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="18" fillId="0" borderId="2" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="23" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="23" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="23" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="23" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2512,19 +2530,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="42" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="42" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="23" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="23" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="33" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="33" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="42" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2545,27 +2563,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="42" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="27" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="42" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="27" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="0" borderId="42" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="20" fillId="0" borderId="42" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="27" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="16" fillId="0" borderId="42" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="16" fillId="0" borderId="27" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="19" fillId="0" borderId="42" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="0" borderId="23" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="19" fillId="0" borderId="23" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="0" borderId="27" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="19" fillId="0" borderId="27" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2599,19 +2617,19 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="46" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="19" fillId="0" borderId="31" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="21" fillId="0" borderId="31" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="43" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="47" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="19" fillId="0" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="43" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="47" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="21" fillId="0" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2623,7 +2641,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="19" fillId="0" borderId="7" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="22" fillId="0" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="43" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="47" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="21" fillId="0" borderId="7" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2635,16 +2662,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="48" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="32" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="49" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="48" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="32" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="49" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="2" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2653,10 +2680,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="23" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="23" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2669,10 +2696,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="23" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="23" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="33" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="33" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2681,17 +2708,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="43" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="43" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="47" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="47" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="52" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="43" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="47" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="52" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="42" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="42" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2756,6 +2789,15 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="53" builtinId="52"/>
     <cellStyle name="標準 2 3" xfId="54"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3111,7 +3153,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE102"/>
+  <dimension ref="A1:AE98"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3119,17 +3161,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.6272727272727" style="64" customWidth="1"/>
-    <col min="2" max="19" width="5.75454545454545" style="64" customWidth="1"/>
+    <col min="1" max="19" width="5.75454545454545" style="64" customWidth="1"/>
     <col min="20" max="20" width="2.75454545454545" style="64" customWidth="1"/>
     <col min="21" max="32" width="9" style="64" customWidth="1"/>
     <col min="33" max="16384" width="9" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.1" customHeight="1" spans="1:1">
+    <row r="1" ht="19.9" customHeight="1" spans="1:1">
       <c r="A1" s="64"/>
     </row>
-    <row r="2" ht="20.1" customHeight="1" spans="2:19">
+    <row r="2" ht="19.9" customHeight="1" spans="2:19">
       <c r="B2" s="65" t="s">
         <v>0</v>
       </c>
@@ -3151,1053 +3192,977 @@
       <c r="R2" s="65"/>
       <c r="S2" s="65"/>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="2:19">
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-    </row>
-    <row r="4" ht="20.1" customHeight="1" spans="2:19">
-      <c r="B4" s="66"/>
+    <row r="3" ht="19.9" customHeight="1" spans="2:19">
+      <c r="B3" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="68"/>
+      <c r="L3" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="99"/>
+      <c r="N3" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+    </row>
+    <row r="4" ht="19.9" customHeight="1" spans="2:19">
+      <c r="B4" s="66" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-    </row>
-    <row r="5" ht="20.1" customHeight="1" spans="2:19">
-      <c r="B5" s="66"/>
+      <c r="D4" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="L4" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="99"/>
+      <c r="N4" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="162" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="163" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="163"/>
+    </row>
+    <row r="5" ht="19.9" customHeight="1" spans="2:19">
+      <c r="B5" s="66" t="s">
+        <v>13</v>
+      </c>
       <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-    </row>
-    <row r="6" ht="20.1" customHeight="1" spans="2:19">
-      <c r="B6" s="66"/>
+      <c r="D5" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="L5" s="99" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="99"/>
+      <c r="N5" s="102" t="e">
+        <f>RIGHT(R4,10)-LEFT(N4,10)+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O5" s="102"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="164" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="164"/>
+      <c r="S5" s="165"/>
+    </row>
+    <row r="6" ht="19.9" customHeight="1" spans="2:19">
+      <c r="B6" s="66" t="s">
+        <v>17</v>
+      </c>
       <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-    </row>
-    <row r="7" ht="24" customHeight="1" spans="2:19">
-      <c r="B7" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="69"/>
-      <c r="L7" s="98" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="98"/>
-      <c r="N7" s="99" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="99"/>
-      <c r="S7" s="99"/>
-    </row>
-    <row r="8" ht="24" customHeight="1" spans="2:19">
-      <c r="B8" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="L8" s="98" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" s="98"/>
-      <c r="N8" s="100" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="158" t="s">
-        <v>11</v>
-      </c>
-      <c r="R8" s="159" t="s">
-        <v>12</v>
-      </c>
-      <c r="S8" s="159"/>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="2:19">
-      <c r="B9" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="L9" s="98" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="98"/>
-      <c r="N9" s="101" t="e">
-        <f>RIGHT(R8,10)-LEFT(N8,10)+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="160" t="s">
-        <v>16</v>
-      </c>
-      <c r="R9" s="160"/>
-      <c r="S9" s="161"/>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="2:19">
-      <c r="B10" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="71" t="s">
+      <c r="D6" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="L10" s="98" t="s">
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="L6" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="98"/>
-      <c r="N10" s="102" t="s">
+      <c r="M6" s="99"/>
+      <c r="N6" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="161"/>
-      <c r="R10" s="161"/>
-      <c r="S10" s="161"/>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="2:19">
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="104"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="74"/>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="2:19">
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="105" t="s">
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="165"/>
+      <c r="R6" s="165"/>
+      <c r="S6" s="165"/>
+    </row>
+    <row r="7" ht="19.9" customHeight="1" spans="2:19">
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+    </row>
+    <row r="8" ht="19.9" customHeight="1" spans="2:19">
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="106"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="108" t="s">
+      <c r="M8" s="107"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="106"/>
-      <c r="S12" s="162"/>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="2:19">
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="109" t="s">
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="166"/>
+    </row>
+    <row r="9" ht="19.9" customHeight="1" spans="2:19">
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="110"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="110"/>
-      <c r="Q13" s="110"/>
-      <c r="R13" s="110"/>
-      <c r="S13" s="163"/>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="2:19">
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="75"/>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="2:19">
-      <c r="B15" s="76" t="s">
+      <c r="M9" s="111"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="113"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="167"/>
+    </row>
+    <row r="10" ht="19.9" customHeight="1" spans="2:19">
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+    </row>
+    <row r="11" ht="19.9" customHeight="1" spans="2:19">
+      <c r="B11" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="172" t="s">
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="114"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="116"/>
-      <c r="M15" s="116"/>
-      <c r="N15" s="116"/>
-      <c r="O15" s="116"/>
-      <c r="P15" s="116"/>
-      <c r="Q15" s="116"/>
-      <c r="R15" s="116"/>
-      <c r="S15" s="116"/>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="2:19">
-      <c r="B16" s="78" t="s">
+      <c r="J11" s="115"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="117"/>
+      <c r="Q11" s="117"/>
+      <c r="R11" s="117"/>
+      <c r="S11" s="117"/>
+    </row>
+    <row r="12" ht="19.9" customHeight="1" spans="2:19">
+      <c r="B12" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="173" t="s">
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="118"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="116"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="116"/>
-      <c r="P16" s="116"/>
-      <c r="Q16" s="116"/>
-      <c r="R16" s="116"/>
-      <c r="S16" s="116"/>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="2:19">
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="83"/>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="2:19">
-      <c r="B18" s="81" t="s">
+      <c r="J12" s="119"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="117"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="117"/>
+      <c r="P12" s="117"/>
+      <c r="Q12" s="117"/>
+      <c r="R12" s="117"/>
+      <c r="S12" s="117"/>
+    </row>
+    <row r="13" ht="19.9" customHeight="1" spans="2:19">
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+    </row>
+    <row r="14" ht="19.9" customHeight="1" spans="2:19">
+      <c r="B14" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="120" t="s">
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="121"/>
-      <c r="K18" s="122" t="s">
+      <c r="J14" s="122"/>
+      <c r="K14" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="79"/>
-      <c r="M18" s="122" t="s">
+      <c r="L14" s="78"/>
+      <c r="M14" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="80"/>
-      <c r="Q18" s="122" t="s">
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="R18" s="79"/>
-      <c r="S18" s="94"/>
-    </row>
-    <row r="19" ht="24" customHeight="1" spans="2:19">
-      <c r="B19" s="81" t="s">
+      <c r="R14" s="78"/>
+      <c r="S14" s="95"/>
+    </row>
+    <row r="15" ht="19.9" customHeight="1" spans="2:19">
+      <c r="B15" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="123" t="s">
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="124"/>
-      <c r="K19" s="125" t="s">
+      <c r="J15" s="125"/>
+      <c r="K15" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="126"/>
-      <c r="M19" s="127" t="s">
+      <c r="L15" s="127"/>
+      <c r="M15" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="128"/>
-      <c r="O19" s="128"/>
-      <c r="P19" s="129"/>
-      <c r="Q19" s="164" t="s">
+      <c r="N15" s="129"/>
+      <c r="O15" s="129"/>
+      <c r="P15" s="130"/>
+      <c r="Q15" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="R19" s="164"/>
-      <c r="S19" s="165"/>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="2:19">
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="83"/>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="83"/>
-      <c r="S20" s="83"/>
-    </row>
-    <row r="21" ht="24" customHeight="1" spans="2:19">
-      <c r="B21" s="84" t="s">
+      <c r="R15" s="168"/>
+      <c r="S15" s="169"/>
+    </row>
+    <row r="16" ht="19.9" customHeight="1" spans="2:19">
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="82"/>
+      <c r="R16" s="82"/>
+      <c r="S16" s="82"/>
+    </row>
+    <row r="17" ht="19.9" customHeight="1" spans="2:19">
+      <c r="B17" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85" t="s">
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="85"/>
-      <c r="K21" s="130" t="s">
+      <c r="J17" s="84"/>
+      <c r="K17" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="131" t="s">
+      <c r="L17" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="M21" s="132"/>
-      <c r="N21" s="133" t="s">
+      <c r="M17" s="133"/>
+      <c r="N17" s="134" t="s">
         <v>42</v>
       </c>
-      <c r="O21" s="134"/>
-      <c r="P21" s="133" t="s">
+      <c r="O17" s="135"/>
+      <c r="P17" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="Q21" s="134"/>
-      <c r="R21" s="131" t="s">
+      <c r="Q17" s="135"/>
+      <c r="R17" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="S21" s="166"/>
-    </row>
-    <row r="22" ht="24" customHeight="1" spans="2:19">
-      <c r="B22" s="81"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="135"/>
-      <c r="L22" s="136"/>
-      <c r="M22" s="137"/>
-      <c r="N22" s="138"/>
-      <c r="O22" s="139"/>
-      <c r="P22" s="138"/>
-      <c r="Q22" s="139"/>
-      <c r="R22" s="136"/>
-      <c r="S22" s="167"/>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="2:19">
-      <c r="B23" s="86" t="s">
+      <c r="S17" s="170"/>
+    </row>
+    <row r="18" ht="19.9" customHeight="1" spans="2:19">
+      <c r="B18" s="80"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="139"/>
+      <c r="O18" s="140"/>
+      <c r="P18" s="139"/>
+      <c r="Q18" s="140"/>
+      <c r="R18" s="137"/>
+      <c r="S18" s="171"/>
+    </row>
+    <row r="19" ht="19.9" customHeight="1" spans="2:19">
+      <c r="B19" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="140" t="s">
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="J23" s="140"/>
-      <c r="K23" s="141" t="s">
+      <c r="J19" s="141"/>
+      <c r="K19" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="L23" s="131" t="s">
+      <c r="L19" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="M23" s="132"/>
-      <c r="N23" s="142" t="s">
+      <c r="M19" s="133"/>
+      <c r="N19" s="143" t="s">
         <v>49</v>
       </c>
-      <c r="O23" s="143"/>
-      <c r="P23" s="142" t="s">
+      <c r="O19" s="144"/>
+      <c r="P19" s="143" t="s">
         <v>50</v>
       </c>
-      <c r="Q23" s="143"/>
-      <c r="R23" s="168" t="s">
+      <c r="Q19" s="144"/>
+      <c r="R19" s="172" t="s">
         <v>51</v>
       </c>
-      <c r="S23" s="169"/>
-    </row>
-    <row r="24" ht="24" customHeight="1" spans="2:19">
-      <c r="B24" s="88" t="s">
+      <c r="S19" s="173"/>
+    </row>
+    <row r="20" ht="19.9" customHeight="1" spans="2:19">
+      <c r="B20" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="144" t="s">
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="J24" s="144"/>
-      <c r="K24" s="145" t="s">
+      <c r="J20" s="145"/>
+      <c r="K20" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="L24" s="146" t="s">
+      <c r="L20" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="M24" s="147"/>
-      <c r="N24" s="142" t="s">
+      <c r="M20" s="148"/>
+      <c r="N20" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="O24" s="143"/>
-      <c r="P24" s="142" t="s">
+      <c r="O20" s="144"/>
+      <c r="P20" s="143" t="s">
         <v>57</v>
       </c>
-      <c r="Q24" s="143"/>
-      <c r="R24" s="168" t="s">
+      <c r="Q20" s="144"/>
+      <c r="R20" s="172" t="s">
         <v>58</v>
       </c>
-      <c r="S24" s="169"/>
-    </row>
-    <row r="25" ht="24" customHeight="1" spans="2:19">
-      <c r="B25" s="88" t="s">
+      <c r="S20" s="173"/>
+    </row>
+    <row r="21" s="64" customFormat="1" ht="24" customHeight="1" spans="2:19">
+      <c r="B21" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="144" t="s">
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="J25" s="144"/>
-      <c r="K25" s="145" t="s">
+      <c r="J21" s="149"/>
+      <c r="K21" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="L25" s="146" t="s">
+      <c r="L21" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="M25" s="147"/>
-      <c r="N25" s="142" t="s">
+      <c r="M21" s="148"/>
+      <c r="N21" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="O25" s="143"/>
-      <c r="P25" s="142" t="s">
+      <c r="O21" s="151"/>
+      <c r="P21" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="Q25" s="143"/>
-      <c r="R25" s="168" t="s">
+      <c r="Q21" s="151"/>
+      <c r="R21" s="174" t="s">
         <v>65</v>
       </c>
-      <c r="S25" s="169"/>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="2:19">
-      <c r="B26" s="90" t="s">
+      <c r="S21" s="175"/>
+    </row>
+    <row r="22" ht="19.9" customHeight="1" spans="2:19">
+      <c r="B22" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="148"/>
-      <c r="J26" s="148"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="151"/>
-      <c r="N26" s="142" t="s">
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="152"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="155"/>
+      <c r="N22" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="O26" s="143"/>
-      <c r="P26" s="142" t="s">
+      <c r="O22" s="144"/>
+      <c r="P22" s="143" t="s">
         <v>68</v>
       </c>
-      <c r="Q26" s="143"/>
-      <c r="R26" s="142" t="s">
+      <c r="Q22" s="144"/>
+      <c r="R22" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="S26" s="143"/>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="2:19">
-      <c r="B27" s="92" t="s">
+      <c r="S22" s="144"/>
+    </row>
+    <row r="23" ht="19.9" customHeight="1" spans="2:19">
+      <c r="B23" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="152" t="s">
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="156" t="s">
         <v>71</v>
       </c>
-      <c r="J27" s="153"/>
-      <c r="K27" s="153"/>
-      <c r="L27" s="153"/>
-      <c r="M27" s="153"/>
-      <c r="N27" s="153"/>
-      <c r="O27" s="153"/>
-      <c r="P27" s="153"/>
-      <c r="Q27" s="153"/>
-      <c r="R27" s="153"/>
-      <c r="S27" s="143"/>
-    </row>
-    <row r="28" ht="24" customHeight="1" spans="2:19">
-      <c r="B28" s="92"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="155"/>
-      <c r="L28" s="155"/>
-      <c r="M28" s="155"/>
-      <c r="N28" s="155"/>
-      <c r="O28" s="155"/>
-      <c r="P28" s="155"/>
-      <c r="Q28" s="155"/>
-      <c r="R28" s="155"/>
-      <c r="S28" s="170"/>
-    </row>
-    <row r="29" ht="19.9" customHeight="1" spans="2:19">
+      <c r="J23" s="157"/>
+      <c r="K23" s="157"/>
+      <c r="L23" s="157"/>
+      <c r="M23" s="157"/>
+      <c r="N23" s="157"/>
+      <c r="O23" s="157"/>
+      <c r="P23" s="157"/>
+      <c r="Q23" s="157"/>
+      <c r="R23" s="157"/>
+      <c r="S23" s="144"/>
+    </row>
+    <row r="24" ht="19.9" customHeight="1" spans="2:19">
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="158"/>
+      <c r="J24" s="159"/>
+      <c r="K24" s="159"/>
+      <c r="L24" s="159"/>
+      <c r="M24" s="159"/>
+      <c r="N24" s="159"/>
+      <c r="O24" s="159"/>
+      <c r="P24" s="159"/>
+      <c r="Q24" s="159"/>
+      <c r="R24" s="159"/>
+      <c r="S24" s="176"/>
+    </row>
+    <row r="25" ht="19.9" customHeight="1" spans="2:19">
+      <c r="B25" s="94"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="96"/>
+      <c r="R25" s="96"/>
+      <c r="S25" s="96"/>
+    </row>
+    <row r="26" ht="19.9" customHeight="1" spans="2:19">
+      <c r="B26" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="95"/>
+      <c r="D26" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="78"/>
+      <c r="F26" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="93"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="160" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q26" s="133"/>
+      <c r="R26" s="132" t="s">
+        <v>77</v>
+      </c>
+      <c r="S26" s="170"/>
+    </row>
+    <row r="27" ht="19.9" customHeight="1" spans="2:19">
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="161"/>
+      <c r="J27" s="96"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="96"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="93"/>
+      <c r="R27" s="93"/>
+      <c r="S27" s="93"/>
+    </row>
+    <row r="28" ht="19.9" customHeight="1" spans="2:31">
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="P28" s="93"/>
+      <c r="Q28" s="93"/>
+      <c r="R28" s="93"/>
+      <c r="S28" s="93"/>
+      <c r="T28" s="104"/>
+      <c r="U28" s="104"/>
+      <c r="V28" s="104"/>
+      <c r="W28" s="104"/>
+      <c r="X28" s="104"/>
+      <c r="Y28" s="104"/>
+      <c r="Z28" s="104"/>
+      <c r="AA28" s="104"/>
+      <c r="AB28" s="104"/>
+      <c r="AC28" s="104"/>
+      <c r="AD28" s="104"/>
+      <c r="AE28" s="104"/>
+    </row>
+    <row r="29" ht="19.9" customHeight="1" spans="2:31">
       <c r="B29" s="93"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95" t="s">
-        <v>72</v>
-      </c>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-    </row>
-    <row r="30" ht="19.9" customHeight="1" spans="2:19">
-      <c r="B30" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="94"/>
-      <c r="D30" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="79"/>
-      <c r="F30" s="92" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" s="92"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="75"/>
-      <c r="P30" s="156" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q30" s="132"/>
-      <c r="R30" s="131" t="s">
-        <v>77</v>
-      </c>
-      <c r="S30" s="166"/>
-    </row>
-    <row r="31" ht="19.9" customHeight="1" spans="2:19">
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="75"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="75"/>
-      <c r="P31" s="92"/>
-      <c r="Q31" s="92"/>
-      <c r="R31" s="92"/>
-      <c r="S31" s="92"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="93"/>
+      <c r="R29" s="93"/>
+      <c r="S29" s="93"/>
+      <c r="T29" s="104"/>
+      <c r="U29" s="104"/>
+      <c r="V29" s="104"/>
+      <c r="W29" s="104"/>
+      <c r="X29" s="104"/>
+      <c r="Y29" s="104"/>
+      <c r="Z29" s="104"/>
+      <c r="AA29" s="104"/>
+      <c r="AB29" s="104"/>
+      <c r="AC29" s="104"/>
+      <c r="AD29" s="104"/>
+      <c r="AE29" s="104"/>
+    </row>
+    <row r="30" ht="19.9" customHeight="1" spans="2:31">
+      <c r="B30" s="98" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="98"/>
+      <c r="O30" s="98"/>
+      <c r="P30" s="98"/>
+      <c r="Q30" s="98"/>
+      <c r="R30" s="98"/>
+      <c r="T30" s="104"/>
+      <c r="U30" s="104"/>
+      <c r="V30" s="104"/>
+      <c r="W30" s="104"/>
+      <c r="X30" s="104"/>
+      <c r="Y30" s="104"/>
+      <c r="Z30" s="104"/>
+      <c r="AA30" s="104"/>
+      <c r="AB30" s="104"/>
+      <c r="AC30" s="104"/>
+      <c r="AD30" s="104"/>
+      <c r="AE30" s="104"/>
+    </row>
+    <row r="31" ht="19.9" customHeight="1" spans="2:31">
+      <c r="B31" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="98"/>
+      <c r="M31" s="98"/>
+      <c r="N31" s="98"/>
+      <c r="O31" s="98"/>
+      <c r="P31" s="98"/>
+      <c r="Q31" s="98"/>
+      <c r="R31" s="98"/>
+      <c r="T31" s="104"/>
+      <c r="U31" s="104"/>
+      <c r="V31" s="104"/>
+      <c r="W31" s="104"/>
+      <c r="X31" s="104"/>
+      <c r="Y31" s="104"/>
+      <c r="Z31" s="104"/>
+      <c r="AA31" s="104"/>
+      <c r="AB31" s="104"/>
+      <c r="AC31" s="104"/>
+      <c r="AD31" s="104"/>
+      <c r="AE31" s="104"/>
     </row>
     <row r="32" ht="19.9" customHeight="1" spans="2:31">
-      <c r="B32" s="92"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="P32" s="92"/>
-      <c r="Q32" s="92"/>
-      <c r="R32" s="92"/>
-      <c r="S32" s="92"/>
-      <c r="T32" s="103"/>
-      <c r="U32" s="103"/>
-      <c r="V32" s="103"/>
-      <c r="W32" s="103"/>
-      <c r="X32" s="103"/>
-      <c r="Y32" s="103"/>
-      <c r="Z32" s="103"/>
-      <c r="AA32" s="103"/>
-      <c r="AB32" s="103"/>
-      <c r="AC32" s="103"/>
-      <c r="AD32" s="103"/>
-      <c r="AE32" s="103"/>
+      <c r="B32" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="98"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="98"/>
+      <c r="M32" s="98"/>
+      <c r="N32" s="98"/>
+      <c r="O32" s="98"/>
+      <c r="P32" s="98"/>
+      <c r="Q32" s="98"/>
+      <c r="R32" s="98"/>
+      <c r="T32" s="104"/>
+      <c r="U32" s="104"/>
+      <c r="V32" s="104"/>
+      <c r="W32" s="104"/>
+      <c r="X32" s="104"/>
+      <c r="Y32" s="104"/>
+      <c r="Z32" s="104"/>
+      <c r="AA32" s="104"/>
+      <c r="AB32" s="104"/>
+      <c r="AC32" s="104"/>
+      <c r="AD32" s="104"/>
+      <c r="AE32" s="104"/>
     </row>
     <row r="33" ht="19.9" customHeight="1" spans="2:31">
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="P33" s="92"/>
-      <c r="Q33" s="92"/>
-      <c r="R33" s="92"/>
-      <c r="S33" s="92"/>
-      <c r="T33" s="103"/>
-      <c r="U33" s="103"/>
-      <c r="V33" s="103"/>
-      <c r="W33" s="103"/>
-      <c r="X33" s="103"/>
-      <c r="Y33" s="103"/>
-      <c r="Z33" s="103"/>
-      <c r="AA33" s="103"/>
-      <c r="AB33" s="103"/>
-      <c r="AC33" s="103"/>
-      <c r="AD33" s="103"/>
-      <c r="AE33" s="103"/>
-    </row>
-    <row r="34" ht="19.9" customHeight="1" spans="2:31">
-      <c r="B34" s="97" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="97"/>
-      <c r="H34" s="97"/>
-      <c r="I34" s="97"/>
-      <c r="J34" s="97"/>
-      <c r="K34" s="97"/>
-      <c r="L34" s="97"/>
-      <c r="M34" s="97"/>
-      <c r="N34" s="97"/>
-      <c r="O34" s="97"/>
-      <c r="P34" s="97"/>
-      <c r="Q34" s="97"/>
-      <c r="R34" s="97"/>
-      <c r="T34" s="103"/>
-      <c r="U34" s="103"/>
-      <c r="V34" s="103"/>
-      <c r="W34" s="103"/>
-      <c r="X34" s="103"/>
-      <c r="Y34" s="103"/>
-      <c r="Z34" s="103"/>
-      <c r="AA34" s="103"/>
-      <c r="AB34" s="103"/>
-      <c r="AC34" s="103"/>
-      <c r="AD34" s="103"/>
-      <c r="AE34" s="103"/>
-    </row>
-    <row r="35" ht="19.9" customHeight="1" spans="2:31">
-      <c r="B35" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
-      <c r="I35" s="97"/>
-      <c r="J35" s="97"/>
-      <c r="K35" s="97"/>
-      <c r="L35" s="97"/>
-      <c r="M35" s="97"/>
-      <c r="N35" s="97"/>
-      <c r="O35" s="97"/>
-      <c r="P35" s="97"/>
-      <c r="Q35" s="97"/>
-      <c r="R35" s="97"/>
-      <c r="T35" s="103"/>
-      <c r="U35" s="103"/>
-      <c r="V35" s="103"/>
-      <c r="W35" s="103"/>
-      <c r="X35" s="103"/>
-      <c r="Y35" s="103"/>
-      <c r="Z35" s="103"/>
-      <c r="AA35" s="103"/>
-      <c r="AB35" s="103"/>
-      <c r="AC35" s="103"/>
-      <c r="AD35" s="103"/>
-      <c r="AE35" s="103"/>
-    </row>
-    <row r="36" ht="19.9" customHeight="1" spans="2:31">
-      <c r="B36" s="97" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="97"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="97"/>
-      <c r="K36" s="97"/>
-      <c r="L36" s="97"/>
-      <c r="M36" s="97"/>
-      <c r="N36" s="97"/>
-      <c r="O36" s="97"/>
-      <c r="P36" s="97"/>
-      <c r="Q36" s="97"/>
-      <c r="R36" s="97"/>
-      <c r="T36" s="103"/>
-      <c r="U36" s="103"/>
-      <c r="V36" s="103"/>
-      <c r="W36" s="103"/>
-      <c r="X36" s="103"/>
-      <c r="Y36" s="103"/>
-      <c r="Z36" s="103"/>
-      <c r="AA36" s="103"/>
-      <c r="AB36" s="103"/>
-      <c r="AC36" s="103"/>
-      <c r="AD36" s="103"/>
-      <c r="AE36" s="103"/>
-    </row>
-    <row r="37" ht="19.9" customHeight="1" spans="2:31">
-      <c r="B37" s="64" t="s">
+      <c r="B33" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="K37" s="97"/>
-      <c r="L37" s="97"/>
-      <c r="M37" s="97"/>
-      <c r="N37" s="97"/>
-      <c r="O37" s="97"/>
-      <c r="P37" s="97"/>
-      <c r="Q37" s="97"/>
-      <c r="R37" s="97"/>
-      <c r="T37" s="171"/>
-      <c r="U37" s="103"/>
-      <c r="V37" s="103"/>
-      <c r="W37" s="103"/>
-      <c r="X37" s="103"/>
-      <c r="Y37" s="103"/>
-      <c r="Z37" s="103"/>
-      <c r="AA37" s="103"/>
-      <c r="AB37" s="103"/>
-      <c r="AC37" s="103"/>
-      <c r="AD37" s="103"/>
-      <c r="AE37" s="103"/>
-    </row>
-    <row r="38" ht="15.95" customHeight="1" spans="12:31">
-      <c r="L38" s="97"/>
-      <c r="M38" s="97"/>
-      <c r="N38" s="97"/>
-      <c r="O38" s="97"/>
-      <c r="P38" s="97"/>
-      <c r="Q38" s="97"/>
-      <c r="R38" s="97"/>
-      <c r="S38" s="97"/>
-      <c r="T38" s="171"/>
-      <c r="U38" s="103"/>
-      <c r="V38" s="103"/>
-      <c r="W38" s="103"/>
-      <c r="X38" s="103"/>
-      <c r="Y38" s="103"/>
-      <c r="Z38" s="103"/>
-      <c r="AA38" s="103"/>
-      <c r="AB38" s="103"/>
-      <c r="AC38" s="103"/>
-      <c r="AD38" s="103"/>
-      <c r="AE38" s="103"/>
-    </row>
-    <row r="39" ht="15.95" customHeight="1" spans="12:31">
-      <c r="L39" s="97"/>
-      <c r="M39" s="97"/>
-      <c r="N39" s="97"/>
-      <c r="O39" s="97"/>
-      <c r="P39" s="97"/>
-      <c r="Q39" s="97"/>
-      <c r="R39" s="97"/>
-      <c r="S39" s="97"/>
-      <c r="T39" s="171"/>
-      <c r="U39" s="103"/>
-      <c r="V39" s="103"/>
-      <c r="W39" s="103"/>
-      <c r="X39" s="103"/>
-      <c r="Y39" s="103"/>
-      <c r="Z39" s="103"/>
-      <c r="AA39" s="103"/>
-      <c r="AB39" s="103"/>
-      <c r="AC39" s="103"/>
-      <c r="AD39" s="103"/>
-      <c r="AE39" s="103"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="98"/>
+      <c r="M33" s="98"/>
+      <c r="N33" s="98"/>
+      <c r="O33" s="98"/>
+      <c r="P33" s="98"/>
+      <c r="Q33" s="98"/>
+      <c r="R33" s="98"/>
+      <c r="T33" s="177"/>
+      <c r="U33" s="104"/>
+      <c r="V33" s="104"/>
+      <c r="W33" s="104"/>
+      <c r="X33" s="104"/>
+      <c r="Y33" s="104"/>
+      <c r="Z33" s="104"/>
+      <c r="AA33" s="104"/>
+      <c r="AB33" s="104"/>
+      <c r="AC33" s="104"/>
+      <c r="AD33" s="104"/>
+      <c r="AE33" s="104"/>
+    </row>
+    <row r="34" ht="15.95" customHeight="1" spans="12:31">
+      <c r="L34" s="98"/>
+      <c r="M34" s="98"/>
+      <c r="N34" s="98"/>
+      <c r="O34" s="98"/>
+      <c r="P34" s="98"/>
+      <c r="Q34" s="98"/>
+      <c r="R34" s="98"/>
+      <c r="S34" s="98"/>
+      <c r="T34" s="177"/>
+      <c r="U34" s="104"/>
+      <c r="V34" s="104"/>
+      <c r="W34" s="104"/>
+      <c r="X34" s="104"/>
+      <c r="Y34" s="104"/>
+      <c r="Z34" s="104"/>
+      <c r="AA34" s="104"/>
+      <c r="AB34" s="104"/>
+      <c r="AC34" s="104"/>
+      <c r="AD34" s="104"/>
+      <c r="AE34" s="104"/>
+    </row>
+    <row r="35" ht="15.95" customHeight="1" spans="12:31">
+      <c r="L35" s="98"/>
+      <c r="M35" s="98"/>
+      <c r="N35" s="98"/>
+      <c r="O35" s="98"/>
+      <c r="P35" s="98"/>
+      <c r="Q35" s="98"/>
+      <c r="R35" s="98"/>
+      <c r="S35" s="98"/>
+      <c r="T35" s="177"/>
+      <c r="U35" s="104"/>
+      <c r="V35" s="104"/>
+      <c r="W35" s="104"/>
+      <c r="X35" s="104"/>
+      <c r="Y35" s="104"/>
+      <c r="Z35" s="104"/>
+      <c r="AA35" s="104"/>
+      <c r="AB35" s="104"/>
+      <c r="AC35" s="104"/>
+      <c r="AD35" s="104"/>
+      <c r="AE35" s="104"/>
+    </row>
+    <row r="36" ht="15.95" customHeight="1" spans="20:31">
+      <c r="T36" s="104"/>
+      <c r="U36" s="104"/>
+      <c r="V36" s="104"/>
+      <c r="W36" s="104"/>
+      <c r="X36" s="104"/>
+      <c r="Y36" s="104"/>
+      <c r="Z36" s="104"/>
+      <c r="AA36" s="104"/>
+      <c r="AB36" s="104"/>
+      <c r="AC36" s="104"/>
+      <c r="AD36" s="104"/>
+      <c r="AE36" s="104"/>
+    </row>
+    <row r="37" ht="15.95" customHeight="1" spans="20:31">
+      <c r="T37" s="104"/>
+      <c r="U37" s="104"/>
+      <c r="V37" s="104"/>
+      <c r="W37" s="104"/>
+      <c r="X37" s="104"/>
+      <c r="Y37" s="104"/>
+      <c r="Z37" s="104"/>
+      <c r="AA37" s="104"/>
+      <c r="AB37" s="104"/>
+      <c r="AC37" s="104"/>
+      <c r="AD37" s="104"/>
+      <c r="AE37" s="104"/>
+    </row>
+    <row r="38" ht="15.95" customHeight="1" spans="20:31">
+      <c r="T38" s="104"/>
+      <c r="U38" s="104"/>
+      <c r="V38" s="104"/>
+      <c r="W38" s="104"/>
+      <c r="X38" s="104"/>
+      <c r="Y38" s="104"/>
+      <c r="Z38" s="104"/>
+      <c r="AA38" s="104"/>
+      <c r="AB38" s="104"/>
+      <c r="AC38" s="104"/>
+      <c r="AD38" s="104"/>
+      <c r="AE38" s="104"/>
+    </row>
+    <row r="39" ht="15.95" customHeight="1" spans="20:31">
+      <c r="T39" s="177"/>
+      <c r="U39" s="177"/>
+      <c r="V39" s="177"/>
+      <c r="W39" s="177"/>
+      <c r="X39" s="177"/>
+      <c r="Y39" s="177"/>
+      <c r="Z39" s="177"/>
+      <c r="AA39" s="177"/>
+      <c r="AB39" s="177"/>
+      <c r="AC39" s="177"/>
+      <c r="AD39" s="177"/>
+      <c r="AE39" s="177"/>
     </row>
     <row r="40" ht="15.95" customHeight="1" spans="20:31">
-      <c r="T40" s="103"/>
-      <c r="U40" s="103"/>
-      <c r="V40" s="103"/>
-      <c r="W40" s="103"/>
-      <c r="X40" s="103"/>
-      <c r="Y40" s="103"/>
-      <c r="Z40" s="103"/>
-      <c r="AA40" s="103"/>
-      <c r="AB40" s="103"/>
-      <c r="AC40" s="103"/>
-      <c r="AD40" s="103"/>
-      <c r="AE40" s="103"/>
+      <c r="T40" s="104"/>
+      <c r="U40" s="104"/>
+      <c r="V40" s="104"/>
+      <c r="W40" s="104"/>
+      <c r="X40" s="104"/>
+      <c r="Y40" s="104"/>
+      <c r="Z40" s="104"/>
+      <c r="AA40" s="104"/>
+      <c r="AB40" s="104"/>
+      <c r="AC40" s="104"/>
+      <c r="AD40" s="104"/>
+      <c r="AE40" s="104"/>
     </row>
     <row r="41" ht="15.95" customHeight="1" spans="20:31">
-      <c r="T41" s="103"/>
-      <c r="U41" s="103"/>
-      <c r="V41" s="103"/>
-      <c r="W41" s="103"/>
-      <c r="X41" s="103"/>
-      <c r="Y41" s="103"/>
-      <c r="Z41" s="103"/>
-      <c r="AA41" s="103"/>
-      <c r="AB41" s="103"/>
-      <c r="AC41" s="103"/>
-      <c r="AD41" s="103"/>
-      <c r="AE41" s="103"/>
+      <c r="T41" s="104"/>
+      <c r="U41" s="104"/>
+      <c r="V41" s="104"/>
+      <c r="W41" s="104"/>
+      <c r="X41" s="104"/>
+      <c r="Y41" s="104"/>
+      <c r="Z41" s="104"/>
+      <c r="AA41" s="104"/>
+      <c r="AB41" s="104"/>
+      <c r="AC41" s="104"/>
+      <c r="AD41" s="104"/>
+      <c r="AE41" s="104"/>
     </row>
     <row r="42" ht="15.95" customHeight="1" spans="20:31">
-      <c r="T42" s="103"/>
-      <c r="U42" s="103"/>
-      <c r="V42" s="103"/>
-      <c r="W42" s="103"/>
-      <c r="X42" s="103"/>
-      <c r="Y42" s="103"/>
-      <c r="Z42" s="103"/>
-      <c r="AA42" s="103"/>
-      <c r="AB42" s="103"/>
-      <c r="AC42" s="103"/>
-      <c r="AD42" s="103"/>
-      <c r="AE42" s="103"/>
-    </row>
-    <row r="43" ht="15.95" customHeight="1" spans="20:31">
-      <c r="T43" s="171"/>
-      <c r="U43" s="171"/>
-      <c r="V43" s="171"/>
-      <c r="W43" s="171"/>
-      <c r="X43" s="171"/>
-      <c r="Y43" s="171"/>
-      <c r="Z43" s="171"/>
-      <c r="AA43" s="171"/>
-      <c r="AB43" s="171"/>
-      <c r="AC43" s="171"/>
-      <c r="AD43" s="171"/>
-      <c r="AE43" s="171"/>
-    </row>
-    <row r="44" ht="15.95" customHeight="1" spans="20:31">
-      <c r="T44" s="103"/>
-      <c r="U44" s="103"/>
-      <c r="V44" s="103"/>
-      <c r="W44" s="103"/>
-      <c r="X44" s="103"/>
-      <c r="Y44" s="103"/>
-      <c r="Z44" s="103"/>
-      <c r="AA44" s="103"/>
-      <c r="AB44" s="103"/>
-      <c r="AC44" s="103"/>
-      <c r="AD44" s="103"/>
-      <c r="AE44" s="103"/>
-    </row>
-    <row r="45" ht="15.95" customHeight="1" spans="20:31">
-      <c r="T45" s="103"/>
-      <c r="U45" s="103"/>
-      <c r="V45" s="103"/>
-      <c r="W45" s="103"/>
-      <c r="X45" s="103"/>
-      <c r="Y45" s="103"/>
-      <c r="Z45" s="103"/>
-      <c r="AA45" s="103"/>
-      <c r="AB45" s="103"/>
-      <c r="AC45" s="103"/>
-      <c r="AD45" s="103"/>
-      <c r="AE45" s="103"/>
-    </row>
-    <row r="46" ht="15.95" customHeight="1" spans="20:31">
-      <c r="T46" s="103"/>
-      <c r="U46" s="103"/>
-      <c r="V46" s="103"/>
-      <c r="W46" s="103"/>
-      <c r="X46" s="103"/>
-      <c r="Y46" s="103"/>
-      <c r="Z46" s="103"/>
-      <c r="AA46" s="103"/>
-      <c r="AB46" s="103"/>
-      <c r="AC46" s="103"/>
-      <c r="AD46" s="103"/>
-      <c r="AE46" s="103"/>
-    </row>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
+      <c r="V42" s="104"/>
+      <c r="W42" s="104"/>
+      <c r="X42" s="104"/>
+      <c r="Y42" s="104"/>
+      <c r="Z42" s="104"/>
+      <c r="AA42" s="104"/>
+      <c r="AB42" s="104"/>
+      <c r="AC42" s="104"/>
+      <c r="AD42" s="104"/>
+      <c r="AE42" s="104"/>
+    </row>
+    <row r="43" ht="15.95" customHeight="1"/>
+    <row r="44" ht="15.95" customHeight="1"/>
+    <row r="45" ht="15.95" customHeight="1"/>
+    <row r="46" ht="15.95" customHeight="1"/>
     <row r="47" ht="15.95" customHeight="1"/>
     <row r="48" ht="15.95" customHeight="1"/>
     <row r="49" ht="15.95" customHeight="1"/>
@@ -4250,108 +4215,109 @@
     <row r="96" ht="15.95" customHeight="1"/>
     <row r="97" ht="15.95" customHeight="1"/>
     <row r="98" ht="15.95" customHeight="1"/>
-    <row r="99" ht="15.95" customHeight="1"/>
-    <row r="100" ht="15.95" customHeight="1"/>
-    <row r="101" ht="15.95" customHeight="1"/>
-    <row r="102" ht="15.95" customHeight="1"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <mergeCells count="84">
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:S7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O13:S13"/>
-    <mergeCell ref="B14:S14"/>
+    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:S8"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:S9"/>
+    <mergeCell ref="B10:S10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:S11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="B13:S13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="Q14:S14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:S15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="B17:S17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="Q15:S15"/>
     <mergeCell ref="B19:H19"/>
     <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="M26:N26"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="R26:S26"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="L21:M22"/>
-    <mergeCell ref="N21:O22"/>
-    <mergeCell ref="P21:Q22"/>
-    <mergeCell ref="R21:S22"/>
-    <mergeCell ref="B21:H22"/>
-    <mergeCell ref="B2:S3"/>
-    <mergeCell ref="B31:C33"/>
-    <mergeCell ref="D31:E33"/>
-    <mergeCell ref="F31:G33"/>
-    <mergeCell ref="P31:Q33"/>
-    <mergeCell ref="R31:S33"/>
-    <mergeCell ref="B27:H28"/>
-    <mergeCell ref="I27:S28"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="L17:M18"/>
+    <mergeCell ref="N17:O18"/>
+    <mergeCell ref="P17:Q18"/>
+    <mergeCell ref="R17:S18"/>
+    <mergeCell ref="B17:H18"/>
+    <mergeCell ref="B27:C29"/>
+    <mergeCell ref="D27:E29"/>
+    <mergeCell ref="F27:G29"/>
+    <mergeCell ref="P27:Q29"/>
+    <mergeCell ref="R27:S29"/>
+    <mergeCell ref="B23:H24"/>
+    <mergeCell ref="I23:S24"/>
   </mergeCells>
+  <conditionalFormatting sqref="$A21:$XFD21">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:J10">
-      <formula1>INDIRECT($D$8)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:J6">
+      <formula1>INDIRECT($D$4)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:G13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:G9">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.590551181102362" right="0.590551181102362" top="0.433070866141732" bottom="0.590551181102362" header="0.236220472440945" footer="0.708661417322835"/>
-  <pageSetup paperSize="9" scale="79" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="82" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;R&amp;10松下电器軟件开发（大連）有限公司</oddFooter>
   </headerFooter>
@@ -5275,7 +5241,7 @@
     <mergeCell ref="D2:E3"/>
   </mergeCells>
   <pageMargins left="0.590551181102362" right="0.590551181102362" top="0.433070866141732" bottom="0.984251968503937" header="0.236220472440945" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="90" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="92" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;R&amp;10松下电器軟件开发（大連）有限公司</oddFooter>
   </headerFooter>

--- a/controller/src/main/resources/jxls_templates/jingwaijingsuanshu.xlsx
+++ b/controller/src/main/resources/jxls_templates/jingwaijingsuanshu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7430" tabRatio="901"/>
+    <workbookView windowWidth="19200" windowHeight="7140" tabRatio="901"/>
   </bookViews>
   <sheets>
     <sheet name="出差精算合計" sheetId="20" r:id="rId1"/>
@@ -383,13 +383,13 @@
     <t>${o.accountcode}</t>
   </si>
   <si>
-    <t>${0.subjectnumber}</t>
+    <t>${o.subjectnumber}</t>
   </si>
   <si>
     <t>${o.currency}</t>
   </si>
   <si>
-    <t>${o.travel}</t>
+    <t>${o.foreigncurrency}</t>
   </si>
   <si>
     <t>${o.rmb}</t>
@@ -739,18 +739,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="177" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
-    <numFmt numFmtId="179" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="181" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="179" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="181" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -839,27 +839,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="MS PGothic"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
@@ -870,8 +855,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ 明朝"/>
-      <charset val="128"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -881,24 +875,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -919,29 +897,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -955,12 +929,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -971,9 +958,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -992,36 +1002,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1076,13 +1056,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,7 +1158,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,37 +1212,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,55 +1224,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,55 +1236,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1934,60 +1914,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2018,11 +1944,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2035,50 +1985,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="55" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="60" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2087,111 +2067,111 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="59" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2380,7 +2360,7 @@
     <xf numFmtId="40" fontId="12" fillId="0" borderId="24" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="25" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="25" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyProtection="1"/>
@@ -2394,10 +2374,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2442,16 +2422,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2460,10 +2434,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2478,7 +2452,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -2487,13 +2461,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="2" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="15" fillId="0" borderId="2" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="23" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="15" fillId="0" borderId="23" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="23" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="23" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2530,19 +2504,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="42" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="42" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="23" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="23" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="33" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="33" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="17" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="42" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2563,27 +2537,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="20" fillId="0" borderId="42" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="27" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="16" fillId="0" borderId="42" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="16" fillId="0" borderId="27" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="19" fillId="0" borderId="42" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="42" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="27" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="42" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="27" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="17" fillId="0" borderId="42" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="19" fillId="0" borderId="23" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="17" fillId="0" borderId="23" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="19" fillId="0" borderId="27" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="17" fillId="0" borderId="27" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2617,19 +2591,19 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="46" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="21" fillId="0" borderId="31" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="31" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="43" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="47" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="21" fillId="0" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="43" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="47" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2641,16 +2615,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="22" fillId="0" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="43" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="47" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="21" fillId="0" borderId="7" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="7" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2662,28 +2627,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="48" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="32" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="49" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="2" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="48" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="32" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="49" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="23" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="15" fillId="0" borderId="23" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2696,10 +2661,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="23" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="23" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="33" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="33" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2708,23 +2673,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="43" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="43" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="47" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="47" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="43" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="47" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="52" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="52" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="42" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="42" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3210,18 +3169,18 @@
         <v>4</v>
       </c>
       <c r="J3" s="68"/>
-      <c r="L3" s="99" t="s">
+      <c r="L3" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="99"/>
-      <c r="N3" s="100" t="s">
+      <c r="M3" s="97"/>
+      <c r="N3" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="98"/>
     </row>
     <row r="4" ht="19.9" customHeight="1" spans="2:19">
       <c r="B4" s="66" t="s">
@@ -3237,22 +3196,22 @@
       <c r="H4" s="67"/>
       <c r="I4" s="67"/>
       <c r="J4" s="67"/>
-      <c r="L4" s="99" t="s">
+      <c r="L4" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="99"/>
-      <c r="N4" s="101" t="s">
+      <c r="M4" s="97"/>
+      <c r="N4" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="162" t="s">
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="163" t="s">
+      <c r="R4" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="163"/>
+      <c r="S4" s="158"/>
     </row>
     <row r="5" ht="19.9" customHeight="1" spans="2:19">
       <c r="B5" s="66" t="s">
@@ -3268,21 +3227,21 @@
       <c r="H5" s="67"/>
       <c r="I5" s="67"/>
       <c r="J5" s="67"/>
-      <c r="L5" s="99" t="s">
+      <c r="L5" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="99"/>
-      <c r="N5" s="102" t="e">
+      <c r="M5" s="97"/>
+      <c r="N5" s="100" t="e">
         <f>RIGHT(R4,10)-LEFT(N4,10)+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O5" s="102"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="164" t="s">
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="164"/>
-      <c r="S5" s="165"/>
+      <c r="R5" s="159"/>
+      <c r="S5" s="160"/>
     </row>
     <row r="6" ht="19.9" customHeight="1" spans="2:19">
       <c r="B6" s="66" t="s">
@@ -3298,18 +3257,18 @@
       <c r="H6" s="71"/>
       <c r="I6" s="71"/>
       <c r="J6" s="71"/>
-      <c r="L6" s="99" t="s">
+      <c r="L6" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="99"/>
-      <c r="N6" s="103" t="s">
+      <c r="M6" s="97"/>
+      <c r="N6" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="165"/>
-      <c r="R6" s="165"/>
-      <c r="S6" s="165"/>
+      <c r="O6" s="101"/>
+      <c r="P6" s="101"/>
+      <c r="Q6" s="160"/>
+      <c r="R6" s="160"/>
+      <c r="S6" s="160"/>
     </row>
     <row r="7" ht="19.9" customHeight="1" spans="2:19">
       <c r="B7" s="72"/>
@@ -3321,9 +3280,9 @@
       <c r="H7" s="73"/>
       <c r="I7" s="73"/>
       <c r="J7" s="73"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="73"/>
       <c r="O7" s="73"/>
       <c r="P7" s="73"/>
@@ -3341,19 +3300,19 @@
       <c r="H8" s="73"/>
       <c r="I8" s="73"/>
       <c r="J8" s="73"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="106" t="s">
+      <c r="K8" s="102"/>
+      <c r="L8" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="107"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="109" t="s">
+      <c r="M8" s="105"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="107"/>
-      <c r="S8" s="166"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="161"/>
     </row>
     <row r="9" ht="19.9" customHeight="1" spans="2:19">
       <c r="B9" s="72"/>
@@ -3365,17 +3324,17 @@
       <c r="H9" s="73"/>
       <c r="I9" s="73"/>
       <c r="J9" s="73"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="110" t="s">
+      <c r="K9" s="102"/>
+      <c r="L9" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="111"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="111"/>
-      <c r="S9" s="167"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="162"/>
     </row>
     <row r="10" ht="19.9" customHeight="1" spans="2:19">
       <c r="B10" s="74"/>
@@ -3407,19 +3366,19 @@
       <c r="F11" s="76"/>
       <c r="G11" s="76"/>
       <c r="H11" s="76"/>
-      <c r="I11" s="178" t="s">
+      <c r="I11" s="171" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="115"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="117"/>
-      <c r="N11" s="117"/>
-      <c r="O11" s="117"/>
-      <c r="P11" s="117"/>
-      <c r="Q11" s="117"/>
-      <c r="R11" s="117"/>
-      <c r="S11" s="117"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="115"/>
+      <c r="N11" s="115"/>
+      <c r="O11" s="115"/>
+      <c r="P11" s="115"/>
+      <c r="Q11" s="115"/>
+      <c r="R11" s="115"/>
+      <c r="S11" s="115"/>
     </row>
     <row r="12" ht="19.9" customHeight="1" spans="2:19">
       <c r="B12" s="77" t="s">
@@ -3431,19 +3390,19 @@
       <c r="F12" s="78"/>
       <c r="G12" s="78"/>
       <c r="H12" s="79"/>
-      <c r="I12" s="179" t="s">
+      <c r="I12" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="119"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="117"/>
-      <c r="N12" s="117"/>
-      <c r="O12" s="117"/>
-      <c r="P12" s="117"/>
-      <c r="Q12" s="117"/>
-      <c r="R12" s="117"/>
-      <c r="S12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="115"/>
+      <c r="O12" s="115"/>
+      <c r="P12" s="115"/>
+      <c r="Q12" s="115"/>
+      <c r="R12" s="115"/>
+      <c r="S12" s="115"/>
     </row>
     <row r="13" ht="19.9" customHeight="1" spans="2:19">
       <c r="B13" s="78"/>
@@ -3475,25 +3434,25 @@
       <c r="F14" s="81"/>
       <c r="G14" s="81"/>
       <c r="H14" s="81"/>
-      <c r="I14" s="121" t="s">
+      <c r="I14" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="122"/>
-      <c r="K14" s="123" t="s">
+      <c r="J14" s="120"/>
+      <c r="K14" s="121" t="s">
         <v>30</v>
       </c>
       <c r="L14" s="78"/>
-      <c r="M14" s="123" t="s">
+      <c r="M14" s="121" t="s">
         <v>31</v>
       </c>
       <c r="N14" s="78"/>
       <c r="O14" s="78"/>
       <c r="P14" s="79"/>
-      <c r="Q14" s="123" t="s">
+      <c r="Q14" s="121" t="s">
         <v>32</v>
       </c>
       <c r="R14" s="78"/>
-      <c r="S14" s="95"/>
+      <c r="S14" s="93"/>
     </row>
     <row r="15" ht="19.9" customHeight="1" spans="2:19">
       <c r="B15" s="80" t="s">
@@ -3505,25 +3464,25 @@
       <c r="F15" s="81"/>
       <c r="G15" s="81"/>
       <c r="H15" s="81"/>
-      <c r="I15" s="124" t="s">
+      <c r="I15" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="125"/>
-      <c r="K15" s="126" t="s">
+      <c r="J15" s="123"/>
+      <c r="K15" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="L15" s="127"/>
-      <c r="M15" s="128" t="s">
+      <c r="L15" s="125"/>
+      <c r="M15" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="N15" s="129"/>
-      <c r="O15" s="129"/>
-      <c r="P15" s="130"/>
-      <c r="Q15" s="168" t="s">
+      <c r="N15" s="127"/>
+      <c r="O15" s="127"/>
+      <c r="P15" s="128"/>
+      <c r="Q15" s="163" t="s">
         <v>37</v>
       </c>
-      <c r="R15" s="168"/>
-      <c r="S15" s="169"/>
+      <c r="R15" s="163"/>
+      <c r="S15" s="164"/>
     </row>
     <row r="16" ht="19.9" customHeight="1" spans="2:19">
       <c r="B16" s="82"/>
@@ -3559,25 +3518,25 @@
         <v>39</v>
       </c>
       <c r="J17" s="84"/>
-      <c r="K17" s="131" t="s">
+      <c r="K17" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="132" t="s">
+      <c r="L17" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="M17" s="133"/>
-      <c r="N17" s="134" t="s">
+      <c r="M17" s="131"/>
+      <c r="N17" s="132" t="s">
         <v>42</v>
       </c>
-      <c r="O17" s="135"/>
-      <c r="P17" s="134" t="s">
+      <c r="O17" s="133"/>
+      <c r="P17" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="Q17" s="135"/>
-      <c r="R17" s="132" t="s">
+      <c r="Q17" s="133"/>
+      <c r="R17" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="S17" s="170"/>
+      <c r="S17" s="165"/>
     </row>
     <row r="18" ht="19.9" customHeight="1" spans="2:19">
       <c r="B18" s="80"/>
@@ -3589,15 +3548,15 @@
       <c r="H18" s="81"/>
       <c r="I18" s="81"/>
       <c r="J18" s="81"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="138"/>
-      <c r="N18" s="139"/>
-      <c r="O18" s="140"/>
-      <c r="P18" s="139"/>
-      <c r="Q18" s="140"/>
-      <c r="R18" s="137"/>
-      <c r="S18" s="171"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="137"/>
+      <c r="O18" s="138"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="138"/>
+      <c r="R18" s="135"/>
+      <c r="S18" s="166"/>
     </row>
     <row r="19" ht="19.9" customHeight="1" spans="2:19">
       <c r="B19" s="85" t="s">
@@ -3609,29 +3568,29 @@
       <c r="F19" s="86"/>
       <c r="G19" s="86"/>
       <c r="H19" s="86"/>
-      <c r="I19" s="141" t="s">
+      <c r="I19" s="139" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="141"/>
-      <c r="K19" s="142" t="s">
+      <c r="J19" s="139"/>
+      <c r="K19" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="L19" s="132" t="s">
+      <c r="L19" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="M19" s="133"/>
-      <c r="N19" s="143" t="s">
+      <c r="M19" s="131"/>
+      <c r="N19" s="141" t="s">
         <v>49</v>
       </c>
-      <c r="O19" s="144"/>
-      <c r="P19" s="143" t="s">
+      <c r="O19" s="142"/>
+      <c r="P19" s="141" t="s">
         <v>50</v>
       </c>
-      <c r="Q19" s="144"/>
-      <c r="R19" s="172" t="s">
+      <c r="Q19" s="142"/>
+      <c r="R19" s="167" t="s">
         <v>51</v>
       </c>
-      <c r="S19" s="173"/>
+      <c r="S19" s="168"/>
     </row>
     <row r="20" ht="19.9" customHeight="1" spans="2:19">
       <c r="B20" s="87" t="s">
@@ -3643,172 +3602,172 @@
       <c r="F20" s="88"/>
       <c r="G20" s="88"/>
       <c r="H20" s="88"/>
-      <c r="I20" s="145" t="s">
+      <c r="I20" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="145"/>
-      <c r="K20" s="146" t="s">
+      <c r="J20" s="143"/>
+      <c r="K20" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="L20" s="147" t="s">
+      <c r="L20" s="145" t="s">
         <v>55</v>
       </c>
-      <c r="M20" s="148"/>
-      <c r="N20" s="143" t="s">
+      <c r="M20" s="146"/>
+      <c r="N20" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="O20" s="144"/>
-      <c r="P20" s="143" t="s">
+      <c r="O20" s="142"/>
+      <c r="P20" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="Q20" s="144"/>
-      <c r="R20" s="172" t="s">
+      <c r="Q20" s="142"/>
+      <c r="R20" s="167" t="s">
         <v>58</v>
       </c>
-      <c r="S20" s="173"/>
+      <c r="S20" s="168"/>
     </row>
     <row r="21" s="64" customFormat="1" ht="24" customHeight="1" spans="2:19">
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="149" t="s">
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="143" t="s">
         <v>60</v>
       </c>
-      <c r="J21" s="149"/>
-      <c r="K21" s="146" t="s">
+      <c r="J21" s="143"/>
+      <c r="K21" s="144" t="s">
         <v>61</v>
       </c>
-      <c r="L21" s="147" t="s">
+      <c r="L21" s="145" t="s">
         <v>62</v>
       </c>
-      <c r="M21" s="148"/>
-      <c r="N21" s="150" t="s">
+      <c r="M21" s="146"/>
+      <c r="N21" s="141" t="s">
         <v>63</v>
       </c>
-      <c r="O21" s="151"/>
-      <c r="P21" s="150" t="s">
+      <c r="O21" s="142"/>
+      <c r="P21" s="141" t="s">
         <v>64</v>
       </c>
-      <c r="Q21" s="151"/>
-      <c r="R21" s="174" t="s">
+      <c r="Q21" s="142"/>
+      <c r="R21" s="167" t="s">
         <v>65</v>
       </c>
-      <c r="S21" s="175"/>
+      <c r="S21" s="168"/>
     </row>
     <row r="22" ht="19.9" customHeight="1" spans="2:19">
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="153"/>
-      <c r="L22" s="154"/>
-      <c r="M22" s="155"/>
-      <c r="N22" s="143" t="s">
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="147"/>
+      <c r="K22" s="148"/>
+      <c r="L22" s="149"/>
+      <c r="M22" s="150"/>
+      <c r="N22" s="141" t="s">
         <v>67</v>
       </c>
-      <c r="O22" s="144"/>
-      <c r="P22" s="143" t="s">
+      <c r="O22" s="142"/>
+      <c r="P22" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="Q22" s="144"/>
-      <c r="R22" s="143" t="s">
+      <c r="Q22" s="142"/>
+      <c r="R22" s="141" t="s">
         <v>69</v>
       </c>
-      <c r="S22" s="144"/>
+      <c r="S22" s="142"/>
     </row>
     <row r="23" ht="19.9" customHeight="1" spans="2:19">
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="156" t="s">
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="151" t="s">
         <v>71</v>
       </c>
-      <c r="J23" s="157"/>
-      <c r="K23" s="157"/>
-      <c r="L23" s="157"/>
-      <c r="M23" s="157"/>
-      <c r="N23" s="157"/>
-      <c r="O23" s="157"/>
-      <c r="P23" s="157"/>
-      <c r="Q23" s="157"/>
-      <c r="R23" s="157"/>
-      <c r="S23" s="144"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="152"/>
+      <c r="N23" s="152"/>
+      <c r="O23" s="152"/>
+      <c r="P23" s="152"/>
+      <c r="Q23" s="152"/>
+      <c r="R23" s="152"/>
+      <c r="S23" s="142"/>
     </row>
     <row r="24" ht="19.9" customHeight="1" spans="2:19">
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="158"/>
-      <c r="J24" s="159"/>
-      <c r="K24" s="159"/>
-      <c r="L24" s="159"/>
-      <c r="M24" s="159"/>
-      <c r="N24" s="159"/>
-      <c r="O24" s="159"/>
-      <c r="P24" s="159"/>
-      <c r="Q24" s="159"/>
-      <c r="R24" s="159"/>
-      <c r="S24" s="176"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="153"/>
+      <c r="J24" s="154"/>
+      <c r="K24" s="154"/>
+      <c r="L24" s="154"/>
+      <c r="M24" s="154"/>
+      <c r="N24" s="154"/>
+      <c r="O24" s="154"/>
+      <c r="P24" s="154"/>
+      <c r="Q24" s="154"/>
+      <c r="R24" s="154"/>
+      <c r="S24" s="169"/>
     </row>
     <row r="25" ht="19.9" customHeight="1" spans="2:19">
-      <c r="B25" s="94"/>
+      <c r="B25" s="92"/>
       <c r="C25" s="78"/>
       <c r="D25" s="78"/>
       <c r="E25" s="78"/>
       <c r="F25" s="78"/>
       <c r="G25" s="78"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="96" t="s">
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="N25" s="96"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="96"/>
-      <c r="R25" s="96"/>
-      <c r="S25" s="96"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="94"/>
     </row>
     <row r="26" ht="19.9" customHeight="1" spans="2:19">
       <c r="B26" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="95"/>
+      <c r="C26" s="93"/>
       <c r="D26" s="77" t="s">
         <v>74</v>
       </c>
       <c r="E26" s="78"/>
-      <c r="F26" s="93" t="s">
+      <c r="F26" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="93"/>
-      <c r="H26" s="96"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="94"/>
       <c r="I26" s="74"/>
       <c r="J26" s="74"/>
       <c r="K26" s="74"/>
@@ -3816,348 +3775,348 @@
       <c r="M26" s="74"/>
       <c r="N26" s="74"/>
       <c r="O26" s="74"/>
-      <c r="P26" s="160" t="s">
+      <c r="P26" s="155" t="s">
         <v>76</v>
       </c>
-      <c r="Q26" s="133"/>
-      <c r="R26" s="132" t="s">
+      <c r="Q26" s="131"/>
+      <c r="R26" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="S26" s="170"/>
+      <c r="S26" s="165"/>
     </row>
     <row r="27" ht="19.9" customHeight="1" spans="2:19">
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="161"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="96"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="156"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
       <c r="M27" s="74"/>
       <c r="N27" s="74"/>
       <c r="O27" s="74"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="93"/>
-      <c r="R27" s="93"/>
-      <c r="S27" s="93"/>
+      <c r="P27" s="91"/>
+      <c r="Q27" s="91"/>
+      <c r="R27" s="91"/>
+      <c r="S27" s="91"/>
     </row>
     <row r="28" ht="19.9" customHeight="1" spans="2:31">
-      <c r="B28" s="93"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
-      <c r="P28" s="93"/>
-      <c r="Q28" s="93"/>
-      <c r="R28" s="93"/>
-      <c r="S28" s="93"/>
-      <c r="T28" s="104"/>
-      <c r="U28" s="104"/>
-      <c r="V28" s="104"/>
-      <c r="W28" s="104"/>
-      <c r="X28" s="104"/>
-      <c r="Y28" s="104"/>
-      <c r="Z28" s="104"/>
-      <c r="AA28" s="104"/>
-      <c r="AB28" s="104"/>
-      <c r="AC28" s="104"/>
-      <c r="AD28" s="104"/>
-      <c r="AE28" s="104"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
+      <c r="P28" s="91"/>
+      <c r="Q28" s="91"/>
+      <c r="R28" s="91"/>
+      <c r="S28" s="91"/>
+      <c r="T28" s="102"/>
+      <c r="U28" s="102"/>
+      <c r="V28" s="102"/>
+      <c r="W28" s="102"/>
+      <c r="X28" s="102"/>
+      <c r="Y28" s="102"/>
+      <c r="Z28" s="102"/>
+      <c r="AA28" s="102"/>
+      <c r="AB28" s="102"/>
+      <c r="AC28" s="102"/>
+      <c r="AD28" s="102"/>
+      <c r="AE28" s="102"/>
     </row>
     <row r="29" ht="19.9" customHeight="1" spans="2:31">
-      <c r="B29" s="93"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="93"/>
-      <c r="R29" s="93"/>
-      <c r="S29" s="93"/>
-      <c r="T29" s="104"/>
-      <c r="U29" s="104"/>
-      <c r="V29" s="104"/>
-      <c r="W29" s="104"/>
-      <c r="X29" s="104"/>
-      <c r="Y29" s="104"/>
-      <c r="Z29" s="104"/>
-      <c r="AA29" s="104"/>
-      <c r="AB29" s="104"/>
-      <c r="AC29" s="104"/>
-      <c r="AD29" s="104"/>
-      <c r="AE29" s="104"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="P29" s="91"/>
+      <c r="Q29" s="91"/>
+      <c r="R29" s="91"/>
+      <c r="S29" s="91"/>
+      <c r="T29" s="102"/>
+      <c r="U29" s="102"/>
+      <c r="V29" s="102"/>
+      <c r="W29" s="102"/>
+      <c r="X29" s="102"/>
+      <c r="Y29" s="102"/>
+      <c r="Z29" s="102"/>
+      <c r="AA29" s="102"/>
+      <c r="AB29" s="102"/>
+      <c r="AC29" s="102"/>
+      <c r="AD29" s="102"/>
+      <c r="AE29" s="102"/>
     </row>
     <row r="30" ht="19.9" customHeight="1" spans="2:31">
-      <c r="B30" s="98" t="s">
+      <c r="B30" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="98"/>
-      <c r="M30" s="98"/>
-      <c r="N30" s="98"/>
-      <c r="O30" s="98"/>
-      <c r="P30" s="98"/>
-      <c r="Q30" s="98"/>
-      <c r="R30" s="98"/>
-      <c r="T30" s="104"/>
-      <c r="U30" s="104"/>
-      <c r="V30" s="104"/>
-      <c r="W30" s="104"/>
-      <c r="X30" s="104"/>
-      <c r="Y30" s="104"/>
-      <c r="Z30" s="104"/>
-      <c r="AA30" s="104"/>
-      <c r="AB30" s="104"/>
-      <c r="AC30" s="104"/>
-      <c r="AD30" s="104"/>
-      <c r="AE30" s="104"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="96"/>
+      <c r="M30" s="96"/>
+      <c r="N30" s="96"/>
+      <c r="O30" s="96"/>
+      <c r="P30" s="96"/>
+      <c r="Q30" s="96"/>
+      <c r="R30" s="96"/>
+      <c r="T30" s="102"/>
+      <c r="U30" s="102"/>
+      <c r="V30" s="102"/>
+      <c r="W30" s="102"/>
+      <c r="X30" s="102"/>
+      <c r="Y30" s="102"/>
+      <c r="Z30" s="102"/>
+      <c r="AA30" s="102"/>
+      <c r="AB30" s="102"/>
+      <c r="AC30" s="102"/>
+      <c r="AD30" s="102"/>
+      <c r="AE30" s="102"/>
     </row>
     <row r="31" ht="19.9" customHeight="1" spans="2:31">
-      <c r="B31" s="98" t="s">
+      <c r="B31" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
-      <c r="L31" s="98"/>
-      <c r="M31" s="98"/>
-      <c r="N31" s="98"/>
-      <c r="O31" s="98"/>
-      <c r="P31" s="98"/>
-      <c r="Q31" s="98"/>
-      <c r="R31" s="98"/>
-      <c r="T31" s="104"/>
-      <c r="U31" s="104"/>
-      <c r="V31" s="104"/>
-      <c r="W31" s="104"/>
-      <c r="X31" s="104"/>
-      <c r="Y31" s="104"/>
-      <c r="Z31" s="104"/>
-      <c r="AA31" s="104"/>
-      <c r="AB31" s="104"/>
-      <c r="AC31" s="104"/>
-      <c r="AD31" s="104"/>
-      <c r="AE31" s="104"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="96"/>
+      <c r="K31" s="96"/>
+      <c r="L31" s="96"/>
+      <c r="M31" s="96"/>
+      <c r="N31" s="96"/>
+      <c r="O31" s="96"/>
+      <c r="P31" s="96"/>
+      <c r="Q31" s="96"/>
+      <c r="R31" s="96"/>
+      <c r="T31" s="102"/>
+      <c r="U31" s="102"/>
+      <c r="V31" s="102"/>
+      <c r="W31" s="102"/>
+      <c r="X31" s="102"/>
+      <c r="Y31" s="102"/>
+      <c r="Z31" s="102"/>
+      <c r="AA31" s="102"/>
+      <c r="AB31" s="102"/>
+      <c r="AC31" s="102"/>
+      <c r="AD31" s="102"/>
+      <c r="AE31" s="102"/>
     </row>
     <row r="32" ht="19.9" customHeight="1" spans="2:31">
-      <c r="B32" s="98" t="s">
+      <c r="B32" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="98"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="98"/>
-      <c r="M32" s="98"/>
-      <c r="N32" s="98"/>
-      <c r="O32" s="98"/>
-      <c r="P32" s="98"/>
-      <c r="Q32" s="98"/>
-      <c r="R32" s="98"/>
-      <c r="T32" s="104"/>
-      <c r="U32" s="104"/>
-      <c r="V32" s="104"/>
-      <c r="W32" s="104"/>
-      <c r="X32" s="104"/>
-      <c r="Y32" s="104"/>
-      <c r="Z32" s="104"/>
-      <c r="AA32" s="104"/>
-      <c r="AB32" s="104"/>
-      <c r="AC32" s="104"/>
-      <c r="AD32" s="104"/>
-      <c r="AE32" s="104"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="96"/>
+      <c r="K32" s="96"/>
+      <c r="L32" s="96"/>
+      <c r="M32" s="96"/>
+      <c r="N32" s="96"/>
+      <c r="O32" s="96"/>
+      <c r="P32" s="96"/>
+      <c r="Q32" s="96"/>
+      <c r="R32" s="96"/>
+      <c r="T32" s="102"/>
+      <c r="U32" s="102"/>
+      <c r="V32" s="102"/>
+      <c r="W32" s="102"/>
+      <c r="X32" s="102"/>
+      <c r="Y32" s="102"/>
+      <c r="Z32" s="102"/>
+      <c r="AA32" s="102"/>
+      <c r="AB32" s="102"/>
+      <c r="AC32" s="102"/>
+      <c r="AD32" s="102"/>
+      <c r="AE32" s="102"/>
     </row>
     <row r="33" ht="19.9" customHeight="1" spans="2:31">
       <c r="B33" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="K33" s="98"/>
-      <c r="L33" s="98"/>
-      <c r="M33" s="98"/>
-      <c r="N33" s="98"/>
-      <c r="O33" s="98"/>
-      <c r="P33" s="98"/>
-      <c r="Q33" s="98"/>
-      <c r="R33" s="98"/>
-      <c r="T33" s="177"/>
-      <c r="U33" s="104"/>
-      <c r="V33" s="104"/>
-      <c r="W33" s="104"/>
-      <c r="X33" s="104"/>
-      <c r="Y33" s="104"/>
-      <c r="Z33" s="104"/>
-      <c r="AA33" s="104"/>
-      <c r="AB33" s="104"/>
-      <c r="AC33" s="104"/>
-      <c r="AD33" s="104"/>
-      <c r="AE33" s="104"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="96"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="96"/>
+      <c r="O33" s="96"/>
+      <c r="P33" s="96"/>
+      <c r="Q33" s="96"/>
+      <c r="R33" s="96"/>
+      <c r="T33" s="170"/>
+      <c r="U33" s="102"/>
+      <c r="V33" s="102"/>
+      <c r="W33" s="102"/>
+      <c r="X33" s="102"/>
+      <c r="Y33" s="102"/>
+      <c r="Z33" s="102"/>
+      <c r="AA33" s="102"/>
+      <c r="AB33" s="102"/>
+      <c r="AC33" s="102"/>
+      <c r="AD33" s="102"/>
+      <c r="AE33" s="102"/>
     </row>
     <row r="34" ht="15.95" customHeight="1" spans="12:31">
-      <c r="L34" s="98"/>
-      <c r="M34" s="98"/>
-      <c r="N34" s="98"/>
-      <c r="O34" s="98"/>
-      <c r="P34" s="98"/>
-      <c r="Q34" s="98"/>
-      <c r="R34" s="98"/>
-      <c r="S34" s="98"/>
-      <c r="T34" s="177"/>
-      <c r="U34" s="104"/>
-      <c r="V34" s="104"/>
-      <c r="W34" s="104"/>
-      <c r="X34" s="104"/>
-      <c r="Y34" s="104"/>
-      <c r="Z34" s="104"/>
-      <c r="AA34" s="104"/>
-      <c r="AB34" s="104"/>
-      <c r="AC34" s="104"/>
-      <c r="AD34" s="104"/>
-      <c r="AE34" s="104"/>
+      <c r="L34" s="96"/>
+      <c r="M34" s="96"/>
+      <c r="N34" s="96"/>
+      <c r="O34" s="96"/>
+      <c r="P34" s="96"/>
+      <c r="Q34" s="96"/>
+      <c r="R34" s="96"/>
+      <c r="S34" s="96"/>
+      <c r="T34" s="170"/>
+      <c r="U34" s="102"/>
+      <c r="V34" s="102"/>
+      <c r="W34" s="102"/>
+      <c r="X34" s="102"/>
+      <c r="Y34" s="102"/>
+      <c r="Z34" s="102"/>
+      <c r="AA34" s="102"/>
+      <c r="AB34" s="102"/>
+      <c r="AC34" s="102"/>
+      <c r="AD34" s="102"/>
+      <c r="AE34" s="102"/>
     </row>
     <row r="35" ht="15.95" customHeight="1" spans="12:31">
-      <c r="L35" s="98"/>
-      <c r="M35" s="98"/>
-      <c r="N35" s="98"/>
-      <c r="O35" s="98"/>
-      <c r="P35" s="98"/>
-      <c r="Q35" s="98"/>
-      <c r="R35" s="98"/>
-      <c r="S35" s="98"/>
-      <c r="T35" s="177"/>
-      <c r="U35" s="104"/>
-      <c r="V35" s="104"/>
-      <c r="W35" s="104"/>
-      <c r="X35" s="104"/>
-      <c r="Y35" s="104"/>
-      <c r="Z35" s="104"/>
-      <c r="AA35" s="104"/>
-      <c r="AB35" s="104"/>
-      <c r="AC35" s="104"/>
-      <c r="AD35" s="104"/>
-      <c r="AE35" s="104"/>
+      <c r="L35" s="96"/>
+      <c r="M35" s="96"/>
+      <c r="N35" s="96"/>
+      <c r="O35" s="96"/>
+      <c r="P35" s="96"/>
+      <c r="Q35" s="96"/>
+      <c r="R35" s="96"/>
+      <c r="S35" s="96"/>
+      <c r="T35" s="170"/>
+      <c r="U35" s="102"/>
+      <c r="V35" s="102"/>
+      <c r="W35" s="102"/>
+      <c r="X35" s="102"/>
+      <c r="Y35" s="102"/>
+      <c r="Z35" s="102"/>
+      <c r="AA35" s="102"/>
+      <c r="AB35" s="102"/>
+      <c r="AC35" s="102"/>
+      <c r="AD35" s="102"/>
+      <c r="AE35" s="102"/>
     </row>
     <row r="36" ht="15.95" customHeight="1" spans="20:31">
-      <c r="T36" s="104"/>
-      <c r="U36" s="104"/>
-      <c r="V36" s="104"/>
-      <c r="W36" s="104"/>
-      <c r="X36" s="104"/>
-      <c r="Y36" s="104"/>
-      <c r="Z36" s="104"/>
-      <c r="AA36" s="104"/>
-      <c r="AB36" s="104"/>
-      <c r="AC36" s="104"/>
-      <c r="AD36" s="104"/>
-      <c r="AE36" s="104"/>
+      <c r="T36" s="102"/>
+      <c r="U36" s="102"/>
+      <c r="V36" s="102"/>
+      <c r="W36" s="102"/>
+      <c r="X36" s="102"/>
+      <c r="Y36" s="102"/>
+      <c r="Z36" s="102"/>
+      <c r="AA36" s="102"/>
+      <c r="AB36" s="102"/>
+      <c r="AC36" s="102"/>
+      <c r="AD36" s="102"/>
+      <c r="AE36" s="102"/>
     </row>
     <row r="37" ht="15.95" customHeight="1" spans="20:31">
-      <c r="T37" s="104"/>
-      <c r="U37" s="104"/>
-      <c r="V37" s="104"/>
-      <c r="W37" s="104"/>
-      <c r="X37" s="104"/>
-      <c r="Y37" s="104"/>
-      <c r="Z37" s="104"/>
-      <c r="AA37" s="104"/>
-      <c r="AB37" s="104"/>
-      <c r="AC37" s="104"/>
-      <c r="AD37" s="104"/>
-      <c r="AE37" s="104"/>
+      <c r="T37" s="102"/>
+      <c r="U37" s="102"/>
+      <c r="V37" s="102"/>
+      <c r="W37" s="102"/>
+      <c r="X37" s="102"/>
+      <c r="Y37" s="102"/>
+      <c r="Z37" s="102"/>
+      <c r="AA37" s="102"/>
+      <c r="AB37" s="102"/>
+      <c r="AC37" s="102"/>
+      <c r="AD37" s="102"/>
+      <c r="AE37" s="102"/>
     </row>
     <row r="38" ht="15.95" customHeight="1" spans="20:31">
-      <c r="T38" s="104"/>
-      <c r="U38" s="104"/>
-      <c r="V38" s="104"/>
-      <c r="W38" s="104"/>
-      <c r="X38" s="104"/>
-      <c r="Y38" s="104"/>
-      <c r="Z38" s="104"/>
-      <c r="AA38" s="104"/>
-      <c r="AB38" s="104"/>
-      <c r="AC38" s="104"/>
-      <c r="AD38" s="104"/>
-      <c r="AE38" s="104"/>
+      <c r="T38" s="102"/>
+      <c r="U38" s="102"/>
+      <c r="V38" s="102"/>
+      <c r="W38" s="102"/>
+      <c r="X38" s="102"/>
+      <c r="Y38" s="102"/>
+      <c r="Z38" s="102"/>
+      <c r="AA38" s="102"/>
+      <c r="AB38" s="102"/>
+      <c r="AC38" s="102"/>
+      <c r="AD38" s="102"/>
+      <c r="AE38" s="102"/>
     </row>
     <row r="39" ht="15.95" customHeight="1" spans="20:31">
-      <c r="T39" s="177"/>
-      <c r="U39" s="177"/>
-      <c r="V39" s="177"/>
-      <c r="W39" s="177"/>
-      <c r="X39" s="177"/>
-      <c r="Y39" s="177"/>
-      <c r="Z39" s="177"/>
-      <c r="AA39" s="177"/>
-      <c r="AB39" s="177"/>
-      <c r="AC39" s="177"/>
-      <c r="AD39" s="177"/>
-      <c r="AE39" s="177"/>
+      <c r="T39" s="170"/>
+      <c r="U39" s="170"/>
+      <c r="V39" s="170"/>
+      <c r="W39" s="170"/>
+      <c r="X39" s="170"/>
+      <c r="Y39" s="170"/>
+      <c r="Z39" s="170"/>
+      <c r="AA39" s="170"/>
+      <c r="AB39" s="170"/>
+      <c r="AC39" s="170"/>
+      <c r="AD39" s="170"/>
+      <c r="AE39" s="170"/>
     </row>
     <row r="40" ht="15.95" customHeight="1" spans="20:31">
-      <c r="T40" s="104"/>
-      <c r="U40" s="104"/>
-      <c r="V40" s="104"/>
-      <c r="W40" s="104"/>
-      <c r="X40" s="104"/>
-      <c r="Y40" s="104"/>
-      <c r="Z40" s="104"/>
-      <c r="AA40" s="104"/>
-      <c r="AB40" s="104"/>
-      <c r="AC40" s="104"/>
-      <c r="AD40" s="104"/>
-      <c r="AE40" s="104"/>
+      <c r="T40" s="102"/>
+      <c r="U40" s="102"/>
+      <c r="V40" s="102"/>
+      <c r="W40" s="102"/>
+      <c r="X40" s="102"/>
+      <c r="Y40" s="102"/>
+      <c r="Z40" s="102"/>
+      <c r="AA40" s="102"/>
+      <c r="AB40" s="102"/>
+      <c r="AC40" s="102"/>
+      <c r="AD40" s="102"/>
+      <c r="AE40" s="102"/>
     </row>
     <row r="41" ht="15.95" customHeight="1" spans="20:31">
-      <c r="T41" s="104"/>
-      <c r="U41" s="104"/>
-      <c r="V41" s="104"/>
-      <c r="W41" s="104"/>
-      <c r="X41" s="104"/>
-      <c r="Y41" s="104"/>
-      <c r="Z41" s="104"/>
-      <c r="AA41" s="104"/>
-      <c r="AB41" s="104"/>
-      <c r="AC41" s="104"/>
-      <c r="AD41" s="104"/>
-      <c r="AE41" s="104"/>
+      <c r="T41" s="102"/>
+      <c r="U41" s="102"/>
+      <c r="V41" s="102"/>
+      <c r="W41" s="102"/>
+      <c r="X41" s="102"/>
+      <c r="Y41" s="102"/>
+      <c r="Z41" s="102"/>
+      <c r="AA41" s="102"/>
+      <c r="AB41" s="102"/>
+      <c r="AC41" s="102"/>
+      <c r="AD41" s="102"/>
+      <c r="AE41" s="102"/>
     </row>
     <row r="42" ht="15.95" customHeight="1" spans="20:31">
-      <c r="T42" s="104"/>
-      <c r="U42" s="104"/>
-      <c r="V42" s="104"/>
-      <c r="W42" s="104"/>
-      <c r="X42" s="104"/>
-      <c r="Y42" s="104"/>
-      <c r="Z42" s="104"/>
-      <c r="AA42" s="104"/>
-      <c r="AB42" s="104"/>
-      <c r="AC42" s="104"/>
-      <c r="AD42" s="104"/>
-      <c r="AE42" s="104"/>
+      <c r="T42" s="102"/>
+      <c r="U42" s="102"/>
+      <c r="V42" s="102"/>
+      <c r="W42" s="102"/>
+      <c r="X42" s="102"/>
+      <c r="Y42" s="102"/>
+      <c r="Z42" s="102"/>
+      <c r="AA42" s="102"/>
+      <c r="AB42" s="102"/>
+      <c r="AC42" s="102"/>
+      <c r="AD42" s="102"/>
+      <c r="AE42" s="102"/>
     </row>
     <row r="43" ht="15.95" customHeight="1"/>
     <row r="44" ht="15.95" customHeight="1"/>
